--- a/PTBR/Lang/PTBR/Game/Stat.xlsx
+++ b/PTBR/Lang/PTBR/Game/Stat.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isy\Documents\GitHub\elin-portugues-brasileiro\PTBR\Lang\PTBR\Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8057D6E7-8A63-412B-8E88-6AD8B3D7345C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AE948CA-D941-45CC-B211-CFBA69A1B1AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1219" uniqueCount="980">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1219" uniqueCount="982">
   <si>
     <t>id</t>
   </si>
@@ -3002,6 +3002,12 @@
   </si>
   <si>
     <t xml:space="preserve">#1 termina de recarregar.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">#1 não tem mais cheiro.  </t>
+  </si>
+  <si>
+    <t>#1 são/estão perdoados.</t>
   </si>
 </sst>
 </file>
@@ -3385,8 +3391,8 @@
   <dimension ref="A1:T81"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R62" sqref="R62:R63"/>
+      <pane ySplit="2" topLeftCell="A64" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R76" sqref="R76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4434,7 +4440,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>201</v>
       </c>
@@ -6962,7 +6968,7 @@
         <v>628</v>
       </c>
       <c r="R75" t="s">
-        <v>461</v>
+        <v>981</v>
       </c>
       <c r="S75" t="s">
         <v>461</v>
@@ -7041,7 +7047,7 @@
         <v>640</v>
       </c>
       <c r="R77" t="s">
-        <v>641</v>
+        <v>980</v>
       </c>
       <c r="S77" t="s">
         <v>641</v>
@@ -7085,7 +7091,7 @@
         <v>649</v>
       </c>
       <c r="R78" t="s">
-        <v>641</v>
+        <v>980</v>
       </c>
       <c r="S78" t="s">
         <v>641</v>
@@ -7129,7 +7135,7 @@
         <v>649</v>
       </c>
       <c r="R79" t="s">
-        <v>641</v>
+        <v>980</v>
       </c>
       <c r="S79" t="s">
         <v>641</v>
@@ -7173,7 +7179,7 @@
         <v>661</v>
       </c>
       <c r="R80" t="s">
-        <v>641</v>
+        <v>980</v>
       </c>
       <c r="S80" t="s">
         <v>641</v>
@@ -7217,7 +7223,7 @@
         <v>668</v>
       </c>
       <c r="R81" t="s">
-        <v>641</v>
+        <v>980</v>
       </c>
       <c r="S81" t="s">
         <v>641</v>

--- a/PTBR/Lang/PTBR/Game/Stat.xlsx
+++ b/PTBR/Lang/PTBR/Game/Stat.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Files (x86)\Steam\steamapps\common\Elin\Package\PTBR\Lang\PTBR\Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1202B41E-50E9-427D-905D-6686702D5F6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C920662-1143-4C36-9F2C-479D44605D46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1515" yWindow="1350" windowWidth="11025" windowHeight="13890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="510" yWindow="540" windowWidth="20400" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Stat" sheetId="1" r:id="rId1"/>
@@ -2297,9 +2297,6 @@
     <t>Comida</t>
   </si>
   <si>
-    <t>Carga</t>
-  </si>
-  <si>
     <t>Vigor</t>
   </si>
   <si>
@@ -2989,9 +2986,6 @@
     <t>EA 23.113</t>
   </si>
   <si>
-    <t>元素保护</t>
-  </si>
-  <si>
     <t>Blessing that grants resistance to the three elements.</t>
   </si>
   <si>
@@ -3004,9 +2998,6 @@
     <t>#1的元素之衣消失了。</t>
   </si>
   <si>
-    <t>昂扬</t>
-  </si>
-  <si>
     <t>Blessing that boosts morale.</t>
   </si>
   <si>
@@ -3104,6 +3095,15 @@
   </si>
   <si>
     <t>Maldição que enfraquece resistências por meio de pesadelos.</t>
+  </si>
+  <si>
+    <t>Pesado</t>
+  </si>
+  <si>
+    <t>Escudo Elemental</t>
+  </si>
+  <si>
+    <t>Eufórico</t>
   </si>
 </sst>
 </file>
@@ -3486,9 +3486,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T83"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B65" sqref="B65"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3499,7 +3499,8 @@
     <col min="6" max="6" width="125.28515625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="7" max="7" width="118.28515625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="8" max="8" width="89.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="10" width="45.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="66" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="45.5703125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="11" max="11" width="35.7109375" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="12" max="12" width="168.28515625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="13" max="13" width="56.42578125" customWidth="1" collapsed="1"/>
@@ -3590,7 +3591,7 @@
         <v>556</v>
       </c>
       <c r="F3" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="G3" t="s">
         <v>557</v>
@@ -3599,7 +3600,7 @@
         <v>558</v>
       </c>
       <c r="I3" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="J3" t="s">
         <v>559</v>
@@ -3608,7 +3609,7 @@
         <v>560</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="M3" t="s">
         <v>561</v>
@@ -3617,7 +3618,7 @@
         <v>562</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="P3" t="s">
         <v>563</v>
@@ -3634,7 +3635,7 @@
         <v>671</v>
       </c>
       <c r="C4" t="s">
-        <v>748</v>
+        <v>1011</v>
       </c>
       <c r="D4" t="s">
         <v>566</v>
@@ -3643,7 +3644,7 @@
         <v>567</v>
       </c>
       <c r="F4" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="G4" t="s">
         <v>568</v>
@@ -3652,7 +3653,7 @@
         <v>569</v>
       </c>
       <c r="I4" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="J4" t="s">
         <v>570</v>
@@ -3669,7 +3670,7 @@
         <v>675</v>
       </c>
       <c r="C5" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="D5" t="s">
         <v>594</v>
@@ -3678,7 +3679,7 @@
         <v>595</v>
       </c>
       <c r="I5" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="J5" t="s">
         <v>619</v>
@@ -3704,7 +3705,7 @@
         <v>471</v>
       </c>
       <c r="F6" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="G6" t="s">
         <v>472</v>
@@ -3713,7 +3714,7 @@
         <v>473</v>
       </c>
       <c r="I6" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="J6" t="s">
         <v>474</v>
@@ -3722,7 +3723,7 @@
         <v>475</v>
       </c>
       <c r="L6" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="M6" t="s">
         <v>476</v>
@@ -3731,7 +3732,7 @@
         <v>477</v>
       </c>
       <c r="R6" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="S6" t="s">
         <v>478</v>
@@ -3757,7 +3758,7 @@
         <v>573</v>
       </c>
       <c r="F7" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="G7" t="s">
         <v>574</v>
@@ -3792,7 +3793,7 @@
         <v>102</v>
       </c>
       <c r="F8" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="G8" t="s">
         <v>103</v>
@@ -3801,7 +3802,7 @@
         <v>104</v>
       </c>
       <c r="I8" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="J8" t="s">
         <v>105</v>
@@ -3810,7 +3811,7 @@
         <v>102</v>
       </c>
       <c r="L8" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="M8" t="s">
         <v>106</v>
@@ -3819,7 +3820,7 @@
         <v>107</v>
       </c>
       <c r="R8" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="S8" t="s">
         <v>108</v>
@@ -3845,7 +3846,7 @@
         <v>132</v>
       </c>
       <c r="F9" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="G9" t="s">
         <v>113</v>
@@ -3854,7 +3855,7 @@
         <v>114</v>
       </c>
       <c r="I9" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="J9" t="s">
         <v>133</v>
@@ -3863,7 +3864,7 @@
         <v>132</v>
       </c>
       <c r="L9" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="M9" t="s">
         <v>134</v>
@@ -3872,7 +3873,7 @@
         <v>135</v>
       </c>
       <c r="R9" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="S9" t="s">
         <v>136</v>
@@ -3898,7 +3899,7 @@
         <v>60</v>
       </c>
       <c r="F10" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="G10" t="s">
         <v>61</v>
@@ -3907,7 +3908,7 @@
         <v>62</v>
       </c>
       <c r="I10" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="J10" t="s">
         <v>63</v>
@@ -3916,7 +3917,7 @@
         <v>64</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="M10" t="s">
         <v>65</v>
@@ -3925,7 +3926,7 @@
         <v>66</v>
       </c>
       <c r="O10" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="P10" t="s">
         <v>67</v>
@@ -3934,7 +3935,7 @@
         <v>68</v>
       </c>
       <c r="R10" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="S10" t="s">
         <v>69</v>
@@ -3960,7 +3961,7 @@
         <v>505</v>
       </c>
       <c r="F11" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="G11" t="s">
         <v>506</v>
@@ -3978,7 +3979,7 @@
         <v>505</v>
       </c>
       <c r="L11" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="M11" t="s">
         <v>508</v>
@@ -3987,7 +3988,7 @@
         <v>509</v>
       </c>
       <c r="R11" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="S11" t="s">
         <v>510</v>
@@ -4013,7 +4014,7 @@
         <v>73</v>
       </c>
       <c r="F12" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="G12" t="s">
         <v>74</v>
@@ -4022,7 +4023,7 @@
         <v>75</v>
       </c>
       <c r="I12" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="J12" t="s">
         <v>76</v>
@@ -4031,7 +4032,7 @@
         <v>77</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="M12" t="s">
         <v>78</v>
@@ -4040,7 +4041,7 @@
         <v>79</v>
       </c>
       <c r="O12" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="P12" t="s">
         <v>80</v>
@@ -4066,7 +4067,7 @@
         <v>84</v>
       </c>
       <c r="F13" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="G13" t="s">
         <v>85</v>
@@ -4075,7 +4076,7 @@
         <v>86</v>
       </c>
       <c r="I13" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="J13" t="s">
         <v>83</v>
@@ -4084,7 +4085,7 @@
         <v>84</v>
       </c>
       <c r="L13" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="M13" t="s">
         <v>87</v>
@@ -4093,7 +4094,7 @@
         <v>88</v>
       </c>
       <c r="R13" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="S13" t="s">
         <v>89</v>
@@ -4119,7 +4120,7 @@
         <v>93</v>
       </c>
       <c r="F14" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="G14" t="s">
         <v>94</v>
@@ -4137,7 +4138,7 @@
         <v>93</v>
       </c>
       <c r="L14" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="M14" t="s">
         <v>96</v>
@@ -4146,7 +4147,7 @@
         <v>97</v>
       </c>
       <c r="R14" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="S14" t="s">
         <v>98</v>
@@ -4172,7 +4173,7 @@
         <v>293</v>
       </c>
       <c r="F15" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="G15" t="s">
         <v>294</v>
@@ -4181,7 +4182,7 @@
         <v>295</v>
       </c>
       <c r="I15" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="J15" t="s">
         <v>296</v>
@@ -4190,7 +4191,7 @@
         <v>297</v>
       </c>
       <c r="L15" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="M15" t="s">
         <v>298</v>
@@ -4199,7 +4200,7 @@
         <v>299</v>
       </c>
       <c r="R15" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="S15" t="s">
         <v>300</v>
@@ -4225,7 +4226,7 @@
         <v>112</v>
       </c>
       <c r="F16" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="G16" t="s">
         <v>113</v>
@@ -4234,7 +4235,7 @@
         <v>114</v>
       </c>
       <c r="I16" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="J16" t="s">
         <v>115</v>
@@ -4243,7 +4244,7 @@
         <v>112</v>
       </c>
       <c r="L16" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="M16" t="s">
         <v>116</v>
@@ -4252,7 +4253,7 @@
         <v>117</v>
       </c>
       <c r="R16" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="S16" t="s">
         <v>118</v>
@@ -4269,7 +4270,7 @@
         <v>675</v>
       </c>
       <c r="C17" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="D17" t="s">
         <v>578</v>
@@ -4278,7 +4279,7 @@
         <v>579</v>
       </c>
       <c r="F17" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="G17" t="s">
         <v>580</v>
@@ -4287,7 +4288,7 @@
         <v>581</v>
       </c>
       <c r="I17" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="J17" t="s">
         <v>582</v>
@@ -4313,7 +4314,7 @@
         <v>304</v>
       </c>
       <c r="F18" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="G18" t="s">
         <v>305</v>
@@ -4331,7 +4332,7 @@
         <v>304</v>
       </c>
       <c r="L18" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="M18" t="s">
         <v>307</v>
@@ -4340,7 +4341,7 @@
         <v>308</v>
       </c>
       <c r="R18" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="S18" t="s">
         <v>309</v>
@@ -4392,7 +4393,7 @@
         <v>140</v>
       </c>
       <c r="F20" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="G20" t="s">
         <v>141</v>
@@ -4401,7 +4402,7 @@
         <v>142</v>
       </c>
       <c r="I20" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="J20" t="s">
         <v>143</v>
@@ -4410,7 +4411,7 @@
         <v>140</v>
       </c>
       <c r="L20" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="M20" t="s">
         <v>144</v>
@@ -4419,7 +4420,7 @@
         <v>145</v>
       </c>
       <c r="R20" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="S20" t="s">
         <v>146</v>
@@ -4445,7 +4446,7 @@
         <v>150</v>
       </c>
       <c r="F21" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="G21" t="s">
         <v>151</v>
@@ -4454,7 +4455,7 @@
         <v>152</v>
       </c>
       <c r="I21" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="J21" t="s">
         <v>149</v>
@@ -4463,7 +4464,7 @@
         <v>150</v>
       </c>
       <c r="L21" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="M21" t="s">
         <v>153</v>
@@ -4472,7 +4473,7 @@
         <v>154</v>
       </c>
       <c r="R21" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="S21" t="s">
         <v>155</v>
@@ -4489,7 +4490,7 @@
         <v>689</v>
       </c>
       <c r="C22" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="D22" t="s">
         <v>629</v>
@@ -4498,7 +4499,7 @@
         <v>630</v>
       </c>
       <c r="F22" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="G22" t="s">
         <v>631</v>
@@ -4507,7 +4508,7 @@
         <v>632</v>
       </c>
       <c r="I22" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="J22" t="s">
         <v>629</v>
@@ -4533,7 +4534,7 @@
         <v>159</v>
       </c>
       <c r="F23" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="G23" t="s">
         <v>160</v>
@@ -4542,7 +4543,7 @@
         <v>161</v>
       </c>
       <c r="I23" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="J23" t="s">
         <v>162</v>
@@ -4551,7 +4552,7 @@
         <v>163</v>
       </c>
       <c r="L23" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="M23" t="s">
         <v>164</v>
@@ -4560,7 +4561,7 @@
         <v>165</v>
       </c>
       <c r="R23" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="S23" t="s">
         <v>166</v>
@@ -4586,7 +4587,7 @@
         <v>514</v>
       </c>
       <c r="F24" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="G24" t="s">
         <v>515</v>
@@ -4595,7 +4596,7 @@
         <v>516</v>
       </c>
       <c r="I24" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="J24" t="s">
         <v>517</v>
@@ -4604,7 +4605,7 @@
         <v>518</v>
       </c>
       <c r="L24" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="M24" t="s">
         <v>519</v>
@@ -4613,7 +4614,7 @@
         <v>520</v>
       </c>
       <c r="R24" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="S24" t="s">
         <v>521</v>
@@ -4639,7 +4640,7 @@
         <v>482</v>
       </c>
       <c r="F25" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="G25" t="s">
         <v>483</v>
@@ -4648,7 +4649,7 @@
         <v>484</v>
       </c>
       <c r="I25" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="J25" t="s">
         <v>485</v>
@@ -4657,7 +4658,7 @@
         <v>486</v>
       </c>
       <c r="L25" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="M25" t="s">
         <v>487</v>
@@ -4666,7 +4667,7 @@
         <v>488</v>
       </c>
       <c r="R25" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="S25" t="s">
         <v>489</v>
@@ -4692,7 +4693,7 @@
         <v>170</v>
       </c>
       <c r="F26" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="G26" t="s">
         <v>171</v>
@@ -4701,7 +4702,7 @@
         <v>172</v>
       </c>
       <c r="I26" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="J26" t="s">
         <v>173</v>
@@ -4710,7 +4711,7 @@
         <v>174</v>
       </c>
       <c r="L26" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="M26" t="s">
         <v>175</v>
@@ -4719,7 +4720,7 @@
         <v>176</v>
       </c>
       <c r="R26" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="S26" t="s">
         <v>177</v>
@@ -4745,7 +4746,7 @@
         <v>181</v>
       </c>
       <c r="F27" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="G27" t="s">
         <v>182</v>
@@ -4754,7 +4755,7 @@
         <v>183</v>
       </c>
       <c r="I27" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="J27" t="s">
         <v>184</v>
@@ -4763,7 +4764,7 @@
         <v>185</v>
       </c>
       <c r="L27" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="M27" t="s">
         <v>186</v>
@@ -4772,7 +4773,7 @@
         <v>187</v>
       </c>
       <c r="R27" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="S27" t="s">
         <v>188</v>
@@ -4798,7 +4799,7 @@
         <v>102</v>
       </c>
       <c r="F28" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="G28" t="s">
         <v>585</v>
@@ -4807,7 +4808,7 @@
         <v>586</v>
       </c>
       <c r="I28" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="J28" t="s">
         <v>587</v>
@@ -4816,7 +4817,7 @@
         <v>588</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="M28" t="s">
         <v>589</v>
@@ -4825,7 +4826,7 @@
         <v>590</v>
       </c>
       <c r="O28" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="P28" t="s">
         <v>591</v>
@@ -4851,7 +4852,7 @@
         <v>525</v>
       </c>
       <c r="F29" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="G29" t="s">
         <v>526</v>
@@ -4860,7 +4861,7 @@
         <v>527</v>
       </c>
       <c r="I29" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="J29" t="s">
         <v>528</v>
@@ -4886,7 +4887,7 @@
         <v>493</v>
       </c>
       <c r="F30" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="G30" t="s">
         <v>494</v>
@@ -4904,7 +4905,7 @@
         <v>493</v>
       </c>
       <c r="L30" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="M30" t="s">
         <v>496</v>
@@ -4913,7 +4914,7 @@
         <v>497</v>
       </c>
       <c r="R30" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="S30" t="s">
         <v>498</v>
@@ -4939,7 +4940,7 @@
         <v>320</v>
       </c>
       <c r="F31" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="G31" t="s">
         <v>321</v>
@@ -4948,7 +4949,7 @@
         <v>322</v>
       </c>
       <c r="I31" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="J31" t="s">
         <v>323</v>
@@ -4957,7 +4958,7 @@
         <v>320</v>
       </c>
       <c r="L31" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="M31" t="s">
         <v>324</v>
@@ -4966,7 +4967,7 @@
         <v>325</v>
       </c>
       <c r="R31" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="S31" t="s">
         <v>326</v>
@@ -4992,7 +4993,7 @@
         <v>356</v>
       </c>
       <c r="F32" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="G32" t="s">
         <v>357</v>
@@ -5010,7 +5011,7 @@
         <v>356</v>
       </c>
       <c r="L32" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="M32" t="s">
         <v>360</v>
@@ -5019,7 +5020,7 @@
         <v>361</v>
       </c>
       <c r="R32" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="S32" t="s">
         <v>362</v>
@@ -5045,7 +5046,7 @@
         <v>425</v>
       </c>
       <c r="F33" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="G33" t="s">
         <v>426</v>
@@ -5063,7 +5064,7 @@
         <v>425</v>
       </c>
       <c r="L33" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="M33" t="s">
         <v>428</v>
@@ -5072,7 +5073,7 @@
         <v>429</v>
       </c>
       <c r="R33" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="S33" t="s">
         <v>430</v>
@@ -5089,7 +5090,7 @@
         <v>688</v>
       </c>
       <c r="C34" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="D34" t="s">
         <v>622</v>
@@ -5098,7 +5099,7 @@
         <v>623</v>
       </c>
       <c r="F34" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="G34" t="s">
         <v>624</v>
@@ -5107,7 +5108,7 @@
         <v>625</v>
       </c>
       <c r="I34" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="J34" t="s">
         <v>622</v>
@@ -5116,7 +5117,7 @@
         <v>623</v>
       </c>
       <c r="L34" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="M34" t="s">
         <v>626</v>
@@ -5125,7 +5126,7 @@
         <v>627</v>
       </c>
       <c r="R34" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="S34" t="s">
         <v>460</v>
@@ -5151,7 +5152,7 @@
         <v>536</v>
       </c>
       <c r="F35" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="G35" t="s">
         <v>537</v>
@@ -5169,7 +5170,7 @@
         <v>536</v>
       </c>
       <c r="L35" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="M35" t="s">
         <v>539</v>
@@ -5178,7 +5179,7 @@
         <v>540</v>
       </c>
       <c r="R35" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="S35" t="s">
         <v>541</v>
@@ -5204,7 +5205,7 @@
         <v>434</v>
       </c>
       <c r="F36" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="G36" t="s">
         <v>435</v>
@@ -5222,7 +5223,7 @@
         <v>434</v>
       </c>
       <c r="L36" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="M36" t="s">
         <v>437</v>
@@ -5248,7 +5249,7 @@
         <v>366</v>
       </c>
       <c r="F37" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="G37" t="s">
         <v>367</v>
@@ -5266,7 +5267,7 @@
         <v>366</v>
       </c>
       <c r="L37" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="M37" t="s">
         <v>369</v>
@@ -5275,7 +5276,7 @@
         <v>370</v>
       </c>
       <c r="R37" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="S37" t="s">
         <v>309</v>
@@ -5301,7 +5302,7 @@
         <v>373</v>
       </c>
       <c r="F38" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="G38" t="s">
         <v>374</v>
@@ -5319,7 +5320,7 @@
         <v>373</v>
       </c>
       <c r="L38" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="M38" t="s">
         <v>376</v>
@@ -5328,7 +5329,7 @@
         <v>377</v>
       </c>
       <c r="R38" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="S38" t="s">
         <v>378</v>
@@ -5345,7 +5346,7 @@
         <v>671</v>
       </c>
       <c r="C39" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="D39" t="s">
         <v>594</v>
@@ -5354,7 +5355,7 @@
         <v>595</v>
       </c>
       <c r="I39" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="J39" t="s">
         <v>596</v>
@@ -5380,7 +5381,7 @@
         <v>418</v>
       </c>
       <c r="F40" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G40" t="s">
         <v>419</v>
@@ -5398,7 +5399,7 @@
         <v>418</v>
       </c>
       <c r="L40" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="M40" t="s">
         <v>421</v>
@@ -5424,7 +5425,7 @@
         <v>214</v>
       </c>
       <c r="F41" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="G41" t="s">
         <v>215</v>
@@ -5442,7 +5443,7 @@
         <v>214</v>
       </c>
       <c r="L41" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="M41" t="s">
         <v>217</v>
@@ -5451,7 +5452,7 @@
         <v>218</v>
       </c>
       <c r="R41" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="S41" t="s">
         <v>219</v>
@@ -5477,7 +5478,7 @@
         <v>382</v>
       </c>
       <c r="F42" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="G42" t="s">
         <v>383</v>
@@ -5495,7 +5496,7 @@
         <v>382</v>
       </c>
       <c r="L42" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="M42" t="s">
         <v>385</v>
@@ -5521,7 +5522,7 @@
         <v>545</v>
       </c>
       <c r="F43" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="G43" t="s">
         <v>546</v>
@@ -5530,7 +5531,7 @@
         <v>547</v>
       </c>
       <c r="I43" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="J43" t="s">
         <v>548</v>
@@ -5539,7 +5540,7 @@
         <v>549</v>
       </c>
       <c r="L43" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="M43" t="s">
         <v>550</v>
@@ -5548,7 +5549,7 @@
         <v>551</v>
       </c>
       <c r="R43" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="S43" t="s">
         <v>552</v>
@@ -5574,7 +5575,7 @@
         <v>203</v>
       </c>
       <c r="F44" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="G44" t="s">
         <v>204</v>
@@ -5583,7 +5584,7 @@
         <v>205</v>
       </c>
       <c r="I44" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="J44" t="s">
         <v>206</v>
@@ -5592,7 +5593,7 @@
         <v>207</v>
       </c>
       <c r="L44" s="2" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="M44" t="s">
         <v>208</v>
@@ -5601,7 +5602,7 @@
         <v>209</v>
       </c>
       <c r="R44" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="S44" t="s">
         <v>210</v>
@@ -5627,7 +5628,7 @@
         <v>22</v>
       </c>
       <c r="F45" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="G45" t="s">
         <v>23</v>
@@ -5645,7 +5646,7 @@
         <v>26</v>
       </c>
       <c r="L45" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="M45" t="s">
         <v>27</v>
@@ -5654,7 +5655,7 @@
         <v>28</v>
       </c>
       <c r="R45" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="S45" t="s">
         <v>29</v>
@@ -5680,7 +5681,7 @@
         <v>248</v>
       </c>
       <c r="F46" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="G46" t="s">
         <v>249</v>
@@ -5698,7 +5699,7 @@
         <v>248</v>
       </c>
       <c r="L46" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="M46" t="s">
         <v>251</v>
@@ -5707,7 +5708,7 @@
         <v>252</v>
       </c>
       <c r="R46" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="S46" t="s">
         <v>253</v>
@@ -5733,7 +5734,7 @@
         <v>441</v>
       </c>
       <c r="F47" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="G47" t="s">
         <v>442</v>
@@ -5751,7 +5752,7 @@
         <v>441</v>
       </c>
       <c r="L47" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="M47" t="s">
         <v>444</v>
@@ -5777,7 +5778,7 @@
         <v>464</v>
       </c>
       <c r="F48" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="G48" t="s">
         <v>465</v>
@@ -5795,7 +5796,7 @@
         <v>464</v>
       </c>
       <c r="L48" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="M48" t="s">
         <v>467</v>
@@ -5809,28 +5810,28 @@
         <v>311</v>
       </c>
       <c r="B49" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="C49" t="s">
-        <v>1006</v>
+        <v>1003</v>
       </c>
       <c r="D49" t="s">
-        <v>1006</v>
+        <v>1003</v>
       </c>
       <c r="E49" t="s">
         <v>313</v>
       </c>
       <c r="F49" t="s">
-        <v>1010</v>
+        <v>1007</v>
       </c>
       <c r="G49" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="H49" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="I49" t="s">
-        <v>975</v>
+        <v>1012</v>
       </c>
       <c r="J49" t="s">
         <v>312</v>
@@ -5839,7 +5840,7 @@
         <v>313</v>
       </c>
       <c r="L49" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="M49" t="s">
         <v>314</v>
@@ -5848,7 +5849,7 @@
         <v>315</v>
       </c>
       <c r="R49" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="S49" t="s">
         <v>316</v>
@@ -5865,7 +5866,7 @@
         <v>671</v>
       </c>
       <c r="C50" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="D50" t="s">
         <v>599</v>
@@ -5874,7 +5875,7 @@
         <v>600</v>
       </c>
       <c r="I50" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="J50" t="s">
         <v>601</v>
@@ -5900,7 +5901,7 @@
         <v>257</v>
       </c>
       <c r="F51" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="G51" t="s">
         <v>258</v>
@@ -5918,7 +5919,7 @@
         <v>257</v>
       </c>
       <c r="L51" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="M51" t="s">
         <v>260</v>
@@ -5927,7 +5928,7 @@
         <v>261</v>
       </c>
       <c r="R51" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="S51" t="s">
         <v>262</v>
@@ -5953,7 +5954,7 @@
         <v>266</v>
       </c>
       <c r="F52" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="G52" t="s">
         <v>267</v>
@@ -5971,7 +5972,7 @@
         <v>266</v>
       </c>
       <c r="L52" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="M52" t="s">
         <v>269</v>
@@ -5980,7 +5981,7 @@
         <v>270</v>
       </c>
       <c r="R52" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="S52" t="s">
         <v>271</v>
@@ -6006,7 +6007,7 @@
         <v>275</v>
       </c>
       <c r="F53" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="G53" t="s">
         <v>276</v>
@@ -6024,7 +6025,7 @@
         <v>275</v>
       </c>
       <c r="L53" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="M53" t="s">
         <v>278</v>
@@ -6033,7 +6034,7 @@
         <v>279</v>
       </c>
       <c r="R53" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="S53" t="s">
         <v>280</v>
@@ -6059,7 +6060,7 @@
         <v>284</v>
       </c>
       <c r="F54" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="G54" t="s">
         <v>285</v>
@@ -6077,7 +6078,7 @@
         <v>284</v>
       </c>
       <c r="L54" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="M54" t="s">
         <v>287</v>
@@ -6086,7 +6087,7 @@
         <v>288</v>
       </c>
       <c r="R54" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="S54" t="s">
         <v>289</v>
@@ -6112,7 +6113,7 @@
         <v>223</v>
       </c>
       <c r="F55" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="G55" t="s">
         <v>224</v>
@@ -6121,7 +6122,7 @@
         <v>225</v>
       </c>
       <c r="I55" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="J55" t="s">
         <v>222</v>
@@ -6130,7 +6131,7 @@
         <v>223</v>
       </c>
       <c r="L55" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="M55" t="s">
         <v>226</v>
@@ -6156,7 +6157,7 @@
         <v>448</v>
       </c>
       <c r="F56" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="G56" t="s">
         <v>449</v>
@@ -6174,7 +6175,7 @@
         <v>448</v>
       </c>
       <c r="L56" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="M56" t="s">
         <v>451</v>
@@ -6200,7 +6201,7 @@
         <v>192</v>
       </c>
       <c r="F57" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="G57" t="s">
         <v>193</v>
@@ -6209,7 +6210,7 @@
         <v>194</v>
       </c>
       <c r="I57" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="J57" t="s">
         <v>195</v>
@@ -6218,7 +6219,7 @@
         <v>196</v>
       </c>
       <c r="L57" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="M57" t="s">
         <v>197</v>
@@ -6227,7 +6228,7 @@
         <v>198</v>
       </c>
       <c r="R57" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="S57" t="s">
         <v>199</v>
@@ -6253,7 +6254,7 @@
         <v>399</v>
       </c>
       <c r="F58" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="G58" t="s">
         <v>400</v>
@@ -6271,7 +6272,7 @@
         <v>399</v>
       </c>
       <c r="L58" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="M58" t="s">
         <v>402</v>
@@ -6280,7 +6281,7 @@
         <v>403</v>
       </c>
       <c r="R58" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="S58" t="s">
         <v>404</v>
@@ -6306,7 +6307,7 @@
         <v>455</v>
       </c>
       <c r="F59" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="G59" t="s">
         <v>456</v>
@@ -6324,7 +6325,7 @@
         <v>455</v>
       </c>
       <c r="L59" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="M59" t="s">
         <v>458</v>
@@ -6333,7 +6334,7 @@
         <v>459</v>
       </c>
       <c r="R59" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="S59" t="s">
         <v>460</v>
@@ -6359,7 +6360,7 @@
         <v>408</v>
       </c>
       <c r="F60" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="G60" t="s">
         <v>409</v>
@@ -6377,7 +6378,7 @@
         <v>408</v>
       </c>
       <c r="L60" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="M60" t="s">
         <v>411</v>
@@ -6386,7 +6387,7 @@
         <v>412</v>
       </c>
       <c r="R60" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="S60" t="s">
         <v>404</v>
@@ -6403,7 +6404,7 @@
         <v>671</v>
       </c>
       <c r="C61" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="D61" t="s">
         <v>604</v>
@@ -6412,7 +6413,7 @@
         <v>605</v>
       </c>
       <c r="F61" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="G61" t="s">
         <v>606</v>
@@ -6421,7 +6422,7 @@
         <v>607</v>
       </c>
       <c r="I61" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="J61" t="s">
         <v>608</v>
@@ -6447,7 +6448,7 @@
         <v>415</v>
       </c>
       <c r="F62" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="G62" t="s">
         <v>409</v>
@@ -6465,7 +6466,7 @@
         <v>415</v>
       </c>
       <c r="L62" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="M62" t="s">
         <v>411</v>
@@ -6474,7 +6475,7 @@
         <v>412</v>
       </c>
       <c r="R62" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="S62" t="s">
         <v>404</v>
@@ -6488,28 +6489,28 @@
         <v>328</v>
       </c>
       <c r="B63" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="C63" t="s">
-        <v>1007</v>
+        <v>1004</v>
       </c>
       <c r="D63" t="s">
-        <v>1007</v>
+        <v>1004</v>
       </c>
       <c r="E63" t="s">
         <v>329</v>
       </c>
       <c r="F63" t="s">
-        <v>1011</v>
+        <v>1008</v>
       </c>
       <c r="G63" t="s">
-        <v>981</v>
+        <v>978</v>
       </c>
       <c r="H63" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="I63" t="s">
-        <v>980</v>
+        <v>1013</v>
       </c>
       <c r="J63" t="s">
         <v>330</v>
@@ -6518,7 +6519,7 @@
         <v>329</v>
       </c>
       <c r="L63" t="s">
-        <v>983</v>
+        <v>980</v>
       </c>
       <c r="M63" t="s">
         <v>331</v>
@@ -6527,7 +6528,7 @@
         <v>332</v>
       </c>
       <c r="R63" t="s">
-        <v>984</v>
+        <v>981</v>
       </c>
       <c r="S63" t="s">
         <v>333</v>
@@ -6553,7 +6554,7 @@
         <v>122</v>
       </c>
       <c r="F64" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="G64" t="s">
         <v>123</v>
@@ -6562,7 +6563,7 @@
         <v>124</v>
       </c>
       <c r="I64" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="J64" t="s">
         <v>125</v>
@@ -6571,7 +6572,7 @@
         <v>122</v>
       </c>
       <c r="L64" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="M64" t="s">
         <v>126</v>
@@ -6580,7 +6581,7 @@
         <v>127</v>
       </c>
       <c r="R64" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="S64" t="s">
         <v>128</v>
@@ -6597,7 +6598,7 @@
         <v>690</v>
       </c>
       <c r="C65" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="D65" t="s">
         <v>634</v>
@@ -6606,7 +6607,7 @@
         <v>635</v>
       </c>
       <c r="F65" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="G65" t="s">
         <v>636</v>
@@ -6615,7 +6616,7 @@
         <v>637</v>
       </c>
       <c r="L65" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M65" t="s">
         <v>638</v>
@@ -6624,7 +6625,7 @@
         <v>639</v>
       </c>
       <c r="R65" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="S65" t="s">
         <v>640</v>
@@ -6641,7 +6642,7 @@
         <v>690</v>
       </c>
       <c r="C66" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="D66" t="s">
         <v>643</v>
@@ -6650,7 +6651,7 @@
         <v>644</v>
       </c>
       <c r="F66" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="G66" t="s">
         <v>645</v>
@@ -6659,7 +6660,7 @@
         <v>646</v>
       </c>
       <c r="L66" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="M66" t="s">
         <v>647</v>
@@ -6668,7 +6669,7 @@
         <v>648</v>
       </c>
       <c r="R66" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="S66" t="s">
         <v>640</v>
@@ -6685,7 +6686,7 @@
         <v>690</v>
       </c>
       <c r="C67" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="D67" t="s">
         <v>650</v>
@@ -6694,7 +6695,7 @@
         <v>651</v>
       </c>
       <c r="F67" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="G67" t="s">
         <v>652</v>
@@ -6703,7 +6704,7 @@
         <v>653</v>
       </c>
       <c r="L67" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="M67" t="s">
         <v>647</v>
@@ -6712,7 +6713,7 @@
         <v>648</v>
       </c>
       <c r="R67" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="S67" t="s">
         <v>640</v>
@@ -6738,7 +6739,7 @@
         <v>337</v>
       </c>
       <c r="F68" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="G68" t="s">
         <v>338</v>
@@ -6747,7 +6748,7 @@
         <v>339</v>
       </c>
       <c r="I68" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="J68" t="s">
         <v>336</v>
@@ -6773,7 +6774,7 @@
         <v>33</v>
       </c>
       <c r="F69" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="G69" t="s">
         <v>34</v>
@@ -6791,7 +6792,7 @@
         <v>33</v>
       </c>
       <c r="L69" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="M69" t="s">
         <v>36</v>
@@ -6800,7 +6801,7 @@
         <v>37</v>
       </c>
       <c r="R69" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="S69" t="s">
         <v>38</v>
@@ -6826,7 +6827,7 @@
         <v>342</v>
       </c>
       <c r="F70" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="G70" t="s">
         <v>343</v>
@@ -6861,7 +6862,7 @@
         <v>347</v>
       </c>
       <c r="F71" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="G71" t="s">
         <v>348</v>
@@ -6879,7 +6880,7 @@
         <v>347</v>
       </c>
       <c r="L71" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="M71" t="s">
         <v>350</v>
@@ -6888,7 +6889,7 @@
         <v>351</v>
       </c>
       <c r="R71" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="S71" t="s">
         <v>352</v>
@@ -6922,7 +6923,7 @@
         <v>691</v>
       </c>
       <c r="C73" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="D73" t="s">
         <v>655</v>
@@ -6931,7 +6932,7 @@
         <v>656</v>
       </c>
       <c r="F73" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="G73" t="s">
         <v>657</v>
@@ -6940,7 +6941,7 @@
         <v>658</v>
       </c>
       <c r="L73" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="M73" t="s">
         <v>659</v>
@@ -6949,7 +6950,7 @@
         <v>660</v>
       </c>
       <c r="R73" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="S73" t="s">
         <v>640</v>
@@ -6966,7 +6967,7 @@
         <v>691</v>
       </c>
       <c r="C74" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="D74" t="s">
         <v>662</v>
@@ -6975,7 +6976,7 @@
         <v>663</v>
       </c>
       <c r="F74" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="G74" t="s">
         <v>664</v>
@@ -6984,7 +6985,7 @@
         <v>665</v>
       </c>
       <c r="L74" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="M74" t="s">
         <v>666</v>
@@ -6993,7 +6994,7 @@
         <v>667</v>
       </c>
       <c r="R74" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="S74" t="s">
         <v>640</v>
@@ -7019,7 +7020,7 @@
         <v>389</v>
       </c>
       <c r="F75" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="G75" t="s">
         <v>390</v>
@@ -7037,7 +7038,7 @@
         <v>389</v>
       </c>
       <c r="L75" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="M75" t="s">
         <v>393</v>
@@ -7046,7 +7047,7 @@
         <v>394</v>
       </c>
       <c r="R75" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="S75" t="s">
         <v>395</v>
@@ -7072,7 +7073,7 @@
         <v>42</v>
       </c>
       <c r="F76" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="G76" t="s">
         <v>43</v>
@@ -7090,7 +7091,7 @@
         <v>42</v>
       </c>
       <c r="L76" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="M76" t="s">
         <v>45</v>
@@ -7099,7 +7100,7 @@
         <v>46</v>
       </c>
       <c r="R76" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="S76" t="s">
         <v>47</v>
@@ -7125,7 +7126,7 @@
         <v>51</v>
       </c>
       <c r="F77" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="G77" t="s">
         <v>52</v>
@@ -7143,7 +7144,7 @@
         <v>51</v>
       </c>
       <c r="L77" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="M77" t="s">
         <v>54</v>
@@ -7152,7 +7153,7 @@
         <v>55</v>
       </c>
       <c r="R77" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="S77" t="s">
         <v>56</v>
@@ -7178,7 +7179,7 @@
         <v>531</v>
       </c>
       <c r="F78" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="G78" t="s">
         <v>532</v>
@@ -7213,7 +7214,7 @@
         <v>230</v>
       </c>
       <c r="F79" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="G79" t="s">
         <v>231</v>
@@ -7222,7 +7223,7 @@
         <v>232</v>
       </c>
       <c r="I79" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="J79" t="s">
         <v>229</v>
@@ -7231,7 +7232,7 @@
         <v>230</v>
       </c>
       <c r="L79" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="M79" t="s">
         <v>233</v>
@@ -7240,7 +7241,7 @@
         <v>234</v>
       </c>
       <c r="R79" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="S79" t="s">
         <v>235</v>
@@ -7266,7 +7267,7 @@
         <v>239</v>
       </c>
       <c r="F80" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="G80" t="s">
         <v>240</v>
@@ -7284,7 +7285,7 @@
         <v>239</v>
       </c>
       <c r="L80" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="M80" t="s">
         <v>242</v>
@@ -7293,7 +7294,7 @@
         <v>243</v>
       </c>
       <c r="R80" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="S80" t="s">
         <v>244</v>
@@ -7304,99 +7305,99 @@
     </row>
     <row r="81" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
+        <v>982</v>
+      </c>
+      <c r="B81" t="s">
+        <v>973</v>
+      </c>
+      <c r="C81" t="s">
+        <v>1005</v>
+      </c>
+      <c r="D81" t="s">
+        <v>1005</v>
+      </c>
+      <c r="E81" t="s">
         <v>985</v>
       </c>
-      <c r="B81" t="s">
-        <v>974</v>
-      </c>
-      <c r="C81" t="s">
-        <v>1008</v>
-      </c>
-      <c r="D81" t="s">
-        <v>1008</v>
-      </c>
-      <c r="E81" t="s">
+      <c r="F81" t="s">
+        <v>1009</v>
+      </c>
+      <c r="G81" t="s">
+        <v>986</v>
+      </c>
+      <c r="H81" t="s">
+        <v>987</v>
+      </c>
+      <c r="I81" t="s">
+        <v>983</v>
+      </c>
+      <c r="J81" t="s">
+        <v>984</v>
+      </c>
+      <c r="K81" t="s">
+        <v>985</v>
+      </c>
+      <c r="L81" t="s">
         <v>988</v>
       </c>
-      <c r="F81" t="s">
-        <v>1012</v>
-      </c>
-      <c r="G81" t="s">
+      <c r="M81" t="s">
         <v>989</v>
       </c>
-      <c r="H81" t="s">
+      <c r="N81" t="s">
         <v>990</v>
       </c>
-      <c r="I81" t="s">
-        <v>986</v>
-      </c>
-      <c r="J81" t="s">
-        <v>987</v>
-      </c>
-      <c r="K81" t="s">
-        <v>988</v>
-      </c>
-      <c r="L81" t="s">
+      <c r="R81" t="s">
         <v>991</v>
       </c>
-      <c r="M81" t="s">
+      <c r="S81" t="s">
         <v>992</v>
       </c>
-      <c r="N81" t="s">
+      <c r="T81" t="s">
         <v>993</v>
-      </c>
-      <c r="R81" t="s">
-        <v>994</v>
-      </c>
-      <c r="S81" t="s">
-        <v>995</v>
-      </c>
-      <c r="T81" t="s">
-        <v>996</v>
       </c>
     </row>
     <row r="82" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
+        <v>994</v>
+      </c>
+      <c r="B82" t="s">
+        <v>973</v>
+      </c>
+      <c r="C82" t="s">
+        <v>1006</v>
+      </c>
+      <c r="D82" t="s">
+        <v>1006</v>
+      </c>
+      <c r="E82" t="s">
         <v>997</v>
       </c>
-      <c r="B82" t="s">
-        <v>974</v>
-      </c>
-      <c r="C82" t="s">
-        <v>1009</v>
-      </c>
-      <c r="D82" t="s">
-        <v>1009</v>
-      </c>
-      <c r="E82" t="s">
+      <c r="F82" t="s">
+        <v>1010</v>
+      </c>
+      <c r="G82" t="s">
+        <v>998</v>
+      </c>
+      <c r="H82" t="s">
+        <v>999</v>
+      </c>
+      <c r="I82" t="s">
+        <v>995</v>
+      </c>
+      <c r="J82" t="s">
+        <v>996</v>
+      </c>
+      <c r="K82" t="s">
+        <v>997</v>
+      </c>
+      <c r="L82" t="s">
         <v>1000</v>
       </c>
-      <c r="F82" t="s">
-        <v>1013</v>
-      </c>
-      <c r="G82" t="s">
+      <c r="M82" t="s">
         <v>1001</v>
       </c>
-      <c r="H82" t="s">
+      <c r="N82" t="s">
         <v>1002</v>
-      </c>
-      <c r="I82" t="s">
-        <v>998</v>
-      </c>
-      <c r="J82" t="s">
-        <v>999</v>
-      </c>
-      <c r="K82" t="s">
-        <v>1000</v>
-      </c>
-      <c r="L82" t="s">
-        <v>1003</v>
-      </c>
-      <c r="M82" t="s">
-        <v>1004</v>
-      </c>
-      <c r="N82" t="s">
-        <v>1005</v>
       </c>
     </row>
     <row r="83" spans="1:20" x14ac:dyDescent="0.25">
@@ -7407,7 +7408,7 @@
         <v>671</v>
       </c>
       <c r="C83" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="D83" t="s">
         <v>614</v>
@@ -7416,7 +7417,7 @@
         <v>615</v>
       </c>
       <c r="I83" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="J83" t="s">
         <v>616</v>

--- a/PTBR/Lang/PTBR/Game/Stat.xlsx
+++ b/PTBR/Lang/PTBR/Game/Stat.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Files (x86)\Steam\steamapps\common\Elin\Package\PTBR\Lang\PTBR\Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C920662-1143-4C36-9F2C-479D44605D46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CE1DDB5-3E1B-45F4-93C4-E5D43664219D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="510" yWindow="540" windowWidth="20400" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="855" yWindow="885" windowWidth="20400" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Stat" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1250" uniqueCount="1014">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1251" uniqueCount="1015">
   <si>
     <t>id</t>
   </si>
@@ -2504,9 +2504,6 @@
     <t>Uma condição de saciedade. À medida que a fome aumenta, sua velocidade diminui, a regeneração natural para e, eventualmente, você morre de inanição.</t>
   </si>
   <si>
-    <t>Uma condição afetada pelo peso da sua bagagem. Quanto mais pesada, mais devagar você se move.</t>
-  </si>
-  <si>
     <t>Uma condição de instabilidade mental. Se piorar, você enlouquece e morre.</t>
   </si>
   <si>
@@ -2613,9 +2610,6 @@
   </si>
   <si>
     <t>Empanturrado,Satisfeito,#,Com Fome,Muito Faminto,Morrendo de Fome</t>
-  </si>
-  <si>
-    <t>#,Sobrecarregado,Excesso de Peso,Esmagado</t>
   </si>
   <si>
     <t>Exausto,Cansado,#,#</t>
@@ -3104,6 +3098,15 @@
   </si>
   <si>
     <t>Eufórico</t>
+  </si>
+  <si>
+    <t>#,Pesado,Pesado!,Sobrepeso,Esmagado</t>
+  </si>
+  <si>
+    <t>Se ficar pesado demais, você vai ser esmagado pelo peso!</t>
+  </si>
+  <si>
+    <t>A bagagem está pesada demais. Quanto mais pesada, mais lento você fica. E se ficar pesado demais, poderá ser esmagado pelo peso (vai levar dano na vida).</t>
   </si>
 </sst>
 </file>
@@ -3486,9 +3489,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I28" sqref="I28"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3600,7 +3603,7 @@
         <v>558</v>
       </c>
       <c r="I3" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="J3" t="s">
         <v>559</v>
@@ -3609,7 +3612,7 @@
         <v>560</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="M3" t="s">
         <v>561</v>
@@ -3618,7 +3621,7 @@
         <v>562</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="P3" t="s">
         <v>563</v>
@@ -3635,7 +3638,7 @@
         <v>671</v>
       </c>
       <c r="C4" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="D4" t="s">
         <v>566</v>
@@ -3644,7 +3647,7 @@
         <v>567</v>
       </c>
       <c r="F4" t="s">
-        <v>817</v>
+        <v>1014</v>
       </c>
       <c r="G4" t="s">
         <v>568</v>
@@ -3653,13 +3656,16 @@
         <v>569</v>
       </c>
       <c r="I4" t="s">
-        <v>854</v>
+        <v>1012</v>
       </c>
       <c r="J4" t="s">
         <v>570</v>
       </c>
       <c r="K4" t="s">
         <v>571</v>
+      </c>
+      <c r="L4" t="s">
+        <v>1013</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
@@ -3679,7 +3685,7 @@
         <v>595</v>
       </c>
       <c r="I5" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="J5" t="s">
         <v>619</v>
@@ -3714,7 +3720,7 @@
         <v>473</v>
       </c>
       <c r="I6" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="J6" t="s">
         <v>474</v>
@@ -3723,7 +3729,7 @@
         <v>475</v>
       </c>
       <c r="L6" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="M6" t="s">
         <v>476</v>
@@ -3732,7 +3738,7 @@
         <v>477</v>
       </c>
       <c r="R6" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="S6" t="s">
         <v>478</v>
@@ -3758,7 +3764,7 @@
         <v>573</v>
       </c>
       <c r="F7" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="G7" t="s">
         <v>574</v>
@@ -3802,7 +3808,7 @@
         <v>104</v>
       </c>
       <c r="I8" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="J8" t="s">
         <v>105</v>
@@ -3811,7 +3817,7 @@
         <v>102</v>
       </c>
       <c r="L8" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="M8" t="s">
         <v>106</v>
@@ -3820,7 +3826,7 @@
         <v>107</v>
       </c>
       <c r="R8" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="S8" t="s">
         <v>108</v>
@@ -3855,7 +3861,7 @@
         <v>114</v>
       </c>
       <c r="I9" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="J9" t="s">
         <v>133</v>
@@ -3864,7 +3870,7 @@
         <v>132</v>
       </c>
       <c r="L9" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="M9" t="s">
         <v>134</v>
@@ -3873,7 +3879,7 @@
         <v>135</v>
       </c>
       <c r="R9" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="S9" t="s">
         <v>136</v>
@@ -3908,7 +3914,7 @@
         <v>62</v>
       </c>
       <c r="I10" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="J10" t="s">
         <v>63</v>
@@ -3917,7 +3923,7 @@
         <v>64</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="M10" t="s">
         <v>65</v>
@@ -3926,7 +3932,7 @@
         <v>66</v>
       </c>
       <c r="O10" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="P10" t="s">
         <v>67</v>
@@ -3935,7 +3941,7 @@
         <v>68</v>
       </c>
       <c r="R10" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="S10" t="s">
         <v>69</v>
@@ -3979,7 +3985,7 @@
         <v>505</v>
       </c>
       <c r="L11" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="M11" t="s">
         <v>508</v>
@@ -3988,7 +3994,7 @@
         <v>509</v>
       </c>
       <c r="R11" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="S11" t="s">
         <v>510</v>
@@ -4023,7 +4029,7 @@
         <v>75</v>
       </c>
       <c r="I12" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="J12" t="s">
         <v>76</v>
@@ -4032,7 +4038,7 @@
         <v>77</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="M12" t="s">
         <v>78</v>
@@ -4041,7 +4047,7 @@
         <v>79</v>
       </c>
       <c r="O12" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="P12" t="s">
         <v>80</v>
@@ -4076,7 +4082,7 @@
         <v>86</v>
       </c>
       <c r="I13" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="J13" t="s">
         <v>83</v>
@@ -4085,7 +4091,7 @@
         <v>84</v>
       </c>
       <c r="L13" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="M13" t="s">
         <v>87</v>
@@ -4094,7 +4100,7 @@
         <v>88</v>
       </c>
       <c r="R13" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="S13" t="s">
         <v>89</v>
@@ -4138,7 +4144,7 @@
         <v>93</v>
       </c>
       <c r="L14" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="M14" t="s">
         <v>96</v>
@@ -4147,7 +4153,7 @@
         <v>97</v>
       </c>
       <c r="R14" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="S14" t="s">
         <v>98</v>
@@ -4182,7 +4188,7 @@
         <v>295</v>
       </c>
       <c r="I15" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="J15" t="s">
         <v>296</v>
@@ -4191,7 +4197,7 @@
         <v>297</v>
       </c>
       <c r="L15" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="M15" t="s">
         <v>298</v>
@@ -4200,7 +4206,7 @@
         <v>299</v>
       </c>
       <c r="R15" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="S15" t="s">
         <v>300</v>
@@ -4235,7 +4241,7 @@
         <v>114</v>
       </c>
       <c r="I16" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="J16" t="s">
         <v>115</v>
@@ -4244,7 +4250,7 @@
         <v>112</v>
       </c>
       <c r="L16" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="M16" t="s">
         <v>116</v>
@@ -4253,7 +4259,7 @@
         <v>117</v>
       </c>
       <c r="R16" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="S16" t="s">
         <v>118</v>
@@ -4279,7 +4285,7 @@
         <v>579</v>
       </c>
       <c r="F17" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="G17" t="s">
         <v>580</v>
@@ -4288,7 +4294,7 @@
         <v>581</v>
       </c>
       <c r="I17" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="J17" t="s">
         <v>582</v>
@@ -4332,7 +4338,7 @@
         <v>304</v>
       </c>
       <c r="L18" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="M18" t="s">
         <v>307</v>
@@ -4341,7 +4347,7 @@
         <v>308</v>
       </c>
       <c r="R18" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="S18" t="s">
         <v>309</v>
@@ -4402,7 +4408,7 @@
         <v>142</v>
       </c>
       <c r="I20" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="J20" t="s">
         <v>143</v>
@@ -4411,7 +4417,7 @@
         <v>140</v>
       </c>
       <c r="L20" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="M20" t="s">
         <v>144</v>
@@ -4420,7 +4426,7 @@
         <v>145</v>
       </c>
       <c r="R20" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="S20" t="s">
         <v>146</v>
@@ -4455,7 +4461,7 @@
         <v>152</v>
       </c>
       <c r="I21" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="J21" t="s">
         <v>149</v>
@@ -4464,7 +4470,7 @@
         <v>150</v>
       </c>
       <c r="L21" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="M21" t="s">
         <v>153</v>
@@ -4473,7 +4479,7 @@
         <v>154</v>
       </c>
       <c r="R21" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="S21" t="s">
         <v>155</v>
@@ -4499,7 +4505,7 @@
         <v>630</v>
       </c>
       <c r="F22" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="G22" t="s">
         <v>631</v>
@@ -4543,7 +4549,7 @@
         <v>161</v>
       </c>
       <c r="I23" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="J23" t="s">
         <v>162</v>
@@ -4552,7 +4558,7 @@
         <v>163</v>
       </c>
       <c r="L23" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="M23" t="s">
         <v>164</v>
@@ -4561,7 +4567,7 @@
         <v>165</v>
       </c>
       <c r="R23" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="S23" t="s">
         <v>166</v>
@@ -4596,7 +4602,7 @@
         <v>516</v>
       </c>
       <c r="I24" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="J24" t="s">
         <v>517</v>
@@ -4605,7 +4611,7 @@
         <v>518</v>
       </c>
       <c r="L24" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="M24" t="s">
         <v>519</v>
@@ -4614,7 +4620,7 @@
         <v>520</v>
       </c>
       <c r="R24" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="S24" t="s">
         <v>521</v>
@@ -4649,7 +4655,7 @@
         <v>484</v>
       </c>
       <c r="I25" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="J25" t="s">
         <v>485</v>
@@ -4658,7 +4664,7 @@
         <v>486</v>
       </c>
       <c r="L25" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="M25" t="s">
         <v>487</v>
@@ -4667,7 +4673,7 @@
         <v>488</v>
       </c>
       <c r="R25" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="S25" t="s">
         <v>489</v>
@@ -4702,7 +4708,7 @@
         <v>172</v>
       </c>
       <c r="I26" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="J26" t="s">
         <v>173</v>
@@ -4711,7 +4717,7 @@
         <v>174</v>
       </c>
       <c r="L26" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="M26" t="s">
         <v>175</v>
@@ -4720,7 +4726,7 @@
         <v>176</v>
       </c>
       <c r="R26" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="S26" t="s">
         <v>177</v>
@@ -4755,7 +4761,7 @@
         <v>183</v>
       </c>
       <c r="I27" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="J27" t="s">
         <v>184</v>
@@ -4764,7 +4770,7 @@
         <v>185</v>
       </c>
       <c r="L27" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="M27" t="s">
         <v>186</v>
@@ -4773,7 +4779,7 @@
         <v>187</v>
       </c>
       <c r="R27" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="S27" t="s">
         <v>188</v>
@@ -4799,7 +4805,7 @@
         <v>102</v>
       </c>
       <c r="F28" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="G28" t="s">
         <v>585</v>
@@ -4808,7 +4814,7 @@
         <v>586</v>
       </c>
       <c r="I28" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="J28" t="s">
         <v>587</v>
@@ -4817,7 +4823,7 @@
         <v>588</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="M28" t="s">
         <v>589</v>
@@ -4826,7 +4832,7 @@
         <v>590</v>
       </c>
       <c r="O28" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="P28" t="s">
         <v>591</v>
@@ -4861,7 +4867,7 @@
         <v>527</v>
       </c>
       <c r="I29" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="J29" t="s">
         <v>528</v>
@@ -4905,7 +4911,7 @@
         <v>493</v>
       </c>
       <c r="L30" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="M30" t="s">
         <v>496</v>
@@ -4914,7 +4920,7 @@
         <v>497</v>
       </c>
       <c r="R30" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="S30" t="s">
         <v>498</v>
@@ -4949,7 +4955,7 @@
         <v>322</v>
       </c>
       <c r="I31" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="J31" t="s">
         <v>323</v>
@@ -4958,7 +4964,7 @@
         <v>320</v>
       </c>
       <c r="L31" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="M31" t="s">
         <v>324</v>
@@ -4967,7 +4973,7 @@
         <v>325</v>
       </c>
       <c r="R31" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="S31" t="s">
         <v>326</v>
@@ -5011,7 +5017,7 @@
         <v>356</v>
       </c>
       <c r="L32" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="M32" t="s">
         <v>360</v>
@@ -5020,7 +5026,7 @@
         <v>361</v>
       </c>
       <c r="R32" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="S32" t="s">
         <v>362</v>
@@ -5064,7 +5070,7 @@
         <v>425</v>
       </c>
       <c r="L33" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="M33" t="s">
         <v>428</v>
@@ -5073,7 +5079,7 @@
         <v>429</v>
       </c>
       <c r="R33" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="S33" t="s">
         <v>430</v>
@@ -5099,7 +5105,7 @@
         <v>623</v>
       </c>
       <c r="F34" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="G34" t="s">
         <v>624</v>
@@ -5108,7 +5114,7 @@
         <v>625</v>
       </c>
       <c r="I34" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="J34" t="s">
         <v>622</v>
@@ -5117,7 +5123,7 @@
         <v>623</v>
       </c>
       <c r="L34" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="M34" t="s">
         <v>626</v>
@@ -5126,7 +5132,7 @@
         <v>627</v>
       </c>
       <c r="R34" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="S34" t="s">
         <v>460</v>
@@ -5170,7 +5176,7 @@
         <v>536</v>
       </c>
       <c r="L35" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="M35" t="s">
         <v>539</v>
@@ -5179,7 +5185,7 @@
         <v>540</v>
       </c>
       <c r="R35" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="S35" t="s">
         <v>541</v>
@@ -5223,7 +5229,7 @@
         <v>434</v>
       </c>
       <c r="L36" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="M36" t="s">
         <v>437</v>
@@ -5267,7 +5273,7 @@
         <v>366</v>
       </c>
       <c r="L37" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="M37" t="s">
         <v>369</v>
@@ -5276,7 +5282,7 @@
         <v>370</v>
       </c>
       <c r="R37" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="S37" t="s">
         <v>309</v>
@@ -5320,7 +5326,7 @@
         <v>373</v>
       </c>
       <c r="L38" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="M38" t="s">
         <v>376</v>
@@ -5329,7 +5335,7 @@
         <v>377</v>
       </c>
       <c r="R38" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="S38" t="s">
         <v>378</v>
@@ -5355,7 +5361,7 @@
         <v>595</v>
       </c>
       <c r="I39" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="J39" t="s">
         <v>596</v>
@@ -5399,7 +5405,7 @@
         <v>418</v>
       </c>
       <c r="L40" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="M40" t="s">
         <v>421</v>
@@ -5443,7 +5449,7 @@
         <v>214</v>
       </c>
       <c r="L41" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="M41" t="s">
         <v>217</v>
@@ -5452,7 +5458,7 @@
         <v>218</v>
       </c>
       <c r="R41" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="S41" t="s">
         <v>219</v>
@@ -5496,7 +5502,7 @@
         <v>382</v>
       </c>
       <c r="L42" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="M42" t="s">
         <v>385</v>
@@ -5531,7 +5537,7 @@
         <v>547</v>
       </c>
       <c r="I43" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="J43" t="s">
         <v>548</v>
@@ -5540,7 +5546,7 @@
         <v>549</v>
       </c>
       <c r="L43" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="M43" t="s">
         <v>550</v>
@@ -5549,7 +5555,7 @@
         <v>551</v>
       </c>
       <c r="R43" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="S43" t="s">
         <v>552</v>
@@ -5584,7 +5590,7 @@
         <v>205</v>
       </c>
       <c r="I44" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="J44" t="s">
         <v>206</v>
@@ -5593,7 +5599,7 @@
         <v>207</v>
       </c>
       <c r="L44" s="2" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="M44" t="s">
         <v>208</v>
@@ -5602,7 +5608,7 @@
         <v>209</v>
       </c>
       <c r="R44" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="S44" t="s">
         <v>210</v>
@@ -5646,7 +5652,7 @@
         <v>26</v>
       </c>
       <c r="L45" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="M45" t="s">
         <v>27</v>
@@ -5655,7 +5661,7 @@
         <v>28</v>
       </c>
       <c r="R45" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="S45" t="s">
         <v>29</v>
@@ -5699,7 +5705,7 @@
         <v>248</v>
       </c>
       <c r="L46" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="M46" t="s">
         <v>251</v>
@@ -5708,7 +5714,7 @@
         <v>252</v>
       </c>
       <c r="R46" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="S46" t="s">
         <v>253</v>
@@ -5752,7 +5758,7 @@
         <v>441</v>
       </c>
       <c r="L47" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="M47" t="s">
         <v>444</v>
@@ -5796,7 +5802,7 @@
         <v>464</v>
       </c>
       <c r="L48" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="M48" t="s">
         <v>467</v>
@@ -5810,28 +5816,28 @@
         <v>311</v>
       </c>
       <c r="B49" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="C49" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="D49" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="E49" t="s">
         <v>313</v>
       </c>
       <c r="F49" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="G49" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="H49" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="I49" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="J49" t="s">
         <v>312</v>
@@ -5840,7 +5846,7 @@
         <v>313</v>
       </c>
       <c r="L49" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="M49" t="s">
         <v>314</v>
@@ -5849,7 +5855,7 @@
         <v>315</v>
       </c>
       <c r="R49" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="S49" t="s">
         <v>316</v>
@@ -5875,7 +5881,7 @@
         <v>600</v>
       </c>
       <c r="I50" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="J50" t="s">
         <v>601</v>
@@ -5919,7 +5925,7 @@
         <v>257</v>
       </c>
       <c r="L51" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="M51" t="s">
         <v>260</v>
@@ -5928,7 +5934,7 @@
         <v>261</v>
       </c>
       <c r="R51" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="S51" t="s">
         <v>262</v>
@@ -5972,7 +5978,7 @@
         <v>266</v>
       </c>
       <c r="L52" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="M52" t="s">
         <v>269</v>
@@ -5981,7 +5987,7 @@
         <v>270</v>
       </c>
       <c r="R52" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="S52" t="s">
         <v>271</v>
@@ -6025,7 +6031,7 @@
         <v>275</v>
       </c>
       <c r="L53" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="M53" t="s">
         <v>278</v>
@@ -6034,7 +6040,7 @@
         <v>279</v>
       </c>
       <c r="R53" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="S53" t="s">
         <v>280</v>
@@ -6078,7 +6084,7 @@
         <v>284</v>
       </c>
       <c r="L54" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="M54" t="s">
         <v>287</v>
@@ -6087,7 +6093,7 @@
         <v>288</v>
       </c>
       <c r="R54" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="S54" t="s">
         <v>289</v>
@@ -6122,7 +6128,7 @@
         <v>225</v>
       </c>
       <c r="I55" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="J55" t="s">
         <v>222</v>
@@ -6131,7 +6137,7 @@
         <v>223</v>
       </c>
       <c r="L55" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="M55" t="s">
         <v>226</v>
@@ -6175,7 +6181,7 @@
         <v>448</v>
       </c>
       <c r="L56" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="M56" t="s">
         <v>451</v>
@@ -6210,7 +6216,7 @@
         <v>194</v>
       </c>
       <c r="I57" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="J57" t="s">
         <v>195</v>
@@ -6219,7 +6225,7 @@
         <v>196</v>
       </c>
       <c r="L57" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="M57" t="s">
         <v>197</v>
@@ -6228,7 +6234,7 @@
         <v>198</v>
       </c>
       <c r="R57" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="S57" t="s">
         <v>199</v>
@@ -6272,7 +6278,7 @@
         <v>399</v>
       </c>
       <c r="L58" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="M58" t="s">
         <v>402</v>
@@ -6281,7 +6287,7 @@
         <v>403</v>
       </c>
       <c r="R58" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="S58" t="s">
         <v>404</v>
@@ -6325,7 +6331,7 @@
         <v>455</v>
       </c>
       <c r="L59" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="M59" t="s">
         <v>458</v>
@@ -6334,7 +6340,7 @@
         <v>459</v>
       </c>
       <c r="R59" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="S59" t="s">
         <v>460</v>
@@ -6378,7 +6384,7 @@
         <v>408</v>
       </c>
       <c r="L60" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="M60" t="s">
         <v>411</v>
@@ -6387,7 +6393,7 @@
         <v>412</v>
       </c>
       <c r="R60" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="S60" t="s">
         <v>404</v>
@@ -6413,7 +6419,7 @@
         <v>605</v>
       </c>
       <c r="F61" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="G61" t="s">
         <v>606</v>
@@ -6422,7 +6428,7 @@
         <v>607</v>
       </c>
       <c r="I61" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="J61" t="s">
         <v>608</v>
@@ -6466,7 +6472,7 @@
         <v>415</v>
       </c>
       <c r="L62" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="M62" t="s">
         <v>411</v>
@@ -6475,7 +6481,7 @@
         <v>412</v>
       </c>
       <c r="R62" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="S62" t="s">
         <v>404</v>
@@ -6489,28 +6495,28 @@
         <v>328</v>
       </c>
       <c r="B63" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="C63" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="D63" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="E63" t="s">
         <v>329</v>
       </c>
       <c r="F63" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="G63" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="H63" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="I63" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="J63" t="s">
         <v>330</v>
@@ -6519,7 +6525,7 @@
         <v>329</v>
       </c>
       <c r="L63" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="M63" t="s">
         <v>331</v>
@@ -6528,7 +6534,7 @@
         <v>332</v>
       </c>
       <c r="R63" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="S63" t="s">
         <v>333</v>
@@ -6563,7 +6569,7 @@
         <v>124</v>
       </c>
       <c r="I64" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="J64" t="s">
         <v>125</v>
@@ -6572,7 +6578,7 @@
         <v>122</v>
       </c>
       <c r="L64" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="M64" t="s">
         <v>126</v>
@@ -6581,7 +6587,7 @@
         <v>127</v>
       </c>
       <c r="R64" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="S64" t="s">
         <v>128</v>
@@ -6607,7 +6613,7 @@
         <v>635</v>
       </c>
       <c r="F65" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="G65" t="s">
         <v>636</v>
@@ -6616,7 +6622,7 @@
         <v>637</v>
       </c>
       <c r="L65" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="M65" t="s">
         <v>638</v>
@@ -6625,7 +6631,7 @@
         <v>639</v>
       </c>
       <c r="R65" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="S65" t="s">
         <v>640</v>
@@ -6651,7 +6657,7 @@
         <v>644</v>
       </c>
       <c r="F66" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="G66" t="s">
         <v>645</v>
@@ -6660,7 +6666,7 @@
         <v>646</v>
       </c>
       <c r="L66" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="M66" t="s">
         <v>647</v>
@@ -6669,7 +6675,7 @@
         <v>648</v>
       </c>
       <c r="R66" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="S66" t="s">
         <v>640</v>
@@ -6695,7 +6701,7 @@
         <v>651</v>
       </c>
       <c r="F67" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="G67" t="s">
         <v>652</v>
@@ -6704,7 +6710,7 @@
         <v>653</v>
       </c>
       <c r="L67" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="M67" t="s">
         <v>647</v>
@@ -6713,7 +6719,7 @@
         <v>648</v>
       </c>
       <c r="R67" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="S67" t="s">
         <v>640</v>
@@ -6748,7 +6754,7 @@
         <v>339</v>
       </c>
       <c r="I68" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="J68" t="s">
         <v>336</v>
@@ -6792,7 +6798,7 @@
         <v>33</v>
       </c>
       <c r="L69" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="M69" t="s">
         <v>36</v>
@@ -6801,7 +6807,7 @@
         <v>37</v>
       </c>
       <c r="R69" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="S69" t="s">
         <v>38</v>
@@ -6880,7 +6886,7 @@
         <v>347</v>
       </c>
       <c r="L71" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="M71" t="s">
         <v>350</v>
@@ -6889,7 +6895,7 @@
         <v>351</v>
       </c>
       <c r="R71" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="S71" t="s">
         <v>352</v>
@@ -6932,7 +6938,7 @@
         <v>656</v>
       </c>
       <c r="F73" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="G73" t="s">
         <v>657</v>
@@ -6941,7 +6947,7 @@
         <v>658</v>
       </c>
       <c r="L73" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="M73" t="s">
         <v>659</v>
@@ -6950,7 +6956,7 @@
         <v>660</v>
       </c>
       <c r="R73" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="S73" t="s">
         <v>640</v>
@@ -6976,7 +6982,7 @@
         <v>663</v>
       </c>
       <c r="F74" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="G74" t="s">
         <v>664</v>
@@ -6985,7 +6991,7 @@
         <v>665</v>
       </c>
       <c r="L74" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="M74" t="s">
         <v>666</v>
@@ -6994,7 +7000,7 @@
         <v>667</v>
       </c>
       <c r="R74" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="S74" t="s">
         <v>640</v>
@@ -7038,7 +7044,7 @@
         <v>389</v>
       </c>
       <c r="L75" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="M75" t="s">
         <v>393</v>
@@ -7047,7 +7053,7 @@
         <v>394</v>
       </c>
       <c r="R75" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="S75" t="s">
         <v>395</v>
@@ -7091,7 +7097,7 @@
         <v>42</v>
       </c>
       <c r="L76" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="M76" t="s">
         <v>45</v>
@@ -7100,7 +7106,7 @@
         <v>46</v>
       </c>
       <c r="R76" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="S76" t="s">
         <v>47</v>
@@ -7144,7 +7150,7 @@
         <v>51</v>
       </c>
       <c r="L77" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="M77" t="s">
         <v>54</v>
@@ -7153,7 +7159,7 @@
         <v>55</v>
       </c>
       <c r="R77" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="S77" t="s">
         <v>56</v>
@@ -7223,7 +7229,7 @@
         <v>232</v>
       </c>
       <c r="I79" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="J79" t="s">
         <v>229</v>
@@ -7232,7 +7238,7 @@
         <v>230</v>
       </c>
       <c r="L79" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="M79" t="s">
         <v>233</v>
@@ -7241,7 +7247,7 @@
         <v>234</v>
       </c>
       <c r="R79" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="S79" t="s">
         <v>235</v>
@@ -7285,7 +7291,7 @@
         <v>239</v>
       </c>
       <c r="L80" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="M80" t="s">
         <v>242</v>
@@ -7294,7 +7300,7 @@
         <v>243</v>
       </c>
       <c r="R80" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="S80" t="s">
         <v>244</v>
@@ -7305,99 +7311,99 @@
     </row>
     <row r="81" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
+        <v>980</v>
+      </c>
+      <c r="B81" t="s">
+        <v>971</v>
+      </c>
+      <c r="C81" t="s">
+        <v>1003</v>
+      </c>
+      <c r="D81" t="s">
+        <v>1003</v>
+      </c>
+      <c r="E81" t="s">
+        <v>983</v>
+      </c>
+      <c r="F81" t="s">
+        <v>1007</v>
+      </c>
+      <c r="G81" t="s">
+        <v>984</v>
+      </c>
+      <c r="H81" t="s">
+        <v>985</v>
+      </c>
+      <c r="I81" t="s">
+        <v>981</v>
+      </c>
+      <c r="J81" t="s">
         <v>982</v>
       </c>
-      <c r="B81" t="s">
-        <v>973</v>
-      </c>
-      <c r="C81" t="s">
-        <v>1005</v>
-      </c>
-      <c r="D81" t="s">
-        <v>1005</v>
-      </c>
-      <c r="E81" t="s">
-        <v>985</v>
-      </c>
-      <c r="F81" t="s">
-        <v>1009</v>
-      </c>
-      <c r="G81" t="s">
+      <c r="K81" t="s">
+        <v>983</v>
+      </c>
+      <c r="L81" t="s">
         <v>986</v>
       </c>
-      <c r="H81" t="s">
+      <c r="M81" t="s">
         <v>987</v>
       </c>
-      <c r="I81" t="s">
-        <v>983</v>
-      </c>
-      <c r="J81" t="s">
-        <v>984</v>
-      </c>
-      <c r="K81" t="s">
-        <v>985</v>
-      </c>
-      <c r="L81" t="s">
+      <c r="N81" t="s">
         <v>988</v>
       </c>
-      <c r="M81" t="s">
+      <c r="R81" t="s">
         <v>989</v>
       </c>
-      <c r="N81" t="s">
+      <c r="S81" t="s">
         <v>990</v>
       </c>
-      <c r="R81" t="s">
+      <c r="T81" t="s">
         <v>991</v>
-      </c>
-      <c r="S81" t="s">
-        <v>992</v>
-      </c>
-      <c r="T81" t="s">
-        <v>993</v>
       </c>
     </row>
     <row r="82" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
+        <v>992</v>
+      </c>
+      <c r="B82" t="s">
+        <v>971</v>
+      </c>
+      <c r="C82" t="s">
+        <v>1004</v>
+      </c>
+      <c r="D82" t="s">
+        <v>1004</v>
+      </c>
+      <c r="E82" t="s">
+        <v>995</v>
+      </c>
+      <c r="F82" t="s">
+        <v>1008</v>
+      </c>
+      <c r="G82" t="s">
+        <v>996</v>
+      </c>
+      <c r="H82" t="s">
+        <v>997</v>
+      </c>
+      <c r="I82" t="s">
+        <v>993</v>
+      </c>
+      <c r="J82" t="s">
         <v>994</v>
       </c>
-      <c r="B82" t="s">
-        <v>973</v>
-      </c>
-      <c r="C82" t="s">
-        <v>1006</v>
-      </c>
-      <c r="D82" t="s">
-        <v>1006</v>
-      </c>
-      <c r="E82" t="s">
-        <v>997</v>
-      </c>
-      <c r="F82" t="s">
-        <v>1010</v>
-      </c>
-      <c r="G82" t="s">
+      <c r="K82" t="s">
+        <v>995</v>
+      </c>
+      <c r="L82" t="s">
         <v>998</v>
       </c>
-      <c r="H82" t="s">
+      <c r="M82" t="s">
         <v>999</v>
       </c>
-      <c r="I82" t="s">
-        <v>995</v>
-      </c>
-      <c r="J82" t="s">
-        <v>996</v>
-      </c>
-      <c r="K82" t="s">
-        <v>997</v>
-      </c>
-      <c r="L82" t="s">
+      <c r="N82" t="s">
         <v>1000</v>
-      </c>
-      <c r="M82" t="s">
-        <v>1001</v>
-      </c>
-      <c r="N82" t="s">
-        <v>1002</v>
       </c>
     </row>
     <row r="83" spans="1:20" x14ac:dyDescent="0.25">
@@ -7417,7 +7423,7 @@
         <v>615</v>
       </c>
       <c r="I83" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="J83" t="s">
         <v>616</v>

--- a/PTBR/Lang/PTBR/Game/Stat.xlsx
+++ b/PTBR/Lang/PTBR/Game/Stat.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Files (x86)\Steam\steamapps\common\Elin\Package\PTBR\Lang\PTBR\Game\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isy\Documents\GitHub\elin-portugues-brasileiro\PTBR\Lang\PTBR\Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CE1DDB5-3E1B-45F4-93C4-E5D43664219D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38002152-CCAD-4528-9EA7-3BAA683754C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="855" yWindow="885" windowWidth="20400" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7095" yWindow="495" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Stat" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1251" uniqueCount="1015">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1351" uniqueCount="1076">
   <si>
     <t>id</t>
   </si>
@@ -2492,9 +2492,6 @@
     <t>Uma condição onde você está agitado e não pode se mover por um curto período.</t>
   </si>
   <si>
-    <t>Uma condição onde o dano causado é reduzido, e as oportunidades de usar habilidades são limitadas.</t>
-  </si>
-  <si>
     <t>Uma condição onde suas funções vitais cessaram, deixando-o imóvel.</t>
   </si>
   <si>
@@ -2986,9 +2983,6 @@
     <t>三元素への耐性を授ける加護。</t>
   </si>
   <si>
-    <t>#1被元素之衣服覆盖了。</t>
-  </si>
-  <si>
     <t>#1的元素之衣消失了。</t>
   </si>
   <si>
@@ -2998,9 +2992,6 @@
     <t>士気を上昇させる加護。</t>
   </si>
   <si>
-    <t>#1感到斗志昂扬。</t>
-  </si>
-  <si>
     <t>#1的昂扬感消退了。</t>
   </si>
   <si>
@@ -3022,9 +3013,6 @@
     <t>死亡した時に自動的に蘇る加護。</t>
   </si>
   <si>
-    <t>#1被强大的存在庇护了。</t>
-  </si>
-  <si>
     <t>#1 are/is protected by a great being.</t>
   </si>
   <si>
@@ -3058,9 +3046,6 @@
     <t>悪夢により耐性を減少させる呪い。</t>
   </si>
   <si>
-    <t>#1受到噩梦侵扰。</t>
-  </si>
-  <si>
     <t>#1 are/is tormented by a nightmare.</t>
   </si>
   <si>
@@ -3107,6 +3092,204 @@
   </si>
   <si>
     <t>A bagagem está pesada demais. Quanto mais pesada, mais lento você fica. E se ficar pesado demais, poderá ser esmagado pelo peso (vai levar dano na vida).</t>
+  </si>
+  <si>
+    <t>EA 23.124</t>
+  </si>
+  <si>
+    <t>A condition where you are unaffected by drowsiness and immune to sleep except when fatigued. Prevents stamina recovery from food.</t>
+  </si>
+  <si>
+    <t>眠気が訪れず、疲労時以外の睡眠を無効にする状態。食事によるスタミナ回復効果を妨げる。</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>EA 23.131</t>
+  </si>
+  <si>
+    <t>Brightness of Life</t>
+  </si>
+  <si>
+    <t>いのちの輝き</t>
+  </si>
+  <si>
+    <t>Blessing that intensifies the desire for self-destruction.</t>
+  </si>
+  <si>
+    <t>自爆への欲求を高める加護。</t>
+  </si>
+  <si>
+    <t>#your life is bathed in a radiant glow.</t>
+  </si>
+  <si>
+    <t>#1の命はまばゆい輝きを帯びた。</t>
+  </si>
+  <si>
+    <t>91</t>
+  </si>
+  <si>
+    <t>EA 23.135</t>
+  </si>
+  <si>
+    <t>水中呼吸</t>
+  </si>
+  <si>
+    <t>Water Breathing</t>
+  </si>
+  <si>
+    <t>Blessing that allows breathing underwater.</t>
+  </si>
+  <si>
+    <t>水中での呼吸を可能にする加護。</t>
+  </si>
+  <si>
+    <t>Bubbles of air start forming around #1.</t>
+  </si>
+  <si>
+    <t>#1の周りに空気の泡が立ち始めた。</t>
+  </si>
+  <si>
+    <t>The bubbles of air burst.</t>
+  </si>
+  <si>
+    <t>空気の泡は弾けた。</t>
+  </si>
+  <si>
+    <t>92</t>
+  </si>
+  <si>
+    <t>EA 23.143</t>
+  </si>
+  <si>
+    <t>Catification</t>
+  </si>
+  <si>
+    <t>猫変容</t>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
+    <t>EA 23.145</t>
+  </si>
+  <si>
+    <t>Berserk</t>
+  </si>
+  <si>
+    <t>狂戦士化</t>
+  </si>
+  <si>
+    <t>A condition where you are consumed by rage and can only perform offensive actions. All damage dealt is increased.</t>
+  </si>
+  <si>
+    <t>怒りに支配され攻撃行動しか行わなくなる状態。全ての与ダメージが上昇する。</t>
+  </si>
+  <si>
+    <t>#1 are/is consumed by fury!</t>
+  </si>
+  <si>
+    <t>怒りが#1を支配した！</t>
+  </si>
+  <si>
+    <t>#1 feel(s) calm again.</t>
+  </si>
+  <si>
+    <t>#1は落ち着いた。</t>
+  </si>
+  <si>
+    <t>Hex that applies gravity. It blocks teleportation and knockback effects.</t>
+  </si>
+  <si>
+    <t>重力を付与する呪い。テレポートやノックバックを阻害する。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suprimido  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mente Afiada  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brilho da Vida  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Respiração Aquática  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Catificação  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fúria  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gravidade  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uma condição em que o dano causado é reduzido e as oportunidades de usar habilidades são limitadas.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uma condição em que você não é afetado por sonolência e é imune a sono, exceto quando exausto. Impede a recuperação de vigor através da comida.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bênção que intensifica o desejo de autodestruição.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bênção que permite respirar debaixo d'água.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transformação em outro ser.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uma condição em que você é consumido pela fúria e só pode realizar ações ofensivas. Todo o dano causado é aumentado.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maldição que aplica gravidade. Bloqueia efeitos de teletransporte e de recuo.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">#1 sente-se afiado e alerta.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">#sua vida é banhada por um brilho radiante.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bolhas de ar começam a se formar ao redor de #1.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">#1 foi transmutado(a).  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">#1 foi consumido(a) pela fúria!  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">#1 sente a gravidade.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uma veste elemental envolve #1.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">#1 sente-se eufórico(a).  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">#1 está protegido(a) por uma grande entidade.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">#1 é atormentado(a) por um pesadelo.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">#1 sente-se mentalmente lento(a).  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">As bolhas de ar estouram.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">#1 voltou ao normal.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">#1 sente-se calmo(a) novamente.  </t>
   </si>
 </sst>
 </file>
@@ -3487,11 +3670,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T83"/>
+  <dimension ref="A1:T89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R84" sqref="R84:R89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3499,7 +3682,7 @@
     <col min="1" max="2" width="16" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="23.85546875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="4" max="5" width="16" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="125.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="144.85546875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="7" max="7" width="118.28515625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="8" max="8" width="89.42578125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="9" max="9" width="66" bestFit="1" customWidth="1" collapsed="1"/>
@@ -3594,7 +3777,7 @@
         <v>556</v>
       </c>
       <c r="F3" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="G3" t="s">
         <v>557</v>
@@ -3603,7 +3786,7 @@
         <v>558</v>
       </c>
       <c r="I3" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="J3" t="s">
         <v>559</v>
@@ -3612,7 +3795,7 @@
         <v>560</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="M3" t="s">
         <v>561</v>
@@ -3621,7 +3804,7 @@
         <v>562</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="P3" t="s">
         <v>563</v>
@@ -3638,7 +3821,7 @@
         <v>671</v>
       </c>
       <c r="C4" t="s">
-        <v>1009</v>
+        <v>1004</v>
       </c>
       <c r="D4" t="s">
         <v>566</v>
@@ -3647,7 +3830,7 @@
         <v>567</v>
       </c>
       <c r="F4" t="s">
-        <v>1014</v>
+        <v>1009</v>
       </c>
       <c r="G4" t="s">
         <v>568</v>
@@ -3656,7 +3839,7 @@
         <v>569</v>
       </c>
       <c r="I4" t="s">
-        <v>1012</v>
+        <v>1007</v>
       </c>
       <c r="J4" t="s">
         <v>570</v>
@@ -3665,3155 +3848,3092 @@
         <v>571</v>
       </c>
       <c r="L4" t="s">
-        <v>1013</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>618</v>
+        <v>469</v>
       </c>
       <c r="B5" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="C5" t="s">
-        <v>749</v>
+        <v>739</v>
       </c>
       <c r="D5" t="s">
-        <v>594</v>
+        <v>470</v>
       </c>
       <c r="E5" t="s">
-        <v>595</v>
+        <v>471</v>
+      </c>
+      <c r="F5" t="s">
+        <v>807</v>
+      </c>
+      <c r="G5" t="s">
+        <v>472</v>
+      </c>
+      <c r="H5" t="s">
+        <v>473</v>
       </c>
       <c r="I5" t="s">
-        <v>859</v>
+        <v>846</v>
       </c>
       <c r="J5" t="s">
-        <v>619</v>
+        <v>474</v>
       </c>
       <c r="K5" t="s">
-        <v>620</v>
+        <v>475</v>
+      </c>
+      <c r="L5" t="s">
+        <v>905</v>
+      </c>
+      <c r="M5" t="s">
+        <v>476</v>
+      </c>
+      <c r="N5" t="s">
+        <v>477</v>
+      </c>
+      <c r="R5" t="s">
+        <v>960</v>
+      </c>
+      <c r="S5" t="s">
+        <v>478</v>
+      </c>
+      <c r="T5" t="s">
+        <v>479</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>469</v>
+        <v>572</v>
       </c>
       <c r="B6" t="s">
         <v>671</v>
       </c>
       <c r="C6" t="s">
-        <v>739</v>
+        <v>705</v>
       </c>
       <c r="D6" t="s">
-        <v>470</v>
+        <v>158</v>
       </c>
       <c r="E6" t="s">
-        <v>471</v>
+        <v>573</v>
       </c>
       <c r="F6" t="s">
-        <v>807</v>
+        <v>816</v>
       </c>
       <c r="G6" t="s">
-        <v>472</v>
+        <v>574</v>
       </c>
       <c r="H6" t="s">
-        <v>473</v>
+        <v>575</v>
       </c>
       <c r="I6" t="s">
-        <v>847</v>
+        <v>576</v>
       </c>
       <c r="J6" t="s">
-        <v>474</v>
+        <v>576</v>
       </c>
       <c r="K6" t="s">
-        <v>475</v>
-      </c>
-      <c r="L6" t="s">
-        <v>906</v>
-      </c>
-      <c r="M6" t="s">
-        <v>476</v>
-      </c>
-      <c r="N6" t="s">
-        <v>477</v>
-      </c>
-      <c r="R6" t="s">
-        <v>961</v>
-      </c>
-      <c r="S6" t="s">
-        <v>478</v>
-      </c>
-      <c r="T6" t="s">
-        <v>479</v>
+        <v>576</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>572</v>
+        <v>100</v>
       </c>
       <c r="B7" t="s">
         <v>671</v>
       </c>
       <c r="C7" t="s">
-        <v>705</v>
+        <v>699</v>
       </c>
       <c r="D7" t="s">
-        <v>158</v>
+        <v>101</v>
       </c>
       <c r="E7" t="s">
-        <v>573</v>
+        <v>102</v>
       </c>
       <c r="F7" t="s">
-        <v>817</v>
+        <v>768</v>
       </c>
       <c r="G7" t="s">
-        <v>574</v>
+        <v>103</v>
       </c>
       <c r="H7" t="s">
-        <v>575</v>
+        <v>104</v>
       </c>
       <c r="I7" t="s">
-        <v>576</v>
+        <v>830</v>
       </c>
       <c r="J7" t="s">
-        <v>576</v>
+        <v>105</v>
       </c>
       <c r="K7" t="s">
-        <v>576</v>
+        <v>102</v>
+      </c>
+      <c r="L7" t="s">
+        <v>871</v>
+      </c>
+      <c r="M7" t="s">
+        <v>106</v>
+      </c>
+      <c r="N7" t="s">
+        <v>107</v>
+      </c>
+      <c r="R7" t="s">
+        <v>929</v>
+      </c>
+      <c r="S7" t="s">
+        <v>108</v>
+      </c>
+      <c r="T7" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="B8" t="s">
         <v>671</v>
       </c>
       <c r="C8" t="s">
-        <v>699</v>
+        <v>702</v>
       </c>
       <c r="D8" t="s">
-        <v>101</v>
+        <v>131</v>
       </c>
       <c r="E8" t="s">
-        <v>102</v>
+        <v>132</v>
       </c>
       <c r="F8" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="G8" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="H8" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="I8" t="s">
-        <v>831</v>
+        <v>833</v>
       </c>
       <c r="J8" t="s">
-        <v>105</v>
+        <v>133</v>
       </c>
       <c r="K8" t="s">
-        <v>102</v>
+        <v>132</v>
       </c>
       <c r="L8" t="s">
-        <v>872</v>
+        <v>862</v>
       </c>
       <c r="M8" t="s">
-        <v>106</v>
+        <v>134</v>
       </c>
       <c r="N8" t="s">
-        <v>107</v>
+        <v>135</v>
       </c>
       <c r="R8" t="s">
-        <v>930</v>
+        <v>932</v>
       </c>
       <c r="S8" t="s">
-        <v>108</v>
+        <v>136</v>
       </c>
       <c r="T8" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>130</v>
+        <v>58</v>
       </c>
       <c r="B9" t="s">
         <v>671</v>
       </c>
       <c r="C9" t="s">
-        <v>702</v>
+        <v>695</v>
       </c>
       <c r="D9" t="s">
-        <v>131</v>
+        <v>59</v>
       </c>
       <c r="E9" t="s">
-        <v>132</v>
+        <v>60</v>
       </c>
       <c r="F9" t="s">
-        <v>769</v>
+        <v>764</v>
       </c>
       <c r="G9" t="s">
-        <v>113</v>
+        <v>61</v>
       </c>
       <c r="H9" t="s">
-        <v>114</v>
+        <v>62</v>
       </c>
       <c r="I9" t="s">
-        <v>834</v>
+        <v>827</v>
       </c>
       <c r="J9" t="s">
-        <v>133</v>
+        <v>63</v>
       </c>
       <c r="K9" t="s">
-        <v>132</v>
-      </c>
-      <c r="L9" t="s">
-        <v>863</v>
+        <v>64</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>868</v>
       </c>
       <c r="M9" t="s">
-        <v>134</v>
+        <v>65</v>
       </c>
       <c r="N9" t="s">
-        <v>135</v>
+        <v>66</v>
+      </c>
+      <c r="O9" t="s">
+        <v>919</v>
+      </c>
+      <c r="P9" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>68</v>
       </c>
       <c r="R9" t="s">
-        <v>933</v>
+        <v>951</v>
       </c>
       <c r="S9" t="s">
-        <v>136</v>
+        <v>69</v>
       </c>
       <c r="T9" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>58</v>
+        <v>503</v>
       </c>
       <c r="B10" t="s">
         <v>671</v>
       </c>
       <c r="C10" t="s">
-        <v>695</v>
+        <v>742</v>
       </c>
       <c r="D10" t="s">
-        <v>59</v>
+        <v>504</v>
       </c>
       <c r="E10" t="s">
-        <v>60</v>
+        <v>505</v>
       </c>
       <c r="F10" t="s">
-        <v>764</v>
+        <v>810</v>
       </c>
       <c r="G10" t="s">
-        <v>61</v>
+        <v>506</v>
       </c>
       <c r="H10" t="s">
-        <v>62</v>
+        <v>507</v>
       </c>
       <c r="I10" t="s">
-        <v>828</v>
+        <v>742</v>
       </c>
       <c r="J10" t="s">
-        <v>63</v>
+        <v>504</v>
       </c>
       <c r="K10" t="s">
-        <v>64</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>869</v>
+        <v>505</v>
+      </c>
+      <c r="L10" t="s">
+        <v>908</v>
       </c>
       <c r="M10" t="s">
-        <v>65</v>
+        <v>508</v>
       </c>
       <c r="N10" t="s">
-        <v>66</v>
-      </c>
-      <c r="O10" t="s">
-        <v>920</v>
-      </c>
-      <c r="P10" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>68</v>
+        <v>509</v>
       </c>
       <c r="R10" t="s">
-        <v>952</v>
+        <v>963</v>
       </c>
       <c r="S10" t="s">
-        <v>69</v>
+        <v>510</v>
       </c>
       <c r="T10" t="s">
-        <v>70</v>
+        <v>511</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>503</v>
+        <v>82</v>
       </c>
       <c r="B11" t="s">
         <v>671</v>
       </c>
       <c r="C11" t="s">
-        <v>742</v>
+        <v>697</v>
       </c>
       <c r="D11" t="s">
-        <v>504</v>
+        <v>83</v>
       </c>
       <c r="E11" t="s">
-        <v>505</v>
+        <v>84</v>
       </c>
       <c r="F11" t="s">
-        <v>810</v>
+        <v>766</v>
       </c>
       <c r="G11" t="s">
-        <v>506</v>
+        <v>85</v>
       </c>
       <c r="H11" t="s">
-        <v>507</v>
+        <v>86</v>
       </c>
       <c r="I11" t="s">
-        <v>742</v>
+        <v>829</v>
       </c>
       <c r="J11" t="s">
-        <v>504</v>
+        <v>83</v>
       </c>
       <c r="K11" t="s">
-        <v>505</v>
+        <v>84</v>
       </c>
       <c r="L11" t="s">
-        <v>909</v>
+        <v>869</v>
       </c>
       <c r="M11" t="s">
-        <v>508</v>
+        <v>87</v>
       </c>
       <c r="N11" t="s">
-        <v>509</v>
+        <v>88</v>
       </c>
       <c r="R11" t="s">
-        <v>964</v>
+        <v>927</v>
       </c>
       <c r="S11" t="s">
-        <v>510</v>
+        <v>89</v>
       </c>
       <c r="T11" t="s">
-        <v>511</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="B12" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C12" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="D12" t="s">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="E12" t="s">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="F12" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="G12" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="H12" t="s">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="I12" t="s">
-        <v>829</v>
+        <v>698</v>
       </c>
       <c r="J12" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="K12" t="s">
-        <v>77</v>
-      </c>
-      <c r="L12" s="2" t="s">
-        <v>890</v>
+        <v>93</v>
+      </c>
+      <c r="L12" t="s">
+        <v>870</v>
       </c>
       <c r="M12" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="N12" t="s">
-        <v>79</v>
-      </c>
-      <c r="O12" t="s">
-        <v>921</v>
-      </c>
-      <c r="P12" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>81</v>
+        <v>97</v>
+      </c>
+      <c r="R12" t="s">
+        <v>928</v>
+      </c>
+      <c r="S12" t="s">
+        <v>98</v>
+      </c>
+      <c r="T12" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>82</v>
+        <v>291</v>
       </c>
       <c r="B13" t="s">
         <v>671</v>
       </c>
       <c r="C13" t="s">
-        <v>697</v>
+        <v>719</v>
       </c>
       <c r="D13" t="s">
-        <v>83</v>
+        <v>292</v>
       </c>
       <c r="E13" t="s">
-        <v>84</v>
+        <v>293</v>
       </c>
       <c r="F13" t="s">
-        <v>766</v>
+        <v>787</v>
       </c>
       <c r="G13" t="s">
-        <v>85</v>
+        <v>294</v>
       </c>
       <c r="H13" t="s">
-        <v>86</v>
+        <v>295</v>
       </c>
       <c r="I13" t="s">
-        <v>830</v>
+        <v>843</v>
       </c>
       <c r="J13" t="s">
-        <v>83</v>
+        <v>296</v>
       </c>
       <c r="K13" t="s">
-        <v>84</v>
+        <v>297</v>
       </c>
       <c r="L13" t="s">
-        <v>870</v>
+        <v>887</v>
       </c>
       <c r="M13" t="s">
-        <v>87</v>
+        <v>298</v>
       </c>
       <c r="N13" t="s">
-        <v>88</v>
+        <v>299</v>
       </c>
       <c r="R13" t="s">
-        <v>928</v>
+        <v>948</v>
       </c>
       <c r="S13" t="s">
-        <v>89</v>
+        <v>300</v>
       </c>
       <c r="T13" t="s">
-        <v>90</v>
+        <v>301</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>91</v>
+        <v>110</v>
       </c>
       <c r="B14" t="s">
         <v>671</v>
       </c>
       <c r="C14" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="D14" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
       <c r="E14" t="s">
-        <v>93</v>
+        <v>112</v>
       </c>
       <c r="F14" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
       <c r="G14" t="s">
-        <v>94</v>
+        <v>113</v>
       </c>
       <c r="H14" t="s">
-        <v>95</v>
+        <v>114</v>
       </c>
       <c r="I14" t="s">
-        <v>698</v>
+        <v>831</v>
       </c>
       <c r="J14" t="s">
-        <v>92</v>
+        <v>115</v>
       </c>
       <c r="K14" t="s">
-        <v>93</v>
+        <v>112</v>
       </c>
       <c r="L14" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="M14" t="s">
-        <v>96</v>
+        <v>116</v>
       </c>
       <c r="N14" t="s">
-        <v>97</v>
+        <v>117</v>
       </c>
       <c r="R14" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="S14" t="s">
-        <v>98</v>
+        <v>118</v>
       </c>
       <c r="T14" t="s">
-        <v>99</v>
+        <v>119</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>291</v>
+        <v>302</v>
       </c>
       <c r="B15" t="s">
         <v>671</v>
       </c>
       <c r="C15" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="D15" t="s">
-        <v>292</v>
+        <v>303</v>
       </c>
       <c r="E15" t="s">
-        <v>293</v>
+        <v>304</v>
       </c>
       <c r="F15" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="G15" t="s">
-        <v>294</v>
+        <v>305</v>
       </c>
       <c r="H15" t="s">
-        <v>295</v>
+        <v>306</v>
       </c>
       <c r="I15" t="s">
-        <v>844</v>
+        <v>720</v>
       </c>
       <c r="J15" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="K15" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="L15" t="s">
-        <v>888</v>
+        <v>865</v>
       </c>
       <c r="M15" t="s">
-        <v>298</v>
+        <v>307</v>
       </c>
       <c r="N15" t="s">
-        <v>299</v>
+        <v>308</v>
       </c>
       <c r="R15" t="s">
         <v>949</v>
       </c>
       <c r="S15" t="s">
-        <v>300</v>
+        <v>309</v>
       </c>
       <c r="T15" t="s">
-        <v>301</v>
+        <v>310</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>110</v>
+        <v>500</v>
       </c>
       <c r="B16" t="s">
         <v>671</v>
       </c>
       <c r="C16" t="s">
-        <v>700</v>
+        <v>741</v>
       </c>
       <c r="D16" t="s">
-        <v>111</v>
+        <v>501</v>
       </c>
       <c r="E16" t="s">
-        <v>112</v>
-      </c>
-      <c r="F16" t="s">
-        <v>769</v>
-      </c>
-      <c r="G16" t="s">
-        <v>113</v>
-      </c>
-      <c r="H16" t="s">
-        <v>114</v>
+        <v>502</v>
       </c>
       <c r="I16" t="s">
-        <v>832</v>
+        <v>741</v>
       </c>
       <c r="J16" t="s">
-        <v>115</v>
+        <v>501</v>
       </c>
       <c r="K16" t="s">
-        <v>112</v>
-      </c>
-      <c r="L16" t="s">
-        <v>873</v>
-      </c>
-      <c r="M16" t="s">
-        <v>116</v>
-      </c>
-      <c r="N16" t="s">
-        <v>117</v>
-      </c>
-      <c r="R16" t="s">
-        <v>931</v>
-      </c>
-      <c r="S16" t="s">
-        <v>118</v>
-      </c>
-      <c r="T16" t="s">
-        <v>119</v>
+        <v>502</v>
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>577</v>
+        <v>138</v>
       </c>
       <c r="B17" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="C17" t="s">
-        <v>748</v>
+        <v>703</v>
       </c>
       <c r="D17" t="s">
-        <v>578</v>
+        <v>139</v>
       </c>
       <c r="E17" t="s">
-        <v>579</v>
+        <v>140</v>
       </c>
       <c r="F17" t="s">
-        <v>818</v>
+        <v>771</v>
       </c>
       <c r="G17" t="s">
-        <v>580</v>
+        <v>141</v>
       </c>
       <c r="H17" t="s">
-        <v>581</v>
+        <v>142</v>
       </c>
       <c r="I17" t="s">
-        <v>853</v>
+        <v>834</v>
       </c>
       <c r="J17" t="s">
-        <v>582</v>
+        <v>143</v>
       </c>
       <c r="K17" t="s">
-        <v>583</v>
+        <v>140</v>
+      </c>
+      <c r="L17" t="s">
+        <v>874</v>
+      </c>
+      <c r="M17" t="s">
+        <v>144</v>
+      </c>
+      <c r="N17" t="s">
+        <v>145</v>
+      </c>
+      <c r="R17" t="s">
+        <v>933</v>
+      </c>
+      <c r="S17" t="s">
+        <v>146</v>
+      </c>
+      <c r="T17" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>302</v>
+        <v>148</v>
       </c>
       <c r="B18" t="s">
         <v>671</v>
       </c>
       <c r="C18" t="s">
-        <v>720</v>
+        <v>704</v>
       </c>
       <c r="D18" t="s">
-        <v>303</v>
+        <v>149</v>
       </c>
       <c r="E18" t="s">
-        <v>304</v>
+        <v>150</v>
       </c>
       <c r="F18" t="s">
-        <v>788</v>
+        <v>772</v>
       </c>
       <c r="G18" t="s">
-        <v>305</v>
+        <v>151</v>
       </c>
       <c r="H18" t="s">
-        <v>306</v>
+        <v>152</v>
       </c>
       <c r="I18" t="s">
-        <v>720</v>
+        <v>835</v>
       </c>
       <c r="J18" t="s">
-        <v>303</v>
+        <v>149</v>
       </c>
       <c r="K18" t="s">
-        <v>304</v>
+        <v>150</v>
       </c>
       <c r="L18" t="s">
-        <v>866</v>
+        <v>875</v>
       </c>
       <c r="M18" t="s">
-        <v>307</v>
+        <v>153</v>
       </c>
       <c r="N18" t="s">
-        <v>308</v>
+        <v>154</v>
       </c>
       <c r="R18" t="s">
-        <v>950</v>
+        <v>934</v>
       </c>
       <c r="S18" t="s">
-        <v>309</v>
+        <v>155</v>
       </c>
       <c r="T18" t="s">
-        <v>310</v>
+        <v>156</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>500</v>
+        <v>157</v>
       </c>
       <c r="B19" t="s">
         <v>671</v>
       </c>
       <c r="C19" t="s">
-        <v>741</v>
+        <v>705</v>
       </c>
       <c r="D19" t="s">
-        <v>501</v>
+        <v>158</v>
       </c>
       <c r="E19" t="s">
-        <v>502</v>
+        <v>159</v>
+      </c>
+      <c r="F19" t="s">
+        <v>773</v>
+      </c>
+      <c r="G19" t="s">
+        <v>160</v>
+      </c>
+      <c r="H19" t="s">
+        <v>161</v>
       </c>
       <c r="I19" t="s">
-        <v>741</v>
+        <v>836</v>
       </c>
       <c r="J19" t="s">
-        <v>501</v>
+        <v>162</v>
       </c>
       <c r="K19" t="s">
-        <v>502</v>
+        <v>163</v>
+      </c>
+      <c r="L19" t="s">
+        <v>876</v>
+      </c>
+      <c r="M19" t="s">
+        <v>164</v>
+      </c>
+      <c r="N19" t="s">
+        <v>165</v>
+      </c>
+      <c r="R19" t="s">
+        <v>935</v>
+      </c>
+      <c r="S19" t="s">
+        <v>166</v>
+      </c>
+      <c r="T19" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>138</v>
+        <v>480</v>
       </c>
       <c r="B20" t="s">
         <v>671</v>
       </c>
       <c r="C20" t="s">
-        <v>703</v>
+        <v>740</v>
       </c>
       <c r="D20" t="s">
-        <v>139</v>
+        <v>481</v>
       </c>
       <c r="E20" t="s">
-        <v>140</v>
+        <v>482</v>
       </c>
       <c r="F20" t="s">
-        <v>771</v>
+        <v>808</v>
       </c>
       <c r="G20" t="s">
-        <v>141</v>
+        <v>483</v>
       </c>
       <c r="H20" t="s">
-        <v>142</v>
+        <v>484</v>
       </c>
       <c r="I20" t="s">
-        <v>835</v>
+        <v>847</v>
       </c>
       <c r="J20" t="s">
-        <v>143</v>
+        <v>485</v>
       </c>
       <c r="K20" t="s">
-        <v>140</v>
+        <v>486</v>
       </c>
       <c r="L20" t="s">
-        <v>875</v>
+        <v>906</v>
       </c>
       <c r="M20" t="s">
-        <v>144</v>
+        <v>487</v>
       </c>
       <c r="N20" t="s">
-        <v>145</v>
+        <v>488</v>
       </c>
       <c r="R20" t="s">
-        <v>934</v>
+        <v>961</v>
       </c>
       <c r="S20" t="s">
-        <v>146</v>
+        <v>489</v>
       </c>
       <c r="T20" t="s">
-        <v>147</v>
+        <v>490</v>
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>148</v>
+        <v>168</v>
       </c>
       <c r="B21" t="s">
         <v>671</v>
       </c>
       <c r="C21" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="D21" t="s">
-        <v>149</v>
+        <v>169</v>
       </c>
       <c r="E21" t="s">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="F21" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="G21" t="s">
-        <v>151</v>
+        <v>171</v>
       </c>
       <c r="H21" t="s">
-        <v>152</v>
+        <v>172</v>
       </c>
       <c r="I21" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="J21" t="s">
-        <v>149</v>
+        <v>173</v>
       </c>
       <c r="K21" t="s">
-        <v>150</v>
+        <v>174</v>
       </c>
       <c r="L21" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="M21" t="s">
-        <v>153</v>
+        <v>175</v>
       </c>
       <c r="N21" t="s">
-        <v>154</v>
+        <v>176</v>
       </c>
       <c r="R21" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="S21" t="s">
-        <v>155</v>
+        <v>177</v>
       </c>
       <c r="T21" t="s">
-        <v>156</v>
+        <v>178</v>
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>628</v>
+        <v>179</v>
       </c>
       <c r="B22" t="s">
-        <v>689</v>
+        <v>671</v>
       </c>
       <c r="C22" t="s">
-        <v>754</v>
+        <v>707</v>
       </c>
       <c r="D22" t="s">
-        <v>629</v>
+        <v>180</v>
       </c>
       <c r="E22" t="s">
-        <v>630</v>
+        <v>181</v>
       </c>
       <c r="F22" t="s">
-        <v>822</v>
+        <v>775</v>
       </c>
       <c r="G22" t="s">
-        <v>631</v>
+        <v>182</v>
       </c>
       <c r="H22" t="s">
-        <v>632</v>
+        <v>183</v>
       </c>
       <c r="I22" t="s">
-        <v>754</v>
+        <v>838</v>
       </c>
       <c r="J22" t="s">
-        <v>629</v>
+        <v>184</v>
       </c>
       <c r="K22" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+      <c r="L22" t="s">
+        <v>878</v>
+      </c>
+      <c r="M22" t="s">
+        <v>186</v>
+      </c>
+      <c r="N22" t="s">
+        <v>187</v>
+      </c>
+      <c r="R22" t="s">
+        <v>937</v>
+      </c>
+      <c r="S22" t="s">
+        <v>188</v>
+      </c>
+      <c r="T22" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>157</v>
+        <v>584</v>
       </c>
       <c r="B23" t="s">
         <v>671</v>
       </c>
       <c r="C23" t="s">
-        <v>705</v>
+        <v>699</v>
       </c>
       <c r="D23" t="s">
-        <v>158</v>
+        <v>101</v>
       </c>
       <c r="E23" t="s">
-        <v>159</v>
+        <v>102</v>
       </c>
       <c r="F23" t="s">
-        <v>773</v>
+        <v>818</v>
       </c>
       <c r="G23" t="s">
-        <v>160</v>
+        <v>585</v>
       </c>
       <c r="H23" t="s">
-        <v>161</v>
+        <v>586</v>
       </c>
       <c r="I23" t="s">
-        <v>837</v>
+        <v>853</v>
       </c>
       <c r="J23" t="s">
-        <v>162</v>
+        <v>587</v>
       </c>
       <c r="K23" t="s">
-        <v>163</v>
-      </c>
-      <c r="L23" t="s">
-        <v>877</v>
+        <v>588</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>913</v>
       </c>
       <c r="M23" t="s">
-        <v>164</v>
+        <v>589</v>
       </c>
       <c r="N23" t="s">
-        <v>165</v>
-      </c>
-      <c r="R23" t="s">
-        <v>936</v>
-      </c>
-      <c r="S23" t="s">
-        <v>166</v>
-      </c>
-      <c r="T23" t="s">
-        <v>167</v>
+        <v>590</v>
+      </c>
+      <c r="O23" t="s">
+        <v>922</v>
+      </c>
+      <c r="P23" t="s">
+        <v>591</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>592</v>
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>512</v>
+        <v>523</v>
       </c>
       <c r="B24" t="s">
-        <v>685</v>
+        <v>671</v>
       </c>
       <c r="C24" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="D24" t="s">
-        <v>513</v>
+        <v>524</v>
       </c>
       <c r="E24" t="s">
-        <v>514</v>
+        <v>525</v>
       </c>
       <c r="F24" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="G24" t="s">
-        <v>515</v>
+        <v>526</v>
       </c>
       <c r="H24" t="s">
-        <v>516</v>
+        <v>527</v>
       </c>
       <c r="I24" t="s">
         <v>849</v>
       </c>
       <c r="J24" t="s">
-        <v>517</v>
+        <v>528</v>
       </c>
       <c r="K24" t="s">
-        <v>518</v>
-      </c>
-      <c r="L24" t="s">
-        <v>910</v>
-      </c>
-      <c r="M24" t="s">
-        <v>519</v>
-      </c>
-      <c r="N24" t="s">
-        <v>520</v>
-      </c>
-      <c r="R24" t="s">
-        <v>965</v>
-      </c>
-      <c r="S24" t="s">
-        <v>521</v>
-      </c>
-      <c r="T24" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>480</v>
+        <v>491</v>
       </c>
       <c r="B25" t="s">
         <v>671</v>
       </c>
       <c r="C25" t="s">
-        <v>740</v>
+        <v>492</v>
       </c>
       <c r="D25" t="s">
-        <v>481</v>
+        <v>492</v>
       </c>
       <c r="E25" t="s">
-        <v>482</v>
+        <v>493</v>
       </c>
       <c r="F25" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="G25" t="s">
-        <v>483</v>
+        <v>494</v>
       </c>
       <c r="H25" t="s">
-        <v>484</v>
+        <v>495</v>
       </c>
       <c r="I25" t="s">
-        <v>848</v>
+        <v>492</v>
       </c>
       <c r="J25" t="s">
-        <v>485</v>
+        <v>492</v>
       </c>
       <c r="K25" t="s">
-        <v>486</v>
+        <v>493</v>
       </c>
       <c r="L25" t="s">
         <v>907</v>
       </c>
       <c r="M25" t="s">
-        <v>487</v>
+        <v>496</v>
       </c>
       <c r="N25" t="s">
-        <v>488</v>
+        <v>497</v>
       </c>
       <c r="R25" t="s">
         <v>962</v>
       </c>
       <c r="S25" t="s">
-        <v>489</v>
+        <v>498</v>
       </c>
       <c r="T25" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>168</v>
+        <v>354</v>
       </c>
       <c r="B26" t="s">
         <v>671</v>
       </c>
       <c r="C26" t="s">
-        <v>706</v>
+        <v>725</v>
       </c>
       <c r="D26" t="s">
-        <v>169</v>
+        <v>355</v>
       </c>
       <c r="E26" t="s">
-        <v>170</v>
+        <v>356</v>
       </c>
       <c r="F26" t="s">
-        <v>774</v>
+        <v>793</v>
       </c>
       <c r="G26" t="s">
-        <v>171</v>
+        <v>357</v>
       </c>
       <c r="H26" t="s">
-        <v>172</v>
+        <v>358</v>
       </c>
       <c r="I26" t="s">
-        <v>838</v>
+        <v>725</v>
       </c>
       <c r="J26" t="s">
-        <v>173</v>
+        <v>359</v>
       </c>
       <c r="K26" t="s">
-        <v>174</v>
+        <v>356</v>
       </c>
       <c r="L26" t="s">
-        <v>878</v>
+        <v>891</v>
       </c>
       <c r="M26" t="s">
-        <v>175</v>
+        <v>360</v>
       </c>
       <c r="N26" t="s">
-        <v>176</v>
+        <v>361</v>
       </c>
       <c r="R26" t="s">
-        <v>937</v>
+        <v>953</v>
       </c>
       <c r="S26" t="s">
-        <v>177</v>
+        <v>362</v>
       </c>
       <c r="T26" t="s">
-        <v>178</v>
+        <v>363</v>
       </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>179</v>
+        <v>423</v>
       </c>
       <c r="B27" t="s">
         <v>671</v>
       </c>
       <c r="C27" t="s">
-        <v>707</v>
+        <v>733</v>
       </c>
       <c r="D27" t="s">
-        <v>180</v>
+        <v>424</v>
       </c>
       <c r="E27" t="s">
-        <v>181</v>
+        <v>425</v>
       </c>
       <c r="F27" t="s">
-        <v>775</v>
+        <v>801</v>
       </c>
       <c r="G27" t="s">
-        <v>182</v>
+        <v>426</v>
       </c>
       <c r="H27" t="s">
-        <v>183</v>
+        <v>427</v>
       </c>
       <c r="I27" t="s">
-        <v>839</v>
+        <v>733</v>
       </c>
       <c r="J27" t="s">
-        <v>184</v>
+        <v>424</v>
       </c>
       <c r="K27" t="s">
-        <v>185</v>
+        <v>425</v>
       </c>
       <c r="L27" t="s">
-        <v>879</v>
+        <v>899</v>
       </c>
       <c r="M27" t="s">
-        <v>186</v>
+        <v>428</v>
       </c>
       <c r="N27" t="s">
-        <v>187</v>
+        <v>429</v>
       </c>
       <c r="R27" t="s">
-        <v>938</v>
+        <v>957</v>
       </c>
       <c r="S27" t="s">
-        <v>188</v>
+        <v>430</v>
       </c>
       <c r="T27" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>584</v>
+        <v>534</v>
       </c>
       <c r="B28" t="s">
         <v>671</v>
       </c>
       <c r="C28" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="D28" t="s">
-        <v>101</v>
+        <v>535</v>
       </c>
       <c r="E28" t="s">
-        <v>102</v>
+        <v>536</v>
       </c>
       <c r="F28" t="s">
-        <v>819</v>
+        <v>813</v>
       </c>
       <c r="G28" t="s">
-        <v>585</v>
+        <v>537</v>
       </c>
       <c r="H28" t="s">
-        <v>586</v>
+        <v>538</v>
       </c>
       <c r="I28" t="s">
-        <v>854</v>
+        <v>696</v>
       </c>
       <c r="J28" t="s">
-        <v>587</v>
+        <v>535</v>
       </c>
       <c r="K28" t="s">
-        <v>588</v>
-      </c>
-      <c r="L28" s="2" t="s">
-        <v>914</v>
+        <v>536</v>
+      </c>
+      <c r="L28" t="s">
+        <v>910</v>
       </c>
       <c r="M28" t="s">
-        <v>589</v>
+        <v>539</v>
       </c>
       <c r="N28" t="s">
-        <v>590</v>
-      </c>
-      <c r="O28" t="s">
-        <v>923</v>
-      </c>
-      <c r="P28" t="s">
-        <v>591</v>
-      </c>
-      <c r="Q28" t="s">
-        <v>592</v>
+        <v>540</v>
+      </c>
+      <c r="R28" t="s">
+        <v>965</v>
+      </c>
+      <c r="S28" t="s">
+        <v>541</v>
+      </c>
+      <c r="T28" t="s">
+        <v>542</v>
       </c>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>523</v>
+        <v>364</v>
       </c>
       <c r="B29" t="s">
         <v>671</v>
       </c>
       <c r="C29" t="s">
-        <v>744</v>
+        <v>726</v>
       </c>
       <c r="D29" t="s">
-        <v>524</v>
+        <v>365</v>
       </c>
       <c r="E29" t="s">
-        <v>525</v>
+        <v>366</v>
       </c>
       <c r="F29" t="s">
-        <v>812</v>
+        <v>794</v>
       </c>
       <c r="G29" t="s">
-        <v>526</v>
+        <v>367</v>
       </c>
       <c r="H29" t="s">
-        <v>527</v>
+        <v>368</v>
       </c>
       <c r="I29" t="s">
-        <v>850</v>
+        <v>726</v>
       </c>
       <c r="J29" t="s">
-        <v>528</v>
+        <v>365</v>
       </c>
       <c r="K29" t="s">
-        <v>525</v>
+        <v>366</v>
+      </c>
+      <c r="L29" t="s">
+        <v>892</v>
+      </c>
+      <c r="M29" t="s">
+        <v>369</v>
+      </c>
+      <c r="N29" t="s">
+        <v>370</v>
+      </c>
+      <c r="R29" t="s">
+        <v>958</v>
+      </c>
+      <c r="S29" t="s">
+        <v>309</v>
+      </c>
+      <c r="T29" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>491</v>
+        <v>371</v>
       </c>
       <c r="B30" t="s">
         <v>671</v>
       </c>
       <c r="C30" t="s">
-        <v>492</v>
+        <v>727</v>
       </c>
       <c r="D30" t="s">
-        <v>492</v>
+        <v>372</v>
       </c>
       <c r="E30" t="s">
-        <v>493</v>
+        <v>373</v>
       </c>
       <c r="F30" t="s">
-        <v>809</v>
+        <v>795</v>
       </c>
       <c r="G30" t="s">
-        <v>494</v>
+        <v>374</v>
       </c>
       <c r="H30" t="s">
-        <v>495</v>
+        <v>375</v>
       </c>
       <c r="I30" t="s">
-        <v>492</v>
+        <v>727</v>
       </c>
       <c r="J30" t="s">
-        <v>492</v>
+        <v>372</v>
       </c>
       <c r="K30" t="s">
-        <v>493</v>
+        <v>373</v>
       </c>
       <c r="L30" t="s">
-        <v>908</v>
+        <v>893</v>
       </c>
       <c r="M30" t="s">
-        <v>496</v>
+        <v>376</v>
       </c>
       <c r="N30" t="s">
-        <v>497</v>
+        <v>377</v>
       </c>
       <c r="R30" t="s">
-        <v>963</v>
+        <v>954</v>
       </c>
       <c r="S30" t="s">
-        <v>498</v>
+        <v>378</v>
       </c>
       <c r="T30" t="s">
-        <v>499</v>
+        <v>379</v>
       </c>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>318</v>
+        <v>593</v>
       </c>
       <c r="B31" t="s">
-        <v>678</v>
+        <v>671</v>
       </c>
       <c r="C31" t="s">
-        <v>721</v>
+        <v>749</v>
       </c>
       <c r="D31" t="s">
-        <v>319</v>
+        <v>594</v>
       </c>
       <c r="E31" t="s">
-        <v>320</v>
-      </c>
-      <c r="F31" t="s">
-        <v>789</v>
-      </c>
-      <c r="G31" t="s">
-        <v>321</v>
-      </c>
-      <c r="H31" t="s">
-        <v>322</v>
+        <v>595</v>
       </c>
       <c r="I31" t="s">
-        <v>845</v>
+        <v>854</v>
       </c>
       <c r="J31" t="s">
-        <v>323</v>
+        <v>596</v>
       </c>
       <c r="K31" t="s">
-        <v>320</v>
-      </c>
-      <c r="L31" t="s">
-        <v>889</v>
-      </c>
-      <c r="M31" t="s">
-        <v>324</v>
-      </c>
-      <c r="N31" t="s">
-        <v>325</v>
-      </c>
-      <c r="R31" t="s">
-        <v>951</v>
-      </c>
-      <c r="S31" t="s">
-        <v>326</v>
-      </c>
-      <c r="T31" t="s">
-        <v>327</v>
+        <v>597</v>
       </c>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>354</v>
+        <v>212</v>
       </c>
       <c r="B32" t="s">
         <v>671</v>
       </c>
       <c r="C32" t="s">
-        <v>725</v>
+        <v>710</v>
       </c>
       <c r="D32" t="s">
-        <v>355</v>
+        <v>213</v>
       </c>
       <c r="E32" t="s">
-        <v>356</v>
+        <v>214</v>
       </c>
       <c r="F32" t="s">
-        <v>793</v>
+        <v>778</v>
       </c>
       <c r="G32" t="s">
-        <v>357</v>
+        <v>215</v>
       </c>
       <c r="H32" t="s">
-        <v>358</v>
+        <v>216</v>
       </c>
       <c r="I32" t="s">
-        <v>725</v>
+        <v>710</v>
       </c>
       <c r="J32" t="s">
-        <v>359</v>
+        <v>213</v>
       </c>
       <c r="K32" t="s">
-        <v>356</v>
+        <v>214</v>
       </c>
       <c r="L32" t="s">
-        <v>892</v>
+        <v>863</v>
       </c>
       <c r="M32" t="s">
-        <v>360</v>
+        <v>217</v>
       </c>
       <c r="N32" t="s">
-        <v>361</v>
+        <v>218</v>
       </c>
       <c r="R32" t="s">
-        <v>954</v>
+        <v>940</v>
       </c>
       <c r="S32" t="s">
-        <v>362</v>
+        <v>219</v>
       </c>
       <c r="T32" t="s">
-        <v>363</v>
+        <v>220</v>
       </c>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>423</v>
+        <v>598</v>
       </c>
       <c r="B33" t="s">
         <v>671</v>
       </c>
       <c r="C33" t="s">
-        <v>733</v>
+        <v>750</v>
       </c>
       <c r="D33" t="s">
-        <v>424</v>
+        <v>599</v>
       </c>
       <c r="E33" t="s">
-        <v>425</v>
-      </c>
-      <c r="F33" t="s">
-        <v>801</v>
-      </c>
-      <c r="G33" t="s">
-        <v>426</v>
-      </c>
-      <c r="H33" t="s">
-        <v>427</v>
+        <v>600</v>
       </c>
       <c r="I33" t="s">
-        <v>733</v>
+        <v>855</v>
       </c>
       <c r="J33" t="s">
-        <v>424</v>
+        <v>601</v>
       </c>
       <c r="K33" t="s">
-        <v>425</v>
-      </c>
-      <c r="L33" t="s">
-        <v>900</v>
-      </c>
-      <c r="M33" t="s">
-        <v>428</v>
-      </c>
-      <c r="N33" t="s">
-        <v>429</v>
-      </c>
-      <c r="R33" t="s">
-        <v>958</v>
-      </c>
-      <c r="S33" t="s">
-        <v>430</v>
-      </c>
-      <c r="T33" t="s">
-        <v>431</v>
+        <v>602</v>
       </c>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>621</v>
+        <v>603</v>
       </c>
       <c r="B34" t="s">
-        <v>688</v>
+        <v>671</v>
       </c>
       <c r="C34" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="D34" t="s">
-        <v>622</v>
+        <v>604</v>
       </c>
       <c r="E34" t="s">
-        <v>623</v>
+        <v>605</v>
       </c>
       <c r="F34" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="G34" t="s">
-        <v>624</v>
+        <v>606</v>
       </c>
       <c r="H34" t="s">
-        <v>625</v>
+        <v>607</v>
       </c>
       <c r="I34" t="s">
-        <v>860</v>
+        <v>856</v>
       </c>
       <c r="J34" t="s">
-        <v>622</v>
+        <v>608</v>
       </c>
       <c r="K34" t="s">
-        <v>623</v>
-      </c>
-      <c r="L34" t="s">
-        <v>915</v>
-      </c>
-      <c r="M34" t="s">
-        <v>626</v>
-      </c>
-      <c r="N34" t="s">
-        <v>627</v>
-      </c>
-      <c r="R34" t="s">
-        <v>969</v>
-      </c>
-      <c r="S34" t="s">
-        <v>460</v>
-      </c>
-      <c r="T34" t="s">
-        <v>461</v>
+        <v>609</v>
       </c>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>534</v>
+        <v>610</v>
       </c>
       <c r="B35" t="s">
         <v>671</v>
       </c>
       <c r="C35" t="s">
-        <v>696</v>
+        <v>611</v>
       </c>
       <c r="D35" t="s">
-        <v>535</v>
+        <v>611</v>
       </c>
       <c r="E35" t="s">
-        <v>536</v>
-      </c>
-      <c r="F35" t="s">
-        <v>814</v>
-      </c>
-      <c r="G35" t="s">
-        <v>537</v>
-      </c>
-      <c r="H35" t="s">
-        <v>538</v>
-      </c>
-      <c r="I35" t="s">
-        <v>696</v>
-      </c>
-      <c r="J35" t="s">
-        <v>535</v>
-      </c>
-      <c r="K35" t="s">
-        <v>536</v>
-      </c>
-      <c r="L35" t="s">
-        <v>911</v>
-      </c>
-      <c r="M35" t="s">
-        <v>539</v>
-      </c>
-      <c r="N35" t="s">
-        <v>540</v>
-      </c>
-      <c r="R35" t="s">
-        <v>966</v>
-      </c>
-      <c r="S35" t="s">
-        <v>541</v>
-      </c>
-      <c r="T35" t="s">
-        <v>542</v>
+        <v>612</v>
       </c>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>432</v>
+        <v>613</v>
       </c>
       <c r="B36" t="s">
-        <v>677</v>
+        <v>671</v>
       </c>
       <c r="C36" t="s">
-        <v>734</v>
+        <v>752</v>
       </c>
       <c r="D36" t="s">
-        <v>433</v>
+        <v>614</v>
       </c>
       <c r="E36" t="s">
-        <v>434</v>
-      </c>
-      <c r="F36" t="s">
-        <v>802</v>
-      </c>
-      <c r="G36" t="s">
-        <v>435</v>
-      </c>
-      <c r="H36" t="s">
-        <v>436</v>
+        <v>615</v>
       </c>
       <c r="I36" t="s">
-        <v>734</v>
+        <v>857</v>
       </c>
       <c r="J36" t="s">
-        <v>433</v>
+        <v>616</v>
       </c>
       <c r="K36" t="s">
-        <v>434</v>
-      </c>
-      <c r="L36" t="s">
-        <v>901</v>
-      </c>
-      <c r="M36" t="s">
-        <v>437</v>
-      </c>
-      <c r="N36" t="s">
-        <v>438</v>
+        <v>617</v>
       </c>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>364</v>
+        <v>380</v>
       </c>
       <c r="B37" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="C37" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="D37" t="s">
-        <v>365</v>
+        <v>381</v>
       </c>
       <c r="E37" t="s">
-        <v>366</v>
+        <v>382</v>
       </c>
       <c r="F37" t="s">
-        <v>794</v>
+        <v>796</v>
       </c>
       <c r="G37" t="s">
-        <v>367</v>
+        <v>383</v>
       </c>
       <c r="H37" t="s">
-        <v>368</v>
+        <v>384</v>
       </c>
       <c r="I37" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="J37" t="s">
-        <v>365</v>
+        <v>381</v>
       </c>
       <c r="K37" t="s">
-        <v>366</v>
+        <v>382</v>
       </c>
       <c r="L37" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="M37" t="s">
-        <v>369</v>
+        <v>385</v>
       </c>
       <c r="N37" t="s">
-        <v>370</v>
-      </c>
-      <c r="R37" t="s">
-        <v>959</v>
-      </c>
-      <c r="S37" t="s">
-        <v>309</v>
-      </c>
-      <c r="T37" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>371</v>
+        <v>201</v>
       </c>
       <c r="B38" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="C38" t="s">
-        <v>727</v>
+        <v>709</v>
       </c>
       <c r="D38" t="s">
-        <v>372</v>
+        <v>202</v>
       </c>
       <c r="E38" t="s">
-        <v>373</v>
+        <v>203</v>
       </c>
       <c r="F38" t="s">
-        <v>795</v>
+        <v>777</v>
       </c>
       <c r="G38" t="s">
-        <v>374</v>
+        <v>204</v>
       </c>
       <c r="H38" t="s">
-        <v>375</v>
+        <v>205</v>
       </c>
       <c r="I38" t="s">
-        <v>727</v>
+        <v>840</v>
       </c>
       <c r="J38" t="s">
-        <v>372</v>
+        <v>206</v>
       </c>
       <c r="K38" t="s">
-        <v>373</v>
-      </c>
-      <c r="L38" t="s">
-        <v>894</v>
+        <v>207</v>
+      </c>
+      <c r="L38" s="2" t="s">
+        <v>880</v>
       </c>
       <c r="M38" t="s">
-        <v>376</v>
+        <v>208</v>
       </c>
       <c r="N38" t="s">
-        <v>377</v>
+        <v>209</v>
       </c>
       <c r="R38" t="s">
-        <v>955</v>
+        <v>939</v>
       </c>
       <c r="S38" t="s">
-        <v>378</v>
+        <v>210</v>
       </c>
       <c r="T38" t="s">
-        <v>379</v>
+        <v>211</v>
       </c>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>593</v>
+        <v>20</v>
       </c>
       <c r="B39" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="C39" t="s">
-        <v>749</v>
+        <v>692</v>
       </c>
       <c r="D39" t="s">
-        <v>594</v>
+        <v>21</v>
       </c>
       <c r="E39" t="s">
-        <v>595</v>
+        <v>22</v>
+      </c>
+      <c r="F39" t="s">
+        <v>760</v>
+      </c>
+      <c r="G39" t="s">
+        <v>23</v>
+      </c>
+      <c r="H39" t="s">
+        <v>24</v>
       </c>
       <c r="I39" t="s">
-        <v>855</v>
+        <v>692</v>
       </c>
       <c r="J39" t="s">
-        <v>596</v>
+        <v>25</v>
       </c>
       <c r="K39" t="s">
-        <v>597</v>
+        <v>26</v>
+      </c>
+      <c r="L39" t="s">
+        <v>860</v>
+      </c>
+      <c r="M39" t="s">
+        <v>27</v>
+      </c>
+      <c r="N39" t="s">
+        <v>28</v>
+      </c>
+      <c r="R39" t="s">
+        <v>923</v>
+      </c>
+      <c r="S39" t="s">
+        <v>29</v>
+      </c>
+      <c r="T39" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>416</v>
+        <v>246</v>
       </c>
       <c r="B40" t="s">
-        <v>677</v>
+        <v>668</v>
       </c>
       <c r="C40" t="s">
-        <v>417</v>
+        <v>714</v>
       </c>
       <c r="D40" t="s">
-        <v>417</v>
+        <v>247</v>
       </c>
       <c r="E40" t="s">
-        <v>418</v>
+        <v>248</v>
       </c>
       <c r="F40" t="s">
-        <v>800</v>
+        <v>782</v>
       </c>
       <c r="G40" t="s">
-        <v>419</v>
+        <v>249</v>
       </c>
       <c r="H40" t="s">
-        <v>420</v>
+        <v>250</v>
       </c>
       <c r="I40" t="s">
-        <v>417</v>
+        <v>714</v>
       </c>
       <c r="J40" t="s">
-        <v>417</v>
+        <v>247</v>
       </c>
       <c r="K40" t="s">
-        <v>418</v>
+        <v>248</v>
       </c>
       <c r="L40" t="s">
-        <v>899</v>
+        <v>883</v>
       </c>
       <c r="M40" t="s">
-        <v>421</v>
+        <v>251</v>
       </c>
       <c r="N40" t="s">
-        <v>422</v>
+        <v>252</v>
+      </c>
+      <c r="R40" t="s">
+        <v>943</v>
+      </c>
+      <c r="S40" t="s">
+        <v>253</v>
+      </c>
+      <c r="T40" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>212</v>
+        <v>621</v>
       </c>
       <c r="B41" t="s">
-        <v>671</v>
+        <v>688</v>
       </c>
       <c r="C41" t="s">
-        <v>710</v>
+        <v>753</v>
       </c>
       <c r="D41" t="s">
-        <v>213</v>
+        <v>622</v>
       </c>
       <c r="E41" t="s">
-        <v>214</v>
+        <v>623</v>
       </c>
       <c r="F41" t="s">
-        <v>778</v>
+        <v>820</v>
       </c>
       <c r="G41" t="s">
-        <v>215</v>
+        <v>624</v>
       </c>
       <c r="H41" t="s">
-        <v>216</v>
+        <v>625</v>
       </c>
       <c r="I41" t="s">
-        <v>710</v>
+        <v>859</v>
       </c>
       <c r="J41" t="s">
-        <v>213</v>
+        <v>622</v>
       </c>
       <c r="K41" t="s">
-        <v>214</v>
+        <v>623</v>
       </c>
       <c r="L41" t="s">
-        <v>864</v>
+        <v>914</v>
       </c>
       <c r="M41" t="s">
-        <v>217</v>
+        <v>626</v>
       </c>
       <c r="N41" t="s">
-        <v>218</v>
+        <v>627</v>
       </c>
       <c r="R41" t="s">
-        <v>941</v>
+        <v>968</v>
       </c>
       <c r="S41" t="s">
-        <v>219</v>
+        <v>460</v>
       </c>
       <c r="T41" t="s">
-        <v>220</v>
+        <v>461</v>
       </c>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>380</v>
+        <v>432</v>
       </c>
       <c r="B42" t="s">
-        <v>668</v>
+        <v>677</v>
       </c>
       <c r="C42" t="s">
-        <v>728</v>
+        <v>734</v>
       </c>
       <c r="D42" t="s">
-        <v>381</v>
+        <v>433</v>
       </c>
       <c r="E42" t="s">
-        <v>382</v>
+        <v>434</v>
       </c>
       <c r="F42" t="s">
-        <v>796</v>
+        <v>802</v>
       </c>
       <c r="G42" t="s">
-        <v>383</v>
+        <v>435</v>
       </c>
       <c r="H42" t="s">
-        <v>384</v>
+        <v>436</v>
       </c>
       <c r="I42" t="s">
-        <v>728</v>
+        <v>734</v>
       </c>
       <c r="J42" t="s">
-        <v>381</v>
+        <v>433</v>
       </c>
       <c r="K42" t="s">
-        <v>382</v>
+        <v>434</v>
       </c>
       <c r="L42" t="s">
-        <v>895</v>
+        <v>900</v>
       </c>
       <c r="M42" t="s">
-        <v>385</v>
+        <v>437</v>
       </c>
       <c r="N42" t="s">
-        <v>386</v>
+        <v>438</v>
       </c>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>543</v>
+        <v>416</v>
       </c>
       <c r="B43" t="s">
-        <v>687</v>
+        <v>677</v>
       </c>
       <c r="C43" t="s">
-        <v>746</v>
+        <v>417</v>
       </c>
       <c r="D43" t="s">
-        <v>544</v>
+        <v>417</v>
       </c>
       <c r="E43" t="s">
-        <v>545</v>
+        <v>418</v>
       </c>
       <c r="F43" t="s">
-        <v>815</v>
+        <v>800</v>
       </c>
       <c r="G43" t="s">
-        <v>546</v>
+        <v>419</v>
       </c>
       <c r="H43" t="s">
-        <v>547</v>
+        <v>420</v>
       </c>
       <c r="I43" t="s">
-        <v>851</v>
+        <v>417</v>
       </c>
       <c r="J43" t="s">
-        <v>548</v>
+        <v>417</v>
       </c>
       <c r="K43" t="s">
-        <v>549</v>
+        <v>418</v>
       </c>
       <c r="L43" t="s">
-        <v>912</v>
+        <v>898</v>
       </c>
       <c r="M43" t="s">
-        <v>550</v>
+        <v>421</v>
       </c>
       <c r="N43" t="s">
-        <v>551</v>
-      </c>
-      <c r="R43" t="s">
-        <v>967</v>
-      </c>
-      <c r="S43" t="s">
-        <v>552</v>
-      </c>
-      <c r="T43" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="44" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>201</v>
+        <v>439</v>
       </c>
       <c r="B44" t="s">
-        <v>668</v>
+        <v>677</v>
       </c>
       <c r="C44" t="s">
-        <v>709</v>
+        <v>735</v>
       </c>
       <c r="D44" t="s">
-        <v>202</v>
+        <v>440</v>
       </c>
       <c r="E44" t="s">
-        <v>203</v>
+        <v>441</v>
       </c>
       <c r="F44" t="s">
-        <v>777</v>
+        <v>803</v>
       </c>
       <c r="G44" t="s">
-        <v>204</v>
+        <v>442</v>
       </c>
       <c r="H44" t="s">
-        <v>205</v>
+        <v>443</v>
       </c>
       <c r="I44" t="s">
-        <v>841</v>
+        <v>735</v>
       </c>
       <c r="J44" t="s">
-        <v>206</v>
+        <v>440</v>
       </c>
       <c r="K44" t="s">
-        <v>207</v>
-      </c>
-      <c r="L44" s="2" t="s">
-        <v>881</v>
+        <v>441</v>
+      </c>
+      <c r="L44" t="s">
+        <v>901</v>
       </c>
       <c r="M44" t="s">
-        <v>208</v>
+        <v>444</v>
       </c>
       <c r="N44" t="s">
-        <v>209</v>
-      </c>
-      <c r="R44" t="s">
-        <v>940</v>
-      </c>
-      <c r="S44" t="s">
-        <v>210</v>
-      </c>
-      <c r="T44" t="s">
-        <v>211</v>
+        <v>445</v>
       </c>
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>20</v>
+        <v>462</v>
       </c>
       <c r="B45" t="s">
-        <v>668</v>
+        <v>677</v>
       </c>
       <c r="C45" t="s">
-        <v>692</v>
+        <v>738</v>
       </c>
       <c r="D45" t="s">
-        <v>21</v>
+        <v>463</v>
       </c>
       <c r="E45" t="s">
-        <v>22</v>
+        <v>464</v>
       </c>
       <c r="F45" t="s">
-        <v>760</v>
+        <v>806</v>
       </c>
       <c r="G45" t="s">
-        <v>23</v>
+        <v>465</v>
       </c>
       <c r="H45" t="s">
-        <v>24</v>
+        <v>466</v>
       </c>
       <c r="I45" t="s">
-        <v>692</v>
+        <v>738</v>
       </c>
       <c r="J45" t="s">
-        <v>25</v>
+        <v>463</v>
       </c>
       <c r="K45" t="s">
-        <v>26</v>
+        <v>464</v>
       </c>
       <c r="L45" t="s">
-        <v>861</v>
+        <v>904</v>
       </c>
       <c r="M45" t="s">
-        <v>27</v>
+        <v>467</v>
       </c>
       <c r="N45" t="s">
-        <v>28</v>
-      </c>
-      <c r="R45" t="s">
-        <v>924</v>
-      </c>
-      <c r="S45" t="s">
-        <v>29</v>
-      </c>
-      <c r="T45" t="s">
-        <v>30</v>
+        <v>468</v>
       </c>
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="B46" t="s">
-        <v>668</v>
+        <v>677</v>
       </c>
       <c r="C46" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="D46" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="E46" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="F46" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="G46" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="H46" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="I46" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="J46" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="K46" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="L46" t="s">
         <v>884</v>
       </c>
       <c r="M46" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="N46" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="R46" t="s">
         <v>944</v>
       </c>
       <c r="S46" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="T46" t="s">
-        <v>254</v>
+        <v>263</v>
       </c>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>439</v>
+        <v>264</v>
       </c>
       <c r="B47" t="s">
         <v>677</v>
       </c>
       <c r="C47" t="s">
-        <v>735</v>
+        <v>716</v>
       </c>
       <c r="D47" t="s">
-        <v>440</v>
+        <v>265</v>
       </c>
       <c r="E47" t="s">
-        <v>441</v>
+        <v>266</v>
       </c>
       <c r="F47" t="s">
-        <v>803</v>
+        <v>784</v>
       </c>
       <c r="G47" t="s">
-        <v>442</v>
+        <v>267</v>
       </c>
       <c r="H47" t="s">
-        <v>443</v>
+        <v>268</v>
       </c>
       <c r="I47" t="s">
-        <v>735</v>
+        <v>716</v>
       </c>
       <c r="J47" t="s">
-        <v>440</v>
+        <v>265</v>
       </c>
       <c r="K47" t="s">
-        <v>441</v>
+        <v>266</v>
       </c>
       <c r="L47" t="s">
-        <v>902</v>
+        <v>885</v>
       </c>
       <c r="M47" t="s">
-        <v>444</v>
+        <v>269</v>
       </c>
       <c r="N47" t="s">
-        <v>445</v>
+        <v>270</v>
+      </c>
+      <c r="R47" t="s">
+        <v>945</v>
+      </c>
+      <c r="S47" t="s">
+        <v>271</v>
+      </c>
+      <c r="T47" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>462</v>
+        <v>273</v>
       </c>
       <c r="B48" t="s">
         <v>677</v>
       </c>
       <c r="C48" t="s">
-        <v>738</v>
+        <v>717</v>
       </c>
       <c r="D48" t="s">
-        <v>463</v>
+        <v>274</v>
       </c>
       <c r="E48" t="s">
-        <v>464</v>
+        <v>275</v>
       </c>
       <c r="F48" t="s">
-        <v>806</v>
+        <v>785</v>
       </c>
       <c r="G48" t="s">
-        <v>465</v>
+        <v>276</v>
       </c>
       <c r="H48" t="s">
-        <v>466</v>
+        <v>277</v>
       </c>
       <c r="I48" t="s">
-        <v>738</v>
+        <v>717</v>
       </c>
       <c r="J48" t="s">
-        <v>463</v>
+        <v>274</v>
       </c>
       <c r="K48" t="s">
-        <v>464</v>
+        <v>275</v>
       </c>
       <c r="L48" t="s">
-        <v>905</v>
+        <v>864</v>
       </c>
       <c r="M48" t="s">
-        <v>467</v>
+        <v>278</v>
       </c>
       <c r="N48" t="s">
-        <v>468</v>
+        <v>279</v>
+      </c>
+      <c r="R48" t="s">
+        <v>946</v>
+      </c>
+      <c r="S48" t="s">
+        <v>280</v>
+      </c>
+      <c r="T48" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>311</v>
+        <v>282</v>
       </c>
       <c r="B49" t="s">
-        <v>971</v>
+        <v>677</v>
       </c>
       <c r="C49" t="s">
-        <v>1001</v>
+        <v>718</v>
       </c>
       <c r="D49" t="s">
-        <v>1001</v>
+        <v>283</v>
       </c>
       <c r="E49" t="s">
-        <v>313</v>
+        <v>284</v>
       </c>
       <c r="F49" t="s">
-        <v>1005</v>
+        <v>786</v>
       </c>
       <c r="G49" t="s">
-        <v>972</v>
+        <v>285</v>
       </c>
       <c r="H49" t="s">
-        <v>973</v>
+        <v>286</v>
       </c>
       <c r="I49" t="s">
-        <v>1010</v>
+        <v>718</v>
       </c>
       <c r="J49" t="s">
-        <v>312</v>
+        <v>283</v>
       </c>
       <c r="K49" t="s">
-        <v>313</v>
+        <v>284</v>
       </c>
       <c r="L49" t="s">
-        <v>974</v>
+        <v>886</v>
       </c>
       <c r="M49" t="s">
-        <v>314</v>
+        <v>287</v>
       </c>
       <c r="N49" t="s">
-        <v>315</v>
+        <v>288</v>
       </c>
       <c r="R49" t="s">
-        <v>975</v>
+        <v>947</v>
       </c>
       <c r="S49" t="s">
-        <v>316</v>
+        <v>289</v>
       </c>
       <c r="T49" t="s">
-        <v>317</v>
+        <v>290</v>
       </c>
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>598</v>
+        <v>628</v>
       </c>
       <c r="B50" t="s">
-        <v>671</v>
+        <v>689</v>
       </c>
       <c r="C50" t="s">
-        <v>750</v>
+        <v>754</v>
       </c>
       <c r="D50" t="s">
-        <v>599</v>
+        <v>629</v>
       </c>
       <c r="E50" t="s">
-        <v>600</v>
+        <v>630</v>
+      </c>
+      <c r="F50" t="s">
+        <v>821</v>
+      </c>
+      <c r="G50" t="s">
+        <v>631</v>
+      </c>
+      <c r="H50" t="s">
+        <v>632</v>
       </c>
       <c r="I50" t="s">
-        <v>856</v>
+        <v>754</v>
       </c>
       <c r="J50" t="s">
-        <v>601</v>
+        <v>629</v>
       </c>
       <c r="K50" t="s">
-        <v>602</v>
+        <v>630</v>
       </c>
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>255</v>
+        <v>446</v>
       </c>
       <c r="B51" t="s">
-        <v>677</v>
+        <v>684</v>
       </c>
       <c r="C51" t="s">
-        <v>715</v>
+        <v>736</v>
       </c>
       <c r="D51" t="s">
-        <v>256</v>
+        <v>447</v>
       </c>
       <c r="E51" t="s">
-        <v>257</v>
+        <v>448</v>
       </c>
       <c r="F51" t="s">
-        <v>783</v>
+        <v>804</v>
       </c>
       <c r="G51" t="s">
-        <v>258</v>
+        <v>449</v>
       </c>
       <c r="H51" t="s">
-        <v>259</v>
+        <v>450</v>
       </c>
       <c r="I51" t="s">
-        <v>715</v>
+        <v>736</v>
       </c>
       <c r="J51" t="s">
-        <v>256</v>
+        <v>447</v>
       </c>
       <c r="K51" t="s">
-        <v>257</v>
+        <v>448</v>
       </c>
       <c r="L51" t="s">
-        <v>885</v>
+        <v>902</v>
       </c>
       <c r="M51" t="s">
-        <v>260</v>
+        <v>451</v>
       </c>
       <c r="N51" t="s">
-        <v>261</v>
-      </c>
-      <c r="R51" t="s">
-        <v>945</v>
-      </c>
-      <c r="S51" t="s">
-        <v>262</v>
-      </c>
-      <c r="T51" t="s">
-        <v>263</v>
+        <v>452</v>
       </c>
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>264</v>
+        <v>190</v>
       </c>
       <c r="B52" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="C52" t="s">
-        <v>716</v>
+        <v>708</v>
       </c>
       <c r="D52" t="s">
-        <v>265</v>
+        <v>191</v>
       </c>
       <c r="E52" t="s">
-        <v>266</v>
+        <v>192</v>
       </c>
       <c r="F52" t="s">
-        <v>784</v>
+        <v>776</v>
       </c>
       <c r="G52" t="s">
-        <v>267</v>
+        <v>193</v>
       </c>
       <c r="H52" t="s">
-        <v>268</v>
+        <v>194</v>
       </c>
       <c r="I52" t="s">
-        <v>716</v>
+        <v>839</v>
       </c>
       <c r="J52" t="s">
-        <v>265</v>
+        <v>195</v>
       </c>
       <c r="K52" t="s">
-        <v>266</v>
+        <v>196</v>
       </c>
       <c r="L52" t="s">
-        <v>886</v>
+        <v>879</v>
       </c>
       <c r="M52" t="s">
-        <v>269</v>
+        <v>197</v>
       </c>
       <c r="N52" t="s">
-        <v>270</v>
+        <v>198</v>
       </c>
       <c r="R52" t="s">
-        <v>946</v>
+        <v>938</v>
       </c>
       <c r="S52" t="s">
-        <v>271</v>
+        <v>199</v>
       </c>
       <c r="T52" t="s">
-        <v>272</v>
+        <v>200</v>
       </c>
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>273</v>
+        <v>397</v>
       </c>
       <c r="B53" t="s">
-        <v>677</v>
+        <v>683</v>
       </c>
       <c r="C53" t="s">
-        <v>717</v>
+        <v>730</v>
       </c>
       <c r="D53" t="s">
-        <v>274</v>
+        <v>398</v>
       </c>
       <c r="E53" t="s">
-        <v>275</v>
+        <v>399</v>
       </c>
       <c r="F53" t="s">
-        <v>785</v>
+        <v>798</v>
       </c>
       <c r="G53" t="s">
-        <v>276</v>
+        <v>400</v>
       </c>
       <c r="H53" t="s">
-        <v>277</v>
+        <v>401</v>
       </c>
       <c r="I53" t="s">
-        <v>717</v>
+        <v>730</v>
       </c>
       <c r="J53" t="s">
-        <v>274</v>
+        <v>398</v>
       </c>
       <c r="K53" t="s">
-        <v>275</v>
+        <v>399</v>
       </c>
       <c r="L53" t="s">
-        <v>865</v>
+        <v>896</v>
       </c>
       <c r="M53" t="s">
-        <v>278</v>
+        <v>402</v>
       </c>
       <c r="N53" t="s">
-        <v>279</v>
+        <v>403</v>
       </c>
       <c r="R53" t="s">
-        <v>947</v>
+        <v>956</v>
       </c>
       <c r="S53" t="s">
-        <v>280</v>
+        <v>404</v>
       </c>
       <c r="T53" t="s">
-        <v>281</v>
+        <v>405</v>
       </c>
     </row>
     <row r="54" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>282</v>
+        <v>453</v>
       </c>
       <c r="B54" t="s">
-        <v>677</v>
+        <v>683</v>
       </c>
       <c r="C54" t="s">
-        <v>718</v>
+        <v>737</v>
       </c>
       <c r="D54" t="s">
-        <v>283</v>
+        <v>454</v>
       </c>
       <c r="E54" t="s">
-        <v>284</v>
+        <v>455</v>
       </c>
       <c r="F54" t="s">
-        <v>786</v>
+        <v>805</v>
       </c>
       <c r="G54" t="s">
-        <v>285</v>
+        <v>456</v>
       </c>
       <c r="H54" t="s">
-        <v>286</v>
+        <v>457</v>
       </c>
       <c r="I54" t="s">
-        <v>718</v>
+        <v>737</v>
       </c>
       <c r="J54" t="s">
-        <v>283</v>
+        <v>454</v>
       </c>
       <c r="K54" t="s">
-        <v>284</v>
+        <v>455</v>
       </c>
       <c r="L54" t="s">
-        <v>887</v>
+        <v>903</v>
       </c>
       <c r="M54" t="s">
-        <v>287</v>
+        <v>458</v>
       </c>
       <c r="N54" t="s">
-        <v>288</v>
+        <v>459</v>
       </c>
       <c r="R54" t="s">
-        <v>948</v>
+        <v>959</v>
       </c>
       <c r="S54" t="s">
-        <v>289</v>
+        <v>460</v>
       </c>
       <c r="T54" t="s">
-        <v>290</v>
+        <v>461</v>
       </c>
     </row>
     <row r="55" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>221</v>
+        <v>406</v>
       </c>
       <c r="B55" t="s">
-        <v>675</v>
+        <v>683</v>
       </c>
       <c r="C55" t="s">
-        <v>711</v>
+        <v>731</v>
       </c>
       <c r="D55" t="s">
-        <v>222</v>
+        <v>407</v>
       </c>
       <c r="E55" t="s">
-        <v>223</v>
+        <v>408</v>
       </c>
       <c r="F55" t="s">
-        <v>779</v>
+        <v>799</v>
       </c>
       <c r="G55" t="s">
-        <v>224</v>
+        <v>409</v>
       </c>
       <c r="H55" t="s">
-        <v>225</v>
+        <v>410</v>
       </c>
       <c r="I55" t="s">
-        <v>842</v>
+        <v>731</v>
       </c>
       <c r="J55" t="s">
-        <v>222</v>
+        <v>407</v>
       </c>
       <c r="K55" t="s">
-        <v>223</v>
+        <v>408</v>
       </c>
       <c r="L55" t="s">
-        <v>970</v>
+        <v>897</v>
       </c>
       <c r="M55" t="s">
-        <v>226</v>
+        <v>411</v>
       </c>
       <c r="N55" t="s">
-        <v>227</v>
+        <v>412</v>
+      </c>
+      <c r="R55" t="s">
+        <v>956</v>
+      </c>
+      <c r="S55" t="s">
+        <v>404</v>
+      </c>
+      <c r="T55" t="s">
+        <v>405</v>
       </c>
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>446</v>
+        <v>413</v>
       </c>
       <c r="B56" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="C56" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
       <c r="D56" t="s">
-        <v>447</v>
+        <v>414</v>
       </c>
       <c r="E56" t="s">
-        <v>448</v>
+        <v>415</v>
       </c>
       <c r="F56" t="s">
-        <v>804</v>
+        <v>799</v>
       </c>
       <c r="G56" t="s">
-        <v>449</v>
+        <v>409</v>
       </c>
       <c r="H56" t="s">
-        <v>450</v>
+        <v>410</v>
       </c>
       <c r="I56" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
       <c r="J56" t="s">
-        <v>447</v>
+        <v>414</v>
       </c>
       <c r="K56" t="s">
-        <v>448</v>
+        <v>415</v>
       </c>
       <c r="L56" t="s">
-        <v>903</v>
+        <v>897</v>
       </c>
       <c r="M56" t="s">
-        <v>451</v>
+        <v>411</v>
       </c>
       <c r="N56" t="s">
-        <v>452</v>
+        <v>412</v>
+      </c>
+      <c r="R56" t="s">
+        <v>956</v>
+      </c>
+      <c r="S56" t="s">
+        <v>404</v>
+      </c>
+      <c r="T56" t="s">
+        <v>405</v>
       </c>
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>190</v>
+        <v>318</v>
       </c>
       <c r="B57" t="s">
-        <v>674</v>
+        <v>678</v>
       </c>
       <c r="C57" t="s">
-        <v>708</v>
+        <v>721</v>
       </c>
       <c r="D57" t="s">
-        <v>191</v>
+        <v>319</v>
       </c>
       <c r="E57" t="s">
-        <v>192</v>
+        <v>320</v>
       </c>
       <c r="F57" t="s">
-        <v>776</v>
+        <v>789</v>
       </c>
       <c r="G57" t="s">
-        <v>193</v>
+        <v>321</v>
       </c>
       <c r="H57" t="s">
-        <v>194</v>
+        <v>322</v>
       </c>
       <c r="I57" t="s">
-        <v>840</v>
+        <v>844</v>
       </c>
       <c r="J57" t="s">
-        <v>195</v>
+        <v>323</v>
       </c>
       <c r="K57" t="s">
-        <v>196</v>
+        <v>320</v>
       </c>
       <c r="L57" t="s">
-        <v>880</v>
+        <v>888</v>
       </c>
       <c r="M57" t="s">
-        <v>197</v>
+        <v>324</v>
       </c>
       <c r="N57" t="s">
-        <v>198</v>
+        <v>325</v>
       </c>
       <c r="R57" t="s">
-        <v>939</v>
+        <v>950</v>
       </c>
       <c r="S57" t="s">
-        <v>199</v>
+        <v>326</v>
       </c>
       <c r="T57" t="s">
-        <v>200</v>
+        <v>327</v>
       </c>
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>397</v>
+        <v>618</v>
       </c>
       <c r="B58" t="s">
-        <v>683</v>
+        <v>675</v>
       </c>
       <c r="C58" t="s">
-        <v>730</v>
+        <v>749</v>
       </c>
       <c r="D58" t="s">
-        <v>398</v>
+        <v>594</v>
       </c>
       <c r="E58" t="s">
-        <v>399</v>
-      </c>
-      <c r="F58" t="s">
-        <v>798</v>
-      </c>
-      <c r="G58" t="s">
-        <v>400</v>
-      </c>
-      <c r="H58" t="s">
-        <v>401</v>
+        <v>595</v>
       </c>
       <c r="I58" t="s">
-        <v>730</v>
+        <v>858</v>
       </c>
       <c r="J58" t="s">
-        <v>398</v>
+        <v>619</v>
       </c>
       <c r="K58" t="s">
-        <v>399</v>
-      </c>
-      <c r="L58" t="s">
-        <v>897</v>
-      </c>
-      <c r="M58" t="s">
-        <v>402</v>
-      </c>
-      <c r="N58" t="s">
-        <v>403</v>
-      </c>
-      <c r="R58" t="s">
-        <v>957</v>
-      </c>
-      <c r="S58" t="s">
-        <v>404</v>
-      </c>
-      <c r="T58" t="s">
-        <v>405</v>
+        <v>620</v>
       </c>
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>453</v>
+        <v>577</v>
       </c>
       <c r="B59" t="s">
-        <v>683</v>
+        <v>675</v>
       </c>
       <c r="C59" t="s">
-        <v>737</v>
+        <v>748</v>
       </c>
       <c r="D59" t="s">
-        <v>454</v>
+        <v>578</v>
       </c>
       <c r="E59" t="s">
-        <v>455</v>
+        <v>579</v>
       </c>
       <c r="F59" t="s">
-        <v>805</v>
+        <v>817</v>
       </c>
       <c r="G59" t="s">
-        <v>456</v>
+        <v>580</v>
       </c>
       <c r="H59" t="s">
-        <v>457</v>
+        <v>581</v>
       </c>
       <c r="I59" t="s">
-        <v>737</v>
+        <v>852</v>
       </c>
       <c r="J59" t="s">
-        <v>454</v>
+        <v>582</v>
       </c>
       <c r="K59" t="s">
-        <v>455</v>
-      </c>
-      <c r="L59" t="s">
-        <v>904</v>
-      </c>
-      <c r="M59" t="s">
-        <v>458</v>
-      </c>
-      <c r="N59" t="s">
-        <v>459</v>
-      </c>
-      <c r="R59" t="s">
-        <v>960</v>
-      </c>
-      <c r="S59" t="s">
-        <v>460</v>
-      </c>
-      <c r="T59" t="s">
-        <v>461</v>
+        <v>583</v>
       </c>
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>406</v>
+        <v>221</v>
       </c>
       <c r="B60" t="s">
-        <v>683</v>
+        <v>675</v>
       </c>
       <c r="C60" t="s">
-        <v>731</v>
+        <v>711</v>
       </c>
       <c r="D60" t="s">
-        <v>407</v>
+        <v>222</v>
       </c>
       <c r="E60" t="s">
-        <v>408</v>
+        <v>223</v>
       </c>
       <c r="F60" t="s">
-        <v>799</v>
+        <v>779</v>
       </c>
       <c r="G60" t="s">
-        <v>409</v>
+        <v>224</v>
       </c>
       <c r="H60" t="s">
-        <v>410</v>
+        <v>225</v>
       </c>
       <c r="I60" t="s">
-        <v>731</v>
+        <v>841</v>
       </c>
       <c r="J60" t="s">
-        <v>407</v>
+        <v>222</v>
       </c>
       <c r="K60" t="s">
-        <v>408</v>
+        <v>223</v>
       </c>
       <c r="L60" t="s">
-        <v>898</v>
+        <v>969</v>
       </c>
       <c r="M60" t="s">
-        <v>411</v>
+        <v>226</v>
       </c>
       <c r="N60" t="s">
-        <v>412</v>
-      </c>
-      <c r="R60" t="s">
-        <v>957</v>
-      </c>
-      <c r="S60" t="s">
-        <v>404</v>
-      </c>
-      <c r="T60" t="s">
-        <v>405</v>
+        <v>227</v>
       </c>
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>603</v>
+        <v>633</v>
       </c>
       <c r="B61" t="s">
-        <v>671</v>
+        <v>690</v>
       </c>
       <c r="C61" t="s">
-        <v>751</v>
+        <v>755</v>
       </c>
       <c r="D61" t="s">
-        <v>604</v>
+        <v>634</v>
       </c>
       <c r="E61" t="s">
-        <v>605</v>
+        <v>635</v>
       </c>
       <c r="F61" t="s">
-        <v>820</v>
+        <v>822</v>
       </c>
       <c r="G61" t="s">
-        <v>606</v>
+        <v>636</v>
       </c>
       <c r="H61" t="s">
-        <v>607</v>
-      </c>
-      <c r="I61" t="s">
-        <v>857</v>
-      </c>
-      <c r="J61" t="s">
-        <v>608</v>
-      </c>
-      <c r="K61" t="s">
-        <v>609</v>
+        <v>637</v>
+      </c>
+      <c r="L61" t="s">
+        <v>915</v>
+      </c>
+      <c r="M61" t="s">
+        <v>638</v>
+      </c>
+      <c r="N61" t="s">
+        <v>639</v>
+      </c>
+      <c r="R61" t="s">
+        <v>967</v>
+      </c>
+      <c r="S61" t="s">
+        <v>640</v>
+      </c>
+      <c r="T61" t="s">
+        <v>641</v>
       </c>
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>413</v>
+        <v>642</v>
       </c>
       <c r="B62" t="s">
-        <v>683</v>
+        <v>690</v>
       </c>
       <c r="C62" t="s">
-        <v>732</v>
+        <v>756</v>
       </c>
       <c r="D62" t="s">
-        <v>414</v>
+        <v>643</v>
       </c>
       <c r="E62" t="s">
-        <v>415</v>
+        <v>644</v>
       </c>
       <c r="F62" t="s">
-        <v>799</v>
+        <v>823</v>
       </c>
       <c r="G62" t="s">
-        <v>409</v>
+        <v>645</v>
       </c>
       <c r="H62" t="s">
-        <v>410</v>
-      </c>
-      <c r="I62" t="s">
-        <v>732</v>
-      </c>
-      <c r="J62" t="s">
-        <v>414</v>
-      </c>
-      <c r="K62" t="s">
-        <v>415</v>
+        <v>646</v>
       </c>
       <c r="L62" t="s">
-        <v>898</v>
+        <v>916</v>
       </c>
       <c r="M62" t="s">
-        <v>411</v>
+        <v>647</v>
       </c>
       <c r="N62" t="s">
-        <v>412</v>
+        <v>648</v>
       </c>
       <c r="R62" t="s">
-        <v>957</v>
+        <v>967</v>
       </c>
       <c r="S62" t="s">
-        <v>404</v>
+        <v>640</v>
       </c>
       <c r="T62" t="s">
-        <v>405</v>
+        <v>641</v>
       </c>
     </row>
     <row r="63" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>328</v>
+        <v>649</v>
       </c>
       <c r="B63" t="s">
-        <v>971</v>
+        <v>690</v>
       </c>
       <c r="C63" t="s">
-        <v>1002</v>
+        <v>757</v>
       </c>
       <c r="D63" t="s">
-        <v>1002</v>
+        <v>650</v>
       </c>
       <c r="E63" t="s">
-        <v>329</v>
+        <v>651</v>
       </c>
       <c r="F63" t="s">
-        <v>1006</v>
+        <v>824</v>
       </c>
       <c r="G63" t="s">
-        <v>976</v>
+        <v>652</v>
       </c>
       <c r="H63" t="s">
-        <v>977</v>
-      </c>
-      <c r="I63" t="s">
-        <v>1011</v>
-      </c>
-      <c r="J63" t="s">
-        <v>330</v>
-      </c>
-      <c r="K63" t="s">
-        <v>329</v>
+        <v>653</v>
       </c>
       <c r="L63" t="s">
-        <v>978</v>
+        <v>916</v>
       </c>
       <c r="M63" t="s">
-        <v>331</v>
+        <v>647</v>
       </c>
       <c r="N63" t="s">
-        <v>332</v>
+        <v>648</v>
       </c>
       <c r="R63" t="s">
-        <v>979</v>
+        <v>967</v>
       </c>
       <c r="S63" t="s">
-        <v>333</v>
+        <v>640</v>
       </c>
       <c r="T63" t="s">
-        <v>334</v>
+        <v>641</v>
       </c>
     </row>
     <row r="64" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>120</v>
+        <v>71</v>
       </c>
       <c r="B64" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="C64" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="D64" t="s">
-        <v>121</v>
+        <v>72</v>
       </c>
       <c r="E64" t="s">
-        <v>122</v>
+        <v>73</v>
       </c>
       <c r="F64" t="s">
-        <v>770</v>
+        <v>765</v>
       </c>
       <c r="G64" t="s">
-        <v>123</v>
+        <v>74</v>
       </c>
       <c r="H64" t="s">
-        <v>124</v>
+        <v>75</v>
       </c>
       <c r="I64" t="s">
-        <v>833</v>
+        <v>828</v>
       </c>
       <c r="J64" t="s">
-        <v>125</v>
+        <v>76</v>
       </c>
       <c r="K64" t="s">
-        <v>122</v>
-      </c>
-      <c r="L64" t="s">
-        <v>874</v>
+        <v>77</v>
+      </c>
+      <c r="L64" s="2" t="s">
+        <v>889</v>
       </c>
       <c r="M64" t="s">
-        <v>126</v>
+        <v>78</v>
       </c>
       <c r="N64" t="s">
-        <v>127</v>
-      </c>
-      <c r="R64" t="s">
-        <v>932</v>
-      </c>
-      <c r="S64" t="s">
-        <v>128</v>
-      </c>
-      <c r="T64" t="s">
-        <v>129</v>
+        <v>79</v>
+      </c>
+      <c r="O64" t="s">
+        <v>920</v>
+      </c>
+      <c r="P64" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q64" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="65" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>633</v>
+        <v>120</v>
       </c>
       <c r="B65" t="s">
-        <v>690</v>
+        <v>673</v>
       </c>
       <c r="C65" t="s">
-        <v>755</v>
+        <v>701</v>
       </c>
       <c r="D65" t="s">
-        <v>634</v>
+        <v>121</v>
       </c>
       <c r="E65" t="s">
-        <v>635</v>
+        <v>122</v>
       </c>
       <c r="F65" t="s">
-        <v>823</v>
+        <v>770</v>
       </c>
       <c r="G65" t="s">
-        <v>636</v>
+        <v>123</v>
       </c>
       <c r="H65" t="s">
-        <v>637</v>
+        <v>124</v>
+      </c>
+      <c r="I65" t="s">
+        <v>832</v>
+      </c>
+      <c r="J65" t="s">
+        <v>125</v>
+      </c>
+      <c r="K65" t="s">
+        <v>122</v>
       </c>
       <c r="L65" t="s">
-        <v>916</v>
+        <v>873</v>
       </c>
       <c r="M65" t="s">
-        <v>638</v>
+        <v>126</v>
       </c>
       <c r="N65" t="s">
-        <v>639</v>
+        <v>127</v>
       </c>
       <c r="R65" t="s">
-        <v>968</v>
+        <v>931</v>
       </c>
       <c r="S65" t="s">
-        <v>640</v>
+        <v>128</v>
       </c>
       <c r="T65" t="s">
-        <v>641</v>
+        <v>129</v>
       </c>
     </row>
     <row r="66" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>642</v>
+        <v>31</v>
       </c>
       <c r="B66" t="s">
-        <v>690</v>
+        <v>669</v>
       </c>
       <c r="C66" t="s">
-        <v>756</v>
+        <v>693</v>
       </c>
       <c r="D66" t="s">
-        <v>643</v>
+        <v>32</v>
       </c>
       <c r="E66" t="s">
-        <v>644</v>
+        <v>33</v>
       </c>
       <c r="F66" t="s">
-        <v>824</v>
+        <v>761</v>
       </c>
       <c r="G66" t="s">
-        <v>645</v>
+        <v>34</v>
       </c>
       <c r="H66" t="s">
-        <v>646</v>
+        <v>35</v>
+      </c>
+      <c r="I66" t="s">
+        <v>693</v>
+      </c>
+      <c r="J66" t="s">
+        <v>32</v>
+      </c>
+      <c r="K66" t="s">
+        <v>33</v>
       </c>
       <c r="L66" t="s">
-        <v>917</v>
+        <v>861</v>
       </c>
       <c r="M66" t="s">
-        <v>647</v>
+        <v>36</v>
       </c>
       <c r="N66" t="s">
-        <v>648</v>
+        <v>37</v>
       </c>
       <c r="R66" t="s">
-        <v>968</v>
+        <v>924</v>
       </c>
       <c r="S66" t="s">
-        <v>640</v>
+        <v>38</v>
       </c>
       <c r="T66" t="s">
-        <v>641</v>
+        <v>39</v>
       </c>
     </row>
     <row r="67" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>649</v>
+        <v>335</v>
       </c>
       <c r="B67" t="s">
-        <v>690</v>
+        <v>679</v>
       </c>
       <c r="C67" t="s">
-        <v>757</v>
+        <v>722</v>
       </c>
       <c r="D67" t="s">
-        <v>650</v>
+        <v>336</v>
       </c>
       <c r="E67" t="s">
-        <v>651</v>
+        <v>337</v>
       </c>
       <c r="F67" t="s">
-        <v>825</v>
+        <v>790</v>
       </c>
       <c r="G67" t="s">
-        <v>652</v>
+        <v>338</v>
       </c>
       <c r="H67" t="s">
-        <v>653</v>
-      </c>
-      <c r="L67" t="s">
-        <v>917</v>
-      </c>
-      <c r="M67" t="s">
-        <v>647</v>
-      </c>
-      <c r="N67" t="s">
-        <v>648</v>
-      </c>
-      <c r="R67" t="s">
-        <v>968</v>
-      </c>
-      <c r="S67" t="s">
-        <v>640</v>
-      </c>
-      <c r="T67" t="s">
-        <v>641</v>
+        <v>339</v>
+      </c>
+      <c r="I67" t="s">
+        <v>845</v>
+      </c>
+      <c r="J67" t="s">
+        <v>336</v>
+      </c>
+      <c r="K67" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="68" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>335</v>
+        <v>512</v>
       </c>
       <c r="B68" t="s">
-        <v>679</v>
+        <v>685</v>
       </c>
       <c r="C68" t="s">
-        <v>722</v>
+        <v>743</v>
       </c>
       <c r="D68" t="s">
-        <v>336</v>
+        <v>513</v>
       </c>
       <c r="E68" t="s">
-        <v>337</v>
+        <v>514</v>
       </c>
       <c r="F68" t="s">
-        <v>790</v>
+        <v>811</v>
       </c>
       <c r="G68" t="s">
-        <v>338</v>
+        <v>515</v>
       </c>
       <c r="H68" t="s">
-        <v>339</v>
+        <v>516</v>
       </c>
       <c r="I68" t="s">
-        <v>846</v>
+        <v>848</v>
       </c>
       <c r="J68" t="s">
-        <v>336</v>
+        <v>517</v>
       </c>
       <c r="K68" t="s">
-        <v>337</v>
+        <v>518</v>
+      </c>
+      <c r="L68" t="s">
+        <v>909</v>
+      </c>
+      <c r="M68" t="s">
+        <v>519</v>
+      </c>
+      <c r="N68" t="s">
+        <v>520</v>
+      </c>
+      <c r="R68" t="s">
+        <v>964</v>
+      </c>
+      <c r="S68" t="s">
+        <v>521</v>
+      </c>
+      <c r="T68" t="s">
+        <v>522</v>
       </c>
     </row>
     <row r="69" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>31</v>
+        <v>543</v>
       </c>
       <c r="B69" t="s">
-        <v>669</v>
+        <v>687</v>
       </c>
       <c r="C69" t="s">
-        <v>693</v>
+        <v>746</v>
       </c>
       <c r="D69" t="s">
-        <v>32</v>
+        <v>544</v>
       </c>
       <c r="E69" t="s">
-        <v>33</v>
+        <v>545</v>
       </c>
       <c r="F69" t="s">
-        <v>761</v>
+        <v>814</v>
       </c>
       <c r="G69" t="s">
-        <v>34</v>
+        <v>546</v>
       </c>
       <c r="H69" t="s">
-        <v>35</v>
+        <v>547</v>
       </c>
       <c r="I69" t="s">
-        <v>693</v>
+        <v>850</v>
       </c>
       <c r="J69" t="s">
-        <v>32</v>
+        <v>548</v>
       </c>
       <c r="K69" t="s">
-        <v>33</v>
+        <v>549</v>
       </c>
       <c r="L69" t="s">
-        <v>862</v>
+        <v>911</v>
       </c>
       <c r="M69" t="s">
-        <v>36</v>
+        <v>550</v>
       </c>
       <c r="N69" t="s">
-        <v>37</v>
+        <v>551</v>
       </c>
       <c r="R69" t="s">
-        <v>925</v>
+        <v>966</v>
       </c>
       <c r="S69" t="s">
-        <v>38</v>
+        <v>552</v>
       </c>
       <c r="T69" t="s">
-        <v>39</v>
+        <v>553</v>
       </c>
     </row>
     <row r="70" spans="1:20" x14ac:dyDescent="0.25">
@@ -6853,589 +6973,964 @@
     </row>
     <row r="71" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>345</v>
+        <v>228</v>
       </c>
       <c r="B71" t="s">
-        <v>681</v>
+        <v>676</v>
       </c>
       <c r="C71" t="s">
-        <v>724</v>
+        <v>712</v>
       </c>
       <c r="D71" t="s">
-        <v>346</v>
+        <v>229</v>
       </c>
       <c r="E71" t="s">
-        <v>347</v>
+        <v>230</v>
       </c>
       <c r="F71" t="s">
-        <v>792</v>
+        <v>780</v>
       </c>
       <c r="G71" t="s">
-        <v>348</v>
+        <v>231</v>
       </c>
       <c r="H71" t="s">
-        <v>349</v>
+        <v>232</v>
       </c>
       <c r="I71" t="s">
-        <v>724</v>
+        <v>842</v>
       </c>
       <c r="J71" t="s">
-        <v>346</v>
+        <v>229</v>
       </c>
       <c r="K71" t="s">
-        <v>347</v>
+        <v>230</v>
       </c>
       <c r="L71" t="s">
-        <v>891</v>
+        <v>881</v>
       </c>
       <c r="M71" t="s">
-        <v>350</v>
+        <v>233</v>
       </c>
       <c r="N71" t="s">
-        <v>351</v>
+        <v>234</v>
       </c>
       <c r="R71" t="s">
-        <v>953</v>
+        <v>941</v>
       </c>
       <c r="S71" t="s">
-        <v>352</v>
+        <v>235</v>
       </c>
       <c r="T71" t="s">
-        <v>353</v>
+        <v>236</v>
       </c>
     </row>
     <row r="72" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>610</v>
+        <v>237</v>
       </c>
       <c r="B72" t="s">
-        <v>671</v>
+        <v>676</v>
       </c>
       <c r="C72" t="s">
-        <v>611</v>
+        <v>713</v>
       </c>
       <c r="D72" t="s">
-        <v>611</v>
+        <v>238</v>
       </c>
       <c r="E72" t="s">
-        <v>612</v>
+        <v>239</v>
+      </c>
+      <c r="F72" t="s">
+        <v>781</v>
+      </c>
+      <c r="G72" t="s">
+        <v>240</v>
+      </c>
+      <c r="H72" t="s">
+        <v>241</v>
+      </c>
+      <c r="I72" t="s">
+        <v>713</v>
+      </c>
+      <c r="J72" t="s">
+        <v>238</v>
+      </c>
+      <c r="K72" t="s">
+        <v>239</v>
+      </c>
+      <c r="L72" t="s">
+        <v>882</v>
+      </c>
+      <c r="M72" t="s">
+        <v>242</v>
+      </c>
+      <c r="N72" t="s">
+        <v>243</v>
+      </c>
+      <c r="R72" t="s">
+        <v>942</v>
+      </c>
+      <c r="S72" t="s">
+        <v>244</v>
+      </c>
+      <c r="T72" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="73" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>654</v>
+        <v>311</v>
       </c>
       <c r="B73" t="s">
-        <v>691</v>
+        <v>970</v>
       </c>
       <c r="C73" t="s">
-        <v>758</v>
+        <v>996</v>
       </c>
       <c r="D73" t="s">
-        <v>655</v>
+        <v>996</v>
       </c>
       <c r="E73" t="s">
-        <v>656</v>
+        <v>313</v>
       </c>
       <c r="F73" t="s">
-        <v>826</v>
+        <v>1000</v>
       </c>
       <c r="G73" t="s">
-        <v>657</v>
+        <v>971</v>
       </c>
       <c r="H73" t="s">
-        <v>658</v>
+        <v>972</v>
+      </c>
+      <c r="I73" t="s">
+        <v>1005</v>
+      </c>
+      <c r="J73" t="s">
+        <v>312</v>
+      </c>
+      <c r="K73" t="s">
+        <v>313</v>
       </c>
       <c r="L73" t="s">
-        <v>918</v>
+        <v>1067</v>
       </c>
       <c r="M73" t="s">
-        <v>659</v>
+        <v>314</v>
       </c>
       <c r="N73" t="s">
-        <v>660</v>
+        <v>315</v>
       </c>
       <c r="R73" t="s">
-        <v>968</v>
+        <v>973</v>
       </c>
       <c r="S73" t="s">
-        <v>640</v>
+        <v>316</v>
       </c>
       <c r="T73" t="s">
-        <v>641</v>
+        <v>317</v>
       </c>
     </row>
     <row r="74" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>661</v>
+        <v>328</v>
       </c>
       <c r="B74" t="s">
-        <v>691</v>
+        <v>970</v>
       </c>
       <c r="C74" t="s">
-        <v>759</v>
+        <v>997</v>
       </c>
       <c r="D74" t="s">
-        <v>662</v>
+        <v>997</v>
       </c>
       <c r="E74" t="s">
-        <v>663</v>
+        <v>329</v>
       </c>
       <c r="F74" t="s">
-        <v>827</v>
+        <v>1001</v>
       </c>
       <c r="G74" t="s">
-        <v>664</v>
+        <v>974</v>
       </c>
       <c r="H74" t="s">
-        <v>665</v>
+        <v>975</v>
+      </c>
+      <c r="I74" t="s">
+        <v>1006</v>
+      </c>
+      <c r="J74" t="s">
+        <v>330</v>
+      </c>
+      <c r="K74" t="s">
+        <v>329</v>
       </c>
       <c r="L74" t="s">
-        <v>919</v>
+        <v>1068</v>
       </c>
       <c r="M74" t="s">
-        <v>666</v>
+        <v>331</v>
       </c>
       <c r="N74" t="s">
-        <v>667</v>
+        <v>332</v>
       </c>
       <c r="R74" t="s">
-        <v>968</v>
+        <v>976</v>
       </c>
       <c r="S74" t="s">
-        <v>640</v>
+        <v>333</v>
       </c>
       <c r="T74" t="s">
-        <v>641</v>
+        <v>334</v>
       </c>
     </row>
     <row r="75" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>387</v>
+        <v>977</v>
       </c>
       <c r="B75" t="s">
-        <v>682</v>
+        <v>970</v>
       </c>
       <c r="C75" t="s">
-        <v>729</v>
+        <v>998</v>
       </c>
       <c r="D75" t="s">
-        <v>388</v>
+        <v>998</v>
       </c>
       <c r="E75" t="s">
-        <v>389</v>
+        <v>980</v>
       </c>
       <c r="F75" t="s">
-        <v>797</v>
+        <v>1002</v>
       </c>
       <c r="G75" t="s">
-        <v>390</v>
+        <v>981</v>
       </c>
       <c r="H75" t="s">
-        <v>391</v>
+        <v>982</v>
       </c>
       <c r="I75" t="s">
-        <v>729</v>
+        <v>978</v>
       </c>
       <c r="J75" t="s">
-        <v>392</v>
+        <v>979</v>
       </c>
       <c r="K75" t="s">
-        <v>389</v>
+        <v>980</v>
       </c>
       <c r="L75" t="s">
-        <v>896</v>
+        <v>1069</v>
       </c>
       <c r="M75" t="s">
-        <v>393</v>
+        <v>983</v>
       </c>
       <c r="N75" t="s">
-        <v>394</v>
+        <v>984</v>
       </c>
       <c r="R75" t="s">
-        <v>956</v>
+        <v>985</v>
       </c>
       <c r="S75" t="s">
-        <v>395</v>
+        <v>986</v>
       </c>
       <c r="T75" t="s">
-        <v>396</v>
+        <v>987</v>
       </c>
     </row>
     <row r="76" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>40</v>
+        <v>988</v>
       </c>
       <c r="B76" t="s">
-        <v>670</v>
+        <v>970</v>
       </c>
       <c r="C76" t="s">
-        <v>41</v>
+        <v>999</v>
       </c>
       <c r="D76" t="s">
-        <v>41</v>
+        <v>999</v>
       </c>
       <c r="E76" t="s">
-        <v>42</v>
+        <v>991</v>
       </c>
       <c r="F76" t="s">
-        <v>762</v>
+        <v>1003</v>
       </c>
       <c r="G76" t="s">
-        <v>43</v>
+        <v>992</v>
       </c>
       <c r="H76" t="s">
-        <v>44</v>
+        <v>993</v>
       </c>
       <c r="I76" t="s">
-        <v>41</v>
+        <v>989</v>
       </c>
       <c r="J76" t="s">
-        <v>41</v>
+        <v>990</v>
       </c>
       <c r="K76" t="s">
-        <v>42</v>
+        <v>991</v>
       </c>
       <c r="L76" t="s">
-        <v>867</v>
+        <v>1070</v>
       </c>
       <c r="M76" t="s">
-        <v>45</v>
+        <v>994</v>
       </c>
       <c r="N76" t="s">
-        <v>46</v>
-      </c>
-      <c r="R76" t="s">
-        <v>926</v>
-      </c>
-      <c r="S76" t="s">
-        <v>47</v>
-      </c>
-      <c r="T76" t="s">
-        <v>48</v>
+        <v>995</v>
       </c>
     </row>
     <row r="77" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>49</v>
+        <v>345</v>
       </c>
       <c r="B77" t="s">
-        <v>670</v>
+        <v>681</v>
       </c>
       <c r="C77" t="s">
-        <v>694</v>
+        <v>724</v>
       </c>
       <c r="D77" t="s">
-        <v>50</v>
+        <v>346</v>
       </c>
       <c r="E77" t="s">
-        <v>51</v>
+        <v>347</v>
       </c>
       <c r="F77" t="s">
-        <v>763</v>
+        <v>792</v>
       </c>
       <c r="G77" t="s">
-        <v>52</v>
+        <v>348</v>
       </c>
       <c r="H77" t="s">
-        <v>53</v>
+        <v>349</v>
       </c>
       <c r="I77" t="s">
-        <v>694</v>
+        <v>724</v>
       </c>
       <c r="J77" t="s">
-        <v>50</v>
+        <v>346</v>
       </c>
       <c r="K77" t="s">
-        <v>51</v>
+        <v>347</v>
       </c>
       <c r="L77" t="s">
-        <v>868</v>
+        <v>890</v>
       </c>
       <c r="M77" t="s">
-        <v>54</v>
+        <v>350</v>
       </c>
       <c r="N77" t="s">
-        <v>55</v>
+        <v>351</v>
       </c>
       <c r="R77" t="s">
-        <v>927</v>
+        <v>952</v>
       </c>
       <c r="S77" t="s">
-        <v>56</v>
+        <v>352</v>
       </c>
       <c r="T77" t="s">
-        <v>57</v>
+        <v>353</v>
       </c>
     </row>
     <row r="78" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>529</v>
+        <v>654</v>
       </c>
       <c r="B78" t="s">
-        <v>686</v>
+        <v>691</v>
       </c>
       <c r="C78" t="s">
-        <v>745</v>
+        <v>758</v>
       </c>
       <c r="D78" t="s">
-        <v>530</v>
+        <v>655</v>
       </c>
       <c r="E78" t="s">
-        <v>531</v>
+        <v>656</v>
       </c>
       <c r="F78" t="s">
-        <v>813</v>
+        <v>825</v>
       </c>
       <c r="G78" t="s">
-        <v>532</v>
+        <v>657</v>
       </c>
       <c r="H78" t="s">
-        <v>533</v>
-      </c>
-      <c r="I78" t="s">
-        <v>745</v>
-      </c>
-      <c r="J78" t="s">
-        <v>530</v>
-      </c>
-      <c r="K78" t="s">
-        <v>531</v>
+        <v>658</v>
+      </c>
+      <c r="L78" t="s">
+        <v>917</v>
+      </c>
+      <c r="M78" t="s">
+        <v>659</v>
+      </c>
+      <c r="N78" t="s">
+        <v>660</v>
+      </c>
+      <c r="R78" t="s">
+        <v>967</v>
+      </c>
+      <c r="S78" t="s">
+        <v>640</v>
+      </c>
+      <c r="T78" t="s">
+        <v>641</v>
       </c>
     </row>
     <row r="79" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>228</v>
+        <v>661</v>
       </c>
       <c r="B79" t="s">
-        <v>676</v>
+        <v>691</v>
       </c>
       <c r="C79" t="s">
-        <v>712</v>
+        <v>759</v>
       </c>
       <c r="D79" t="s">
-        <v>229</v>
+        <v>662</v>
       </c>
       <c r="E79" t="s">
-        <v>230</v>
+        <v>663</v>
       </c>
       <c r="F79" t="s">
-        <v>780</v>
+        <v>826</v>
       </c>
       <c r="G79" t="s">
-        <v>231</v>
+        <v>664</v>
       </c>
       <c r="H79" t="s">
-        <v>232</v>
-      </c>
-      <c r="I79" t="s">
-        <v>843</v>
-      </c>
-      <c r="J79" t="s">
-        <v>229</v>
-      </c>
-      <c r="K79" t="s">
-        <v>230</v>
+        <v>665</v>
       </c>
       <c r="L79" t="s">
-        <v>882</v>
+        <v>918</v>
       </c>
       <c r="M79" t="s">
-        <v>233</v>
+        <v>666</v>
       </c>
       <c r="N79" t="s">
-        <v>234</v>
+        <v>667</v>
       </c>
       <c r="R79" t="s">
-        <v>942</v>
+        <v>967</v>
       </c>
       <c r="S79" t="s">
-        <v>235</v>
+        <v>640</v>
       </c>
       <c r="T79" t="s">
-        <v>236</v>
+        <v>641</v>
       </c>
     </row>
     <row r="80" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>237</v>
+        <v>387</v>
       </c>
       <c r="B80" t="s">
-        <v>676</v>
+        <v>682</v>
       </c>
       <c r="C80" t="s">
-        <v>713</v>
+        <v>729</v>
       </c>
       <c r="D80" t="s">
-        <v>238</v>
+        <v>388</v>
       </c>
       <c r="E80" t="s">
-        <v>239</v>
+        <v>389</v>
       </c>
       <c r="F80" t="s">
-        <v>781</v>
+        <v>797</v>
       </c>
       <c r="G80" t="s">
-        <v>240</v>
+        <v>390</v>
       </c>
       <c r="H80" t="s">
-        <v>241</v>
+        <v>391</v>
       </c>
       <c r="I80" t="s">
-        <v>713</v>
+        <v>729</v>
       </c>
       <c r="J80" t="s">
-        <v>238</v>
+        <v>392</v>
       </c>
       <c r="K80" t="s">
-        <v>239</v>
+        <v>389</v>
       </c>
       <c r="L80" t="s">
-        <v>883</v>
+        <v>895</v>
       </c>
       <c r="M80" t="s">
-        <v>242</v>
+        <v>393</v>
       </c>
       <c r="N80" t="s">
-        <v>243</v>
+        <v>394</v>
       </c>
       <c r="R80" t="s">
-        <v>943</v>
+        <v>955</v>
       </c>
       <c r="S80" t="s">
-        <v>244</v>
+        <v>395</v>
       </c>
       <c r="T80" t="s">
-        <v>245</v>
+        <v>396</v>
       </c>
     </row>
     <row r="81" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>980</v>
+        <v>40</v>
       </c>
       <c r="B81" t="s">
-        <v>971</v>
+        <v>670</v>
       </c>
       <c r="C81" t="s">
-        <v>1003</v>
+        <v>41</v>
       </c>
       <c r="D81" t="s">
-        <v>1003</v>
+        <v>41</v>
       </c>
       <c r="E81" t="s">
-        <v>983</v>
+        <v>42</v>
       </c>
       <c r="F81" t="s">
-        <v>1007</v>
+        <v>762</v>
       </c>
       <c r="G81" t="s">
-        <v>984</v>
+        <v>43</v>
       </c>
       <c r="H81" t="s">
-        <v>985</v>
+        <v>44</v>
       </c>
       <c r="I81" t="s">
-        <v>981</v>
+        <v>41</v>
       </c>
       <c r="J81" t="s">
-        <v>982</v>
+        <v>41</v>
       </c>
       <c r="K81" t="s">
-        <v>983</v>
+        <v>42</v>
       </c>
       <c r="L81" t="s">
-        <v>986</v>
+        <v>866</v>
       </c>
       <c r="M81" t="s">
-        <v>987</v>
+        <v>45</v>
       </c>
       <c r="N81" t="s">
-        <v>988</v>
+        <v>46</v>
       </c>
       <c r="R81" t="s">
-        <v>989</v>
+        <v>925</v>
       </c>
       <c r="S81" t="s">
-        <v>990</v>
+        <v>47</v>
       </c>
       <c r="T81" t="s">
-        <v>991</v>
+        <v>48</v>
       </c>
     </row>
     <row r="82" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>992</v>
+        <v>49</v>
       </c>
       <c r="B82" t="s">
-        <v>971</v>
+        <v>670</v>
       </c>
       <c r="C82" t="s">
-        <v>1004</v>
+        <v>694</v>
       </c>
       <c r="D82" t="s">
-        <v>1004</v>
+        <v>50</v>
       </c>
       <c r="E82" t="s">
-        <v>995</v>
+        <v>51</v>
       </c>
       <c r="F82" t="s">
-        <v>1008</v>
+        <v>763</v>
       </c>
       <c r="G82" t="s">
-        <v>996</v>
+        <v>52</v>
       </c>
       <c r="H82" t="s">
-        <v>997</v>
+        <v>53</v>
       </c>
       <c r="I82" t="s">
-        <v>993</v>
+        <v>694</v>
       </c>
       <c r="J82" t="s">
-        <v>994</v>
+        <v>50</v>
       </c>
       <c r="K82" t="s">
-        <v>995</v>
+        <v>51</v>
       </c>
       <c r="L82" t="s">
-        <v>998</v>
+        <v>867</v>
       </c>
       <c r="M82" t="s">
-        <v>999</v>
+        <v>54</v>
       </c>
       <c r="N82" t="s">
-        <v>1000</v>
+        <v>55</v>
+      </c>
+      <c r="R82" t="s">
+        <v>926</v>
+      </c>
+      <c r="S82" t="s">
+        <v>56</v>
+      </c>
+      <c r="T82" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="83" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>613</v>
+        <v>529</v>
       </c>
       <c r="B83" t="s">
-        <v>671</v>
+        <v>686</v>
       </c>
       <c r="C83" t="s">
-        <v>752</v>
+        <v>1047</v>
       </c>
       <c r="D83" t="s">
-        <v>614</v>
+        <v>530</v>
       </c>
       <c r="E83" t="s">
-        <v>615</v>
+        <v>531</v>
+      </c>
+      <c r="F83" t="s">
+        <v>1054</v>
+      </c>
+      <c r="G83" t="s">
+        <v>532</v>
+      </c>
+      <c r="H83" t="s">
+        <v>533</v>
       </c>
       <c r="I83" t="s">
-        <v>858</v>
+        <v>745</v>
       </c>
       <c r="J83" t="s">
-        <v>616</v>
+        <v>530</v>
       </c>
       <c r="K83" t="s">
-        <v>617</v>
+        <v>531</v>
+      </c>
+    </row>
+    <row r="84" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>237</v>
+      </c>
+      <c r="B84" t="s">
+        <v>1010</v>
+      </c>
+      <c r="C84" t="s">
+        <v>1048</v>
+      </c>
+      <c r="D84" t="s">
+        <v>238</v>
+      </c>
+      <c r="E84" t="s">
+        <v>239</v>
+      </c>
+      <c r="F84" t="s">
+        <v>1055</v>
+      </c>
+      <c r="G84" t="s">
+        <v>1011</v>
+      </c>
+      <c r="H84" t="s">
+        <v>1012</v>
+      </c>
+      <c r="I84" t="s">
+        <v>1048</v>
+      </c>
+      <c r="J84" t="s">
+        <v>238</v>
+      </c>
+      <c r="K84" t="s">
+        <v>239</v>
+      </c>
+      <c r="L84" t="s">
+        <v>1061</v>
+      </c>
+      <c r="M84" t="s">
+        <v>242</v>
+      </c>
+      <c r="N84" t="s">
+        <v>243</v>
+      </c>
+      <c r="R84" t="s">
+        <v>1071</v>
+      </c>
+      <c r="S84" t="s">
+        <v>244</v>
+      </c>
+      <c r="T84" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="85" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B85" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C85" t="s">
+        <v>1049</v>
+      </c>
+      <c r="D85" t="s">
+        <v>1015</v>
+      </c>
+      <c r="E85" t="s">
+        <v>1016</v>
+      </c>
+      <c r="F85" t="s">
+        <v>1056</v>
+      </c>
+      <c r="G85" t="s">
+        <v>1017</v>
+      </c>
+      <c r="H85" t="s">
+        <v>1018</v>
+      </c>
+      <c r="I85" t="s">
+        <v>1049</v>
+      </c>
+      <c r="J85" t="s">
+        <v>1015</v>
+      </c>
+      <c r="K85" t="s">
+        <v>1016</v>
+      </c>
+      <c r="L85" t="s">
+        <v>1062</v>
+      </c>
+      <c r="M85" t="s">
+        <v>1019</v>
+      </c>
+      <c r="N85" t="s">
+        <v>1020</v>
+      </c>
+      <c r="R85" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="86" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B86" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C86" t="s">
+        <v>1050</v>
+      </c>
+      <c r="D86" t="s">
+        <v>1024</v>
+      </c>
+      <c r="E86" t="s">
+        <v>1023</v>
+      </c>
+      <c r="F86" t="s">
+        <v>1057</v>
+      </c>
+      <c r="G86" t="s">
+        <v>1025</v>
+      </c>
+      <c r="H86" t="s">
+        <v>1026</v>
+      </c>
+      <c r="I86" t="s">
+        <v>1050</v>
+      </c>
+      <c r="J86" t="s">
+        <v>1024</v>
+      </c>
+      <c r="K86" t="s">
+        <v>1023</v>
+      </c>
+      <c r="L86" t="s">
+        <v>1063</v>
+      </c>
+      <c r="M86" t="s">
+        <v>1027</v>
+      </c>
+      <c r="N86" t="s">
+        <v>1028</v>
+      </c>
+      <c r="R86" t="s">
+        <v>1073</v>
+      </c>
+      <c r="S86" t="s">
+        <v>1029</v>
+      </c>
+      <c r="T86" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="87" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B87" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C87" t="s">
+        <v>1051</v>
+      </c>
+      <c r="D87" t="s">
+        <v>1033</v>
+      </c>
+      <c r="E87" t="s">
+        <v>1034</v>
+      </c>
+      <c r="F87" t="s">
+        <v>1058</v>
+      </c>
+      <c r="G87" t="s">
+        <v>409</v>
+      </c>
+      <c r="H87" t="s">
+        <v>410</v>
+      </c>
+      <c r="I87" t="s">
+        <v>1051</v>
+      </c>
+      <c r="J87" t="s">
+        <v>1033</v>
+      </c>
+      <c r="K87" t="s">
+        <v>1034</v>
+      </c>
+      <c r="L87" t="s">
+        <v>1064</v>
+      </c>
+      <c r="M87" t="s">
+        <v>411</v>
+      </c>
+      <c r="N87" t="s">
+        <v>412</v>
+      </c>
+      <c r="R87" t="s">
+        <v>1074</v>
+      </c>
+      <c r="S87" t="s">
+        <v>404</v>
+      </c>
+      <c r="T87" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="88" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B88" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C88" t="s">
+        <v>1052</v>
+      </c>
+      <c r="D88" t="s">
+        <v>1037</v>
+      </c>
+      <c r="E88" t="s">
+        <v>1038</v>
+      </c>
+      <c r="F88" t="s">
+        <v>1059</v>
+      </c>
+      <c r="G88" t="s">
+        <v>1039</v>
+      </c>
+      <c r="H88" t="s">
+        <v>1040</v>
+      </c>
+      <c r="I88" t="s">
+        <v>1052</v>
+      </c>
+      <c r="J88" t="s">
+        <v>1037</v>
+      </c>
+      <c r="K88" t="s">
+        <v>1038</v>
+      </c>
+      <c r="L88" t="s">
+        <v>1065</v>
+      </c>
+      <c r="M88" t="s">
+        <v>1041</v>
+      </c>
+      <c r="N88" t="s">
+        <v>1042</v>
+      </c>
+      <c r="R88" t="s">
+        <v>1075</v>
+      </c>
+      <c r="S88" t="s">
+        <v>1043</v>
+      </c>
+      <c r="T88" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="89" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>423</v>
+      </c>
+      <c r="B89" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C89" t="s">
+        <v>1053</v>
+      </c>
+      <c r="D89" t="s">
+        <v>424</v>
+      </c>
+      <c r="E89" t="s">
+        <v>425</v>
+      </c>
+      <c r="F89" t="s">
+        <v>1060</v>
+      </c>
+      <c r="G89" t="s">
+        <v>1045</v>
+      </c>
+      <c r="H89" t="s">
+        <v>1046</v>
+      </c>
+      <c r="I89" t="s">
+        <v>1053</v>
+      </c>
+      <c r="J89" t="s">
+        <v>424</v>
+      </c>
+      <c r="K89" t="s">
+        <v>425</v>
+      </c>
+      <c r="L89" t="s">
+        <v>1066</v>
+      </c>
+      <c r="M89" t="s">
+        <v>428</v>
+      </c>
+      <c r="N89" t="s">
+        <v>429</v>
+      </c>
+      <c r="R89" t="s">
+        <v>957</v>
+      </c>
+      <c r="S89" t="s">
+        <v>430</v>
+      </c>
+      <c r="T89" t="s">
+        <v>431</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A2:T83" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:T83">
-      <sortCondition ref="A2:A83"/>
+      <sortCondition ref="B2:B83"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/PTBR/Lang/PTBR/Game/Stat.xlsx
+++ b/PTBR/Lang/PTBR/Game/Stat.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isy\Documents\GitHub\elin-portugues-brasileiro\PTBR\Lang\PTBR\Game\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ysi\Documents\GitHub\elin-portugues-brasileiro\PTBR\Lang\PTBR\Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38002152-CCAD-4528-9EA7-3BAA683754C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50EA1D29-34DE-41F3-B9F3-F64B1A3BD6F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7095" yWindow="495" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="16200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Stat" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1351" uniqueCount="1076">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1455" uniqueCount="1154">
   <si>
     <t>id</t>
   </si>
@@ -3291,12 +3291,246 @@
   <si>
     <t xml:space="preserve">#1 sente-se calmo(a) novamente.  </t>
   </si>
+  <si>
+    <t>94</t>
+  </si>
+  <si>
+    <t>EA 23.166</t>
+  </si>
+  <si>
+    <t>安眠之歌</t>
+  </si>
+  <si>
+    <t>Hymn of Sleep</t>
+  </si>
+  <si>
+    <t>眠りの歌</t>
+  </si>
+  <si>
+    <t>A condition that grants sleep to nearby creatures. Consume mana while maintaining the song.</t>
+  </si>
+  <si>
+    <t>周囲の生物を眠らせる状態。歌を維持している間はマナが減少する。</t>
+  </si>
+  <si>
+    <t>#1开始唱摇篮曲了。</t>
+  </si>
+  <si>
+    <t>#1 begin(s) to sing a lullaby.</t>
+  </si>
+  <si>
+    <t>#1は子守唄を歌い始めた。</t>
+  </si>
+  <si>
+    <t>#1停止唱歌了。</t>
+  </si>
+  <si>
+    <t>#1 stop(s) singing.</t>
+  </si>
+  <si>
+    <t>#1は歌うのを止めた。</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>EA 23.191</t>
+  </si>
+  <si>
+    <t>屈服之心</t>
+  </si>
+  <si>
+    <t>Fractured Valor</t>
+  </si>
+  <si>
+    <t>折れかけの心</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A condition where your spirit falters and the effect of Guts no longer activates </t>
+  </si>
+  <si>
+    <t>心がくじけかけ、不屈の効果が発動しない状態。</t>
+  </si>
+  <si>
+    <t>96</t>
+  </si>
+  <si>
+    <t>EA 23.195</t>
+  </si>
+  <si>
+    <t>第七感</t>
+  </si>
+  <si>
+    <t>Seventh Sense</t>
+  </si>
+  <si>
+    <t>セブンセンシズ</t>
+  </si>
+  <si>
+    <t>#1的第七感觉醒了！</t>
+  </si>
+  <si>
+    <t>#1 awaken(s) to the Seventh Sense!</t>
+  </si>
+  <si>
+    <t>#1はセブンセンシズに目覚めた！</t>
+  </si>
+  <si>
+    <t>#1的小宇宙燃尽了。</t>
+  </si>
+  <si>
+    <t>#your cosmo fade(s) away.</t>
+  </si>
+  <si>
+    <t>#1の小宇宙は燃え尽きた。</t>
+  </si>
+  <si>
+    <t>97</t>
+  </si>
+  <si>
+    <t>EA 23.220</t>
+  </si>
+  <si>
+    <t>勇气之歌</t>
+  </si>
+  <si>
+    <t>Hymn of Valor</t>
+  </si>
+  <si>
+    <t>勇気の歌</t>
+  </si>
+  <si>
+    <t>A condition that grants courage to nearby creatures. Consume mana while maintaining the song.</t>
+  </si>
+  <si>
+    <t>周囲の生物に勇気を与える状態。歌を維持している間はマナが減少する。</t>
+  </si>
+  <si>
+    <t>#1开始唱激昂之歌了。</t>
+  </si>
+  <si>
+    <t>#1 begin(s) to sing a song of valor.</t>
+  </si>
+  <si>
+    <t>#1は勇ましい歌を歌い始めた。</t>
+  </si>
+  <si>
+    <t>#2停止唱歌了。</t>
+  </si>
+  <si>
+    <t>98</t>
+  </si>
+  <si>
+    <t>EA 23.233</t>
+  </si>
+  <si>
+    <t>蝙蝠变形</t>
+  </si>
+  <si>
+    <t>Bat Transformation</t>
+  </si>
+  <si>
+    <t>コウモリ変容</t>
+  </si>
+  <si>
+    <t>#1变形了。</t>
+  </si>
+  <si>
+    <t>#1恢复了原状。</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>EA 23.239</t>
+  </si>
+  <si>
+    <t>吸血症</t>
+  </si>
+  <si>
+    <t>Vampirism</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>EA 23.241</t>
+  </si>
+  <si>
+    <t>潜行</t>
+  </si>
+  <si>
+    <t>Dark Concealment</t>
+  </si>
+  <si>
+    <t>A condition where you are hidden in darkness.</t>
+  </si>
+  <si>
+    <t>闇に潜んだ状態。</t>
+  </si>
+  <si>
+    <t>#1潜入了黑暗。</t>
+  </si>
+  <si>
+    <t>#1 don(s) darkness.</t>
+  </si>
+  <si>
+    <t>#1は闇に潜った。</t>
+  </si>
+  <si>
+    <t>#1从黑暗中现形。</t>
+  </si>
+  <si>
+    <t>#1 cast(s) off darkness.</t>
+  </si>
+  <si>
+    <t>#1は闇を抜けた。</t>
+  </si>
+  <si>
+    <t>Hino do Sono</t>
+  </si>
+  <si>
+    <t>Valor Fragmentado</t>
+  </si>
+  <si>
+    <t>Sétimo Sentido</t>
+  </si>
+  <si>
+    <t>Hino do Valor</t>
+  </si>
+  <si>
+    <t>Transformação em Morcego</t>
+  </si>
+  <si>
+    <t>Vampirismo</t>
+  </si>
+  <si>
+    <t>Ocultação Sombria</t>
+  </si>
+  <si>
+    <t>Uma condição que concede sono às criaturas próximas. Consome mana enquanto mantém a canção.</t>
+  </si>
+  <si>
+    <t>Uma condição onde seu espírito vacila e o efeito de Fibra não é mais ativado.</t>
+  </si>
+  <si>
+    <t>Bênção que aumenta atributos.</t>
+  </si>
+  <si>
+    <t>Uma condição que concede coragem às criaturas próximas. Consome mana enquanto mantém a canção.</t>
+  </si>
+  <si>
+    <t>Transformação em outro.</t>
+  </si>
+  <si>
+    <t>Uma condição onde você está oculto na escuridão.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -3670,35 +3904,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T89"/>
+  <dimension ref="A1:T96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R84" sqref="R84:R89"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F96" sqref="F96"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="2" width="16" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="23.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="23.875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="4" max="5" width="16" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="144.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="118.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="89.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="144.875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="118.25" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="89.375" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="9" max="9" width="66" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="45.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="35.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="168.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="56.42578125" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="184.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="146.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="45.625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="35.75" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="168.25" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="56.375" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="184.125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="146.125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="16" max="16" width="16" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="167.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="44.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="167.125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="44.25" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="19" max="20" width="16" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3760,7 +3994,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="90" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" ht="85.5">
       <c r="A3" t="s">
         <v>554</v>
       </c>
@@ -3813,7 +4047,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20">
       <c r="A4" t="s">
         <v>565</v>
       </c>
@@ -3851,7 +4085,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20">
       <c r="A5" t="s">
         <v>469</v>
       </c>
@@ -3904,7 +4138,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20">
       <c r="A6" t="s">
         <v>572</v>
       </c>
@@ -3939,7 +4173,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20">
       <c r="A7" t="s">
         <v>100</v>
       </c>
@@ -3992,7 +4226,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20">
       <c r="A8" t="s">
         <v>130</v>
       </c>
@@ -4045,7 +4279,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" ht="28.5">
       <c r="A9" t="s">
         <v>58</v>
       </c>
@@ -4107,7 +4341,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20">
       <c r="A10" t="s">
         <v>503</v>
       </c>
@@ -4160,7 +4394,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20">
       <c r="A11" t="s">
         <v>82</v>
       </c>
@@ -4213,7 +4447,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20">
       <c r="A12" t="s">
         <v>91</v>
       </c>
@@ -4266,7 +4500,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20">
       <c r="A13" t="s">
         <v>291</v>
       </c>
@@ -4319,7 +4553,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20">
       <c r="A14" t="s">
         <v>110</v>
       </c>
@@ -4372,7 +4606,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20">
       <c r="A15" t="s">
         <v>302</v>
       </c>
@@ -4425,7 +4659,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20">
       <c r="A16" t="s">
         <v>500</v>
       </c>
@@ -4451,7 +4685,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20">
       <c r="A17" t="s">
         <v>138</v>
       </c>
@@ -4504,7 +4738,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20">
       <c r="A18" t="s">
         <v>148</v>
       </c>
@@ -4557,7 +4791,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20">
       <c r="A19" t="s">
         <v>157</v>
       </c>
@@ -4610,7 +4844,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20">
       <c r="A20" t="s">
         <v>480</v>
       </c>
@@ -4663,7 +4897,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20">
       <c r="A21" t="s">
         <v>168</v>
       </c>
@@ -4716,7 +4950,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20">
       <c r="A22" t="s">
         <v>179</v>
       </c>
@@ -4769,7 +5003,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="23" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20" ht="42.75">
       <c r="A23" t="s">
         <v>584</v>
       </c>
@@ -4822,7 +5056,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20">
       <c r="A24" t="s">
         <v>523</v>
       </c>
@@ -4857,7 +5091,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20">
       <c r="A25" t="s">
         <v>491</v>
       </c>
@@ -4910,7 +5144,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20">
       <c r="A26" t="s">
         <v>354</v>
       </c>
@@ -4963,7 +5197,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:20">
       <c r="A27" t="s">
         <v>423</v>
       </c>
@@ -5016,7 +5250,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:20">
       <c r="A28" t="s">
         <v>534</v>
       </c>
@@ -5069,7 +5303,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:20">
       <c r="A29" t="s">
         <v>364</v>
       </c>
@@ -5122,7 +5356,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:20">
       <c r="A30" t="s">
         <v>371</v>
       </c>
@@ -5175,7 +5409,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:20">
       <c r="A31" t="s">
         <v>593</v>
       </c>
@@ -5201,7 +5435,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:20">
       <c r="A32" t="s">
         <v>212</v>
       </c>
@@ -5254,7 +5488,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:20">
       <c r="A33" t="s">
         <v>598</v>
       </c>
@@ -5280,7 +5514,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:20">
       <c r="A34" t="s">
         <v>603</v>
       </c>
@@ -5315,7 +5549,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:20">
       <c r="A35" t="s">
         <v>610</v>
       </c>
@@ -5332,7 +5566,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:20">
       <c r="A36" t="s">
         <v>613</v>
       </c>
@@ -5358,7 +5592,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:20">
       <c r="A37" t="s">
         <v>380</v>
       </c>
@@ -5402,7 +5636,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="38" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:20" ht="28.5">
       <c r="A38" t="s">
         <v>201</v>
       </c>
@@ -5455,7 +5689,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:20">
       <c r="A39" t="s">
         <v>20</v>
       </c>
@@ -5508,7 +5742,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:20">
       <c r="A40" t="s">
         <v>246</v>
       </c>
@@ -5561,7 +5795,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:20">
       <c r="A41" t="s">
         <v>621</v>
       </c>
@@ -5614,7 +5848,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:20">
       <c r="A42" t="s">
         <v>432</v>
       </c>
@@ -5658,7 +5892,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:20">
       <c r="A43" t="s">
         <v>416</v>
       </c>
@@ -5702,7 +5936,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:20">
       <c r="A44" t="s">
         <v>439</v>
       </c>
@@ -5746,7 +5980,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:20">
       <c r="A45" t="s">
         <v>462</v>
       </c>
@@ -5790,7 +6024,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:20">
       <c r="A46" t="s">
         <v>255</v>
       </c>
@@ -5843,7 +6077,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:20">
       <c r="A47" t="s">
         <v>264</v>
       </c>
@@ -5896,7 +6130,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:20">
       <c r="A48" t="s">
         <v>273</v>
       </c>
@@ -5949,7 +6183,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:20">
       <c r="A49" t="s">
         <v>282</v>
       </c>
@@ -6002,7 +6236,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:20">
       <c r="A50" t="s">
         <v>628</v>
       </c>
@@ -6037,7 +6271,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:20">
       <c r="A51" t="s">
         <v>446</v>
       </c>
@@ -6081,7 +6315,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:20">
       <c r="A52" t="s">
         <v>190</v>
       </c>
@@ -6134,7 +6368,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:20">
       <c r="A53" t="s">
         <v>397</v>
       </c>
@@ -6187,7 +6421,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:20">
       <c r="A54" t="s">
         <v>453</v>
       </c>
@@ -6240,7 +6474,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:20">
       <c r="A55" t="s">
         <v>406</v>
       </c>
@@ -6293,7 +6527,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:20">
       <c r="A56" t="s">
         <v>413</v>
       </c>
@@ -6346,7 +6580,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:20">
       <c r="A57" t="s">
         <v>318</v>
       </c>
@@ -6399,7 +6633,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:20">
       <c r="A58" t="s">
         <v>618</v>
       </c>
@@ -6425,7 +6659,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:20">
       <c r="A59" t="s">
         <v>577</v>
       </c>
@@ -6460,7 +6694,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:20">
       <c r="A60" t="s">
         <v>221</v>
       </c>
@@ -6504,7 +6738,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:20">
       <c r="A61" t="s">
         <v>633</v>
       </c>
@@ -6548,7 +6782,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:20">
       <c r="A62" t="s">
         <v>642</v>
       </c>
@@ -6592,7 +6826,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:20">
       <c r="A63" t="s">
         <v>649</v>
       </c>
@@ -6636,7 +6870,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:20">
       <c r="A64" t="s">
         <v>71</v>
       </c>
@@ -6689,7 +6923,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:20">
       <c r="A65" t="s">
         <v>120</v>
       </c>
@@ -6742,7 +6976,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:20">
       <c r="A66" t="s">
         <v>31</v>
       </c>
@@ -6795,7 +7029,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:20">
       <c r="A67" t="s">
         <v>335</v>
       </c>
@@ -6830,7 +7064,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:20">
       <c r="A68" t="s">
         <v>512</v>
       </c>
@@ -6883,7 +7117,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:20">
       <c r="A69" t="s">
         <v>543</v>
       </c>
@@ -6936,7 +7170,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:20">
       <c r="A70" t="s">
         <v>340</v>
       </c>
@@ -6971,7 +7205,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:20">
       <c r="A71" t="s">
         <v>228</v>
       </c>
@@ -7024,7 +7258,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:20">
       <c r="A72" t="s">
         <v>237</v>
       </c>
@@ -7077,7 +7311,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:20">
       <c r="A73" t="s">
         <v>311</v>
       </c>
@@ -7130,7 +7364,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:20">
       <c r="A74" t="s">
         <v>328</v>
       </c>
@@ -7183,7 +7417,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:20">
       <c r="A75" t="s">
         <v>977</v>
       </c>
@@ -7236,7 +7470,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:20">
       <c r="A76" t="s">
         <v>988</v>
       </c>
@@ -7280,7 +7514,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:20">
       <c r="A77" t="s">
         <v>345</v>
       </c>
@@ -7333,603 +7567,929 @@
         <v>353</v>
       </c>
     </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:20">
       <c r="A78" t="s">
+        <v>237</v>
+      </c>
+      <c r="B78" t="s">
+        <v>1010</v>
+      </c>
+      <c r="C78" t="s">
+        <v>1048</v>
+      </c>
+      <c r="D78" t="s">
+        <v>238</v>
+      </c>
+      <c r="E78" t="s">
+        <v>239</v>
+      </c>
+      <c r="F78" t="s">
+        <v>1055</v>
+      </c>
+      <c r="G78" t="s">
+        <v>1011</v>
+      </c>
+      <c r="H78" t="s">
+        <v>1012</v>
+      </c>
+      <c r="I78" t="s">
+        <v>1048</v>
+      </c>
+      <c r="J78" t="s">
+        <v>238</v>
+      </c>
+      <c r="K78" t="s">
+        <v>239</v>
+      </c>
+      <c r="L78" t="s">
+        <v>1061</v>
+      </c>
+      <c r="M78" t="s">
+        <v>242</v>
+      </c>
+      <c r="N78" t="s">
+        <v>243</v>
+      </c>
+      <c r="R78" t="s">
+        <v>1071</v>
+      </c>
+      <c r="S78" t="s">
+        <v>244</v>
+      </c>
+      <c r="T78" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="79" spans="1:20">
+      <c r="A79" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B79" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C79" t="s">
+        <v>1049</v>
+      </c>
+      <c r="D79" t="s">
+        <v>1015</v>
+      </c>
+      <c r="E79" t="s">
+        <v>1016</v>
+      </c>
+      <c r="F79" t="s">
+        <v>1056</v>
+      </c>
+      <c r="G79" t="s">
+        <v>1017</v>
+      </c>
+      <c r="H79" t="s">
+        <v>1018</v>
+      </c>
+      <c r="I79" t="s">
+        <v>1049</v>
+      </c>
+      <c r="J79" t="s">
+        <v>1015</v>
+      </c>
+      <c r="K79" t="s">
+        <v>1016</v>
+      </c>
+      <c r="L79" t="s">
+        <v>1062</v>
+      </c>
+      <c r="M79" t="s">
+        <v>1019</v>
+      </c>
+      <c r="N79" t="s">
+        <v>1020</v>
+      </c>
+      <c r="R79" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="80" spans="1:20">
+      <c r="A80" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B80" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C80" t="s">
+        <v>1050</v>
+      </c>
+      <c r="D80" t="s">
+        <v>1024</v>
+      </c>
+      <c r="E80" t="s">
+        <v>1023</v>
+      </c>
+      <c r="F80" t="s">
+        <v>1057</v>
+      </c>
+      <c r="G80" t="s">
+        <v>1025</v>
+      </c>
+      <c r="H80" t="s">
+        <v>1026</v>
+      </c>
+      <c r="I80" t="s">
+        <v>1050</v>
+      </c>
+      <c r="J80" t="s">
+        <v>1024</v>
+      </c>
+      <c r="K80" t="s">
+        <v>1023</v>
+      </c>
+      <c r="L80" t="s">
+        <v>1063</v>
+      </c>
+      <c r="M80" t="s">
+        <v>1027</v>
+      </c>
+      <c r="N80" t="s">
+        <v>1028</v>
+      </c>
+      <c r="R80" t="s">
+        <v>1073</v>
+      </c>
+      <c r="S80" t="s">
+        <v>1029</v>
+      </c>
+      <c r="T80" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="81" spans="1:20">
+      <c r="A81" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B81" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C81" t="s">
+        <v>1051</v>
+      </c>
+      <c r="D81" t="s">
+        <v>1033</v>
+      </c>
+      <c r="E81" t="s">
+        <v>1034</v>
+      </c>
+      <c r="F81" t="s">
+        <v>1058</v>
+      </c>
+      <c r="G81" t="s">
+        <v>409</v>
+      </c>
+      <c r="H81" t="s">
+        <v>410</v>
+      </c>
+      <c r="I81" t="s">
+        <v>1051</v>
+      </c>
+      <c r="J81" t="s">
+        <v>1033</v>
+      </c>
+      <c r="K81" t="s">
+        <v>1034</v>
+      </c>
+      <c r="L81" t="s">
+        <v>1064</v>
+      </c>
+      <c r="M81" t="s">
+        <v>411</v>
+      </c>
+      <c r="N81" t="s">
+        <v>412</v>
+      </c>
+      <c r="R81" t="s">
+        <v>1074</v>
+      </c>
+      <c r="S81" t="s">
+        <v>404</v>
+      </c>
+      <c r="T81" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="82" spans="1:20">
+      <c r="A82" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B82" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C82" t="s">
+        <v>1052</v>
+      </c>
+      <c r="D82" t="s">
+        <v>1037</v>
+      </c>
+      <c r="E82" t="s">
+        <v>1038</v>
+      </c>
+      <c r="F82" t="s">
+        <v>1059</v>
+      </c>
+      <c r="G82" t="s">
+        <v>1039</v>
+      </c>
+      <c r="H82" t="s">
+        <v>1040</v>
+      </c>
+      <c r="I82" t="s">
+        <v>1052</v>
+      </c>
+      <c r="J82" t="s">
+        <v>1037</v>
+      </c>
+      <c r="K82" t="s">
+        <v>1038</v>
+      </c>
+      <c r="L82" t="s">
+        <v>1065</v>
+      </c>
+      <c r="M82" t="s">
+        <v>1041</v>
+      </c>
+      <c r="N82" t="s">
+        <v>1042</v>
+      </c>
+      <c r="R82" t="s">
+        <v>1075</v>
+      </c>
+      <c r="S82" t="s">
+        <v>1043</v>
+      </c>
+      <c r="T82" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="83" spans="1:20">
+      <c r="A83" t="s">
+        <v>423</v>
+      </c>
+      <c r="B83" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C83" t="s">
+        <v>1053</v>
+      </c>
+      <c r="D83" t="s">
+        <v>424</v>
+      </c>
+      <c r="E83" t="s">
+        <v>425</v>
+      </c>
+      <c r="F83" t="s">
+        <v>1060</v>
+      </c>
+      <c r="G83" t="s">
+        <v>1045</v>
+      </c>
+      <c r="H83" t="s">
+        <v>1046</v>
+      </c>
+      <c r="I83" t="s">
+        <v>1053</v>
+      </c>
+      <c r="J83" t="s">
+        <v>424</v>
+      </c>
+      <c r="K83" t="s">
+        <v>425</v>
+      </c>
+      <c r="L83" t="s">
+        <v>1066</v>
+      </c>
+      <c r="M83" t="s">
+        <v>428</v>
+      </c>
+      <c r="N83" t="s">
+        <v>429</v>
+      </c>
+      <c r="R83" t="s">
+        <v>957</v>
+      </c>
+      <c r="S83" t="s">
+        <v>430</v>
+      </c>
+      <c r="T83" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="84" spans="1:20">
+      <c r="A84" t="s">
         <v>654</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B84" t="s">
         <v>691</v>
       </c>
-      <c r="C78" t="s">
+      <c r="C84" t="s">
         <v>758</v>
       </c>
-      <c r="D78" t="s">
+      <c r="D84" t="s">
         <v>655</v>
       </c>
-      <c r="E78" t="s">
+      <c r="E84" t="s">
         <v>656</v>
       </c>
-      <c r="F78" t="s">
+      <c r="F84" t="s">
         <v>825</v>
       </c>
-      <c r="G78" t="s">
+      <c r="G84" t="s">
         <v>657</v>
       </c>
-      <c r="H78" t="s">
+      <c r="H84" t="s">
         <v>658</v>
       </c>
-      <c r="L78" t="s">
+      <c r="L84" t="s">
         <v>917</v>
       </c>
-      <c r="M78" t="s">
+      <c r="M84" t="s">
         <v>659</v>
       </c>
-      <c r="N78" t="s">
+      <c r="N84" t="s">
         <v>660</v>
       </c>
-      <c r="R78" t="s">
+      <c r="R84" t="s">
         <v>967</v>
       </c>
-      <c r="S78" t="s">
+      <c r="S84" t="s">
         <v>640</v>
       </c>
-      <c r="T78" t="s">
+      <c r="T84" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
+    <row r="85" spans="1:20">
+      <c r="A85" t="s">
         <v>661</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B85" t="s">
         <v>691</v>
       </c>
-      <c r="C79" t="s">
+      <c r="C85" t="s">
         <v>759</v>
       </c>
-      <c r="D79" t="s">
+      <c r="D85" t="s">
         <v>662</v>
       </c>
-      <c r="E79" t="s">
+      <c r="E85" t="s">
         <v>663</v>
       </c>
-      <c r="F79" t="s">
+      <c r="F85" t="s">
         <v>826</v>
       </c>
-      <c r="G79" t="s">
+      <c r="G85" t="s">
         <v>664</v>
       </c>
-      <c r="H79" t="s">
+      <c r="H85" t="s">
         <v>665</v>
       </c>
-      <c r="L79" t="s">
+      <c r="L85" t="s">
         <v>918</v>
       </c>
-      <c r="M79" t="s">
+      <c r="M85" t="s">
         <v>666</v>
       </c>
-      <c r="N79" t="s">
+      <c r="N85" t="s">
         <v>667</v>
       </c>
-      <c r="R79" t="s">
+      <c r="R85" t="s">
         <v>967</v>
       </c>
-      <c r="S79" t="s">
+      <c r="S85" t="s">
         <v>640</v>
       </c>
-      <c r="T79" t="s">
+      <c r="T85" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
+    <row r="86" spans="1:20">
+      <c r="A86" t="s">
         <v>387</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B86" t="s">
         <v>682</v>
       </c>
-      <c r="C80" t="s">
+      <c r="C86" t="s">
         <v>729</v>
       </c>
-      <c r="D80" t="s">
+      <c r="D86" t="s">
         <v>388</v>
       </c>
-      <c r="E80" t="s">
+      <c r="E86" t="s">
         <v>389</v>
       </c>
-      <c r="F80" t="s">
+      <c r="F86" t="s">
         <v>797</v>
       </c>
-      <c r="G80" t="s">
+      <c r="G86" t="s">
         <v>390</v>
       </c>
-      <c r="H80" t="s">
+      <c r="H86" t="s">
         <v>391</v>
       </c>
-      <c r="I80" t="s">
+      <c r="I86" t="s">
         <v>729</v>
       </c>
-      <c r="J80" t="s">
+      <c r="J86" t="s">
         <v>392</v>
       </c>
-      <c r="K80" t="s">
+      <c r="K86" t="s">
         <v>389</v>
       </c>
-      <c r="L80" t="s">
+      <c r="L86" t="s">
         <v>895</v>
       </c>
-      <c r="M80" t="s">
+      <c r="M86" t="s">
         <v>393</v>
       </c>
-      <c r="N80" t="s">
+      <c r="N86" t="s">
         <v>394</v>
       </c>
-      <c r="R80" t="s">
+      <c r="R86" t="s">
         <v>955</v>
       </c>
-      <c r="S80" t="s">
+      <c r="S86" t="s">
         <v>395</v>
       </c>
-      <c r="T80" t="s">
+      <c r="T86" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="81" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
+    <row r="87" spans="1:20">
+      <c r="A87" t="s">
         <v>40</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B87" t="s">
         <v>670</v>
       </c>
-      <c r="C81" t="s">
+      <c r="C87" t="s">
         <v>41</v>
       </c>
-      <c r="D81" t="s">
+      <c r="D87" t="s">
         <v>41</v>
       </c>
-      <c r="E81" t="s">
+      <c r="E87" t="s">
         <v>42</v>
       </c>
-      <c r="F81" t="s">
+      <c r="F87" t="s">
         <v>762</v>
       </c>
-      <c r="G81" t="s">
+      <c r="G87" t="s">
         <v>43</v>
       </c>
-      <c r="H81" t="s">
+      <c r="H87" t="s">
         <v>44</v>
       </c>
-      <c r="I81" t="s">
+      <c r="I87" t="s">
         <v>41</v>
       </c>
-      <c r="J81" t="s">
+      <c r="J87" t="s">
         <v>41</v>
       </c>
-      <c r="K81" t="s">
+      <c r="K87" t="s">
         <v>42</v>
       </c>
-      <c r="L81" t="s">
+      <c r="L87" t="s">
         <v>866</v>
       </c>
-      <c r="M81" t="s">
+      <c r="M87" t="s">
         <v>45</v>
       </c>
-      <c r="N81" t="s">
+      <c r="N87" t="s">
         <v>46</v>
       </c>
-      <c r="R81" t="s">
+      <c r="R87" t="s">
         <v>925</v>
       </c>
-      <c r="S81" t="s">
+      <c r="S87" t="s">
         <v>47</v>
       </c>
-      <c r="T81" t="s">
+      <c r="T87" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="82" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
+    <row r="88" spans="1:20">
+      <c r="A88" t="s">
         <v>49</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B88" t="s">
         <v>670</v>
       </c>
-      <c r="C82" t="s">
+      <c r="C88" t="s">
         <v>694</v>
       </c>
-      <c r="D82" t="s">
+      <c r="D88" t="s">
         <v>50</v>
       </c>
-      <c r="E82" t="s">
+      <c r="E88" t="s">
         <v>51</v>
       </c>
-      <c r="F82" t="s">
+      <c r="F88" t="s">
         <v>763</v>
       </c>
-      <c r="G82" t="s">
+      <c r="G88" t="s">
         <v>52</v>
       </c>
-      <c r="H82" t="s">
+      <c r="H88" t="s">
         <v>53</v>
       </c>
-      <c r="I82" t="s">
+      <c r="I88" t="s">
         <v>694</v>
       </c>
-      <c r="J82" t="s">
+      <c r="J88" t="s">
         <v>50</v>
       </c>
-      <c r="K82" t="s">
+      <c r="K88" t="s">
         <v>51</v>
       </c>
-      <c r="L82" t="s">
+      <c r="L88" t="s">
         <v>867</v>
       </c>
-      <c r="M82" t="s">
+      <c r="M88" t="s">
         <v>54</v>
       </c>
-      <c r="N82" t="s">
+      <c r="N88" t="s">
         <v>55</v>
       </c>
-      <c r="R82" t="s">
+      <c r="R88" t="s">
         <v>926</v>
       </c>
-      <c r="S82" t="s">
+      <c r="S88" t="s">
         <v>56</v>
       </c>
-      <c r="T82" t="s">
+      <c r="T88" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="83" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
+    <row r="89" spans="1:20">
+      <c r="A89" t="s">
         <v>529</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B89" t="s">
         <v>686</v>
       </c>
-      <c r="C83" t="s">
+      <c r="C89" t="s">
         <v>1047</v>
       </c>
-      <c r="D83" t="s">
+      <c r="D89" t="s">
         <v>530</v>
       </c>
-      <c r="E83" t="s">
+      <c r="E89" t="s">
         <v>531</v>
       </c>
-      <c r="F83" t="s">
+      <c r="F89" t="s">
         <v>1054</v>
       </c>
-      <c r="G83" t="s">
+      <c r="G89" t="s">
         <v>532</v>
       </c>
-      <c r="H83" t="s">
+      <c r="H89" t="s">
         <v>533</v>
       </c>
-      <c r="I83" t="s">
+      <c r="I89" t="s">
         <v>745</v>
       </c>
-      <c r="J83" t="s">
+      <c r="J89" t="s">
         <v>530</v>
       </c>
-      <c r="K83" t="s">
+      <c r="K89" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="84" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>237</v>
-      </c>
-      <c r="B84" t="s">
-        <v>1010</v>
-      </c>
-      <c r="C84" t="s">
-        <v>1048</v>
-      </c>
-      <c r="D84" t="s">
-        <v>238</v>
-      </c>
-      <c r="E84" t="s">
-        <v>239</v>
-      </c>
-      <c r="F84" t="s">
-        <v>1055</v>
-      </c>
-      <c r="G84" t="s">
-        <v>1011</v>
-      </c>
-      <c r="H84" t="s">
-        <v>1012</v>
-      </c>
-      <c r="I84" t="s">
-        <v>1048</v>
-      </c>
-      <c r="J84" t="s">
-        <v>238</v>
-      </c>
-      <c r="K84" t="s">
-        <v>239</v>
-      </c>
-      <c r="L84" t="s">
-        <v>1061</v>
-      </c>
-      <c r="M84" t="s">
-        <v>242</v>
-      </c>
-      <c r="N84" t="s">
-        <v>243</v>
-      </c>
-      <c r="R84" t="s">
-        <v>1071</v>
-      </c>
-      <c r="S84" t="s">
-        <v>244</v>
-      </c>
-      <c r="T84" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="85" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>1013</v>
-      </c>
-      <c r="B85" t="s">
-        <v>1014</v>
-      </c>
-      <c r="C85" t="s">
-        <v>1049</v>
-      </c>
-      <c r="D85" t="s">
-        <v>1015</v>
-      </c>
-      <c r="E85" t="s">
-        <v>1016</v>
-      </c>
-      <c r="F85" t="s">
-        <v>1056</v>
-      </c>
-      <c r="G85" t="s">
-        <v>1017</v>
-      </c>
-      <c r="H85" t="s">
-        <v>1018</v>
-      </c>
-      <c r="I85" t="s">
-        <v>1049</v>
-      </c>
-      <c r="J85" t="s">
-        <v>1015</v>
-      </c>
-      <c r="K85" t="s">
-        <v>1016</v>
-      </c>
-      <c r="L85" t="s">
-        <v>1062</v>
-      </c>
-      <c r="M85" t="s">
-        <v>1019</v>
-      </c>
-      <c r="N85" t="s">
-        <v>1020</v>
-      </c>
-      <c r="R85" t="s">
-        <v>1072</v>
-      </c>
-    </row>
-    <row r="86" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>1021</v>
-      </c>
-      <c r="B86" t="s">
-        <v>1022</v>
-      </c>
-      <c r="C86" t="s">
-        <v>1050</v>
-      </c>
-      <c r="D86" t="s">
-        <v>1024</v>
-      </c>
-      <c r="E86" t="s">
-        <v>1023</v>
-      </c>
-      <c r="F86" t="s">
-        <v>1057</v>
-      </c>
-      <c r="G86" t="s">
-        <v>1025</v>
-      </c>
-      <c r="H86" t="s">
-        <v>1026</v>
-      </c>
-      <c r="I86" t="s">
-        <v>1050</v>
-      </c>
-      <c r="J86" t="s">
-        <v>1024</v>
-      </c>
-      <c r="K86" t="s">
-        <v>1023</v>
-      </c>
-      <c r="L86" t="s">
-        <v>1063</v>
-      </c>
-      <c r="M86" t="s">
-        <v>1027</v>
-      </c>
-      <c r="N86" t="s">
-        <v>1028</v>
-      </c>
-      <c r="R86" t="s">
-        <v>1073</v>
-      </c>
-      <c r="S86" t="s">
-        <v>1029</v>
-      </c>
-      <c r="T86" t="s">
-        <v>1030</v>
-      </c>
-    </row>
-    <row r="87" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>1031</v>
-      </c>
-      <c r="B87" t="s">
-        <v>1032</v>
-      </c>
-      <c r="C87" t="s">
-        <v>1051</v>
-      </c>
-      <c r="D87" t="s">
-        <v>1033</v>
-      </c>
-      <c r="E87" t="s">
-        <v>1034</v>
-      </c>
-      <c r="F87" t="s">
-        <v>1058</v>
-      </c>
-      <c r="G87" t="s">
+    <row r="90" spans="1:20">
+      <c r="A90" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B90" t="s">
+        <v>1077</v>
+      </c>
+      <c r="C90" t="s">
+        <v>1141</v>
+      </c>
+      <c r="D90" t="s">
+        <v>1079</v>
+      </c>
+      <c r="E90" t="s">
+        <v>1080</v>
+      </c>
+      <c r="F90" t="s">
+        <v>1148</v>
+      </c>
+      <c r="G90" t="s">
+        <v>1081</v>
+      </c>
+      <c r="H90" t="s">
+        <v>1082</v>
+      </c>
+      <c r="I90" t="s">
+        <v>1078</v>
+      </c>
+      <c r="J90" t="s">
+        <v>1079</v>
+      </c>
+      <c r="K90" t="s">
+        <v>1080</v>
+      </c>
+      <c r="L90" t="s">
+        <v>1083</v>
+      </c>
+      <c r="M90" t="s">
+        <v>1084</v>
+      </c>
+      <c r="N90" t="s">
+        <v>1085</v>
+      </c>
+      <c r="R90" t="s">
+        <v>1086</v>
+      </c>
+      <c r="S90" t="s">
+        <v>1087</v>
+      </c>
+      <c r="T90" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="91" spans="1:20">
+      <c r="A91" t="s">
+        <v>1089</v>
+      </c>
+      <c r="B91" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C91" t="s">
+        <v>1142</v>
+      </c>
+      <c r="D91" t="s">
+        <v>1092</v>
+      </c>
+      <c r="E91" t="s">
+        <v>1093</v>
+      </c>
+      <c r="F91" t="s">
+        <v>1149</v>
+      </c>
+      <c r="G91" t="s">
+        <v>1094</v>
+      </c>
+      <c r="H91" t="s">
+        <v>1095</v>
+      </c>
+      <c r="I91" t="s">
+        <v>1091</v>
+      </c>
+      <c r="J91" t="s">
+        <v>1092</v>
+      </c>
+      <c r="K91" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="92" spans="1:20">
+      <c r="A92" t="s">
+        <v>1096</v>
+      </c>
+      <c r="B92" t="s">
+        <v>1097</v>
+      </c>
+      <c r="C92" t="s">
+        <v>1143</v>
+      </c>
+      <c r="D92" t="s">
+        <v>1099</v>
+      </c>
+      <c r="E92" t="s">
+        <v>1100</v>
+      </c>
+      <c r="F92" t="s">
+        <v>1150</v>
+      </c>
+      <c r="G92" t="s">
+        <v>400</v>
+      </c>
+      <c r="H92" t="s">
+        <v>401</v>
+      </c>
+      <c r="I92" t="s">
+        <v>1098</v>
+      </c>
+      <c r="J92" t="s">
+        <v>1099</v>
+      </c>
+      <c r="K92" t="s">
+        <v>1100</v>
+      </c>
+      <c r="L92" t="s">
+        <v>1101</v>
+      </c>
+      <c r="M92" t="s">
+        <v>1102</v>
+      </c>
+      <c r="N92" t="s">
+        <v>1103</v>
+      </c>
+      <c r="R92" t="s">
+        <v>1104</v>
+      </c>
+      <c r="S92" t="s">
+        <v>1105</v>
+      </c>
+      <c r="T92" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="93" spans="1:20">
+      <c r="A93" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B93" t="s">
+        <v>1108</v>
+      </c>
+      <c r="C93" t="s">
+        <v>1144</v>
+      </c>
+      <c r="D93" t="s">
+        <v>1110</v>
+      </c>
+      <c r="E93" t="s">
+        <v>1111</v>
+      </c>
+      <c r="F93" t="s">
+        <v>1151</v>
+      </c>
+      <c r="G93" t="s">
+        <v>1112</v>
+      </c>
+      <c r="H93" t="s">
+        <v>1113</v>
+      </c>
+      <c r="I93" t="s">
+        <v>1109</v>
+      </c>
+      <c r="J93" t="s">
+        <v>1110</v>
+      </c>
+      <c r="K93" t="s">
+        <v>1111</v>
+      </c>
+      <c r="L93" t="s">
+        <v>1114</v>
+      </c>
+      <c r="M93" t="s">
+        <v>1115</v>
+      </c>
+      <c r="N93" t="s">
+        <v>1116</v>
+      </c>
+      <c r="R93" t="s">
+        <v>1117</v>
+      </c>
+      <c r="S93" t="s">
+        <v>1087</v>
+      </c>
+      <c r="T93" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="94" spans="1:20">
+      <c r="A94" t="s">
+        <v>1118</v>
+      </c>
+      <c r="B94" t="s">
+        <v>1119</v>
+      </c>
+      <c r="C94" t="s">
+        <v>1145</v>
+      </c>
+      <c r="D94" t="s">
+        <v>1121</v>
+      </c>
+      <c r="E94" t="s">
+        <v>1122</v>
+      </c>
+      <c r="F94" t="s">
+        <v>1152</v>
+      </c>
+      <c r="G94" t="s">
         <v>409</v>
       </c>
-      <c r="H87" t="s">
+      <c r="H94" t="s">
         <v>410</v>
       </c>
-      <c r="I87" t="s">
-        <v>1051</v>
-      </c>
-      <c r="J87" t="s">
-        <v>1033</v>
-      </c>
-      <c r="K87" t="s">
-        <v>1034</v>
-      </c>
-      <c r="L87" t="s">
-        <v>1064</v>
-      </c>
-      <c r="M87" t="s">
+      <c r="I94" t="s">
+        <v>1120</v>
+      </c>
+      <c r="J94" t="s">
+        <v>1121</v>
+      </c>
+      <c r="K94" t="s">
+        <v>1122</v>
+      </c>
+      <c r="L94" t="s">
+        <v>1123</v>
+      </c>
+      <c r="M94" t="s">
         <v>411</v>
       </c>
-      <c r="N87" t="s">
+      <c r="N94" t="s">
         <v>412</v>
       </c>
-      <c r="R87" t="s">
-        <v>1074</v>
-      </c>
-      <c r="S87" t="s">
+      <c r="R94" t="s">
+        <v>1124</v>
+      </c>
+      <c r="S94" t="s">
         <v>404</v>
       </c>
-      <c r="T87" t="s">
+      <c r="T94" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="88" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>1035</v>
-      </c>
-      <c r="B88" t="s">
-        <v>1036</v>
-      </c>
-      <c r="C88" t="s">
-        <v>1052</v>
-      </c>
-      <c r="D88" t="s">
-        <v>1037</v>
-      </c>
-      <c r="E88" t="s">
-        <v>1038</v>
-      </c>
-      <c r="F88" t="s">
-        <v>1059</v>
-      </c>
-      <c r="G88" t="s">
-        <v>1039</v>
-      </c>
-      <c r="H88" t="s">
-        <v>1040</v>
-      </c>
-      <c r="I88" t="s">
-        <v>1052</v>
-      </c>
-      <c r="J88" t="s">
-        <v>1037</v>
-      </c>
-      <c r="K88" t="s">
-        <v>1038</v>
-      </c>
-      <c r="L88" t="s">
-        <v>1065</v>
-      </c>
-      <c r="M88" t="s">
-        <v>1041</v>
-      </c>
-      <c r="N88" t="s">
-        <v>1042</v>
-      </c>
-      <c r="R88" t="s">
-        <v>1075</v>
-      </c>
-      <c r="S88" t="s">
-        <v>1043</v>
-      </c>
-      <c r="T88" t="s">
-        <v>1044</v>
-      </c>
-    </row>
-    <row r="89" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>423</v>
-      </c>
-      <c r="B89" t="s">
-        <v>1036</v>
-      </c>
-      <c r="C89" t="s">
-        <v>1053</v>
-      </c>
-      <c r="D89" t="s">
-        <v>424</v>
-      </c>
-      <c r="E89" t="s">
-        <v>425</v>
-      </c>
-      <c r="F89" t="s">
-        <v>1060</v>
-      </c>
-      <c r="G89" t="s">
-        <v>1045</v>
-      </c>
-      <c r="H89" t="s">
-        <v>1046</v>
-      </c>
-      <c r="I89" t="s">
-        <v>1053</v>
-      </c>
-      <c r="J89" t="s">
-        <v>424</v>
-      </c>
-      <c r="K89" t="s">
-        <v>425</v>
-      </c>
-      <c r="L89" t="s">
-        <v>1066</v>
-      </c>
-      <c r="M89" t="s">
-        <v>428</v>
-      </c>
-      <c r="N89" t="s">
-        <v>429</v>
-      </c>
-      <c r="R89" t="s">
-        <v>957</v>
-      </c>
-      <c r="S89" t="s">
-        <v>430</v>
-      </c>
-      <c r="T89" t="s">
-        <v>431</v>
+    <row r="95" spans="1:20">
+      <c r="A95" t="s">
+        <v>1125</v>
+      </c>
+      <c r="B95" t="s">
+        <v>1126</v>
+      </c>
+      <c r="C95" t="s">
+        <v>1146</v>
+      </c>
+      <c r="D95" t="s">
+        <v>1128</v>
+      </c>
+      <c r="E95" t="s">
+        <v>1127</v>
+      </c>
+      <c r="I95" t="s">
+        <v>576</v>
+      </c>
+      <c r="J95" t="s">
+        <v>576</v>
+      </c>
+      <c r="K95" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="96" spans="1:20">
+      <c r="A96" t="s">
+        <v>1129</v>
+      </c>
+      <c r="B96" t="s">
+        <v>1130</v>
+      </c>
+      <c r="C96" t="s">
+        <v>1147</v>
+      </c>
+      <c r="D96" t="s">
+        <v>1132</v>
+      </c>
+      <c r="E96" t="s">
+        <v>1131</v>
+      </c>
+      <c r="F96" t="s">
+        <v>1153</v>
+      </c>
+      <c r="G96" t="s">
+        <v>1133</v>
+      </c>
+      <c r="H96" t="s">
+        <v>1134</v>
+      </c>
+      <c r="I96" t="s">
+        <v>1131</v>
+      </c>
+      <c r="J96" t="s">
+        <v>1132</v>
+      </c>
+      <c r="K96" t="s">
+        <v>1131</v>
+      </c>
+      <c r="L96" t="s">
+        <v>1135</v>
+      </c>
+      <c r="M96" t="s">
+        <v>1136</v>
+      </c>
+      <c r="N96" t="s">
+        <v>1137</v>
+      </c>
+      <c r="R96" t="s">
+        <v>1138</v>
+      </c>
+      <c r="S96" t="s">
+        <v>1139</v>
+      </c>
+      <c r="T96" t="s">
+        <v>1140</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A2:T83" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:T83">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:T89">
       <sortCondition ref="B2:B83"/>
     </sortState>
   </autoFilter>

--- a/PTBR/Lang/PTBR/Game/Stat.xlsx
+++ b/PTBR/Lang/PTBR/Game/Stat.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ysi\Documents\GitHub\elin-portugues-brasileiro\PTBR\Lang\PTBR\Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50EA1D29-34DE-41F3-B9F3-F64B1A3BD6F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8844EF5F-8594-412F-8276-64FED9D09330}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="16200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1455" uniqueCount="1154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1490" uniqueCount="1175">
   <si>
     <t>id</t>
   </si>
@@ -2839,12 +2839,6 @@
     <t xml:space="preserve">#1 para de preservar mana.  </t>
   </si>
   <si>
-    <t xml:space="preserve">#1 libera sua postura iai.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">#1 para de estar furioso.  </t>
-  </si>
-  <si>
     <t xml:space="preserve">#1 não queima mais.  </t>
   </si>
   <si>
@@ -2920,18 +2914,12 @@
     <t xml:space="preserve">O veneno deixa #your corpo.  </t>
   </si>
   <si>
-    <t xml:space="preserve">A paz em #seu coração se dissipa.  </t>
-  </si>
-  <si>
     <t xml:space="preserve">#1 não levita mais.  </t>
   </si>
   <si>
     <t xml:space="preserve">#1 não é mais um gênio.  </t>
   </si>
   <si>
-    <t xml:space="preserve">A morte abraça #1.  </t>
-  </si>
-  <si>
     <t xml:space="preserve">#1 volta ao normal.  </t>
   </si>
   <si>
@@ -2983,18 +2971,12 @@
     <t>三元素への耐性を授ける加護。</t>
   </si>
   <si>
-    <t>#1的元素之衣消失了。</t>
-  </si>
-  <si>
     <t>Blessing that boosts morale.</t>
   </si>
   <si>
     <t>士気を上昇させる加護。</t>
   </si>
   <si>
-    <t>#1的昂扬感消退了。</t>
-  </si>
-  <si>
     <t>88</t>
   </si>
   <si>
@@ -3019,9 +3001,6 @@
     <t>#1は大いなる存在により保護された。</t>
   </si>
   <si>
-    <t>强大的存在离开了#1。</t>
-  </si>
-  <si>
     <t>The great being leaves #1.</t>
   </si>
   <si>
@@ -3277,21 +3256,6 @@
     <t xml:space="preserve">#1 é atormentado(a) por um pesadelo.  </t>
   </si>
   <si>
-    <t xml:space="preserve">#1 sente-se mentalmente lento(a).  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">As bolhas de ar estouram.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">#1 voltou ao normal.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">#1 sente-se calmo(a) novamente.  </t>
-  </si>
-  <si>
     <t>94</t>
   </si>
   <si>
@@ -3322,9 +3286,6 @@
     <t>#1は子守唄を歌い始めた。</t>
   </si>
   <si>
-    <t>#1停止唱歌了。</t>
-  </si>
-  <si>
     <t>#1 stop(s) singing.</t>
   </si>
   <si>
@@ -3376,9 +3337,6 @@
     <t>#1はセブンセンシズに目覚めた！</t>
   </si>
   <si>
-    <t>#1的小宇宙燃尽了。</t>
-  </si>
-  <si>
     <t>#your cosmo fade(s) away.</t>
   </si>
   <si>
@@ -3415,9 +3373,6 @@
     <t>#1は勇ましい歌を歌い始めた。</t>
   </si>
   <si>
-    <t>#2停止唱歌了。</t>
-  </si>
-  <si>
     <t>98</t>
   </si>
   <si>
@@ -3436,9 +3391,6 @@
     <t>#1变形了。</t>
   </si>
   <si>
-    <t>#1恢复了原状。</t>
-  </si>
-  <si>
     <t>99</t>
   </si>
   <si>
@@ -3478,9 +3430,6 @@
     <t>#1は闇に潜った。</t>
   </si>
   <si>
-    <t>#1从黑暗中现形。</t>
-  </si>
-  <si>
     <t>#1 cast(s) off darkness.</t>
   </si>
   <si>
@@ -3524,6 +3473,120 @@
   </si>
   <si>
     <t>Uma condição onde você está oculto na escuridão.</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>EA 23.257</t>
+  </si>
+  <si>
+    <t>Mimic</t>
+  </si>
+  <si>
+    <t>ミミック</t>
+  </si>
+  <si>
+    <t>#1 mimic(s).</t>
+  </si>
+  <si>
+    <t>#1は擬態した。</t>
+  </si>
+  <si>
+    <t>#1 reveal(s) #his true form!</t>
+  </si>
+  <si>
+    <t>#1は擬態を解いた！</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>Peaky</t>
+  </si>
+  <si>
+    <t>ピーキー</t>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
+    <t>Ambush</t>
+  </si>
+  <si>
+    <t>不意打ち</t>
+  </si>
+  <si>
+    <t>A condition where critical hits are guaranteed on all attacks.</t>
+  </si>
+  <si>
+    <t>攻撃が必ずクリティカルヒットになる状態。</t>
+  </si>
+  <si>
+    <t>Mímico</t>
+  </si>
+  <si>
+    <t>Pontiagudo</t>
+  </si>
+  <si>
+    <t>Emboscada</t>
+  </si>
+  <si>
+    <t>Uma condição onde acertos críticos são garantidos em todos os ataques.</t>
+  </si>
+  <si>
+    <t>#1 mímico(s).</t>
+  </si>
+  <si>
+    <t>A vestimenta elemental desaparece.</t>
+  </si>
+  <si>
+    <t>#1 não #se sente mais eufórico.</t>
+  </si>
+  <si>
+    <t>O grande ser deixa #1.</t>
+  </si>
+  <si>
+    <t>#1 #se sente mentalmente lento.</t>
+  </si>
+  <si>
+    <t>As bolhas de ar estouram.</t>
+  </si>
+  <si>
+    <t>#1 #volta ao normal.</t>
+  </si>
+  <si>
+    <t>#1 #se sente calmo novamente.</t>
+  </si>
+  <si>
+    <t>#1 não #sente mais a gravidade.</t>
+  </si>
+  <si>
+    <t>#1 #para de cantar.</t>
+  </si>
+  <si>
+    <t>#your cosmo #se dissipa.</t>
+  </si>
+  <si>
+    <t>#1 #dissipa a escuridão.</t>
+  </si>
+  <si>
+    <t>#1 não #cheira mais.</t>
+  </si>
+  <si>
+    <t>A morte abraça #1.</t>
+  </si>
+  <si>
+    <t>#1 #para de estar furioso.</t>
+  </si>
+  <si>
+    <t>A paz em #seu coração se vai.</t>
+  </si>
+  <si>
+    <t>#1 #desfaz #sua postura de iai.</t>
+  </si>
+  <si>
+    <t>#1 #revela #sua forma verdadeira!</t>
   </si>
 </sst>
 </file>
@@ -3904,11 +3967,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T96"/>
+  <dimension ref="A1:T99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F96" sqref="F96"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A72" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R97" sqref="R97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3929,7 +3992,8 @@
     <col min="16" max="16" width="16" customWidth="1" collapsed="1"/>
     <col min="17" max="17" width="167.125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="18" max="18" width="44.25" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="20" width="16" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="41.25" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="16" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
@@ -4055,7 +4119,7 @@
         <v>671</v>
       </c>
       <c r="C4" t="s">
-        <v>1004</v>
+        <v>997</v>
       </c>
       <c r="D4" t="s">
         <v>566</v>
@@ -4064,7 +4128,7 @@
         <v>567</v>
       </c>
       <c r="F4" t="s">
-        <v>1009</v>
+        <v>1002</v>
       </c>
       <c r="G4" t="s">
         <v>568</v>
@@ -4073,7 +4137,7 @@
         <v>569</v>
       </c>
       <c r="I4" t="s">
-        <v>1007</v>
+        <v>1000</v>
       </c>
       <c r="J4" t="s">
         <v>570</v>
@@ -4082,7 +4146,7 @@
         <v>571</v>
       </c>
       <c r="L4" t="s">
-        <v>1008</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -4129,7 +4193,7 @@
         <v>477</v>
       </c>
       <c r="R5" t="s">
-        <v>960</v>
+        <v>956</v>
       </c>
       <c r="S5" t="s">
         <v>478</v>
@@ -4217,7 +4281,7 @@
         <v>107</v>
       </c>
       <c r="R7" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="S7" t="s">
         <v>108</v>
@@ -4270,7 +4334,7 @@
         <v>135</v>
       </c>
       <c r="R8" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="S8" t="s">
         <v>136</v>
@@ -4332,7 +4396,7 @@
         <v>68</v>
       </c>
       <c r="R9" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="S9" t="s">
         <v>69</v>
@@ -4385,7 +4449,7 @@
         <v>509</v>
       </c>
       <c r="R10" t="s">
-        <v>963</v>
+        <v>959</v>
       </c>
       <c r="S10" t="s">
         <v>510</v>
@@ -4438,7 +4502,7 @@
         <v>88</v>
       </c>
       <c r="R11" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="S11" t="s">
         <v>89</v>
@@ -4491,7 +4555,7 @@
         <v>97</v>
       </c>
       <c r="R12" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="S12" t="s">
         <v>98</v>
@@ -4544,7 +4608,7 @@
         <v>299</v>
       </c>
       <c r="R13" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="S13" t="s">
         <v>300</v>
@@ -4597,7 +4661,7 @@
         <v>117</v>
       </c>
       <c r="R14" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="S14" t="s">
         <v>118</v>
@@ -4650,7 +4714,7 @@
         <v>308</v>
       </c>
       <c r="R15" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="S15" t="s">
         <v>309</v>
@@ -4729,7 +4793,7 @@
         <v>145</v>
       </c>
       <c r="R17" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="S17" t="s">
         <v>146</v>
@@ -4782,7 +4846,7 @@
         <v>154</v>
       </c>
       <c r="R18" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="S18" t="s">
         <v>155</v>
@@ -4835,7 +4899,7 @@
         <v>165</v>
       </c>
       <c r="R19" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="S19" t="s">
         <v>166</v>
@@ -4888,7 +4952,7 @@
         <v>488</v>
       </c>
       <c r="R20" t="s">
-        <v>961</v>
+        <v>957</v>
       </c>
       <c r="S20" t="s">
         <v>489</v>
@@ -4941,7 +5005,7 @@
         <v>176</v>
       </c>
       <c r="R21" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="S21" t="s">
         <v>177</v>
@@ -4994,7 +5058,7 @@
         <v>187</v>
       </c>
       <c r="R22" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="S22" t="s">
         <v>188</v>
@@ -5135,7 +5199,7 @@
         <v>497</v>
       </c>
       <c r="R25" t="s">
-        <v>962</v>
+        <v>958</v>
       </c>
       <c r="S25" t="s">
         <v>498</v>
@@ -5188,7 +5252,7 @@
         <v>361</v>
       </c>
       <c r="R26" t="s">
-        <v>953</v>
+        <v>950</v>
       </c>
       <c r="S26" t="s">
         <v>362</v>
@@ -5241,7 +5305,7 @@
         <v>429</v>
       </c>
       <c r="R27" t="s">
-        <v>957</v>
+        <v>953</v>
       </c>
       <c r="S27" t="s">
         <v>430</v>
@@ -5294,7 +5358,7 @@
         <v>540</v>
       </c>
       <c r="R28" t="s">
-        <v>965</v>
+        <v>961</v>
       </c>
       <c r="S28" t="s">
         <v>541</v>
@@ -5347,7 +5411,7 @@
         <v>370</v>
       </c>
       <c r="R29" t="s">
-        <v>958</v>
+        <v>954</v>
       </c>
       <c r="S29" t="s">
         <v>309</v>
@@ -5400,7 +5464,7 @@
         <v>377</v>
       </c>
       <c r="R30" t="s">
-        <v>954</v>
+        <v>951</v>
       </c>
       <c r="S30" t="s">
         <v>378</v>
@@ -5479,7 +5543,7 @@
         <v>218</v>
       </c>
       <c r="R32" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="S32" t="s">
         <v>219</v>
@@ -5680,7 +5744,7 @@
         <v>209</v>
       </c>
       <c r="R38" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="S38" t="s">
         <v>210</v>
@@ -5786,7 +5850,7 @@
         <v>252</v>
       </c>
       <c r="R40" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="S40" t="s">
         <v>253</v>
@@ -5839,7 +5903,7 @@
         <v>627</v>
       </c>
       <c r="R41" t="s">
-        <v>968</v>
+        <v>964</v>
       </c>
       <c r="S41" t="s">
         <v>460</v>
@@ -6068,7 +6132,7 @@
         <v>261</v>
       </c>
       <c r="R46" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="S46" t="s">
         <v>262</v>
@@ -6121,7 +6185,7 @@
         <v>270</v>
       </c>
       <c r="R47" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="S47" t="s">
         <v>271</v>
@@ -6174,7 +6238,7 @@
         <v>279</v>
       </c>
       <c r="R48" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="S48" t="s">
         <v>280</v>
@@ -6227,7 +6291,7 @@
         <v>288</v>
       </c>
       <c r="R49" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="S49" t="s">
         <v>289</v>
@@ -6359,7 +6423,7 @@
         <v>198</v>
       </c>
       <c r="R52" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="S52" t="s">
         <v>199</v>
@@ -6412,7 +6476,7 @@
         <v>403</v>
       </c>
       <c r="R53" t="s">
-        <v>956</v>
+        <v>952</v>
       </c>
       <c r="S53" t="s">
         <v>404</v>
@@ -6465,7 +6529,7 @@
         <v>459</v>
       </c>
       <c r="R54" t="s">
-        <v>959</v>
+        <v>955</v>
       </c>
       <c r="S54" t="s">
         <v>460</v>
@@ -6518,7 +6582,7 @@
         <v>412</v>
       </c>
       <c r="R55" t="s">
-        <v>956</v>
+        <v>952</v>
       </c>
       <c r="S55" t="s">
         <v>404</v>
@@ -6571,7 +6635,7 @@
         <v>412</v>
       </c>
       <c r="R56" t="s">
-        <v>956</v>
+        <v>952</v>
       </c>
       <c r="S56" t="s">
         <v>404</v>
@@ -6624,7 +6688,7 @@
         <v>325</v>
       </c>
       <c r="R57" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="S57" t="s">
         <v>326</v>
@@ -6729,7 +6793,7 @@
         <v>223</v>
       </c>
       <c r="L60" t="s">
-        <v>969</v>
+        <v>965</v>
       </c>
       <c r="M60" t="s">
         <v>226</v>
@@ -6773,7 +6837,7 @@
         <v>639</v>
       </c>
       <c r="R61" t="s">
-        <v>967</v>
+        <v>963</v>
       </c>
       <c r="S61" t="s">
         <v>640</v>
@@ -6817,7 +6881,7 @@
         <v>648</v>
       </c>
       <c r="R62" t="s">
-        <v>967</v>
+        <v>963</v>
       </c>
       <c r="S62" t="s">
         <v>640</v>
@@ -6861,7 +6925,7 @@
         <v>648</v>
       </c>
       <c r="R63" t="s">
-        <v>967</v>
+        <v>963</v>
       </c>
       <c r="S63" t="s">
         <v>640</v>
@@ -6967,7 +7031,7 @@
         <v>127</v>
       </c>
       <c r="R65" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="S65" t="s">
         <v>128</v>
@@ -7108,7 +7172,7 @@
         <v>520</v>
       </c>
       <c r="R68" t="s">
-        <v>964</v>
+        <v>960</v>
       </c>
       <c r="S68" t="s">
         <v>521</v>
@@ -7161,7 +7225,7 @@
         <v>551</v>
       </c>
       <c r="R69" t="s">
-        <v>966</v>
+        <v>962</v>
       </c>
       <c r="S69" t="s">
         <v>552</v>
@@ -7249,7 +7313,7 @@
         <v>234</v>
       </c>
       <c r="R71" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="S71" t="s">
         <v>235</v>
@@ -7302,7 +7366,7 @@
         <v>243</v>
       </c>
       <c r="R72" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="S72" t="s">
         <v>244</v>
@@ -7316,28 +7380,28 @@
         <v>311</v>
       </c>
       <c r="B73" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
       <c r="C73" t="s">
-        <v>996</v>
+        <v>989</v>
       </c>
       <c r="D73" t="s">
-        <v>996</v>
+        <v>989</v>
       </c>
       <c r="E73" t="s">
         <v>313</v>
       </c>
       <c r="F73" t="s">
-        <v>1000</v>
+        <v>993</v>
       </c>
       <c r="G73" t="s">
-        <v>971</v>
+        <v>967</v>
       </c>
       <c r="H73" t="s">
-        <v>972</v>
+        <v>968</v>
       </c>
       <c r="I73" t="s">
-        <v>1005</v>
+        <v>998</v>
       </c>
       <c r="J73" t="s">
         <v>312</v>
@@ -7346,7 +7410,7 @@
         <v>313</v>
       </c>
       <c r="L73" t="s">
-        <v>1067</v>
+        <v>1060</v>
       </c>
       <c r="M73" t="s">
         <v>314</v>
@@ -7355,7 +7419,7 @@
         <v>315</v>
       </c>
       <c r="R73" t="s">
-        <v>973</v>
+        <v>1158</v>
       </c>
       <c r="S73" t="s">
         <v>316</v>
@@ -7369,28 +7433,28 @@
         <v>328</v>
       </c>
       <c r="B74" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
       <c r="C74" t="s">
-        <v>997</v>
+        <v>990</v>
       </c>
       <c r="D74" t="s">
-        <v>997</v>
+        <v>990</v>
       </c>
       <c r="E74" t="s">
         <v>329</v>
       </c>
       <c r="F74" t="s">
-        <v>1001</v>
+        <v>994</v>
       </c>
       <c r="G74" t="s">
-        <v>974</v>
+        <v>969</v>
       </c>
       <c r="H74" t="s">
-        <v>975</v>
+        <v>970</v>
       </c>
       <c r="I74" t="s">
-        <v>1006</v>
+        <v>999</v>
       </c>
       <c r="J74" t="s">
         <v>330</v>
@@ -7399,7 +7463,7 @@
         <v>329</v>
       </c>
       <c r="L74" t="s">
-        <v>1068</v>
+        <v>1061</v>
       </c>
       <c r="M74" t="s">
         <v>331</v>
@@ -7408,7 +7472,7 @@
         <v>332</v>
       </c>
       <c r="R74" t="s">
-        <v>976</v>
+        <v>1159</v>
       </c>
       <c r="S74" t="s">
         <v>333</v>
@@ -7419,99 +7483,99 @@
     </row>
     <row r="75" spans="1:20">
       <c r="A75" t="s">
+        <v>971</v>
+      </c>
+      <c r="B75" t="s">
+        <v>966</v>
+      </c>
+      <c r="C75" t="s">
+        <v>991</v>
+      </c>
+      <c r="D75" t="s">
+        <v>991</v>
+      </c>
+      <c r="E75" t="s">
+        <v>974</v>
+      </c>
+      <c r="F75" t="s">
+        <v>995</v>
+      </c>
+      <c r="G75" t="s">
+        <v>975</v>
+      </c>
+      <c r="H75" t="s">
+        <v>976</v>
+      </c>
+      <c r="I75" t="s">
+        <v>972</v>
+      </c>
+      <c r="J75" t="s">
+        <v>973</v>
+      </c>
+      <c r="K75" t="s">
+        <v>974</v>
+      </c>
+      <c r="L75" t="s">
+        <v>1062</v>
+      </c>
+      <c r="M75" t="s">
         <v>977</v>
       </c>
-      <c r="B75" t="s">
-        <v>970</v>
-      </c>
-      <c r="C75" t="s">
-        <v>998</v>
-      </c>
-      <c r="D75" t="s">
-        <v>998</v>
-      </c>
-      <c r="E75" t="s">
+      <c r="N75" t="s">
+        <v>978</v>
+      </c>
+      <c r="R75" t="s">
+        <v>1160</v>
+      </c>
+      <c r="S75" t="s">
+        <v>979</v>
+      </c>
+      <c r="T75" t="s">
         <v>980</v>
-      </c>
-      <c r="F75" t="s">
-        <v>1002</v>
-      </c>
-      <c r="G75" t="s">
-        <v>981</v>
-      </c>
-      <c r="H75" t="s">
-        <v>982</v>
-      </c>
-      <c r="I75" t="s">
-        <v>978</v>
-      </c>
-      <c r="J75" t="s">
-        <v>979</v>
-      </c>
-      <c r="K75" t="s">
-        <v>980</v>
-      </c>
-      <c r="L75" t="s">
-        <v>1069</v>
-      </c>
-      <c r="M75" t="s">
-        <v>983</v>
-      </c>
-      <c r="N75" t="s">
-        <v>984</v>
-      </c>
-      <c r="R75" t="s">
-        <v>985</v>
-      </c>
-      <c r="S75" t="s">
-        <v>986</v>
-      </c>
-      <c r="T75" t="s">
-        <v>987</v>
       </c>
     </row>
     <row r="76" spans="1:20">
       <c r="A76" t="s">
+        <v>981</v>
+      </c>
+      <c r="B76" t="s">
+        <v>966</v>
+      </c>
+      <c r="C76" t="s">
+        <v>992</v>
+      </c>
+      <c r="D76" t="s">
+        <v>992</v>
+      </c>
+      <c r="E76" t="s">
+        <v>984</v>
+      </c>
+      <c r="F76" t="s">
+        <v>996</v>
+      </c>
+      <c r="G76" t="s">
+        <v>985</v>
+      </c>
+      <c r="H76" t="s">
+        <v>986</v>
+      </c>
+      <c r="I76" t="s">
+        <v>982</v>
+      </c>
+      <c r="J76" t="s">
+        <v>983</v>
+      </c>
+      <c r="K76" t="s">
+        <v>984</v>
+      </c>
+      <c r="L76" t="s">
+        <v>1063</v>
+      </c>
+      <c r="M76" t="s">
+        <v>987</v>
+      </c>
+      <c r="N76" t="s">
         <v>988</v>
-      </c>
-      <c r="B76" t="s">
-        <v>970</v>
-      </c>
-      <c r="C76" t="s">
-        <v>999</v>
-      </c>
-      <c r="D76" t="s">
-        <v>999</v>
-      </c>
-      <c r="E76" t="s">
-        <v>991</v>
-      </c>
-      <c r="F76" t="s">
-        <v>1003</v>
-      </c>
-      <c r="G76" t="s">
-        <v>992</v>
-      </c>
-      <c r="H76" t="s">
-        <v>993</v>
-      </c>
-      <c r="I76" t="s">
-        <v>989</v>
-      </c>
-      <c r="J76" t="s">
-        <v>990</v>
-      </c>
-      <c r="K76" t="s">
-        <v>991</v>
-      </c>
-      <c r="L76" t="s">
-        <v>1070</v>
-      </c>
-      <c r="M76" t="s">
-        <v>994</v>
-      </c>
-      <c r="N76" t="s">
-        <v>995</v>
       </c>
     </row>
     <row r="77" spans="1:20">
@@ -7558,7 +7622,7 @@
         <v>351</v>
       </c>
       <c r="R77" t="s">
-        <v>952</v>
+        <v>1172</v>
       </c>
       <c r="S77" t="s">
         <v>352</v>
@@ -7572,10 +7636,10 @@
         <v>237</v>
       </c>
       <c r="B78" t="s">
-        <v>1010</v>
+        <v>1003</v>
       </c>
       <c r="C78" t="s">
-        <v>1048</v>
+        <v>1041</v>
       </c>
       <c r="D78" t="s">
         <v>238</v>
@@ -7584,16 +7648,16 @@
         <v>239</v>
       </c>
       <c r="F78" t="s">
-        <v>1055</v>
+        <v>1048</v>
       </c>
       <c r="G78" t="s">
-        <v>1011</v>
+        <v>1004</v>
       </c>
       <c r="H78" t="s">
-        <v>1012</v>
+        <v>1005</v>
       </c>
       <c r="I78" t="s">
-        <v>1048</v>
+        <v>1041</v>
       </c>
       <c r="J78" t="s">
         <v>238</v>
@@ -7602,7 +7666,7 @@
         <v>239</v>
       </c>
       <c r="L78" t="s">
-        <v>1061</v>
+        <v>1054</v>
       </c>
       <c r="M78" t="s">
         <v>242</v>
@@ -7611,7 +7675,7 @@
         <v>243</v>
       </c>
       <c r="R78" t="s">
-        <v>1071</v>
+        <v>1161</v>
       </c>
       <c r="S78" t="s">
         <v>244</v>
@@ -7622,122 +7686,119 @@
     </row>
     <row r="79" spans="1:20">
       <c r="A79" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B79" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C79" t="s">
+        <v>1042</v>
+      </c>
+      <c r="D79" t="s">
+        <v>1008</v>
+      </c>
+      <c r="E79" t="s">
+        <v>1009</v>
+      </c>
+      <c r="F79" t="s">
+        <v>1049</v>
+      </c>
+      <c r="G79" t="s">
+        <v>1010</v>
+      </c>
+      <c r="H79" t="s">
+        <v>1011</v>
+      </c>
+      <c r="I79" t="s">
+        <v>1042</v>
+      </c>
+      <c r="J79" t="s">
+        <v>1008</v>
+      </c>
+      <c r="K79" t="s">
+        <v>1009</v>
+      </c>
+      <c r="L79" t="s">
+        <v>1055</v>
+      </c>
+      <c r="M79" t="s">
+        <v>1012</v>
+      </c>
+      <c r="N79" t="s">
         <v>1013</v>
-      </c>
-      <c r="B79" t="s">
-        <v>1014</v>
-      </c>
-      <c r="C79" t="s">
-        <v>1049</v>
-      </c>
-      <c r="D79" t="s">
-        <v>1015</v>
-      </c>
-      <c r="E79" t="s">
-        <v>1016</v>
-      </c>
-      <c r="F79" t="s">
-        <v>1056</v>
-      </c>
-      <c r="G79" t="s">
-        <v>1017</v>
-      </c>
-      <c r="H79" t="s">
-        <v>1018</v>
-      </c>
-      <c r="I79" t="s">
-        <v>1049</v>
-      </c>
-      <c r="J79" t="s">
-        <v>1015</v>
-      </c>
-      <c r="K79" t="s">
-        <v>1016</v>
-      </c>
-      <c r="L79" t="s">
-        <v>1062</v>
-      </c>
-      <c r="M79" t="s">
-        <v>1019</v>
-      </c>
-      <c r="N79" t="s">
-        <v>1020</v>
-      </c>
-      <c r="R79" t="s">
-        <v>1072</v>
       </c>
     </row>
     <row r="80" spans="1:20">
       <c r="A80" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B80" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C80" t="s">
+        <v>1043</v>
+      </c>
+      <c r="D80" t="s">
+        <v>1017</v>
+      </c>
+      <c r="E80" t="s">
+        <v>1016</v>
+      </c>
+      <c r="F80" t="s">
+        <v>1050</v>
+      </c>
+      <c r="G80" t="s">
+        <v>1018</v>
+      </c>
+      <c r="H80" t="s">
+        <v>1019</v>
+      </c>
+      <c r="I80" t="s">
+        <v>1043</v>
+      </c>
+      <c r="J80" t="s">
+        <v>1017</v>
+      </c>
+      <c r="K80" t="s">
+        <v>1016</v>
+      </c>
+      <c r="L80" t="s">
+        <v>1056</v>
+      </c>
+      <c r="M80" t="s">
+        <v>1020</v>
+      </c>
+      <c r="N80" t="s">
         <v>1021</v>
       </c>
-      <c r="B80" t="s">
+      <c r="R80" t="s">
+        <v>1162</v>
+      </c>
+      <c r="S80" t="s">
         <v>1022</v>
       </c>
-      <c r="C80" t="s">
-        <v>1050</v>
-      </c>
-      <c r="D80" t="s">
-        <v>1024</v>
-      </c>
-      <c r="E80" t="s">
+      <c r="T80" t="s">
         <v>1023</v>
-      </c>
-      <c r="F80" t="s">
-        <v>1057</v>
-      </c>
-      <c r="G80" t="s">
-        <v>1025</v>
-      </c>
-      <c r="H80" t="s">
-        <v>1026</v>
-      </c>
-      <c r="I80" t="s">
-        <v>1050</v>
-      </c>
-      <c r="J80" t="s">
-        <v>1024</v>
-      </c>
-      <c r="K80" t="s">
-        <v>1023</v>
-      </c>
-      <c r="L80" t="s">
-        <v>1063</v>
-      </c>
-      <c r="M80" t="s">
-        <v>1027</v>
-      </c>
-      <c r="N80" t="s">
-        <v>1028</v>
-      </c>
-      <c r="R80" t="s">
-        <v>1073</v>
-      </c>
-      <c r="S80" t="s">
-        <v>1029</v>
-      </c>
-      <c r="T80" t="s">
-        <v>1030</v>
       </c>
     </row>
     <row r="81" spans="1:20">
       <c r="A81" t="s">
-        <v>1031</v>
+        <v>1024</v>
       </c>
       <c r="B81" t="s">
-        <v>1032</v>
+        <v>1025</v>
       </c>
       <c r="C81" t="s">
+        <v>1044</v>
+      </c>
+      <c r="D81" t="s">
+        <v>1026</v>
+      </c>
+      <c r="E81" t="s">
+        <v>1027</v>
+      </c>
+      <c r="F81" t="s">
         <v>1051</v>
-      </c>
-      <c r="D81" t="s">
-        <v>1033</v>
-      </c>
-      <c r="E81" t="s">
-        <v>1034</v>
-      </c>
-      <c r="F81" t="s">
-        <v>1058</v>
       </c>
       <c r="G81" t="s">
         <v>409</v>
@@ -7746,16 +7807,16 @@
         <v>410</v>
       </c>
       <c r="I81" t="s">
-        <v>1051</v>
+        <v>1044</v>
       </c>
       <c r="J81" t="s">
-        <v>1033</v>
+        <v>1026</v>
       </c>
       <c r="K81" t="s">
-        <v>1034</v>
+        <v>1027</v>
       </c>
       <c r="L81" t="s">
-        <v>1064</v>
+        <v>1057</v>
       </c>
       <c r="M81" t="s">
         <v>411</v>
@@ -7764,7 +7825,7 @@
         <v>412</v>
       </c>
       <c r="R81" t="s">
-        <v>1074</v>
+        <v>1163</v>
       </c>
       <c r="S81" t="s">
         <v>404</v>
@@ -7775,55 +7836,55 @@
     </row>
     <row r="82" spans="1:20">
       <c r="A82" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B82" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C82" t="s">
+        <v>1045</v>
+      </c>
+      <c r="D82" t="s">
+        <v>1030</v>
+      </c>
+      <c r="E82" t="s">
+        <v>1031</v>
+      </c>
+      <c r="F82" t="s">
+        <v>1052</v>
+      </c>
+      <c r="G82" t="s">
+        <v>1032</v>
+      </c>
+      <c r="H82" t="s">
+        <v>1033</v>
+      </c>
+      <c r="I82" t="s">
+        <v>1045</v>
+      </c>
+      <c r="J82" t="s">
+        <v>1030</v>
+      </c>
+      <c r="K82" t="s">
+        <v>1031</v>
+      </c>
+      <c r="L82" t="s">
+        <v>1058</v>
+      </c>
+      <c r="M82" t="s">
+        <v>1034</v>
+      </c>
+      <c r="N82" t="s">
         <v>1035</v>
       </c>
-      <c r="B82" t="s">
+      <c r="R82" t="s">
+        <v>1164</v>
+      </c>
+      <c r="S82" t="s">
         <v>1036</v>
       </c>
-      <c r="C82" t="s">
-        <v>1052</v>
-      </c>
-      <c r="D82" t="s">
+      <c r="T82" t="s">
         <v>1037</v>
-      </c>
-      <c r="E82" t="s">
-        <v>1038</v>
-      </c>
-      <c r="F82" t="s">
-        <v>1059</v>
-      </c>
-      <c r="G82" t="s">
-        <v>1039</v>
-      </c>
-      <c r="H82" t="s">
-        <v>1040</v>
-      </c>
-      <c r="I82" t="s">
-        <v>1052</v>
-      </c>
-      <c r="J82" t="s">
-        <v>1037</v>
-      </c>
-      <c r="K82" t="s">
-        <v>1038</v>
-      </c>
-      <c r="L82" t="s">
-        <v>1065</v>
-      </c>
-      <c r="M82" t="s">
-        <v>1041</v>
-      </c>
-      <c r="N82" t="s">
-        <v>1042</v>
-      </c>
-      <c r="R82" t="s">
-        <v>1075</v>
-      </c>
-      <c r="S82" t="s">
-        <v>1043</v>
-      </c>
-      <c r="T82" t="s">
-        <v>1044</v>
       </c>
     </row>
     <row r="83" spans="1:20">
@@ -7831,10 +7892,10 @@
         <v>423</v>
       </c>
       <c r="B83" t="s">
-        <v>1036</v>
+        <v>1029</v>
       </c>
       <c r="C83" t="s">
-        <v>1053</v>
+        <v>1046</v>
       </c>
       <c r="D83" t="s">
         <v>424</v>
@@ -7843,16 +7904,16 @@
         <v>425</v>
       </c>
       <c r="F83" t="s">
-        <v>1060</v>
+        <v>1053</v>
       </c>
       <c r="G83" t="s">
-        <v>1045</v>
+        <v>1038</v>
       </c>
       <c r="H83" t="s">
+        <v>1039</v>
+      </c>
+      <c r="I83" t="s">
         <v>1046</v>
-      </c>
-      <c r="I83" t="s">
-        <v>1053</v>
       </c>
       <c r="J83" t="s">
         <v>424</v>
@@ -7861,7 +7922,7 @@
         <v>425</v>
       </c>
       <c r="L83" t="s">
-        <v>1066</v>
+        <v>1059</v>
       </c>
       <c r="M83" t="s">
         <v>428</v>
@@ -7870,7 +7931,7 @@
         <v>429</v>
       </c>
       <c r="R83" t="s">
-        <v>957</v>
+        <v>1165</v>
       </c>
       <c r="S83" t="s">
         <v>430</v>
@@ -7881,615 +7942,729 @@
     </row>
     <row r="84" spans="1:20">
       <c r="A84" t="s">
-        <v>654</v>
+        <v>1064</v>
       </c>
       <c r="B84" t="s">
-        <v>691</v>
+        <v>1065</v>
       </c>
       <c r="C84" t="s">
-        <v>758</v>
+        <v>1124</v>
       </c>
       <c r="D84" t="s">
-        <v>655</v>
+        <v>1067</v>
       </c>
       <c r="E84" t="s">
-        <v>656</v>
+        <v>1068</v>
       </c>
       <c r="F84" t="s">
-        <v>825</v>
+        <v>1131</v>
       </c>
       <c r="G84" t="s">
-        <v>657</v>
+        <v>1069</v>
       </c>
       <c r="H84" t="s">
-        <v>658</v>
+        <v>1070</v>
+      </c>
+      <c r="I84" t="s">
+        <v>1066</v>
+      </c>
+      <c r="J84" t="s">
+        <v>1067</v>
+      </c>
+      <c r="K84" t="s">
+        <v>1068</v>
       </c>
       <c r="L84" t="s">
-        <v>917</v>
+        <v>1071</v>
       </c>
       <c r="M84" t="s">
-        <v>659</v>
+        <v>1072</v>
       </c>
       <c r="N84" t="s">
-        <v>660</v>
+        <v>1073</v>
       </c>
       <c r="R84" t="s">
-        <v>967</v>
+        <v>1166</v>
       </c>
       <c r="S84" t="s">
-        <v>640</v>
+        <v>1074</v>
       </c>
       <c r="T84" t="s">
-        <v>641</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="85" spans="1:20">
       <c r="A85" t="s">
-        <v>661</v>
+        <v>1076</v>
       </c>
       <c r="B85" t="s">
-        <v>691</v>
+        <v>1077</v>
       </c>
       <c r="C85" t="s">
-        <v>759</v>
+        <v>1125</v>
       </c>
       <c r="D85" t="s">
-        <v>662</v>
+        <v>1079</v>
       </c>
       <c r="E85" t="s">
-        <v>663</v>
+        <v>1080</v>
       </c>
       <c r="F85" t="s">
-        <v>826</v>
+        <v>1132</v>
       </c>
       <c r="G85" t="s">
-        <v>664</v>
+        <v>1081</v>
       </c>
       <c r="H85" t="s">
-        <v>665</v>
-      </c>
-      <c r="L85" t="s">
-        <v>918</v>
-      </c>
-      <c r="M85" t="s">
-        <v>666</v>
-      </c>
-      <c r="N85" t="s">
-        <v>667</v>
-      </c>
-      <c r="R85" t="s">
-        <v>967</v>
-      </c>
-      <c r="S85" t="s">
-        <v>640</v>
-      </c>
-      <c r="T85" t="s">
-        <v>641</v>
+        <v>1082</v>
+      </c>
+      <c r="I85" t="s">
+        <v>1078</v>
+      </c>
+      <c r="J85" t="s">
+        <v>1079</v>
+      </c>
+      <c r="K85" t="s">
+        <v>1080</v>
       </c>
     </row>
     <row r="86" spans="1:20">
       <c r="A86" t="s">
-        <v>387</v>
+        <v>1083</v>
       </c>
       <c r="B86" t="s">
-        <v>682</v>
+        <v>1084</v>
       </c>
       <c r="C86" t="s">
-        <v>729</v>
+        <v>1126</v>
       </c>
       <c r="D86" t="s">
-        <v>388</v>
+        <v>1086</v>
       </c>
       <c r="E86" t="s">
-        <v>389</v>
+        <v>1087</v>
       </c>
       <c r="F86" t="s">
-        <v>797</v>
+        <v>1133</v>
       </c>
       <c r="G86" t="s">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="H86" t="s">
-        <v>391</v>
+        <v>401</v>
       </c>
       <c r="I86" t="s">
-        <v>729</v>
+        <v>1085</v>
       </c>
       <c r="J86" t="s">
-        <v>392</v>
+        <v>1086</v>
       </c>
       <c r="K86" t="s">
-        <v>389</v>
+        <v>1087</v>
       </c>
       <c r="L86" t="s">
-        <v>895</v>
+        <v>1088</v>
       </c>
       <c r="M86" t="s">
-        <v>393</v>
+        <v>1089</v>
       </c>
       <c r="N86" t="s">
-        <v>394</v>
+        <v>1090</v>
       </c>
       <c r="R86" t="s">
-        <v>955</v>
+        <v>1167</v>
       </c>
       <c r="S86" t="s">
-        <v>395</v>
+        <v>1091</v>
       </c>
       <c r="T86" t="s">
-        <v>396</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="87" spans="1:20">
       <c r="A87" t="s">
-        <v>40</v>
+        <v>1093</v>
       </c>
       <c r="B87" t="s">
-        <v>670</v>
+        <v>1094</v>
       </c>
       <c r="C87" t="s">
-        <v>41</v>
+        <v>1127</v>
       </c>
       <c r="D87" t="s">
-        <v>41</v>
+        <v>1096</v>
       </c>
       <c r="E87" t="s">
-        <v>42</v>
+        <v>1097</v>
       </c>
       <c r="F87" t="s">
-        <v>762</v>
+        <v>1134</v>
       </c>
       <c r="G87" t="s">
-        <v>43</v>
+        <v>1098</v>
       </c>
       <c r="H87" t="s">
-        <v>44</v>
+        <v>1099</v>
       </c>
       <c r="I87" t="s">
-        <v>41</v>
+        <v>1095</v>
       </c>
       <c r="J87" t="s">
-        <v>41</v>
+        <v>1096</v>
       </c>
       <c r="K87" t="s">
-        <v>42</v>
+        <v>1097</v>
       </c>
       <c r="L87" t="s">
-        <v>866</v>
+        <v>1100</v>
       </c>
       <c r="M87" t="s">
-        <v>45</v>
+        <v>1101</v>
       </c>
       <c r="N87" t="s">
-        <v>46</v>
+        <v>1102</v>
       </c>
       <c r="R87" t="s">
-        <v>925</v>
+        <v>1166</v>
       </c>
       <c r="S87" t="s">
-        <v>47</v>
+        <v>1074</v>
       </c>
       <c r="T87" t="s">
-        <v>48</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="88" spans="1:20">
       <c r="A88" t="s">
-        <v>49</v>
+        <v>1103</v>
       </c>
       <c r="B88" t="s">
-        <v>670</v>
+        <v>1104</v>
       </c>
       <c r="C88" t="s">
-        <v>694</v>
+        <v>1128</v>
       </c>
       <c r="D88" t="s">
-        <v>50</v>
+        <v>1106</v>
       </c>
       <c r="E88" t="s">
-        <v>51</v>
+        <v>1107</v>
       </c>
       <c r="F88" t="s">
-        <v>763</v>
+        <v>1135</v>
       </c>
       <c r="G88" t="s">
-        <v>52</v>
+        <v>409</v>
       </c>
       <c r="H88" t="s">
-        <v>53</v>
+        <v>410</v>
       </c>
       <c r="I88" t="s">
-        <v>694</v>
+        <v>1105</v>
       </c>
       <c r="J88" t="s">
-        <v>50</v>
+        <v>1106</v>
       </c>
       <c r="K88" t="s">
-        <v>51</v>
+        <v>1107</v>
       </c>
       <c r="L88" t="s">
-        <v>867</v>
+        <v>1108</v>
       </c>
       <c r="M88" t="s">
-        <v>54</v>
+        <v>411</v>
       </c>
       <c r="N88" t="s">
-        <v>55</v>
+        <v>412</v>
       </c>
       <c r="R88" t="s">
-        <v>926</v>
+        <v>1163</v>
       </c>
       <c r="S88" t="s">
-        <v>56</v>
+        <v>404</v>
       </c>
       <c r="T88" t="s">
-        <v>57</v>
+        <v>405</v>
       </c>
     </row>
     <row r="89" spans="1:20">
       <c r="A89" t="s">
-        <v>529</v>
+        <v>1109</v>
       </c>
       <c r="B89" t="s">
-        <v>686</v>
+        <v>1110</v>
       </c>
       <c r="C89" t="s">
-        <v>1047</v>
+        <v>1129</v>
       </c>
       <c r="D89" t="s">
-        <v>530</v>
+        <v>1112</v>
       </c>
       <c r="E89" t="s">
-        <v>531</v>
-      </c>
-      <c r="F89" t="s">
-        <v>1054</v>
-      </c>
-      <c r="G89" t="s">
-        <v>532</v>
-      </c>
-      <c r="H89" t="s">
-        <v>533</v>
+        <v>1111</v>
       </c>
       <c r="I89" t="s">
-        <v>745</v>
+        <v>576</v>
       </c>
       <c r="J89" t="s">
-        <v>530</v>
+        <v>576</v>
       </c>
       <c r="K89" t="s">
-        <v>531</v>
+        <v>576</v>
       </c>
     </row>
     <row r="90" spans="1:20">
       <c r="A90" t="s">
-        <v>1076</v>
+        <v>1113</v>
       </c>
       <c r="B90" t="s">
-        <v>1077</v>
+        <v>1114</v>
       </c>
       <c r="C90" t="s">
-        <v>1141</v>
+        <v>1130</v>
       </c>
       <c r="D90" t="s">
-        <v>1079</v>
+        <v>1116</v>
       </c>
       <c r="E90" t="s">
-        <v>1080</v>
+        <v>1115</v>
       </c>
       <c r="F90" t="s">
-        <v>1148</v>
+        <v>1136</v>
       </c>
       <c r="G90" t="s">
-        <v>1081</v>
+        <v>1117</v>
       </c>
       <c r="H90" t="s">
-        <v>1082</v>
+        <v>1118</v>
       </c>
       <c r="I90" t="s">
-        <v>1078</v>
+        <v>1115</v>
       </c>
       <c r="J90" t="s">
-        <v>1079</v>
+        <v>1116</v>
       </c>
       <c r="K90" t="s">
-        <v>1080</v>
+        <v>1115</v>
       </c>
       <c r="L90" t="s">
-        <v>1083</v>
+        <v>1119</v>
       </c>
       <c r="M90" t="s">
-        <v>1084</v>
+        <v>1120</v>
       </c>
       <c r="N90" t="s">
-        <v>1085</v>
+        <v>1121</v>
       </c>
       <c r="R90" t="s">
-        <v>1086</v>
+        <v>1168</v>
       </c>
       <c r="S90" t="s">
-        <v>1087</v>
+        <v>1122</v>
       </c>
       <c r="T90" t="s">
-        <v>1088</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="91" spans="1:20">
       <c r="A91" t="s">
-        <v>1089</v>
+        <v>654</v>
       </c>
       <c r="B91" t="s">
-        <v>1090</v>
+        <v>691</v>
       </c>
       <c r="C91" t="s">
-        <v>1142</v>
+        <v>758</v>
       </c>
       <c r="D91" t="s">
-        <v>1092</v>
+        <v>655</v>
       </c>
       <c r="E91" t="s">
-        <v>1093</v>
+        <v>656</v>
       </c>
       <c r="F91" t="s">
-        <v>1149</v>
+        <v>825</v>
       </c>
       <c r="G91" t="s">
-        <v>1094</v>
+        <v>657</v>
       </c>
       <c r="H91" t="s">
-        <v>1095</v>
-      </c>
-      <c r="I91" t="s">
-        <v>1091</v>
-      </c>
-      <c r="J91" t="s">
-        <v>1092</v>
-      </c>
-      <c r="K91" t="s">
-        <v>1093</v>
+        <v>658</v>
+      </c>
+      <c r="L91" t="s">
+        <v>917</v>
+      </c>
+      <c r="M91" t="s">
+        <v>659</v>
+      </c>
+      <c r="N91" t="s">
+        <v>660</v>
+      </c>
+      <c r="R91" t="s">
+        <v>1169</v>
+      </c>
+      <c r="S91" t="s">
+        <v>640</v>
+      </c>
+      <c r="T91" t="s">
+        <v>641</v>
       </c>
     </row>
     <row r="92" spans="1:20">
       <c r="A92" t="s">
-        <v>1096</v>
+        <v>661</v>
       </c>
       <c r="B92" t="s">
-        <v>1097</v>
+        <v>691</v>
       </c>
       <c r="C92" t="s">
-        <v>1143</v>
+        <v>759</v>
       </c>
       <c r="D92" t="s">
-        <v>1099</v>
+        <v>662</v>
       </c>
       <c r="E92" t="s">
-        <v>1100</v>
+        <v>663</v>
       </c>
       <c r="F92" t="s">
-        <v>1150</v>
+        <v>826</v>
       </c>
       <c r="G92" t="s">
-        <v>400</v>
+        <v>664</v>
       </c>
       <c r="H92" t="s">
-        <v>401</v>
-      </c>
-      <c r="I92" t="s">
-        <v>1098</v>
-      </c>
-      <c r="J92" t="s">
-        <v>1099</v>
-      </c>
-      <c r="K92" t="s">
-        <v>1100</v>
+        <v>665</v>
       </c>
       <c r="L92" t="s">
-        <v>1101</v>
+        <v>918</v>
       </c>
       <c r="M92" t="s">
-        <v>1102</v>
+        <v>666</v>
       </c>
       <c r="N92" t="s">
-        <v>1103</v>
+        <v>667</v>
       </c>
       <c r="R92" t="s">
-        <v>1104</v>
+        <v>1169</v>
       </c>
       <c r="S92" t="s">
-        <v>1105</v>
+        <v>640</v>
       </c>
       <c r="T92" t="s">
-        <v>1106</v>
+        <v>641</v>
       </c>
     </row>
     <row r="93" spans="1:20">
       <c r="A93" t="s">
-        <v>1107</v>
+        <v>387</v>
       </c>
       <c r="B93" t="s">
-        <v>1108</v>
+        <v>682</v>
       </c>
       <c r="C93" t="s">
-        <v>1144</v>
+        <v>729</v>
       </c>
       <c r="D93" t="s">
-        <v>1110</v>
+        <v>388</v>
       </c>
       <c r="E93" t="s">
-        <v>1111</v>
+        <v>389</v>
       </c>
       <c r="F93" t="s">
-        <v>1151</v>
+        <v>797</v>
       </c>
       <c r="G93" t="s">
-        <v>1112</v>
+        <v>390</v>
       </c>
       <c r="H93" t="s">
-        <v>1113</v>
+        <v>391</v>
       </c>
       <c r="I93" t="s">
-        <v>1109</v>
+        <v>729</v>
       </c>
       <c r="J93" t="s">
-        <v>1110</v>
+        <v>392</v>
       </c>
       <c r="K93" t="s">
-        <v>1111</v>
+        <v>389</v>
       </c>
       <c r="L93" t="s">
-        <v>1114</v>
+        <v>895</v>
       </c>
       <c r="M93" t="s">
-        <v>1115</v>
+        <v>393</v>
       </c>
       <c r="N93" t="s">
-        <v>1116</v>
+        <v>394</v>
       </c>
       <c r="R93" t="s">
-        <v>1117</v>
+        <v>1170</v>
       </c>
       <c r="S93" t="s">
-        <v>1087</v>
+        <v>395</v>
       </c>
       <c r="T93" t="s">
-        <v>1088</v>
+        <v>396</v>
       </c>
     </row>
     <row r="94" spans="1:20">
       <c r="A94" t="s">
-        <v>1118</v>
+        <v>40</v>
       </c>
       <c r="B94" t="s">
-        <v>1119</v>
+        <v>670</v>
       </c>
       <c r="C94" t="s">
-        <v>1145</v>
+        <v>41</v>
       </c>
       <c r="D94" t="s">
-        <v>1121</v>
+        <v>41</v>
       </c>
       <c r="E94" t="s">
-        <v>1122</v>
+        <v>42</v>
       </c>
       <c r="F94" t="s">
-        <v>1152</v>
+        <v>762</v>
       </c>
       <c r="G94" t="s">
-        <v>409</v>
+        <v>43</v>
       </c>
       <c r="H94" t="s">
-        <v>410</v>
+        <v>44</v>
       </c>
       <c r="I94" t="s">
-        <v>1120</v>
+        <v>41</v>
       </c>
       <c r="J94" t="s">
-        <v>1121</v>
+        <v>41</v>
       </c>
       <c r="K94" t="s">
-        <v>1122</v>
+        <v>42</v>
       </c>
       <c r="L94" t="s">
-        <v>1123</v>
+        <v>866</v>
       </c>
       <c r="M94" t="s">
-        <v>411</v>
+        <v>45</v>
       </c>
       <c r="N94" t="s">
-        <v>412</v>
+        <v>46</v>
       </c>
       <c r="R94" t="s">
-        <v>1124</v>
+        <v>1173</v>
       </c>
       <c r="S94" t="s">
-        <v>404</v>
+        <v>47</v>
       </c>
       <c r="T94" t="s">
-        <v>405</v>
+        <v>48</v>
       </c>
     </row>
     <row r="95" spans="1:20">
       <c r="A95" t="s">
-        <v>1125</v>
+        <v>49</v>
       </c>
       <c r="B95" t="s">
-        <v>1126</v>
+        <v>670</v>
       </c>
       <c r="C95" t="s">
-        <v>1146</v>
+        <v>694</v>
       </c>
       <c r="D95" t="s">
-        <v>1128</v>
+        <v>50</v>
       </c>
       <c r="E95" t="s">
-        <v>1127</v>
+        <v>51</v>
+      </c>
+      <c r="F95" t="s">
+        <v>763</v>
+      </c>
+      <c r="G95" t="s">
+        <v>52</v>
+      </c>
+      <c r="H95" t="s">
+        <v>53</v>
       </c>
       <c r="I95" t="s">
-        <v>576</v>
+        <v>694</v>
       </c>
       <c r="J95" t="s">
-        <v>576</v>
+        <v>50</v>
       </c>
       <c r="K95" t="s">
-        <v>576</v>
+        <v>51</v>
+      </c>
+      <c r="L95" t="s">
+        <v>867</v>
+      </c>
+      <c r="M95" t="s">
+        <v>54</v>
+      </c>
+      <c r="N95" t="s">
+        <v>55</v>
+      </c>
+      <c r="R95" t="s">
+        <v>1171</v>
+      </c>
+      <c r="S95" t="s">
+        <v>56</v>
+      </c>
+      <c r="T95" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="96" spans="1:20">
       <c r="A96" t="s">
-        <v>1129</v>
+        <v>529</v>
       </c>
       <c r="B96" t="s">
-        <v>1130</v>
+        <v>686</v>
       </c>
       <c r="C96" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D96" t="s">
+        <v>530</v>
+      </c>
+      <c r="E96" t="s">
+        <v>531</v>
+      </c>
+      <c r="F96" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G96" t="s">
+        <v>532</v>
+      </c>
+      <c r="H96" t="s">
+        <v>533</v>
+      </c>
+      <c r="I96" t="s">
+        <v>745</v>
+      </c>
+      <c r="J96" t="s">
+        <v>530</v>
+      </c>
+      <c r="K96" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="97" spans="1:20">
+      <c r="A97" t="s">
+        <v>1137</v>
+      </c>
+      <c r="B97" t="s">
+        <v>1138</v>
+      </c>
+      <c r="C97" t="s">
+        <v>1153</v>
+      </c>
+      <c r="D97" t="s">
+        <v>1139</v>
+      </c>
+      <c r="E97" t="s">
+        <v>1140</v>
+      </c>
+      <c r="F97" t="s">
+        <v>1135</v>
+      </c>
+      <c r="G97" t="s">
+        <v>409</v>
+      </c>
+      <c r="H97" t="s">
+        <v>410</v>
+      </c>
+      <c r="I97" t="s">
+        <v>1153</v>
+      </c>
+      <c r="J97" t="s">
+        <v>1139</v>
+      </c>
+      <c r="K97" t="s">
+        <v>1140</v>
+      </c>
+      <c r="L97" t="s">
+        <v>1157</v>
+      </c>
+      <c r="M97" t="s">
+        <v>1141</v>
+      </c>
+      <c r="N97" t="s">
+        <v>1142</v>
+      </c>
+      <c r="R97" t="s">
+        <v>1174</v>
+      </c>
+      <c r="S97" t="s">
+        <v>1143</v>
+      </c>
+      <c r="T97" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="98" spans="1:20">
+      <c r="A98" t="s">
+        <v>1145</v>
+      </c>
+      <c r="B98" t="s">
+        <v>1138</v>
+      </c>
+      <c r="C98" t="s">
+        <v>1154</v>
+      </c>
+      <c r="D98" t="s">
+        <v>1146</v>
+      </c>
+      <c r="E98" t="s">
         <v>1147</v>
       </c>
-      <c r="D96" t="s">
-        <v>1132</v>
-      </c>
-      <c r="E96" t="s">
-        <v>1131</v>
-      </c>
-      <c r="F96" t="s">
-        <v>1153</v>
-      </c>
-      <c r="G96" t="s">
-        <v>1133</v>
-      </c>
-      <c r="H96" t="s">
-        <v>1134</v>
-      </c>
-      <c r="I96" t="s">
-        <v>1131</v>
-      </c>
-      <c r="J96" t="s">
-        <v>1132</v>
-      </c>
-      <c r="K96" t="s">
-        <v>1131</v>
-      </c>
-      <c r="L96" t="s">
-        <v>1135</v>
-      </c>
-      <c r="M96" t="s">
-        <v>1136</v>
-      </c>
-      <c r="N96" t="s">
-        <v>1137</v>
-      </c>
-      <c r="R96" t="s">
+      <c r="I98" t="s">
+        <v>1154</v>
+      </c>
+      <c r="J98" t="s">
+        <v>1146</v>
+      </c>
+      <c r="K98" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="99" spans="1:20">
+      <c r="A99" t="s">
+        <v>1148</v>
+      </c>
+      <c r="B99" t="s">
         <v>1138</v>
       </c>
-      <c r="S96" t="s">
-        <v>1139</v>
-      </c>
-      <c r="T96" t="s">
-        <v>1140</v>
+      <c r="C99" t="s">
+        <v>1155</v>
+      </c>
+      <c r="D99" t="s">
+        <v>1149</v>
+      </c>
+      <c r="E99" t="s">
+        <v>1150</v>
+      </c>
+      <c r="F99" t="s">
+        <v>1156</v>
+      </c>
+      <c r="G99" t="s">
+        <v>1151</v>
+      </c>
+      <c r="H99" t="s">
+        <v>1152</v>
+      </c>
+      <c r="I99" t="s">
+        <v>1155</v>
+      </c>
+      <c r="J99" t="s">
+        <v>1149</v>
+      </c>
+      <c r="K99" t="s">
+        <v>1150</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A2:T83" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:T89">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:T96">
       <sortCondition ref="B2:B83"/>
     </sortState>
   </autoFilter>

--- a/PTBR/Lang/PTBR/Game/Stat.xlsx
+++ b/PTBR/Lang/PTBR/Game/Stat.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ysi\Documents\GitHub\elin-portugues-brasileiro\PTBR\Lang\PTBR\Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8844EF5F-8594-412F-8276-64FED9D09330}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39100D7A-D0FF-4712-9380-2DE7D99A118D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="16200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Stat" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1490" uniqueCount="1175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1490" uniqueCount="1170">
   <si>
     <t>id</t>
   </si>
@@ -2980,9 +2980,6 @@
     <t>88</t>
   </si>
   <si>
-    <t>重生</t>
-  </si>
-  <si>
     <t>Rebirth</t>
   </si>
   <si>
@@ -3010,9 +3007,6 @@
     <t>89</t>
   </si>
   <si>
-    <t>梦魇</t>
-  </si>
-  <si>
     <t>Nightmare</t>
   </si>
   <si>
@@ -3262,9 +3256,6 @@
     <t>EA 23.166</t>
   </si>
   <si>
-    <t>安眠之歌</t>
-  </si>
-  <si>
     <t>Hymn of Sleep</t>
   </si>
   <si>
@@ -3277,9 +3268,6 @@
     <t>周囲の生物を眠らせる状態。歌を維持している間はマナが減少する。</t>
   </si>
   <si>
-    <t>#1开始唱摇篮曲了。</t>
-  </si>
-  <si>
     <t>#1 begin(s) to sing a lullaby.</t>
   </si>
   <si>
@@ -3298,9 +3286,6 @@
     <t>EA 23.191</t>
   </si>
   <si>
-    <t>屈服之心</t>
-  </si>
-  <si>
     <t>Fractured Valor</t>
   </si>
   <si>
@@ -3319,18 +3304,12 @@
     <t>EA 23.195</t>
   </si>
   <si>
-    <t>第七感</t>
-  </si>
-  <si>
     <t>Seventh Sense</t>
   </si>
   <si>
     <t>セブンセンシズ</t>
   </si>
   <si>
-    <t>#1的第七感觉醒了！</t>
-  </si>
-  <si>
     <t>#1 awaken(s) to the Seventh Sense!</t>
   </si>
   <si>
@@ -3349,9 +3328,6 @@
     <t>EA 23.220</t>
   </si>
   <si>
-    <t>勇气之歌</t>
-  </si>
-  <si>
     <t>Hymn of Valor</t>
   </si>
   <si>
@@ -3364,9 +3340,6 @@
     <t>周囲の生物に勇気を与える状態。歌を維持している間はマナが減少する。</t>
   </si>
   <si>
-    <t>#1开始唱激昂之歌了。</t>
-  </si>
-  <si>
     <t>#1 begin(s) to sing a song of valor.</t>
   </si>
   <si>
@@ -3379,18 +3352,12 @@
     <t>EA 23.233</t>
   </si>
   <si>
-    <t>蝙蝠变形</t>
-  </si>
-  <si>
     <t>Bat Transformation</t>
   </si>
   <si>
     <t>コウモリ変容</t>
   </si>
   <si>
-    <t>#1变形了。</t>
-  </si>
-  <si>
     <t>99</t>
   </si>
   <si>
@@ -3421,9 +3388,6 @@
     <t>闇に潜んだ状態。</t>
   </si>
   <si>
-    <t>#1潜入了黑暗。</t>
-  </si>
-  <si>
     <t>#1 don(s) darkness.</t>
   </si>
   <si>
@@ -3587,13 +3551,34 @@
   </si>
   <si>
     <t>#1 #revela #sua forma verdadeira!</t>
+  </si>
+  <si>
+    <t>Valor Fraturado</t>
+  </si>
+  <si>
+    <t>Renascimento</t>
+  </si>
+  <si>
+    <t>#1 é transmutado(a).</t>
+  </si>
+  <si>
+    <t>#1 começa a cantar uma canção de ninar.</t>
+  </si>
+  <si>
+    <t>#1 começa a cantar uma canção de valor.</t>
+  </si>
+  <si>
+    <t>#1 se reveste de escuridão.</t>
+  </si>
+  <si>
+    <t>#1 desperta para o Sétimo Sentido!</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -3969,34 +3954,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A72" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R97" sqref="R97"/>
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L64" sqref="L64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="16" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="23.875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="23.85546875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="4" max="5" width="16" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="144.875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="118.25" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="89.375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="144.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="118.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="89.42578125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="9" max="9" width="66" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="45.625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="35.75" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="168.25" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="56.375" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="184.125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="146.125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="45.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="35.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="168.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="56.42578125" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="184.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="146.140625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="16" max="16" width="16" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="167.125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="44.25" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="41.25" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="167.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="44.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="41.28515625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="20" max="20" width="16" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4058,2381 +4043,2612 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="85.5">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>554</v>
+        <v>40</v>
       </c>
       <c r="B3" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C3" t="s">
-        <v>747</v>
+        <v>41</v>
       </c>
       <c r="D3" t="s">
-        <v>555</v>
+        <v>41</v>
       </c>
       <c r="E3" t="s">
-        <v>556</v>
+        <v>42</v>
       </c>
       <c r="F3" t="s">
-        <v>815</v>
+        <v>762</v>
       </c>
       <c r="G3" t="s">
-        <v>557</v>
+        <v>43</v>
       </c>
       <c r="H3" t="s">
-        <v>558</v>
+        <v>44</v>
       </c>
       <c r="I3" t="s">
-        <v>851</v>
+        <v>41</v>
       </c>
       <c r="J3" t="s">
-        <v>559</v>
+        <v>41</v>
       </c>
       <c r="K3" t="s">
-        <v>560</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>912</v>
+        <v>42</v>
+      </c>
+      <c r="L3" t="s">
+        <v>866</v>
       </c>
       <c r="M3" t="s">
-        <v>561</v>
+        <v>45</v>
       </c>
       <c r="N3" t="s">
-        <v>562</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>921</v>
-      </c>
-      <c r="P3" t="s">
-        <v>563</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20">
+        <v>46</v>
+      </c>
+      <c r="R3" t="s">
+        <v>1161</v>
+      </c>
+      <c r="S3" t="s">
+        <v>47</v>
+      </c>
+      <c r="T3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>565</v>
+        <v>1102</v>
       </c>
       <c r="B4" t="s">
-        <v>671</v>
+        <v>1103</v>
       </c>
       <c r="C4" t="s">
-        <v>997</v>
+        <v>1118</v>
       </c>
       <c r="D4" t="s">
-        <v>566</v>
+        <v>1105</v>
       </c>
       <c r="E4" t="s">
-        <v>567</v>
+        <v>1104</v>
       </c>
       <c r="F4" t="s">
+        <v>1124</v>
+      </c>
+      <c r="G4" t="s">
+        <v>1106</v>
+      </c>
+      <c r="H4" t="s">
+        <v>1107</v>
+      </c>
+      <c r="I4" t="s">
+        <v>1118</v>
+      </c>
+      <c r="J4" t="s">
+        <v>1105</v>
+      </c>
+      <c r="K4" t="s">
+        <v>1104</v>
+      </c>
+      <c r="L4" t="s">
+        <v>1168</v>
+      </c>
+      <c r="M4" t="s">
+        <v>1108</v>
+      </c>
+      <c r="N4" t="s">
+        <v>1109</v>
+      </c>
+      <c r="R4" t="s">
+        <v>1156</v>
+      </c>
+      <c r="S4" t="s">
+        <v>1110</v>
+      </c>
+      <c r="T4" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1112</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1064</v>
+      </c>
+      <c r="E5" t="s">
+        <v>1065</v>
+      </c>
+      <c r="F5" t="s">
+        <v>1119</v>
+      </c>
+      <c r="G5" t="s">
+        <v>1066</v>
+      </c>
+      <c r="H5" t="s">
+        <v>1067</v>
+      </c>
+      <c r="I5" t="s">
+        <v>1112</v>
+      </c>
+      <c r="J5" t="s">
+        <v>1064</v>
+      </c>
+      <c r="K5" t="s">
+        <v>1065</v>
+      </c>
+      <c r="L5" t="s">
+        <v>1166</v>
+      </c>
+      <c r="M5" t="s">
+        <v>1068</v>
+      </c>
+      <c r="N5" t="s">
+        <v>1069</v>
+      </c>
+      <c r="R5" t="s">
+        <v>1154</v>
+      </c>
+      <c r="S5" t="s">
+        <v>1070</v>
+      </c>
+      <c r="T5" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1115</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1088</v>
+      </c>
+      <c r="E6" t="s">
+        <v>1089</v>
+      </c>
+      <c r="F6" t="s">
+        <v>1122</v>
+      </c>
+      <c r="G6" t="s">
+        <v>1090</v>
+      </c>
+      <c r="H6" t="s">
+        <v>1091</v>
+      </c>
+      <c r="I6" t="s">
+        <v>1115</v>
+      </c>
+      <c r="J6" t="s">
+        <v>1088</v>
+      </c>
+      <c r="K6" t="s">
+        <v>1089</v>
+      </c>
+      <c r="L6" t="s">
+        <v>1167</v>
+      </c>
+      <c r="M6" t="s">
+        <v>1092</v>
+      </c>
+      <c r="N6" t="s">
+        <v>1093</v>
+      </c>
+      <c r="R6" t="s">
+        <v>1154</v>
+      </c>
+      <c r="S6" t="s">
+        <v>1070</v>
+      </c>
+      <c r="T6" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" t="s">
+        <v>670</v>
+      </c>
+      <c r="C7" t="s">
+        <v>694</v>
+      </c>
+      <c r="D7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F7" t="s">
+        <v>763</v>
+      </c>
+      <c r="G7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H7" t="s">
+        <v>53</v>
+      </c>
+      <c r="I7" t="s">
+        <v>694</v>
+      </c>
+      <c r="J7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K7" t="s">
+        <v>51</v>
+      </c>
+      <c r="L7" t="s">
+        <v>867</v>
+      </c>
+      <c r="M7" t="s">
+        <v>54</v>
+      </c>
+      <c r="N7" t="s">
+        <v>55</v>
+      </c>
+      <c r="R7" t="s">
+        <v>1159</v>
+      </c>
+      <c r="S7" t="s">
+        <v>56</v>
+      </c>
+      <c r="T7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>1125</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1126</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1141</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1127</v>
+      </c>
+      <c r="E8" t="s">
+        <v>1128</v>
+      </c>
+      <c r="F8" t="s">
+        <v>1123</v>
+      </c>
+      <c r="G8" t="s">
+        <v>409</v>
+      </c>
+      <c r="H8" t="s">
+        <v>410</v>
+      </c>
+      <c r="I8" t="s">
+        <v>1141</v>
+      </c>
+      <c r="J8" t="s">
+        <v>1127</v>
+      </c>
+      <c r="K8" t="s">
+        <v>1128</v>
+      </c>
+      <c r="L8" t="s">
+        <v>1145</v>
+      </c>
+      <c r="M8" t="s">
+        <v>1129</v>
+      </c>
+      <c r="N8" t="s">
+        <v>1130</v>
+      </c>
+      <c r="R8" t="s">
+        <v>1162</v>
+      </c>
+      <c r="S8" t="s">
+        <v>1131</v>
+      </c>
+      <c r="T8" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>1026</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1043</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1028</v>
+      </c>
+      <c r="E9" t="s">
+        <v>1029</v>
+      </c>
+      <c r="F9" t="s">
+        <v>1050</v>
+      </c>
+      <c r="G9" t="s">
+        <v>1030</v>
+      </c>
+      <c r="H9" t="s">
+        <v>1031</v>
+      </c>
+      <c r="I9" t="s">
+        <v>1043</v>
+      </c>
+      <c r="J9" t="s">
+        <v>1028</v>
+      </c>
+      <c r="K9" t="s">
+        <v>1029</v>
+      </c>
+      <c r="L9" t="s">
+        <v>1056</v>
+      </c>
+      <c r="M9" t="s">
+        <v>1032</v>
+      </c>
+      <c r="N9" t="s">
+        <v>1033</v>
+      </c>
+      <c r="R9" t="s">
+        <v>1152</v>
+      </c>
+      <c r="S9" t="s">
+        <v>1034</v>
+      </c>
+      <c r="T9" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>237</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1039</v>
+      </c>
+      <c r="D10" t="s">
+        <v>238</v>
+      </c>
+      <c r="E10" t="s">
+        <v>239</v>
+      </c>
+      <c r="F10" t="s">
+        <v>1046</v>
+      </c>
+      <c r="G10" t="s">
         <v>1002</v>
       </c>
-      <c r="G4" t="s">
-        <v>568</v>
-      </c>
-      <c r="H4" t="s">
-        <v>569</v>
-      </c>
-      <c r="I4" t="s">
-        <v>1000</v>
-      </c>
-      <c r="J4" t="s">
-        <v>570</v>
-      </c>
-      <c r="K4" t="s">
-        <v>571</v>
-      </c>
-      <c r="L4" t="s">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
-      <c r="A5" t="s">
-        <v>469</v>
-      </c>
-      <c r="B5" t="s">
-        <v>671</v>
-      </c>
-      <c r="C5" t="s">
-        <v>739</v>
-      </c>
-      <c r="D5" t="s">
-        <v>470</v>
-      </c>
-      <c r="E5" t="s">
-        <v>471</v>
-      </c>
-      <c r="F5" t="s">
-        <v>807</v>
-      </c>
-      <c r="G5" t="s">
-        <v>472</v>
-      </c>
-      <c r="H5" t="s">
-        <v>473</v>
-      </c>
-      <c r="I5" t="s">
-        <v>846</v>
-      </c>
-      <c r="J5" t="s">
-        <v>474</v>
-      </c>
-      <c r="K5" t="s">
-        <v>475</v>
-      </c>
-      <c r="L5" t="s">
-        <v>905</v>
-      </c>
-      <c r="M5" t="s">
-        <v>476</v>
-      </c>
-      <c r="N5" t="s">
-        <v>477</v>
-      </c>
-      <c r="R5" t="s">
-        <v>956</v>
-      </c>
-      <c r="S5" t="s">
-        <v>478</v>
-      </c>
-      <c r="T5" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>572</v>
-      </c>
-      <c r="B6" t="s">
-        <v>671</v>
-      </c>
-      <c r="C6" t="s">
-        <v>705</v>
-      </c>
-      <c r="D6" t="s">
-        <v>158</v>
-      </c>
-      <c r="E6" t="s">
-        <v>573</v>
-      </c>
-      <c r="F6" t="s">
-        <v>816</v>
-      </c>
-      <c r="G6" t="s">
-        <v>574</v>
-      </c>
-      <c r="H6" t="s">
-        <v>575</v>
-      </c>
-      <c r="I6" t="s">
-        <v>576</v>
-      </c>
-      <c r="J6" t="s">
-        <v>576</v>
-      </c>
-      <c r="K6" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
+      <c r="H10" t="s">
+        <v>1003</v>
+      </c>
+      <c r="I10" t="s">
+        <v>1039</v>
+      </c>
+      <c r="J10" t="s">
+        <v>238</v>
+      </c>
+      <c r="K10" t="s">
+        <v>239</v>
+      </c>
+      <c r="L10" t="s">
+        <v>1052</v>
+      </c>
+      <c r="M10" t="s">
+        <v>242</v>
+      </c>
+      <c r="N10" t="s">
+        <v>243</v>
+      </c>
+      <c r="R10" t="s">
+        <v>1149</v>
+      </c>
+      <c r="S10" t="s">
+        <v>244</v>
+      </c>
+      <c r="T10" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1042</v>
+      </c>
+      <c r="D11" t="s">
+        <v>1024</v>
+      </c>
+      <c r="E11" t="s">
+        <v>1025</v>
+      </c>
+      <c r="F11" t="s">
+        <v>1049</v>
+      </c>
+      <c r="G11" t="s">
+        <v>409</v>
+      </c>
+      <c r="H11" t="s">
+        <v>410</v>
+      </c>
+      <c r="I11" t="s">
+        <v>1042</v>
+      </c>
+      <c r="J11" t="s">
+        <v>1024</v>
+      </c>
+      <c r="K11" t="s">
+        <v>1025</v>
+      </c>
+      <c r="L11" t="s">
+        <v>1055</v>
+      </c>
+      <c r="M11" t="s">
+        <v>411</v>
+      </c>
+      <c r="N11" t="s">
+        <v>412</v>
+      </c>
+      <c r="R11" t="s">
+        <v>1151</v>
+      </c>
+      <c r="S11" t="s">
+        <v>404</v>
+      </c>
+      <c r="T11" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>1094</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1095</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1116</v>
+      </c>
+      <c r="D12" t="s">
+        <v>1096</v>
+      </c>
+      <c r="E12" t="s">
+        <v>1097</v>
+      </c>
+      <c r="F12" t="s">
+        <v>1123</v>
+      </c>
+      <c r="G12" t="s">
+        <v>409</v>
+      </c>
+      <c r="H12" t="s">
+        <v>410</v>
+      </c>
+      <c r="I12" t="s">
+        <v>1116</v>
+      </c>
+      <c r="J12" t="s">
+        <v>1096</v>
+      </c>
+      <c r="K12" t="s">
+        <v>1097</v>
+      </c>
+      <c r="L12" t="s">
+        <v>1165</v>
+      </c>
+      <c r="M12" t="s">
+        <v>411</v>
+      </c>
+      <c r="N12" t="s">
+        <v>412</v>
+      </c>
+      <c r="R12" t="s">
+        <v>1151</v>
+      </c>
+      <c r="S12" t="s">
+        <v>404</v>
+      </c>
+      <c r="T12" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>100</v>
-      </c>
-      <c r="B7" t="s">
-        <v>671</v>
-      </c>
-      <c r="C7" t="s">
-        <v>699</v>
-      </c>
-      <c r="D7" t="s">
-        <v>101</v>
-      </c>
-      <c r="E7" t="s">
-        <v>102</v>
-      </c>
-      <c r="F7" t="s">
-        <v>768</v>
-      </c>
-      <c r="G7" t="s">
-        <v>103</v>
-      </c>
-      <c r="H7" t="s">
-        <v>104</v>
-      </c>
-      <c r="I7" t="s">
-        <v>830</v>
-      </c>
-      <c r="J7" t="s">
-        <v>105</v>
-      </c>
-      <c r="K7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L7" t="s">
-        <v>871</v>
-      </c>
-      <c r="M7" t="s">
-        <v>106</v>
-      </c>
-      <c r="N7" t="s">
-        <v>107</v>
-      </c>
-      <c r="R7" t="s">
-        <v>927</v>
-      </c>
-      <c r="S7" t="s">
-        <v>108</v>
-      </c>
-      <c r="T7" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>130</v>
-      </c>
-      <c r="B8" t="s">
-        <v>671</v>
-      </c>
-      <c r="C8" t="s">
-        <v>702</v>
-      </c>
-      <c r="D8" t="s">
-        <v>131</v>
-      </c>
-      <c r="E8" t="s">
-        <v>132</v>
-      </c>
-      <c r="F8" t="s">
-        <v>769</v>
-      </c>
-      <c r="G8" t="s">
-        <v>113</v>
-      </c>
-      <c r="H8" t="s">
-        <v>114</v>
-      </c>
-      <c r="I8" t="s">
-        <v>833</v>
-      </c>
-      <c r="J8" t="s">
-        <v>133</v>
-      </c>
-      <c r="K8" t="s">
-        <v>132</v>
-      </c>
-      <c r="L8" t="s">
-        <v>862</v>
-      </c>
-      <c r="M8" t="s">
-        <v>134</v>
-      </c>
-      <c r="N8" t="s">
-        <v>135</v>
-      </c>
-      <c r="R8" t="s">
-        <v>930</v>
-      </c>
-      <c r="S8" t="s">
-        <v>136</v>
-      </c>
-      <c r="T8" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" ht="28.5">
-      <c r="A9" t="s">
-        <v>58</v>
-      </c>
-      <c r="B9" t="s">
-        <v>671</v>
-      </c>
-      <c r="C9" t="s">
-        <v>695</v>
-      </c>
-      <c r="D9" t="s">
-        <v>59</v>
-      </c>
-      <c r="E9" t="s">
-        <v>60</v>
-      </c>
-      <c r="F9" t="s">
-        <v>764</v>
-      </c>
-      <c r="G9" t="s">
-        <v>61</v>
-      </c>
-      <c r="H9" t="s">
-        <v>62</v>
-      </c>
-      <c r="I9" t="s">
-        <v>827</v>
-      </c>
-      <c r="J9" t="s">
-        <v>63</v>
-      </c>
-      <c r="K9" t="s">
-        <v>64</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>868</v>
-      </c>
-      <c r="M9" t="s">
-        <v>65</v>
-      </c>
-      <c r="N9" t="s">
-        <v>66</v>
-      </c>
-      <c r="O9" t="s">
-        <v>919</v>
-      </c>
-      <c r="P9" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>68</v>
-      </c>
-      <c r="R9" t="s">
-        <v>949</v>
-      </c>
-      <c r="S9" t="s">
-        <v>69</v>
-      </c>
-      <c r="T9" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>503</v>
-      </c>
-      <c r="B10" t="s">
-        <v>671</v>
-      </c>
-      <c r="C10" t="s">
-        <v>742</v>
-      </c>
-      <c r="D10" t="s">
-        <v>504</v>
-      </c>
-      <c r="E10" t="s">
-        <v>505</v>
-      </c>
-      <c r="F10" t="s">
-        <v>810</v>
-      </c>
-      <c r="G10" t="s">
-        <v>506</v>
-      </c>
-      <c r="H10" t="s">
-        <v>507</v>
-      </c>
-      <c r="I10" t="s">
-        <v>742</v>
-      </c>
-      <c r="J10" t="s">
-        <v>504</v>
-      </c>
-      <c r="K10" t="s">
-        <v>505</v>
-      </c>
-      <c r="L10" t="s">
-        <v>908</v>
-      </c>
-      <c r="M10" t="s">
-        <v>508</v>
-      </c>
-      <c r="N10" t="s">
-        <v>509</v>
-      </c>
-      <c r="R10" t="s">
-        <v>959</v>
-      </c>
-      <c r="S10" t="s">
-        <v>510</v>
-      </c>
-      <c r="T10" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>82</v>
-      </c>
-      <c r="B11" t="s">
-        <v>671</v>
-      </c>
-      <c r="C11" t="s">
-        <v>697</v>
-      </c>
-      <c r="D11" t="s">
-        <v>83</v>
-      </c>
-      <c r="E11" t="s">
-        <v>84</v>
-      </c>
-      <c r="F11" t="s">
-        <v>766</v>
-      </c>
-      <c r="G11" t="s">
-        <v>85</v>
-      </c>
-      <c r="H11" t="s">
-        <v>86</v>
-      </c>
-      <c r="I11" t="s">
-        <v>829</v>
-      </c>
-      <c r="J11" t="s">
-        <v>83</v>
-      </c>
-      <c r="K11" t="s">
-        <v>84</v>
-      </c>
-      <c r="L11" t="s">
-        <v>869</v>
-      </c>
-      <c r="M11" t="s">
-        <v>87</v>
-      </c>
-      <c r="N11" t="s">
-        <v>88</v>
-      </c>
-      <c r="R11" t="s">
-        <v>925</v>
-      </c>
-      <c r="S11" t="s">
-        <v>89</v>
-      </c>
-      <c r="T11" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>91</v>
-      </c>
-      <c r="B12" t="s">
-        <v>671</v>
-      </c>
-      <c r="C12" t="s">
-        <v>698</v>
-      </c>
-      <c r="D12" t="s">
-        <v>92</v>
-      </c>
-      <c r="E12" t="s">
-        <v>93</v>
-      </c>
-      <c r="F12" t="s">
-        <v>767</v>
-      </c>
-      <c r="G12" t="s">
-        <v>94</v>
-      </c>
-      <c r="H12" t="s">
-        <v>95</v>
-      </c>
-      <c r="I12" t="s">
-        <v>698</v>
-      </c>
-      <c r="J12" t="s">
-        <v>92</v>
-      </c>
-      <c r="K12" t="s">
-        <v>93</v>
-      </c>
-      <c r="L12" t="s">
-        <v>870</v>
-      </c>
-      <c r="M12" t="s">
-        <v>96</v>
-      </c>
-      <c r="N12" t="s">
-        <v>97</v>
-      </c>
-      <c r="R12" t="s">
-        <v>926</v>
-      </c>
-      <c r="S12" t="s">
-        <v>98</v>
-      </c>
-      <c r="T12" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>291</v>
       </c>
       <c r="B13" t="s">
         <v>671</v>
       </c>
       <c r="C13" t="s">
-        <v>719</v>
+        <v>699</v>
       </c>
       <c r="D13" t="s">
-        <v>292</v>
+        <v>101</v>
       </c>
       <c r="E13" t="s">
-        <v>293</v>
+        <v>102</v>
       </c>
       <c r="F13" t="s">
-        <v>787</v>
+        <v>768</v>
       </c>
       <c r="G13" t="s">
-        <v>294</v>
+        <v>103</v>
       </c>
       <c r="H13" t="s">
-        <v>295</v>
+        <v>104</v>
       </c>
       <c r="I13" t="s">
-        <v>843</v>
+        <v>830</v>
       </c>
       <c r="J13" t="s">
-        <v>296</v>
+        <v>105</v>
       </c>
       <c r="K13" t="s">
-        <v>297</v>
+        <v>102</v>
       </c>
       <c r="L13" t="s">
-        <v>887</v>
+        <v>871</v>
       </c>
       <c r="M13" t="s">
-        <v>298</v>
+        <v>106</v>
       </c>
       <c r="N13" t="s">
-        <v>299</v>
+        <v>107</v>
       </c>
       <c r="R13" t="s">
-        <v>946</v>
+        <v>927</v>
       </c>
       <c r="S13" t="s">
-        <v>300</v>
+        <v>108</v>
       </c>
       <c r="T13" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>110</v>
+        <v>264</v>
       </c>
       <c r="B14" t="s">
-        <v>671</v>
+        <v>677</v>
       </c>
       <c r="C14" t="s">
-        <v>700</v>
+        <v>716</v>
       </c>
       <c r="D14" t="s">
-        <v>111</v>
+        <v>265</v>
       </c>
       <c r="E14" t="s">
-        <v>112</v>
+        <v>266</v>
       </c>
       <c r="F14" t="s">
-        <v>769</v>
+        <v>784</v>
       </c>
       <c r="G14" t="s">
-        <v>113</v>
+        <v>267</v>
       </c>
       <c r="H14" t="s">
-        <v>114</v>
+        <v>268</v>
       </c>
       <c r="I14" t="s">
-        <v>831</v>
+        <v>716</v>
       </c>
       <c r="J14" t="s">
-        <v>115</v>
+        <v>265</v>
       </c>
       <c r="K14" t="s">
-        <v>112</v>
+        <v>266</v>
       </c>
       <c r="L14" t="s">
-        <v>872</v>
+        <v>885</v>
       </c>
       <c r="M14" t="s">
-        <v>116</v>
+        <v>269</v>
       </c>
       <c r="N14" t="s">
-        <v>117</v>
+        <v>270</v>
       </c>
       <c r="R14" t="s">
-        <v>928</v>
+        <v>943</v>
       </c>
       <c r="S14" t="s">
-        <v>118</v>
+        <v>271</v>
       </c>
       <c r="T14" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>302</v>
+        <v>120</v>
       </c>
       <c r="B15" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="C15" t="s">
-        <v>720</v>
+        <v>701</v>
       </c>
       <c r="D15" t="s">
-        <v>303</v>
+        <v>121</v>
       </c>
       <c r="E15" t="s">
-        <v>304</v>
+        <v>122</v>
       </c>
       <c r="F15" t="s">
-        <v>788</v>
+        <v>770</v>
       </c>
       <c r="G15" t="s">
-        <v>305</v>
+        <v>123</v>
       </c>
       <c r="H15" t="s">
-        <v>306</v>
+        <v>124</v>
       </c>
       <c r="I15" t="s">
-        <v>720</v>
+        <v>832</v>
       </c>
       <c r="J15" t="s">
-        <v>303</v>
+        <v>125</v>
       </c>
       <c r="K15" t="s">
-        <v>304</v>
+        <v>122</v>
       </c>
       <c r="L15" t="s">
-        <v>865</v>
+        <v>873</v>
       </c>
       <c r="M15" t="s">
-        <v>307</v>
+        <v>126</v>
       </c>
       <c r="N15" t="s">
-        <v>308</v>
+        <v>127</v>
       </c>
       <c r="R15" t="s">
-        <v>947</v>
+        <v>929</v>
       </c>
       <c r="S15" t="s">
-        <v>309</v>
+        <v>128</v>
       </c>
       <c r="T15" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>500</v>
+        <v>491</v>
       </c>
       <c r="B16" t="s">
         <v>671</v>
       </c>
       <c r="C16" t="s">
-        <v>741</v>
+        <v>492</v>
       </c>
       <c r="D16" t="s">
-        <v>501</v>
+        <v>492</v>
       </c>
       <c r="E16" t="s">
-        <v>502</v>
+        <v>493</v>
+      </c>
+      <c r="F16" t="s">
+        <v>809</v>
+      </c>
+      <c r="G16" t="s">
+        <v>494</v>
+      </c>
+      <c r="H16" t="s">
+        <v>495</v>
       </c>
       <c r="I16" t="s">
-        <v>741</v>
+        <v>492</v>
       </c>
       <c r="J16" t="s">
-        <v>501</v>
+        <v>492</v>
       </c>
       <c r="K16" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
+        <v>493</v>
+      </c>
+      <c r="L16" t="s">
+        <v>907</v>
+      </c>
+      <c r="M16" t="s">
+        <v>496</v>
+      </c>
+      <c r="N16" t="s">
+        <v>497</v>
+      </c>
+      <c r="R16" t="s">
+        <v>958</v>
+      </c>
+      <c r="S16" t="s">
+        <v>498</v>
+      </c>
+      <c r="T16" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>138</v>
+        <v>453</v>
       </c>
       <c r="B17" t="s">
-        <v>671</v>
+        <v>683</v>
       </c>
       <c r="C17" t="s">
-        <v>703</v>
+        <v>737</v>
       </c>
       <c r="D17" t="s">
-        <v>139</v>
+        <v>454</v>
       </c>
       <c r="E17" t="s">
-        <v>140</v>
+        <v>455</v>
       </c>
       <c r="F17" t="s">
-        <v>771</v>
+        <v>805</v>
       </c>
       <c r="G17" t="s">
-        <v>141</v>
+        <v>456</v>
       </c>
       <c r="H17" t="s">
-        <v>142</v>
+        <v>457</v>
       </c>
       <c r="I17" t="s">
-        <v>834</v>
+        <v>737</v>
       </c>
       <c r="J17" t="s">
-        <v>143</v>
+        <v>454</v>
       </c>
       <c r="K17" t="s">
-        <v>140</v>
+        <v>455</v>
       </c>
       <c r="L17" t="s">
-        <v>874</v>
+        <v>903</v>
       </c>
       <c r="M17" t="s">
-        <v>144</v>
+        <v>458</v>
       </c>
       <c r="N17" t="s">
-        <v>145</v>
+        <v>459</v>
       </c>
       <c r="R17" t="s">
-        <v>931</v>
+        <v>955</v>
       </c>
       <c r="S17" t="s">
-        <v>146</v>
+        <v>460</v>
       </c>
       <c r="T17" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>148</v>
+        <v>201</v>
       </c>
       <c r="B18" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="C18" t="s">
-        <v>704</v>
+        <v>709</v>
       </c>
       <c r="D18" t="s">
-        <v>149</v>
+        <v>202</v>
       </c>
       <c r="E18" t="s">
-        <v>150</v>
+        <v>203</v>
       </c>
       <c r="F18" t="s">
-        <v>772</v>
+        <v>777</v>
       </c>
       <c r="G18" t="s">
-        <v>151</v>
+        <v>204</v>
       </c>
       <c r="H18" t="s">
-        <v>152</v>
+        <v>205</v>
       </c>
       <c r="I18" t="s">
-        <v>835</v>
+        <v>840</v>
       </c>
       <c r="J18" t="s">
-        <v>149</v>
+        <v>206</v>
       </c>
       <c r="K18" t="s">
-        <v>150</v>
-      </c>
-      <c r="L18" t="s">
-        <v>875</v>
+        <v>207</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>880</v>
       </c>
       <c r="M18" t="s">
-        <v>153</v>
+        <v>208</v>
       </c>
       <c r="N18" t="s">
-        <v>154</v>
+        <v>209</v>
       </c>
       <c r="R18" t="s">
-        <v>932</v>
+        <v>937</v>
       </c>
       <c r="S18" t="s">
-        <v>155</v>
+        <v>210</v>
       </c>
       <c r="T18" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>157</v>
+        <v>512</v>
       </c>
       <c r="B19" t="s">
-        <v>671</v>
+        <v>685</v>
       </c>
       <c r="C19" t="s">
-        <v>705</v>
+        <v>743</v>
       </c>
       <c r="D19" t="s">
-        <v>158</v>
+        <v>513</v>
       </c>
       <c r="E19" t="s">
-        <v>159</v>
+        <v>514</v>
       </c>
       <c r="F19" t="s">
-        <v>773</v>
+        <v>811</v>
       </c>
       <c r="G19" t="s">
-        <v>160</v>
+        <v>515</v>
       </c>
       <c r="H19" t="s">
-        <v>161</v>
+        <v>516</v>
       </c>
       <c r="I19" t="s">
-        <v>836</v>
+        <v>848</v>
       </c>
       <c r="J19" t="s">
-        <v>162</v>
+        <v>517</v>
       </c>
       <c r="K19" t="s">
-        <v>163</v>
+        <v>518</v>
       </c>
       <c r="L19" t="s">
-        <v>876</v>
+        <v>909</v>
       </c>
       <c r="M19" t="s">
-        <v>164</v>
+        <v>519</v>
       </c>
       <c r="N19" t="s">
-        <v>165</v>
+        <v>520</v>
       </c>
       <c r="R19" t="s">
-        <v>933</v>
+        <v>960</v>
       </c>
       <c r="S19" t="s">
-        <v>166</v>
+        <v>521</v>
       </c>
       <c r="T19" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>480</v>
+        <v>228</v>
       </c>
       <c r="B20" t="s">
-        <v>671</v>
+        <v>676</v>
       </c>
       <c r="C20" t="s">
-        <v>740</v>
+        <v>712</v>
       </c>
       <c r="D20" t="s">
-        <v>481</v>
+        <v>229</v>
       </c>
       <c r="E20" t="s">
-        <v>482</v>
+        <v>230</v>
       </c>
       <c r="F20" t="s">
-        <v>808</v>
+        <v>780</v>
       </c>
       <c r="G20" t="s">
-        <v>483</v>
+        <v>231</v>
       </c>
       <c r="H20" t="s">
-        <v>484</v>
+        <v>232</v>
       </c>
       <c r="I20" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
       <c r="J20" t="s">
-        <v>485</v>
+        <v>229</v>
       </c>
       <c r="K20" t="s">
-        <v>486</v>
+        <v>230</v>
       </c>
       <c r="L20" t="s">
-        <v>906</v>
+        <v>881</v>
       </c>
       <c r="M20" t="s">
-        <v>487</v>
+        <v>233</v>
       </c>
       <c r="N20" t="s">
-        <v>488</v>
+        <v>234</v>
       </c>
       <c r="R20" t="s">
-        <v>957</v>
+        <v>939</v>
       </c>
       <c r="S20" t="s">
-        <v>489</v>
+        <v>235</v>
       </c>
       <c r="T20" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>168</v>
+        <v>654</v>
       </c>
       <c r="B21" t="s">
-        <v>671</v>
+        <v>691</v>
       </c>
       <c r="C21" t="s">
-        <v>706</v>
+        <v>758</v>
       </c>
       <c r="D21" t="s">
-        <v>169</v>
+        <v>655</v>
       </c>
       <c r="E21" t="s">
-        <v>170</v>
+        <v>656</v>
       </c>
       <c r="F21" t="s">
-        <v>774</v>
+        <v>825</v>
       </c>
       <c r="G21" t="s">
-        <v>171</v>
+        <v>657</v>
       </c>
       <c r="H21" t="s">
-        <v>172</v>
-      </c>
-      <c r="I21" t="s">
-        <v>837</v>
-      </c>
-      <c r="J21" t="s">
-        <v>173</v>
-      </c>
-      <c r="K21" t="s">
-        <v>174</v>
+        <v>658</v>
       </c>
       <c r="L21" t="s">
-        <v>877</v>
+        <v>917</v>
       </c>
       <c r="M21" t="s">
-        <v>175</v>
+        <v>659</v>
       </c>
       <c r="N21" t="s">
-        <v>176</v>
+        <v>660</v>
       </c>
       <c r="R21" t="s">
-        <v>934</v>
+        <v>1157</v>
       </c>
       <c r="S21" t="s">
-        <v>177</v>
+        <v>640</v>
       </c>
       <c r="T21" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>179</v>
+        <v>661</v>
       </c>
       <c r="B22" t="s">
-        <v>671</v>
+        <v>691</v>
       </c>
       <c r="C22" t="s">
-        <v>707</v>
+        <v>759</v>
       </c>
       <c r="D22" t="s">
-        <v>180</v>
+        <v>662</v>
       </c>
       <c r="E22" t="s">
-        <v>181</v>
+        <v>663</v>
       </c>
       <c r="F22" t="s">
-        <v>775</v>
+        <v>826</v>
       </c>
       <c r="G22" t="s">
-        <v>182</v>
+        <v>664</v>
       </c>
       <c r="H22" t="s">
-        <v>183</v>
-      </c>
-      <c r="I22" t="s">
-        <v>838</v>
-      </c>
-      <c r="J22" t="s">
-        <v>184</v>
-      </c>
-      <c r="K22" t="s">
-        <v>185</v>
+        <v>665</v>
       </c>
       <c r="L22" t="s">
-        <v>878</v>
+        <v>918</v>
       </c>
       <c r="M22" t="s">
-        <v>186</v>
+        <v>666</v>
       </c>
       <c r="N22" t="s">
-        <v>187</v>
+        <v>667</v>
       </c>
       <c r="R22" t="s">
-        <v>935</v>
+        <v>1157</v>
       </c>
       <c r="S22" t="s">
-        <v>188</v>
+        <v>640</v>
       </c>
       <c r="T22" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20" ht="42.75">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>584</v>
+        <v>328</v>
       </c>
       <c r="B23" t="s">
-        <v>671</v>
+        <v>966</v>
       </c>
       <c r="C23" t="s">
-        <v>699</v>
+        <v>988</v>
       </c>
       <c r="D23" t="s">
-        <v>101</v>
+        <v>988</v>
       </c>
       <c r="E23" t="s">
-        <v>102</v>
+        <v>329</v>
       </c>
       <c r="F23" t="s">
-        <v>818</v>
+        <v>992</v>
       </c>
       <c r="G23" t="s">
-        <v>585</v>
+        <v>969</v>
       </c>
       <c r="H23" t="s">
-        <v>586</v>
+        <v>970</v>
       </c>
       <c r="I23" t="s">
-        <v>853</v>
+        <v>997</v>
       </c>
       <c r="J23" t="s">
-        <v>587</v>
+        <v>330</v>
       </c>
       <c r="K23" t="s">
-        <v>588</v>
-      </c>
-      <c r="L23" s="2" t="s">
-        <v>913</v>
+        <v>329</v>
+      </c>
+      <c r="L23" t="s">
+        <v>1059</v>
       </c>
       <c r="M23" t="s">
-        <v>589</v>
+        <v>331</v>
       </c>
       <c r="N23" t="s">
-        <v>590</v>
-      </c>
-      <c r="O23" t="s">
-        <v>922</v>
-      </c>
-      <c r="P23" t="s">
-        <v>591</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
+        <v>332</v>
+      </c>
+      <c r="R23" t="s">
+        <v>1147</v>
+      </c>
+      <c r="S23" t="s">
+        <v>333</v>
+      </c>
+      <c r="T23" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>523</v>
+        <v>423</v>
       </c>
       <c r="B24" t="s">
-        <v>671</v>
+        <v>1027</v>
       </c>
       <c r="C24" t="s">
-        <v>744</v>
+        <v>1044</v>
       </c>
       <c r="D24" t="s">
-        <v>524</v>
+        <v>424</v>
       </c>
       <c r="E24" t="s">
-        <v>525</v>
+        <v>425</v>
       </c>
       <c r="F24" t="s">
-        <v>812</v>
+        <v>1051</v>
       </c>
       <c r="G24" t="s">
-        <v>526</v>
+        <v>1036</v>
       </c>
       <c r="H24" t="s">
-        <v>527</v>
+        <v>1037</v>
       </c>
       <c r="I24" t="s">
-        <v>849</v>
+        <v>1044</v>
       </c>
       <c r="J24" t="s">
-        <v>528</v>
+        <v>424</v>
       </c>
       <c r="K24" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
+        <v>425</v>
+      </c>
+      <c r="L24" t="s">
+        <v>1057</v>
+      </c>
+      <c r="M24" t="s">
+        <v>428</v>
+      </c>
+      <c r="N24" t="s">
+        <v>429</v>
+      </c>
+      <c r="R24" t="s">
+        <v>1153</v>
+      </c>
+      <c r="S24" t="s">
+        <v>430</v>
+      </c>
+      <c r="T24" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>491</v>
+        <v>371</v>
       </c>
       <c r="B25" t="s">
         <v>671</v>
       </c>
       <c r="C25" t="s">
-        <v>492</v>
+        <v>727</v>
       </c>
       <c r="D25" t="s">
-        <v>492</v>
+        <v>372</v>
       </c>
       <c r="E25" t="s">
-        <v>493</v>
+        <v>373</v>
       </c>
       <c r="F25" t="s">
-        <v>809</v>
+        <v>795</v>
       </c>
       <c r="G25" t="s">
-        <v>494</v>
+        <v>374</v>
       </c>
       <c r="H25" t="s">
-        <v>495</v>
+        <v>375</v>
       </c>
       <c r="I25" t="s">
-        <v>492</v>
+        <v>727</v>
       </c>
       <c r="J25" t="s">
-        <v>492</v>
+        <v>372</v>
       </c>
       <c r="K25" t="s">
-        <v>493</v>
+        <v>373</v>
       </c>
       <c r="L25" t="s">
-        <v>907</v>
+        <v>893</v>
       </c>
       <c r="M25" t="s">
-        <v>496</v>
+        <v>376</v>
       </c>
       <c r="N25" t="s">
-        <v>497</v>
+        <v>377</v>
       </c>
       <c r="R25" t="s">
-        <v>958</v>
+        <v>951</v>
       </c>
       <c r="S25" t="s">
-        <v>498</v>
+        <v>378</v>
       </c>
       <c r="T25" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>354</v>
+        <v>480</v>
       </c>
       <c r="B26" t="s">
         <v>671</v>
       </c>
       <c r="C26" t="s">
-        <v>725</v>
+        <v>740</v>
       </c>
       <c r="D26" t="s">
-        <v>355</v>
+        <v>481</v>
       </c>
       <c r="E26" t="s">
-        <v>356</v>
+        <v>482</v>
       </c>
       <c r="F26" t="s">
-        <v>793</v>
+        <v>808</v>
       </c>
       <c r="G26" t="s">
-        <v>357</v>
+        <v>483</v>
       </c>
       <c r="H26" t="s">
-        <v>358</v>
+        <v>484</v>
       </c>
       <c r="I26" t="s">
-        <v>725</v>
+        <v>847</v>
       </c>
       <c r="J26" t="s">
-        <v>359</v>
+        <v>485</v>
       </c>
       <c r="K26" t="s">
-        <v>356</v>
+        <v>486</v>
       </c>
       <c r="L26" t="s">
-        <v>891</v>
+        <v>906</v>
       </c>
       <c r="M26" t="s">
-        <v>360</v>
+        <v>487</v>
       </c>
       <c r="N26" t="s">
-        <v>361</v>
+        <v>488</v>
       </c>
       <c r="R26" t="s">
-        <v>950</v>
+        <v>957</v>
       </c>
       <c r="S26" t="s">
-        <v>362</v>
+        <v>489</v>
       </c>
       <c r="T26" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>423</v>
+        <v>190</v>
       </c>
       <c r="B27" t="s">
-        <v>671</v>
+        <v>674</v>
       </c>
       <c r="C27" t="s">
-        <v>733</v>
+        <v>708</v>
       </c>
       <c r="D27" t="s">
-        <v>424</v>
+        <v>191</v>
       </c>
       <c r="E27" t="s">
-        <v>425</v>
+        <v>192</v>
       </c>
       <c r="F27" t="s">
-        <v>801</v>
+        <v>776</v>
       </c>
       <c r="G27" t="s">
-        <v>426</v>
+        <v>193</v>
       </c>
       <c r="H27" t="s">
-        <v>427</v>
+        <v>194</v>
       </c>
       <c r="I27" t="s">
-        <v>733</v>
+        <v>839</v>
       </c>
       <c r="J27" t="s">
-        <v>424</v>
+        <v>195</v>
       </c>
       <c r="K27" t="s">
-        <v>425</v>
+        <v>196</v>
       </c>
       <c r="L27" t="s">
-        <v>899</v>
+        <v>879</v>
       </c>
       <c r="M27" t="s">
-        <v>428</v>
+        <v>197</v>
       </c>
       <c r="N27" t="s">
-        <v>429</v>
+        <v>198</v>
       </c>
       <c r="R27" t="s">
-        <v>953</v>
+        <v>936</v>
       </c>
       <c r="S27" t="s">
-        <v>430</v>
+        <v>199</v>
       </c>
       <c r="T27" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>534</v>
+        <v>138</v>
       </c>
       <c r="B28" t="s">
         <v>671</v>
       </c>
       <c r="C28" t="s">
-        <v>696</v>
+        <v>703</v>
       </c>
       <c r="D28" t="s">
-        <v>535</v>
+        <v>139</v>
       </c>
       <c r="E28" t="s">
-        <v>536</v>
+        <v>140</v>
       </c>
       <c r="F28" t="s">
-        <v>813</v>
+        <v>771</v>
       </c>
       <c r="G28" t="s">
-        <v>537</v>
+        <v>141</v>
       </c>
       <c r="H28" t="s">
-        <v>538</v>
+        <v>142</v>
       </c>
       <c r="I28" t="s">
-        <v>696</v>
+        <v>834</v>
       </c>
       <c r="J28" t="s">
-        <v>535</v>
+        <v>143</v>
       </c>
       <c r="K28" t="s">
-        <v>536</v>
+        <v>140</v>
       </c>
       <c r="L28" t="s">
-        <v>910</v>
+        <v>874</v>
       </c>
       <c r="M28" t="s">
-        <v>539</v>
+        <v>144</v>
       </c>
       <c r="N28" t="s">
-        <v>540</v>
+        <v>145</v>
       </c>
       <c r="R28" t="s">
-        <v>961</v>
+        <v>931</v>
       </c>
       <c r="S28" t="s">
-        <v>541</v>
+        <v>146</v>
       </c>
       <c r="T28" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>364</v>
+        <v>179</v>
       </c>
       <c r="B29" t="s">
         <v>671</v>
       </c>
       <c r="C29" t="s">
-        <v>726</v>
+        <v>707</v>
       </c>
       <c r="D29" t="s">
-        <v>365</v>
+        <v>180</v>
       </c>
       <c r="E29" t="s">
-        <v>366</v>
+        <v>181</v>
       </c>
       <c r="F29" t="s">
-        <v>794</v>
+        <v>775</v>
       </c>
       <c r="G29" t="s">
-        <v>367</v>
+        <v>182</v>
       </c>
       <c r="H29" t="s">
-        <v>368</v>
+        <v>183</v>
       </c>
       <c r="I29" t="s">
-        <v>726</v>
+        <v>838</v>
       </c>
       <c r="J29" t="s">
-        <v>365</v>
+        <v>184</v>
       </c>
       <c r="K29" t="s">
-        <v>366</v>
+        <v>185</v>
       </c>
       <c r="L29" t="s">
-        <v>892</v>
+        <v>878</v>
       </c>
       <c r="M29" t="s">
-        <v>369</v>
+        <v>186</v>
       </c>
       <c r="N29" t="s">
-        <v>370</v>
+        <v>187</v>
       </c>
       <c r="R29" t="s">
-        <v>954</v>
+        <v>935</v>
       </c>
       <c r="S29" t="s">
-        <v>309</v>
+        <v>188</v>
       </c>
       <c r="T29" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>371</v>
+        <v>354</v>
       </c>
       <c r="B30" t="s">
         <v>671</v>
       </c>
       <c r="C30" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="D30" t="s">
-        <v>372</v>
+        <v>355</v>
       </c>
       <c r="E30" t="s">
-        <v>373</v>
+        <v>356</v>
       </c>
       <c r="F30" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="G30" t="s">
-        <v>374</v>
+        <v>357</v>
       </c>
       <c r="H30" t="s">
-        <v>375</v>
+        <v>358</v>
       </c>
       <c r="I30" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="J30" t="s">
-        <v>372</v>
+        <v>359</v>
       </c>
       <c r="K30" t="s">
-        <v>373</v>
+        <v>356</v>
       </c>
       <c r="L30" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="M30" t="s">
-        <v>376</v>
+        <v>360</v>
       </c>
       <c r="N30" t="s">
-        <v>377</v>
+        <v>361</v>
       </c>
       <c r="R30" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="S30" t="s">
-        <v>378</v>
+        <v>362</v>
       </c>
       <c r="T30" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>593</v>
+        <v>82</v>
       </c>
       <c r="B31" t="s">
         <v>671</v>
       </c>
       <c r="C31" t="s">
-        <v>749</v>
+        <v>697</v>
       </c>
       <c r="D31" t="s">
-        <v>594</v>
+        <v>83</v>
       </c>
       <c r="E31" t="s">
-        <v>595</v>
+        <v>84</v>
+      </c>
+      <c r="F31" t="s">
+        <v>766</v>
+      </c>
+      <c r="G31" t="s">
+        <v>85</v>
+      </c>
+      <c r="H31" t="s">
+        <v>86</v>
       </c>
       <c r="I31" t="s">
-        <v>854</v>
+        <v>829</v>
       </c>
       <c r="J31" t="s">
-        <v>596</v>
+        <v>83</v>
       </c>
       <c r="K31" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20">
+        <v>84</v>
+      </c>
+      <c r="L31" t="s">
+        <v>869</v>
+      </c>
+      <c r="M31" t="s">
+        <v>87</v>
+      </c>
+      <c r="N31" t="s">
+        <v>88</v>
+      </c>
+      <c r="R31" t="s">
+        <v>925</v>
+      </c>
+      <c r="S31" t="s">
+        <v>89</v>
+      </c>
+      <c r="T31" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>212</v>
+        <v>318</v>
       </c>
       <c r="B32" t="s">
-        <v>671</v>
+        <v>678</v>
       </c>
       <c r="C32" t="s">
-        <v>710</v>
+        <v>721</v>
       </c>
       <c r="D32" t="s">
-        <v>213</v>
+        <v>319</v>
       </c>
       <c r="E32" t="s">
-        <v>214</v>
+        <v>320</v>
       </c>
       <c r="F32" t="s">
-        <v>778</v>
+        <v>789</v>
       </c>
       <c r="G32" t="s">
-        <v>215</v>
+        <v>321</v>
       </c>
       <c r="H32" t="s">
-        <v>216</v>
+        <v>322</v>
       </c>
       <c r="I32" t="s">
-        <v>710</v>
+        <v>844</v>
       </c>
       <c r="J32" t="s">
-        <v>213</v>
+        <v>323</v>
       </c>
       <c r="K32" t="s">
-        <v>214</v>
+        <v>320</v>
       </c>
       <c r="L32" t="s">
-        <v>863</v>
+        <v>888</v>
       </c>
       <c r="M32" t="s">
-        <v>217</v>
+        <v>324</v>
       </c>
       <c r="N32" t="s">
-        <v>218</v>
+        <v>325</v>
       </c>
       <c r="R32" t="s">
-        <v>938</v>
+        <v>948</v>
       </c>
       <c r="S32" t="s">
-        <v>219</v>
+        <v>326</v>
       </c>
       <c r="T32" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>598</v>
+        <v>423</v>
       </c>
       <c r="B33" t="s">
         <v>671</v>
       </c>
       <c r="C33" t="s">
-        <v>750</v>
+        <v>733</v>
       </c>
       <c r="D33" t="s">
-        <v>599</v>
+        <v>424</v>
       </c>
       <c r="E33" t="s">
-        <v>600</v>
+        <v>425</v>
+      </c>
+      <c r="F33" t="s">
+        <v>801</v>
+      </c>
+      <c r="G33" t="s">
+        <v>426</v>
+      </c>
+      <c r="H33" t="s">
+        <v>427</v>
       </c>
       <c r="I33" t="s">
-        <v>855</v>
+        <v>733</v>
       </c>
       <c r="J33" t="s">
-        <v>601</v>
+        <v>424</v>
       </c>
       <c r="K33" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20">
+        <v>425</v>
+      </c>
+      <c r="L33" t="s">
+        <v>899</v>
+      </c>
+      <c r="M33" t="s">
+        <v>428</v>
+      </c>
+      <c r="N33" t="s">
+        <v>429</v>
+      </c>
+      <c r="R33" t="s">
+        <v>953</v>
+      </c>
+      <c r="S33" t="s">
+        <v>430</v>
+      </c>
+      <c r="T33" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>603</v>
+        <v>255</v>
       </c>
       <c r="B34" t="s">
-        <v>671</v>
+        <v>677</v>
       </c>
       <c r="C34" t="s">
-        <v>751</v>
+        <v>715</v>
       </c>
       <c r="D34" t="s">
-        <v>604</v>
+        <v>256</v>
       </c>
       <c r="E34" t="s">
-        <v>605</v>
+        <v>257</v>
       </c>
       <c r="F34" t="s">
-        <v>819</v>
+        <v>783</v>
       </c>
       <c r="G34" t="s">
-        <v>606</v>
+        <v>258</v>
       </c>
       <c r="H34" t="s">
-        <v>607</v>
+        <v>259</v>
       </c>
       <c r="I34" t="s">
-        <v>856</v>
+        <v>715</v>
       </c>
       <c r="J34" t="s">
-        <v>608</v>
+        <v>256</v>
       </c>
       <c r="K34" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20">
+        <v>257</v>
+      </c>
+      <c r="L34" t="s">
+        <v>884</v>
+      </c>
+      <c r="M34" t="s">
+        <v>260</v>
+      </c>
+      <c r="N34" t="s">
+        <v>261</v>
+      </c>
+      <c r="R34" t="s">
+        <v>942</v>
+      </c>
+      <c r="S34" t="s">
+        <v>262</v>
+      </c>
+      <c r="T34" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>610</v>
+        <v>649</v>
       </c>
       <c r="B35" t="s">
-        <v>671</v>
+        <v>690</v>
       </c>
       <c r="C35" t="s">
-        <v>611</v>
+        <v>757</v>
       </c>
       <c r="D35" t="s">
-        <v>611</v>
+        <v>650</v>
       </c>
       <c r="E35" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20">
+        <v>651</v>
+      </c>
+      <c r="F35" t="s">
+        <v>824</v>
+      </c>
+      <c r="G35" t="s">
+        <v>652</v>
+      </c>
+      <c r="H35" t="s">
+        <v>653</v>
+      </c>
+      <c r="L35" t="s">
+        <v>916</v>
+      </c>
+      <c r="M35" t="s">
+        <v>647</v>
+      </c>
+      <c r="N35" t="s">
+        <v>648</v>
+      </c>
+      <c r="R35" t="s">
+        <v>963</v>
+      </c>
+      <c r="S35" t="s">
+        <v>640</v>
+      </c>
+      <c r="T35" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>613</v>
+        <v>642</v>
       </c>
       <c r="B36" t="s">
-        <v>671</v>
+        <v>690</v>
       </c>
       <c r="C36" t="s">
-        <v>752</v>
+        <v>756</v>
       </c>
       <c r="D36" t="s">
-        <v>614</v>
+        <v>643</v>
       </c>
       <c r="E36" t="s">
-        <v>615</v>
-      </c>
-      <c r="I36" t="s">
-        <v>857</v>
-      </c>
-      <c r="J36" t="s">
-        <v>616</v>
-      </c>
-      <c r="K36" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20">
+        <v>644</v>
+      </c>
+      <c r="F36" t="s">
+        <v>823</v>
+      </c>
+      <c r="G36" t="s">
+        <v>645</v>
+      </c>
+      <c r="H36" t="s">
+        <v>646</v>
+      </c>
+      <c r="L36" t="s">
+        <v>916</v>
+      </c>
+      <c r="M36" t="s">
+        <v>647</v>
+      </c>
+      <c r="N36" t="s">
+        <v>648</v>
+      </c>
+      <c r="R36" t="s">
+        <v>963</v>
+      </c>
+      <c r="S36" t="s">
+        <v>640</v>
+      </c>
+      <c r="T36" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>380</v>
+        <v>633</v>
       </c>
       <c r="B37" t="s">
-        <v>668</v>
+        <v>690</v>
       </c>
       <c r="C37" t="s">
-        <v>728</v>
+        <v>755</v>
       </c>
       <c r="D37" t="s">
-        <v>381</v>
+        <v>634</v>
       </c>
       <c r="E37" t="s">
-        <v>382</v>
+        <v>635</v>
       </c>
       <c r="F37" t="s">
-        <v>796</v>
+        <v>822</v>
       </c>
       <c r="G37" t="s">
-        <v>383</v>
+        <v>636</v>
       </c>
       <c r="H37" t="s">
-        <v>384</v>
-      </c>
-      <c r="I37" t="s">
-        <v>728</v>
-      </c>
-      <c r="J37" t="s">
-        <v>381</v>
-      </c>
-      <c r="K37" t="s">
-        <v>382</v>
+        <v>637</v>
       </c>
       <c r="L37" t="s">
-        <v>894</v>
+        <v>915</v>
       </c>
       <c r="M37" t="s">
-        <v>385</v>
+        <v>638</v>
       </c>
       <c r="N37" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="38" spans="1:20" ht="28.5">
+        <v>639</v>
+      </c>
+      <c r="R37" t="s">
+        <v>963</v>
+      </c>
+      <c r="S37" t="s">
+        <v>640</v>
+      </c>
+      <c r="T37" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>201</v>
+        <v>246</v>
       </c>
       <c r="B38" t="s">
         <v>668</v>
       </c>
       <c r="C38" t="s">
-        <v>709</v>
+        <v>714</v>
       </c>
       <c r="D38" t="s">
-        <v>202</v>
+        <v>247</v>
       </c>
       <c r="E38" t="s">
-        <v>203</v>
+        <v>248</v>
       </c>
       <c r="F38" t="s">
-        <v>777</v>
+        <v>782</v>
       </c>
       <c r="G38" t="s">
-        <v>204</v>
+        <v>249</v>
       </c>
       <c r="H38" t="s">
-        <v>205</v>
+        <v>250</v>
       </c>
       <c r="I38" t="s">
-        <v>840</v>
+        <v>714</v>
       </c>
       <c r="J38" t="s">
-        <v>206</v>
+        <v>247</v>
       </c>
       <c r="K38" t="s">
-        <v>207</v>
-      </c>
-      <c r="L38" s="2" t="s">
-        <v>880</v>
+        <v>248</v>
+      </c>
+      <c r="L38" t="s">
+        <v>883</v>
       </c>
       <c r="M38" t="s">
-        <v>208</v>
+        <v>251</v>
       </c>
       <c r="N38" t="s">
-        <v>209</v>
+        <v>252</v>
       </c>
       <c r="R38" t="s">
-        <v>937</v>
+        <v>941</v>
       </c>
       <c r="S38" t="s">
-        <v>210</v>
+        <v>253</v>
       </c>
       <c r="T38" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="39" spans="1:20">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
+        <v>31</v>
+      </c>
+      <c r="B39" t="s">
+        <v>669</v>
+      </c>
+      <c r="C39" t="s">
+        <v>693</v>
+      </c>
+      <c r="D39" t="s">
+        <v>32</v>
+      </c>
+      <c r="E39" t="s">
+        <v>33</v>
+      </c>
+      <c r="F39" t="s">
+        <v>761</v>
+      </c>
+      <c r="G39" t="s">
+        <v>34</v>
+      </c>
+      <c r="H39" t="s">
+        <v>35</v>
+      </c>
+      <c r="I39" t="s">
+        <v>693</v>
+      </c>
+      <c r="J39" t="s">
+        <v>32</v>
+      </c>
+      <c r="K39" t="s">
+        <v>33</v>
+      </c>
+      <c r="L39" t="s">
+        <v>861</v>
+      </c>
+      <c r="M39" t="s">
+        <v>36</v>
+      </c>
+      <c r="N39" t="s">
+        <v>37</v>
+      </c>
+      <c r="R39" t="s">
+        <v>924</v>
+      </c>
+      <c r="S39" t="s">
+        <v>38</v>
+      </c>
+      <c r="T39" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>20</v>
-      </c>
-      <c r="B39" t="s">
-        <v>668</v>
-      </c>
-      <c r="C39" t="s">
-        <v>692</v>
-      </c>
-      <c r="D39" t="s">
-        <v>21</v>
-      </c>
-      <c r="E39" t="s">
-        <v>22</v>
-      </c>
-      <c r="F39" t="s">
-        <v>760</v>
-      </c>
-      <c r="G39" t="s">
-        <v>23</v>
-      </c>
-      <c r="H39" t="s">
-        <v>24</v>
-      </c>
-      <c r="I39" t="s">
-        <v>692</v>
-      </c>
-      <c r="J39" t="s">
-        <v>25</v>
-      </c>
-      <c r="K39" t="s">
-        <v>26</v>
-      </c>
-      <c r="L39" t="s">
-        <v>860</v>
-      </c>
-      <c r="M39" t="s">
-        <v>27</v>
-      </c>
-      <c r="N39" t="s">
-        <v>28</v>
-      </c>
-      <c r="R39" t="s">
-        <v>923</v>
-      </c>
-      <c r="S39" t="s">
-        <v>29</v>
-      </c>
-      <c r="T39" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="40" spans="1:20">
-      <c r="A40" t="s">
-        <v>246</v>
       </c>
       <c r="B40" t="s">
         <v>668</v>
       </c>
       <c r="C40" t="s">
-        <v>714</v>
+        <v>692</v>
       </c>
       <c r="D40" t="s">
-        <v>247</v>
+        <v>21</v>
       </c>
       <c r="E40" t="s">
-        <v>248</v>
+        <v>22</v>
       </c>
       <c r="F40" t="s">
-        <v>782</v>
+        <v>760</v>
       </c>
       <c r="G40" t="s">
-        <v>249</v>
+        <v>23</v>
       </c>
       <c r="H40" t="s">
-        <v>250</v>
+        <v>24</v>
       </c>
       <c r="I40" t="s">
-        <v>714</v>
+        <v>692</v>
       </c>
       <c r="J40" t="s">
-        <v>247</v>
+        <v>25</v>
       </c>
       <c r="K40" t="s">
-        <v>248</v>
+        <v>26</v>
       </c>
       <c r="L40" t="s">
-        <v>883</v>
+        <v>860</v>
       </c>
       <c r="M40" t="s">
-        <v>251</v>
+        <v>27</v>
       </c>
       <c r="N40" t="s">
-        <v>252</v>
+        <v>28</v>
       </c>
       <c r="R40" t="s">
-        <v>941</v>
+        <v>923</v>
       </c>
       <c r="S40" t="s">
-        <v>253</v>
+        <v>29</v>
       </c>
       <c r="T40" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="41" spans="1:20">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
+        <v>168</v>
+      </c>
+      <c r="B41" t="s">
+        <v>671</v>
+      </c>
+      <c r="C41" t="s">
+        <v>706</v>
+      </c>
+      <c r="D41" t="s">
+        <v>169</v>
+      </c>
+      <c r="E41" t="s">
+        <v>170</v>
+      </c>
+      <c r="F41" t="s">
+        <v>774</v>
+      </c>
+      <c r="G41" t="s">
+        <v>171</v>
+      </c>
+      <c r="H41" t="s">
+        <v>172</v>
+      </c>
+      <c r="I41" t="s">
+        <v>837</v>
+      </c>
+      <c r="J41" t="s">
+        <v>173</v>
+      </c>
+      <c r="K41" t="s">
+        <v>174</v>
+      </c>
+      <c r="L41" t="s">
+        <v>877</v>
+      </c>
+      <c r="M41" t="s">
+        <v>175</v>
+      </c>
+      <c r="N41" t="s">
+        <v>176</v>
+      </c>
+      <c r="R41" t="s">
+        <v>934</v>
+      </c>
+      <c r="S41" t="s">
+        <v>177</v>
+      </c>
+      <c r="T41" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>130</v>
+      </c>
+      <c r="B42" t="s">
+        <v>671</v>
+      </c>
+      <c r="C42" t="s">
+        <v>702</v>
+      </c>
+      <c r="D42" t="s">
+        <v>131</v>
+      </c>
+      <c r="E42" t="s">
+        <v>132</v>
+      </c>
+      <c r="F42" t="s">
+        <v>769</v>
+      </c>
+      <c r="G42" t="s">
+        <v>113</v>
+      </c>
+      <c r="H42" t="s">
+        <v>114</v>
+      </c>
+      <c r="I42" t="s">
+        <v>833</v>
+      </c>
+      <c r="J42" t="s">
+        <v>133</v>
+      </c>
+      <c r="K42" t="s">
+        <v>132</v>
+      </c>
+      <c r="L42" t="s">
+        <v>862</v>
+      </c>
+      <c r="M42" t="s">
+        <v>134</v>
+      </c>
+      <c r="N42" t="s">
+        <v>135</v>
+      </c>
+      <c r="R42" t="s">
+        <v>930</v>
+      </c>
+      <c r="S42" t="s">
+        <v>136</v>
+      </c>
+      <c r="T42" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>110</v>
+      </c>
+      <c r="B43" t="s">
+        <v>671</v>
+      </c>
+      <c r="C43" t="s">
+        <v>700</v>
+      </c>
+      <c r="D43" t="s">
+        <v>111</v>
+      </c>
+      <c r="E43" t="s">
+        <v>112</v>
+      </c>
+      <c r="F43" t="s">
+        <v>769</v>
+      </c>
+      <c r="G43" t="s">
+        <v>113</v>
+      </c>
+      <c r="H43" t="s">
+        <v>114</v>
+      </c>
+      <c r="I43" t="s">
+        <v>831</v>
+      </c>
+      <c r="J43" t="s">
+        <v>115</v>
+      </c>
+      <c r="K43" t="s">
+        <v>112</v>
+      </c>
+      <c r="L43" t="s">
+        <v>872</v>
+      </c>
+      <c r="M43" t="s">
+        <v>116</v>
+      </c>
+      <c r="N43" t="s">
+        <v>117</v>
+      </c>
+      <c r="R43" t="s">
+        <v>928</v>
+      </c>
+      <c r="S43" t="s">
+        <v>118</v>
+      </c>
+      <c r="T43" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>91</v>
+      </c>
+      <c r="B44" t="s">
+        <v>671</v>
+      </c>
+      <c r="C44" t="s">
+        <v>698</v>
+      </c>
+      <c r="D44" t="s">
+        <v>92</v>
+      </c>
+      <c r="E44" t="s">
+        <v>93</v>
+      </c>
+      <c r="F44" t="s">
+        <v>767</v>
+      </c>
+      <c r="G44" t="s">
+        <v>94</v>
+      </c>
+      <c r="H44" t="s">
+        <v>95</v>
+      </c>
+      <c r="I44" t="s">
+        <v>698</v>
+      </c>
+      <c r="J44" t="s">
+        <v>92</v>
+      </c>
+      <c r="K44" t="s">
+        <v>93</v>
+      </c>
+      <c r="L44" t="s">
+        <v>870</v>
+      </c>
+      <c r="M44" t="s">
+        <v>96</v>
+      </c>
+      <c r="N44" t="s">
+        <v>97</v>
+      </c>
+      <c r="R44" t="s">
+        <v>926</v>
+      </c>
+      <c r="S44" t="s">
+        <v>98</v>
+      </c>
+      <c r="T44" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
         <v>621</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B45" t="s">
         <v>688</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C45" t="s">
         <v>753</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D45" t="s">
         <v>622</v>
       </c>
-      <c r="E41" t="s">
+      <c r="E45" t="s">
         <v>623</v>
       </c>
-      <c r="F41" t="s">
+      <c r="F45" t="s">
         <v>820</v>
       </c>
-      <c r="G41" t="s">
+      <c r="G45" t="s">
         <v>624</v>
       </c>
-      <c r="H41" t="s">
+      <c r="H45" t="s">
         <v>625</v>
       </c>
-      <c r="I41" t="s">
+      <c r="I45" t="s">
         <v>859</v>
       </c>
-      <c r="J41" t="s">
+      <c r="J45" t="s">
         <v>622</v>
       </c>
-      <c r="K41" t="s">
+      <c r="K45" t="s">
         <v>623</v>
       </c>
-      <c r="L41" t="s">
+      <c r="L45" t="s">
         <v>914</v>
       </c>
-      <c r="M41" t="s">
+      <c r="M45" t="s">
         <v>626</v>
       </c>
-      <c r="N41" t="s">
+      <c r="N45" t="s">
         <v>627</v>
       </c>
-      <c r="R41" t="s">
+      <c r="R45" t="s">
         <v>964</v>
       </c>
-      <c r="S41" t="s">
+      <c r="S45" t="s">
         <v>460</v>
       </c>
-      <c r="T41" t="s">
+      <c r="T45" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="42" spans="1:20">
-      <c r="A42" t="s">
-        <v>432</v>
-      </c>
-      <c r="B42" t="s">
-        <v>677</v>
-      </c>
-      <c r="C42" t="s">
-        <v>734</v>
-      </c>
-      <c r="D42" t="s">
-        <v>433</v>
-      </c>
-      <c r="E42" t="s">
-        <v>434</v>
-      </c>
-      <c r="F42" t="s">
-        <v>802</v>
-      </c>
-      <c r="G42" t="s">
-        <v>435</v>
-      </c>
-      <c r="H42" t="s">
-        <v>436</v>
-      </c>
-      <c r="I42" t="s">
-        <v>734</v>
-      </c>
-      <c r="J42" t="s">
-        <v>433</v>
-      </c>
-      <c r="K42" t="s">
-        <v>434</v>
-      </c>
-      <c r="L42" t="s">
-        <v>900</v>
-      </c>
-      <c r="M42" t="s">
-        <v>437</v>
-      </c>
-      <c r="N42" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="43" spans="1:20">
-      <c r="A43" t="s">
-        <v>416</v>
-      </c>
-      <c r="B43" t="s">
-        <v>677</v>
-      </c>
-      <c r="C43" t="s">
-        <v>417</v>
-      </c>
-      <c r="D43" t="s">
-        <v>417</v>
-      </c>
-      <c r="E43" t="s">
-        <v>418</v>
-      </c>
-      <c r="F43" t="s">
-        <v>800</v>
-      </c>
-      <c r="G43" t="s">
-        <v>419</v>
-      </c>
-      <c r="H43" t="s">
-        <v>420</v>
-      </c>
-      <c r="I43" t="s">
-        <v>417</v>
-      </c>
-      <c r="J43" t="s">
-        <v>417</v>
-      </c>
-      <c r="K43" t="s">
-        <v>418</v>
-      </c>
-      <c r="L43" t="s">
-        <v>898</v>
-      </c>
-      <c r="M43" t="s">
-        <v>421</v>
-      </c>
-      <c r="N43" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="44" spans="1:20">
-      <c r="A44" t="s">
-        <v>439</v>
-      </c>
-      <c r="B44" t="s">
-        <v>677</v>
-      </c>
-      <c r="C44" t="s">
-        <v>735</v>
-      </c>
-      <c r="D44" t="s">
-        <v>440</v>
-      </c>
-      <c r="E44" t="s">
-        <v>441</v>
-      </c>
-      <c r="F44" t="s">
-        <v>803</v>
-      </c>
-      <c r="G44" t="s">
-        <v>442</v>
-      </c>
-      <c r="H44" t="s">
-        <v>443</v>
-      </c>
-      <c r="I44" t="s">
-        <v>735</v>
-      </c>
-      <c r="J44" t="s">
-        <v>440</v>
-      </c>
-      <c r="K44" t="s">
-        <v>441</v>
-      </c>
-      <c r="L44" t="s">
-        <v>901</v>
-      </c>
-      <c r="M44" t="s">
-        <v>444</v>
-      </c>
-      <c r="N44" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="45" spans="1:20">
-      <c r="A45" t="s">
-        <v>462</v>
-      </c>
-      <c r="B45" t="s">
-        <v>677</v>
-      </c>
-      <c r="C45" t="s">
-        <v>738</v>
-      </c>
-      <c r="D45" t="s">
-        <v>463</v>
-      </c>
-      <c r="E45" t="s">
-        <v>464</v>
-      </c>
-      <c r="F45" t="s">
-        <v>806</v>
-      </c>
-      <c r="G45" t="s">
-        <v>465</v>
-      </c>
-      <c r="H45" t="s">
-        <v>466</v>
-      </c>
-      <c r="I45" t="s">
-        <v>738</v>
-      </c>
-      <c r="J45" t="s">
-        <v>463</v>
-      </c>
-      <c r="K45" t="s">
-        <v>464</v>
-      </c>
-      <c r="L45" t="s">
-        <v>904</v>
-      </c>
-      <c r="M45" t="s">
-        <v>467</v>
-      </c>
-      <c r="N45" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="46" spans="1:20">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>255</v>
+        <v>534</v>
       </c>
       <c r="B46" t="s">
-        <v>677</v>
+        <v>671</v>
       </c>
       <c r="C46" t="s">
-        <v>715</v>
+        <v>696</v>
       </c>
       <c r="D46" t="s">
-        <v>256</v>
+        <v>535</v>
       </c>
       <c r="E46" t="s">
-        <v>257</v>
+        <v>536</v>
       </c>
       <c r="F46" t="s">
-        <v>783</v>
+        <v>813</v>
       </c>
       <c r="G46" t="s">
-        <v>258</v>
+        <v>537</v>
       </c>
       <c r="H46" t="s">
-        <v>259</v>
+        <v>538</v>
       </c>
       <c r="I46" t="s">
-        <v>715</v>
+        <v>696</v>
       </c>
       <c r="J46" t="s">
-        <v>256</v>
+        <v>535</v>
       </c>
       <c r="K46" t="s">
-        <v>257</v>
+        <v>536</v>
       </c>
       <c r="L46" t="s">
-        <v>884</v>
+        <v>910</v>
       </c>
       <c r="M46" t="s">
-        <v>260</v>
+        <v>539</v>
       </c>
       <c r="N46" t="s">
-        <v>261</v>
+        <v>540</v>
       </c>
       <c r="R46" t="s">
-        <v>942</v>
+        <v>961</v>
       </c>
       <c r="S46" t="s">
-        <v>262</v>
+        <v>541</v>
       </c>
       <c r="T46" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="47" spans="1:20">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>264</v>
+        <v>148</v>
       </c>
       <c r="B47" t="s">
-        <v>677</v>
+        <v>671</v>
       </c>
       <c r="C47" t="s">
-        <v>716</v>
+        <v>704</v>
       </c>
       <c r="D47" t="s">
-        <v>265</v>
+        <v>149</v>
       </c>
       <c r="E47" t="s">
-        <v>266</v>
+        <v>150</v>
       </c>
       <c r="F47" t="s">
-        <v>784</v>
+        <v>772</v>
       </c>
       <c r="G47" t="s">
-        <v>267</v>
+        <v>151</v>
       </c>
       <c r="H47" t="s">
-        <v>268</v>
+        <v>152</v>
       </c>
       <c r="I47" t="s">
-        <v>716</v>
+        <v>835</v>
       </c>
       <c r="J47" t="s">
-        <v>265</v>
+        <v>149</v>
       </c>
       <c r="K47" t="s">
-        <v>266</v>
+        <v>150</v>
       </c>
       <c r="L47" t="s">
-        <v>885</v>
+        <v>875</v>
       </c>
       <c r="M47" t="s">
-        <v>269</v>
+        <v>153</v>
       </c>
       <c r="N47" t="s">
-        <v>270</v>
+        <v>154</v>
       </c>
       <c r="R47" t="s">
-        <v>943</v>
+        <v>932</v>
       </c>
       <c r="S47" t="s">
-        <v>271</v>
+        <v>155</v>
       </c>
       <c r="T47" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="48" spans="1:20">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>273</v>
+        <v>469</v>
       </c>
       <c r="B48" t="s">
-        <v>677</v>
+        <v>671</v>
       </c>
       <c r="C48" t="s">
-        <v>717</v>
+        <v>739</v>
       </c>
       <c r="D48" t="s">
-        <v>274</v>
+        <v>470</v>
       </c>
       <c r="E48" t="s">
-        <v>275</v>
+        <v>471</v>
       </c>
       <c r="F48" t="s">
-        <v>785</v>
+        <v>807</v>
       </c>
       <c r="G48" t="s">
-        <v>276</v>
+        <v>472</v>
       </c>
       <c r="H48" t="s">
-        <v>277</v>
+        <v>473</v>
       </c>
       <c r="I48" t="s">
-        <v>717</v>
+        <v>846</v>
       </c>
       <c r="J48" t="s">
-        <v>274</v>
+        <v>474</v>
       </c>
       <c r="K48" t="s">
-        <v>275</v>
+        <v>475</v>
       </c>
       <c r="L48" t="s">
-        <v>864</v>
+        <v>905</v>
       </c>
       <c r="M48" t="s">
-        <v>278</v>
+        <v>476</v>
       </c>
       <c r="N48" t="s">
-        <v>279</v>
+        <v>477</v>
       </c>
       <c r="R48" t="s">
-        <v>944</v>
+        <v>956</v>
       </c>
       <c r="S48" t="s">
-        <v>280</v>
+        <v>478</v>
       </c>
       <c r="T48" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="49" spans="1:20">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>282</v>
+        <v>503</v>
       </c>
       <c r="B49" t="s">
-        <v>677</v>
+        <v>671</v>
       </c>
       <c r="C49" t="s">
-        <v>718</v>
+        <v>742</v>
       </c>
       <c r="D49" t="s">
-        <v>283</v>
+        <v>504</v>
       </c>
       <c r="E49" t="s">
-        <v>284</v>
+        <v>505</v>
       </c>
       <c r="F49" t="s">
-        <v>786</v>
+        <v>810</v>
       </c>
       <c r="G49" t="s">
-        <v>285</v>
+        <v>506</v>
       </c>
       <c r="H49" t="s">
-        <v>286</v>
+        <v>507</v>
       </c>
       <c r="I49" t="s">
-        <v>718</v>
+        <v>742</v>
       </c>
       <c r="J49" t="s">
-        <v>283</v>
+        <v>504</v>
       </c>
       <c r="K49" t="s">
-        <v>284</v>
+        <v>505</v>
       </c>
       <c r="L49" t="s">
-        <v>886</v>
+        <v>908</v>
       </c>
       <c r="M49" t="s">
-        <v>287</v>
+        <v>508</v>
       </c>
       <c r="N49" t="s">
-        <v>288</v>
+        <v>509</v>
       </c>
       <c r="R49" t="s">
-        <v>945</v>
+        <v>959</v>
       </c>
       <c r="S49" t="s">
-        <v>289</v>
+        <v>510</v>
       </c>
       <c r="T49" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="50" spans="1:20">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>628</v>
+        <v>237</v>
       </c>
       <c r="B50" t="s">
-        <v>689</v>
+        <v>676</v>
       </c>
       <c r="C50" t="s">
-        <v>754</v>
+        <v>713</v>
       </c>
       <c r="D50" t="s">
-        <v>629</v>
+        <v>238</v>
       </c>
       <c r="E50" t="s">
-        <v>630</v>
+        <v>239</v>
       </c>
       <c r="F50" t="s">
-        <v>821</v>
+        <v>781</v>
       </c>
       <c r="G50" t="s">
-        <v>631</v>
+        <v>240</v>
       </c>
       <c r="H50" t="s">
-        <v>632</v>
+        <v>241</v>
       </c>
       <c r="I50" t="s">
-        <v>754</v>
+        <v>713</v>
       </c>
       <c r="J50" t="s">
-        <v>629</v>
+        <v>238</v>
       </c>
       <c r="K50" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="51" spans="1:20">
+        <v>239</v>
+      </c>
+      <c r="L50" t="s">
+        <v>882</v>
+      </c>
+      <c r="M50" t="s">
+        <v>242</v>
+      </c>
+      <c r="N50" t="s">
+        <v>243</v>
+      </c>
+      <c r="R50" t="s">
+        <v>940</v>
+      </c>
+      <c r="S50" t="s">
+        <v>244</v>
+      </c>
+      <c r="T50" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>446</v>
+        <v>543</v>
       </c>
       <c r="B51" t="s">
-        <v>684</v>
+        <v>687</v>
       </c>
       <c r="C51" t="s">
-        <v>736</v>
+        <v>746</v>
       </c>
       <c r="D51" t="s">
-        <v>447</v>
+        <v>544</v>
       </c>
       <c r="E51" t="s">
-        <v>448</v>
+        <v>545</v>
       </c>
       <c r="F51" t="s">
-        <v>804</v>
+        <v>814</v>
       </c>
       <c r="G51" t="s">
-        <v>449</v>
+        <v>546</v>
       </c>
       <c r="H51" t="s">
-        <v>450</v>
+        <v>547</v>
       </c>
       <c r="I51" t="s">
-        <v>736</v>
+        <v>850</v>
       </c>
       <c r="J51" t="s">
-        <v>447</v>
+        <v>548</v>
       </c>
       <c r="K51" t="s">
-        <v>448</v>
+        <v>549</v>
       </c>
       <c r="L51" t="s">
-        <v>902</v>
+        <v>911</v>
       </c>
       <c r="M51" t="s">
-        <v>451</v>
+        <v>550</v>
       </c>
       <c r="N51" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="52" spans="1:20">
+        <v>551</v>
+      </c>
+      <c r="R51" t="s">
+        <v>962</v>
+      </c>
+      <c r="S51" t="s">
+        <v>552</v>
+      </c>
+      <c r="T51" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>190</v>
+        <v>157</v>
       </c>
       <c r="B52" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="C52" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="D52" t="s">
-        <v>191</v>
+        <v>158</v>
       </c>
       <c r="E52" t="s">
-        <v>192</v>
+        <v>159</v>
       </c>
       <c r="F52" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="G52" t="s">
-        <v>193</v>
+        <v>160</v>
       </c>
       <c r="H52" t="s">
-        <v>194</v>
+        <v>161</v>
       </c>
       <c r="I52" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="J52" t="s">
-        <v>195</v>
+        <v>162</v>
       </c>
       <c r="K52" t="s">
-        <v>196</v>
+        <v>163</v>
       </c>
       <c r="L52" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="M52" t="s">
-        <v>197</v>
+        <v>164</v>
       </c>
       <c r="N52" t="s">
-        <v>198</v>
+        <v>165</v>
       </c>
       <c r="R52" t="s">
-        <v>936</v>
+        <v>933</v>
       </c>
       <c r="S52" t="s">
-        <v>199</v>
+        <v>166</v>
       </c>
       <c r="T52" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="53" spans="1:20">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>397</v>
       </c>
@@ -6485,60 +6701,60 @@
         <v>405</v>
       </c>
     </row>
-    <row r="54" spans="1:20">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>453</v>
+        <v>413</v>
       </c>
       <c r="B54" t="s">
         <v>683</v>
       </c>
       <c r="C54" t="s">
-        <v>737</v>
+        <v>732</v>
       </c>
       <c r="D54" t="s">
-        <v>454</v>
+        <v>414</v>
       </c>
       <c r="E54" t="s">
-        <v>455</v>
+        <v>415</v>
       </c>
       <c r="F54" t="s">
-        <v>805</v>
+        <v>799</v>
       </c>
       <c r="G54" t="s">
-        <v>456</v>
+        <v>409</v>
       </c>
       <c r="H54" t="s">
-        <v>457</v>
+        <v>410</v>
       </c>
       <c r="I54" t="s">
-        <v>737</v>
+        <v>732</v>
       </c>
       <c r="J54" t="s">
-        <v>454</v>
+        <v>414</v>
       </c>
       <c r="K54" t="s">
-        <v>455</v>
+        <v>415</v>
       </c>
       <c r="L54" t="s">
-        <v>903</v>
+        <v>897</v>
       </c>
       <c r="M54" t="s">
-        <v>458</v>
+        <v>411</v>
       </c>
       <c r="N54" t="s">
-        <v>459</v>
+        <v>412</v>
       </c>
       <c r="R54" t="s">
-        <v>955</v>
+        <v>952</v>
       </c>
       <c r="S54" t="s">
-        <v>460</v>
+        <v>404</v>
       </c>
       <c r="T54" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="55" spans="1:20">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>406</v>
       </c>
@@ -6591,1929 +6807,1734 @@
         <v>405</v>
       </c>
     </row>
-    <row r="56" spans="1:20">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>413</v>
+        <v>302</v>
       </c>
       <c r="B56" t="s">
-        <v>683</v>
+        <v>671</v>
       </c>
       <c r="C56" t="s">
-        <v>732</v>
+        <v>720</v>
       </c>
       <c r="D56" t="s">
-        <v>414</v>
+        <v>303</v>
       </c>
       <c r="E56" t="s">
-        <v>415</v>
+        <v>304</v>
       </c>
       <c r="F56" t="s">
-        <v>799</v>
+        <v>788</v>
       </c>
       <c r="G56" t="s">
-        <v>409</v>
+        <v>305</v>
       </c>
       <c r="H56" t="s">
-        <v>410</v>
+        <v>306</v>
       </c>
       <c r="I56" t="s">
-        <v>732</v>
+        <v>720</v>
       </c>
       <c r="J56" t="s">
-        <v>414</v>
+        <v>303</v>
       </c>
       <c r="K56" t="s">
-        <v>415</v>
+        <v>304</v>
       </c>
       <c r="L56" t="s">
-        <v>897</v>
+        <v>865</v>
       </c>
       <c r="M56" t="s">
-        <v>411</v>
+        <v>307</v>
       </c>
       <c r="N56" t="s">
-        <v>412</v>
+        <v>308</v>
       </c>
       <c r="R56" t="s">
-        <v>952</v>
+        <v>947</v>
       </c>
       <c r="S56" t="s">
-        <v>404</v>
+        <v>309</v>
       </c>
       <c r="T56" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="57" spans="1:20">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>318</v>
+        <v>282</v>
       </c>
       <c r="B57" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C57" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="D57" t="s">
-        <v>319</v>
+        <v>283</v>
       </c>
       <c r="E57" t="s">
-        <v>320</v>
+        <v>284</v>
       </c>
       <c r="F57" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="G57" t="s">
-        <v>321</v>
+        <v>285</v>
       </c>
       <c r="H57" t="s">
-        <v>322</v>
+        <v>286</v>
       </c>
       <c r="I57" t="s">
-        <v>844</v>
+        <v>718</v>
       </c>
       <c r="J57" t="s">
-        <v>323</v>
+        <v>283</v>
       </c>
       <c r="K57" t="s">
-        <v>320</v>
+        <v>284</v>
       </c>
       <c r="L57" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="M57" t="s">
-        <v>324</v>
+        <v>287</v>
       </c>
       <c r="N57" t="s">
-        <v>325</v>
+        <v>288</v>
       </c>
       <c r="R57" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="S57" t="s">
-        <v>326</v>
+        <v>289</v>
       </c>
       <c r="T57" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="58" spans="1:20">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
+        <v>291</v>
+      </c>
+      <c r="B58" t="s">
+        <v>671</v>
+      </c>
+      <c r="C58" t="s">
+        <v>719</v>
+      </c>
+      <c r="D58" t="s">
+        <v>292</v>
+      </c>
+      <c r="E58" t="s">
+        <v>293</v>
+      </c>
+      <c r="F58" t="s">
+        <v>787</v>
+      </c>
+      <c r="G58" t="s">
+        <v>294</v>
+      </c>
+      <c r="H58" t="s">
+        <v>295</v>
+      </c>
+      <c r="I58" t="s">
+        <v>843</v>
+      </c>
+      <c r="J58" t="s">
+        <v>296</v>
+      </c>
+      <c r="K58" t="s">
+        <v>297</v>
+      </c>
+      <c r="L58" t="s">
+        <v>887</v>
+      </c>
+      <c r="M58" t="s">
+        <v>298</v>
+      </c>
+      <c r="N58" t="s">
+        <v>299</v>
+      </c>
+      <c r="R58" t="s">
+        <v>946</v>
+      </c>
+      <c r="S58" t="s">
+        <v>300</v>
+      </c>
+      <c r="T58" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>364</v>
+      </c>
+      <c r="B59" t="s">
+        <v>671</v>
+      </c>
+      <c r="C59" t="s">
+        <v>726</v>
+      </c>
+      <c r="D59" t="s">
+        <v>365</v>
+      </c>
+      <c r="E59" t="s">
+        <v>366</v>
+      </c>
+      <c r="F59" t="s">
+        <v>794</v>
+      </c>
+      <c r="G59" t="s">
+        <v>367</v>
+      </c>
+      <c r="H59" t="s">
+        <v>368</v>
+      </c>
+      <c r="I59" t="s">
+        <v>726</v>
+      </c>
+      <c r="J59" t="s">
+        <v>365</v>
+      </c>
+      <c r="K59" t="s">
+        <v>366</v>
+      </c>
+      <c r="L59" t="s">
+        <v>892</v>
+      </c>
+      <c r="M59" t="s">
+        <v>369</v>
+      </c>
+      <c r="N59" t="s">
+        <v>370</v>
+      </c>
+      <c r="R59" t="s">
+        <v>954</v>
+      </c>
+      <c r="S59" t="s">
+        <v>309</v>
+      </c>
+      <c r="T59" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B60" t="s">
+        <v>1079</v>
+      </c>
+      <c r="C60" t="s">
+        <v>1114</v>
+      </c>
+      <c r="D60" t="s">
+        <v>1080</v>
+      </c>
+      <c r="E60" t="s">
+        <v>1081</v>
+      </c>
+      <c r="F60" t="s">
+        <v>1121</v>
+      </c>
+      <c r="G60" t="s">
+        <v>400</v>
+      </c>
+      <c r="H60" t="s">
+        <v>401</v>
+      </c>
+      <c r="I60" t="s">
+        <v>1114</v>
+      </c>
+      <c r="J60" t="s">
+        <v>1080</v>
+      </c>
+      <c r="K60" t="s">
+        <v>1081</v>
+      </c>
+      <c r="L60" t="s">
+        <v>1169</v>
+      </c>
+      <c r="M60" t="s">
+        <v>1082</v>
+      </c>
+      <c r="N60" t="s">
+        <v>1083</v>
+      </c>
+      <c r="R60" t="s">
+        <v>1155</v>
+      </c>
+      <c r="S60" t="s">
+        <v>1084</v>
+      </c>
+      <c r="T60" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>387</v>
+      </c>
+      <c r="B61" t="s">
+        <v>682</v>
+      </c>
+      <c r="C61" t="s">
+        <v>729</v>
+      </c>
+      <c r="D61" t="s">
+        <v>388</v>
+      </c>
+      <c r="E61" t="s">
+        <v>389</v>
+      </c>
+      <c r="F61" t="s">
+        <v>797</v>
+      </c>
+      <c r="G61" t="s">
+        <v>390</v>
+      </c>
+      <c r="H61" t="s">
+        <v>391</v>
+      </c>
+      <c r="I61" t="s">
+        <v>729</v>
+      </c>
+      <c r="J61" t="s">
+        <v>392</v>
+      </c>
+      <c r="K61" t="s">
+        <v>389</v>
+      </c>
+      <c r="L61" t="s">
+        <v>895</v>
+      </c>
+      <c r="M61" t="s">
+        <v>393</v>
+      </c>
+      <c r="N61" t="s">
+        <v>394</v>
+      </c>
+      <c r="R61" t="s">
+        <v>1158</v>
+      </c>
+      <c r="S61" t="s">
+        <v>395</v>
+      </c>
+      <c r="T61" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>345</v>
+      </c>
+      <c r="B62" t="s">
+        <v>681</v>
+      </c>
+      <c r="C62" t="s">
+        <v>724</v>
+      </c>
+      <c r="D62" t="s">
+        <v>346</v>
+      </c>
+      <c r="E62" t="s">
+        <v>347</v>
+      </c>
+      <c r="F62" t="s">
+        <v>792</v>
+      </c>
+      <c r="G62" t="s">
+        <v>348</v>
+      </c>
+      <c r="H62" t="s">
+        <v>349</v>
+      </c>
+      <c r="I62" t="s">
+        <v>724</v>
+      </c>
+      <c r="J62" t="s">
+        <v>346</v>
+      </c>
+      <c r="K62" t="s">
+        <v>347</v>
+      </c>
+      <c r="L62" t="s">
+        <v>890</v>
+      </c>
+      <c r="M62" t="s">
+        <v>350</v>
+      </c>
+      <c r="N62" t="s">
+        <v>351</v>
+      </c>
+      <c r="R62" t="s">
+        <v>1160</v>
+      </c>
+      <c r="S62" t="s">
+        <v>352</v>
+      </c>
+      <c r="T62" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>311</v>
+      </c>
+      <c r="B63" t="s">
+        <v>966</v>
+      </c>
+      <c r="C63" t="s">
+        <v>987</v>
+      </c>
+      <c r="D63" t="s">
+        <v>987</v>
+      </c>
+      <c r="E63" t="s">
+        <v>313</v>
+      </c>
+      <c r="F63" t="s">
+        <v>991</v>
+      </c>
+      <c r="G63" t="s">
+        <v>967</v>
+      </c>
+      <c r="H63" t="s">
+        <v>968</v>
+      </c>
+      <c r="I63" t="s">
+        <v>996</v>
+      </c>
+      <c r="J63" t="s">
+        <v>312</v>
+      </c>
+      <c r="K63" t="s">
+        <v>313</v>
+      </c>
+      <c r="L63" t="s">
+        <v>1058</v>
+      </c>
+      <c r="M63" t="s">
+        <v>314</v>
+      </c>
+      <c r="N63" t="s">
+        <v>315</v>
+      </c>
+      <c r="R63" t="s">
+        <v>1146</v>
+      </c>
+      <c r="S63" t="s">
+        <v>316</v>
+      </c>
+      <c r="T63" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B64" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C64" t="s">
+        <v>1041</v>
+      </c>
+      <c r="D64" t="s">
+        <v>1015</v>
+      </c>
+      <c r="E64" t="s">
+        <v>1014</v>
+      </c>
+      <c r="F64" t="s">
+        <v>1048</v>
+      </c>
+      <c r="G64" t="s">
+        <v>1016</v>
+      </c>
+      <c r="H64" t="s">
+        <v>1017</v>
+      </c>
+      <c r="I64" t="s">
+        <v>1041</v>
+      </c>
+      <c r="J64" t="s">
+        <v>1015</v>
+      </c>
+      <c r="K64" t="s">
+        <v>1014</v>
+      </c>
+      <c r="L64" t="s">
+        <v>1054</v>
+      </c>
+      <c r="M64" t="s">
+        <v>1018</v>
+      </c>
+      <c r="N64" t="s">
+        <v>1019</v>
+      </c>
+      <c r="R64" t="s">
+        <v>1150</v>
+      </c>
+      <c r="S64" t="s">
+        <v>1020</v>
+      </c>
+      <c r="T64" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>212</v>
+      </c>
+      <c r="B65" t="s">
+        <v>671</v>
+      </c>
+      <c r="C65" t="s">
+        <v>710</v>
+      </c>
+      <c r="D65" t="s">
+        <v>213</v>
+      </c>
+      <c r="E65" t="s">
+        <v>214</v>
+      </c>
+      <c r="F65" t="s">
+        <v>778</v>
+      </c>
+      <c r="G65" t="s">
+        <v>215</v>
+      </c>
+      <c r="H65" t="s">
+        <v>216</v>
+      </c>
+      <c r="I65" t="s">
+        <v>710</v>
+      </c>
+      <c r="J65" t="s">
+        <v>213</v>
+      </c>
+      <c r="K65" t="s">
+        <v>214</v>
+      </c>
+      <c r="L65" t="s">
+        <v>863</v>
+      </c>
+      <c r="M65" t="s">
+        <v>217</v>
+      </c>
+      <c r="N65" t="s">
+        <v>218</v>
+      </c>
+      <c r="R65" t="s">
+        <v>938</v>
+      </c>
+      <c r="S65" t="s">
+        <v>219</v>
+      </c>
+      <c r="T65" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>273</v>
+      </c>
+      <c r="B66" t="s">
+        <v>677</v>
+      </c>
+      <c r="C66" t="s">
+        <v>717</v>
+      </c>
+      <c r="D66" t="s">
+        <v>274</v>
+      </c>
+      <c r="E66" t="s">
+        <v>275</v>
+      </c>
+      <c r="F66" t="s">
+        <v>785</v>
+      </c>
+      <c r="G66" t="s">
+        <v>276</v>
+      </c>
+      <c r="H66" t="s">
+        <v>277</v>
+      </c>
+      <c r="I66" t="s">
+        <v>717</v>
+      </c>
+      <c r="J66" t="s">
+        <v>274</v>
+      </c>
+      <c r="K66" t="s">
+        <v>275</v>
+      </c>
+      <c r="L66" t="s">
+        <v>864</v>
+      </c>
+      <c r="M66" t="s">
+        <v>278</v>
+      </c>
+      <c r="N66" t="s">
+        <v>279</v>
+      </c>
+      <c r="R66" t="s">
+        <v>944</v>
+      </c>
+      <c r="S66" t="s">
+        <v>280</v>
+      </c>
+      <c r="T66" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>971</v>
+      </c>
+      <c r="B67" t="s">
+        <v>966</v>
+      </c>
+      <c r="C67" t="s">
+        <v>989</v>
+      </c>
+      <c r="D67" t="s">
+        <v>989</v>
+      </c>
+      <c r="E67" t="s">
+        <v>973</v>
+      </c>
+      <c r="F67" t="s">
+        <v>993</v>
+      </c>
+      <c r="G67" t="s">
+        <v>974</v>
+      </c>
+      <c r="H67" t="s">
+        <v>975</v>
+      </c>
+      <c r="I67" t="s">
+        <v>1164</v>
+      </c>
+      <c r="J67" t="s">
+        <v>972</v>
+      </c>
+      <c r="K67" t="s">
+        <v>973</v>
+      </c>
+      <c r="L67" t="s">
+        <v>1060</v>
+      </c>
+      <c r="M67" t="s">
+        <v>976</v>
+      </c>
+      <c r="N67" t="s">
+        <v>977</v>
+      </c>
+      <c r="R67" t="s">
+        <v>1148</v>
+      </c>
+      <c r="S67" t="s">
+        <v>978</v>
+      </c>
+      <c r="T67" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="68" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>58</v>
+      </c>
+      <c r="B68" t="s">
+        <v>671</v>
+      </c>
+      <c r="C68" t="s">
+        <v>695</v>
+      </c>
+      <c r="D68" t="s">
+        <v>59</v>
+      </c>
+      <c r="E68" t="s">
+        <v>60</v>
+      </c>
+      <c r="F68" t="s">
+        <v>764</v>
+      </c>
+      <c r="G68" t="s">
+        <v>61</v>
+      </c>
+      <c r="H68" t="s">
+        <v>62</v>
+      </c>
+      <c r="I68" t="s">
+        <v>827</v>
+      </c>
+      <c r="J68" t="s">
+        <v>63</v>
+      </c>
+      <c r="K68" t="s">
+        <v>64</v>
+      </c>
+      <c r="L68" s="2" t="s">
+        <v>868</v>
+      </c>
+      <c r="M68" t="s">
+        <v>65</v>
+      </c>
+      <c r="N68" t="s">
+        <v>66</v>
+      </c>
+      <c r="O68" t="s">
+        <v>919</v>
+      </c>
+      <c r="P68" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q68" t="s">
+        <v>68</v>
+      </c>
+      <c r="R68" t="s">
+        <v>949</v>
+      </c>
+      <c r="S68" t="s">
+        <v>69</v>
+      </c>
+      <c r="T68" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>980</v>
+      </c>
+      <c r="B69" t="s">
+        <v>966</v>
+      </c>
+      <c r="C69" t="s">
+        <v>990</v>
+      </c>
+      <c r="D69" t="s">
+        <v>990</v>
+      </c>
+      <c r="E69" t="s">
+        <v>982</v>
+      </c>
+      <c r="F69" t="s">
+        <v>994</v>
+      </c>
+      <c r="G69" t="s">
+        <v>983</v>
+      </c>
+      <c r="H69" t="s">
+        <v>984</v>
+      </c>
+      <c r="I69" t="s">
+        <v>990</v>
+      </c>
+      <c r="J69" t="s">
+        <v>981</v>
+      </c>
+      <c r="K69" t="s">
+        <v>982</v>
+      </c>
+      <c r="L69" t="s">
+        <v>1061</v>
+      </c>
+      <c r="M69" t="s">
+        <v>985</v>
+      </c>
+      <c r="N69" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>221</v>
+      </c>
+      <c r="B70" t="s">
+        <v>675</v>
+      </c>
+      <c r="C70" t="s">
+        <v>711</v>
+      </c>
+      <c r="D70" t="s">
+        <v>222</v>
+      </c>
+      <c r="E70" t="s">
+        <v>223</v>
+      </c>
+      <c r="F70" t="s">
+        <v>779</v>
+      </c>
+      <c r="G70" t="s">
+        <v>224</v>
+      </c>
+      <c r="H70" t="s">
+        <v>225</v>
+      </c>
+      <c r="I70" t="s">
+        <v>841</v>
+      </c>
+      <c r="J70" t="s">
+        <v>222</v>
+      </c>
+      <c r="K70" t="s">
+        <v>223</v>
+      </c>
+      <c r="L70" t="s">
+        <v>965</v>
+      </c>
+      <c r="M70" t="s">
+        <v>226</v>
+      </c>
+      <c r="N70" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>432</v>
+      </c>
+      <c r="B71" t="s">
+        <v>677</v>
+      </c>
+      <c r="C71" t="s">
+        <v>734</v>
+      </c>
+      <c r="D71" t="s">
+        <v>433</v>
+      </c>
+      <c r="E71" t="s">
+        <v>434</v>
+      </c>
+      <c r="F71" t="s">
+        <v>802</v>
+      </c>
+      <c r="G71" t="s">
+        <v>435</v>
+      </c>
+      <c r="H71" t="s">
+        <v>436</v>
+      </c>
+      <c r="I71" t="s">
+        <v>734</v>
+      </c>
+      <c r="J71" t="s">
+        <v>433</v>
+      </c>
+      <c r="K71" t="s">
+        <v>434</v>
+      </c>
+      <c r="L71" t="s">
+        <v>900</v>
+      </c>
+      <c r="M71" t="s">
+        <v>437</v>
+      </c>
+      <c r="N71" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>416</v>
+      </c>
+      <c r="B72" t="s">
+        <v>677</v>
+      </c>
+      <c r="C72" t="s">
+        <v>417</v>
+      </c>
+      <c r="D72" t="s">
+        <v>417</v>
+      </c>
+      <c r="E72" t="s">
+        <v>418</v>
+      </c>
+      <c r="F72" t="s">
+        <v>800</v>
+      </c>
+      <c r="G72" t="s">
+        <v>419</v>
+      </c>
+      <c r="H72" t="s">
+        <v>420</v>
+      </c>
+      <c r="I72" t="s">
+        <v>417</v>
+      </c>
+      <c r="J72" t="s">
+        <v>417</v>
+      </c>
+      <c r="K72" t="s">
+        <v>418</v>
+      </c>
+      <c r="L72" t="s">
+        <v>898</v>
+      </c>
+      <c r="M72" t="s">
+        <v>421</v>
+      </c>
+      <c r="N72" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>71</v>
+      </c>
+      <c r="B73" t="s">
+        <v>672</v>
+      </c>
+      <c r="C73" t="s">
+        <v>696</v>
+      </c>
+      <c r="D73" t="s">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>73</v>
+      </c>
+      <c r="F73" t="s">
+        <v>765</v>
+      </c>
+      <c r="G73" t="s">
+        <v>74</v>
+      </c>
+      <c r="H73" t="s">
+        <v>75</v>
+      </c>
+      <c r="I73" t="s">
+        <v>828</v>
+      </c>
+      <c r="J73" t="s">
+        <v>76</v>
+      </c>
+      <c r="K73" t="s">
+        <v>77</v>
+      </c>
+      <c r="L73" s="2" t="s">
+        <v>889</v>
+      </c>
+      <c r="M73" t="s">
+        <v>78</v>
+      </c>
+      <c r="N73" t="s">
+        <v>79</v>
+      </c>
+      <c r="O73" t="s">
+        <v>920</v>
+      </c>
+      <c r="P73" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q73" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>462</v>
+      </c>
+      <c r="B74" t="s">
+        <v>677</v>
+      </c>
+      <c r="C74" t="s">
+        <v>738</v>
+      </c>
+      <c r="D74" t="s">
+        <v>463</v>
+      </c>
+      <c r="E74" t="s">
+        <v>464</v>
+      </c>
+      <c r="F74" t="s">
+        <v>806</v>
+      </c>
+      <c r="G74" t="s">
+        <v>465</v>
+      </c>
+      <c r="H74" t="s">
+        <v>466</v>
+      </c>
+      <c r="I74" t="s">
+        <v>738</v>
+      </c>
+      <c r="J74" t="s">
+        <v>463</v>
+      </c>
+      <c r="K74" t="s">
+        <v>464</v>
+      </c>
+      <c r="L74" t="s">
+        <v>904</v>
+      </c>
+      <c r="M74" t="s">
+        <v>467</v>
+      </c>
+      <c r="N74" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>439</v>
+      </c>
+      <c r="B75" t="s">
+        <v>677</v>
+      </c>
+      <c r="C75" t="s">
+        <v>735</v>
+      </c>
+      <c r="D75" t="s">
+        <v>440</v>
+      </c>
+      <c r="E75" t="s">
+        <v>441</v>
+      </c>
+      <c r="F75" t="s">
+        <v>803</v>
+      </c>
+      <c r="G75" t="s">
+        <v>442</v>
+      </c>
+      <c r="H75" t="s">
+        <v>443</v>
+      </c>
+      <c r="I75" t="s">
+        <v>735</v>
+      </c>
+      <c r="J75" t="s">
+        <v>440</v>
+      </c>
+      <c r="K75" t="s">
+        <v>441</v>
+      </c>
+      <c r="L75" t="s">
+        <v>901</v>
+      </c>
+      <c r="M75" t="s">
+        <v>444</v>
+      </c>
+      <c r="N75" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B76" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C76" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D76" t="s">
+        <v>1006</v>
+      </c>
+      <c r="E76" t="s">
+        <v>1007</v>
+      </c>
+      <c r="F76" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G76" t="s">
+        <v>1008</v>
+      </c>
+      <c r="H76" t="s">
+        <v>1009</v>
+      </c>
+      <c r="I76" t="s">
+        <v>1040</v>
+      </c>
+      <c r="J76" t="s">
+        <v>1006</v>
+      </c>
+      <c r="K76" t="s">
+        <v>1007</v>
+      </c>
+      <c r="L76" t="s">
+        <v>1053</v>
+      </c>
+      <c r="M76" t="s">
+        <v>1010</v>
+      </c>
+      <c r="N76" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>446</v>
+      </c>
+      <c r="B77" t="s">
+        <v>684</v>
+      </c>
+      <c r="C77" t="s">
+        <v>736</v>
+      </c>
+      <c r="D77" t="s">
+        <v>447</v>
+      </c>
+      <c r="E77" t="s">
+        <v>448</v>
+      </c>
+      <c r="F77" t="s">
+        <v>804</v>
+      </c>
+      <c r="G77" t="s">
+        <v>449</v>
+      </c>
+      <c r="H77" t="s">
+        <v>450</v>
+      </c>
+      <c r="I77" t="s">
+        <v>736</v>
+      </c>
+      <c r="J77" t="s">
+        <v>447</v>
+      </c>
+      <c r="K77" t="s">
+        <v>448</v>
+      </c>
+      <c r="L77" t="s">
+        <v>902</v>
+      </c>
+      <c r="M77" t="s">
+        <v>451</v>
+      </c>
+      <c r="N77" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>380</v>
+      </c>
+      <c r="B78" t="s">
+        <v>668</v>
+      </c>
+      <c r="C78" t="s">
+        <v>728</v>
+      </c>
+      <c r="D78" t="s">
+        <v>381</v>
+      </c>
+      <c r="E78" t="s">
+        <v>382</v>
+      </c>
+      <c r="F78" t="s">
+        <v>796</v>
+      </c>
+      <c r="G78" t="s">
+        <v>383</v>
+      </c>
+      <c r="H78" t="s">
+        <v>384</v>
+      </c>
+      <c r="I78" t="s">
+        <v>728</v>
+      </c>
+      <c r="J78" t="s">
+        <v>381</v>
+      </c>
+      <c r="K78" t="s">
+        <v>382</v>
+      </c>
+      <c r="L78" t="s">
+        <v>894</v>
+      </c>
+      <c r="M78" t="s">
+        <v>385</v>
+      </c>
+      <c r="N78" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>565</v>
+      </c>
+      <c r="B79" t="s">
+        <v>671</v>
+      </c>
+      <c r="C79" t="s">
+        <v>995</v>
+      </c>
+      <c r="D79" t="s">
+        <v>566</v>
+      </c>
+      <c r="E79" t="s">
+        <v>567</v>
+      </c>
+      <c r="F79" t="s">
+        <v>1000</v>
+      </c>
+      <c r="G79" t="s">
+        <v>568</v>
+      </c>
+      <c r="H79" t="s">
+        <v>569</v>
+      </c>
+      <c r="I79" t="s">
+        <v>998</v>
+      </c>
+      <c r="J79" t="s">
+        <v>570</v>
+      </c>
+      <c r="K79" t="s">
+        <v>571</v>
+      </c>
+      <c r="L79" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="80" spans="1:20" ht="90" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>554</v>
+      </c>
+      <c r="B80" t="s">
+        <v>671</v>
+      </c>
+      <c r="C80" t="s">
+        <v>747</v>
+      </c>
+      <c r="D80" t="s">
+        <v>555</v>
+      </c>
+      <c r="E80" t="s">
+        <v>556</v>
+      </c>
+      <c r="F80" t="s">
+        <v>815</v>
+      </c>
+      <c r="G80" t="s">
+        <v>557</v>
+      </c>
+      <c r="H80" t="s">
+        <v>558</v>
+      </c>
+      <c r="I80" t="s">
+        <v>851</v>
+      </c>
+      <c r="J80" t="s">
+        <v>559</v>
+      </c>
+      <c r="K80" t="s">
+        <v>560</v>
+      </c>
+      <c r="L80" s="2" t="s">
+        <v>912</v>
+      </c>
+      <c r="M80" t="s">
+        <v>561</v>
+      </c>
+      <c r="N80" t="s">
+        <v>562</v>
+      </c>
+      <c r="O80" s="2" t="s">
+        <v>921</v>
+      </c>
+      <c r="P80" t="s">
+        <v>563</v>
+      </c>
+      <c r="Q80" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="81" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>584</v>
+      </c>
+      <c r="B81" t="s">
+        <v>671</v>
+      </c>
+      <c r="C81" t="s">
+        <v>699</v>
+      </c>
+      <c r="D81" t="s">
+        <v>101</v>
+      </c>
+      <c r="E81" t="s">
+        <v>102</v>
+      </c>
+      <c r="F81" t="s">
+        <v>818</v>
+      </c>
+      <c r="G81" t="s">
+        <v>585</v>
+      </c>
+      <c r="H81" t="s">
+        <v>586</v>
+      </c>
+      <c r="I81" t="s">
+        <v>853</v>
+      </c>
+      <c r="J81" t="s">
+        <v>587</v>
+      </c>
+      <c r="K81" t="s">
+        <v>588</v>
+      </c>
+      <c r="L81" s="2" t="s">
+        <v>913</v>
+      </c>
+      <c r="M81" t="s">
+        <v>589</v>
+      </c>
+      <c r="N81" t="s">
+        <v>590</v>
+      </c>
+      <c r="O81" t="s">
+        <v>922</v>
+      </c>
+      <c r="P81" t="s">
+        <v>591</v>
+      </c>
+      <c r="Q81" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>572</v>
+      </c>
+      <c r="B82" t="s">
+        <v>671</v>
+      </c>
+      <c r="C82" t="s">
+        <v>705</v>
+      </c>
+      <c r="D82" t="s">
+        <v>158</v>
+      </c>
+      <c r="E82" t="s">
+        <v>573</v>
+      </c>
+      <c r="F82" t="s">
+        <v>816</v>
+      </c>
+      <c r="G82" t="s">
+        <v>574</v>
+      </c>
+      <c r="H82" t="s">
+        <v>575</v>
+      </c>
+      <c r="I82" t="s">
+        <v>576</v>
+      </c>
+      <c r="J82" t="s">
+        <v>576</v>
+      </c>
+      <c r="K82" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B83" t="s">
+        <v>1099</v>
+      </c>
+      <c r="C83" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D83" t="s">
+        <v>1101</v>
+      </c>
+      <c r="E83" t="s">
+        <v>1100</v>
+      </c>
+      <c r="I83" t="s">
+        <v>576</v>
+      </c>
+      <c r="J83" t="s">
+        <v>576</v>
+      </c>
+      <c r="K83" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>628</v>
+      </c>
+      <c r="B84" t="s">
+        <v>689</v>
+      </c>
+      <c r="C84" t="s">
+        <v>754</v>
+      </c>
+      <c r="D84" t="s">
+        <v>629</v>
+      </c>
+      <c r="E84" t="s">
+        <v>630</v>
+      </c>
+      <c r="F84" t="s">
+        <v>821</v>
+      </c>
+      <c r="G84" t="s">
+        <v>631</v>
+      </c>
+      <c r="H84" t="s">
+        <v>632</v>
+      </c>
+      <c r="I84" t="s">
+        <v>754</v>
+      </c>
+      <c r="J84" t="s">
+        <v>629</v>
+      </c>
+      <c r="K84" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>340</v>
+      </c>
+      <c r="B85" t="s">
+        <v>680</v>
+      </c>
+      <c r="C85" t="s">
+        <v>723</v>
+      </c>
+      <c r="D85" t="s">
+        <v>341</v>
+      </c>
+      <c r="E85" t="s">
+        <v>342</v>
+      </c>
+      <c r="F85" t="s">
+        <v>791</v>
+      </c>
+      <c r="G85" t="s">
+        <v>343</v>
+      </c>
+      <c r="H85" t="s">
+        <v>344</v>
+      </c>
+      <c r="I85" t="s">
+        <v>723</v>
+      </c>
+      <c r="J85" t="s">
+        <v>341</v>
+      </c>
+      <c r="K85" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>335</v>
+      </c>
+      <c r="B86" t="s">
+        <v>679</v>
+      </c>
+      <c r="C86" t="s">
+        <v>722</v>
+      </c>
+      <c r="D86" t="s">
+        <v>336</v>
+      </c>
+      <c r="E86" t="s">
+        <v>337</v>
+      </c>
+      <c r="F86" t="s">
+        <v>790</v>
+      </c>
+      <c r="G86" t="s">
+        <v>338</v>
+      </c>
+      <c r="H86" t="s">
+        <v>339</v>
+      </c>
+      <c r="I86" t="s">
+        <v>845</v>
+      </c>
+      <c r="J86" t="s">
+        <v>336</v>
+      </c>
+      <c r="K86" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>523</v>
+      </c>
+      <c r="B87" t="s">
+        <v>671</v>
+      </c>
+      <c r="C87" t="s">
+        <v>744</v>
+      </c>
+      <c r="D87" t="s">
+        <v>524</v>
+      </c>
+      <c r="E87" t="s">
+        <v>525</v>
+      </c>
+      <c r="F87" t="s">
+        <v>812</v>
+      </c>
+      <c r="G87" t="s">
+        <v>526</v>
+      </c>
+      <c r="H87" t="s">
+        <v>527</v>
+      </c>
+      <c r="I87" t="s">
+        <v>849</v>
+      </c>
+      <c r="J87" t="s">
+        <v>528</v>
+      </c>
+      <c r="K87" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>1136</v>
+      </c>
+      <c r="B88" t="s">
+        <v>1126</v>
+      </c>
+      <c r="C88" t="s">
+        <v>1143</v>
+      </c>
+      <c r="D88" t="s">
+        <v>1137</v>
+      </c>
+      <c r="E88" t="s">
+        <v>1138</v>
+      </c>
+      <c r="F88" t="s">
+        <v>1144</v>
+      </c>
+      <c r="G88" t="s">
+        <v>1139</v>
+      </c>
+      <c r="H88" t="s">
+        <v>1140</v>
+      </c>
+      <c r="I88" t="s">
+        <v>1143</v>
+      </c>
+      <c r="J88" t="s">
+        <v>1137</v>
+      </c>
+      <c r="K88" t="s">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>577</v>
+      </c>
+      <c r="B89" t="s">
+        <v>675</v>
+      </c>
+      <c r="C89" t="s">
+        <v>748</v>
+      </c>
+      <c r="D89" t="s">
+        <v>578</v>
+      </c>
+      <c r="E89" t="s">
+        <v>579</v>
+      </c>
+      <c r="F89" t="s">
+        <v>817</v>
+      </c>
+      <c r="G89" t="s">
+        <v>580</v>
+      </c>
+      <c r="H89" t="s">
+        <v>581</v>
+      </c>
+      <c r="I89" t="s">
+        <v>852</v>
+      </c>
+      <c r="J89" t="s">
+        <v>582</v>
+      </c>
+      <c r="K89" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>603</v>
+      </c>
+      <c r="B90" t="s">
+        <v>671</v>
+      </c>
+      <c r="C90" t="s">
+        <v>751</v>
+      </c>
+      <c r="D90" t="s">
+        <v>604</v>
+      </c>
+      <c r="E90" t="s">
+        <v>605</v>
+      </c>
+      <c r="F90" t="s">
+        <v>819</v>
+      </c>
+      <c r="G90" t="s">
+        <v>606</v>
+      </c>
+      <c r="H90" t="s">
+        <v>607</v>
+      </c>
+      <c r="I90" t="s">
+        <v>856</v>
+      </c>
+      <c r="J90" t="s">
+        <v>608</v>
+      </c>
+      <c r="K90" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>613</v>
+      </c>
+      <c r="B91" t="s">
+        <v>671</v>
+      </c>
+      <c r="C91" t="s">
+        <v>752</v>
+      </c>
+      <c r="D91" t="s">
+        <v>614</v>
+      </c>
+      <c r="E91" t="s">
+        <v>615</v>
+      </c>
+      <c r="I91" t="s">
+        <v>857</v>
+      </c>
+      <c r="J91" t="s">
+        <v>616</v>
+      </c>
+      <c r="K91" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>598</v>
+      </c>
+      <c r="B92" t="s">
+        <v>671</v>
+      </c>
+      <c r="C92" t="s">
+        <v>750</v>
+      </c>
+      <c r="D92" t="s">
+        <v>599</v>
+      </c>
+      <c r="E92" t="s">
+        <v>600</v>
+      </c>
+      <c r="I92" t="s">
+        <v>855</v>
+      </c>
+      <c r="J92" t="s">
+        <v>601</v>
+      </c>
+      <c r="K92" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
         <v>618</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B93" t="s">
         <v>675</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C93" t="s">
         <v>749</v>
       </c>
-      <c r="D58" t="s">
+      <c r="D93" t="s">
         <v>594</v>
       </c>
-      <c r="E58" t="s">
+      <c r="E93" t="s">
         <v>595</v>
       </c>
-      <c r="I58" t="s">
+      <c r="I93" t="s">
         <v>858</v>
       </c>
-      <c r="J58" t="s">
+      <c r="J93" t="s">
         <v>619</v>
       </c>
-      <c r="K58" t="s">
+      <c r="K93" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="59" spans="1:20">
-      <c r="A59" t="s">
-        <v>577</v>
-      </c>
-      <c r="B59" t="s">
-        <v>675</v>
-      </c>
-      <c r="C59" t="s">
-        <v>748</v>
-      </c>
-      <c r="D59" t="s">
-        <v>578</v>
-      </c>
-      <c r="E59" t="s">
-        <v>579</v>
-      </c>
-      <c r="F59" t="s">
-        <v>817</v>
-      </c>
-      <c r="G59" t="s">
-        <v>580</v>
-      </c>
-      <c r="H59" t="s">
-        <v>581</v>
-      </c>
-      <c r="I59" t="s">
-        <v>852</v>
-      </c>
-      <c r="J59" t="s">
-        <v>582</v>
-      </c>
-      <c r="K59" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="60" spans="1:20">
-      <c r="A60" t="s">
-        <v>221</v>
-      </c>
-      <c r="B60" t="s">
-        <v>675</v>
-      </c>
-      <c r="C60" t="s">
-        <v>711</v>
-      </c>
-      <c r="D60" t="s">
-        <v>222</v>
-      </c>
-      <c r="E60" t="s">
-        <v>223</v>
-      </c>
-      <c r="F60" t="s">
-        <v>779</v>
-      </c>
-      <c r="G60" t="s">
-        <v>224</v>
-      </c>
-      <c r="H60" t="s">
-        <v>225</v>
-      </c>
-      <c r="I60" t="s">
-        <v>841</v>
-      </c>
-      <c r="J60" t="s">
-        <v>222</v>
-      </c>
-      <c r="K60" t="s">
-        <v>223</v>
-      </c>
-      <c r="L60" t="s">
-        <v>965</v>
-      </c>
-      <c r="M60" t="s">
-        <v>226</v>
-      </c>
-      <c r="N60" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="61" spans="1:20">
-      <c r="A61" t="s">
-        <v>633</v>
-      </c>
-      <c r="B61" t="s">
-        <v>690</v>
-      </c>
-      <c r="C61" t="s">
-        <v>755</v>
-      </c>
-      <c r="D61" t="s">
-        <v>634</v>
-      </c>
-      <c r="E61" t="s">
-        <v>635</v>
-      </c>
-      <c r="F61" t="s">
-        <v>822</v>
-      </c>
-      <c r="G61" t="s">
-        <v>636</v>
-      </c>
-      <c r="H61" t="s">
-        <v>637</v>
-      </c>
-      <c r="L61" t="s">
-        <v>915</v>
-      </c>
-      <c r="M61" t="s">
-        <v>638</v>
-      </c>
-      <c r="N61" t="s">
-        <v>639</v>
-      </c>
-      <c r="R61" t="s">
-        <v>963</v>
-      </c>
-      <c r="S61" t="s">
-        <v>640</v>
-      </c>
-      <c r="T61" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="62" spans="1:20">
-      <c r="A62" t="s">
-        <v>642</v>
-      </c>
-      <c r="B62" t="s">
-        <v>690</v>
-      </c>
-      <c r="C62" t="s">
-        <v>756</v>
-      </c>
-      <c r="D62" t="s">
-        <v>643</v>
-      </c>
-      <c r="E62" t="s">
-        <v>644</v>
-      </c>
-      <c r="F62" t="s">
-        <v>823</v>
-      </c>
-      <c r="G62" t="s">
-        <v>645</v>
-      </c>
-      <c r="H62" t="s">
-        <v>646</v>
-      </c>
-      <c r="L62" t="s">
-        <v>916</v>
-      </c>
-      <c r="M62" t="s">
-        <v>647</v>
-      </c>
-      <c r="N62" t="s">
-        <v>648</v>
-      </c>
-      <c r="R62" t="s">
-        <v>963</v>
-      </c>
-      <c r="S62" t="s">
-        <v>640</v>
-      </c>
-      <c r="T62" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="63" spans="1:20">
-      <c r="A63" t="s">
-        <v>649</v>
-      </c>
-      <c r="B63" t="s">
-        <v>690</v>
-      </c>
-      <c r="C63" t="s">
-        <v>757</v>
-      </c>
-      <c r="D63" t="s">
-        <v>650</v>
-      </c>
-      <c r="E63" t="s">
-        <v>651</v>
-      </c>
-      <c r="F63" t="s">
-        <v>824</v>
-      </c>
-      <c r="G63" t="s">
-        <v>652</v>
-      </c>
-      <c r="H63" t="s">
-        <v>653</v>
-      </c>
-      <c r="L63" t="s">
-        <v>916</v>
-      </c>
-      <c r="M63" t="s">
-        <v>647</v>
-      </c>
-      <c r="N63" t="s">
-        <v>648</v>
-      </c>
-      <c r="R63" t="s">
-        <v>963</v>
-      </c>
-      <c r="S63" t="s">
-        <v>640</v>
-      </c>
-      <c r="T63" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="64" spans="1:20">
-      <c r="A64" t="s">
-        <v>71</v>
-      </c>
-      <c r="B64" t="s">
-        <v>672</v>
-      </c>
-      <c r="C64" t="s">
-        <v>696</v>
-      </c>
-      <c r="D64" t="s">
-        <v>72</v>
-      </c>
-      <c r="E64" t="s">
-        <v>73</v>
-      </c>
-      <c r="F64" t="s">
-        <v>765</v>
-      </c>
-      <c r="G64" t="s">
-        <v>74</v>
-      </c>
-      <c r="H64" t="s">
-        <v>75</v>
-      </c>
-      <c r="I64" t="s">
-        <v>828</v>
-      </c>
-      <c r="J64" t="s">
-        <v>76</v>
-      </c>
-      <c r="K64" t="s">
-        <v>77</v>
-      </c>
-      <c r="L64" s="2" t="s">
-        <v>889</v>
-      </c>
-      <c r="M64" t="s">
-        <v>78</v>
-      </c>
-      <c r="N64" t="s">
-        <v>79</v>
-      </c>
-      <c r="O64" t="s">
-        <v>920</v>
-      </c>
-      <c r="P64" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q64" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="65" spans="1:20">
-      <c r="A65" t="s">
-        <v>120</v>
-      </c>
-      <c r="B65" t="s">
-        <v>673</v>
-      </c>
-      <c r="C65" t="s">
-        <v>701</v>
-      </c>
-      <c r="D65" t="s">
-        <v>121</v>
-      </c>
-      <c r="E65" t="s">
-        <v>122</v>
-      </c>
-      <c r="F65" t="s">
-        <v>770</v>
-      </c>
-      <c r="G65" t="s">
-        <v>123</v>
-      </c>
-      <c r="H65" t="s">
-        <v>124</v>
-      </c>
-      <c r="I65" t="s">
-        <v>832</v>
-      </c>
-      <c r="J65" t="s">
-        <v>125</v>
-      </c>
-      <c r="K65" t="s">
-        <v>122</v>
-      </c>
-      <c r="L65" t="s">
-        <v>873</v>
-      </c>
-      <c r="M65" t="s">
-        <v>126</v>
-      </c>
-      <c r="N65" t="s">
-        <v>127</v>
-      </c>
-      <c r="R65" t="s">
-        <v>929</v>
-      </c>
-      <c r="S65" t="s">
-        <v>128</v>
-      </c>
-      <c r="T65" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="66" spans="1:20">
-      <c r="A66" t="s">
-        <v>31</v>
-      </c>
-      <c r="B66" t="s">
-        <v>669</v>
-      </c>
-      <c r="C66" t="s">
-        <v>693</v>
-      </c>
-      <c r="D66" t="s">
-        <v>32</v>
-      </c>
-      <c r="E66" t="s">
-        <v>33</v>
-      </c>
-      <c r="F66" t="s">
-        <v>761</v>
-      </c>
-      <c r="G66" t="s">
-        <v>34</v>
-      </c>
-      <c r="H66" t="s">
-        <v>35</v>
-      </c>
-      <c r="I66" t="s">
-        <v>693</v>
-      </c>
-      <c r="J66" t="s">
-        <v>32</v>
-      </c>
-      <c r="K66" t="s">
-        <v>33</v>
-      </c>
-      <c r="L66" t="s">
-        <v>861</v>
-      </c>
-      <c r="M66" t="s">
-        <v>36</v>
-      </c>
-      <c r="N66" t="s">
-        <v>37</v>
-      </c>
-      <c r="R66" t="s">
-        <v>924</v>
-      </c>
-      <c r="S66" t="s">
-        <v>38</v>
-      </c>
-      <c r="T66" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="67" spans="1:20">
-      <c r="A67" t="s">
-        <v>335</v>
-      </c>
-      <c r="B67" t="s">
-        <v>679</v>
-      </c>
-      <c r="C67" t="s">
-        <v>722</v>
-      </c>
-      <c r="D67" t="s">
-        <v>336</v>
-      </c>
-      <c r="E67" t="s">
-        <v>337</v>
-      </c>
-      <c r="F67" t="s">
-        <v>790</v>
-      </c>
-      <c r="G67" t="s">
-        <v>338</v>
-      </c>
-      <c r="H67" t="s">
-        <v>339</v>
-      </c>
-      <c r="I67" t="s">
-        <v>845</v>
-      </c>
-      <c r="J67" t="s">
-        <v>336</v>
-      </c>
-      <c r="K67" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="68" spans="1:20">
-      <c r="A68" t="s">
-        <v>512</v>
-      </c>
-      <c r="B68" t="s">
-        <v>685</v>
-      </c>
-      <c r="C68" t="s">
-        <v>743</v>
-      </c>
-      <c r="D68" t="s">
-        <v>513</v>
-      </c>
-      <c r="E68" t="s">
-        <v>514</v>
-      </c>
-      <c r="F68" t="s">
-        <v>811</v>
-      </c>
-      <c r="G68" t="s">
-        <v>515</v>
-      </c>
-      <c r="H68" t="s">
-        <v>516</v>
-      </c>
-      <c r="I68" t="s">
-        <v>848</v>
-      </c>
-      <c r="J68" t="s">
-        <v>517</v>
-      </c>
-      <c r="K68" t="s">
-        <v>518</v>
-      </c>
-      <c r="L68" t="s">
-        <v>909</v>
-      </c>
-      <c r="M68" t="s">
-        <v>519</v>
-      </c>
-      <c r="N68" t="s">
-        <v>520</v>
-      </c>
-      <c r="R68" t="s">
-        <v>960</v>
-      </c>
-      <c r="S68" t="s">
-        <v>521</v>
-      </c>
-      <c r="T68" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="69" spans="1:20">
-      <c r="A69" t="s">
-        <v>543</v>
-      </c>
-      <c r="B69" t="s">
-        <v>687</v>
-      </c>
-      <c r="C69" t="s">
-        <v>746</v>
-      </c>
-      <c r="D69" t="s">
-        <v>544</v>
-      </c>
-      <c r="E69" t="s">
-        <v>545</v>
-      </c>
-      <c r="F69" t="s">
-        <v>814</v>
-      </c>
-      <c r="G69" t="s">
-        <v>546</v>
-      </c>
-      <c r="H69" t="s">
-        <v>547</v>
-      </c>
-      <c r="I69" t="s">
-        <v>850</v>
-      </c>
-      <c r="J69" t="s">
-        <v>548</v>
-      </c>
-      <c r="K69" t="s">
-        <v>549</v>
-      </c>
-      <c r="L69" t="s">
-        <v>911</v>
-      </c>
-      <c r="M69" t="s">
-        <v>550</v>
-      </c>
-      <c r="N69" t="s">
-        <v>551</v>
-      </c>
-      <c r="R69" t="s">
-        <v>962</v>
-      </c>
-      <c r="S69" t="s">
-        <v>552</v>
-      </c>
-      <c r="T69" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="70" spans="1:20">
-      <c r="A70" t="s">
-        <v>340</v>
-      </c>
-      <c r="B70" t="s">
-        <v>680</v>
-      </c>
-      <c r="C70" t="s">
-        <v>723</v>
-      </c>
-      <c r="D70" t="s">
-        <v>341</v>
-      </c>
-      <c r="E70" t="s">
-        <v>342</v>
-      </c>
-      <c r="F70" t="s">
-        <v>791</v>
-      </c>
-      <c r="G70" t="s">
-        <v>343</v>
-      </c>
-      <c r="H70" t="s">
-        <v>344</v>
-      </c>
-      <c r="I70" t="s">
-        <v>723</v>
-      </c>
-      <c r="J70" t="s">
-        <v>341</v>
-      </c>
-      <c r="K70" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="71" spans="1:20">
-      <c r="A71" t="s">
-        <v>228</v>
-      </c>
-      <c r="B71" t="s">
-        <v>676</v>
-      </c>
-      <c r="C71" t="s">
-        <v>712</v>
-      </c>
-      <c r="D71" t="s">
-        <v>229</v>
-      </c>
-      <c r="E71" t="s">
-        <v>230</v>
-      </c>
-      <c r="F71" t="s">
-        <v>780</v>
-      </c>
-      <c r="G71" t="s">
-        <v>231</v>
-      </c>
-      <c r="H71" t="s">
-        <v>232</v>
-      </c>
-      <c r="I71" t="s">
-        <v>842</v>
-      </c>
-      <c r="J71" t="s">
-        <v>229</v>
-      </c>
-      <c r="K71" t="s">
-        <v>230</v>
-      </c>
-      <c r="L71" t="s">
-        <v>881</v>
-      </c>
-      <c r="M71" t="s">
-        <v>233</v>
-      </c>
-      <c r="N71" t="s">
-        <v>234</v>
-      </c>
-      <c r="R71" t="s">
-        <v>939</v>
-      </c>
-      <c r="S71" t="s">
-        <v>235</v>
-      </c>
-      <c r="T71" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="72" spans="1:20">
-      <c r="A72" t="s">
-        <v>237</v>
-      </c>
-      <c r="B72" t="s">
-        <v>676</v>
-      </c>
-      <c r="C72" t="s">
-        <v>713</v>
-      </c>
-      <c r="D72" t="s">
-        <v>238</v>
-      </c>
-      <c r="E72" t="s">
-        <v>239</v>
-      </c>
-      <c r="F72" t="s">
-        <v>781</v>
-      </c>
-      <c r="G72" t="s">
-        <v>240</v>
-      </c>
-      <c r="H72" t="s">
-        <v>241</v>
-      </c>
-      <c r="I72" t="s">
-        <v>713</v>
-      </c>
-      <c r="J72" t="s">
-        <v>238</v>
-      </c>
-      <c r="K72" t="s">
-        <v>239</v>
-      </c>
-      <c r="L72" t="s">
-        <v>882</v>
-      </c>
-      <c r="M72" t="s">
-        <v>242</v>
-      </c>
-      <c r="N72" t="s">
-        <v>243</v>
-      </c>
-      <c r="R72" t="s">
-        <v>940</v>
-      </c>
-      <c r="S72" t="s">
-        <v>244</v>
-      </c>
-      <c r="T72" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="73" spans="1:20">
-      <c r="A73" t="s">
-        <v>311</v>
-      </c>
-      <c r="B73" t="s">
-        <v>966</v>
-      </c>
-      <c r="C73" t="s">
-        <v>989</v>
-      </c>
-      <c r="D73" t="s">
-        <v>989</v>
-      </c>
-      <c r="E73" t="s">
-        <v>313</v>
-      </c>
-      <c r="F73" t="s">
-        <v>993</v>
-      </c>
-      <c r="G73" t="s">
-        <v>967</v>
-      </c>
-      <c r="H73" t="s">
-        <v>968</v>
-      </c>
-      <c r="I73" t="s">
-        <v>998</v>
-      </c>
-      <c r="J73" t="s">
-        <v>312</v>
-      </c>
-      <c r="K73" t="s">
-        <v>313</v>
-      </c>
-      <c r="L73" t="s">
-        <v>1060</v>
-      </c>
-      <c r="M73" t="s">
-        <v>314</v>
-      </c>
-      <c r="N73" t="s">
-        <v>315</v>
-      </c>
-      <c r="R73" t="s">
-        <v>1158</v>
-      </c>
-      <c r="S73" t="s">
-        <v>316</v>
-      </c>
-      <c r="T73" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="74" spans="1:20">
-      <c r="A74" t="s">
-        <v>328</v>
-      </c>
-      <c r="B74" t="s">
-        <v>966</v>
-      </c>
-      <c r="C74" t="s">
-        <v>990</v>
-      </c>
-      <c r="D74" t="s">
-        <v>990</v>
-      </c>
-      <c r="E74" t="s">
-        <v>329</v>
-      </c>
-      <c r="F74" t="s">
-        <v>994</v>
-      </c>
-      <c r="G74" t="s">
-        <v>969</v>
-      </c>
-      <c r="H74" t="s">
-        <v>970</v>
-      </c>
-      <c r="I74" t="s">
-        <v>999</v>
-      </c>
-      <c r="J74" t="s">
-        <v>330</v>
-      </c>
-      <c r="K74" t="s">
-        <v>329</v>
-      </c>
-      <c r="L74" t="s">
-        <v>1061</v>
-      </c>
-      <c r="M74" t="s">
-        <v>331</v>
-      </c>
-      <c r="N74" t="s">
-        <v>332</v>
-      </c>
-      <c r="R74" t="s">
-        <v>1159</v>
-      </c>
-      <c r="S74" t="s">
-        <v>333</v>
-      </c>
-      <c r="T74" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="75" spans="1:20">
-      <c r="A75" t="s">
-        <v>971</v>
-      </c>
-      <c r="B75" t="s">
-        <v>966</v>
-      </c>
-      <c r="C75" t="s">
-        <v>991</v>
-      </c>
-      <c r="D75" t="s">
-        <v>991</v>
-      </c>
-      <c r="E75" t="s">
-        <v>974</v>
-      </c>
-      <c r="F75" t="s">
-        <v>995</v>
-      </c>
-      <c r="G75" t="s">
-        <v>975</v>
-      </c>
-      <c r="H75" t="s">
-        <v>976</v>
-      </c>
-      <c r="I75" t="s">
-        <v>972</v>
-      </c>
-      <c r="J75" t="s">
-        <v>973</v>
-      </c>
-      <c r="K75" t="s">
-        <v>974</v>
-      </c>
-      <c r="L75" t="s">
-        <v>1062</v>
-      </c>
-      <c r="M75" t="s">
-        <v>977</v>
-      </c>
-      <c r="N75" t="s">
-        <v>978</v>
-      </c>
-      <c r="R75" t="s">
-        <v>1160</v>
-      </c>
-      <c r="S75" t="s">
-        <v>979</v>
-      </c>
-      <c r="T75" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="76" spans="1:20">
-      <c r="A76" t="s">
-        <v>981</v>
-      </c>
-      <c r="B76" t="s">
-        <v>966</v>
-      </c>
-      <c r="C76" t="s">
-        <v>992</v>
-      </c>
-      <c r="D76" t="s">
-        <v>992</v>
-      </c>
-      <c r="E76" t="s">
-        <v>984</v>
-      </c>
-      <c r="F76" t="s">
-        <v>996</v>
-      </c>
-      <c r="G76" t="s">
-        <v>985</v>
-      </c>
-      <c r="H76" t="s">
-        <v>986</v>
-      </c>
-      <c r="I76" t="s">
-        <v>982</v>
-      </c>
-      <c r="J76" t="s">
-        <v>983</v>
-      </c>
-      <c r="K76" t="s">
-        <v>984</v>
-      </c>
-      <c r="L76" t="s">
-        <v>1063</v>
-      </c>
-      <c r="M76" t="s">
-        <v>987</v>
-      </c>
-      <c r="N76" t="s">
-        <v>988</v>
-      </c>
-    </row>
-    <row r="77" spans="1:20">
-      <c r="A77" t="s">
-        <v>345</v>
-      </c>
-      <c r="B77" t="s">
-        <v>681</v>
-      </c>
-      <c r="C77" t="s">
-        <v>724</v>
-      </c>
-      <c r="D77" t="s">
-        <v>346</v>
-      </c>
-      <c r="E77" t="s">
-        <v>347</v>
-      </c>
-      <c r="F77" t="s">
-        <v>792</v>
-      </c>
-      <c r="G77" t="s">
-        <v>348</v>
-      </c>
-      <c r="H77" t="s">
-        <v>349</v>
-      </c>
-      <c r="I77" t="s">
-        <v>724</v>
-      </c>
-      <c r="J77" t="s">
-        <v>346</v>
-      </c>
-      <c r="K77" t="s">
-        <v>347</v>
-      </c>
-      <c r="L77" t="s">
-        <v>890</v>
-      </c>
-      <c r="M77" t="s">
-        <v>350</v>
-      </c>
-      <c r="N77" t="s">
-        <v>351</v>
-      </c>
-      <c r="R77" t="s">
-        <v>1172</v>
-      </c>
-      <c r="S77" t="s">
-        <v>352</v>
-      </c>
-      <c r="T77" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="78" spans="1:20">
-      <c r="A78" t="s">
-        <v>237</v>
-      </c>
-      <c r="B78" t="s">
-        <v>1003</v>
-      </c>
-      <c r="C78" t="s">
-        <v>1041</v>
-      </c>
-      <c r="D78" t="s">
-        <v>238</v>
-      </c>
-      <c r="E78" t="s">
-        <v>239</v>
-      </c>
-      <c r="F78" t="s">
-        <v>1048</v>
-      </c>
-      <c r="G78" t="s">
-        <v>1004</v>
-      </c>
-      <c r="H78" t="s">
-        <v>1005</v>
-      </c>
-      <c r="I78" t="s">
-        <v>1041</v>
-      </c>
-      <c r="J78" t="s">
-        <v>238</v>
-      </c>
-      <c r="K78" t="s">
-        <v>239</v>
-      </c>
-      <c r="L78" t="s">
-        <v>1054</v>
-      </c>
-      <c r="M78" t="s">
-        <v>242</v>
-      </c>
-      <c r="N78" t="s">
-        <v>243</v>
-      </c>
-      <c r="R78" t="s">
-        <v>1161</v>
-      </c>
-      <c r="S78" t="s">
-        <v>244</v>
-      </c>
-      <c r="T78" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="79" spans="1:20">
-      <c r="A79" t="s">
-        <v>1006</v>
-      </c>
-      <c r="B79" t="s">
-        <v>1007</v>
-      </c>
-      <c r="C79" t="s">
-        <v>1042</v>
-      </c>
-      <c r="D79" t="s">
-        <v>1008</v>
-      </c>
-      <c r="E79" t="s">
-        <v>1009</v>
-      </c>
-      <c r="F79" t="s">
-        <v>1049</v>
-      </c>
-      <c r="G79" t="s">
-        <v>1010</v>
-      </c>
-      <c r="H79" t="s">
-        <v>1011</v>
-      </c>
-      <c r="I79" t="s">
-        <v>1042</v>
-      </c>
-      <c r="J79" t="s">
-        <v>1008</v>
-      </c>
-      <c r="K79" t="s">
-        <v>1009</v>
-      </c>
-      <c r="L79" t="s">
-        <v>1055</v>
-      </c>
-      <c r="M79" t="s">
-        <v>1012</v>
-      </c>
-      <c r="N79" t="s">
-        <v>1013</v>
-      </c>
-    </row>
-    <row r="80" spans="1:20">
-      <c r="A80" t="s">
-        <v>1014</v>
-      </c>
-      <c r="B80" t="s">
-        <v>1015</v>
-      </c>
-      <c r="C80" t="s">
-        <v>1043</v>
-      </c>
-      <c r="D80" t="s">
-        <v>1017</v>
-      </c>
-      <c r="E80" t="s">
-        <v>1016</v>
-      </c>
-      <c r="F80" t="s">
-        <v>1050</v>
-      </c>
-      <c r="G80" t="s">
-        <v>1018</v>
-      </c>
-      <c r="H80" t="s">
-        <v>1019</v>
-      </c>
-      <c r="I80" t="s">
-        <v>1043</v>
-      </c>
-      <c r="J80" t="s">
-        <v>1017</v>
-      </c>
-      <c r="K80" t="s">
-        <v>1016</v>
-      </c>
-      <c r="L80" t="s">
-        <v>1056</v>
-      </c>
-      <c r="M80" t="s">
-        <v>1020</v>
-      </c>
-      <c r="N80" t="s">
-        <v>1021</v>
-      </c>
-      <c r="R80" t="s">
-        <v>1162</v>
-      </c>
-      <c r="S80" t="s">
-        <v>1022</v>
-      </c>
-      <c r="T80" t="s">
-        <v>1023</v>
-      </c>
-    </row>
-    <row r="81" spans="1:20">
-      <c r="A81" t="s">
-        <v>1024</v>
-      </c>
-      <c r="B81" t="s">
-        <v>1025</v>
-      </c>
-      <c r="C81" t="s">
-        <v>1044</v>
-      </c>
-      <c r="D81" t="s">
-        <v>1026</v>
-      </c>
-      <c r="E81" t="s">
-        <v>1027</v>
-      </c>
-      <c r="F81" t="s">
-        <v>1051</v>
-      </c>
-      <c r="G81" t="s">
-        <v>409</v>
-      </c>
-      <c r="H81" t="s">
-        <v>410</v>
-      </c>
-      <c r="I81" t="s">
-        <v>1044</v>
-      </c>
-      <c r="J81" t="s">
-        <v>1026</v>
-      </c>
-      <c r="K81" t="s">
-        <v>1027</v>
-      </c>
-      <c r="L81" t="s">
-        <v>1057</v>
-      </c>
-      <c r="M81" t="s">
-        <v>411</v>
-      </c>
-      <c r="N81" t="s">
-        <v>412</v>
-      </c>
-      <c r="R81" t="s">
-        <v>1163</v>
-      </c>
-      <c r="S81" t="s">
-        <v>404</v>
-      </c>
-      <c r="T81" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="82" spans="1:20">
-      <c r="A82" t="s">
-        <v>1028</v>
-      </c>
-      <c r="B82" t="s">
-        <v>1029</v>
-      </c>
-      <c r="C82" t="s">
-        <v>1045</v>
-      </c>
-      <c r="D82" t="s">
-        <v>1030</v>
-      </c>
-      <c r="E82" t="s">
-        <v>1031</v>
-      </c>
-      <c r="F82" t="s">
-        <v>1052</v>
-      </c>
-      <c r="G82" t="s">
-        <v>1032</v>
-      </c>
-      <c r="H82" t="s">
-        <v>1033</v>
-      </c>
-      <c r="I82" t="s">
-        <v>1045</v>
-      </c>
-      <c r="J82" t="s">
-        <v>1030</v>
-      </c>
-      <c r="K82" t="s">
-        <v>1031</v>
-      </c>
-      <c r="L82" t="s">
-        <v>1058</v>
-      </c>
-      <c r="M82" t="s">
-        <v>1034</v>
-      </c>
-      <c r="N82" t="s">
-        <v>1035</v>
-      </c>
-      <c r="R82" t="s">
-        <v>1164</v>
-      </c>
-      <c r="S82" t="s">
-        <v>1036</v>
-      </c>
-      <c r="T82" t="s">
-        <v>1037</v>
-      </c>
-    </row>
-    <row r="83" spans="1:20">
-      <c r="A83" t="s">
-        <v>423</v>
-      </c>
-      <c r="B83" t="s">
-        <v>1029</v>
-      </c>
-      <c r="C83" t="s">
-        <v>1046</v>
-      </c>
-      <c r="D83" t="s">
-        <v>424</v>
-      </c>
-      <c r="E83" t="s">
-        <v>425</v>
-      </c>
-      <c r="F83" t="s">
-        <v>1053</v>
-      </c>
-      <c r="G83" t="s">
-        <v>1038</v>
-      </c>
-      <c r="H83" t="s">
-        <v>1039</v>
-      </c>
-      <c r="I83" t="s">
-        <v>1046</v>
-      </c>
-      <c r="J83" t="s">
-        <v>424</v>
-      </c>
-      <c r="K83" t="s">
-        <v>425</v>
-      </c>
-      <c r="L83" t="s">
-        <v>1059</v>
-      </c>
-      <c r="M83" t="s">
-        <v>428</v>
-      </c>
-      <c r="N83" t="s">
-        <v>429</v>
-      </c>
-      <c r="R83" t="s">
-        <v>1165</v>
-      </c>
-      <c r="S83" t="s">
-        <v>430</v>
-      </c>
-      <c r="T83" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="84" spans="1:20">
-      <c r="A84" t="s">
-        <v>1064</v>
-      </c>
-      <c r="B84" t="s">
-        <v>1065</v>
-      </c>
-      <c r="C84" t="s">
-        <v>1124</v>
-      </c>
-      <c r="D84" t="s">
-        <v>1067</v>
-      </c>
-      <c r="E84" t="s">
-        <v>1068</v>
-      </c>
-      <c r="F84" t="s">
-        <v>1131</v>
-      </c>
-      <c r="G84" t="s">
-        <v>1069</v>
-      </c>
-      <c r="H84" t="s">
-        <v>1070</v>
-      </c>
-      <c r="I84" t="s">
-        <v>1066</v>
-      </c>
-      <c r="J84" t="s">
-        <v>1067</v>
-      </c>
-      <c r="K84" t="s">
-        <v>1068</v>
-      </c>
-      <c r="L84" t="s">
-        <v>1071</v>
-      </c>
-      <c r="M84" t="s">
-        <v>1072</v>
-      </c>
-      <c r="N84" t="s">
-        <v>1073</v>
-      </c>
-      <c r="R84" t="s">
-        <v>1166</v>
-      </c>
-      <c r="S84" t="s">
-        <v>1074</v>
-      </c>
-      <c r="T84" t="s">
-        <v>1075</v>
-      </c>
-    </row>
-    <row r="85" spans="1:20">
-      <c r="A85" t="s">
-        <v>1076</v>
-      </c>
-      <c r="B85" t="s">
-        <v>1077</v>
-      </c>
-      <c r="C85" t="s">
-        <v>1125</v>
-      </c>
-      <c r="D85" t="s">
-        <v>1079</v>
-      </c>
-      <c r="E85" t="s">
-        <v>1080</v>
-      </c>
-      <c r="F85" t="s">
-        <v>1132</v>
-      </c>
-      <c r="G85" t="s">
-        <v>1081</v>
-      </c>
-      <c r="H85" t="s">
-        <v>1082</v>
-      </c>
-      <c r="I85" t="s">
-        <v>1078</v>
-      </c>
-      <c r="J85" t="s">
-        <v>1079</v>
-      </c>
-      <c r="K85" t="s">
-        <v>1080</v>
-      </c>
-    </row>
-    <row r="86" spans="1:20">
-      <c r="A86" t="s">
-        <v>1083</v>
-      </c>
-      <c r="B86" t="s">
-        <v>1084</v>
-      </c>
-      <c r="C86" t="s">
+    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>1133</v>
+      </c>
+      <c r="B94" t="s">
         <v>1126</v>
       </c>
-      <c r="D86" t="s">
-        <v>1086</v>
-      </c>
-      <c r="E86" t="s">
-        <v>1087</v>
-      </c>
-      <c r="F86" t="s">
-        <v>1133</v>
-      </c>
-      <c r="G86" t="s">
-        <v>400</v>
-      </c>
-      <c r="H86" t="s">
-        <v>401</v>
-      </c>
-      <c r="I86" t="s">
-        <v>1085</v>
-      </c>
-      <c r="J86" t="s">
-        <v>1086</v>
-      </c>
-      <c r="K86" t="s">
-        <v>1087</v>
-      </c>
-      <c r="L86" t="s">
-        <v>1088</v>
-      </c>
-      <c r="M86" t="s">
-        <v>1089</v>
-      </c>
-      <c r="N86" t="s">
-        <v>1090</v>
-      </c>
-      <c r="R86" t="s">
-        <v>1167</v>
-      </c>
-      <c r="S86" t="s">
-        <v>1091</v>
-      </c>
-      <c r="T86" t="s">
-        <v>1092</v>
-      </c>
-    </row>
-    <row r="87" spans="1:20">
-      <c r="A87" t="s">
-        <v>1093</v>
-      </c>
-      <c r="B87" t="s">
-        <v>1094</v>
-      </c>
-      <c r="C87" t="s">
-        <v>1127</v>
-      </c>
-      <c r="D87" t="s">
-        <v>1096</v>
-      </c>
-      <c r="E87" t="s">
-        <v>1097</v>
-      </c>
-      <c r="F87" t="s">
+      <c r="C94" t="s">
+        <v>1142</v>
+      </c>
+      <c r="D94" t="s">
         <v>1134</v>
       </c>
-      <c r="G87" t="s">
-        <v>1098</v>
-      </c>
-      <c r="H87" t="s">
-        <v>1099</v>
-      </c>
-      <c r="I87" t="s">
-        <v>1095</v>
-      </c>
-      <c r="J87" t="s">
-        <v>1096</v>
-      </c>
-      <c r="K87" t="s">
-        <v>1097</v>
-      </c>
-      <c r="L87" t="s">
-        <v>1100</v>
-      </c>
-      <c r="M87" t="s">
-        <v>1101</v>
-      </c>
-      <c r="N87" t="s">
-        <v>1102</v>
-      </c>
-      <c r="R87" t="s">
-        <v>1166</v>
-      </c>
-      <c r="S87" t="s">
-        <v>1074</v>
-      </c>
-      <c r="T87" t="s">
-        <v>1075</v>
-      </c>
-    </row>
-    <row r="88" spans="1:20">
-      <c r="A88" t="s">
-        <v>1103</v>
-      </c>
-      <c r="B88" t="s">
-        <v>1104</v>
-      </c>
-      <c r="C88" t="s">
-        <v>1128</v>
-      </c>
-      <c r="D88" t="s">
-        <v>1106</v>
-      </c>
-      <c r="E88" t="s">
-        <v>1107</v>
-      </c>
-      <c r="F88" t="s">
+      <c r="E94" t="s">
         <v>1135</v>
       </c>
-      <c r="G88" t="s">
-        <v>409</v>
-      </c>
-      <c r="H88" t="s">
-        <v>410</v>
-      </c>
-      <c r="I88" t="s">
-        <v>1105</v>
-      </c>
-      <c r="J88" t="s">
-        <v>1106</v>
-      </c>
-      <c r="K88" t="s">
-        <v>1107</v>
-      </c>
-      <c r="L88" t="s">
-        <v>1108</v>
-      </c>
-      <c r="M88" t="s">
-        <v>411</v>
-      </c>
-      <c r="N88" t="s">
-        <v>412</v>
-      </c>
-      <c r="R88" t="s">
-        <v>1163</v>
-      </c>
-      <c r="S88" t="s">
-        <v>404</v>
-      </c>
-      <c r="T88" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="89" spans="1:20">
-      <c r="A89" t="s">
-        <v>1109</v>
-      </c>
-      <c r="B89" t="s">
-        <v>1110</v>
-      </c>
-      <c r="C89" t="s">
-        <v>1129</v>
-      </c>
-      <c r="D89" t="s">
-        <v>1112</v>
-      </c>
-      <c r="E89" t="s">
-        <v>1111</v>
-      </c>
-      <c r="I89" t="s">
-        <v>576</v>
-      </c>
-      <c r="J89" t="s">
-        <v>576</v>
-      </c>
-      <c r="K89" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="90" spans="1:20">
-      <c r="A90" t="s">
-        <v>1113</v>
-      </c>
-      <c r="B90" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C90" t="s">
-        <v>1130</v>
-      </c>
-      <c r="D90" t="s">
-        <v>1116</v>
-      </c>
-      <c r="E90" t="s">
-        <v>1115</v>
-      </c>
-      <c r="F90" t="s">
-        <v>1136</v>
-      </c>
-      <c r="G90" t="s">
-        <v>1117</v>
-      </c>
-      <c r="H90" t="s">
-        <v>1118</v>
-      </c>
-      <c r="I90" t="s">
-        <v>1115</v>
-      </c>
-      <c r="J90" t="s">
-        <v>1116</v>
-      </c>
-      <c r="K90" t="s">
-        <v>1115</v>
-      </c>
-      <c r="L90" t="s">
-        <v>1119</v>
-      </c>
-      <c r="M90" t="s">
-        <v>1120</v>
-      </c>
-      <c r="N90" t="s">
-        <v>1121</v>
-      </c>
-      <c r="R90" t="s">
-        <v>1168</v>
-      </c>
-      <c r="S90" t="s">
-        <v>1122</v>
-      </c>
-      <c r="T90" t="s">
-        <v>1123</v>
-      </c>
-    </row>
-    <row r="91" spans="1:20">
-      <c r="A91" t="s">
-        <v>654</v>
-      </c>
-      <c r="B91" t="s">
-        <v>691</v>
-      </c>
-      <c r="C91" t="s">
-        <v>758</v>
-      </c>
-      <c r="D91" t="s">
-        <v>655</v>
-      </c>
-      <c r="E91" t="s">
-        <v>656</v>
-      </c>
-      <c r="F91" t="s">
-        <v>825</v>
-      </c>
-      <c r="G91" t="s">
-        <v>657</v>
-      </c>
-      <c r="H91" t="s">
-        <v>658</v>
-      </c>
-      <c r="L91" t="s">
-        <v>917</v>
-      </c>
-      <c r="M91" t="s">
-        <v>659</v>
-      </c>
-      <c r="N91" t="s">
-        <v>660</v>
-      </c>
-      <c r="R91" t="s">
-        <v>1169</v>
-      </c>
-      <c r="S91" t="s">
-        <v>640</v>
-      </c>
-      <c r="T91" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="92" spans="1:20">
-      <c r="A92" t="s">
-        <v>661</v>
-      </c>
-      <c r="B92" t="s">
-        <v>691</v>
-      </c>
-      <c r="C92" t="s">
-        <v>759</v>
-      </c>
-      <c r="D92" t="s">
-        <v>662</v>
-      </c>
-      <c r="E92" t="s">
-        <v>663</v>
-      </c>
-      <c r="F92" t="s">
-        <v>826</v>
-      </c>
-      <c r="G92" t="s">
-        <v>664</v>
-      </c>
-      <c r="H92" t="s">
-        <v>665</v>
-      </c>
-      <c r="L92" t="s">
-        <v>918</v>
-      </c>
-      <c r="M92" t="s">
-        <v>666</v>
-      </c>
-      <c r="N92" t="s">
-        <v>667</v>
-      </c>
-      <c r="R92" t="s">
-        <v>1169</v>
-      </c>
-      <c r="S92" t="s">
-        <v>640</v>
-      </c>
-      <c r="T92" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="93" spans="1:20">
-      <c r="A93" t="s">
-        <v>387</v>
-      </c>
-      <c r="B93" t="s">
-        <v>682</v>
-      </c>
-      <c r="C93" t="s">
-        <v>729</v>
-      </c>
-      <c r="D93" t="s">
-        <v>388</v>
-      </c>
-      <c r="E93" t="s">
-        <v>389</v>
-      </c>
-      <c r="F93" t="s">
-        <v>797</v>
-      </c>
-      <c r="G93" t="s">
-        <v>390</v>
-      </c>
-      <c r="H93" t="s">
-        <v>391</v>
-      </c>
-      <c r="I93" t="s">
-        <v>729</v>
-      </c>
-      <c r="J93" t="s">
-        <v>392</v>
-      </c>
-      <c r="K93" t="s">
-        <v>389</v>
-      </c>
-      <c r="L93" t="s">
-        <v>895</v>
-      </c>
-      <c r="M93" t="s">
-        <v>393</v>
-      </c>
-      <c r="N93" t="s">
-        <v>394</v>
-      </c>
-      <c r="R93" t="s">
-        <v>1170</v>
-      </c>
-      <c r="S93" t="s">
-        <v>395</v>
-      </c>
-      <c r="T93" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="94" spans="1:20">
-      <c r="A94" t="s">
-        <v>40</v>
-      </c>
-      <c r="B94" t="s">
-        <v>670</v>
-      </c>
-      <c r="C94" t="s">
-        <v>41</v>
-      </c>
-      <c r="D94" t="s">
-        <v>41</v>
-      </c>
-      <c r="E94" t="s">
-        <v>42</v>
-      </c>
-      <c r="F94" t="s">
-        <v>762</v>
-      </c>
-      <c r="G94" t="s">
-        <v>43</v>
-      </c>
-      <c r="H94" t="s">
-        <v>44</v>
-      </c>
       <c r="I94" t="s">
-        <v>41</v>
+        <v>1142</v>
       </c>
       <c r="J94" t="s">
-        <v>41</v>
+        <v>1134</v>
       </c>
       <c r="K94" t="s">
-        <v>42</v>
-      </c>
-      <c r="L94" t="s">
-        <v>866</v>
-      </c>
-      <c r="M94" t="s">
-        <v>45</v>
-      </c>
-      <c r="N94" t="s">
-        <v>46</v>
-      </c>
-      <c r="R94" t="s">
-        <v>1173</v>
-      </c>
-      <c r="S94" t="s">
-        <v>47</v>
-      </c>
-      <c r="T94" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="95" spans="1:20">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>49</v>
+        <v>593</v>
       </c>
       <c r="B95" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="C95" t="s">
-        <v>694</v>
+        <v>749</v>
       </c>
       <c r="D95" t="s">
-        <v>50</v>
+        <v>594</v>
       </c>
       <c r="E95" t="s">
-        <v>51</v>
-      </c>
-      <c r="F95" t="s">
-        <v>763</v>
-      </c>
-      <c r="G95" t="s">
-        <v>52</v>
-      </c>
-      <c r="H95" t="s">
-        <v>53</v>
+        <v>595</v>
       </c>
       <c r="I95" t="s">
-        <v>694</v>
+        <v>854</v>
       </c>
       <c r="J95" t="s">
-        <v>50</v>
+        <v>596</v>
       </c>
       <c r="K95" t="s">
-        <v>51</v>
-      </c>
-      <c r="L95" t="s">
-        <v>867</v>
-      </c>
-      <c r="M95" t="s">
-        <v>54</v>
-      </c>
-      <c r="N95" t="s">
-        <v>55</v>
-      </c>
-      <c r="R95" t="s">
-        <v>1171</v>
-      </c>
-      <c r="S95" t="s">
-        <v>56</v>
-      </c>
-      <c r="T95" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="96" spans="1:20">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>529</v>
       </c>
@@ -8521,7 +8542,7 @@
         <v>686</v>
       </c>
       <c r="C96" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="D96" t="s">
         <v>530</v>
@@ -8530,7 +8551,7 @@
         <v>531</v>
       </c>
       <c r="F96" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="G96" t="s">
         <v>532</v>
@@ -8548,124 +8569,88 @@
         <v>531</v>
       </c>
     </row>
-    <row r="97" spans="1:20">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>1137</v>
+        <v>500</v>
       </c>
       <c r="B97" t="s">
-        <v>1138</v>
+        <v>671</v>
       </c>
       <c r="C97" t="s">
-        <v>1153</v>
+        <v>741</v>
       </c>
       <c r="D97" t="s">
-        <v>1139</v>
+        <v>501</v>
       </c>
       <c r="E97" t="s">
-        <v>1140</v>
-      </c>
-      <c r="F97" t="s">
-        <v>1135</v>
-      </c>
-      <c r="G97" t="s">
-        <v>409</v>
-      </c>
-      <c r="H97" t="s">
-        <v>410</v>
+        <v>502</v>
       </c>
       <c r="I97" t="s">
-        <v>1153</v>
+        <v>741</v>
       </c>
       <c r="J97" t="s">
-        <v>1139</v>
+        <v>501</v>
       </c>
       <c r="K97" t="s">
-        <v>1140</v>
-      </c>
-      <c r="L97" t="s">
-        <v>1157</v>
-      </c>
-      <c r="M97" t="s">
-        <v>1141</v>
-      </c>
-      <c r="N97" t="s">
-        <v>1142</v>
-      </c>
-      <c r="R97" t="s">
-        <v>1174</v>
-      </c>
-      <c r="S97" t="s">
-        <v>1143</v>
-      </c>
-      <c r="T97" t="s">
-        <v>1144</v>
-      </c>
-    </row>
-    <row r="98" spans="1:20">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>1145</v>
+        <v>1072</v>
       </c>
       <c r="B98" t="s">
-        <v>1138</v>
+        <v>1073</v>
       </c>
       <c r="C98" t="s">
-        <v>1154</v>
+        <v>1113</v>
       </c>
       <c r="D98" t="s">
-        <v>1146</v>
+        <v>1074</v>
       </c>
       <c r="E98" t="s">
-        <v>1147</v>
+        <v>1075</v>
+      </c>
+      <c r="F98" t="s">
+        <v>1120</v>
+      </c>
+      <c r="G98" t="s">
+        <v>1076</v>
+      </c>
+      <c r="H98" t="s">
+        <v>1077</v>
       </c>
       <c r="I98" t="s">
-        <v>1154</v>
+        <v>1163</v>
       </c>
       <c r="J98" t="s">
-        <v>1146</v>
+        <v>1074</v>
       </c>
       <c r="K98" t="s">
-        <v>1147</v>
-      </c>
-    </row>
-    <row r="99" spans="1:20">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>1148</v>
+        <v>610</v>
       </c>
       <c r="B99" t="s">
-        <v>1138</v>
+        <v>671</v>
       </c>
       <c r="C99" t="s">
-        <v>1155</v>
+        <v>611</v>
       </c>
       <c r="D99" t="s">
-        <v>1149</v>
+        <v>611</v>
       </c>
       <c r="E99" t="s">
-        <v>1150</v>
-      </c>
-      <c r="F99" t="s">
-        <v>1156</v>
-      </c>
-      <c r="G99" t="s">
-        <v>1151</v>
-      </c>
-      <c r="H99" t="s">
-        <v>1152</v>
-      </c>
-      <c r="I99" t="s">
-        <v>1155</v>
-      </c>
-      <c r="J99" t="s">
-        <v>1149</v>
-      </c>
-      <c r="K99" t="s">
-        <v>1150</v>
+        <v>612</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A2:T83" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:T96">
-      <sortCondition ref="B2:B83"/>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:T99">
+      <sortCondition ref="R2:R83"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/PTBR/Lang/PTBR/Game/Stat.xlsx
+++ b/PTBR/Lang/PTBR/Game/Stat.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ysi\Documents\GitHub\elin-portugues-brasileiro\PTBR\Lang\PTBR\Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39100D7A-D0FF-4712-9380-2DE7D99A118D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C38AF8C6-DE27-400D-98BC-E8C14A4B501D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10320" yWindow="0" windowWidth="10320" windowHeight="13500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Stat" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1490" uniqueCount="1170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1515" uniqueCount="1183">
   <si>
     <t>id</t>
   </si>
@@ -3573,12 +3573,51 @@
   <si>
     <t>#1 desperta para o Sétimo Sentido!</t>
   </si>
+  <si>
+    <t>EA 23.261</t>
+  </si>
+  <si>
+    <t>Sentence that causes death after a certain period of time. It can be lifted by leaving the current map or destroying the sentenser.</t>
+  </si>
+  <si>
+    <t>一定時間後に死ぬ宣告。現在のマップを離れるか、宣告者を破壊することで解除される。</t>
+  </si>
+  <si>
+    <t>104</t>
+  </si>
+  <si>
+    <t>EA 23.264</t>
+  </si>
+  <si>
+    <t>Mental Barrier</t>
+  </si>
+  <si>
+    <t>心の壁</t>
+  </si>
+  <si>
+    <t>A condition where telekinesis has reduced effect.</t>
+  </si>
+  <si>
+    <t>テレキネシスの影響を受けにくくなる状態。</t>
+  </si>
+  <si>
+    <t>Barreira Mental</t>
+  </si>
+  <si>
+    <t>Sentença que causa a morte após um determinado período de tempo. Pode ser desfeita ao sair do mapa atual ou destruindo quem a sentenciou.</t>
+  </si>
+  <si>
+    <t>Uma condição em que a telecinese tem efeito reduzido.</t>
+  </si>
+  <si>
+    <t>#1 foi/foram sentenciado(s) à morte.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -3952,36 +3991,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T99"/>
+  <dimension ref="A1:T101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L64" sqref="L64"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L100" sqref="L100"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="2" width="16" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="23.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="23.875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="4" max="5" width="16" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="144.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="118.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="89.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="144.875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="118.25" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="89.375" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="9" max="9" width="66" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="45.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="35.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="168.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="56.42578125" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="184.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="146.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="45.625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="35.75" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="168.25" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="56.375" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="184.125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="146.125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="16" max="16" width="16" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="167.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="44.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="41.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="167.125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="44.25" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="41.25" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="20" max="20" width="16" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4043,1817 +4082,1658 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="B3" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="C3" t="s">
-        <v>41</v>
+        <v>699</v>
       </c>
       <c r="D3" t="s">
-        <v>41</v>
+        <v>101</v>
       </c>
       <c r="E3" t="s">
-        <v>42</v>
+        <v>102</v>
       </c>
       <c r="F3" t="s">
-        <v>762</v>
+        <v>768</v>
       </c>
       <c r="G3" t="s">
-        <v>43</v>
+        <v>103</v>
       </c>
       <c r="H3" t="s">
-        <v>44</v>
+        <v>104</v>
       </c>
       <c r="I3" t="s">
-        <v>41</v>
+        <v>830</v>
       </c>
       <c r="J3" t="s">
-        <v>41</v>
+        <v>105</v>
       </c>
       <c r="K3" t="s">
-        <v>42</v>
+        <v>102</v>
       </c>
       <c r="L3" t="s">
-        <v>866</v>
+        <v>871</v>
       </c>
       <c r="M3" t="s">
-        <v>45</v>
+        <v>106</v>
       </c>
       <c r="N3" t="s">
-        <v>46</v>
+        <v>107</v>
       </c>
       <c r="R3" t="s">
-        <v>1161</v>
+        <v>927</v>
       </c>
       <c r="S3" t="s">
-        <v>47</v>
+        <v>108</v>
       </c>
       <c r="T3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>1102</v>
+        <v>491</v>
       </c>
       <c r="B4" t="s">
-        <v>1103</v>
+        <v>671</v>
       </c>
       <c r="C4" t="s">
-        <v>1118</v>
+        <v>492</v>
       </c>
       <c r="D4" t="s">
-        <v>1105</v>
+        <v>492</v>
       </c>
       <c r="E4" t="s">
-        <v>1104</v>
+        <v>493</v>
       </c>
       <c r="F4" t="s">
-        <v>1124</v>
+        <v>809</v>
       </c>
       <c r="G4" t="s">
-        <v>1106</v>
+        <v>494</v>
       </c>
       <c r="H4" t="s">
-        <v>1107</v>
+        <v>495</v>
       </c>
       <c r="I4" t="s">
-        <v>1118</v>
+        <v>492</v>
       </c>
       <c r="J4" t="s">
-        <v>1105</v>
+        <v>492</v>
       </c>
       <c r="K4" t="s">
-        <v>1104</v>
+        <v>493</v>
       </c>
       <c r="L4" t="s">
-        <v>1168</v>
+        <v>907</v>
       </c>
       <c r="M4" t="s">
-        <v>1108</v>
+        <v>496</v>
       </c>
       <c r="N4" t="s">
-        <v>1109</v>
+        <v>497</v>
       </c>
       <c r="R4" t="s">
-        <v>1156</v>
+        <v>958</v>
       </c>
       <c r="S4" t="s">
-        <v>1110</v>
+        <v>498</v>
       </c>
       <c r="T4" t="s">
-        <v>1111</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>1062</v>
+        <v>371</v>
       </c>
       <c r="B5" t="s">
-        <v>1063</v>
+        <v>671</v>
       </c>
       <c r="C5" t="s">
-        <v>1112</v>
+        <v>727</v>
       </c>
       <c r="D5" t="s">
-        <v>1064</v>
+        <v>372</v>
       </c>
       <c r="E5" t="s">
-        <v>1065</v>
+        <v>373</v>
       </c>
       <c r="F5" t="s">
-        <v>1119</v>
+        <v>795</v>
       </c>
       <c r="G5" t="s">
-        <v>1066</v>
+        <v>374</v>
       </c>
       <c r="H5" t="s">
-        <v>1067</v>
+        <v>375</v>
       </c>
       <c r="I5" t="s">
-        <v>1112</v>
+        <v>727</v>
       </c>
       <c r="J5" t="s">
-        <v>1064</v>
+        <v>372</v>
       </c>
       <c r="K5" t="s">
-        <v>1065</v>
+        <v>373</v>
       </c>
       <c r="L5" t="s">
-        <v>1166</v>
+        <v>893</v>
       </c>
       <c r="M5" t="s">
-        <v>1068</v>
+        <v>376</v>
       </c>
       <c r="N5" t="s">
-        <v>1069</v>
+        <v>377</v>
       </c>
       <c r="R5" t="s">
-        <v>1154</v>
+        <v>951</v>
       </c>
       <c r="S5" t="s">
-        <v>1070</v>
+        <v>378</v>
       </c>
       <c r="T5" t="s">
-        <v>1071</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>1086</v>
+        <v>480</v>
       </c>
       <c r="B6" t="s">
-        <v>1087</v>
+        <v>671</v>
       </c>
       <c r="C6" t="s">
-        <v>1115</v>
+        <v>740</v>
       </c>
       <c r="D6" t="s">
-        <v>1088</v>
+        <v>481</v>
       </c>
       <c r="E6" t="s">
-        <v>1089</v>
+        <v>482</v>
       </c>
       <c r="F6" t="s">
-        <v>1122</v>
+        <v>808</v>
       </c>
       <c r="G6" t="s">
-        <v>1090</v>
+        <v>483</v>
       </c>
       <c r="H6" t="s">
-        <v>1091</v>
+        <v>484</v>
       </c>
       <c r="I6" t="s">
-        <v>1115</v>
+        <v>847</v>
       </c>
       <c r="J6" t="s">
-        <v>1088</v>
+        <v>485</v>
       </c>
       <c r="K6" t="s">
-        <v>1089</v>
+        <v>486</v>
       </c>
       <c r="L6" t="s">
-        <v>1167</v>
+        <v>906</v>
       </c>
       <c r="M6" t="s">
-        <v>1092</v>
+        <v>487</v>
       </c>
       <c r="N6" t="s">
-        <v>1093</v>
+        <v>488</v>
       </c>
       <c r="R6" t="s">
-        <v>1154</v>
+        <v>957</v>
       </c>
       <c r="S6" t="s">
-        <v>1070</v>
+        <v>489</v>
       </c>
       <c r="T6" t="s">
-        <v>1071</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>49</v>
+        <v>138</v>
       </c>
       <c r="B7" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="C7" t="s">
-        <v>694</v>
+        <v>703</v>
       </c>
       <c r="D7" t="s">
-        <v>50</v>
+        <v>139</v>
       </c>
       <c r="E7" t="s">
-        <v>51</v>
+        <v>140</v>
       </c>
       <c r="F7" t="s">
-        <v>763</v>
+        <v>771</v>
       </c>
       <c r="G7" t="s">
-        <v>52</v>
+        <v>141</v>
       </c>
       <c r="H7" t="s">
-        <v>53</v>
+        <v>142</v>
       </c>
       <c r="I7" t="s">
-        <v>694</v>
+        <v>834</v>
       </c>
       <c r="J7" t="s">
-        <v>50</v>
+        <v>143</v>
       </c>
       <c r="K7" t="s">
-        <v>51</v>
+        <v>140</v>
       </c>
       <c r="L7" t="s">
-        <v>867</v>
+        <v>874</v>
       </c>
       <c r="M7" t="s">
-        <v>54</v>
+        <v>144</v>
       </c>
       <c r="N7" t="s">
-        <v>55</v>
+        <v>145</v>
       </c>
       <c r="R7" t="s">
-        <v>1159</v>
+        <v>931</v>
       </c>
       <c r="S7" t="s">
-        <v>56</v>
+        <v>146</v>
       </c>
       <c r="T7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>1125</v>
+        <v>179</v>
       </c>
       <c r="B8" t="s">
-        <v>1126</v>
+        <v>671</v>
       </c>
       <c r="C8" t="s">
-        <v>1141</v>
+        <v>707</v>
       </c>
       <c r="D8" t="s">
-        <v>1127</v>
+        <v>180</v>
       </c>
       <c r="E8" t="s">
-        <v>1128</v>
+        <v>181</v>
       </c>
       <c r="F8" t="s">
-        <v>1123</v>
+        <v>775</v>
       </c>
       <c r="G8" t="s">
-        <v>409</v>
+        <v>182</v>
       </c>
       <c r="H8" t="s">
-        <v>410</v>
+        <v>183</v>
       </c>
       <c r="I8" t="s">
-        <v>1141</v>
+        <v>838</v>
       </c>
       <c r="J8" t="s">
-        <v>1127</v>
+        <v>184</v>
       </c>
       <c r="K8" t="s">
-        <v>1128</v>
+        <v>185</v>
       </c>
       <c r="L8" t="s">
-        <v>1145</v>
+        <v>878</v>
       </c>
       <c r="M8" t="s">
-        <v>1129</v>
+        <v>186</v>
       </c>
       <c r="N8" t="s">
-        <v>1130</v>
+        <v>187</v>
       </c>
       <c r="R8" t="s">
-        <v>1162</v>
+        <v>935</v>
       </c>
       <c r="S8" t="s">
-        <v>1131</v>
+        <v>188</v>
       </c>
       <c r="T8" t="s">
-        <v>1132</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>1026</v>
+        <v>354</v>
       </c>
       <c r="B9" t="s">
-        <v>1027</v>
+        <v>671</v>
       </c>
       <c r="C9" t="s">
-        <v>1043</v>
+        <v>725</v>
       </c>
       <c r="D9" t="s">
-        <v>1028</v>
+        <v>355</v>
       </c>
       <c r="E9" t="s">
-        <v>1029</v>
+        <v>356</v>
       </c>
       <c r="F9" t="s">
-        <v>1050</v>
+        <v>793</v>
       </c>
       <c r="G9" t="s">
-        <v>1030</v>
+        <v>357</v>
       </c>
       <c r="H9" t="s">
-        <v>1031</v>
+        <v>358</v>
       </c>
       <c r="I9" t="s">
-        <v>1043</v>
+        <v>725</v>
       </c>
       <c r="J9" t="s">
-        <v>1028</v>
+        <v>359</v>
       </c>
       <c r="K9" t="s">
-        <v>1029</v>
+        <v>356</v>
       </c>
       <c r="L9" t="s">
-        <v>1056</v>
+        <v>891</v>
       </c>
       <c r="M9" t="s">
-        <v>1032</v>
+        <v>360</v>
       </c>
       <c r="N9" t="s">
-        <v>1033</v>
+        <v>361</v>
       </c>
       <c r="R9" t="s">
-        <v>1152</v>
+        <v>950</v>
       </c>
       <c r="S9" t="s">
-        <v>1034</v>
+        <v>362</v>
       </c>
       <c r="T9" t="s">
-        <v>1035</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>237</v>
+        <v>82</v>
       </c>
       <c r="B10" t="s">
-        <v>1001</v>
+        <v>671</v>
       </c>
       <c r="C10" t="s">
-        <v>1039</v>
+        <v>697</v>
       </c>
       <c r="D10" t="s">
-        <v>238</v>
+        <v>83</v>
       </c>
       <c r="E10" t="s">
-        <v>239</v>
+        <v>84</v>
       </c>
       <c r="F10" t="s">
-        <v>1046</v>
+        <v>766</v>
       </c>
       <c r="G10" t="s">
-        <v>1002</v>
+        <v>85</v>
       </c>
       <c r="H10" t="s">
-        <v>1003</v>
+        <v>86</v>
       </c>
       <c r="I10" t="s">
-        <v>1039</v>
+        <v>829</v>
       </c>
       <c r="J10" t="s">
-        <v>238</v>
+        <v>83</v>
       </c>
       <c r="K10" t="s">
-        <v>239</v>
+        <v>84</v>
       </c>
       <c r="L10" t="s">
-        <v>1052</v>
+        <v>869</v>
       </c>
       <c r="M10" t="s">
-        <v>242</v>
+        <v>87</v>
       </c>
       <c r="N10" t="s">
-        <v>243</v>
+        <v>88</v>
       </c>
       <c r="R10" t="s">
-        <v>1149</v>
+        <v>925</v>
       </c>
       <c r="S10" t="s">
-        <v>244</v>
+        <v>89</v>
       </c>
       <c r="T10" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>1022</v>
+        <v>423</v>
       </c>
       <c r="B11" t="s">
-        <v>1023</v>
+        <v>671</v>
       </c>
       <c r="C11" t="s">
-        <v>1042</v>
+        <v>733</v>
       </c>
       <c r="D11" t="s">
-        <v>1024</v>
+        <v>424</v>
       </c>
       <c r="E11" t="s">
-        <v>1025</v>
+        <v>425</v>
       </c>
       <c r="F11" t="s">
-        <v>1049</v>
+        <v>801</v>
       </c>
       <c r="G11" t="s">
-        <v>409</v>
+        <v>426</v>
       </c>
       <c r="H11" t="s">
-        <v>410</v>
+        <v>427</v>
       </c>
       <c r="I11" t="s">
-        <v>1042</v>
+        <v>733</v>
       </c>
       <c r="J11" t="s">
-        <v>1024</v>
+        <v>424</v>
       </c>
       <c r="K11" t="s">
-        <v>1025</v>
+        <v>425</v>
       </c>
       <c r="L11" t="s">
-        <v>1055</v>
+        <v>899</v>
       </c>
       <c r="M11" t="s">
-        <v>411</v>
+        <v>428</v>
       </c>
       <c r="N11" t="s">
-        <v>412</v>
+        <v>429</v>
       </c>
       <c r="R11" t="s">
-        <v>1151</v>
+        <v>953</v>
       </c>
       <c r="S11" t="s">
-        <v>404</v>
+        <v>430</v>
       </c>
       <c r="T11" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>1094</v>
+        <v>168</v>
       </c>
       <c r="B12" t="s">
-        <v>1095</v>
+        <v>671</v>
       </c>
       <c r="C12" t="s">
-        <v>1116</v>
+        <v>706</v>
       </c>
       <c r="D12" t="s">
-        <v>1096</v>
+        <v>169</v>
       </c>
       <c r="E12" t="s">
-        <v>1097</v>
+        <v>170</v>
       </c>
       <c r="F12" t="s">
-        <v>1123</v>
+        <v>774</v>
       </c>
       <c r="G12" t="s">
-        <v>409</v>
+        <v>171</v>
       </c>
       <c r="H12" t="s">
-        <v>410</v>
+        <v>172</v>
       </c>
       <c r="I12" t="s">
-        <v>1116</v>
+        <v>837</v>
       </c>
       <c r="J12" t="s">
-        <v>1096</v>
+        <v>173</v>
       </c>
       <c r="K12" t="s">
-        <v>1097</v>
+        <v>174</v>
       </c>
       <c r="L12" t="s">
-        <v>1165</v>
+        <v>877</v>
       </c>
       <c r="M12" t="s">
-        <v>411</v>
+        <v>175</v>
       </c>
       <c r="N12" t="s">
-        <v>412</v>
+        <v>176</v>
       </c>
       <c r="R12" t="s">
-        <v>1151</v>
+        <v>934</v>
       </c>
       <c r="S12" t="s">
-        <v>404</v>
+        <v>177</v>
       </c>
       <c r="T12" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="B13" t="s">
         <v>671</v>
       </c>
       <c r="C13" t="s">
-        <v>699</v>
+        <v>702</v>
       </c>
       <c r="D13" t="s">
-        <v>101</v>
+        <v>131</v>
       </c>
       <c r="E13" t="s">
-        <v>102</v>
+        <v>132</v>
       </c>
       <c r="F13" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="G13" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="H13" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="I13" t="s">
-        <v>830</v>
+        <v>833</v>
       </c>
       <c r="J13" t="s">
-        <v>105</v>
+        <v>133</v>
       </c>
       <c r="K13" t="s">
-        <v>102</v>
+        <v>132</v>
       </c>
       <c r="L13" t="s">
-        <v>871</v>
+        <v>862</v>
       </c>
       <c r="M13" t="s">
-        <v>106</v>
+        <v>134</v>
       </c>
       <c r="N13" t="s">
-        <v>107</v>
+        <v>135</v>
       </c>
       <c r="R13" t="s">
-        <v>927</v>
+        <v>930</v>
       </c>
       <c r="S13" t="s">
-        <v>108</v>
+        <v>136</v>
       </c>
       <c r="T13" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>264</v>
+        <v>110</v>
       </c>
       <c r="B14" t="s">
-        <v>677</v>
+        <v>671</v>
       </c>
       <c r="C14" t="s">
-        <v>716</v>
+        <v>700</v>
       </c>
       <c r="D14" t="s">
-        <v>265</v>
+        <v>111</v>
       </c>
       <c r="E14" t="s">
-        <v>266</v>
+        <v>112</v>
       </c>
       <c r="F14" t="s">
-        <v>784</v>
+        <v>769</v>
       </c>
       <c r="G14" t="s">
-        <v>267</v>
+        <v>113</v>
       </c>
       <c r="H14" t="s">
-        <v>268</v>
+        <v>114</v>
       </c>
       <c r="I14" t="s">
-        <v>716</v>
+        <v>831</v>
       </c>
       <c r="J14" t="s">
-        <v>265</v>
+        <v>115</v>
       </c>
       <c r="K14" t="s">
-        <v>266</v>
+        <v>112</v>
       </c>
       <c r="L14" t="s">
-        <v>885</v>
+        <v>872</v>
       </c>
       <c r="M14" t="s">
-        <v>269</v>
+        <v>116</v>
       </c>
       <c r="N14" t="s">
-        <v>270</v>
+        <v>117</v>
       </c>
       <c r="R14" t="s">
-        <v>943</v>
+        <v>928</v>
       </c>
       <c r="S14" t="s">
-        <v>271</v>
+        <v>118</v>
       </c>
       <c r="T14" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>120</v>
+        <v>91</v>
       </c>
       <c r="B15" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="C15" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="D15" t="s">
-        <v>121</v>
+        <v>92</v>
       </c>
       <c r="E15" t="s">
-        <v>122</v>
+        <v>93</v>
       </c>
       <c r="F15" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="G15" t="s">
-        <v>123</v>
+        <v>94</v>
       </c>
       <c r="H15" t="s">
-        <v>124</v>
+        <v>95</v>
       </c>
       <c r="I15" t="s">
-        <v>832</v>
+        <v>698</v>
       </c>
       <c r="J15" t="s">
-        <v>125</v>
+        <v>92</v>
       </c>
       <c r="K15" t="s">
-        <v>122</v>
+        <v>93</v>
       </c>
       <c r="L15" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
       <c r="M15" t="s">
-        <v>126</v>
+        <v>96</v>
       </c>
       <c r="N15" t="s">
-        <v>127</v>
+        <v>97</v>
       </c>
       <c r="R15" t="s">
-        <v>929</v>
+        <v>926</v>
       </c>
       <c r="S15" t="s">
-        <v>128</v>
+        <v>98</v>
       </c>
       <c r="T15" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>491</v>
+        <v>534</v>
       </c>
       <c r="B16" t="s">
         <v>671</v>
       </c>
       <c r="C16" t="s">
-        <v>492</v>
+        <v>696</v>
       </c>
       <c r="D16" t="s">
-        <v>492</v>
+        <v>535</v>
       </c>
       <c r="E16" t="s">
-        <v>493</v>
+        <v>536</v>
       </c>
       <c r="F16" t="s">
-        <v>809</v>
+        <v>813</v>
       </c>
       <c r="G16" t="s">
-        <v>494</v>
+        <v>537</v>
       </c>
       <c r="H16" t="s">
-        <v>495</v>
+        <v>538</v>
       </c>
       <c r="I16" t="s">
-        <v>492</v>
+        <v>696</v>
       </c>
       <c r="J16" t="s">
-        <v>492</v>
+        <v>535</v>
       </c>
       <c r="K16" t="s">
-        <v>493</v>
+        <v>536</v>
       </c>
       <c r="L16" t="s">
-        <v>907</v>
+        <v>910</v>
       </c>
       <c r="M16" t="s">
-        <v>496</v>
+        <v>539</v>
       </c>
       <c r="N16" t="s">
-        <v>497</v>
+        <v>540</v>
       </c>
       <c r="R16" t="s">
-        <v>958</v>
+        <v>961</v>
       </c>
       <c r="S16" t="s">
-        <v>498</v>
+        <v>541</v>
       </c>
       <c r="T16" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>453</v>
+        <v>148</v>
       </c>
       <c r="B17" t="s">
-        <v>683</v>
+        <v>671</v>
       </c>
       <c r="C17" t="s">
-        <v>737</v>
+        <v>704</v>
       </c>
       <c r="D17" t="s">
-        <v>454</v>
+        <v>149</v>
       </c>
       <c r="E17" t="s">
-        <v>455</v>
+        <v>150</v>
       </c>
       <c r="F17" t="s">
-        <v>805</v>
+        <v>772</v>
       </c>
       <c r="G17" t="s">
-        <v>456</v>
+        <v>151</v>
       </c>
       <c r="H17" t="s">
-        <v>457</v>
+        <v>152</v>
       </c>
       <c r="I17" t="s">
-        <v>737</v>
+        <v>835</v>
       </c>
       <c r="J17" t="s">
-        <v>454</v>
+        <v>149</v>
       </c>
       <c r="K17" t="s">
-        <v>455</v>
+        <v>150</v>
       </c>
       <c r="L17" t="s">
-        <v>903</v>
+        <v>875</v>
       </c>
       <c r="M17" t="s">
-        <v>458</v>
+        <v>153</v>
       </c>
       <c r="N17" t="s">
-        <v>459</v>
+        <v>154</v>
       </c>
       <c r="R17" t="s">
-        <v>955</v>
+        <v>932</v>
       </c>
       <c r="S17" t="s">
-        <v>460</v>
+        <v>155</v>
       </c>
       <c r="T17" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>201</v>
+        <v>469</v>
       </c>
       <c r="B18" t="s">
-        <v>668</v>
+        <v>671</v>
       </c>
       <c r="C18" t="s">
-        <v>709</v>
+        <v>739</v>
       </c>
       <c r="D18" t="s">
-        <v>202</v>
+        <v>470</v>
       </c>
       <c r="E18" t="s">
-        <v>203</v>
+        <v>471</v>
       </c>
       <c r="F18" t="s">
-        <v>777</v>
+        <v>807</v>
       </c>
       <c r="G18" t="s">
-        <v>204</v>
+        <v>472</v>
       </c>
       <c r="H18" t="s">
-        <v>205</v>
+        <v>473</v>
       </c>
       <c r="I18" t="s">
-        <v>840</v>
+        <v>846</v>
       </c>
       <c r="J18" t="s">
-        <v>206</v>
+        <v>474</v>
       </c>
       <c r="K18" t="s">
-        <v>207</v>
-      </c>
-      <c r="L18" s="2" t="s">
-        <v>880</v>
+        <v>475</v>
+      </c>
+      <c r="L18" t="s">
+        <v>905</v>
       </c>
       <c r="M18" t="s">
-        <v>208</v>
+        <v>476</v>
       </c>
       <c r="N18" t="s">
-        <v>209</v>
+        <v>477</v>
       </c>
       <c r="R18" t="s">
-        <v>937</v>
+        <v>956</v>
       </c>
       <c r="S18" t="s">
-        <v>210</v>
+        <v>478</v>
       </c>
       <c r="T18" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>512</v>
+        <v>503</v>
       </c>
       <c r="B19" t="s">
-        <v>685</v>
+        <v>671</v>
       </c>
       <c r="C19" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="D19" t="s">
-        <v>513</v>
+        <v>504</v>
       </c>
       <c r="E19" t="s">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="F19" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="G19" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
       <c r="H19" t="s">
-        <v>516</v>
+        <v>507</v>
       </c>
       <c r="I19" t="s">
-        <v>848</v>
+        <v>742</v>
       </c>
       <c r="J19" t="s">
-        <v>517</v>
+        <v>504</v>
       </c>
       <c r="K19" t="s">
-        <v>518</v>
+        <v>505</v>
       </c>
       <c r="L19" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="M19" t="s">
-        <v>519</v>
+        <v>508</v>
       </c>
       <c r="N19" t="s">
-        <v>520</v>
+        <v>509</v>
       </c>
       <c r="R19" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="S19" t="s">
-        <v>521</v>
+        <v>510</v>
       </c>
       <c r="T19" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>228</v>
+        <v>157</v>
       </c>
       <c r="B20" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="C20" t="s">
-        <v>712</v>
+        <v>705</v>
       </c>
       <c r="D20" t="s">
-        <v>229</v>
+        <v>158</v>
       </c>
       <c r="E20" t="s">
-        <v>230</v>
+        <v>159</v>
       </c>
       <c r="F20" t="s">
-        <v>780</v>
+        <v>773</v>
       </c>
       <c r="G20" t="s">
-        <v>231</v>
+        <v>160</v>
       </c>
       <c r="H20" t="s">
-        <v>232</v>
+        <v>161</v>
       </c>
       <c r="I20" t="s">
-        <v>842</v>
+        <v>836</v>
       </c>
       <c r="J20" t="s">
-        <v>229</v>
+        <v>162</v>
       </c>
       <c r="K20" t="s">
-        <v>230</v>
+        <v>163</v>
       </c>
       <c r="L20" t="s">
-        <v>881</v>
+        <v>876</v>
       </c>
       <c r="M20" t="s">
-        <v>233</v>
+        <v>164</v>
       </c>
       <c r="N20" t="s">
-        <v>234</v>
+        <v>165</v>
       </c>
       <c r="R20" t="s">
-        <v>939</v>
+        <v>933</v>
       </c>
       <c r="S20" t="s">
-        <v>235</v>
+        <v>166</v>
       </c>
       <c r="T20" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>654</v>
+        <v>302</v>
       </c>
       <c r="B21" t="s">
-        <v>691</v>
+        <v>671</v>
       </c>
       <c r="C21" t="s">
-        <v>758</v>
+        <v>720</v>
       </c>
       <c r="D21" t="s">
-        <v>655</v>
+        <v>303</v>
       </c>
       <c r="E21" t="s">
-        <v>656</v>
+        <v>304</v>
       </c>
       <c r="F21" t="s">
-        <v>825</v>
+        <v>788</v>
       </c>
       <c r="G21" t="s">
-        <v>657</v>
+        <v>305</v>
       </c>
       <c r="H21" t="s">
-        <v>658</v>
+        <v>306</v>
+      </c>
+      <c r="I21" t="s">
+        <v>720</v>
+      </c>
+      <c r="J21" t="s">
+        <v>303</v>
+      </c>
+      <c r="K21" t="s">
+        <v>304</v>
       </c>
       <c r="L21" t="s">
-        <v>917</v>
+        <v>865</v>
       </c>
       <c r="M21" t="s">
-        <v>659</v>
+        <v>307</v>
       </c>
       <c r="N21" t="s">
-        <v>660</v>
+        <v>308</v>
       </c>
       <c r="R21" t="s">
-        <v>1157</v>
+        <v>947</v>
       </c>
       <c r="S21" t="s">
-        <v>640</v>
+        <v>309</v>
       </c>
       <c r="T21" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>661</v>
+        <v>291</v>
       </c>
       <c r="B22" t="s">
-        <v>691</v>
+        <v>671</v>
       </c>
       <c r="C22" t="s">
-        <v>759</v>
+        <v>719</v>
       </c>
       <c r="D22" t="s">
-        <v>662</v>
+        <v>292</v>
       </c>
       <c r="E22" t="s">
-        <v>663</v>
+        <v>293</v>
       </c>
       <c r="F22" t="s">
-        <v>826</v>
+        <v>787</v>
       </c>
       <c r="G22" t="s">
-        <v>664</v>
+        <v>294</v>
       </c>
       <c r="H22" t="s">
-        <v>665</v>
+        <v>295</v>
+      </c>
+      <c r="I22" t="s">
+        <v>843</v>
+      </c>
+      <c r="J22" t="s">
+        <v>296</v>
+      </c>
+      <c r="K22" t="s">
+        <v>297</v>
       </c>
       <c r="L22" t="s">
-        <v>918</v>
+        <v>887</v>
       </c>
       <c r="M22" t="s">
-        <v>666</v>
+        <v>298</v>
       </c>
       <c r="N22" t="s">
-        <v>667</v>
+        <v>299</v>
       </c>
       <c r="R22" t="s">
-        <v>1157</v>
+        <v>946</v>
       </c>
       <c r="S22" t="s">
-        <v>640</v>
+        <v>300</v>
       </c>
       <c r="T22" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>328</v>
+        <v>364</v>
       </c>
       <c r="B23" t="s">
-        <v>966</v>
+        <v>671</v>
       </c>
       <c r="C23" t="s">
-        <v>988</v>
+        <v>726</v>
       </c>
       <c r="D23" t="s">
-        <v>988</v>
+        <v>365</v>
       </c>
       <c r="E23" t="s">
-        <v>329</v>
+        <v>366</v>
       </c>
       <c r="F23" t="s">
-        <v>992</v>
+        <v>794</v>
       </c>
       <c r="G23" t="s">
-        <v>969</v>
+        <v>367</v>
       </c>
       <c r="H23" t="s">
-        <v>970</v>
+        <v>368</v>
       </c>
       <c r="I23" t="s">
-        <v>997</v>
+        <v>726</v>
       </c>
       <c r="J23" t="s">
-        <v>330</v>
+        <v>365</v>
       </c>
       <c r="K23" t="s">
-        <v>329</v>
+        <v>366</v>
       </c>
       <c r="L23" t="s">
-        <v>1059</v>
+        <v>892</v>
       </c>
       <c r="M23" t="s">
-        <v>331</v>
+        <v>369</v>
       </c>
       <c r="N23" t="s">
-        <v>332</v>
+        <v>370</v>
       </c>
       <c r="R23" t="s">
-        <v>1147</v>
+        <v>954</v>
       </c>
       <c r="S23" t="s">
-        <v>333</v>
+        <v>309</v>
       </c>
       <c r="T23" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" t="s">
-        <v>423</v>
+        <v>212</v>
       </c>
       <c r="B24" t="s">
-        <v>1027</v>
+        <v>671</v>
       </c>
       <c r="C24" t="s">
-        <v>1044</v>
+        <v>710</v>
       </c>
       <c r="D24" t="s">
-        <v>424</v>
+        <v>213</v>
       </c>
       <c r="E24" t="s">
-        <v>425</v>
+        <v>214</v>
       </c>
       <c r="F24" t="s">
-        <v>1051</v>
+        <v>778</v>
       </c>
       <c r="G24" t="s">
-        <v>1036</v>
+        <v>215</v>
       </c>
       <c r="H24" t="s">
-        <v>1037</v>
+        <v>216</v>
       </c>
       <c r="I24" t="s">
-        <v>1044</v>
+        <v>710</v>
       </c>
       <c r="J24" t="s">
-        <v>424</v>
+        <v>213</v>
       </c>
       <c r="K24" t="s">
-        <v>425</v>
+        <v>214</v>
       </c>
       <c r="L24" t="s">
-        <v>1057</v>
+        <v>863</v>
       </c>
       <c r="M24" t="s">
-        <v>428</v>
+        <v>217</v>
       </c>
       <c r="N24" t="s">
-        <v>429</v>
+        <v>218</v>
       </c>
       <c r="R24" t="s">
-        <v>1153</v>
+        <v>938</v>
       </c>
       <c r="S24" t="s">
-        <v>430</v>
+        <v>219</v>
       </c>
       <c r="T24" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" ht="28.5">
       <c r="A25" t="s">
-        <v>371</v>
+        <v>58</v>
       </c>
       <c r="B25" t="s">
         <v>671</v>
       </c>
       <c r="C25" t="s">
-        <v>727</v>
+        <v>695</v>
       </c>
       <c r="D25" t="s">
-        <v>372</v>
+        <v>59</v>
       </c>
       <c r="E25" t="s">
-        <v>373</v>
+        <v>60</v>
       </c>
       <c r="F25" t="s">
-        <v>795</v>
+        <v>764</v>
       </c>
       <c r="G25" t="s">
-        <v>374</v>
+        <v>61</v>
       </c>
       <c r="H25" t="s">
-        <v>375</v>
+        <v>62</v>
       </c>
       <c r="I25" t="s">
-        <v>727</v>
+        <v>827</v>
       </c>
       <c r="J25" t="s">
-        <v>372</v>
+        <v>63</v>
       </c>
       <c r="K25" t="s">
-        <v>373</v>
-      </c>
-      <c r="L25" t="s">
-        <v>893</v>
+        <v>64</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>868</v>
       </c>
       <c r="M25" t="s">
-        <v>376</v>
+        <v>65</v>
       </c>
       <c r="N25" t="s">
-        <v>377</v>
+        <v>66</v>
+      </c>
+      <c r="O25" t="s">
+        <v>919</v>
+      </c>
+      <c r="P25" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>68</v>
       </c>
       <c r="R25" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="S25" t="s">
-        <v>378</v>
+        <v>69</v>
       </c>
       <c r="T25" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
       <c r="A26" t="s">
-        <v>480</v>
+        <v>565</v>
       </c>
       <c r="B26" t="s">
         <v>671</v>
       </c>
       <c r="C26" t="s">
-        <v>740</v>
+        <v>995</v>
       </c>
       <c r="D26" t="s">
-        <v>481</v>
+        <v>566</v>
       </c>
       <c r="E26" t="s">
-        <v>482</v>
+        <v>567</v>
       </c>
       <c r="F26" t="s">
-        <v>808</v>
+        <v>1000</v>
       </c>
       <c r="G26" t="s">
-        <v>483</v>
+        <v>568</v>
       </c>
       <c r="H26" t="s">
-        <v>484</v>
+        <v>569</v>
       </c>
       <c r="I26" t="s">
-        <v>847</v>
+        <v>998</v>
       </c>
       <c r="J26" t="s">
-        <v>485</v>
+        <v>570</v>
       </c>
       <c r="K26" t="s">
-        <v>486</v>
+        <v>571</v>
       </c>
       <c r="L26" t="s">
-        <v>906</v>
-      </c>
-      <c r="M26" t="s">
-        <v>487</v>
-      </c>
-      <c r="N26" t="s">
-        <v>488</v>
-      </c>
-      <c r="R26" t="s">
-        <v>957</v>
-      </c>
-      <c r="S26" t="s">
-        <v>489</v>
-      </c>
-      <c r="T26" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" ht="85.5">
       <c r="A27" t="s">
-        <v>190</v>
+        <v>554</v>
       </c>
       <c r="B27" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="C27" t="s">
-        <v>708</v>
+        <v>747</v>
       </c>
       <c r="D27" t="s">
-        <v>191</v>
+        <v>555</v>
       </c>
       <c r="E27" t="s">
-        <v>192</v>
+        <v>556</v>
       </c>
       <c r="F27" t="s">
-        <v>776</v>
+        <v>815</v>
       </c>
       <c r="G27" t="s">
-        <v>193</v>
+        <v>557</v>
       </c>
       <c r="H27" t="s">
-        <v>194</v>
+        <v>558</v>
       </c>
       <c r="I27" t="s">
-        <v>839</v>
+        <v>851</v>
       </c>
       <c r="J27" t="s">
-        <v>195</v>
+        <v>559</v>
       </c>
       <c r="K27" t="s">
-        <v>196</v>
-      </c>
-      <c r="L27" t="s">
-        <v>879</v>
+        <v>560</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>912</v>
       </c>
       <c r="M27" t="s">
-        <v>197</v>
+        <v>561</v>
       </c>
       <c r="N27" t="s">
-        <v>198</v>
-      </c>
-      <c r="R27" t="s">
-        <v>936</v>
-      </c>
-      <c r="S27" t="s">
-        <v>199</v>
-      </c>
-      <c r="T27" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+        <v>562</v>
+      </c>
+      <c r="O27" s="2" t="s">
+        <v>921</v>
+      </c>
+      <c r="P27" t="s">
+        <v>563</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" ht="42.75">
       <c r="A28" t="s">
-        <v>138</v>
+        <v>584</v>
       </c>
       <c r="B28" t="s">
         <v>671</v>
       </c>
       <c r="C28" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="D28" t="s">
-        <v>139</v>
+        <v>101</v>
       </c>
       <c r="E28" t="s">
-        <v>140</v>
+        <v>102</v>
       </c>
       <c r="F28" t="s">
-        <v>771</v>
+        <v>818</v>
       </c>
       <c r="G28" t="s">
-        <v>141</v>
+        <v>585</v>
       </c>
       <c r="H28" t="s">
-        <v>142</v>
+        <v>586</v>
       </c>
       <c r="I28" t="s">
-        <v>834</v>
+        <v>853</v>
       </c>
       <c r="J28" t="s">
-        <v>143</v>
+        <v>587</v>
       </c>
       <c r="K28" t="s">
-        <v>140</v>
-      </c>
-      <c r="L28" t="s">
-        <v>874</v>
+        <v>588</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>913</v>
       </c>
       <c r="M28" t="s">
-        <v>144</v>
+        <v>589</v>
       </c>
       <c r="N28" t="s">
-        <v>145</v>
-      </c>
-      <c r="R28" t="s">
-        <v>931</v>
-      </c>
-      <c r="S28" t="s">
-        <v>146</v>
-      </c>
-      <c r="T28" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+        <v>590</v>
+      </c>
+      <c r="O28" t="s">
+        <v>922</v>
+      </c>
+      <c r="P28" t="s">
+        <v>591</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
       <c r="A29" t="s">
-        <v>179</v>
+        <v>572</v>
       </c>
       <c r="B29" t="s">
         <v>671</v>
       </c>
       <c r="C29" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="D29" t="s">
-        <v>180</v>
+        <v>158</v>
       </c>
       <c r="E29" t="s">
-        <v>181</v>
+        <v>573</v>
       </c>
       <c r="F29" t="s">
-        <v>775</v>
+        <v>816</v>
       </c>
       <c r="G29" t="s">
-        <v>182</v>
+        <v>574</v>
       </c>
       <c r="H29" t="s">
-        <v>183</v>
+        <v>575</v>
       </c>
       <c r="I29" t="s">
-        <v>838</v>
+        <v>576</v>
       </c>
       <c r="J29" t="s">
-        <v>184</v>
+        <v>576</v>
       </c>
       <c r="K29" t="s">
-        <v>185</v>
-      </c>
-      <c r="L29" t="s">
-        <v>878</v>
-      </c>
-      <c r="M29" t="s">
-        <v>186</v>
-      </c>
-      <c r="N29" t="s">
-        <v>187</v>
-      </c>
-      <c r="R29" t="s">
-        <v>935</v>
-      </c>
-      <c r="S29" t="s">
-        <v>188</v>
-      </c>
-      <c r="T29" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
       <c r="A30" t="s">
-        <v>354</v>
+        <v>523</v>
       </c>
       <c r="B30" t="s">
         <v>671</v>
       </c>
       <c r="C30" t="s">
-        <v>725</v>
+        <v>744</v>
       </c>
       <c r="D30" t="s">
-        <v>355</v>
+        <v>524</v>
       </c>
       <c r="E30" t="s">
-        <v>356</v>
+        <v>525</v>
       </c>
       <c r="F30" t="s">
-        <v>793</v>
+        <v>812</v>
       </c>
       <c r="G30" t="s">
-        <v>357</v>
+        <v>526</v>
       </c>
       <c r="H30" t="s">
-        <v>358</v>
+        <v>527</v>
       </c>
       <c r="I30" t="s">
-        <v>725</v>
+        <v>849</v>
       </c>
       <c r="J30" t="s">
-        <v>359</v>
+        <v>528</v>
       </c>
       <c r="K30" t="s">
-        <v>356</v>
-      </c>
-      <c r="L30" t="s">
-        <v>891</v>
-      </c>
-      <c r="M30" t="s">
-        <v>360</v>
-      </c>
-      <c r="N30" t="s">
-        <v>361</v>
-      </c>
-      <c r="R30" t="s">
-        <v>950</v>
-      </c>
-      <c r="S30" t="s">
-        <v>362</v>
-      </c>
-      <c r="T30" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
       <c r="A31" t="s">
-        <v>82</v>
+        <v>603</v>
       </c>
       <c r="B31" t="s">
         <v>671</v>
       </c>
       <c r="C31" t="s">
-        <v>697</v>
+        <v>751</v>
       </c>
       <c r="D31" t="s">
-        <v>83</v>
+        <v>604</v>
       </c>
       <c r="E31" t="s">
-        <v>84</v>
+        <v>605</v>
       </c>
       <c r="F31" t="s">
-        <v>766</v>
+        <v>819</v>
       </c>
       <c r="G31" t="s">
-        <v>85</v>
+        <v>606</v>
       </c>
       <c r="H31" t="s">
-        <v>86</v>
+        <v>607</v>
       </c>
       <c r="I31" t="s">
-        <v>829</v>
+        <v>856</v>
       </c>
       <c r="J31" t="s">
-        <v>83</v>
+        <v>608</v>
       </c>
       <c r="K31" t="s">
-        <v>84</v>
-      </c>
-      <c r="L31" t="s">
-        <v>869</v>
-      </c>
-      <c r="M31" t="s">
-        <v>87</v>
-      </c>
-      <c r="N31" t="s">
-        <v>88</v>
-      </c>
-      <c r="R31" t="s">
-        <v>925</v>
-      </c>
-      <c r="S31" t="s">
-        <v>89</v>
-      </c>
-      <c r="T31" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
       <c r="A32" t="s">
-        <v>318</v>
+        <v>613</v>
       </c>
       <c r="B32" t="s">
-        <v>678</v>
+        <v>671</v>
       </c>
       <c r="C32" t="s">
-        <v>721</v>
+        <v>752</v>
       </c>
       <c r="D32" t="s">
-        <v>319</v>
+        <v>614</v>
       </c>
       <c r="E32" t="s">
-        <v>320</v>
-      </c>
-      <c r="F32" t="s">
-        <v>789</v>
-      </c>
-      <c r="G32" t="s">
-        <v>321</v>
-      </c>
-      <c r="H32" t="s">
-        <v>322</v>
+        <v>615</v>
       </c>
       <c r="I32" t="s">
-        <v>844</v>
+        <v>857</v>
       </c>
       <c r="J32" t="s">
-        <v>323</v>
+        <v>616</v>
       </c>
       <c r="K32" t="s">
-        <v>320</v>
-      </c>
-      <c r="L32" t="s">
-        <v>888</v>
-      </c>
-      <c r="M32" t="s">
-        <v>324</v>
-      </c>
-      <c r="N32" t="s">
-        <v>325</v>
-      </c>
-      <c r="R32" t="s">
-        <v>948</v>
-      </c>
-      <c r="S32" t="s">
-        <v>326</v>
-      </c>
-      <c r="T32" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
       <c r="A33" t="s">
-        <v>423</v>
+        <v>598</v>
       </c>
       <c r="B33" t="s">
         <v>671</v>
       </c>
       <c r="C33" t="s">
-        <v>733</v>
+        <v>750</v>
       </c>
       <c r="D33" t="s">
-        <v>424</v>
+        <v>599</v>
       </c>
       <c r="E33" t="s">
-        <v>425</v>
-      </c>
-      <c r="F33" t="s">
-        <v>801</v>
-      </c>
-      <c r="G33" t="s">
-        <v>426</v>
-      </c>
-      <c r="H33" t="s">
-        <v>427</v>
+        <v>600</v>
       </c>
       <c r="I33" t="s">
-        <v>733</v>
+        <v>855</v>
       </c>
       <c r="J33" t="s">
-        <v>424</v>
+        <v>601</v>
       </c>
       <c r="K33" t="s">
-        <v>425</v>
-      </c>
-      <c r="L33" t="s">
-        <v>899</v>
-      </c>
-      <c r="M33" t="s">
-        <v>428</v>
-      </c>
-      <c r="N33" t="s">
-        <v>429</v>
-      </c>
-      <c r="R33" t="s">
-        <v>953</v>
-      </c>
-      <c r="S33" t="s">
-        <v>430</v>
-      </c>
-      <c r="T33" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
       <c r="A34" t="s">
-        <v>255</v>
+        <v>593</v>
       </c>
       <c r="B34" t="s">
-        <v>677</v>
+        <v>671</v>
       </c>
       <c r="C34" t="s">
-        <v>715</v>
+        <v>749</v>
       </c>
       <c r="D34" t="s">
-        <v>256</v>
+        <v>594</v>
       </c>
       <c r="E34" t="s">
-        <v>257</v>
-      </c>
-      <c r="F34" t="s">
-        <v>783</v>
-      </c>
-      <c r="G34" t="s">
-        <v>258</v>
-      </c>
-      <c r="H34" t="s">
-        <v>259</v>
+        <v>595</v>
       </c>
       <c r="I34" t="s">
-        <v>715</v>
+        <v>854</v>
       </c>
       <c r="J34" t="s">
-        <v>256</v>
+        <v>596</v>
       </c>
       <c r="K34" t="s">
-        <v>257</v>
-      </c>
-      <c r="L34" t="s">
-        <v>884</v>
-      </c>
-      <c r="M34" t="s">
-        <v>260</v>
-      </c>
-      <c r="N34" t="s">
-        <v>261</v>
-      </c>
-      <c r="R34" t="s">
-        <v>942</v>
-      </c>
-      <c r="S34" t="s">
-        <v>262</v>
-      </c>
-      <c r="T34" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
       <c r="A35" t="s">
-        <v>649</v>
+        <v>500</v>
       </c>
       <c r="B35" t="s">
-        <v>690</v>
+        <v>671</v>
       </c>
       <c r="C35" t="s">
-        <v>757</v>
+        <v>741</v>
       </c>
       <c r="D35" t="s">
-        <v>650</v>
+        <v>501</v>
       </c>
       <c r="E35" t="s">
-        <v>651</v>
-      </c>
-      <c r="F35" t="s">
-        <v>824</v>
-      </c>
-      <c r="G35" t="s">
-        <v>652</v>
-      </c>
-      <c r="H35" t="s">
-        <v>653</v>
-      </c>
-      <c r="L35" t="s">
-        <v>916</v>
-      </c>
-      <c r="M35" t="s">
-        <v>647</v>
-      </c>
-      <c r="N35" t="s">
-        <v>648</v>
-      </c>
-      <c r="R35" t="s">
-        <v>963</v>
-      </c>
-      <c r="S35" t="s">
-        <v>640</v>
-      </c>
-      <c r="T35" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+        <v>502</v>
+      </c>
+      <c r="I35" t="s">
+        <v>741</v>
+      </c>
+      <c r="J35" t="s">
+        <v>501</v>
+      </c>
+      <c r="K35" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
       <c r="A36" t="s">
-        <v>642</v>
+        <v>610</v>
       </c>
       <c r="B36" t="s">
-        <v>690</v>
+        <v>671</v>
       </c>
       <c r="C36" t="s">
-        <v>756</v>
+        <v>611</v>
       </c>
       <c r="D36" t="s">
-        <v>643</v>
+        <v>611</v>
       </c>
       <c r="E36" t="s">
-        <v>644</v>
-      </c>
-      <c r="F36" t="s">
-        <v>823</v>
-      </c>
-      <c r="G36" t="s">
-        <v>645</v>
-      </c>
-      <c r="H36" t="s">
-        <v>646</v>
-      </c>
-      <c r="L36" t="s">
-        <v>916</v>
-      </c>
-      <c r="M36" t="s">
-        <v>647</v>
-      </c>
-      <c r="N36" t="s">
-        <v>648</v>
-      </c>
-      <c r="R36" t="s">
-        <v>963</v>
-      </c>
-      <c r="S36" t="s">
-        <v>640</v>
-      </c>
-      <c r="T36" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" ht="28.5">
       <c r="A37" t="s">
-        <v>633</v>
+        <v>201</v>
       </c>
       <c r="B37" t="s">
-        <v>690</v>
+        <v>668</v>
       </c>
       <c r="C37" t="s">
-        <v>755</v>
+        <v>709</v>
       </c>
       <c r="D37" t="s">
-        <v>634</v>
+        <v>202</v>
       </c>
       <c r="E37" t="s">
-        <v>635</v>
+        <v>203</v>
       </c>
       <c r="F37" t="s">
-        <v>822</v>
+        <v>777</v>
       </c>
       <c r="G37" t="s">
-        <v>636</v>
+        <v>204</v>
       </c>
       <c r="H37" t="s">
-        <v>637</v>
-      </c>
-      <c r="L37" t="s">
-        <v>915</v>
+        <v>205</v>
+      </c>
+      <c r="I37" t="s">
+        <v>840</v>
+      </c>
+      <c r="J37" t="s">
+        <v>206</v>
+      </c>
+      <c r="K37" t="s">
+        <v>207</v>
+      </c>
+      <c r="L37" s="2" t="s">
+        <v>880</v>
       </c>
       <c r="M37" t="s">
-        <v>638</v>
+        <v>208</v>
       </c>
       <c r="N37" t="s">
-        <v>639</v>
+        <v>209</v>
       </c>
       <c r="R37" t="s">
-        <v>963</v>
+        <v>937</v>
       </c>
       <c r="S37" t="s">
-        <v>640</v>
+        <v>210</v>
       </c>
       <c r="T37" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20">
       <c r="A38" t="s">
         <v>246</v>
       </c>
@@ -5906,843 +5786,771 @@
         <v>254</v>
       </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:20">
       <c r="A39" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="B39" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C39" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="D39" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="E39" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="F39" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="G39" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="H39" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="I39" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="J39" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="K39" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="L39" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="M39" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="N39" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="R39" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="S39" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="T39" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20">
       <c r="A40" t="s">
-        <v>20</v>
+        <v>380</v>
       </c>
       <c r="B40" t="s">
         <v>668</v>
       </c>
       <c r="C40" t="s">
-        <v>692</v>
+        <v>728</v>
       </c>
       <c r="D40" t="s">
-        <v>21</v>
+        <v>381</v>
       </c>
       <c r="E40" t="s">
-        <v>22</v>
+        <v>382</v>
       </c>
       <c r="F40" t="s">
-        <v>760</v>
+        <v>796</v>
       </c>
       <c r="G40" t="s">
-        <v>23</v>
+        <v>383</v>
       </c>
       <c r="H40" t="s">
-        <v>24</v>
+        <v>384</v>
       </c>
       <c r="I40" t="s">
-        <v>692</v>
+        <v>728</v>
       </c>
       <c r="J40" t="s">
-        <v>25</v>
+        <v>381</v>
       </c>
       <c r="K40" t="s">
-        <v>26</v>
+        <v>382</v>
       </c>
       <c r="L40" t="s">
-        <v>860</v>
+        <v>894</v>
       </c>
       <c r="M40" t="s">
-        <v>27</v>
+        <v>385</v>
       </c>
       <c r="N40" t="s">
-        <v>28</v>
-      </c>
-      <c r="R40" t="s">
-        <v>923</v>
-      </c>
-      <c r="S40" t="s">
-        <v>29</v>
-      </c>
-      <c r="T40" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20">
       <c r="A41" t="s">
-        <v>168</v>
+        <v>621</v>
       </c>
       <c r="B41" t="s">
-        <v>671</v>
+        <v>688</v>
       </c>
       <c r="C41" t="s">
-        <v>706</v>
+        <v>753</v>
       </c>
       <c r="D41" t="s">
-        <v>169</v>
+        <v>622</v>
       </c>
       <c r="E41" t="s">
-        <v>170</v>
+        <v>623</v>
       </c>
       <c r="F41" t="s">
-        <v>774</v>
+        <v>820</v>
       </c>
       <c r="G41" t="s">
-        <v>171</v>
+        <v>624</v>
       </c>
       <c r="H41" t="s">
-        <v>172</v>
+        <v>625</v>
       </c>
       <c r="I41" t="s">
-        <v>837</v>
+        <v>859</v>
       </c>
       <c r="J41" t="s">
-        <v>173</v>
+        <v>622</v>
       </c>
       <c r="K41" t="s">
-        <v>174</v>
+        <v>623</v>
       </c>
       <c r="L41" t="s">
-        <v>877</v>
+        <v>914</v>
       </c>
       <c r="M41" t="s">
-        <v>175</v>
+        <v>626</v>
       </c>
       <c r="N41" t="s">
-        <v>176</v>
+        <v>627</v>
       </c>
       <c r="R41" t="s">
-        <v>934</v>
+        <v>964</v>
       </c>
       <c r="S41" t="s">
-        <v>177</v>
+        <v>460</v>
       </c>
       <c r="T41" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20">
       <c r="A42" t="s">
-        <v>130</v>
+        <v>264</v>
       </c>
       <c r="B42" t="s">
-        <v>671</v>
+        <v>677</v>
       </c>
       <c r="C42" t="s">
-        <v>702</v>
+        <v>716</v>
       </c>
       <c r="D42" t="s">
-        <v>131</v>
+        <v>265</v>
       </c>
       <c r="E42" t="s">
-        <v>132</v>
+        <v>266</v>
       </c>
       <c r="F42" t="s">
-        <v>769</v>
+        <v>784</v>
       </c>
       <c r="G42" t="s">
-        <v>113</v>
+        <v>267</v>
       </c>
       <c r="H42" t="s">
-        <v>114</v>
+        <v>268</v>
       </c>
       <c r="I42" t="s">
-        <v>833</v>
+        <v>716</v>
       </c>
       <c r="J42" t="s">
-        <v>133</v>
+        <v>265</v>
       </c>
       <c r="K42" t="s">
-        <v>132</v>
+        <v>266</v>
       </c>
       <c r="L42" t="s">
-        <v>862</v>
+        <v>885</v>
       </c>
       <c r="M42" t="s">
-        <v>134</v>
+        <v>269</v>
       </c>
       <c r="N42" t="s">
-        <v>135</v>
+        <v>270</v>
       </c>
       <c r="R42" t="s">
-        <v>930</v>
+        <v>943</v>
       </c>
       <c r="S42" t="s">
-        <v>136</v>
+        <v>271</v>
       </c>
       <c r="T42" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20">
       <c r="A43" t="s">
-        <v>110</v>
+        <v>255</v>
       </c>
       <c r="B43" t="s">
-        <v>671</v>
+        <v>677</v>
       </c>
       <c r="C43" t="s">
-        <v>700</v>
+        <v>715</v>
       </c>
       <c r="D43" t="s">
-        <v>111</v>
+        <v>256</v>
       </c>
       <c r="E43" t="s">
-        <v>112</v>
+        <v>257</v>
       </c>
       <c r="F43" t="s">
-        <v>769</v>
+        <v>783</v>
       </c>
       <c r="G43" t="s">
-        <v>113</v>
+        <v>258</v>
       </c>
       <c r="H43" t="s">
-        <v>114</v>
+        <v>259</v>
       </c>
       <c r="I43" t="s">
-        <v>831</v>
+        <v>715</v>
       </c>
       <c r="J43" t="s">
-        <v>115</v>
+        <v>256</v>
       </c>
       <c r="K43" t="s">
-        <v>112</v>
+        <v>257</v>
       </c>
       <c r="L43" t="s">
-        <v>872</v>
+        <v>884</v>
       </c>
       <c r="M43" t="s">
-        <v>116</v>
+        <v>260</v>
       </c>
       <c r="N43" t="s">
-        <v>117</v>
+        <v>261</v>
       </c>
       <c r="R43" t="s">
-        <v>928</v>
+        <v>942</v>
       </c>
       <c r="S43" t="s">
-        <v>118</v>
+        <v>262</v>
       </c>
       <c r="T43" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20">
       <c r="A44" t="s">
-        <v>91</v>
+        <v>282</v>
       </c>
       <c r="B44" t="s">
-        <v>671</v>
+        <v>677</v>
       </c>
       <c r="C44" t="s">
-        <v>698</v>
+        <v>718</v>
       </c>
       <c r="D44" t="s">
-        <v>92</v>
+        <v>283</v>
       </c>
       <c r="E44" t="s">
-        <v>93</v>
+        <v>284</v>
       </c>
       <c r="F44" t="s">
-        <v>767</v>
+        <v>786</v>
       </c>
       <c r="G44" t="s">
-        <v>94</v>
+        <v>285</v>
       </c>
       <c r="H44" t="s">
-        <v>95</v>
+        <v>286</v>
       </c>
       <c r="I44" t="s">
-        <v>698</v>
+        <v>718</v>
       </c>
       <c r="J44" t="s">
-        <v>92</v>
+        <v>283</v>
       </c>
       <c r="K44" t="s">
-        <v>93</v>
+        <v>284</v>
       </c>
       <c r="L44" t="s">
-        <v>870</v>
+        <v>886</v>
       </c>
       <c r="M44" t="s">
-        <v>96</v>
+        <v>287</v>
       </c>
       <c r="N44" t="s">
-        <v>97</v>
+        <v>288</v>
       </c>
       <c r="R44" t="s">
-        <v>926</v>
+        <v>945</v>
       </c>
       <c r="S44" t="s">
-        <v>98</v>
+        <v>289</v>
       </c>
       <c r="T44" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20">
       <c r="A45" t="s">
-        <v>621</v>
+        <v>273</v>
       </c>
       <c r="B45" t="s">
-        <v>688</v>
+        <v>677</v>
       </c>
       <c r="C45" t="s">
-        <v>753</v>
+        <v>717</v>
       </c>
       <c r="D45" t="s">
-        <v>622</v>
+        <v>274</v>
       </c>
       <c r="E45" t="s">
-        <v>623</v>
+        <v>275</v>
       </c>
       <c r="F45" t="s">
-        <v>820</v>
+        <v>785</v>
       </c>
       <c r="G45" t="s">
-        <v>624</v>
+        <v>276</v>
       </c>
       <c r="H45" t="s">
-        <v>625</v>
+        <v>277</v>
       </c>
       <c r="I45" t="s">
-        <v>859</v>
+        <v>717</v>
       </c>
       <c r="J45" t="s">
-        <v>622</v>
+        <v>274</v>
       </c>
       <c r="K45" t="s">
-        <v>623</v>
+        <v>275</v>
       </c>
       <c r="L45" t="s">
-        <v>914</v>
+        <v>864</v>
       </c>
       <c r="M45" t="s">
-        <v>626</v>
+        <v>278</v>
       </c>
       <c r="N45" t="s">
-        <v>627</v>
+        <v>279</v>
       </c>
       <c r="R45" t="s">
-        <v>964</v>
+        <v>944</v>
       </c>
       <c r="S45" t="s">
-        <v>460</v>
+        <v>280</v>
       </c>
       <c r="T45" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20">
       <c r="A46" t="s">
-        <v>534</v>
+        <v>432</v>
       </c>
       <c r="B46" t="s">
-        <v>671</v>
+        <v>677</v>
       </c>
       <c r="C46" t="s">
-        <v>696</v>
+        <v>734</v>
       </c>
       <c r="D46" t="s">
-        <v>535</v>
+        <v>433</v>
       </c>
       <c r="E46" t="s">
-        <v>536</v>
+        <v>434</v>
       </c>
       <c r="F46" t="s">
-        <v>813</v>
+        <v>802</v>
       </c>
       <c r="G46" t="s">
-        <v>537</v>
+        <v>435</v>
       </c>
       <c r="H46" t="s">
-        <v>538</v>
+        <v>436</v>
       </c>
       <c r="I46" t="s">
-        <v>696</v>
+        <v>734</v>
       </c>
       <c r="J46" t="s">
-        <v>535</v>
+        <v>433</v>
       </c>
       <c r="K46" t="s">
-        <v>536</v>
+        <v>434</v>
       </c>
       <c r="L46" t="s">
-        <v>910</v>
+        <v>900</v>
       </c>
       <c r="M46" t="s">
-        <v>539</v>
+        <v>437</v>
       </c>
       <c r="N46" t="s">
-        <v>540</v>
-      </c>
-      <c r="R46" t="s">
-        <v>961</v>
-      </c>
-      <c r="S46" t="s">
-        <v>541</v>
-      </c>
-      <c r="T46" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20">
       <c r="A47" t="s">
-        <v>148</v>
+        <v>416</v>
       </c>
       <c r="B47" t="s">
-        <v>671</v>
+        <v>677</v>
       </c>
       <c r="C47" t="s">
-        <v>704</v>
+        <v>417</v>
       </c>
       <c r="D47" t="s">
-        <v>149</v>
+        <v>417</v>
       </c>
       <c r="E47" t="s">
-        <v>150</v>
+        <v>418</v>
       </c>
       <c r="F47" t="s">
-        <v>772</v>
+        <v>800</v>
       </c>
       <c r="G47" t="s">
-        <v>151</v>
+        <v>419</v>
       </c>
       <c r="H47" t="s">
-        <v>152</v>
+        <v>420</v>
       </c>
       <c r="I47" t="s">
-        <v>835</v>
+        <v>417</v>
       </c>
       <c r="J47" t="s">
-        <v>149</v>
+        <v>417</v>
       </c>
       <c r="K47" t="s">
-        <v>150</v>
+        <v>418</v>
       </c>
       <c r="L47" t="s">
-        <v>875</v>
+        <v>898</v>
       </c>
       <c r="M47" t="s">
-        <v>153</v>
+        <v>421</v>
       </c>
       <c r="N47" t="s">
-        <v>154</v>
-      </c>
-      <c r="R47" t="s">
-        <v>932</v>
-      </c>
-      <c r="S47" t="s">
-        <v>155</v>
-      </c>
-      <c r="T47" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20">
       <c r="A48" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="B48" t="s">
-        <v>671</v>
+        <v>677</v>
       </c>
       <c r="C48" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="D48" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="E48" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="F48" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="G48" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="H48" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="I48" t="s">
-        <v>846</v>
+        <v>738</v>
       </c>
       <c r="J48" t="s">
-        <v>474</v>
+        <v>463</v>
       </c>
       <c r="K48" t="s">
-        <v>475</v>
+        <v>464</v>
       </c>
       <c r="L48" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="M48" t="s">
-        <v>476</v>
+        <v>467</v>
       </c>
       <c r="N48" t="s">
-        <v>477</v>
-      </c>
-      <c r="R48" t="s">
-        <v>956</v>
-      </c>
-      <c r="S48" t="s">
-        <v>478</v>
-      </c>
-      <c r="T48" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20">
       <c r="A49" t="s">
-        <v>503</v>
+        <v>439</v>
       </c>
       <c r="B49" t="s">
-        <v>671</v>
+        <v>677</v>
       </c>
       <c r="C49" t="s">
-        <v>742</v>
+        <v>735</v>
       </c>
       <c r="D49" t="s">
-        <v>504</v>
+        <v>440</v>
       </c>
       <c r="E49" t="s">
-        <v>505</v>
+        <v>441</v>
       </c>
       <c r="F49" t="s">
-        <v>810</v>
+        <v>803</v>
       </c>
       <c r="G49" t="s">
-        <v>506</v>
+        <v>442</v>
       </c>
       <c r="H49" t="s">
-        <v>507</v>
+        <v>443</v>
       </c>
       <c r="I49" t="s">
-        <v>742</v>
+        <v>735</v>
       </c>
       <c r="J49" t="s">
-        <v>504</v>
+        <v>440</v>
       </c>
       <c r="K49" t="s">
-        <v>505</v>
+        <v>441</v>
       </c>
       <c r="L49" t="s">
-        <v>908</v>
+        <v>901</v>
       </c>
       <c r="M49" t="s">
-        <v>508</v>
+        <v>444</v>
       </c>
       <c r="N49" t="s">
-        <v>509</v>
-      </c>
-      <c r="R49" t="s">
-        <v>959</v>
-      </c>
-      <c r="S49" t="s">
-        <v>510</v>
-      </c>
-      <c r="T49" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20">
       <c r="A50" t="s">
-        <v>237</v>
+        <v>628</v>
       </c>
       <c r="B50" t="s">
-        <v>676</v>
+        <v>689</v>
       </c>
       <c r="C50" t="s">
-        <v>713</v>
+        <v>754</v>
       </c>
       <c r="D50" t="s">
-        <v>238</v>
+        <v>629</v>
       </c>
       <c r="E50" t="s">
-        <v>239</v>
+        <v>630</v>
       </c>
       <c r="F50" t="s">
-        <v>781</v>
+        <v>821</v>
       </c>
       <c r="G50" t="s">
-        <v>240</v>
+        <v>631</v>
       </c>
       <c r="H50" t="s">
-        <v>241</v>
+        <v>632</v>
       </c>
       <c r="I50" t="s">
-        <v>713</v>
+        <v>754</v>
       </c>
       <c r="J50" t="s">
-        <v>238</v>
+        <v>629</v>
       </c>
       <c r="K50" t="s">
-        <v>239</v>
-      </c>
-      <c r="L50" t="s">
-        <v>882</v>
-      </c>
-      <c r="M50" t="s">
-        <v>242</v>
-      </c>
-      <c r="N50" t="s">
-        <v>243</v>
-      </c>
-      <c r="R50" t="s">
-        <v>940</v>
-      </c>
-      <c r="S50" t="s">
-        <v>244</v>
-      </c>
-      <c r="T50" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20">
       <c r="A51" t="s">
-        <v>543</v>
+        <v>446</v>
       </c>
       <c r="B51" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="C51" t="s">
-        <v>746</v>
+        <v>736</v>
       </c>
       <c r="D51" t="s">
-        <v>544</v>
+        <v>447</v>
       </c>
       <c r="E51" t="s">
-        <v>545</v>
+        <v>448</v>
       </c>
       <c r="F51" t="s">
-        <v>814</v>
+        <v>804</v>
       </c>
       <c r="G51" t="s">
-        <v>546</v>
+        <v>449</v>
       </c>
       <c r="H51" t="s">
-        <v>547</v>
+        <v>450</v>
       </c>
       <c r="I51" t="s">
-        <v>850</v>
+        <v>736</v>
       </c>
       <c r="J51" t="s">
-        <v>548</v>
+        <v>447</v>
       </c>
       <c r="K51" t="s">
-        <v>549</v>
+        <v>448</v>
       </c>
       <c r="L51" t="s">
-        <v>911</v>
+        <v>902</v>
       </c>
       <c r="M51" t="s">
-        <v>550</v>
+        <v>451</v>
       </c>
       <c r="N51" t="s">
-        <v>551</v>
-      </c>
-      <c r="R51" t="s">
-        <v>962</v>
-      </c>
-      <c r="S51" t="s">
-        <v>552</v>
-      </c>
-      <c r="T51" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20">
       <c r="A52" t="s">
-        <v>157</v>
+        <v>190</v>
       </c>
       <c r="B52" t="s">
-        <v>671</v>
+        <v>674</v>
       </c>
       <c r="C52" t="s">
-        <v>705</v>
+        <v>708</v>
       </c>
       <c r="D52" t="s">
-        <v>158</v>
+        <v>191</v>
       </c>
       <c r="E52" t="s">
-        <v>159</v>
+        <v>192</v>
       </c>
       <c r="F52" t="s">
-        <v>773</v>
+        <v>776</v>
       </c>
       <c r="G52" t="s">
-        <v>160</v>
+        <v>193</v>
       </c>
       <c r="H52" t="s">
-        <v>161</v>
+        <v>194</v>
       </c>
       <c r="I52" t="s">
-        <v>836</v>
+        <v>839</v>
       </c>
       <c r="J52" t="s">
-        <v>162</v>
+        <v>195</v>
       </c>
       <c r="K52" t="s">
-        <v>163</v>
+        <v>196</v>
       </c>
       <c r="L52" t="s">
-        <v>876</v>
+        <v>879</v>
       </c>
       <c r="M52" t="s">
-        <v>164</v>
+        <v>197</v>
       </c>
       <c r="N52" t="s">
-        <v>165</v>
+        <v>198</v>
       </c>
       <c r="R52" t="s">
-        <v>933</v>
+        <v>936</v>
       </c>
       <c r="S52" t="s">
-        <v>166</v>
+        <v>199</v>
       </c>
       <c r="T52" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20">
       <c r="A53" t="s">
-        <v>397</v>
+        <v>453</v>
       </c>
       <c r="B53" t="s">
         <v>683</v>
       </c>
       <c r="C53" t="s">
-        <v>730</v>
+        <v>737</v>
       </c>
       <c r="D53" t="s">
-        <v>398</v>
+        <v>454</v>
       </c>
       <c r="E53" t="s">
-        <v>399</v>
+        <v>455</v>
       </c>
       <c r="F53" t="s">
-        <v>798</v>
+        <v>805</v>
       </c>
       <c r="G53" t="s">
-        <v>400</v>
+        <v>456</v>
       </c>
       <c r="H53" t="s">
-        <v>401</v>
+        <v>457</v>
       </c>
       <c r="I53" t="s">
-        <v>730</v>
+        <v>737</v>
       </c>
       <c r="J53" t="s">
-        <v>398</v>
+        <v>454</v>
       </c>
       <c r="K53" t="s">
-        <v>399</v>
+        <v>455</v>
       </c>
       <c r="L53" t="s">
-        <v>896</v>
+        <v>903</v>
       </c>
       <c r="M53" t="s">
-        <v>402</v>
+        <v>458</v>
       </c>
       <c r="N53" t="s">
-        <v>403</v>
+        <v>459</v>
       </c>
       <c r="R53" t="s">
-        <v>952</v>
+        <v>955</v>
       </c>
       <c r="S53" t="s">
-        <v>404</v>
+        <v>460</v>
       </c>
       <c r="T53" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20">
       <c r="A54" t="s">
-        <v>413</v>
+        <v>397</v>
       </c>
       <c r="B54" t="s">
         <v>683</v>
       </c>
       <c r="C54" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="D54" t="s">
-        <v>414</v>
+        <v>398</v>
       </c>
       <c r="E54" t="s">
-        <v>415</v>
+        <v>399</v>
       </c>
       <c r="F54" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="G54" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="H54" t="s">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="I54" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="J54" t="s">
-        <v>414</v>
+        <v>398</v>
       </c>
       <c r="K54" t="s">
-        <v>415</v>
+        <v>399</v>
       </c>
       <c r="L54" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="M54" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="N54" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="R54" t="s">
         <v>952</v>
@@ -6754,21 +6562,21 @@
         <v>405</v>
       </c>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:20">
       <c r="A55" t="s">
-        <v>406</v>
+        <v>413</v>
       </c>
       <c r="B55" t="s">
         <v>683</v>
       </c>
       <c r="C55" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="D55" t="s">
-        <v>407</v>
+        <v>414</v>
       </c>
       <c r="E55" t="s">
-        <v>408</v>
+        <v>415</v>
       </c>
       <c r="F55" t="s">
         <v>799</v>
@@ -6780,13 +6588,13 @@
         <v>410</v>
       </c>
       <c r="I55" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="J55" t="s">
-        <v>407</v>
+        <v>414</v>
       </c>
       <c r="K55" t="s">
-        <v>408</v>
+        <v>415</v>
       </c>
       <c r="L55" t="s">
         <v>897</v>
@@ -6807,1850 +6615,2160 @@
         <v>405</v>
       </c>
     </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:20">
       <c r="A56" t="s">
-        <v>302</v>
+        <v>406</v>
       </c>
       <c r="B56" t="s">
-        <v>671</v>
+        <v>683</v>
       </c>
       <c r="C56" t="s">
-        <v>720</v>
+        <v>731</v>
       </c>
       <c r="D56" t="s">
-        <v>303</v>
+        <v>407</v>
       </c>
       <c r="E56" t="s">
-        <v>304</v>
+        <v>408</v>
       </c>
       <c r="F56" t="s">
-        <v>788</v>
+        <v>799</v>
       </c>
       <c r="G56" t="s">
-        <v>305</v>
+        <v>409</v>
       </c>
       <c r="H56" t="s">
-        <v>306</v>
+        <v>410</v>
       </c>
       <c r="I56" t="s">
-        <v>720</v>
+        <v>731</v>
       </c>
       <c r="J56" t="s">
-        <v>303</v>
+        <v>407</v>
       </c>
       <c r="K56" t="s">
-        <v>304</v>
+        <v>408</v>
       </c>
       <c r="L56" t="s">
-        <v>865</v>
+        <v>897</v>
       </c>
       <c r="M56" t="s">
-        <v>307</v>
+        <v>411</v>
       </c>
       <c r="N56" t="s">
-        <v>308</v>
+        <v>412</v>
       </c>
       <c r="R56" t="s">
-        <v>947</v>
+        <v>952</v>
       </c>
       <c r="S56" t="s">
-        <v>309</v>
+        <v>404</v>
       </c>
       <c r="T56" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20">
       <c r="A57" t="s">
-        <v>282</v>
+        <v>318</v>
       </c>
       <c r="B57" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="C57" t="s">
-        <v>718</v>
+        <v>721</v>
       </c>
       <c r="D57" t="s">
-        <v>283</v>
+        <v>319</v>
       </c>
       <c r="E57" t="s">
-        <v>284</v>
+        <v>320</v>
       </c>
       <c r="F57" t="s">
-        <v>786</v>
+        <v>789</v>
       </c>
       <c r="G57" t="s">
-        <v>285</v>
+        <v>321</v>
       </c>
       <c r="H57" t="s">
-        <v>286</v>
+        <v>322</v>
       </c>
       <c r="I57" t="s">
-        <v>718</v>
+        <v>844</v>
       </c>
       <c r="J57" t="s">
-        <v>283</v>
+        <v>323</v>
       </c>
       <c r="K57" t="s">
-        <v>284</v>
+        <v>320</v>
       </c>
       <c r="L57" t="s">
-        <v>886</v>
+        <v>888</v>
       </c>
       <c r="M57" t="s">
-        <v>287</v>
+        <v>324</v>
       </c>
       <c r="N57" t="s">
-        <v>288</v>
+        <v>325</v>
       </c>
       <c r="R57" t="s">
-        <v>945</v>
+        <v>948</v>
       </c>
       <c r="S57" t="s">
-        <v>289</v>
+        <v>326</v>
       </c>
       <c r="T57" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20">
       <c r="A58" t="s">
-        <v>291</v>
+        <v>221</v>
       </c>
       <c r="B58" t="s">
-        <v>671</v>
+        <v>675</v>
       </c>
       <c r="C58" t="s">
-        <v>719</v>
+        <v>711</v>
       </c>
       <c r="D58" t="s">
-        <v>292</v>
+        <v>222</v>
       </c>
       <c r="E58" t="s">
-        <v>293</v>
+        <v>223</v>
       </c>
       <c r="F58" t="s">
-        <v>787</v>
+        <v>779</v>
       </c>
       <c r="G58" t="s">
-        <v>294</v>
+        <v>224</v>
       </c>
       <c r="H58" t="s">
-        <v>295</v>
+        <v>225</v>
       </c>
       <c r="I58" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="J58" t="s">
-        <v>296</v>
+        <v>222</v>
       </c>
       <c r="K58" t="s">
-        <v>297</v>
+        <v>223</v>
       </c>
       <c r="L58" t="s">
-        <v>887</v>
+        <v>965</v>
       </c>
       <c r="M58" t="s">
-        <v>298</v>
+        <v>226</v>
       </c>
       <c r="N58" t="s">
-        <v>299</v>
-      </c>
-      <c r="R58" t="s">
-        <v>946</v>
-      </c>
-      <c r="S58" t="s">
-        <v>300</v>
-      </c>
-      <c r="T58" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20">
       <c r="A59" t="s">
-        <v>364</v>
+        <v>577</v>
       </c>
       <c r="B59" t="s">
-        <v>671</v>
+        <v>675</v>
       </c>
       <c r="C59" t="s">
-        <v>726</v>
+        <v>748</v>
       </c>
       <c r="D59" t="s">
-        <v>365</v>
+        <v>578</v>
       </c>
       <c r="E59" t="s">
-        <v>366</v>
+        <v>579</v>
       </c>
       <c r="F59" t="s">
-        <v>794</v>
+        <v>817</v>
       </c>
       <c r="G59" t="s">
-        <v>367</v>
+        <v>580</v>
       </c>
       <c r="H59" t="s">
-        <v>368</v>
+        <v>581</v>
       </c>
       <c r="I59" t="s">
-        <v>726</v>
+        <v>852</v>
       </c>
       <c r="J59" t="s">
-        <v>365</v>
+        <v>582</v>
       </c>
       <c r="K59" t="s">
-        <v>366</v>
-      </c>
-      <c r="L59" t="s">
-        <v>892</v>
-      </c>
-      <c r="M59" t="s">
-        <v>369</v>
-      </c>
-      <c r="N59" t="s">
-        <v>370</v>
-      </c>
-      <c r="R59" t="s">
-        <v>954</v>
-      </c>
-      <c r="S59" t="s">
-        <v>309</v>
-      </c>
-      <c r="T59" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="60" spans="1:20">
       <c r="A60" t="s">
+        <v>618</v>
+      </c>
+      <c r="B60" t="s">
+        <v>675</v>
+      </c>
+      <c r="C60" t="s">
+        <v>749</v>
+      </c>
+      <c r="D60" t="s">
+        <v>594</v>
+      </c>
+      <c r="E60" t="s">
+        <v>595</v>
+      </c>
+      <c r="I60" t="s">
+        <v>858</v>
+      </c>
+      <c r="J60" t="s">
+        <v>619</v>
+      </c>
+      <c r="K60" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="61" spans="1:20">
+      <c r="A61" t="s">
+        <v>649</v>
+      </c>
+      <c r="B61" t="s">
+        <v>690</v>
+      </c>
+      <c r="C61" t="s">
+        <v>757</v>
+      </c>
+      <c r="D61" t="s">
+        <v>650</v>
+      </c>
+      <c r="E61" t="s">
+        <v>651</v>
+      </c>
+      <c r="F61" t="s">
+        <v>824</v>
+      </c>
+      <c r="G61" t="s">
+        <v>652</v>
+      </c>
+      <c r="H61" t="s">
+        <v>653</v>
+      </c>
+      <c r="L61" t="s">
+        <v>916</v>
+      </c>
+      <c r="M61" t="s">
+        <v>647</v>
+      </c>
+      <c r="N61" t="s">
+        <v>648</v>
+      </c>
+      <c r="R61" t="s">
+        <v>963</v>
+      </c>
+      <c r="S61" t="s">
+        <v>640</v>
+      </c>
+      <c r="T61" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="62" spans="1:20">
+      <c r="A62" t="s">
+        <v>642</v>
+      </c>
+      <c r="B62" t="s">
+        <v>690</v>
+      </c>
+      <c r="C62" t="s">
+        <v>756</v>
+      </c>
+      <c r="D62" t="s">
+        <v>643</v>
+      </c>
+      <c r="E62" t="s">
+        <v>644</v>
+      </c>
+      <c r="F62" t="s">
+        <v>823</v>
+      </c>
+      <c r="G62" t="s">
+        <v>645</v>
+      </c>
+      <c r="H62" t="s">
+        <v>646</v>
+      </c>
+      <c r="L62" t="s">
+        <v>916</v>
+      </c>
+      <c r="M62" t="s">
+        <v>647</v>
+      </c>
+      <c r="N62" t="s">
+        <v>648</v>
+      </c>
+      <c r="R62" t="s">
+        <v>963</v>
+      </c>
+      <c r="S62" t="s">
+        <v>640</v>
+      </c>
+      <c r="T62" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="63" spans="1:20">
+      <c r="A63" t="s">
+        <v>633</v>
+      </c>
+      <c r="B63" t="s">
+        <v>690</v>
+      </c>
+      <c r="C63" t="s">
+        <v>755</v>
+      </c>
+      <c r="D63" t="s">
+        <v>634</v>
+      </c>
+      <c r="E63" t="s">
+        <v>635</v>
+      </c>
+      <c r="F63" t="s">
+        <v>822</v>
+      </c>
+      <c r="G63" t="s">
+        <v>636</v>
+      </c>
+      <c r="H63" t="s">
+        <v>637</v>
+      </c>
+      <c r="L63" t="s">
+        <v>915</v>
+      </c>
+      <c r="M63" t="s">
+        <v>638</v>
+      </c>
+      <c r="N63" t="s">
+        <v>639</v>
+      </c>
+      <c r="R63" t="s">
+        <v>963</v>
+      </c>
+      <c r="S63" t="s">
+        <v>640</v>
+      </c>
+      <c r="T63" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="64" spans="1:20">
+      <c r="A64" t="s">
+        <v>71</v>
+      </c>
+      <c r="B64" t="s">
+        <v>672</v>
+      </c>
+      <c r="C64" t="s">
+        <v>696</v>
+      </c>
+      <c r="D64" t="s">
+        <v>72</v>
+      </c>
+      <c r="E64" t="s">
+        <v>73</v>
+      </c>
+      <c r="F64" t="s">
+        <v>765</v>
+      </c>
+      <c r="G64" t="s">
+        <v>74</v>
+      </c>
+      <c r="H64" t="s">
+        <v>75</v>
+      </c>
+      <c r="I64" t="s">
+        <v>828</v>
+      </c>
+      <c r="J64" t="s">
+        <v>76</v>
+      </c>
+      <c r="K64" t="s">
+        <v>77</v>
+      </c>
+      <c r="L64" s="2" t="s">
+        <v>889</v>
+      </c>
+      <c r="M64" t="s">
+        <v>78</v>
+      </c>
+      <c r="N64" t="s">
+        <v>79</v>
+      </c>
+      <c r="O64" t="s">
+        <v>920</v>
+      </c>
+      <c r="P64" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q64" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="65" spans="1:20">
+      <c r="A65" t="s">
+        <v>120</v>
+      </c>
+      <c r="B65" t="s">
+        <v>673</v>
+      </c>
+      <c r="C65" t="s">
+        <v>701</v>
+      </c>
+      <c r="D65" t="s">
+        <v>121</v>
+      </c>
+      <c r="E65" t="s">
+        <v>122</v>
+      </c>
+      <c r="F65" t="s">
+        <v>770</v>
+      </c>
+      <c r="G65" t="s">
+        <v>123</v>
+      </c>
+      <c r="H65" t="s">
+        <v>124</v>
+      </c>
+      <c r="I65" t="s">
+        <v>832</v>
+      </c>
+      <c r="J65" t="s">
+        <v>125</v>
+      </c>
+      <c r="K65" t="s">
+        <v>122</v>
+      </c>
+      <c r="L65" t="s">
+        <v>873</v>
+      </c>
+      <c r="M65" t="s">
+        <v>126</v>
+      </c>
+      <c r="N65" t="s">
+        <v>127</v>
+      </c>
+      <c r="R65" t="s">
+        <v>929</v>
+      </c>
+      <c r="S65" t="s">
+        <v>128</v>
+      </c>
+      <c r="T65" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="66" spans="1:20">
+      <c r="A66" t="s">
+        <v>31</v>
+      </c>
+      <c r="B66" t="s">
+        <v>669</v>
+      </c>
+      <c r="C66" t="s">
+        <v>693</v>
+      </c>
+      <c r="D66" t="s">
+        <v>32</v>
+      </c>
+      <c r="E66" t="s">
+        <v>33</v>
+      </c>
+      <c r="F66" t="s">
+        <v>761</v>
+      </c>
+      <c r="G66" t="s">
+        <v>34</v>
+      </c>
+      <c r="H66" t="s">
+        <v>35</v>
+      </c>
+      <c r="I66" t="s">
+        <v>693</v>
+      </c>
+      <c r="J66" t="s">
+        <v>32</v>
+      </c>
+      <c r="K66" t="s">
+        <v>33</v>
+      </c>
+      <c r="L66" t="s">
+        <v>861</v>
+      </c>
+      <c r="M66" t="s">
+        <v>36</v>
+      </c>
+      <c r="N66" t="s">
+        <v>37</v>
+      </c>
+      <c r="R66" t="s">
+        <v>924</v>
+      </c>
+      <c r="S66" t="s">
+        <v>38</v>
+      </c>
+      <c r="T66" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="67" spans="1:20">
+      <c r="A67" t="s">
+        <v>335</v>
+      </c>
+      <c r="B67" t="s">
+        <v>679</v>
+      </c>
+      <c r="C67" t="s">
+        <v>722</v>
+      </c>
+      <c r="D67" t="s">
+        <v>336</v>
+      </c>
+      <c r="E67" t="s">
+        <v>337</v>
+      </c>
+      <c r="F67" t="s">
+        <v>790</v>
+      </c>
+      <c r="G67" t="s">
+        <v>338</v>
+      </c>
+      <c r="H67" t="s">
+        <v>339</v>
+      </c>
+      <c r="I67" t="s">
+        <v>845</v>
+      </c>
+      <c r="J67" t="s">
+        <v>336</v>
+      </c>
+      <c r="K67" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="68" spans="1:20">
+      <c r="A68" t="s">
+        <v>512</v>
+      </c>
+      <c r="B68" t="s">
+        <v>685</v>
+      </c>
+      <c r="C68" t="s">
+        <v>743</v>
+      </c>
+      <c r="D68" t="s">
+        <v>513</v>
+      </c>
+      <c r="E68" t="s">
+        <v>514</v>
+      </c>
+      <c r="F68" t="s">
+        <v>811</v>
+      </c>
+      <c r="G68" t="s">
+        <v>515</v>
+      </c>
+      <c r="H68" t="s">
+        <v>516</v>
+      </c>
+      <c r="I68" t="s">
+        <v>848</v>
+      </c>
+      <c r="J68" t="s">
+        <v>517</v>
+      </c>
+      <c r="K68" t="s">
+        <v>518</v>
+      </c>
+      <c r="L68" t="s">
+        <v>909</v>
+      </c>
+      <c r="M68" t="s">
+        <v>519</v>
+      </c>
+      <c r="N68" t="s">
+        <v>520</v>
+      </c>
+      <c r="R68" t="s">
+        <v>960</v>
+      </c>
+      <c r="S68" t="s">
+        <v>521</v>
+      </c>
+      <c r="T68" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="69" spans="1:20">
+      <c r="A69" t="s">
+        <v>543</v>
+      </c>
+      <c r="B69" t="s">
+        <v>687</v>
+      </c>
+      <c r="C69" t="s">
+        <v>746</v>
+      </c>
+      <c r="D69" t="s">
+        <v>544</v>
+      </c>
+      <c r="E69" t="s">
+        <v>545</v>
+      </c>
+      <c r="F69" t="s">
+        <v>814</v>
+      </c>
+      <c r="G69" t="s">
+        <v>546</v>
+      </c>
+      <c r="H69" t="s">
+        <v>547</v>
+      </c>
+      <c r="I69" t="s">
+        <v>850</v>
+      </c>
+      <c r="J69" t="s">
+        <v>548</v>
+      </c>
+      <c r="K69" t="s">
+        <v>549</v>
+      </c>
+      <c r="L69" t="s">
+        <v>911</v>
+      </c>
+      <c r="M69" t="s">
+        <v>550</v>
+      </c>
+      <c r="N69" t="s">
+        <v>551</v>
+      </c>
+      <c r="R69" t="s">
+        <v>962</v>
+      </c>
+      <c r="S69" t="s">
+        <v>552</v>
+      </c>
+      <c r="T69" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="70" spans="1:20">
+      <c r="A70" t="s">
+        <v>340</v>
+      </c>
+      <c r="B70" t="s">
+        <v>680</v>
+      </c>
+      <c r="C70" t="s">
+        <v>723</v>
+      </c>
+      <c r="D70" t="s">
+        <v>341</v>
+      </c>
+      <c r="E70" t="s">
+        <v>342</v>
+      </c>
+      <c r="F70" t="s">
+        <v>791</v>
+      </c>
+      <c r="G70" t="s">
+        <v>343</v>
+      </c>
+      <c r="H70" t="s">
+        <v>344</v>
+      </c>
+      <c r="I70" t="s">
+        <v>723</v>
+      </c>
+      <c r="J70" t="s">
+        <v>341</v>
+      </c>
+      <c r="K70" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="71" spans="1:20">
+      <c r="A71" t="s">
+        <v>228</v>
+      </c>
+      <c r="B71" t="s">
+        <v>676</v>
+      </c>
+      <c r="C71" t="s">
+        <v>712</v>
+      </c>
+      <c r="D71" t="s">
+        <v>229</v>
+      </c>
+      <c r="E71" t="s">
+        <v>230</v>
+      </c>
+      <c r="F71" t="s">
+        <v>780</v>
+      </c>
+      <c r="G71" t="s">
+        <v>231</v>
+      </c>
+      <c r="H71" t="s">
+        <v>232</v>
+      </c>
+      <c r="I71" t="s">
+        <v>842</v>
+      </c>
+      <c r="J71" t="s">
+        <v>229</v>
+      </c>
+      <c r="K71" t="s">
+        <v>230</v>
+      </c>
+      <c r="L71" t="s">
+        <v>881</v>
+      </c>
+      <c r="M71" t="s">
+        <v>233</v>
+      </c>
+      <c r="N71" t="s">
+        <v>234</v>
+      </c>
+      <c r="R71" t="s">
+        <v>939</v>
+      </c>
+      <c r="S71" t="s">
+        <v>235</v>
+      </c>
+      <c r="T71" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="72" spans="1:20">
+      <c r="A72" t="s">
+        <v>237</v>
+      </c>
+      <c r="B72" t="s">
+        <v>676</v>
+      </c>
+      <c r="C72" t="s">
+        <v>713</v>
+      </c>
+      <c r="D72" t="s">
+        <v>238</v>
+      </c>
+      <c r="E72" t="s">
+        <v>239</v>
+      </c>
+      <c r="F72" t="s">
+        <v>781</v>
+      </c>
+      <c r="G72" t="s">
+        <v>240</v>
+      </c>
+      <c r="H72" t="s">
+        <v>241</v>
+      </c>
+      <c r="I72" t="s">
+        <v>713</v>
+      </c>
+      <c r="J72" t="s">
+        <v>238</v>
+      </c>
+      <c r="K72" t="s">
+        <v>239</v>
+      </c>
+      <c r="L72" t="s">
+        <v>882</v>
+      </c>
+      <c r="M72" t="s">
+        <v>242</v>
+      </c>
+      <c r="N72" t="s">
+        <v>243</v>
+      </c>
+      <c r="R72" t="s">
+        <v>940</v>
+      </c>
+      <c r="S72" t="s">
+        <v>244</v>
+      </c>
+      <c r="T72" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="73" spans="1:20">
+      <c r="A73" t="s">
+        <v>328</v>
+      </c>
+      <c r="B73" t="s">
+        <v>966</v>
+      </c>
+      <c r="C73" t="s">
+        <v>988</v>
+      </c>
+      <c r="D73" t="s">
+        <v>988</v>
+      </c>
+      <c r="E73" t="s">
+        <v>329</v>
+      </c>
+      <c r="F73" t="s">
+        <v>992</v>
+      </c>
+      <c r="G73" t="s">
+        <v>969</v>
+      </c>
+      <c r="H73" t="s">
+        <v>970</v>
+      </c>
+      <c r="I73" t="s">
+        <v>997</v>
+      </c>
+      <c r="J73" t="s">
+        <v>330</v>
+      </c>
+      <c r="K73" t="s">
+        <v>329</v>
+      </c>
+      <c r="L73" t="s">
+        <v>1059</v>
+      </c>
+      <c r="M73" t="s">
+        <v>331</v>
+      </c>
+      <c r="N73" t="s">
+        <v>332</v>
+      </c>
+      <c r="R73" t="s">
+        <v>1147</v>
+      </c>
+      <c r="S73" t="s">
+        <v>333</v>
+      </c>
+      <c r="T73" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="74" spans="1:20">
+      <c r="A74" t="s">
+        <v>311</v>
+      </c>
+      <c r="B74" t="s">
+        <v>966</v>
+      </c>
+      <c r="C74" t="s">
+        <v>987</v>
+      </c>
+      <c r="D74" t="s">
+        <v>987</v>
+      </c>
+      <c r="E74" t="s">
+        <v>313</v>
+      </c>
+      <c r="F74" t="s">
+        <v>991</v>
+      </c>
+      <c r="G74" t="s">
+        <v>967</v>
+      </c>
+      <c r="H74" t="s">
+        <v>968</v>
+      </c>
+      <c r="I74" t="s">
+        <v>996</v>
+      </c>
+      <c r="J74" t="s">
+        <v>312</v>
+      </c>
+      <c r="K74" t="s">
+        <v>313</v>
+      </c>
+      <c r="L74" t="s">
+        <v>1058</v>
+      </c>
+      <c r="M74" t="s">
+        <v>314</v>
+      </c>
+      <c r="N74" t="s">
+        <v>315</v>
+      </c>
+      <c r="R74" t="s">
+        <v>1146</v>
+      </c>
+      <c r="S74" t="s">
+        <v>316</v>
+      </c>
+      <c r="T74" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="75" spans="1:20">
+      <c r="A75" t="s">
+        <v>971</v>
+      </c>
+      <c r="B75" t="s">
+        <v>966</v>
+      </c>
+      <c r="C75" t="s">
+        <v>989</v>
+      </c>
+      <c r="D75" t="s">
+        <v>989</v>
+      </c>
+      <c r="E75" t="s">
+        <v>973</v>
+      </c>
+      <c r="F75" t="s">
+        <v>993</v>
+      </c>
+      <c r="G75" t="s">
+        <v>974</v>
+      </c>
+      <c r="H75" t="s">
+        <v>975</v>
+      </c>
+      <c r="I75" t="s">
+        <v>1164</v>
+      </c>
+      <c r="J75" t="s">
+        <v>972</v>
+      </c>
+      <c r="K75" t="s">
+        <v>973</v>
+      </c>
+      <c r="L75" t="s">
+        <v>1060</v>
+      </c>
+      <c r="M75" t="s">
+        <v>976</v>
+      </c>
+      <c r="N75" t="s">
+        <v>977</v>
+      </c>
+      <c r="R75" t="s">
+        <v>1148</v>
+      </c>
+      <c r="S75" t="s">
+        <v>978</v>
+      </c>
+      <c r="T75" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="76" spans="1:20">
+      <c r="A76" t="s">
+        <v>980</v>
+      </c>
+      <c r="B76" t="s">
+        <v>966</v>
+      </c>
+      <c r="C76" t="s">
+        <v>990</v>
+      </c>
+      <c r="D76" t="s">
+        <v>990</v>
+      </c>
+      <c r="E76" t="s">
+        <v>982</v>
+      </c>
+      <c r="F76" t="s">
+        <v>994</v>
+      </c>
+      <c r="G76" t="s">
+        <v>983</v>
+      </c>
+      <c r="H76" t="s">
+        <v>984</v>
+      </c>
+      <c r="I76" t="s">
+        <v>990</v>
+      </c>
+      <c r="J76" t="s">
+        <v>981</v>
+      </c>
+      <c r="K76" t="s">
+        <v>982</v>
+      </c>
+      <c r="L76" t="s">
+        <v>1061</v>
+      </c>
+      <c r="M76" t="s">
+        <v>985</v>
+      </c>
+      <c r="N76" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="77" spans="1:20">
+      <c r="A77" t="s">
+        <v>345</v>
+      </c>
+      <c r="B77" t="s">
+        <v>681</v>
+      </c>
+      <c r="C77" t="s">
+        <v>724</v>
+      </c>
+      <c r="D77" t="s">
+        <v>346</v>
+      </c>
+      <c r="E77" t="s">
+        <v>347</v>
+      </c>
+      <c r="F77" t="s">
+        <v>792</v>
+      </c>
+      <c r="G77" t="s">
+        <v>348</v>
+      </c>
+      <c r="H77" t="s">
+        <v>349</v>
+      </c>
+      <c r="I77" t="s">
+        <v>724</v>
+      </c>
+      <c r="J77" t="s">
+        <v>346</v>
+      </c>
+      <c r="K77" t="s">
+        <v>347</v>
+      </c>
+      <c r="L77" t="s">
+        <v>890</v>
+      </c>
+      <c r="M77" t="s">
+        <v>350</v>
+      </c>
+      <c r="N77" t="s">
+        <v>351</v>
+      </c>
+      <c r="R77" t="s">
+        <v>1160</v>
+      </c>
+      <c r="S77" t="s">
+        <v>352</v>
+      </c>
+      <c r="T77" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="78" spans="1:20">
+      <c r="A78" t="s">
+        <v>237</v>
+      </c>
+      <c r="B78" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C78" t="s">
+        <v>1039</v>
+      </c>
+      <c r="D78" t="s">
+        <v>238</v>
+      </c>
+      <c r="E78" t="s">
+        <v>239</v>
+      </c>
+      <c r="F78" t="s">
+        <v>1046</v>
+      </c>
+      <c r="G78" t="s">
+        <v>1002</v>
+      </c>
+      <c r="H78" t="s">
+        <v>1003</v>
+      </c>
+      <c r="I78" t="s">
+        <v>1039</v>
+      </c>
+      <c r="J78" t="s">
+        <v>238</v>
+      </c>
+      <c r="K78" t="s">
+        <v>239</v>
+      </c>
+      <c r="L78" t="s">
+        <v>1052</v>
+      </c>
+      <c r="M78" t="s">
+        <v>242</v>
+      </c>
+      <c r="N78" t="s">
+        <v>243</v>
+      </c>
+      <c r="R78" t="s">
+        <v>1149</v>
+      </c>
+      <c r="S78" t="s">
+        <v>244</v>
+      </c>
+      <c r="T78" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="79" spans="1:20">
+      <c r="A79" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B79" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C79" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D79" t="s">
+        <v>1006</v>
+      </c>
+      <c r="E79" t="s">
+        <v>1007</v>
+      </c>
+      <c r="F79" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G79" t="s">
+        <v>1008</v>
+      </c>
+      <c r="H79" t="s">
+        <v>1009</v>
+      </c>
+      <c r="I79" t="s">
+        <v>1040</v>
+      </c>
+      <c r="J79" t="s">
+        <v>1006</v>
+      </c>
+      <c r="K79" t="s">
+        <v>1007</v>
+      </c>
+      <c r="L79" t="s">
+        <v>1053</v>
+      </c>
+      <c r="M79" t="s">
+        <v>1010</v>
+      </c>
+      <c r="N79" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="80" spans="1:20">
+      <c r="A80" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B80" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C80" t="s">
+        <v>1041</v>
+      </c>
+      <c r="D80" t="s">
+        <v>1015</v>
+      </c>
+      <c r="E80" t="s">
+        <v>1014</v>
+      </c>
+      <c r="F80" t="s">
+        <v>1048</v>
+      </c>
+      <c r="G80" t="s">
+        <v>1016</v>
+      </c>
+      <c r="H80" t="s">
+        <v>1017</v>
+      </c>
+      <c r="I80" t="s">
+        <v>1041</v>
+      </c>
+      <c r="J80" t="s">
+        <v>1015</v>
+      </c>
+      <c r="K80" t="s">
+        <v>1014</v>
+      </c>
+      <c r="L80" t="s">
+        <v>1054</v>
+      </c>
+      <c r="M80" t="s">
+        <v>1018</v>
+      </c>
+      <c r="N80" t="s">
+        <v>1019</v>
+      </c>
+      <c r="R80" t="s">
+        <v>1150</v>
+      </c>
+      <c r="S80" t="s">
+        <v>1020</v>
+      </c>
+      <c r="T80" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="81" spans="1:20">
+      <c r="A81" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B81" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C81" t="s">
+        <v>1042</v>
+      </c>
+      <c r="D81" t="s">
+        <v>1024</v>
+      </c>
+      <c r="E81" t="s">
+        <v>1025</v>
+      </c>
+      <c r="F81" t="s">
+        <v>1049</v>
+      </c>
+      <c r="G81" t="s">
+        <v>409</v>
+      </c>
+      <c r="H81" t="s">
+        <v>410</v>
+      </c>
+      <c r="I81" t="s">
+        <v>1042</v>
+      </c>
+      <c r="J81" t="s">
+        <v>1024</v>
+      </c>
+      <c r="K81" t="s">
+        <v>1025</v>
+      </c>
+      <c r="L81" t="s">
+        <v>1055</v>
+      </c>
+      <c r="M81" t="s">
+        <v>411</v>
+      </c>
+      <c r="N81" t="s">
+        <v>412</v>
+      </c>
+      <c r="R81" t="s">
+        <v>1151</v>
+      </c>
+      <c r="S81" t="s">
+        <v>404</v>
+      </c>
+      <c r="T81" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="82" spans="1:20">
+      <c r="A82" t="s">
+        <v>1026</v>
+      </c>
+      <c r="B82" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C82" t="s">
+        <v>1043</v>
+      </c>
+      <c r="D82" t="s">
+        <v>1028</v>
+      </c>
+      <c r="E82" t="s">
+        <v>1029</v>
+      </c>
+      <c r="F82" t="s">
+        <v>1050</v>
+      </c>
+      <c r="G82" t="s">
+        <v>1030</v>
+      </c>
+      <c r="H82" t="s">
+        <v>1031</v>
+      </c>
+      <c r="I82" t="s">
+        <v>1043</v>
+      </c>
+      <c r="J82" t="s">
+        <v>1028</v>
+      </c>
+      <c r="K82" t="s">
+        <v>1029</v>
+      </c>
+      <c r="L82" t="s">
+        <v>1056</v>
+      </c>
+      <c r="M82" t="s">
+        <v>1032</v>
+      </c>
+      <c r="N82" t="s">
+        <v>1033</v>
+      </c>
+      <c r="R82" t="s">
+        <v>1152</v>
+      </c>
+      <c r="S82" t="s">
+        <v>1034</v>
+      </c>
+      <c r="T82" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="83" spans="1:20">
+      <c r="A83" t="s">
+        <v>423</v>
+      </c>
+      <c r="B83" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C83" t="s">
+        <v>1044</v>
+      </c>
+      <c r="D83" t="s">
+        <v>424</v>
+      </c>
+      <c r="E83" t="s">
+        <v>425</v>
+      </c>
+      <c r="F83" t="s">
+        <v>1051</v>
+      </c>
+      <c r="G83" t="s">
+        <v>1036</v>
+      </c>
+      <c r="H83" t="s">
+        <v>1037</v>
+      </c>
+      <c r="I83" t="s">
+        <v>1044</v>
+      </c>
+      <c r="J83" t="s">
+        <v>424</v>
+      </c>
+      <c r="K83" t="s">
+        <v>425</v>
+      </c>
+      <c r="L83" t="s">
+        <v>1057</v>
+      </c>
+      <c r="M83" t="s">
+        <v>428</v>
+      </c>
+      <c r="N83" t="s">
+        <v>429</v>
+      </c>
+      <c r="R83" t="s">
+        <v>1153</v>
+      </c>
+      <c r="S83" t="s">
+        <v>430</v>
+      </c>
+      <c r="T83" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="84" spans="1:20">
+      <c r="A84" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B84" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C84" t="s">
+        <v>1112</v>
+      </c>
+      <c r="D84" t="s">
+        <v>1064</v>
+      </c>
+      <c r="E84" t="s">
+        <v>1065</v>
+      </c>
+      <c r="F84" t="s">
+        <v>1119</v>
+      </c>
+      <c r="G84" t="s">
+        <v>1066</v>
+      </c>
+      <c r="H84" t="s">
+        <v>1067</v>
+      </c>
+      <c r="I84" t="s">
+        <v>1112</v>
+      </c>
+      <c r="J84" t="s">
+        <v>1064</v>
+      </c>
+      <c r="K84" t="s">
+        <v>1065</v>
+      </c>
+      <c r="L84" t="s">
+        <v>1166</v>
+      </c>
+      <c r="M84" t="s">
+        <v>1068</v>
+      </c>
+      <c r="N84" t="s">
+        <v>1069</v>
+      </c>
+      <c r="R84" t="s">
+        <v>1154</v>
+      </c>
+      <c r="S84" t="s">
+        <v>1070</v>
+      </c>
+      <c r="T84" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="85" spans="1:20">
+      <c r="A85" t="s">
+        <v>1072</v>
+      </c>
+      <c r="B85" t="s">
+        <v>1073</v>
+      </c>
+      <c r="C85" t="s">
+        <v>1113</v>
+      </c>
+      <c r="D85" t="s">
+        <v>1074</v>
+      </c>
+      <c r="E85" t="s">
+        <v>1075</v>
+      </c>
+      <c r="F85" t="s">
+        <v>1120</v>
+      </c>
+      <c r="G85" t="s">
+        <v>1076</v>
+      </c>
+      <c r="H85" t="s">
+        <v>1077</v>
+      </c>
+      <c r="I85" t="s">
+        <v>1163</v>
+      </c>
+      <c r="J85" t="s">
+        <v>1074</v>
+      </c>
+      <c r="K85" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="86" spans="1:20">
+      <c r="A86" t="s">
         <v>1078</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B86" t="s">
         <v>1079</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C86" t="s">
         <v>1114</v>
       </c>
-      <c r="D60" t="s">
+      <c r="D86" t="s">
         <v>1080</v>
       </c>
-      <c r="E60" t="s">
+      <c r="E86" t="s">
         <v>1081</v>
       </c>
-      <c r="F60" t="s">
+      <c r="F86" t="s">
         <v>1121</v>
       </c>
-      <c r="G60" t="s">
+      <c r="G86" t="s">
         <v>400</v>
       </c>
-      <c r="H60" t="s">
+      <c r="H86" t="s">
         <v>401</v>
       </c>
-      <c r="I60" t="s">
+      <c r="I86" t="s">
         <v>1114</v>
       </c>
-      <c r="J60" t="s">
+      <c r="J86" t="s">
         <v>1080</v>
       </c>
-      <c r="K60" t="s">
+      <c r="K86" t="s">
         <v>1081</v>
       </c>
-      <c r="L60" t="s">
+      <c r="L86" t="s">
         <v>1169</v>
       </c>
-      <c r="M60" t="s">
+      <c r="M86" t="s">
         <v>1082</v>
       </c>
-      <c r="N60" t="s">
+      <c r="N86" t="s">
         <v>1083</v>
       </c>
-      <c r="R60" t="s">
+      <c r="R86" t="s">
         <v>1155</v>
       </c>
-      <c r="S60" t="s">
+      <c r="S86" t="s">
         <v>1084</v>
       </c>
-      <c r="T60" t="s">
+      <c r="T86" t="s">
         <v>1085</v>
       </c>
     </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
+    <row r="87" spans="1:20">
+      <c r="A87" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B87" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C87" t="s">
+        <v>1115</v>
+      </c>
+      <c r="D87" t="s">
+        <v>1088</v>
+      </c>
+      <c r="E87" t="s">
+        <v>1089</v>
+      </c>
+      <c r="F87" t="s">
+        <v>1122</v>
+      </c>
+      <c r="G87" t="s">
+        <v>1090</v>
+      </c>
+      <c r="H87" t="s">
+        <v>1091</v>
+      </c>
+      <c r="I87" t="s">
+        <v>1115</v>
+      </c>
+      <c r="J87" t="s">
+        <v>1088</v>
+      </c>
+      <c r="K87" t="s">
+        <v>1089</v>
+      </c>
+      <c r="L87" t="s">
+        <v>1167</v>
+      </c>
+      <c r="M87" t="s">
+        <v>1092</v>
+      </c>
+      <c r="N87" t="s">
+        <v>1093</v>
+      </c>
+      <c r="R87" t="s">
+        <v>1154</v>
+      </c>
+      <c r="S87" t="s">
+        <v>1070</v>
+      </c>
+      <c r="T87" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="88" spans="1:20">
+      <c r="A88" t="s">
+        <v>1094</v>
+      </c>
+      <c r="B88" t="s">
+        <v>1095</v>
+      </c>
+      <c r="C88" t="s">
+        <v>1116</v>
+      </c>
+      <c r="D88" t="s">
+        <v>1096</v>
+      </c>
+      <c r="E88" t="s">
+        <v>1097</v>
+      </c>
+      <c r="F88" t="s">
+        <v>1123</v>
+      </c>
+      <c r="G88" t="s">
+        <v>409</v>
+      </c>
+      <c r="H88" t="s">
+        <v>410</v>
+      </c>
+      <c r="I88" t="s">
+        <v>1116</v>
+      </c>
+      <c r="J88" t="s">
+        <v>1096</v>
+      </c>
+      <c r="K88" t="s">
+        <v>1097</v>
+      </c>
+      <c r="L88" t="s">
+        <v>1165</v>
+      </c>
+      <c r="M88" t="s">
+        <v>411</v>
+      </c>
+      <c r="N88" t="s">
+        <v>412</v>
+      </c>
+      <c r="R88" t="s">
+        <v>1151</v>
+      </c>
+      <c r="S88" t="s">
+        <v>404</v>
+      </c>
+      <c r="T88" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="89" spans="1:20">
+      <c r="A89" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B89" t="s">
+        <v>1099</v>
+      </c>
+      <c r="C89" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D89" t="s">
+        <v>1101</v>
+      </c>
+      <c r="E89" t="s">
+        <v>1100</v>
+      </c>
+      <c r="I89" t="s">
+        <v>576</v>
+      </c>
+      <c r="J89" t="s">
+        <v>576</v>
+      </c>
+      <c r="K89" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="90" spans="1:20">
+      <c r="A90" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B90" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C90" t="s">
+        <v>1118</v>
+      </c>
+      <c r="D90" t="s">
+        <v>1105</v>
+      </c>
+      <c r="E90" t="s">
+        <v>1104</v>
+      </c>
+      <c r="F90" t="s">
+        <v>1124</v>
+      </c>
+      <c r="G90" t="s">
+        <v>1106</v>
+      </c>
+      <c r="H90" t="s">
+        <v>1107</v>
+      </c>
+      <c r="I90" t="s">
+        <v>1118</v>
+      </c>
+      <c r="J90" t="s">
+        <v>1105</v>
+      </c>
+      <c r="K90" t="s">
+        <v>1104</v>
+      </c>
+      <c r="L90" t="s">
+        <v>1168</v>
+      </c>
+      <c r="M90" t="s">
+        <v>1108</v>
+      </c>
+      <c r="N90" t="s">
+        <v>1109</v>
+      </c>
+      <c r="R90" t="s">
+        <v>1156</v>
+      </c>
+      <c r="S90" t="s">
+        <v>1110</v>
+      </c>
+      <c r="T90" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="91" spans="1:20">
+      <c r="A91" t="s">
+        <v>1125</v>
+      </c>
+      <c r="B91" t="s">
+        <v>1126</v>
+      </c>
+      <c r="C91" t="s">
+        <v>1141</v>
+      </c>
+      <c r="D91" t="s">
+        <v>1127</v>
+      </c>
+      <c r="E91" t="s">
+        <v>1128</v>
+      </c>
+      <c r="F91" t="s">
+        <v>1123</v>
+      </c>
+      <c r="G91" t="s">
+        <v>409</v>
+      </c>
+      <c r="H91" t="s">
+        <v>410</v>
+      </c>
+      <c r="I91" t="s">
+        <v>1141</v>
+      </c>
+      <c r="J91" t="s">
+        <v>1127</v>
+      </c>
+      <c r="K91" t="s">
+        <v>1128</v>
+      </c>
+      <c r="L91" t="s">
+        <v>1145</v>
+      </c>
+      <c r="M91" t="s">
+        <v>1129</v>
+      </c>
+      <c r="N91" t="s">
+        <v>1130</v>
+      </c>
+      <c r="R91" t="s">
+        <v>1162</v>
+      </c>
+      <c r="S91" t="s">
+        <v>1131</v>
+      </c>
+      <c r="T91" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="92" spans="1:20">
+      <c r="A92" t="s">
+        <v>1136</v>
+      </c>
+      <c r="B92" t="s">
+        <v>1126</v>
+      </c>
+      <c r="C92" t="s">
+        <v>1143</v>
+      </c>
+      <c r="D92" t="s">
+        <v>1137</v>
+      </c>
+      <c r="E92" t="s">
+        <v>1138</v>
+      </c>
+      <c r="F92" t="s">
+        <v>1144</v>
+      </c>
+      <c r="G92" t="s">
+        <v>1139</v>
+      </c>
+      <c r="H92" t="s">
+        <v>1140</v>
+      </c>
+      <c r="I92" t="s">
+        <v>1143</v>
+      </c>
+      <c r="J92" t="s">
+        <v>1137</v>
+      </c>
+      <c r="K92" t="s">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="93" spans="1:20">
+      <c r="A93" t="s">
+        <v>1133</v>
+      </c>
+      <c r="B93" t="s">
+        <v>1126</v>
+      </c>
+      <c r="C93" t="s">
+        <v>1142</v>
+      </c>
+      <c r="D93" t="s">
+        <v>1134</v>
+      </c>
+      <c r="E93" t="s">
+        <v>1135</v>
+      </c>
+      <c r="I93" t="s">
+        <v>1142</v>
+      </c>
+      <c r="J93" t="s">
+        <v>1134</v>
+      </c>
+      <c r="K93" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="94" spans="1:20">
+      <c r="A94" t="s">
+        <v>654</v>
+      </c>
+      <c r="B94" t="s">
+        <v>691</v>
+      </c>
+      <c r="C94" t="s">
+        <v>758</v>
+      </c>
+      <c r="D94" t="s">
+        <v>655</v>
+      </c>
+      <c r="E94" t="s">
+        <v>656</v>
+      </c>
+      <c r="F94" t="s">
+        <v>825</v>
+      </c>
+      <c r="G94" t="s">
+        <v>657</v>
+      </c>
+      <c r="H94" t="s">
+        <v>658</v>
+      </c>
+      <c r="L94" t="s">
+        <v>917</v>
+      </c>
+      <c r="M94" t="s">
+        <v>659</v>
+      </c>
+      <c r="N94" t="s">
+        <v>660</v>
+      </c>
+      <c r="R94" t="s">
+        <v>1157</v>
+      </c>
+      <c r="S94" t="s">
+        <v>640</v>
+      </c>
+      <c r="T94" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="95" spans="1:20">
+      <c r="A95" t="s">
+        <v>661</v>
+      </c>
+      <c r="B95" t="s">
+        <v>691</v>
+      </c>
+      <c r="C95" t="s">
+        <v>759</v>
+      </c>
+      <c r="D95" t="s">
+        <v>662</v>
+      </c>
+      <c r="E95" t="s">
+        <v>663</v>
+      </c>
+      <c r="F95" t="s">
+        <v>826</v>
+      </c>
+      <c r="G95" t="s">
+        <v>664</v>
+      </c>
+      <c r="H95" t="s">
+        <v>665</v>
+      </c>
+      <c r="L95" t="s">
+        <v>918</v>
+      </c>
+      <c r="M95" t="s">
+        <v>666</v>
+      </c>
+      <c r="N95" t="s">
+        <v>667</v>
+      </c>
+      <c r="R95" t="s">
+        <v>1157</v>
+      </c>
+      <c r="S95" t="s">
+        <v>640</v>
+      </c>
+      <c r="T95" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="96" spans="1:20">
+      <c r="A96" t="s">
         <v>387</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B96" t="s">
         <v>682</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C96" t="s">
         <v>729</v>
       </c>
-      <c r="D61" t="s">
+      <c r="D96" t="s">
         <v>388</v>
       </c>
-      <c r="E61" t="s">
+      <c r="E96" t="s">
         <v>389</v>
       </c>
-      <c r="F61" t="s">
+      <c r="F96" t="s">
         <v>797</v>
       </c>
-      <c r="G61" t="s">
+      <c r="G96" t="s">
         <v>390</v>
       </c>
-      <c r="H61" t="s">
+      <c r="H96" t="s">
         <v>391</v>
       </c>
-      <c r="I61" t="s">
+      <c r="I96" t="s">
         <v>729</v>
       </c>
-      <c r="J61" t="s">
+      <c r="J96" t="s">
         <v>392</v>
       </c>
-      <c r="K61" t="s">
+      <c r="K96" t="s">
         <v>389</v>
       </c>
-      <c r="L61" t="s">
+      <c r="L96" t="s">
         <v>895</v>
       </c>
-      <c r="M61" t="s">
+      <c r="M96" t="s">
         <v>393</v>
       </c>
-      <c r="N61" t="s">
+      <c r="N96" t="s">
         <v>394</v>
       </c>
-      <c r="R61" t="s">
+      <c r="R96" t="s">
         <v>1158</v>
       </c>
-      <c r="S61" t="s">
+      <c r="S96" t="s">
         <v>395</v>
       </c>
-      <c r="T61" t="s">
+      <c r="T96" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>345</v>
-      </c>
-      <c r="B62" t="s">
-        <v>681</v>
-      </c>
-      <c r="C62" t="s">
-        <v>724</v>
-      </c>
-      <c r="D62" t="s">
-        <v>346</v>
-      </c>
-      <c r="E62" t="s">
-        <v>347</v>
-      </c>
-      <c r="F62" t="s">
-        <v>792</v>
-      </c>
-      <c r="G62" t="s">
-        <v>348</v>
-      </c>
-      <c r="H62" t="s">
-        <v>349</v>
-      </c>
-      <c r="I62" t="s">
-        <v>724</v>
-      </c>
-      <c r="J62" t="s">
-        <v>346</v>
-      </c>
-      <c r="K62" t="s">
-        <v>347</v>
-      </c>
-      <c r="L62" t="s">
-        <v>890</v>
-      </c>
-      <c r="M62" t="s">
-        <v>350</v>
-      </c>
-      <c r="N62" t="s">
-        <v>351</v>
-      </c>
-      <c r="R62" t="s">
-        <v>1160</v>
-      </c>
-      <c r="S62" t="s">
-        <v>352</v>
-      </c>
-      <c r="T62" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>311</v>
-      </c>
-      <c r="B63" t="s">
-        <v>966</v>
-      </c>
-      <c r="C63" t="s">
-        <v>987</v>
-      </c>
-      <c r="D63" t="s">
-        <v>987</v>
-      </c>
-      <c r="E63" t="s">
-        <v>313</v>
-      </c>
-      <c r="F63" t="s">
-        <v>991</v>
-      </c>
-      <c r="G63" t="s">
-        <v>967</v>
-      </c>
-      <c r="H63" t="s">
-        <v>968</v>
-      </c>
-      <c r="I63" t="s">
-        <v>996</v>
-      </c>
-      <c r="J63" t="s">
-        <v>312</v>
-      </c>
-      <c r="K63" t="s">
-        <v>313</v>
-      </c>
-      <c r="L63" t="s">
-        <v>1058</v>
-      </c>
-      <c r="M63" t="s">
-        <v>314</v>
-      </c>
-      <c r="N63" t="s">
-        <v>315</v>
-      </c>
-      <c r="R63" t="s">
-        <v>1146</v>
-      </c>
-      <c r="S63" t="s">
-        <v>316</v>
-      </c>
-      <c r="T63" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>1012</v>
-      </c>
-      <c r="B64" t="s">
-        <v>1013</v>
-      </c>
-      <c r="C64" t="s">
-        <v>1041</v>
-      </c>
-      <c r="D64" t="s">
-        <v>1015</v>
-      </c>
-      <c r="E64" t="s">
-        <v>1014</v>
-      </c>
-      <c r="F64" t="s">
-        <v>1048</v>
-      </c>
-      <c r="G64" t="s">
-        <v>1016</v>
-      </c>
-      <c r="H64" t="s">
-        <v>1017</v>
-      </c>
-      <c r="I64" t="s">
-        <v>1041</v>
-      </c>
-      <c r="J64" t="s">
-        <v>1015</v>
-      </c>
-      <c r="K64" t="s">
-        <v>1014</v>
-      </c>
-      <c r="L64" t="s">
-        <v>1054</v>
-      </c>
-      <c r="M64" t="s">
-        <v>1018</v>
-      </c>
-      <c r="N64" t="s">
-        <v>1019</v>
-      </c>
-      <c r="R64" t="s">
-        <v>1150</v>
-      </c>
-      <c r="S64" t="s">
-        <v>1020</v>
-      </c>
-      <c r="T64" t="s">
-        <v>1021</v>
-      </c>
-    </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>212</v>
-      </c>
-      <c r="B65" t="s">
-        <v>671</v>
-      </c>
-      <c r="C65" t="s">
-        <v>710</v>
-      </c>
-      <c r="D65" t="s">
-        <v>213</v>
-      </c>
-      <c r="E65" t="s">
-        <v>214</v>
-      </c>
-      <c r="F65" t="s">
-        <v>778</v>
-      </c>
-      <c r="G65" t="s">
-        <v>215</v>
-      </c>
-      <c r="H65" t="s">
-        <v>216</v>
-      </c>
-      <c r="I65" t="s">
-        <v>710</v>
-      </c>
-      <c r="J65" t="s">
-        <v>213</v>
-      </c>
-      <c r="K65" t="s">
-        <v>214</v>
-      </c>
-      <c r="L65" t="s">
-        <v>863</v>
-      </c>
-      <c r="M65" t="s">
-        <v>217</v>
-      </c>
-      <c r="N65" t="s">
-        <v>218</v>
-      </c>
-      <c r="R65" t="s">
-        <v>938</v>
-      </c>
-      <c r="S65" t="s">
-        <v>219</v>
-      </c>
-      <c r="T65" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>273</v>
-      </c>
-      <c r="B66" t="s">
-        <v>677</v>
-      </c>
-      <c r="C66" t="s">
-        <v>717</v>
-      </c>
-      <c r="D66" t="s">
-        <v>274</v>
-      </c>
-      <c r="E66" t="s">
-        <v>275</v>
-      </c>
-      <c r="F66" t="s">
-        <v>785</v>
-      </c>
-      <c r="G66" t="s">
-        <v>276</v>
-      </c>
-      <c r="H66" t="s">
-        <v>277</v>
-      </c>
-      <c r="I66" t="s">
-        <v>717</v>
-      </c>
-      <c r="J66" t="s">
-        <v>274</v>
-      </c>
-      <c r="K66" t="s">
-        <v>275</v>
-      </c>
-      <c r="L66" t="s">
-        <v>864</v>
-      </c>
-      <c r="M66" t="s">
-        <v>278</v>
-      </c>
-      <c r="N66" t="s">
-        <v>279</v>
-      </c>
-      <c r="R66" t="s">
-        <v>944</v>
-      </c>
-      <c r="S66" t="s">
-        <v>280</v>
-      </c>
-      <c r="T66" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>971</v>
-      </c>
-      <c r="B67" t="s">
-        <v>966</v>
-      </c>
-      <c r="C67" t="s">
-        <v>989</v>
-      </c>
-      <c r="D67" t="s">
-        <v>989</v>
-      </c>
-      <c r="E67" t="s">
-        <v>973</v>
-      </c>
-      <c r="F67" t="s">
-        <v>993</v>
-      </c>
-      <c r="G67" t="s">
-        <v>974</v>
-      </c>
-      <c r="H67" t="s">
-        <v>975</v>
-      </c>
-      <c r="I67" t="s">
-        <v>1164</v>
-      </c>
-      <c r="J67" t="s">
-        <v>972</v>
-      </c>
-      <c r="K67" t="s">
-        <v>973</v>
-      </c>
-      <c r="L67" t="s">
-        <v>1060</v>
-      </c>
-      <c r="M67" t="s">
-        <v>976</v>
-      </c>
-      <c r="N67" t="s">
-        <v>977</v>
-      </c>
-      <c r="R67" t="s">
-        <v>1148</v>
-      </c>
-      <c r="S67" t="s">
-        <v>978</v>
-      </c>
-      <c r="T67" t="s">
-        <v>979</v>
-      </c>
-    </row>
-    <row r="68" spans="1:20" ht="30" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>58</v>
-      </c>
-      <c r="B68" t="s">
-        <v>671</v>
-      </c>
-      <c r="C68" t="s">
-        <v>695</v>
-      </c>
-      <c r="D68" t="s">
-        <v>59</v>
-      </c>
-      <c r="E68" t="s">
-        <v>60</v>
-      </c>
-      <c r="F68" t="s">
-        <v>764</v>
-      </c>
-      <c r="G68" t="s">
-        <v>61</v>
-      </c>
-      <c r="H68" t="s">
-        <v>62</v>
-      </c>
-      <c r="I68" t="s">
-        <v>827</v>
-      </c>
-      <c r="J68" t="s">
-        <v>63</v>
-      </c>
-      <c r="K68" t="s">
-        <v>64</v>
-      </c>
-      <c r="L68" s="2" t="s">
-        <v>868</v>
-      </c>
-      <c r="M68" t="s">
-        <v>65</v>
-      </c>
-      <c r="N68" t="s">
-        <v>66</v>
-      </c>
-      <c r="O68" t="s">
-        <v>919</v>
-      </c>
-      <c r="P68" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q68" t="s">
-        <v>68</v>
-      </c>
-      <c r="R68" t="s">
-        <v>949</v>
-      </c>
-      <c r="S68" t="s">
-        <v>69</v>
-      </c>
-      <c r="T68" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>980</v>
-      </c>
-      <c r="B69" t="s">
-        <v>966</v>
-      </c>
-      <c r="C69" t="s">
-        <v>990</v>
-      </c>
-      <c r="D69" t="s">
-        <v>990</v>
-      </c>
-      <c r="E69" t="s">
-        <v>982</v>
-      </c>
-      <c r="F69" t="s">
-        <v>994</v>
-      </c>
-      <c r="G69" t="s">
-        <v>983</v>
-      </c>
-      <c r="H69" t="s">
-        <v>984</v>
-      </c>
-      <c r="I69" t="s">
-        <v>990</v>
-      </c>
-      <c r="J69" t="s">
-        <v>981</v>
-      </c>
-      <c r="K69" t="s">
-        <v>982</v>
-      </c>
-      <c r="L69" t="s">
-        <v>1061</v>
-      </c>
-      <c r="M69" t="s">
-        <v>985</v>
-      </c>
-      <c r="N69" t="s">
-        <v>986</v>
-      </c>
-    </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>221</v>
-      </c>
-      <c r="B70" t="s">
-        <v>675</v>
-      </c>
-      <c r="C70" t="s">
-        <v>711</v>
-      </c>
-      <c r="D70" t="s">
-        <v>222</v>
-      </c>
-      <c r="E70" t="s">
-        <v>223</v>
-      </c>
-      <c r="F70" t="s">
-        <v>779</v>
-      </c>
-      <c r="G70" t="s">
-        <v>224</v>
-      </c>
-      <c r="H70" t="s">
-        <v>225</v>
-      </c>
-      <c r="I70" t="s">
-        <v>841</v>
-      </c>
-      <c r="J70" t="s">
-        <v>222</v>
-      </c>
-      <c r="K70" t="s">
-        <v>223</v>
-      </c>
-      <c r="L70" t="s">
-        <v>965</v>
-      </c>
-      <c r="M70" t="s">
-        <v>226</v>
-      </c>
-      <c r="N70" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>432</v>
-      </c>
-      <c r="B71" t="s">
-        <v>677</v>
-      </c>
-      <c r="C71" t="s">
-        <v>734</v>
-      </c>
-      <c r="D71" t="s">
-        <v>433</v>
-      </c>
-      <c r="E71" t="s">
-        <v>434</v>
-      </c>
-      <c r="F71" t="s">
-        <v>802</v>
-      </c>
-      <c r="G71" t="s">
-        <v>435</v>
-      </c>
-      <c r="H71" t="s">
-        <v>436</v>
-      </c>
-      <c r="I71" t="s">
-        <v>734</v>
-      </c>
-      <c r="J71" t="s">
-        <v>433</v>
-      </c>
-      <c r="K71" t="s">
-        <v>434</v>
-      </c>
-      <c r="L71" t="s">
-        <v>900</v>
-      </c>
-      <c r="M71" t="s">
-        <v>437</v>
-      </c>
-      <c r="N71" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>416</v>
-      </c>
-      <c r="B72" t="s">
-        <v>677</v>
-      </c>
-      <c r="C72" t="s">
-        <v>417</v>
-      </c>
-      <c r="D72" t="s">
-        <v>417</v>
-      </c>
-      <c r="E72" t="s">
-        <v>418</v>
-      </c>
-      <c r="F72" t="s">
-        <v>800</v>
-      </c>
-      <c r="G72" t="s">
-        <v>419</v>
-      </c>
-      <c r="H72" t="s">
-        <v>420</v>
-      </c>
-      <c r="I72" t="s">
-        <v>417</v>
-      </c>
-      <c r="J72" t="s">
-        <v>417</v>
-      </c>
-      <c r="K72" t="s">
-        <v>418</v>
-      </c>
-      <c r="L72" t="s">
-        <v>898</v>
-      </c>
-      <c r="M72" t="s">
-        <v>421</v>
-      </c>
-      <c r="N72" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>71</v>
-      </c>
-      <c r="B73" t="s">
-        <v>672</v>
-      </c>
-      <c r="C73" t="s">
-        <v>696</v>
-      </c>
-      <c r="D73" t="s">
-        <v>72</v>
-      </c>
-      <c r="E73" t="s">
-        <v>73</v>
-      </c>
-      <c r="F73" t="s">
-        <v>765</v>
-      </c>
-      <c r="G73" t="s">
-        <v>74</v>
-      </c>
-      <c r="H73" t="s">
-        <v>75</v>
-      </c>
-      <c r="I73" t="s">
-        <v>828</v>
-      </c>
-      <c r="J73" t="s">
-        <v>76</v>
-      </c>
-      <c r="K73" t="s">
-        <v>77</v>
-      </c>
-      <c r="L73" s="2" t="s">
-        <v>889</v>
-      </c>
-      <c r="M73" t="s">
-        <v>78</v>
-      </c>
-      <c r="N73" t="s">
-        <v>79</v>
-      </c>
-      <c r="O73" t="s">
-        <v>920</v>
-      </c>
-      <c r="P73" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q73" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>462</v>
-      </c>
-      <c r="B74" t="s">
-        <v>677</v>
-      </c>
-      <c r="C74" t="s">
-        <v>738</v>
-      </c>
-      <c r="D74" t="s">
-        <v>463</v>
-      </c>
-      <c r="E74" t="s">
-        <v>464</v>
-      </c>
-      <c r="F74" t="s">
-        <v>806</v>
-      </c>
-      <c r="G74" t="s">
-        <v>465</v>
-      </c>
-      <c r="H74" t="s">
-        <v>466</v>
-      </c>
-      <c r="I74" t="s">
-        <v>738</v>
-      </c>
-      <c r="J74" t="s">
-        <v>463</v>
-      </c>
-      <c r="K74" t="s">
-        <v>464</v>
-      </c>
-      <c r="L74" t="s">
-        <v>904</v>
-      </c>
-      <c r="M74" t="s">
-        <v>467</v>
-      </c>
-      <c r="N74" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>439</v>
-      </c>
-      <c r="B75" t="s">
-        <v>677</v>
-      </c>
-      <c r="C75" t="s">
-        <v>735</v>
-      </c>
-      <c r="D75" t="s">
-        <v>440</v>
-      </c>
-      <c r="E75" t="s">
-        <v>441</v>
-      </c>
-      <c r="F75" t="s">
-        <v>803</v>
-      </c>
-      <c r="G75" t="s">
-        <v>442</v>
-      </c>
-      <c r="H75" t="s">
-        <v>443</v>
-      </c>
-      <c r="I75" t="s">
-        <v>735</v>
-      </c>
-      <c r="J75" t="s">
-        <v>440</v>
-      </c>
-      <c r="K75" t="s">
-        <v>441</v>
-      </c>
-      <c r="L75" t="s">
-        <v>901</v>
-      </c>
-      <c r="M75" t="s">
-        <v>444</v>
-      </c>
-      <c r="N75" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>1004</v>
-      </c>
-      <c r="B76" t="s">
-        <v>1005</v>
-      </c>
-      <c r="C76" t="s">
-        <v>1040</v>
-      </c>
-      <c r="D76" t="s">
-        <v>1006</v>
-      </c>
-      <c r="E76" t="s">
-        <v>1007</v>
-      </c>
-      <c r="F76" t="s">
-        <v>1047</v>
-      </c>
-      <c r="G76" t="s">
-        <v>1008</v>
-      </c>
-      <c r="H76" t="s">
-        <v>1009</v>
-      </c>
-      <c r="I76" t="s">
-        <v>1040</v>
-      </c>
-      <c r="J76" t="s">
-        <v>1006</v>
-      </c>
-      <c r="K76" t="s">
-        <v>1007</v>
-      </c>
-      <c r="L76" t="s">
-        <v>1053</v>
-      </c>
-      <c r="M76" t="s">
-        <v>1010</v>
-      </c>
-      <c r="N76" t="s">
-        <v>1011</v>
-      </c>
-    </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>446</v>
-      </c>
-      <c r="B77" t="s">
-        <v>684</v>
-      </c>
-      <c r="C77" t="s">
-        <v>736</v>
-      </c>
-      <c r="D77" t="s">
-        <v>447</v>
-      </c>
-      <c r="E77" t="s">
-        <v>448</v>
-      </c>
-      <c r="F77" t="s">
-        <v>804</v>
-      </c>
-      <c r="G77" t="s">
-        <v>449</v>
-      </c>
-      <c r="H77" t="s">
-        <v>450</v>
-      </c>
-      <c r="I77" t="s">
-        <v>736</v>
-      </c>
-      <c r="J77" t="s">
-        <v>447</v>
-      </c>
-      <c r="K77" t="s">
-        <v>448</v>
-      </c>
-      <c r="L77" t="s">
-        <v>902</v>
-      </c>
-      <c r="M77" t="s">
-        <v>451</v>
-      </c>
-      <c r="N77" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>380</v>
-      </c>
-      <c r="B78" t="s">
-        <v>668</v>
-      </c>
-      <c r="C78" t="s">
-        <v>728</v>
-      </c>
-      <c r="D78" t="s">
-        <v>381</v>
-      </c>
-      <c r="E78" t="s">
-        <v>382</v>
-      </c>
-      <c r="F78" t="s">
-        <v>796</v>
-      </c>
-      <c r="G78" t="s">
-        <v>383</v>
-      </c>
-      <c r="H78" t="s">
-        <v>384</v>
-      </c>
-      <c r="I78" t="s">
-        <v>728</v>
-      </c>
-      <c r="J78" t="s">
-        <v>381</v>
-      </c>
-      <c r="K78" t="s">
-        <v>382</v>
-      </c>
-      <c r="L78" t="s">
-        <v>894</v>
-      </c>
-      <c r="M78" t="s">
-        <v>385</v>
-      </c>
-      <c r="N78" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>565</v>
-      </c>
-      <c r="B79" t="s">
-        <v>671</v>
-      </c>
-      <c r="C79" t="s">
-        <v>995</v>
-      </c>
-      <c r="D79" t="s">
-        <v>566</v>
-      </c>
-      <c r="E79" t="s">
-        <v>567</v>
-      </c>
-      <c r="F79" t="s">
-        <v>1000</v>
-      </c>
-      <c r="G79" t="s">
-        <v>568</v>
-      </c>
-      <c r="H79" t="s">
-        <v>569</v>
-      </c>
-      <c r="I79" t="s">
-        <v>998</v>
-      </c>
-      <c r="J79" t="s">
-        <v>570</v>
-      </c>
-      <c r="K79" t="s">
-        <v>571</v>
-      </c>
-      <c r="L79" t="s">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="80" spans="1:20" ht="90" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>554</v>
-      </c>
-      <c r="B80" t="s">
-        <v>671</v>
-      </c>
-      <c r="C80" t="s">
-        <v>747</v>
-      </c>
-      <c r="D80" t="s">
-        <v>555</v>
-      </c>
-      <c r="E80" t="s">
-        <v>556</v>
-      </c>
-      <c r="F80" t="s">
-        <v>815</v>
-      </c>
-      <c r="G80" t="s">
-        <v>557</v>
-      </c>
-      <c r="H80" t="s">
-        <v>558</v>
-      </c>
-      <c r="I80" t="s">
-        <v>851</v>
-      </c>
-      <c r="J80" t="s">
-        <v>559</v>
-      </c>
-      <c r="K80" t="s">
-        <v>560</v>
-      </c>
-      <c r="L80" s="2" t="s">
-        <v>912</v>
-      </c>
-      <c r="M80" t="s">
-        <v>561</v>
-      </c>
-      <c r="N80" t="s">
-        <v>562</v>
-      </c>
-      <c r="O80" s="2" t="s">
-        <v>921</v>
-      </c>
-      <c r="P80" t="s">
-        <v>563</v>
-      </c>
-      <c r="Q80" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="81" spans="1:17" ht="45" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>584</v>
-      </c>
-      <c r="B81" t="s">
-        <v>671</v>
-      </c>
-      <c r="C81" t="s">
-        <v>699</v>
-      </c>
-      <c r="D81" t="s">
-        <v>101</v>
-      </c>
-      <c r="E81" t="s">
-        <v>102</v>
-      </c>
-      <c r="F81" t="s">
-        <v>818</v>
-      </c>
-      <c r="G81" t="s">
-        <v>585</v>
-      </c>
-      <c r="H81" t="s">
-        <v>586</v>
-      </c>
-      <c r="I81" t="s">
-        <v>853</v>
-      </c>
-      <c r="J81" t="s">
-        <v>587</v>
-      </c>
-      <c r="K81" t="s">
-        <v>588</v>
-      </c>
-      <c r="L81" s="2" t="s">
-        <v>913</v>
-      </c>
-      <c r="M81" t="s">
-        <v>589</v>
-      </c>
-      <c r="N81" t="s">
-        <v>590</v>
-      </c>
-      <c r="O81" t="s">
-        <v>922</v>
-      </c>
-      <c r="P81" t="s">
-        <v>591</v>
-      </c>
-      <c r="Q81" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>572</v>
-      </c>
-      <c r="B82" t="s">
-        <v>671</v>
-      </c>
-      <c r="C82" t="s">
-        <v>705</v>
-      </c>
-      <c r="D82" t="s">
-        <v>158</v>
-      </c>
-      <c r="E82" t="s">
-        <v>573</v>
-      </c>
-      <c r="F82" t="s">
-        <v>816</v>
-      </c>
-      <c r="G82" t="s">
-        <v>574</v>
-      </c>
-      <c r="H82" t="s">
-        <v>575</v>
-      </c>
-      <c r="I82" t="s">
-        <v>576</v>
-      </c>
-      <c r="J82" t="s">
-        <v>576</v>
-      </c>
-      <c r="K82" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>1098</v>
-      </c>
-      <c r="B83" t="s">
-        <v>1099</v>
-      </c>
-      <c r="C83" t="s">
-        <v>1117</v>
-      </c>
-      <c r="D83" t="s">
-        <v>1101</v>
-      </c>
-      <c r="E83" t="s">
-        <v>1100</v>
-      </c>
-      <c r="I83" t="s">
-        <v>576</v>
-      </c>
-      <c r="J83" t="s">
-        <v>576</v>
-      </c>
-      <c r="K83" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>628</v>
-      </c>
-      <c r="B84" t="s">
-        <v>689</v>
-      </c>
-      <c r="C84" t="s">
-        <v>754</v>
-      </c>
-      <c r="D84" t="s">
-        <v>629</v>
-      </c>
-      <c r="E84" t="s">
-        <v>630</v>
-      </c>
-      <c r="F84" t="s">
-        <v>821</v>
-      </c>
-      <c r="G84" t="s">
-        <v>631</v>
-      </c>
-      <c r="H84" t="s">
-        <v>632</v>
-      </c>
-      <c r="I84" t="s">
-        <v>754</v>
-      </c>
-      <c r="J84" t="s">
-        <v>629</v>
-      </c>
-      <c r="K84" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>340</v>
-      </c>
-      <c r="B85" t="s">
-        <v>680</v>
-      </c>
-      <c r="C85" t="s">
-        <v>723</v>
-      </c>
-      <c r="D85" t="s">
-        <v>341</v>
-      </c>
-      <c r="E85" t="s">
-        <v>342</v>
-      </c>
-      <c r="F85" t="s">
-        <v>791</v>
-      </c>
-      <c r="G85" t="s">
-        <v>343</v>
-      </c>
-      <c r="H85" t="s">
-        <v>344</v>
-      </c>
-      <c r="I85" t="s">
-        <v>723</v>
-      </c>
-      <c r="J85" t="s">
-        <v>341</v>
-      </c>
-      <c r="K85" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>335</v>
-      </c>
-      <c r="B86" t="s">
-        <v>679</v>
-      </c>
-      <c r="C86" t="s">
-        <v>722</v>
-      </c>
-      <c r="D86" t="s">
-        <v>336</v>
-      </c>
-      <c r="E86" t="s">
-        <v>337</v>
-      </c>
-      <c r="F86" t="s">
-        <v>790</v>
-      </c>
-      <c r="G86" t="s">
-        <v>338</v>
-      </c>
-      <c r="H86" t="s">
-        <v>339</v>
-      </c>
-      <c r="I86" t="s">
-        <v>845</v>
-      </c>
-      <c r="J86" t="s">
-        <v>336</v>
-      </c>
-      <c r="K86" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>523</v>
-      </c>
-      <c r="B87" t="s">
-        <v>671</v>
-      </c>
-      <c r="C87" t="s">
-        <v>744</v>
-      </c>
-      <c r="D87" t="s">
-        <v>524</v>
-      </c>
-      <c r="E87" t="s">
-        <v>525</v>
-      </c>
-      <c r="F87" t="s">
-        <v>812</v>
-      </c>
-      <c r="G87" t="s">
-        <v>526</v>
-      </c>
-      <c r="H87" t="s">
-        <v>527</v>
-      </c>
-      <c r="I87" t="s">
-        <v>849</v>
-      </c>
-      <c r="J87" t="s">
-        <v>528</v>
-      </c>
-      <c r="K87" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>1136</v>
-      </c>
-      <c r="B88" t="s">
-        <v>1126</v>
-      </c>
-      <c r="C88" t="s">
-        <v>1143</v>
-      </c>
-      <c r="D88" t="s">
-        <v>1137</v>
-      </c>
-      <c r="E88" t="s">
-        <v>1138</v>
-      </c>
-      <c r="F88" t="s">
-        <v>1144</v>
-      </c>
-      <c r="G88" t="s">
-        <v>1139</v>
-      </c>
-      <c r="H88" t="s">
-        <v>1140</v>
-      </c>
-      <c r="I88" t="s">
-        <v>1143</v>
-      </c>
-      <c r="J88" t="s">
-        <v>1137</v>
-      </c>
-      <c r="K88" t="s">
-        <v>1138</v>
-      </c>
-    </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>577</v>
-      </c>
-      <c r="B89" t="s">
-        <v>675</v>
-      </c>
-      <c r="C89" t="s">
-        <v>748</v>
-      </c>
-      <c r="D89" t="s">
-        <v>578</v>
-      </c>
-      <c r="E89" t="s">
-        <v>579</v>
-      </c>
-      <c r="F89" t="s">
-        <v>817</v>
-      </c>
-      <c r="G89" t="s">
-        <v>580</v>
-      </c>
-      <c r="H89" t="s">
-        <v>581</v>
-      </c>
-      <c r="I89" t="s">
-        <v>852</v>
-      </c>
-      <c r="J89" t="s">
-        <v>582</v>
-      </c>
-      <c r="K89" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>603</v>
-      </c>
-      <c r="B90" t="s">
-        <v>671</v>
-      </c>
-      <c r="C90" t="s">
-        <v>751</v>
-      </c>
-      <c r="D90" t="s">
-        <v>604</v>
-      </c>
-      <c r="E90" t="s">
-        <v>605</v>
-      </c>
-      <c r="F90" t="s">
-        <v>819</v>
-      </c>
-      <c r="G90" t="s">
-        <v>606</v>
-      </c>
-      <c r="H90" t="s">
-        <v>607</v>
-      </c>
-      <c r="I90" t="s">
-        <v>856</v>
-      </c>
-      <c r="J90" t="s">
-        <v>608</v>
-      </c>
-      <c r="K90" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>613</v>
-      </c>
-      <c r="B91" t="s">
-        <v>671</v>
-      </c>
-      <c r="C91" t="s">
-        <v>752</v>
-      </c>
-      <c r="D91" t="s">
-        <v>614</v>
-      </c>
-      <c r="E91" t="s">
-        <v>615</v>
-      </c>
-      <c r="I91" t="s">
-        <v>857</v>
-      </c>
-      <c r="J91" t="s">
-        <v>616</v>
-      </c>
-      <c r="K91" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>598</v>
-      </c>
-      <c r="B92" t="s">
-        <v>671</v>
-      </c>
-      <c r="C92" t="s">
-        <v>750</v>
-      </c>
-      <c r="D92" t="s">
-        <v>599</v>
-      </c>
-      <c r="E92" t="s">
-        <v>600</v>
-      </c>
-      <c r="I92" t="s">
-        <v>855</v>
-      </c>
-      <c r="J92" t="s">
-        <v>601</v>
-      </c>
-      <c r="K92" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>618</v>
-      </c>
-      <c r="B93" t="s">
-        <v>675</v>
-      </c>
-      <c r="C93" t="s">
-        <v>749</v>
-      </c>
-      <c r="D93" t="s">
-        <v>594</v>
-      </c>
-      <c r="E93" t="s">
-        <v>595</v>
-      </c>
-      <c r="I93" t="s">
-        <v>858</v>
-      </c>
-      <c r="J93" t="s">
-        <v>619</v>
-      </c>
-      <c r="K93" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>1133</v>
-      </c>
-      <c r="B94" t="s">
-        <v>1126</v>
-      </c>
-      <c r="C94" t="s">
-        <v>1142</v>
-      </c>
-      <c r="D94" t="s">
-        <v>1134</v>
-      </c>
-      <c r="E94" t="s">
-        <v>1135</v>
-      </c>
-      <c r="I94" t="s">
-        <v>1142</v>
-      </c>
-      <c r="J94" t="s">
-        <v>1134</v>
-      </c>
-      <c r="K94" t="s">
-        <v>1135</v>
-      </c>
-    </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>593</v>
-      </c>
-      <c r="B95" t="s">
-        <v>671</v>
-      </c>
-      <c r="C95" t="s">
-        <v>749</v>
-      </c>
-      <c r="D95" t="s">
-        <v>594</v>
-      </c>
-      <c r="E95" t="s">
-        <v>595</v>
-      </c>
-      <c r="I95" t="s">
-        <v>854</v>
-      </c>
-      <c r="J95" t="s">
-        <v>596</v>
-      </c>
-      <c r="K95" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
+    <row r="97" spans="1:20">
+      <c r="A97" t="s">
+        <v>40</v>
+      </c>
+      <c r="B97" t="s">
+        <v>670</v>
+      </c>
+      <c r="C97" t="s">
+        <v>41</v>
+      </c>
+      <c r="D97" t="s">
+        <v>41</v>
+      </c>
+      <c r="E97" t="s">
+        <v>42</v>
+      </c>
+      <c r="F97" t="s">
+        <v>762</v>
+      </c>
+      <c r="G97" t="s">
+        <v>43</v>
+      </c>
+      <c r="H97" t="s">
+        <v>44</v>
+      </c>
+      <c r="I97" t="s">
+        <v>41</v>
+      </c>
+      <c r="J97" t="s">
+        <v>41</v>
+      </c>
+      <c r="K97" t="s">
+        <v>42</v>
+      </c>
+      <c r="L97" t="s">
+        <v>866</v>
+      </c>
+      <c r="M97" t="s">
+        <v>45</v>
+      </c>
+      <c r="N97" t="s">
+        <v>46</v>
+      </c>
+      <c r="R97" t="s">
+        <v>1161</v>
+      </c>
+      <c r="S97" t="s">
+        <v>47</v>
+      </c>
+      <c r="T97" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="98" spans="1:20">
+      <c r="A98" t="s">
+        <v>49</v>
+      </c>
+      <c r="B98" t="s">
+        <v>670</v>
+      </c>
+      <c r="C98" t="s">
+        <v>694</v>
+      </c>
+      <c r="D98" t="s">
+        <v>50</v>
+      </c>
+      <c r="E98" t="s">
+        <v>51</v>
+      </c>
+      <c r="F98" t="s">
+        <v>763</v>
+      </c>
+      <c r="G98" t="s">
+        <v>52</v>
+      </c>
+      <c r="H98" t="s">
+        <v>53</v>
+      </c>
+      <c r="I98" t="s">
+        <v>694</v>
+      </c>
+      <c r="J98" t="s">
+        <v>50</v>
+      </c>
+      <c r="K98" t="s">
+        <v>51</v>
+      </c>
+      <c r="L98" t="s">
+        <v>867</v>
+      </c>
+      <c r="M98" t="s">
+        <v>54</v>
+      </c>
+      <c r="N98" t="s">
+        <v>55</v>
+      </c>
+      <c r="R98" t="s">
+        <v>1159</v>
+      </c>
+      <c r="S98" t="s">
+        <v>56</v>
+      </c>
+      <c r="T98" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="99" spans="1:20">
+      <c r="A99" t="s">
         <v>529</v>
       </c>
-      <c r="B96" t="s">
+      <c r="B99" t="s">
         <v>686</v>
       </c>
-      <c r="C96" t="s">
+      <c r="C99" t="s">
         <v>1038</v>
       </c>
-      <c r="D96" t="s">
+      <c r="D99" t="s">
         <v>530</v>
       </c>
-      <c r="E96" t="s">
+      <c r="E99" t="s">
         <v>531</v>
       </c>
-      <c r="F96" t="s">
+      <c r="F99" t="s">
         <v>1045</v>
       </c>
-      <c r="G96" t="s">
+      <c r="G99" t="s">
         <v>532</v>
       </c>
-      <c r="H96" t="s">
+      <c r="H99" t="s">
         <v>533</v>
       </c>
-      <c r="I96" t="s">
+      <c r="I99" t="s">
         <v>745</v>
       </c>
-      <c r="J96" t="s">
+      <c r="J99" t="s">
         <v>530</v>
       </c>
-      <c r="K96" t="s">
+      <c r="K99" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>500</v>
-      </c>
-      <c r="B97" t="s">
-        <v>671</v>
-      </c>
-      <c r="C97" t="s">
-        <v>741</v>
-      </c>
-      <c r="D97" t="s">
-        <v>501</v>
-      </c>
-      <c r="E97" t="s">
-        <v>502</v>
-      </c>
-      <c r="I97" t="s">
-        <v>741</v>
-      </c>
-      <c r="J97" t="s">
-        <v>501</v>
-      </c>
-      <c r="K97" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
-        <v>1072</v>
-      </c>
-      <c r="B98" t="s">
-        <v>1073</v>
-      </c>
-      <c r="C98" t="s">
-        <v>1113</v>
-      </c>
-      <c r="D98" t="s">
-        <v>1074</v>
-      </c>
-      <c r="E98" t="s">
-        <v>1075</v>
-      </c>
-      <c r="F98" t="s">
-        <v>1120</v>
-      </c>
-      <c r="G98" t="s">
-        <v>1076</v>
-      </c>
-      <c r="H98" t="s">
-        <v>1077</v>
-      </c>
-      <c r="I98" t="s">
-        <v>1163</v>
-      </c>
-      <c r="J98" t="s">
-        <v>1074</v>
-      </c>
-      <c r="K98" t="s">
-        <v>1075</v>
-      </c>
-    </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
-        <v>610</v>
-      </c>
-      <c r="B99" t="s">
-        <v>671</v>
-      </c>
-      <c r="C99" t="s">
-        <v>611</v>
-      </c>
-      <c r="D99" t="s">
-        <v>611</v>
-      </c>
-      <c r="E99" t="s">
-        <v>612</v>
+    <row r="100" spans="1:20">
+      <c r="A100" t="s">
+        <v>387</v>
+      </c>
+      <c r="B100" t="s">
+        <v>1170</v>
+      </c>
+      <c r="C100" t="s">
+        <v>729</v>
+      </c>
+      <c r="D100" t="s">
+        <v>392</v>
+      </c>
+      <c r="E100" t="s">
+        <v>389</v>
+      </c>
+      <c r="F100" t="s">
+        <v>1180</v>
+      </c>
+      <c r="G100" t="s">
+        <v>1171</v>
+      </c>
+      <c r="H100" t="s">
+        <v>1172</v>
+      </c>
+      <c r="I100" t="s">
+        <v>729</v>
+      </c>
+      <c r="J100" t="s">
+        <v>392</v>
+      </c>
+      <c r="K100" t="s">
+        <v>389</v>
+      </c>
+      <c r="L100" t="s">
+        <v>1182</v>
+      </c>
+      <c r="M100" t="s">
+        <v>393</v>
+      </c>
+      <c r="N100" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="101" spans="1:20">
+      <c r="A101" t="s">
+        <v>1173</v>
+      </c>
+      <c r="B101" t="s">
+        <v>1174</v>
+      </c>
+      <c r="C101" t="s">
+        <v>1179</v>
+      </c>
+      <c r="D101" t="s">
+        <v>1175</v>
+      </c>
+      <c r="E101" t="s">
+        <v>1176</v>
+      </c>
+      <c r="F101" t="s">
+        <v>1181</v>
+      </c>
+      <c r="G101" t="s">
+        <v>1177</v>
+      </c>
+      <c r="H101" t="s">
+        <v>1178</v>
+      </c>
+      <c r="I101" t="s">
+        <v>1179</v>
+      </c>
+      <c r="J101" t="s">
+        <v>1175</v>
+      </c>
+      <c r="K101" t="s">
+        <v>1176</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A2:T83" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:T99">
-      <sortCondition ref="R2:R83"/>
+      <sortCondition ref="B2:B83"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/PTBR/Lang/PTBR/Game/Stat.xlsx
+++ b/PTBR/Lang/PTBR/Game/Stat.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ysi\Documents\GitHub\elin-portugues-brasileiro\PTBR\Lang\PTBR\Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C38AF8C6-DE27-400D-98BC-E8C14A4B501D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92BCBC84-A9CB-46EF-899B-A72E254850AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10320" yWindow="0" windowWidth="10320" windowHeight="13500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2550" yWindow="2130" windowWidth="15480" windowHeight="9810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Stat" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1515" uniqueCount="1183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1515" uniqueCount="1188">
   <si>
     <t>id</t>
   </si>
@@ -2138,60 +2138,36 @@
     <t>Fúria</t>
   </si>
   <si>
-    <t>Veneno</t>
-  </si>
-  <si>
     <t>Asfixia</t>
   </si>
   <si>
-    <t>Queimadura</t>
-  </si>
-  <si>
     <t>Medo</t>
   </si>
   <si>
-    <t>Sono</t>
-  </si>
-  <si>
     <t>Inconsciência</t>
   </si>
   <si>
     <t>Enredado</t>
   </si>
   <si>
-    <t>Paralisia</t>
-  </si>
-  <si>
     <t>Confusão</t>
   </si>
   <si>
-    <t>Cegueira</t>
-  </si>
-  <si>
     <t>Insanidade</t>
   </si>
   <si>
     <t>Sangramento</t>
   </si>
   <si>
-    <t>Escurecimento</t>
-  </si>
-  <si>
     <t>Alucinação</t>
   </si>
   <si>
-    <t>Frio</t>
-  </si>
-  <si>
     <t>Abraço da Natureza</t>
   </si>
   <si>
     <t>Bandagem</t>
   </si>
   <si>
-    <t>Fumegante</t>
-  </si>
-  <si>
     <t>Mente Afiada</t>
   </si>
   <si>
@@ -2219,9 +2195,6 @@
     <t>Ânimo Heroico</t>
   </si>
   <si>
-    <t>Chamas do Conflito</t>
-  </si>
-  <si>
     <t>Chamado do Champanhe</t>
   </si>
   <si>
@@ -2282,9 +2255,6 @@
     <t>Molhado</t>
   </si>
   <si>
-    <t>Bêbado</t>
-  </si>
-  <si>
     <t>Distração</t>
   </si>
   <si>
@@ -2294,9 +2264,6 @@
     <t>Recarregando!</t>
   </si>
   <si>
-    <t>Comida</t>
-  </si>
-  <si>
     <t>Vigor</t>
   </si>
   <si>
@@ -2309,24 +2276,9 @@
     <t>Higiene</t>
   </si>
   <si>
-    <t>Vida</t>
-  </si>
-  <si>
-    <t>Ira dos Deuses</t>
-  </si>
-  <si>
     <t>Aprimorar Atributo</t>
   </si>
   <si>
-    <t>Afastar Monstro</t>
-  </si>
-  <si>
-    <t>Atrair Monstro</t>
-  </si>
-  <si>
-    <t>Atrair Metal</t>
-  </si>
-  <si>
     <t>Encontro</t>
   </si>
   <si>
@@ -2574,9 +2526,6 @@
   </si>
   <si>
     <t>Frio,Congelado</t>
-  </si>
-  <si>
-    <t>Atadura</t>
   </si>
   <si>
     <t>Fumando</t>
@@ -3049,9 +2998,6 @@
     <t>Maldição que enfraquece resistências por meio de pesadelos.</t>
   </si>
   <si>
-    <t>Pesado</t>
-  </si>
-  <si>
     <t>Escudo Elemental</t>
   </si>
   <si>
@@ -3178,9 +3124,6 @@
     <t>重力を付与する呪い。テレポートやノックバックを阻害する。</t>
   </si>
   <si>
-    <t xml:space="preserve">Suprimido  </t>
-  </si>
-  <si>
     <t xml:space="preserve">Mente Afiada  </t>
   </si>
   <si>
@@ -3403,9 +3346,6 @@
     <t>Hino do Sono</t>
   </si>
   <si>
-    <t>Valor Fragmentado</t>
-  </si>
-  <si>
     <t>Sétimo Sentido</t>
   </si>
   <si>
@@ -3611,13 +3551,88 @@
   </si>
   <si>
     <t>#1 foi/foram sentenciado(s) à morte.</t>
+  </si>
+  <si>
+    <t>Maldição</t>
+  </si>
+  <si>
+    <t>Frenesi</t>
+  </si>
+  <si>
+    <t>Brilho da Vida</t>
+  </si>
+  <si>
+    <t>Vassorização</t>
+  </si>
+  <si>
+    <t>Sobrecarga</t>
+  </si>
+  <si>
+    <t>Gatificação</t>
+  </si>
+  <si>
+    <t>Arrepio</t>
+  </si>
+  <si>
+    <t>Ofuscado</t>
+  </si>
+  <si>
+    <t>Atração de Metal</t>
+  </si>
+  <si>
+    <t>Atração de Monstros</t>
+  </si>
+  <si>
+    <t>Embriagado</t>
+  </si>
+  <si>
+    <t>Atributo Aprimorado</t>
+  </si>
+  <si>
+    <t>Chamas da Discórdia</t>
+  </si>
+  <si>
+    <t>Alimentação</t>
+  </si>
+  <si>
+    <t>Bravura Fraturada</t>
+  </si>
+  <si>
+    <t>Ira de Deus</t>
+  </si>
+  <si>
+    <t>Saúde</t>
+  </si>
+  <si>
+    <t>Abatido</t>
+  </si>
+  <si>
+    <t>Envenenado</t>
+  </si>
+  <si>
+    <t>Putrefação</t>
+  </si>
+  <si>
+    <t>Mente Aguçada</t>
+  </si>
+  <si>
+    <t>Sufocamento</t>
+  </si>
+  <si>
+    <t>Repelir Monstros</t>
+  </si>
+  <si>
+    <t>Respiração Aquática</t>
+  </si>
+  <si>
+    <t>Nível de Insanidade</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -3993,34 +4008,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L100" sqref="L100"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A90" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C60" sqref="C60:C61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="16" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="23.875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="23.85546875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="4" max="5" width="16" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="144.875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="118.25" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="89.375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="144.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="118.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="89.42578125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="9" max="9" width="66" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="45.625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="35.75" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="168.25" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="56.375" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="184.125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="146.125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="45.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="35.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="168.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="56.42578125" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="184.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="146.140625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="16" max="16" width="16" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="167.125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="44.25" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="41.25" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="167.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="44.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="41.28515625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="20" max="20" width="16" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4082,484 +4097,421 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:20">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>100</v>
+        <v>480</v>
       </c>
       <c r="B3" t="s">
         <v>671</v>
       </c>
       <c r="C3" t="s">
-        <v>699</v>
+        <v>731</v>
       </c>
       <c r="D3" t="s">
-        <v>101</v>
+        <v>481</v>
       </c>
       <c r="E3" t="s">
-        <v>102</v>
+        <v>482</v>
       </c>
       <c r="F3" t="s">
-        <v>768</v>
+        <v>792</v>
       </c>
       <c r="G3" t="s">
-        <v>103</v>
+        <v>483</v>
       </c>
       <c r="H3" t="s">
-        <v>104</v>
+        <v>484</v>
       </c>
       <c r="I3" t="s">
         <v>830</v>
       </c>
       <c r="J3" t="s">
-        <v>105</v>
+        <v>485</v>
       </c>
       <c r="K3" t="s">
-        <v>102</v>
+        <v>486</v>
       </c>
       <c r="L3" t="s">
-        <v>871</v>
+        <v>889</v>
       </c>
       <c r="M3" t="s">
-        <v>106</v>
+        <v>487</v>
       </c>
       <c r="N3" t="s">
-        <v>107</v>
+        <v>488</v>
       </c>
       <c r="R3" t="s">
-        <v>927</v>
+        <v>940</v>
       </c>
       <c r="S3" t="s">
-        <v>108</v>
+        <v>489</v>
       </c>
       <c r="T3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>1116</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1106</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1123</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1117</v>
+      </c>
+      <c r="E4" t="s">
+        <v>1118</v>
+      </c>
+      <c r="F4" t="s">
+        <v>1124</v>
+      </c>
+      <c r="G4" t="s">
+        <v>1119</v>
+      </c>
+      <c r="H4" t="s">
+        <v>1120</v>
+      </c>
+      <c r="I4" t="s">
+        <v>1123</v>
+      </c>
+      <c r="J4" t="s">
+        <v>1117</v>
+      </c>
+      <c r="K4" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>491</v>
-      </c>
-      <c r="B4" t="s">
-        <v>671</v>
-      </c>
-      <c r="C4" t="s">
-        <v>492</v>
-      </c>
-      <c r="D4" t="s">
-        <v>492</v>
-      </c>
-      <c r="E4" t="s">
-        <v>493</v>
-      </c>
-      <c r="F4" t="s">
-        <v>809</v>
-      </c>
-      <c r="G4" t="s">
-        <v>494</v>
-      </c>
-      <c r="H4" t="s">
-        <v>495</v>
-      </c>
-      <c r="I4" t="s">
-        <v>492</v>
-      </c>
-      <c r="J4" t="s">
-        <v>492</v>
-      </c>
-      <c r="K4" t="s">
-        <v>493</v>
-      </c>
-      <c r="L4" t="s">
-        <v>907</v>
-      </c>
-      <c r="M4" t="s">
-        <v>496</v>
-      </c>
-      <c r="N4" t="s">
-        <v>497</v>
-      </c>
-      <c r="R4" t="s">
-        <v>958</v>
-      </c>
-      <c r="S4" t="s">
-        <v>498</v>
-      </c>
-      <c r="T4" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
-      <c r="A5" t="s">
-        <v>371</v>
       </c>
       <c r="B5" t="s">
         <v>671</v>
       </c>
       <c r="C5" t="s">
-        <v>727</v>
+        <v>492</v>
       </c>
       <c r="D5" t="s">
-        <v>372</v>
+        <v>492</v>
       </c>
       <c r="E5" t="s">
-        <v>373</v>
+        <v>493</v>
       </c>
       <c r="F5" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="G5" t="s">
-        <v>374</v>
+        <v>494</v>
       </c>
       <c r="H5" t="s">
-        <v>375</v>
+        <v>495</v>
       </c>
       <c r="I5" t="s">
-        <v>727</v>
+        <v>492</v>
       </c>
       <c r="J5" t="s">
-        <v>372</v>
+        <v>492</v>
       </c>
       <c r="K5" t="s">
-        <v>373</v>
+        <v>493</v>
       </c>
       <c r="L5" t="s">
-        <v>893</v>
+        <v>890</v>
       </c>
       <c r="M5" t="s">
-        <v>376</v>
+        <v>496</v>
       </c>
       <c r="N5" t="s">
-        <v>377</v>
+        <v>497</v>
       </c>
       <c r="R5" t="s">
-        <v>951</v>
+        <v>941</v>
       </c>
       <c r="S5" t="s">
-        <v>378</v>
+        <v>498</v>
       </c>
       <c r="T5" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>480</v>
+        <v>534</v>
       </c>
       <c r="B6" t="s">
         <v>671</v>
       </c>
       <c r="C6" t="s">
-        <v>740</v>
+        <v>695</v>
       </c>
       <c r="D6" t="s">
-        <v>481</v>
+        <v>535</v>
       </c>
       <c r="E6" t="s">
-        <v>482</v>
+        <v>536</v>
       </c>
       <c r="F6" t="s">
-        <v>808</v>
+        <v>797</v>
       </c>
       <c r="G6" t="s">
-        <v>483</v>
+        <v>537</v>
       </c>
       <c r="H6" t="s">
-        <v>484</v>
+        <v>538</v>
       </c>
       <c r="I6" t="s">
-        <v>847</v>
+        <v>695</v>
       </c>
       <c r="J6" t="s">
-        <v>485</v>
+        <v>535</v>
       </c>
       <c r="K6" t="s">
-        <v>486</v>
+        <v>536</v>
       </c>
       <c r="L6" t="s">
-        <v>906</v>
+        <v>893</v>
       </c>
       <c r="M6" t="s">
-        <v>487</v>
+        <v>539</v>
       </c>
       <c r="N6" t="s">
-        <v>488</v>
+        <v>540</v>
       </c>
       <c r="R6" t="s">
-        <v>957</v>
+        <v>944</v>
       </c>
       <c r="S6" t="s">
-        <v>489</v>
+        <v>541</v>
       </c>
       <c r="T6" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>138</v>
+        <v>221</v>
       </c>
       <c r="B7" t="s">
-        <v>671</v>
+        <v>675</v>
       </c>
       <c r="C7" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="D7" t="s">
-        <v>139</v>
+        <v>222</v>
       </c>
       <c r="E7" t="s">
-        <v>140</v>
+        <v>223</v>
       </c>
       <c r="F7" t="s">
-        <v>771</v>
+        <v>763</v>
       </c>
       <c r="G7" t="s">
-        <v>141</v>
+        <v>224</v>
       </c>
       <c r="H7" t="s">
-        <v>142</v>
+        <v>225</v>
       </c>
       <c r="I7" t="s">
-        <v>834</v>
+        <v>704</v>
       </c>
       <c r="J7" t="s">
-        <v>143</v>
+        <v>222</v>
       </c>
       <c r="K7" t="s">
-        <v>140</v>
+        <v>223</v>
       </c>
       <c r="L7" t="s">
-        <v>874</v>
+        <v>948</v>
       </c>
       <c r="M7" t="s">
-        <v>144</v>
+        <v>226</v>
       </c>
       <c r="N7" t="s">
-        <v>145</v>
-      </c>
-      <c r="R7" t="s">
-        <v>931</v>
-      </c>
-      <c r="S7" t="s">
-        <v>146</v>
-      </c>
-      <c r="T7" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>179</v>
+        <v>446</v>
       </c>
       <c r="B8" t="s">
-        <v>671</v>
+        <v>684</v>
       </c>
       <c r="C8" t="s">
-        <v>707</v>
+        <v>1163</v>
       </c>
       <c r="D8" t="s">
-        <v>180</v>
+        <v>447</v>
       </c>
       <c r="E8" t="s">
-        <v>181</v>
+        <v>448</v>
       </c>
       <c r="F8" t="s">
-        <v>775</v>
+        <v>788</v>
       </c>
       <c r="G8" t="s">
-        <v>182</v>
+        <v>449</v>
       </c>
       <c r="H8" t="s">
-        <v>183</v>
+        <v>450</v>
       </c>
       <c r="I8" t="s">
-        <v>838</v>
+        <v>727</v>
       </c>
       <c r="J8" t="s">
-        <v>184</v>
+        <v>447</v>
       </c>
       <c r="K8" t="s">
-        <v>185</v>
+        <v>448</v>
       </c>
       <c r="L8" t="s">
-        <v>878</v>
+        <v>885</v>
       </c>
       <c r="M8" t="s">
-        <v>186</v>
+        <v>451</v>
       </c>
       <c r="N8" t="s">
-        <v>187</v>
-      </c>
-      <c r="R8" t="s">
-        <v>935</v>
-      </c>
-      <c r="S8" t="s">
-        <v>188</v>
-      </c>
-      <c r="T8" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>354</v>
+        <v>1075</v>
       </c>
       <c r="B9" t="s">
-        <v>671</v>
+        <v>1076</v>
       </c>
       <c r="C9" t="s">
-        <v>725</v>
+        <v>1096</v>
       </c>
       <c r="D9" t="s">
-        <v>355</v>
+        <v>1077</v>
       </c>
       <c r="E9" t="s">
-        <v>356</v>
+        <v>1078</v>
       </c>
       <c r="F9" t="s">
-        <v>793</v>
+        <v>1103</v>
       </c>
       <c r="G9" t="s">
-        <v>357</v>
+        <v>409</v>
       </c>
       <c r="H9" t="s">
-        <v>358</v>
+        <v>410</v>
       </c>
       <c r="I9" t="s">
-        <v>725</v>
+        <v>1096</v>
       </c>
       <c r="J9" t="s">
-        <v>359</v>
+        <v>1077</v>
       </c>
       <c r="K9" t="s">
-        <v>356</v>
+        <v>1078</v>
       </c>
       <c r="L9" t="s">
-        <v>891</v>
+        <v>1145</v>
       </c>
       <c r="M9" t="s">
-        <v>360</v>
+        <v>411</v>
       </c>
       <c r="N9" t="s">
-        <v>361</v>
+        <v>412</v>
       </c>
       <c r="R9" t="s">
-        <v>950</v>
+        <v>1131</v>
       </c>
       <c r="S9" t="s">
-        <v>362</v>
+        <v>404</v>
       </c>
       <c r="T9" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>82</v>
+        <v>1008</v>
       </c>
       <c r="B10" t="s">
-        <v>671</v>
+        <v>1009</v>
       </c>
       <c r="C10" t="s">
-        <v>697</v>
+        <v>1164</v>
       </c>
       <c r="D10" t="s">
-        <v>83</v>
+        <v>1010</v>
       </c>
       <c r="E10" t="s">
-        <v>84</v>
+        <v>1011</v>
       </c>
       <c r="F10" t="s">
-        <v>766</v>
+        <v>1031</v>
       </c>
       <c r="G10" t="s">
-        <v>85</v>
+        <v>1012</v>
       </c>
       <c r="H10" t="s">
-        <v>86</v>
+        <v>1013</v>
       </c>
       <c r="I10" t="s">
-        <v>829</v>
+        <v>1024</v>
       </c>
       <c r="J10" t="s">
-        <v>83</v>
+        <v>1010</v>
       </c>
       <c r="K10" t="s">
-        <v>84</v>
+        <v>1011</v>
       </c>
       <c r="L10" t="s">
-        <v>869</v>
+        <v>1037</v>
       </c>
       <c r="M10" t="s">
-        <v>87</v>
+        <v>1014</v>
       </c>
       <c r="N10" t="s">
-        <v>88</v>
+        <v>1015</v>
       </c>
       <c r="R10" t="s">
-        <v>925</v>
+        <v>1132</v>
       </c>
       <c r="S10" t="s">
-        <v>89</v>
+        <v>1016</v>
       </c>
       <c r="T10" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>423</v>
+        <v>598</v>
       </c>
       <c r="B11" t="s">
         <v>671</v>
       </c>
       <c r="C11" t="s">
-        <v>733</v>
+        <v>739</v>
       </c>
       <c r="D11" t="s">
-        <v>424</v>
+        <v>599</v>
       </c>
       <c r="E11" t="s">
-        <v>425</v>
-      </c>
-      <c r="F11" t="s">
-        <v>801</v>
-      </c>
-      <c r="G11" t="s">
-        <v>426</v>
-      </c>
-      <c r="H11" t="s">
-        <v>427</v>
+        <v>600</v>
       </c>
       <c r="I11" t="s">
-        <v>733</v>
+        <v>838</v>
       </c>
       <c r="J11" t="s">
-        <v>424</v>
+        <v>601</v>
       </c>
       <c r="K11" t="s">
-        <v>425</v>
-      </c>
-      <c r="L11" t="s">
-        <v>899</v>
-      </c>
-      <c r="M11" t="s">
-        <v>428</v>
-      </c>
-      <c r="N11" t="s">
-        <v>429</v>
-      </c>
-      <c r="R11" t="s">
-        <v>953</v>
-      </c>
-      <c r="S11" t="s">
-        <v>430</v>
-      </c>
-      <c r="T11" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>168</v>
       </c>
@@ -4567,7 +4519,7 @@
         <v>671</v>
       </c>
       <c r="C12" t="s">
-        <v>706</v>
+        <v>701</v>
       </c>
       <c r="D12" t="s">
         <v>169</v>
@@ -4576,7 +4528,7 @@
         <v>170</v>
       </c>
       <c r="F12" t="s">
-        <v>774</v>
+        <v>758</v>
       </c>
       <c r="G12" t="s">
         <v>171</v>
@@ -4585,7 +4537,7 @@
         <v>172</v>
       </c>
       <c r="I12" t="s">
-        <v>837</v>
+        <v>821</v>
       </c>
       <c r="J12" t="s">
         <v>173</v>
@@ -4594,7 +4546,7 @@
         <v>174</v>
       </c>
       <c r="L12" t="s">
-        <v>877</v>
+        <v>860</v>
       </c>
       <c r="M12" t="s">
         <v>175</v>
@@ -4603,7 +4555,7 @@
         <v>176</v>
       </c>
       <c r="R12" t="s">
-        <v>934</v>
+        <v>917</v>
       </c>
       <c r="S12" t="s">
         <v>177</v>
@@ -4612,884 +4564,857 @@
         <v>178</v>
       </c>
     </row>
-    <row r="13" spans="1:20">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>130</v>
+        <v>148</v>
       </c>
       <c r="B13" t="s">
         <v>671</v>
       </c>
       <c r="C13" t="s">
-        <v>702</v>
+        <v>819</v>
       </c>
       <c r="D13" t="s">
-        <v>131</v>
+        <v>149</v>
       </c>
       <c r="E13" t="s">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="F13" t="s">
-        <v>769</v>
+        <v>756</v>
       </c>
       <c r="G13" t="s">
-        <v>113</v>
+        <v>151</v>
       </c>
       <c r="H13" t="s">
-        <v>114</v>
+        <v>152</v>
       </c>
       <c r="I13" t="s">
-        <v>833</v>
+        <v>819</v>
       </c>
       <c r="J13" t="s">
-        <v>133</v>
+        <v>149</v>
       </c>
       <c r="K13" t="s">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="L13" t="s">
-        <v>862</v>
+        <v>858</v>
       </c>
       <c r="M13" t="s">
-        <v>134</v>
+        <v>153</v>
       </c>
       <c r="N13" t="s">
-        <v>135</v>
+        <v>154</v>
       </c>
       <c r="R13" t="s">
-        <v>930</v>
+        <v>915</v>
       </c>
       <c r="S13" t="s">
-        <v>136</v>
+        <v>155</v>
       </c>
       <c r="T13" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>110</v>
+        <v>397</v>
       </c>
       <c r="B14" t="s">
-        <v>671</v>
+        <v>683</v>
       </c>
       <c r="C14" t="s">
-        <v>700</v>
+        <v>721</v>
       </c>
       <c r="D14" t="s">
-        <v>111</v>
+        <v>398</v>
       </c>
       <c r="E14" t="s">
-        <v>112</v>
+        <v>399</v>
       </c>
       <c r="F14" t="s">
-        <v>769</v>
+        <v>782</v>
       </c>
       <c r="G14" t="s">
-        <v>113</v>
+        <v>400</v>
       </c>
       <c r="H14" t="s">
-        <v>114</v>
+        <v>401</v>
       </c>
       <c r="I14" t="s">
-        <v>831</v>
+        <v>721</v>
       </c>
       <c r="J14" t="s">
-        <v>115</v>
+        <v>398</v>
       </c>
       <c r="K14" t="s">
-        <v>112</v>
+        <v>399</v>
       </c>
       <c r="L14" t="s">
-        <v>872</v>
+        <v>879</v>
       </c>
       <c r="M14" t="s">
-        <v>116</v>
+        <v>402</v>
       </c>
       <c r="N14" t="s">
-        <v>117</v>
+        <v>403</v>
       </c>
       <c r="R14" t="s">
-        <v>928</v>
+        <v>935</v>
       </c>
       <c r="S14" t="s">
-        <v>118</v>
+        <v>404</v>
       </c>
       <c r="T14" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>91</v>
+        <v>986</v>
       </c>
       <c r="B15" t="s">
-        <v>671</v>
+        <v>987</v>
       </c>
       <c r="C15" t="s">
-        <v>698</v>
+        <v>1165</v>
       </c>
       <c r="D15" t="s">
-        <v>92</v>
+        <v>988</v>
       </c>
       <c r="E15" t="s">
-        <v>93</v>
+        <v>989</v>
       </c>
       <c r="F15" t="s">
-        <v>767</v>
+        <v>1028</v>
       </c>
       <c r="G15" t="s">
-        <v>94</v>
+        <v>990</v>
       </c>
       <c r="H15" t="s">
-        <v>95</v>
+        <v>991</v>
       </c>
       <c r="I15" t="s">
-        <v>698</v>
+        <v>1021</v>
       </c>
       <c r="J15" t="s">
-        <v>92</v>
+        <v>988</v>
       </c>
       <c r="K15" t="s">
-        <v>93</v>
+        <v>989</v>
       </c>
       <c r="L15" t="s">
-        <v>870</v>
+        <v>1034</v>
       </c>
       <c r="M15" t="s">
-        <v>96</v>
+        <v>992</v>
       </c>
       <c r="N15" t="s">
-        <v>97</v>
-      </c>
-      <c r="R15" t="s">
-        <v>926</v>
-      </c>
-      <c r="S15" t="s">
-        <v>98</v>
-      </c>
-      <c r="T15" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>534</v>
+        <v>406</v>
       </c>
       <c r="B16" t="s">
-        <v>671</v>
+        <v>683</v>
       </c>
       <c r="C16" t="s">
-        <v>696</v>
+        <v>1166</v>
       </c>
       <c r="D16" t="s">
-        <v>535</v>
+        <v>407</v>
       </c>
       <c r="E16" t="s">
-        <v>536</v>
+        <v>408</v>
       </c>
       <c r="F16" t="s">
-        <v>813</v>
+        <v>783</v>
       </c>
       <c r="G16" t="s">
-        <v>537</v>
+        <v>409</v>
       </c>
       <c r="H16" t="s">
-        <v>538</v>
+        <v>410</v>
       </c>
       <c r="I16" t="s">
-        <v>696</v>
+        <v>722</v>
       </c>
       <c r="J16" t="s">
-        <v>535</v>
+        <v>407</v>
       </c>
       <c r="K16" t="s">
-        <v>536</v>
+        <v>408</v>
       </c>
       <c r="L16" t="s">
-        <v>910</v>
+        <v>880</v>
       </c>
       <c r="M16" t="s">
-        <v>539</v>
+        <v>411</v>
       </c>
       <c r="N16" t="s">
-        <v>540</v>
+        <v>412</v>
       </c>
       <c r="R16" t="s">
-        <v>961</v>
+        <v>935</v>
       </c>
       <c r="S16" t="s">
-        <v>541</v>
+        <v>404</v>
       </c>
       <c r="T16" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>148</v>
+        <v>565</v>
       </c>
       <c r="B17" t="s">
         <v>671</v>
       </c>
       <c r="C17" t="s">
-        <v>704</v>
+        <v>1167</v>
       </c>
       <c r="D17" t="s">
-        <v>149</v>
+        <v>566</v>
       </c>
       <c r="E17" t="s">
-        <v>150</v>
+        <v>567</v>
       </c>
       <c r="F17" t="s">
-        <v>772</v>
+        <v>982</v>
       </c>
       <c r="G17" t="s">
-        <v>151</v>
+        <v>568</v>
       </c>
       <c r="H17" t="s">
-        <v>152</v>
+        <v>569</v>
       </c>
       <c r="I17" t="s">
-        <v>835</v>
+        <v>980</v>
       </c>
       <c r="J17" t="s">
-        <v>149</v>
+        <v>570</v>
       </c>
       <c r="K17" t="s">
-        <v>150</v>
+        <v>571</v>
       </c>
       <c r="L17" t="s">
-        <v>875</v>
-      </c>
-      <c r="M17" t="s">
-        <v>153</v>
-      </c>
-      <c r="N17" t="s">
-        <v>154</v>
-      </c>
-      <c r="R17" t="s">
-        <v>932</v>
-      </c>
-      <c r="S17" t="s">
-        <v>155</v>
-      </c>
-      <c r="T17" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>469</v>
+        <v>82</v>
       </c>
       <c r="B18" t="s">
         <v>671</v>
       </c>
       <c r="C18" t="s">
-        <v>739</v>
+        <v>813</v>
       </c>
       <c r="D18" t="s">
-        <v>470</v>
+        <v>83</v>
       </c>
       <c r="E18" t="s">
-        <v>471</v>
+        <v>84</v>
       </c>
       <c r="F18" t="s">
-        <v>807</v>
+        <v>750</v>
       </c>
       <c r="G18" t="s">
-        <v>472</v>
+        <v>85</v>
       </c>
       <c r="H18" t="s">
-        <v>473</v>
+        <v>86</v>
       </c>
       <c r="I18" t="s">
-        <v>846</v>
+        <v>813</v>
       </c>
       <c r="J18" t="s">
-        <v>474</v>
+        <v>83</v>
       </c>
       <c r="K18" t="s">
-        <v>475</v>
+        <v>84</v>
       </c>
       <c r="L18" t="s">
-        <v>905</v>
+        <v>852</v>
       </c>
       <c r="M18" t="s">
-        <v>476</v>
+        <v>87</v>
       </c>
       <c r="N18" t="s">
-        <v>477</v>
+        <v>88</v>
       </c>
       <c r="R18" t="s">
-        <v>956</v>
+        <v>908</v>
       </c>
       <c r="S18" t="s">
-        <v>478</v>
+        <v>89</v>
       </c>
       <c r="T18" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>503</v>
+        <v>1004</v>
       </c>
       <c r="B19" t="s">
-        <v>671</v>
+        <v>1005</v>
       </c>
       <c r="C19" t="s">
-        <v>742</v>
+        <v>1168</v>
       </c>
       <c r="D19" t="s">
-        <v>504</v>
+        <v>1006</v>
       </c>
       <c r="E19" t="s">
-        <v>505</v>
+        <v>1007</v>
       </c>
       <c r="F19" t="s">
-        <v>810</v>
+        <v>1030</v>
       </c>
       <c r="G19" t="s">
-        <v>506</v>
+        <v>409</v>
       </c>
       <c r="H19" t="s">
-        <v>507</v>
+        <v>410</v>
       </c>
       <c r="I19" t="s">
-        <v>742</v>
+        <v>1023</v>
       </c>
       <c r="J19" t="s">
-        <v>504</v>
+        <v>1006</v>
       </c>
       <c r="K19" t="s">
-        <v>505</v>
+        <v>1007</v>
       </c>
       <c r="L19" t="s">
-        <v>908</v>
+        <v>1036</v>
       </c>
       <c r="M19" t="s">
-        <v>508</v>
+        <v>411</v>
       </c>
       <c r="N19" t="s">
-        <v>509</v>
+        <v>412</v>
       </c>
       <c r="R19" t="s">
-        <v>959</v>
+        <v>1131</v>
       </c>
       <c r="S19" t="s">
-        <v>510</v>
+        <v>404</v>
       </c>
       <c r="T19" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>157</v>
+        <v>291</v>
       </c>
       <c r="B20" t="s">
         <v>671</v>
       </c>
       <c r="C20" t="s">
-        <v>705</v>
+        <v>711</v>
       </c>
       <c r="D20" t="s">
-        <v>158</v>
+        <v>292</v>
       </c>
       <c r="E20" t="s">
-        <v>159</v>
+        <v>293</v>
       </c>
       <c r="F20" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="G20" t="s">
-        <v>160</v>
+        <v>294</v>
       </c>
       <c r="H20" t="s">
-        <v>161</v>
+        <v>295</v>
       </c>
       <c r="I20" t="s">
-        <v>836</v>
+        <v>826</v>
       </c>
       <c r="J20" t="s">
-        <v>162</v>
+        <v>296</v>
       </c>
       <c r="K20" t="s">
-        <v>163</v>
+        <v>297</v>
       </c>
       <c r="L20" t="s">
-        <v>876</v>
+        <v>870</v>
       </c>
       <c r="M20" t="s">
-        <v>164</v>
+        <v>298</v>
       </c>
       <c r="N20" t="s">
-        <v>165</v>
+        <v>299</v>
       </c>
       <c r="R20" t="s">
-        <v>933</v>
+        <v>929</v>
       </c>
       <c r="S20" t="s">
-        <v>166</v>
+        <v>300</v>
       </c>
       <c r="T20" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>302</v>
+        <v>340</v>
       </c>
       <c r="B21" t="s">
-        <v>671</v>
+        <v>680</v>
       </c>
       <c r="C21" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="D21" t="s">
-        <v>303</v>
+        <v>341</v>
       </c>
       <c r="E21" t="s">
-        <v>304</v>
+        <v>342</v>
       </c>
       <c r="F21" t="s">
-        <v>788</v>
+        <v>775</v>
       </c>
       <c r="G21" t="s">
-        <v>305</v>
+        <v>343</v>
       </c>
       <c r="H21" t="s">
-        <v>306</v>
+        <v>344</v>
       </c>
       <c r="I21" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="J21" t="s">
-        <v>303</v>
+        <v>341</v>
       </c>
       <c r="K21" t="s">
-        <v>304</v>
-      </c>
-      <c r="L21" t="s">
-        <v>865</v>
-      </c>
-      <c r="M21" t="s">
-        <v>307</v>
-      </c>
-      <c r="N21" t="s">
-        <v>308</v>
-      </c>
-      <c r="R21" t="s">
-        <v>947</v>
-      </c>
-      <c r="S21" t="s">
-        <v>309</v>
-      </c>
-      <c r="T21" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>291</v>
+        <v>201</v>
       </c>
       <c r="B22" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="C22" t="s">
-        <v>719</v>
+        <v>1169</v>
       </c>
       <c r="D22" t="s">
-        <v>292</v>
+        <v>202</v>
       </c>
       <c r="E22" t="s">
-        <v>293</v>
+        <v>203</v>
       </c>
       <c r="F22" t="s">
-        <v>787</v>
+        <v>761</v>
       </c>
       <c r="G22" t="s">
-        <v>294</v>
+        <v>204</v>
       </c>
       <c r="H22" t="s">
-        <v>295</v>
+        <v>205</v>
       </c>
       <c r="I22" t="s">
-        <v>843</v>
+        <v>824</v>
       </c>
       <c r="J22" t="s">
-        <v>296</v>
+        <v>206</v>
       </c>
       <c r="K22" t="s">
-        <v>297</v>
-      </c>
-      <c r="L22" t="s">
-        <v>887</v>
+        <v>207</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>863</v>
       </c>
       <c r="M22" t="s">
-        <v>298</v>
+        <v>208</v>
       </c>
       <c r="N22" t="s">
-        <v>299</v>
+        <v>209</v>
       </c>
       <c r="R22" t="s">
-        <v>946</v>
+        <v>920</v>
       </c>
       <c r="S22" t="s">
-        <v>300</v>
+        <v>210</v>
       </c>
       <c r="T22" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>364</v>
+        <v>138</v>
       </c>
       <c r="B23" t="s">
         <v>671</v>
       </c>
       <c r="C23" t="s">
-        <v>726</v>
+        <v>699</v>
       </c>
       <c r="D23" t="s">
-        <v>365</v>
+        <v>139</v>
       </c>
       <c r="E23" t="s">
-        <v>366</v>
+        <v>140</v>
       </c>
       <c r="F23" t="s">
-        <v>794</v>
+        <v>755</v>
       </c>
       <c r="G23" t="s">
-        <v>367</v>
+        <v>141</v>
       </c>
       <c r="H23" t="s">
-        <v>368</v>
+        <v>142</v>
       </c>
       <c r="I23" t="s">
-        <v>726</v>
+        <v>818</v>
       </c>
       <c r="J23" t="s">
-        <v>365</v>
+        <v>143</v>
       </c>
       <c r="K23" t="s">
-        <v>366</v>
+        <v>140</v>
       </c>
       <c r="L23" t="s">
-        <v>892</v>
+        <v>857</v>
       </c>
       <c r="M23" t="s">
-        <v>369</v>
+        <v>144</v>
       </c>
       <c r="N23" t="s">
-        <v>370</v>
+        <v>145</v>
       </c>
       <c r="R23" t="s">
-        <v>954</v>
+        <v>914</v>
       </c>
       <c r="S23" t="s">
-        <v>309</v>
+        <v>146</v>
       </c>
       <c r="T23" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>212</v>
+        <v>1083</v>
       </c>
       <c r="B24" t="s">
-        <v>671</v>
+        <v>1084</v>
       </c>
       <c r="C24" t="s">
-        <v>710</v>
+        <v>1098</v>
       </c>
       <c r="D24" t="s">
-        <v>213</v>
+        <v>1086</v>
       </c>
       <c r="E24" t="s">
-        <v>214</v>
+        <v>1085</v>
       </c>
       <c r="F24" t="s">
-        <v>778</v>
+        <v>1104</v>
       </c>
       <c r="G24" t="s">
-        <v>215</v>
+        <v>1087</v>
       </c>
       <c r="H24" t="s">
-        <v>216</v>
+        <v>1088</v>
       </c>
       <c r="I24" t="s">
-        <v>710</v>
+        <v>1098</v>
       </c>
       <c r="J24" t="s">
-        <v>213</v>
+        <v>1086</v>
       </c>
       <c r="K24" t="s">
-        <v>214</v>
+        <v>1085</v>
       </c>
       <c r="L24" t="s">
-        <v>863</v>
+        <v>1148</v>
       </c>
       <c r="M24" t="s">
-        <v>217</v>
+        <v>1089</v>
       </c>
       <c r="N24" t="s">
-        <v>218</v>
+        <v>1090</v>
       </c>
       <c r="R24" t="s">
-        <v>938</v>
+        <v>1136</v>
       </c>
       <c r="S24" t="s">
-        <v>219</v>
+        <v>1091</v>
       </c>
       <c r="T24" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20" ht="28.5">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>58</v>
+        <v>387</v>
       </c>
       <c r="B25" t="s">
-        <v>671</v>
+        <v>1150</v>
       </c>
       <c r="C25" t="s">
-        <v>695</v>
+        <v>720</v>
       </c>
       <c r="D25" t="s">
-        <v>59</v>
+        <v>392</v>
       </c>
       <c r="E25" t="s">
-        <v>60</v>
+        <v>389</v>
       </c>
       <c r="F25" t="s">
-        <v>764</v>
+        <v>1160</v>
       </c>
       <c r="G25" t="s">
-        <v>61</v>
+        <v>1151</v>
       </c>
       <c r="H25" t="s">
-        <v>62</v>
+        <v>1152</v>
       </c>
       <c r="I25" t="s">
-        <v>827</v>
+        <v>720</v>
       </c>
       <c r="J25" t="s">
-        <v>63</v>
+        <v>392</v>
       </c>
       <c r="K25" t="s">
-        <v>64</v>
-      </c>
-      <c r="L25" s="2" t="s">
-        <v>868</v>
+        <v>389</v>
+      </c>
+      <c r="L25" t="s">
+        <v>1162</v>
       </c>
       <c r="M25" t="s">
-        <v>65</v>
+        <v>393</v>
       </c>
       <c r="N25" t="s">
-        <v>66</v>
-      </c>
-      <c r="O25" t="s">
-        <v>919</v>
-      </c>
-      <c r="P25" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>68</v>
-      </c>
-      <c r="R25" t="s">
-        <v>949</v>
-      </c>
-      <c r="S25" t="s">
-        <v>69</v>
-      </c>
-      <c r="T25" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>565</v>
+        <v>387</v>
       </c>
       <c r="B26" t="s">
-        <v>671</v>
+        <v>682</v>
       </c>
       <c r="C26" t="s">
-        <v>995</v>
+        <v>720</v>
       </c>
       <c r="D26" t="s">
-        <v>566</v>
+        <v>388</v>
       </c>
       <c r="E26" t="s">
-        <v>567</v>
+        <v>389</v>
       </c>
       <c r="F26" t="s">
-        <v>1000</v>
+        <v>781</v>
       </c>
       <c r="G26" t="s">
-        <v>568</v>
+        <v>390</v>
       </c>
       <c r="H26" t="s">
-        <v>569</v>
+        <v>391</v>
       </c>
       <c r="I26" t="s">
-        <v>998</v>
+        <v>720</v>
       </c>
       <c r="J26" t="s">
-        <v>570</v>
+        <v>392</v>
       </c>
       <c r="K26" t="s">
-        <v>571</v>
+        <v>389</v>
       </c>
       <c r="L26" t="s">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20" ht="85.5">
+        <v>878</v>
+      </c>
+      <c r="M26" t="s">
+        <v>393</v>
+      </c>
+      <c r="N26" t="s">
+        <v>394</v>
+      </c>
+      <c r="R26" t="s">
+        <v>1138</v>
+      </c>
+      <c r="S26" t="s">
+        <v>395</v>
+      </c>
+      <c r="T26" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>554</v>
+        <v>179</v>
       </c>
       <c r="B27" t="s">
         <v>671</v>
       </c>
       <c r="C27" t="s">
-        <v>747</v>
+        <v>1170</v>
       </c>
       <c r="D27" t="s">
-        <v>555</v>
+        <v>180</v>
       </c>
       <c r="E27" t="s">
-        <v>556</v>
+        <v>181</v>
       </c>
       <c r="F27" t="s">
-        <v>815</v>
+        <v>759</v>
       </c>
       <c r="G27" t="s">
-        <v>557</v>
+        <v>182</v>
       </c>
       <c r="H27" t="s">
-        <v>558</v>
+        <v>183</v>
       </c>
       <c r="I27" t="s">
-        <v>851</v>
+        <v>822</v>
       </c>
       <c r="J27" t="s">
-        <v>559</v>
+        <v>184</v>
       </c>
       <c r="K27" t="s">
-        <v>560</v>
-      </c>
-      <c r="L27" s="2" t="s">
-        <v>912</v>
+        <v>185</v>
+      </c>
+      <c r="L27" t="s">
+        <v>861</v>
       </c>
       <c r="M27" t="s">
-        <v>561</v>
+        <v>186</v>
       </c>
       <c r="N27" t="s">
-        <v>562</v>
-      </c>
-      <c r="O27" s="2" t="s">
-        <v>921</v>
-      </c>
-      <c r="P27" t="s">
-        <v>563</v>
-      </c>
-      <c r="Q27" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20" ht="42.75">
+        <v>187</v>
+      </c>
+      <c r="R27" t="s">
+        <v>918</v>
+      </c>
+      <c r="S27" t="s">
+        <v>188</v>
+      </c>
+      <c r="T27" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>584</v>
+        <v>469</v>
       </c>
       <c r="B28" t="s">
         <v>671</v>
       </c>
       <c r="C28" t="s">
-        <v>699</v>
+        <v>730</v>
       </c>
       <c r="D28" t="s">
-        <v>101</v>
+        <v>470</v>
       </c>
       <c r="E28" t="s">
-        <v>102</v>
+        <v>471</v>
       </c>
       <c r="F28" t="s">
-        <v>818</v>
+        <v>791</v>
       </c>
       <c r="G28" t="s">
-        <v>585</v>
+        <v>472</v>
       </c>
       <c r="H28" t="s">
-        <v>586</v>
+        <v>473</v>
       </c>
       <c r="I28" t="s">
-        <v>853</v>
+        <v>829</v>
       </c>
       <c r="J28" t="s">
-        <v>587</v>
+        <v>474</v>
       </c>
       <c r="K28" t="s">
-        <v>588</v>
-      </c>
-      <c r="L28" s="2" t="s">
-        <v>913</v>
+        <v>475</v>
+      </c>
+      <c r="L28" t="s">
+        <v>888</v>
       </c>
       <c r="M28" t="s">
-        <v>589</v>
+        <v>476</v>
       </c>
       <c r="N28" t="s">
-        <v>590</v>
-      </c>
-      <c r="O28" t="s">
-        <v>922</v>
-      </c>
-      <c r="P28" t="s">
-        <v>591</v>
-      </c>
-      <c r="Q28" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20">
+        <v>477</v>
+      </c>
+      <c r="R28" t="s">
+        <v>939</v>
+      </c>
+      <c r="S28" t="s">
+        <v>478</v>
+      </c>
+      <c r="T28" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>572</v>
+        <v>282</v>
       </c>
       <c r="B29" t="s">
-        <v>671</v>
+        <v>677</v>
       </c>
       <c r="C29" t="s">
-        <v>705</v>
+        <v>710</v>
       </c>
       <c r="D29" t="s">
-        <v>158</v>
+        <v>283</v>
       </c>
       <c r="E29" t="s">
-        <v>573</v>
+        <v>284</v>
       </c>
       <c r="F29" t="s">
-        <v>816</v>
+        <v>770</v>
       </c>
       <c r="G29" t="s">
-        <v>574</v>
+        <v>285</v>
       </c>
       <c r="H29" t="s">
-        <v>575</v>
+        <v>286</v>
       </c>
       <c r="I29" t="s">
-        <v>576</v>
+        <v>710</v>
       </c>
       <c r="J29" t="s">
-        <v>576</v>
+        <v>283</v>
       </c>
       <c r="K29" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20">
+        <v>284</v>
+      </c>
+      <c r="L29" t="s">
+        <v>869</v>
+      </c>
+      <c r="M29" t="s">
+        <v>287</v>
+      </c>
+      <c r="N29" t="s">
+        <v>288</v>
+      </c>
+      <c r="R29" t="s">
+        <v>928</v>
+      </c>
+      <c r="S29" t="s">
+        <v>289</v>
+      </c>
+      <c r="T29" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>523</v>
       </c>
@@ -5497,7 +5422,7 @@
         <v>671</v>
       </c>
       <c r="C30" t="s">
-        <v>744</v>
+        <v>734</v>
       </c>
       <c r="D30" t="s">
         <v>524</v>
@@ -5506,7 +5431,7 @@
         <v>525</v>
       </c>
       <c r="F30" t="s">
-        <v>812</v>
+        <v>796</v>
       </c>
       <c r="G30" t="s">
         <v>526</v>
@@ -5515,7 +5440,7 @@
         <v>527</v>
       </c>
       <c r="I30" t="s">
-        <v>849</v>
+        <v>832</v>
       </c>
       <c r="J30" t="s">
         <v>528</v>
@@ -5524,410 +5449,536 @@
         <v>525</v>
       </c>
     </row>
-    <row r="31" spans="1:20">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>603</v>
+        <v>371</v>
       </c>
       <c r="B31" t="s">
         <v>671</v>
       </c>
       <c r="C31" t="s">
-        <v>751</v>
+        <v>718</v>
       </c>
       <c r="D31" t="s">
-        <v>604</v>
+        <v>372</v>
       </c>
       <c r="E31" t="s">
-        <v>605</v>
+        <v>373</v>
       </c>
       <c r="F31" t="s">
-        <v>819</v>
+        <v>779</v>
       </c>
       <c r="G31" t="s">
-        <v>606</v>
+        <v>374</v>
       </c>
       <c r="H31" t="s">
-        <v>607</v>
+        <v>375</v>
       </c>
       <c r="I31" t="s">
+        <v>718</v>
+      </c>
+      <c r="J31" t="s">
+        <v>372</v>
+      </c>
+      <c r="K31" t="s">
+        <v>373</v>
+      </c>
+      <c r="L31" t="s">
+        <v>876</v>
+      </c>
+      <c r="M31" t="s">
+        <v>376</v>
+      </c>
+      <c r="N31" t="s">
+        <v>377</v>
+      </c>
+      <c r="R31" t="s">
+        <v>934</v>
+      </c>
+      <c r="S31" t="s">
+        <v>378</v>
+      </c>
+      <c r="T31" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>649</v>
+      </c>
+      <c r="B32" t="s">
+        <v>690</v>
+      </c>
+      <c r="C32" t="s">
+        <v>1171</v>
+      </c>
+      <c r="D32" t="s">
+        <v>650</v>
+      </c>
+      <c r="E32" t="s">
+        <v>651</v>
+      </c>
+      <c r="F32" t="s">
+        <v>808</v>
+      </c>
+      <c r="G32" t="s">
+        <v>652</v>
+      </c>
+      <c r="H32" t="s">
+        <v>653</v>
+      </c>
+      <c r="L32" t="s">
+        <v>899</v>
+      </c>
+      <c r="M32" t="s">
+        <v>647</v>
+      </c>
+      <c r="N32" t="s">
+        <v>648</v>
+      </c>
+      <c r="R32" t="s">
+        <v>946</v>
+      </c>
+      <c r="S32" t="s">
+        <v>640</v>
+      </c>
+      <c r="T32" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>642</v>
+      </c>
+      <c r="B33" t="s">
+        <v>690</v>
+      </c>
+      <c r="C33" t="s">
+        <v>1172</v>
+      </c>
+      <c r="D33" t="s">
+        <v>643</v>
+      </c>
+      <c r="E33" t="s">
+        <v>644</v>
+      </c>
+      <c r="F33" t="s">
+        <v>807</v>
+      </c>
+      <c r="G33" t="s">
+        <v>645</v>
+      </c>
+      <c r="H33" t="s">
+        <v>646</v>
+      </c>
+      <c r="L33" t="s">
+        <v>899</v>
+      </c>
+      <c r="M33" t="s">
+        <v>647</v>
+      </c>
+      <c r="N33" t="s">
+        <v>648</v>
+      </c>
+      <c r="R33" t="s">
+        <v>946</v>
+      </c>
+      <c r="S33" t="s">
+        <v>640</v>
+      </c>
+      <c r="T33" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>512</v>
+      </c>
+      <c r="B34" t="s">
+        <v>685</v>
+      </c>
+      <c r="C34" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D34" t="s">
+        <v>513</v>
+      </c>
+      <c r="E34" t="s">
+        <v>514</v>
+      </c>
+      <c r="F34" t="s">
+        <v>795</v>
+      </c>
+      <c r="G34" t="s">
+        <v>515</v>
+      </c>
+      <c r="H34" t="s">
+        <v>516</v>
+      </c>
+      <c r="I34" t="s">
+        <v>831</v>
+      </c>
+      <c r="J34" t="s">
+        <v>517</v>
+      </c>
+      <c r="K34" t="s">
+        <v>518</v>
+      </c>
+      <c r="L34" t="s">
+        <v>892</v>
+      </c>
+      <c r="M34" t="s">
+        <v>519</v>
+      </c>
+      <c r="N34" t="s">
+        <v>520</v>
+      </c>
+      <c r="R34" t="s">
+        <v>943</v>
+      </c>
+      <c r="S34" t="s">
+        <v>521</v>
+      </c>
+      <c r="T34" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>462</v>
+      </c>
+      <c r="B35" t="s">
+        <v>677</v>
+      </c>
+      <c r="C35" t="s">
+        <v>729</v>
+      </c>
+      <c r="D35" t="s">
+        <v>463</v>
+      </c>
+      <c r="E35" t="s">
+        <v>464</v>
+      </c>
+      <c r="F35" t="s">
+        <v>790</v>
+      </c>
+      <c r="G35" t="s">
+        <v>465</v>
+      </c>
+      <c r="H35" t="s">
+        <v>466</v>
+      </c>
+      <c r="I35" t="s">
+        <v>729</v>
+      </c>
+      <c r="J35" t="s">
+        <v>463</v>
+      </c>
+      <c r="K35" t="s">
+        <v>464</v>
+      </c>
+      <c r="L35" t="s">
+        <v>887</v>
+      </c>
+      <c r="M35" t="s">
+        <v>467</v>
+      </c>
+      <c r="N35" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>246</v>
+      </c>
+      <c r="B36" t="s">
+        <v>668</v>
+      </c>
+      <c r="C36" t="s">
+        <v>706</v>
+      </c>
+      <c r="D36" t="s">
+        <v>247</v>
+      </c>
+      <c r="E36" t="s">
+        <v>248</v>
+      </c>
+      <c r="F36" t="s">
+        <v>766</v>
+      </c>
+      <c r="G36" t="s">
+        <v>249</v>
+      </c>
+      <c r="H36" t="s">
+        <v>250</v>
+      </c>
+      <c r="I36" t="s">
+        <v>706</v>
+      </c>
+      <c r="J36" t="s">
+        <v>247</v>
+      </c>
+      <c r="K36" t="s">
+        <v>248</v>
+      </c>
+      <c r="L36" t="s">
+        <v>866</v>
+      </c>
+      <c r="M36" t="s">
+        <v>251</v>
+      </c>
+      <c r="N36" t="s">
+        <v>252</v>
+      </c>
+      <c r="R36" t="s">
+        <v>924</v>
+      </c>
+      <c r="S36" t="s">
+        <v>253</v>
+      </c>
+      <c r="T36" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>628</v>
+      </c>
+      <c r="B37" t="s">
+        <v>689</v>
+      </c>
+      <c r="C37" t="s">
+        <v>1174</v>
+      </c>
+      <c r="D37" t="s">
+        <v>629</v>
+      </c>
+      <c r="E37" t="s">
+        <v>630</v>
+      </c>
+      <c r="F37" t="s">
+        <v>805</v>
+      </c>
+      <c r="G37" t="s">
+        <v>631</v>
+      </c>
+      <c r="H37" t="s">
+        <v>632</v>
+      </c>
+      <c r="I37" t="s">
+        <v>741</v>
+      </c>
+      <c r="J37" t="s">
+        <v>629</v>
+      </c>
+      <c r="K37" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>120</v>
+      </c>
+      <c r="B38" t="s">
+        <v>673</v>
+      </c>
+      <c r="C38" t="s">
+        <v>698</v>
+      </c>
+      <c r="D38" t="s">
+        <v>121</v>
+      </c>
+      <c r="E38" t="s">
+        <v>122</v>
+      </c>
+      <c r="F38" t="s">
+        <v>754</v>
+      </c>
+      <c r="G38" t="s">
+        <v>123</v>
+      </c>
+      <c r="H38" t="s">
+        <v>124</v>
+      </c>
+      <c r="I38" t="s">
+        <v>816</v>
+      </c>
+      <c r="J38" t="s">
+        <v>125</v>
+      </c>
+      <c r="K38" t="s">
+        <v>122</v>
+      </c>
+      <c r="L38" t="s">
         <v>856</v>
       </c>
-      <c r="J31" t="s">
-        <v>608</v>
-      </c>
-      <c r="K31" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20">
-      <c r="A32" t="s">
-        <v>613</v>
-      </c>
-      <c r="B32" t="s">
-        <v>671</v>
-      </c>
-      <c r="C32" t="s">
-        <v>752</v>
-      </c>
-      <c r="D32" t="s">
-        <v>614</v>
-      </c>
-      <c r="E32" t="s">
-        <v>615</v>
-      </c>
-      <c r="I32" t="s">
-        <v>857</v>
-      </c>
-      <c r="J32" t="s">
-        <v>616</v>
-      </c>
-      <c r="K32" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20">
-      <c r="A33" t="s">
-        <v>598</v>
-      </c>
-      <c r="B33" t="s">
-        <v>671</v>
-      </c>
-      <c r="C33" t="s">
-        <v>750</v>
-      </c>
-      <c r="D33" t="s">
-        <v>599</v>
-      </c>
-      <c r="E33" t="s">
-        <v>600</v>
-      </c>
-      <c r="I33" t="s">
-        <v>855</v>
-      </c>
-      <c r="J33" t="s">
-        <v>601</v>
-      </c>
-      <c r="K33" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20">
-      <c r="A34" t="s">
-        <v>593</v>
-      </c>
-      <c r="B34" t="s">
-        <v>671</v>
-      </c>
-      <c r="C34" t="s">
-        <v>749</v>
-      </c>
-      <c r="D34" t="s">
-        <v>594</v>
-      </c>
-      <c r="E34" t="s">
-        <v>595</v>
-      </c>
-      <c r="I34" t="s">
-        <v>854</v>
-      </c>
-      <c r="J34" t="s">
-        <v>596</v>
-      </c>
-      <c r="K34" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20">
-      <c r="A35" t="s">
-        <v>500</v>
-      </c>
-      <c r="B35" t="s">
-        <v>671</v>
-      </c>
-      <c r="C35" t="s">
-        <v>741</v>
-      </c>
-      <c r="D35" t="s">
-        <v>501</v>
-      </c>
-      <c r="E35" t="s">
-        <v>502</v>
-      </c>
-      <c r="I35" t="s">
-        <v>741</v>
-      </c>
-      <c r="J35" t="s">
-        <v>501</v>
-      </c>
-      <c r="K35" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20">
-      <c r="A36" t="s">
-        <v>610</v>
-      </c>
-      <c r="B36" t="s">
-        <v>671</v>
-      </c>
-      <c r="C36" t="s">
-        <v>611</v>
-      </c>
-      <c r="D36" t="s">
-        <v>611</v>
-      </c>
-      <c r="E36" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20" ht="28.5">
-      <c r="A37" t="s">
-        <v>201</v>
-      </c>
-      <c r="B37" t="s">
-        <v>668</v>
-      </c>
-      <c r="C37" t="s">
-        <v>709</v>
-      </c>
-      <c r="D37" t="s">
-        <v>202</v>
-      </c>
-      <c r="E37" t="s">
-        <v>203</v>
-      </c>
-      <c r="F37" t="s">
-        <v>777</v>
-      </c>
-      <c r="G37" t="s">
-        <v>204</v>
-      </c>
-      <c r="H37" t="s">
-        <v>205</v>
-      </c>
-      <c r="I37" t="s">
-        <v>840</v>
-      </c>
-      <c r="J37" t="s">
-        <v>206</v>
-      </c>
-      <c r="K37" t="s">
-        <v>207</v>
-      </c>
-      <c r="L37" s="2" t="s">
-        <v>880</v>
-      </c>
-      <c r="M37" t="s">
-        <v>208</v>
-      </c>
-      <c r="N37" t="s">
-        <v>209</v>
-      </c>
-      <c r="R37" t="s">
-        <v>937</v>
-      </c>
-      <c r="S37" t="s">
-        <v>210</v>
-      </c>
-      <c r="T37" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="38" spans="1:20">
-      <c r="A38" t="s">
-        <v>246</v>
-      </c>
-      <c r="B38" t="s">
-        <v>668</v>
-      </c>
-      <c r="C38" t="s">
-        <v>714</v>
-      </c>
-      <c r="D38" t="s">
-        <v>247</v>
-      </c>
-      <c r="E38" t="s">
-        <v>248</v>
-      </c>
-      <c r="F38" t="s">
-        <v>782</v>
-      </c>
-      <c r="G38" t="s">
-        <v>249</v>
-      </c>
-      <c r="H38" t="s">
-        <v>250</v>
-      </c>
-      <c r="I38" t="s">
-        <v>714</v>
-      </c>
-      <c r="J38" t="s">
-        <v>247</v>
-      </c>
-      <c r="K38" t="s">
-        <v>248</v>
-      </c>
-      <c r="L38" t="s">
-        <v>883</v>
-      </c>
       <c r="M38" t="s">
-        <v>251</v>
+        <v>126</v>
       </c>
       <c r="N38" t="s">
-        <v>252</v>
+        <v>127</v>
       </c>
       <c r="R38" t="s">
-        <v>941</v>
+        <v>912</v>
       </c>
       <c r="S38" t="s">
-        <v>253</v>
+        <v>128</v>
       </c>
       <c r="T38" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="39" spans="1:20">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>20</v>
+        <v>311</v>
       </c>
       <c r="B39" t="s">
-        <v>668</v>
+        <v>949</v>
       </c>
       <c r="C39" t="s">
-        <v>692</v>
+        <v>978</v>
       </c>
       <c r="D39" t="s">
-        <v>21</v>
+        <v>970</v>
       </c>
       <c r="E39" t="s">
-        <v>22</v>
+        <v>313</v>
       </c>
       <c r="F39" t="s">
-        <v>760</v>
+        <v>974</v>
       </c>
       <c r="G39" t="s">
-        <v>23</v>
+        <v>950</v>
       </c>
       <c r="H39" t="s">
-        <v>24</v>
+        <v>951</v>
       </c>
       <c r="I39" t="s">
-        <v>692</v>
+        <v>978</v>
       </c>
       <c r="J39" t="s">
-        <v>25</v>
+        <v>312</v>
       </c>
       <c r="K39" t="s">
-        <v>26</v>
+        <v>313</v>
       </c>
       <c r="L39" t="s">
-        <v>860</v>
+        <v>1039</v>
       </c>
       <c r="M39" t="s">
-        <v>27</v>
+        <v>314</v>
       </c>
       <c r="N39" t="s">
-        <v>28</v>
+        <v>315</v>
       </c>
       <c r="R39" t="s">
-        <v>923</v>
+        <v>1126</v>
       </c>
       <c r="S39" t="s">
-        <v>29</v>
+        <v>316</v>
       </c>
       <c r="T39" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="40" spans="1:20">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>380</v>
+        <v>328</v>
       </c>
       <c r="B40" t="s">
-        <v>668</v>
+        <v>949</v>
       </c>
       <c r="C40" t="s">
+        <v>979</v>
+      </c>
+      <c r="D40" t="s">
+        <v>971</v>
+      </c>
+      <c r="E40" t="s">
+        <v>329</v>
+      </c>
+      <c r="F40" t="s">
+        <v>975</v>
+      </c>
+      <c r="G40" t="s">
+        <v>952</v>
+      </c>
+      <c r="H40" t="s">
+        <v>953</v>
+      </c>
+      <c r="I40" t="s">
+        <v>979</v>
+      </c>
+      <c r="J40" t="s">
+        <v>330</v>
+      </c>
+      <c r="K40" t="s">
+        <v>329</v>
+      </c>
+      <c r="L40" t="s">
+        <v>1040</v>
+      </c>
+      <c r="M40" t="s">
+        <v>331</v>
+      </c>
+      <c r="N40" t="s">
+        <v>332</v>
+      </c>
+      <c r="R40" t="s">
+        <v>1127</v>
+      </c>
+      <c r="S40" t="s">
+        <v>333</v>
+      </c>
+      <c r="T40" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>453</v>
+      </c>
+      <c r="B41" t="s">
+        <v>683</v>
+      </c>
+      <c r="C41" t="s">
         <v>728</v>
       </c>
-      <c r="D40" t="s">
-        <v>381</v>
-      </c>
-      <c r="E40" t="s">
-        <v>382</v>
-      </c>
-      <c r="F40" t="s">
-        <v>796</v>
-      </c>
-      <c r="G40" t="s">
-        <v>383</v>
-      </c>
-      <c r="H40" t="s">
-        <v>384</v>
-      </c>
-      <c r="I40" t="s">
+      <c r="D41" t="s">
+        <v>454</v>
+      </c>
+      <c r="E41" t="s">
+        <v>455</v>
+      </c>
+      <c r="F41" t="s">
+        <v>789</v>
+      </c>
+      <c r="G41" t="s">
+        <v>456</v>
+      </c>
+      <c r="H41" t="s">
+        <v>457</v>
+      </c>
+      <c r="I41" t="s">
         <v>728</v>
       </c>
-      <c r="J40" t="s">
-        <v>381</v>
-      </c>
-      <c r="K40" t="s">
-        <v>382</v>
-      </c>
-      <c r="L40" t="s">
-        <v>894</v>
-      </c>
-      <c r="M40" t="s">
-        <v>385</v>
-      </c>
-      <c r="N40" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="41" spans="1:20">
-      <c r="A41" t="s">
-        <v>621</v>
-      </c>
-      <c r="B41" t="s">
-        <v>688</v>
-      </c>
-      <c r="C41" t="s">
-        <v>753</v>
-      </c>
-      <c r="D41" t="s">
-        <v>622</v>
-      </c>
-      <c r="E41" t="s">
-        <v>623</v>
-      </c>
-      <c r="F41" t="s">
-        <v>820</v>
-      </c>
-      <c r="G41" t="s">
-        <v>624</v>
-      </c>
-      <c r="H41" t="s">
-        <v>625</v>
-      </c>
-      <c r="I41" t="s">
-        <v>859</v>
-      </c>
       <c r="J41" t="s">
-        <v>622</v>
+        <v>454</v>
       </c>
       <c r="K41" t="s">
-        <v>623</v>
+        <v>455</v>
       </c>
       <c r="L41" t="s">
-        <v>914</v>
+        <v>886</v>
       </c>
       <c r="M41" t="s">
-        <v>626</v>
+        <v>458</v>
       </c>
       <c r="N41" t="s">
-        <v>627</v>
+        <v>459</v>
       </c>
       <c r="R41" t="s">
-        <v>964</v>
+        <v>938</v>
       </c>
       <c r="S41" t="s">
         <v>460</v>
@@ -5936,2839 +5987,2803 @@
         <v>461</v>
       </c>
     </row>
-    <row r="42" spans="1:20">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
+        <v>91</v>
+      </c>
+      <c r="B42" t="s">
+        <v>671</v>
+      </c>
+      <c r="C42" t="s">
+        <v>696</v>
+      </c>
+      <c r="D42" t="s">
+        <v>92</v>
+      </c>
+      <c r="E42" t="s">
+        <v>93</v>
+      </c>
+      <c r="F42" t="s">
+        <v>751</v>
+      </c>
+      <c r="G42" t="s">
+        <v>94</v>
+      </c>
+      <c r="H42" t="s">
+        <v>95</v>
+      </c>
+      <c r="I42" t="s">
+        <v>696</v>
+      </c>
+      <c r="J42" t="s">
+        <v>92</v>
+      </c>
+      <c r="K42" t="s">
+        <v>93</v>
+      </c>
+      <c r="L42" t="s">
+        <v>853</v>
+      </c>
+      <c r="M42" t="s">
+        <v>96</v>
+      </c>
+      <c r="N42" t="s">
+        <v>97</v>
+      </c>
+      <c r="R42" t="s">
+        <v>909</v>
+      </c>
+      <c r="S42" t="s">
+        <v>98</v>
+      </c>
+      <c r="T42" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>335</v>
+      </c>
+      <c r="B43" t="s">
+        <v>679</v>
+      </c>
+      <c r="C43" t="s">
+        <v>1175</v>
+      </c>
+      <c r="D43" t="s">
+        <v>336</v>
+      </c>
+      <c r="E43" t="s">
+        <v>337</v>
+      </c>
+      <c r="F43" t="s">
+        <v>774</v>
+      </c>
+      <c r="G43" t="s">
+        <v>338</v>
+      </c>
+      <c r="H43" t="s">
+        <v>339</v>
+      </c>
+      <c r="I43" t="s">
+        <v>828</v>
+      </c>
+      <c r="J43" t="s">
+        <v>336</v>
+      </c>
+      <c r="K43" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" ht="90" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>554</v>
+      </c>
+      <c r="B44" t="s">
+        <v>671</v>
+      </c>
+      <c r="C44" t="s">
+        <v>1176</v>
+      </c>
+      <c r="D44" t="s">
+        <v>555</v>
+      </c>
+      <c r="E44" t="s">
+        <v>556</v>
+      </c>
+      <c r="F44" t="s">
+        <v>799</v>
+      </c>
+      <c r="G44" t="s">
+        <v>557</v>
+      </c>
+      <c r="H44" t="s">
+        <v>558</v>
+      </c>
+      <c r="I44" t="s">
+        <v>834</v>
+      </c>
+      <c r="J44" t="s">
+        <v>559</v>
+      </c>
+      <c r="K44" t="s">
+        <v>560</v>
+      </c>
+      <c r="L44" s="2" t="s">
+        <v>895</v>
+      </c>
+      <c r="M44" t="s">
+        <v>561</v>
+      </c>
+      <c r="N44" t="s">
+        <v>562</v>
+      </c>
+      <c r="O44" s="2" t="s">
+        <v>904</v>
+      </c>
+      <c r="P44" t="s">
+        <v>563</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B45" t="s">
+        <v>1054</v>
+      </c>
+      <c r="C45" t="s">
+        <v>1177</v>
+      </c>
+      <c r="D45" t="s">
+        <v>1055</v>
+      </c>
+      <c r="E45" t="s">
+        <v>1056</v>
+      </c>
+      <c r="F45" t="s">
+        <v>1100</v>
+      </c>
+      <c r="G45" t="s">
+        <v>1057</v>
+      </c>
+      <c r="H45" t="s">
+        <v>1058</v>
+      </c>
+      <c r="I45" t="s">
+        <v>1143</v>
+      </c>
+      <c r="J45" t="s">
+        <v>1055</v>
+      </c>
+      <c r="K45" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>49</v>
+      </c>
+      <c r="B46" t="s">
+        <v>670</v>
+      </c>
+      <c r="C46" t="s">
+        <v>694</v>
+      </c>
+      <c r="D46" t="s">
+        <v>50</v>
+      </c>
+      <c r="E46" t="s">
+        <v>51</v>
+      </c>
+      <c r="F46" t="s">
+        <v>747</v>
+      </c>
+      <c r="G46" t="s">
+        <v>52</v>
+      </c>
+      <c r="H46" t="s">
+        <v>53</v>
+      </c>
+      <c r="I46" t="s">
+        <v>694</v>
+      </c>
+      <c r="J46" t="s">
+        <v>50</v>
+      </c>
+      <c r="K46" t="s">
+        <v>51</v>
+      </c>
+      <c r="L46" t="s">
+        <v>850</v>
+      </c>
+      <c r="M46" t="s">
+        <v>54</v>
+      </c>
+      <c r="N46" t="s">
+        <v>55</v>
+      </c>
+      <c r="R46" t="s">
+        <v>1139</v>
+      </c>
+      <c r="S46" t="s">
+        <v>56</v>
+      </c>
+      <c r="T46" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>621</v>
+      </c>
+      <c r="B47" t="s">
+        <v>688</v>
+      </c>
+      <c r="C47" t="s">
+        <v>1178</v>
+      </c>
+      <c r="D47" t="s">
+        <v>622</v>
+      </c>
+      <c r="E47" t="s">
+        <v>623</v>
+      </c>
+      <c r="F47" t="s">
+        <v>804</v>
+      </c>
+      <c r="G47" t="s">
+        <v>624</v>
+      </c>
+      <c r="H47" t="s">
+        <v>625</v>
+      </c>
+      <c r="I47" t="s">
+        <v>842</v>
+      </c>
+      <c r="J47" t="s">
+        <v>622</v>
+      </c>
+      <c r="K47" t="s">
+        <v>623</v>
+      </c>
+      <c r="L47" t="s">
+        <v>897</v>
+      </c>
+      <c r="M47" t="s">
+        <v>626</v>
+      </c>
+      <c r="N47" t="s">
+        <v>627</v>
+      </c>
+      <c r="R47" t="s">
+        <v>947</v>
+      </c>
+      <c r="S47" t="s">
+        <v>460</v>
+      </c>
+      <c r="T47" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>423</v>
+      </c>
+      <c r="B48" t="s">
+        <v>671</v>
+      </c>
+      <c r="C48" t="s">
+        <v>724</v>
+      </c>
+      <c r="D48" t="s">
+        <v>424</v>
+      </c>
+      <c r="E48" t="s">
+        <v>425</v>
+      </c>
+      <c r="F48" t="s">
+        <v>785</v>
+      </c>
+      <c r="G48" t="s">
+        <v>426</v>
+      </c>
+      <c r="H48" t="s">
+        <v>427</v>
+      </c>
+      <c r="I48" t="s">
+        <v>724</v>
+      </c>
+      <c r="J48" t="s">
+        <v>424</v>
+      </c>
+      <c r="K48" t="s">
+        <v>425</v>
+      </c>
+      <c r="L48" t="s">
+        <v>882</v>
+      </c>
+      <c r="M48" t="s">
+        <v>428</v>
+      </c>
+      <c r="N48" t="s">
+        <v>429</v>
+      </c>
+      <c r="R48" t="s">
+        <v>936</v>
+      </c>
+      <c r="S48" t="s">
+        <v>430</v>
+      </c>
+      <c r="T48" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>423</v>
+      </c>
+      <c r="B49" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C49" t="s">
+        <v>724</v>
+      </c>
+      <c r="D49" t="s">
+        <v>424</v>
+      </c>
+      <c r="E49" t="s">
+        <v>425</v>
+      </c>
+      <c r="F49" t="s">
+        <v>1032</v>
+      </c>
+      <c r="G49" t="s">
+        <v>1018</v>
+      </c>
+      <c r="H49" t="s">
+        <v>1019</v>
+      </c>
+      <c r="I49" t="s">
+        <v>1025</v>
+      </c>
+      <c r="J49" t="s">
+        <v>424</v>
+      </c>
+      <c r="K49" t="s">
+        <v>425</v>
+      </c>
+      <c r="L49" t="s">
+        <v>1038</v>
+      </c>
+      <c r="M49" t="s">
+        <v>428</v>
+      </c>
+      <c r="N49" t="s">
+        <v>429</v>
+      </c>
+      <c r="R49" t="s">
+        <v>1133</v>
+      </c>
+      <c r="S49" t="s">
+        <v>430</v>
+      </c>
+      <c r="T49" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>190</v>
+      </c>
+      <c r="B50" t="s">
+        <v>674</v>
+      </c>
+      <c r="C50" t="s">
+        <v>702</v>
+      </c>
+      <c r="D50" t="s">
+        <v>191</v>
+      </c>
+      <c r="E50" t="s">
+        <v>192</v>
+      </c>
+      <c r="F50" t="s">
+        <v>760</v>
+      </c>
+      <c r="G50" t="s">
+        <v>193</v>
+      </c>
+      <c r="H50" t="s">
+        <v>194</v>
+      </c>
+      <c r="I50" t="s">
+        <v>823</v>
+      </c>
+      <c r="J50" t="s">
+        <v>195</v>
+      </c>
+      <c r="K50" t="s">
+        <v>196</v>
+      </c>
+      <c r="L50" t="s">
+        <v>862</v>
+      </c>
+      <c r="M50" t="s">
+        <v>197</v>
+      </c>
+      <c r="N50" t="s">
+        <v>198</v>
+      </c>
+      <c r="R50" t="s">
+        <v>919</v>
+      </c>
+      <c r="S50" t="s">
+        <v>199</v>
+      </c>
+      <c r="T50" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>661</v>
+      </c>
+      <c r="B51" t="s">
+        <v>691</v>
+      </c>
+      <c r="C51" t="s">
+        <v>743</v>
+      </c>
+      <c r="D51" t="s">
+        <v>662</v>
+      </c>
+      <c r="E51" t="s">
+        <v>663</v>
+      </c>
+      <c r="F51" t="s">
+        <v>810</v>
+      </c>
+      <c r="G51" t="s">
+        <v>664</v>
+      </c>
+      <c r="H51" t="s">
+        <v>665</v>
+      </c>
+      <c r="L51" t="s">
+        <v>901</v>
+      </c>
+      <c r="M51" t="s">
+        <v>666</v>
+      </c>
+      <c r="N51" t="s">
+        <v>667</v>
+      </c>
+      <c r="R51" t="s">
+        <v>1137</v>
+      </c>
+      <c r="S51" t="s">
+        <v>640</v>
+      </c>
+      <c r="T51" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>613</v>
+      </c>
+      <c r="B52" t="s">
+        <v>671</v>
+      </c>
+      <c r="C52" t="s">
+        <v>1179</v>
+      </c>
+      <c r="D52" t="s">
+        <v>614</v>
+      </c>
+      <c r="E52" t="s">
+        <v>615</v>
+      </c>
+      <c r="I52" t="s">
+        <v>840</v>
+      </c>
+      <c r="J52" t="s">
+        <v>616</v>
+      </c>
+      <c r="K52" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>318</v>
+      </c>
+      <c r="B53" t="s">
+        <v>678</v>
+      </c>
+      <c r="C53" t="s">
+        <v>713</v>
+      </c>
+      <c r="D53" t="s">
+        <v>319</v>
+      </c>
+      <c r="E53" t="s">
+        <v>320</v>
+      </c>
+      <c r="F53" t="s">
+        <v>773</v>
+      </c>
+      <c r="G53" t="s">
+        <v>321</v>
+      </c>
+      <c r="H53" t="s">
+        <v>322</v>
+      </c>
+      <c r="I53" t="s">
+        <v>827</v>
+      </c>
+      <c r="J53" t="s">
+        <v>323</v>
+      </c>
+      <c r="K53" t="s">
+        <v>320</v>
+      </c>
+      <c r="L53" t="s">
+        <v>871</v>
+      </c>
+      <c r="M53" t="s">
+        <v>324</v>
+      </c>
+      <c r="N53" t="s">
+        <v>325</v>
+      </c>
+      <c r="R53" t="s">
+        <v>931</v>
+      </c>
+      <c r="S53" t="s">
+        <v>326</v>
+      </c>
+      <c r="T53" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>364</v>
+      </c>
+      <c r="B54" t="s">
+        <v>671</v>
+      </c>
+      <c r="C54" t="s">
+        <v>717</v>
+      </c>
+      <c r="D54" t="s">
+        <v>365</v>
+      </c>
+      <c r="E54" t="s">
+        <v>366</v>
+      </c>
+      <c r="F54" t="s">
+        <v>778</v>
+      </c>
+      <c r="G54" t="s">
+        <v>367</v>
+      </c>
+      <c r="H54" t="s">
+        <v>368</v>
+      </c>
+      <c r="I54" t="s">
+        <v>717</v>
+      </c>
+      <c r="J54" t="s">
+        <v>365</v>
+      </c>
+      <c r="K54" t="s">
+        <v>366</v>
+      </c>
+      <c r="L54" t="s">
+        <v>875</v>
+      </c>
+      <c r="M54" t="s">
+        <v>369</v>
+      </c>
+      <c r="N54" t="s">
+        <v>370</v>
+      </c>
+      <c r="R54" t="s">
+        <v>937</v>
+      </c>
+      <c r="S54" t="s">
+        <v>309</v>
+      </c>
+      <c r="T54" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>302</v>
+      </c>
+      <c r="B55" t="s">
+        <v>671</v>
+      </c>
+      <c r="C55" t="s">
+        <v>712</v>
+      </c>
+      <c r="D55" t="s">
+        <v>303</v>
+      </c>
+      <c r="E55" t="s">
+        <v>304</v>
+      </c>
+      <c r="F55" t="s">
+        <v>772</v>
+      </c>
+      <c r="G55" t="s">
+        <v>305</v>
+      </c>
+      <c r="H55" t="s">
+        <v>306</v>
+      </c>
+      <c r="I55" t="s">
+        <v>712</v>
+      </c>
+      <c r="J55" t="s">
+        <v>303</v>
+      </c>
+      <c r="K55" t="s">
+        <v>304</v>
+      </c>
+      <c r="L55" t="s">
+        <v>848</v>
+      </c>
+      <c r="M55" t="s">
+        <v>307</v>
+      </c>
+      <c r="N55" t="s">
+        <v>308</v>
+      </c>
+      <c r="R55" t="s">
+        <v>930</v>
+      </c>
+      <c r="S55" t="s">
+        <v>309</v>
+      </c>
+      <c r="T55" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>603</v>
+      </c>
+      <c r="B56" t="s">
+        <v>671</v>
+      </c>
+      <c r="C56" t="s">
+        <v>740</v>
+      </c>
+      <c r="D56" t="s">
+        <v>604</v>
+      </c>
+      <c r="E56" t="s">
+        <v>605</v>
+      </c>
+      <c r="F56" t="s">
+        <v>803</v>
+      </c>
+      <c r="G56" t="s">
+        <v>606</v>
+      </c>
+      <c r="H56" t="s">
+        <v>607</v>
+      </c>
+      <c r="I56" t="s">
+        <v>839</v>
+      </c>
+      <c r="J56" t="s">
+        <v>608</v>
+      </c>
+      <c r="K56" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B57" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C57" t="s">
+        <v>1093</v>
+      </c>
+      <c r="D57" t="s">
+        <v>1045</v>
+      </c>
+      <c r="E57" t="s">
+        <v>1046</v>
+      </c>
+      <c r="F57" t="s">
+        <v>1099</v>
+      </c>
+      <c r="G57" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H57" t="s">
+        <v>1048</v>
+      </c>
+      <c r="I57" t="s">
+        <v>1093</v>
+      </c>
+      <c r="J57" t="s">
+        <v>1045</v>
+      </c>
+      <c r="K57" t="s">
+        <v>1046</v>
+      </c>
+      <c r="L57" t="s">
+        <v>1146</v>
+      </c>
+      <c r="M57" t="s">
+        <v>1049</v>
+      </c>
+      <c r="N57" t="s">
+        <v>1050</v>
+      </c>
+      <c r="R57" t="s">
+        <v>1134</v>
+      </c>
+      <c r="S57" t="s">
+        <v>1051</v>
+      </c>
+      <c r="T57" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B58" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C58" t="s">
+        <v>1095</v>
+      </c>
+      <c r="D58" t="s">
+        <v>1069</v>
+      </c>
+      <c r="E58" t="s">
+        <v>1070</v>
+      </c>
+      <c r="F58" t="s">
+        <v>1102</v>
+      </c>
+      <c r="G58" t="s">
+        <v>1071</v>
+      </c>
+      <c r="H58" t="s">
+        <v>1072</v>
+      </c>
+      <c r="I58" t="s">
+        <v>1095</v>
+      </c>
+      <c r="J58" t="s">
+        <v>1069</v>
+      </c>
+      <c r="K58" t="s">
+        <v>1070</v>
+      </c>
+      <c r="L58" t="s">
+        <v>1147</v>
+      </c>
+      <c r="M58" t="s">
+        <v>1073</v>
+      </c>
+      <c r="N58" t="s">
+        <v>1074</v>
+      </c>
+      <c r="R58" t="s">
+        <v>1134</v>
+      </c>
+      <c r="S58" t="s">
+        <v>1051</v>
+      </c>
+      <c r="T58" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>40</v>
+      </c>
+      <c r="B59" t="s">
+        <v>670</v>
+      </c>
+      <c r="C59" t="s">
+        <v>41</v>
+      </c>
+      <c r="D59" t="s">
+        <v>41</v>
+      </c>
+      <c r="E59" t="s">
+        <v>42</v>
+      </c>
+      <c r="F59" t="s">
+        <v>746</v>
+      </c>
+      <c r="G59" t="s">
+        <v>43</v>
+      </c>
+      <c r="H59" t="s">
+        <v>44</v>
+      </c>
+      <c r="I59" t="s">
+        <v>41</v>
+      </c>
+      <c r="J59" t="s">
+        <v>41</v>
+      </c>
+      <c r="K59" t="s">
+        <v>42</v>
+      </c>
+      <c r="L59" t="s">
+        <v>849</v>
+      </c>
+      <c r="M59" t="s">
+        <v>45</v>
+      </c>
+      <c r="N59" t="s">
+        <v>46</v>
+      </c>
+      <c r="R59" t="s">
+        <v>1141</v>
+      </c>
+      <c r="S59" t="s">
+        <v>47</v>
+      </c>
+      <c r="T59" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>157</v>
+      </c>
+      <c r="B60" t="s">
+        <v>671</v>
+      </c>
+      <c r="C60" t="s">
+        <v>700</v>
+      </c>
+      <c r="D60" t="s">
+        <v>158</v>
+      </c>
+      <c r="E60" t="s">
+        <v>159</v>
+      </c>
+      <c r="F60" t="s">
+        <v>757</v>
+      </c>
+      <c r="G60" t="s">
+        <v>160</v>
+      </c>
+      <c r="H60" t="s">
+        <v>161</v>
+      </c>
+      <c r="I60" t="s">
+        <v>820</v>
+      </c>
+      <c r="J60" t="s">
+        <v>162</v>
+      </c>
+      <c r="K60" t="s">
+        <v>163</v>
+      </c>
+      <c r="L60" t="s">
+        <v>859</v>
+      </c>
+      <c r="M60" t="s">
+        <v>164</v>
+      </c>
+      <c r="N60" t="s">
+        <v>165</v>
+      </c>
+      <c r="R60" t="s">
+        <v>916</v>
+      </c>
+      <c r="S60" t="s">
+        <v>166</v>
+      </c>
+      <c r="T60" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>572</v>
+      </c>
+      <c r="B61" t="s">
+        <v>671</v>
+      </c>
+      <c r="C61" t="s">
+        <v>1187</v>
+      </c>
+      <c r="D61" t="s">
+        <v>158</v>
+      </c>
+      <c r="E61" t="s">
+        <v>573</v>
+      </c>
+      <c r="F61" t="s">
+        <v>800</v>
+      </c>
+      <c r="G61" t="s">
+        <v>574</v>
+      </c>
+      <c r="H61" t="s">
+        <v>575</v>
+      </c>
+      <c r="I61" t="s">
+        <v>576</v>
+      </c>
+      <c r="J61" t="s">
+        <v>576</v>
+      </c>
+      <c r="K61" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
         <v>264</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B62" t="s">
         <v>677</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C62" t="s">
+        <v>708</v>
+      </c>
+      <c r="D62" t="s">
+        <v>265</v>
+      </c>
+      <c r="E62" t="s">
+        <v>266</v>
+      </c>
+      <c r="F62" t="s">
+        <v>768</v>
+      </c>
+      <c r="G62" t="s">
+        <v>267</v>
+      </c>
+      <c r="H62" t="s">
+        <v>268</v>
+      </c>
+      <c r="I62" t="s">
+        <v>708</v>
+      </c>
+      <c r="J62" t="s">
+        <v>265</v>
+      </c>
+      <c r="K62" t="s">
+        <v>266</v>
+      </c>
+      <c r="L62" t="s">
+        <v>868</v>
+      </c>
+      <c r="M62" t="s">
+        <v>269</v>
+      </c>
+      <c r="N62" t="s">
+        <v>270</v>
+      </c>
+      <c r="R62" t="s">
+        <v>926</v>
+      </c>
+      <c r="S62" t="s">
+        <v>271</v>
+      </c>
+      <c r="T62" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>380</v>
+      </c>
+      <c r="B63" t="s">
+        <v>668</v>
+      </c>
+      <c r="C63" t="s">
+        <v>719</v>
+      </c>
+      <c r="D63" t="s">
+        <v>381</v>
+      </c>
+      <c r="E63" t="s">
+        <v>382</v>
+      </c>
+      <c r="F63" t="s">
+        <v>780</v>
+      </c>
+      <c r="G63" t="s">
+        <v>383</v>
+      </c>
+      <c r="H63" t="s">
+        <v>384</v>
+      </c>
+      <c r="I63" t="s">
+        <v>719</v>
+      </c>
+      <c r="J63" t="s">
+        <v>381</v>
+      </c>
+      <c r="K63" t="s">
+        <v>382</v>
+      </c>
+      <c r="L63" t="s">
+        <v>877</v>
+      </c>
+      <c r="M63" t="s">
+        <v>385</v>
+      </c>
+      <c r="N63" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>354</v>
+      </c>
+      <c r="B64" t="s">
+        <v>671</v>
+      </c>
+      <c r="C64" t="s">
         <v>716</v>
       </c>
-      <c r="D42" t="s">
-        <v>265</v>
-      </c>
-      <c r="E42" t="s">
-        <v>266</v>
-      </c>
-      <c r="F42" t="s">
+      <c r="D64" t="s">
+        <v>355</v>
+      </c>
+      <c r="E64" t="s">
+        <v>356</v>
+      </c>
+      <c r="F64" t="s">
+        <v>777</v>
+      </c>
+      <c r="G64" t="s">
+        <v>357</v>
+      </c>
+      <c r="H64" t="s">
+        <v>358</v>
+      </c>
+      <c r="I64" t="s">
+        <v>716</v>
+      </c>
+      <c r="J64" t="s">
+        <v>359</v>
+      </c>
+      <c r="K64" t="s">
+        <v>356</v>
+      </c>
+      <c r="L64" t="s">
+        <v>874</v>
+      </c>
+      <c r="M64" t="s">
+        <v>360</v>
+      </c>
+      <c r="N64" t="s">
+        <v>361</v>
+      </c>
+      <c r="R64" t="s">
+        <v>933</v>
+      </c>
+      <c r="S64" t="s">
+        <v>362</v>
+      </c>
+      <c r="T64" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>31</v>
+      </c>
+      <c r="B65" t="s">
+        <v>669</v>
+      </c>
+      <c r="C65" t="s">
+        <v>693</v>
+      </c>
+      <c r="D65" t="s">
+        <v>32</v>
+      </c>
+      <c r="E65" t="s">
+        <v>33</v>
+      </c>
+      <c r="F65" t="s">
+        <v>745</v>
+      </c>
+      <c r="G65" t="s">
+        <v>34</v>
+      </c>
+      <c r="H65" t="s">
+        <v>35</v>
+      </c>
+      <c r="I65" t="s">
+        <v>693</v>
+      </c>
+      <c r="J65" t="s">
+        <v>32</v>
+      </c>
+      <c r="K65" t="s">
+        <v>33</v>
+      </c>
+      <c r="L65" t="s">
+        <v>844</v>
+      </c>
+      <c r="M65" t="s">
+        <v>36</v>
+      </c>
+      <c r="N65" t="s">
+        <v>37</v>
+      </c>
+      <c r="R65" t="s">
+        <v>907</v>
+      </c>
+      <c r="S65" t="s">
+        <v>38</v>
+      </c>
+      <c r="T65" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>610</v>
+      </c>
+      <c r="B66" t="s">
+        <v>671</v>
+      </c>
+      <c r="C66" t="s">
+        <v>611</v>
+      </c>
+      <c r="D66" t="s">
+        <v>611</v>
+      </c>
+      <c r="E66" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>654</v>
+      </c>
+      <c r="B67" t="s">
+        <v>691</v>
+      </c>
+      <c r="C67" t="s">
+        <v>742</v>
+      </c>
+      <c r="D67" t="s">
+        <v>655</v>
+      </c>
+      <c r="E67" t="s">
+        <v>656</v>
+      </c>
+      <c r="F67" t="s">
+        <v>809</v>
+      </c>
+      <c r="G67" t="s">
+        <v>657</v>
+      </c>
+      <c r="H67" t="s">
+        <v>658</v>
+      </c>
+      <c r="L67" t="s">
+        <v>900</v>
+      </c>
+      <c r="M67" t="s">
+        <v>659</v>
+      </c>
+      <c r="N67" t="s">
+        <v>660</v>
+      </c>
+      <c r="R67" t="s">
+        <v>1137</v>
+      </c>
+      <c r="S67" t="s">
+        <v>640</v>
+      </c>
+      <c r="T67" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B68" t="s">
+        <v>1154</v>
+      </c>
+      <c r="C68" t="s">
+        <v>1159</v>
+      </c>
+      <c r="D68" t="s">
+        <v>1155</v>
+      </c>
+      <c r="E68" t="s">
+        <v>1156</v>
+      </c>
+      <c r="F68" t="s">
+        <v>1161</v>
+      </c>
+      <c r="G68" t="s">
+        <v>1157</v>
+      </c>
+      <c r="H68" t="s">
+        <v>1158</v>
+      </c>
+      <c r="I68" t="s">
+        <v>1159</v>
+      </c>
+      <c r="J68" t="s">
+        <v>1155</v>
+      </c>
+      <c r="K68" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>416</v>
+      </c>
+      <c r="B69" t="s">
+        <v>677</v>
+      </c>
+      <c r="C69" t="s">
+        <v>417</v>
+      </c>
+      <c r="D69" t="s">
+        <v>417</v>
+      </c>
+      <c r="E69" t="s">
+        <v>418</v>
+      </c>
+      <c r="F69" t="s">
         <v>784</v>
       </c>
-      <c r="G42" t="s">
-        <v>267</v>
-      </c>
-      <c r="H42" t="s">
-        <v>268</v>
-      </c>
-      <c r="I42" t="s">
-        <v>716</v>
-      </c>
-      <c r="J42" t="s">
-        <v>265</v>
-      </c>
-      <c r="K42" t="s">
-        <v>266</v>
-      </c>
-      <c r="L42" t="s">
-        <v>885</v>
-      </c>
-      <c r="M42" t="s">
-        <v>269</v>
-      </c>
-      <c r="N42" t="s">
-        <v>270</v>
-      </c>
-      <c r="R42" t="s">
-        <v>943</v>
-      </c>
-      <c r="S42" t="s">
-        <v>271</v>
-      </c>
-      <c r="T42" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="43" spans="1:20">
-      <c r="A43" t="s">
+      <c r="G69" t="s">
+        <v>419</v>
+      </c>
+      <c r="H69" t="s">
+        <v>420</v>
+      </c>
+      <c r="I69" t="s">
+        <v>417</v>
+      </c>
+      <c r="J69" t="s">
+        <v>417</v>
+      </c>
+      <c r="K69" t="s">
+        <v>418</v>
+      </c>
+      <c r="L69" t="s">
+        <v>881</v>
+      </c>
+      <c r="M69" t="s">
+        <v>421</v>
+      </c>
+      <c r="N69" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B70" t="s">
+        <v>1106</v>
+      </c>
+      <c r="C70" t="s">
+        <v>1121</v>
+      </c>
+      <c r="D70" t="s">
+        <v>1107</v>
+      </c>
+      <c r="E70" t="s">
+        <v>1108</v>
+      </c>
+      <c r="F70" t="s">
+        <v>1103</v>
+      </c>
+      <c r="G70" t="s">
+        <v>409</v>
+      </c>
+      <c r="H70" t="s">
+        <v>410</v>
+      </c>
+      <c r="I70" t="s">
+        <v>1121</v>
+      </c>
+      <c r="J70" t="s">
+        <v>1107</v>
+      </c>
+      <c r="K70" t="s">
+        <v>1108</v>
+      </c>
+      <c r="L70" t="s">
+        <v>1125</v>
+      </c>
+      <c r="M70" t="s">
+        <v>1109</v>
+      </c>
+      <c r="N70" t="s">
+        <v>1110</v>
+      </c>
+      <c r="R70" t="s">
+        <v>1142</v>
+      </c>
+      <c r="S70" t="s">
+        <v>1111</v>
+      </c>
+      <c r="T70" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>593</v>
+      </c>
+      <c r="B71" t="s">
+        <v>671</v>
+      </c>
+      <c r="C71" t="s">
+        <v>738</v>
+      </c>
+      <c r="D71" t="s">
+        <v>594</v>
+      </c>
+      <c r="E71" t="s">
+        <v>595</v>
+      </c>
+      <c r="I71" t="s">
+        <v>837</v>
+      </c>
+      <c r="J71" t="s">
+        <v>596</v>
+      </c>
+      <c r="K71" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>618</v>
+      </c>
+      <c r="B72" t="s">
+        <v>675</v>
+      </c>
+      <c r="C72" t="s">
+        <v>738</v>
+      </c>
+      <c r="D72" t="s">
+        <v>594</v>
+      </c>
+      <c r="E72" t="s">
+        <v>595</v>
+      </c>
+      <c r="I72" t="s">
+        <v>841</v>
+      </c>
+      <c r="J72" t="s">
+        <v>619</v>
+      </c>
+      <c r="K72" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>212</v>
+      </c>
+      <c r="B73" t="s">
+        <v>671</v>
+      </c>
+      <c r="C73" t="s">
+        <v>703</v>
+      </c>
+      <c r="D73" t="s">
+        <v>213</v>
+      </c>
+      <c r="E73" t="s">
+        <v>214</v>
+      </c>
+      <c r="F73" t="s">
+        <v>762</v>
+      </c>
+      <c r="G73" t="s">
+        <v>215</v>
+      </c>
+      <c r="H73" t="s">
+        <v>216</v>
+      </c>
+      <c r="I73" t="s">
+        <v>703</v>
+      </c>
+      <c r="J73" t="s">
+        <v>213</v>
+      </c>
+      <c r="K73" t="s">
+        <v>214</v>
+      </c>
+      <c r="L73" t="s">
+        <v>846</v>
+      </c>
+      <c r="M73" t="s">
+        <v>217</v>
+      </c>
+      <c r="N73" t="s">
+        <v>218</v>
+      </c>
+      <c r="R73" t="s">
+        <v>921</v>
+      </c>
+      <c r="S73" t="s">
+        <v>219</v>
+      </c>
+      <c r="T73" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>130</v>
+      </c>
+      <c r="B74" t="s">
+        <v>671</v>
+      </c>
+      <c r="C74" t="s">
+        <v>817</v>
+      </c>
+      <c r="D74" t="s">
+        <v>131</v>
+      </c>
+      <c r="E74" t="s">
+        <v>132</v>
+      </c>
+      <c r="F74" t="s">
+        <v>753</v>
+      </c>
+      <c r="G74" t="s">
+        <v>113</v>
+      </c>
+      <c r="H74" t="s">
+        <v>114</v>
+      </c>
+      <c r="I74" t="s">
+        <v>817</v>
+      </c>
+      <c r="J74" t="s">
+        <v>133</v>
+      </c>
+      <c r="K74" t="s">
+        <v>132</v>
+      </c>
+      <c r="L74" t="s">
+        <v>845</v>
+      </c>
+      <c r="M74" t="s">
+        <v>134</v>
+      </c>
+      <c r="N74" t="s">
+        <v>135</v>
+      </c>
+      <c r="R74" t="s">
+        <v>913</v>
+      </c>
+      <c r="S74" t="s">
+        <v>136</v>
+      </c>
+      <c r="T74" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>345</v>
+      </c>
+      <c r="B75" t="s">
+        <v>681</v>
+      </c>
+      <c r="C75" t="s">
+        <v>715</v>
+      </c>
+      <c r="D75" t="s">
+        <v>346</v>
+      </c>
+      <c r="E75" t="s">
+        <v>347</v>
+      </c>
+      <c r="F75" t="s">
+        <v>776</v>
+      </c>
+      <c r="G75" t="s">
+        <v>348</v>
+      </c>
+      <c r="H75" t="s">
+        <v>349</v>
+      </c>
+      <c r="I75" t="s">
+        <v>715</v>
+      </c>
+      <c r="J75" t="s">
+        <v>346</v>
+      </c>
+      <c r="K75" t="s">
+        <v>347</v>
+      </c>
+      <c r="L75" t="s">
+        <v>873</v>
+      </c>
+      <c r="M75" t="s">
+        <v>350</v>
+      </c>
+      <c r="N75" t="s">
+        <v>351</v>
+      </c>
+      <c r="R75" t="s">
+        <v>1140</v>
+      </c>
+      <c r="S75" t="s">
+        <v>352</v>
+      </c>
+      <c r="T75" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>1113</v>
+      </c>
+      <c r="B76" t="s">
+        <v>1106</v>
+      </c>
+      <c r="C76" t="s">
+        <v>1180</v>
+      </c>
+      <c r="D76" t="s">
+        <v>1114</v>
+      </c>
+      <c r="E76" t="s">
+        <v>1115</v>
+      </c>
+      <c r="I76" t="s">
+        <v>1122</v>
+      </c>
+      <c r="J76" t="s">
+        <v>1114</v>
+      </c>
+      <c r="K76" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>963</v>
+      </c>
+      <c r="B77" t="s">
+        <v>949</v>
+      </c>
+      <c r="C77" t="s">
+        <v>973</v>
+      </c>
+      <c r="D77" t="s">
+        <v>973</v>
+      </c>
+      <c r="E77" t="s">
+        <v>965</v>
+      </c>
+      <c r="F77" t="s">
+        <v>977</v>
+      </c>
+      <c r="G77" t="s">
+        <v>966</v>
+      </c>
+      <c r="H77" t="s">
+        <v>967</v>
+      </c>
+      <c r="I77" t="s">
+        <v>973</v>
+      </c>
+      <c r="J77" t="s">
+        <v>964</v>
+      </c>
+      <c r="K77" t="s">
+        <v>965</v>
+      </c>
+      <c r="L77" t="s">
+        <v>1042</v>
+      </c>
+      <c r="M77" t="s">
+        <v>968</v>
+      </c>
+      <c r="N77" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="78" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>58</v>
+      </c>
+      <c r="B78" t="s">
+        <v>671</v>
+      </c>
+      <c r="C78" t="s">
+        <v>1181</v>
+      </c>
+      <c r="D78" t="s">
+        <v>59</v>
+      </c>
+      <c r="E78" t="s">
+        <v>60</v>
+      </c>
+      <c r="F78" t="s">
+        <v>748</v>
+      </c>
+      <c r="G78" t="s">
+        <v>61</v>
+      </c>
+      <c r="H78" t="s">
+        <v>62</v>
+      </c>
+      <c r="I78" t="s">
+        <v>811</v>
+      </c>
+      <c r="J78" t="s">
+        <v>63</v>
+      </c>
+      <c r="K78" t="s">
+        <v>64</v>
+      </c>
+      <c r="L78" s="2" t="s">
+        <v>851</v>
+      </c>
+      <c r="M78" t="s">
+        <v>65</v>
+      </c>
+      <c r="N78" t="s">
+        <v>66</v>
+      </c>
+      <c r="O78" t="s">
+        <v>902</v>
+      </c>
+      <c r="P78" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q78" t="s">
+        <v>68</v>
+      </c>
+      <c r="R78" t="s">
+        <v>932</v>
+      </c>
+      <c r="S78" t="s">
+        <v>69</v>
+      </c>
+      <c r="T78" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>413</v>
+      </c>
+      <c r="B79" t="s">
+        <v>683</v>
+      </c>
+      <c r="C79" t="s">
+        <v>1182</v>
+      </c>
+      <c r="D79" t="s">
+        <v>414</v>
+      </c>
+      <c r="E79" t="s">
+        <v>415</v>
+      </c>
+      <c r="F79" t="s">
+        <v>783</v>
+      </c>
+      <c r="G79" t="s">
+        <v>409</v>
+      </c>
+      <c r="H79" t="s">
+        <v>410</v>
+      </c>
+      <c r="I79" t="s">
+        <v>723</v>
+      </c>
+      <c r="J79" t="s">
+        <v>414</v>
+      </c>
+      <c r="K79" t="s">
+        <v>415</v>
+      </c>
+      <c r="L79" t="s">
+        <v>880</v>
+      </c>
+      <c r="M79" t="s">
+        <v>411</v>
+      </c>
+      <c r="N79" t="s">
+        <v>412</v>
+      </c>
+      <c r="R79" t="s">
+        <v>935</v>
+      </c>
+      <c r="S79" t="s">
+        <v>404</v>
+      </c>
+      <c r="T79" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>543</v>
+      </c>
+      <c r="B80" t="s">
+        <v>687</v>
+      </c>
+      <c r="C80" t="s">
+        <v>736</v>
+      </c>
+      <c r="D80" t="s">
+        <v>544</v>
+      </c>
+      <c r="E80" t="s">
+        <v>545</v>
+      </c>
+      <c r="F80" t="s">
+        <v>798</v>
+      </c>
+      <c r="G80" t="s">
+        <v>546</v>
+      </c>
+      <c r="H80" t="s">
+        <v>547</v>
+      </c>
+      <c r="I80" t="s">
+        <v>833</v>
+      </c>
+      <c r="J80" t="s">
+        <v>548</v>
+      </c>
+      <c r="K80" t="s">
+        <v>549</v>
+      </c>
+      <c r="L80" t="s">
+        <v>894</v>
+      </c>
+      <c r="M80" t="s">
+        <v>550</v>
+      </c>
+      <c r="N80" t="s">
+        <v>551</v>
+      </c>
+      <c r="R80" t="s">
+        <v>945</v>
+      </c>
+      <c r="S80" t="s">
+        <v>552</v>
+      </c>
+      <c r="T80" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="81" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>954</v>
+      </c>
+      <c r="B81" t="s">
+        <v>949</v>
+      </c>
+      <c r="C81" t="s">
+        <v>1144</v>
+      </c>
+      <c r="D81" t="s">
+        <v>972</v>
+      </c>
+      <c r="E81" t="s">
+        <v>956</v>
+      </c>
+      <c r="F81" t="s">
+        <v>976</v>
+      </c>
+      <c r="G81" t="s">
+        <v>957</v>
+      </c>
+      <c r="H81" t="s">
+        <v>958</v>
+      </c>
+      <c r="I81" t="s">
+        <v>1144</v>
+      </c>
+      <c r="J81" t="s">
+        <v>955</v>
+      </c>
+      <c r="K81" t="s">
+        <v>956</v>
+      </c>
+      <c r="L81" t="s">
+        <v>1041</v>
+      </c>
+      <c r="M81" t="s">
+        <v>959</v>
+      </c>
+      <c r="N81" t="s">
+        <v>960</v>
+      </c>
+      <c r="R81" t="s">
+        <v>1128</v>
+      </c>
+      <c r="S81" t="s">
+        <v>961</v>
+      </c>
+      <c r="T81" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="82" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>273</v>
+      </c>
+      <c r="B82" t="s">
+        <v>677</v>
+      </c>
+      <c r="C82" t="s">
+        <v>709</v>
+      </c>
+      <c r="D82" t="s">
+        <v>274</v>
+      </c>
+      <c r="E82" t="s">
+        <v>275</v>
+      </c>
+      <c r="F82" t="s">
+        <v>769</v>
+      </c>
+      <c r="G82" t="s">
+        <v>276</v>
+      </c>
+      <c r="H82" t="s">
+        <v>277</v>
+      </c>
+      <c r="I82" t="s">
+        <v>709</v>
+      </c>
+      <c r="J82" t="s">
+        <v>274</v>
+      </c>
+      <c r="K82" t="s">
+        <v>275</v>
+      </c>
+      <c r="L82" t="s">
+        <v>847</v>
+      </c>
+      <c r="M82" t="s">
+        <v>278</v>
+      </c>
+      <c r="N82" t="s">
+        <v>279</v>
+      </c>
+      <c r="R82" t="s">
+        <v>927</v>
+      </c>
+      <c r="S82" t="s">
+        <v>280</v>
+      </c>
+      <c r="T82" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="83" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B83" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C83" t="s">
+        <v>1094</v>
+      </c>
+      <c r="D83" t="s">
+        <v>1061</v>
+      </c>
+      <c r="E83" t="s">
+        <v>1062</v>
+      </c>
+      <c r="F83" t="s">
+        <v>1101</v>
+      </c>
+      <c r="G83" t="s">
+        <v>400</v>
+      </c>
+      <c r="H83" t="s">
+        <v>401</v>
+      </c>
+      <c r="I83" t="s">
+        <v>1094</v>
+      </c>
+      <c r="J83" t="s">
+        <v>1061</v>
+      </c>
+      <c r="K83" t="s">
+        <v>1062</v>
+      </c>
+      <c r="L83" t="s">
+        <v>1149</v>
+      </c>
+      <c r="M83" t="s">
+        <v>1063</v>
+      </c>
+      <c r="N83" t="s">
+        <v>1064</v>
+      </c>
+      <c r="R83" t="s">
+        <v>1135</v>
+      </c>
+      <c r="S83" t="s">
+        <v>1065</v>
+      </c>
+      <c r="T83" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="84" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>237</v>
+      </c>
+      <c r="B84" t="s">
+        <v>676</v>
+      </c>
+      <c r="C84" t="s">
+        <v>1183</v>
+      </c>
+      <c r="D84" t="s">
+        <v>238</v>
+      </c>
+      <c r="E84" t="s">
+        <v>239</v>
+      </c>
+      <c r="F84" t="s">
+        <v>765</v>
+      </c>
+      <c r="G84" t="s">
+        <v>240</v>
+      </c>
+      <c r="H84" t="s">
+        <v>241</v>
+      </c>
+      <c r="I84" t="s">
+        <v>705</v>
+      </c>
+      <c r="J84" t="s">
+        <v>238</v>
+      </c>
+      <c r="K84" t="s">
+        <v>239</v>
+      </c>
+      <c r="L84" t="s">
+        <v>865</v>
+      </c>
+      <c r="M84" t="s">
+        <v>242</v>
+      </c>
+      <c r="N84" t="s">
+        <v>243</v>
+      </c>
+      <c r="R84" t="s">
+        <v>923</v>
+      </c>
+      <c r="S84" t="s">
+        <v>244</v>
+      </c>
+      <c r="T84" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="85" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>237</v>
+      </c>
+      <c r="B85" t="s">
+        <v>983</v>
+      </c>
+      <c r="C85" t="s">
+        <v>1183</v>
+      </c>
+      <c r="D85" t="s">
+        <v>238</v>
+      </c>
+      <c r="E85" t="s">
+        <v>239</v>
+      </c>
+      <c r="F85" t="s">
+        <v>1027</v>
+      </c>
+      <c r="G85" t="s">
+        <v>984</v>
+      </c>
+      <c r="H85" t="s">
+        <v>985</v>
+      </c>
+      <c r="I85" t="s">
+        <v>1020</v>
+      </c>
+      <c r="J85" t="s">
+        <v>238</v>
+      </c>
+      <c r="K85" t="s">
+        <v>239</v>
+      </c>
+      <c r="L85" t="s">
+        <v>1033</v>
+      </c>
+      <c r="M85" t="s">
+        <v>242</v>
+      </c>
+      <c r="N85" t="s">
+        <v>243</v>
+      </c>
+      <c r="R85" t="s">
+        <v>1129</v>
+      </c>
+      <c r="S85" t="s">
+        <v>244</v>
+      </c>
+      <c r="T85" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="86" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>432</v>
+      </c>
+      <c r="B86" t="s">
+        <v>677</v>
+      </c>
+      <c r="C86" t="s">
+        <v>725</v>
+      </c>
+      <c r="D86" t="s">
+        <v>433</v>
+      </c>
+      <c r="E86" t="s">
+        <v>434</v>
+      </c>
+      <c r="F86" t="s">
+        <v>786</v>
+      </c>
+      <c r="G86" t="s">
+        <v>435</v>
+      </c>
+      <c r="H86" t="s">
+        <v>436</v>
+      </c>
+      <c r="I86" t="s">
+        <v>725</v>
+      </c>
+      <c r="J86" t="s">
+        <v>433</v>
+      </c>
+      <c r="K86" t="s">
+        <v>434</v>
+      </c>
+      <c r="L86" t="s">
+        <v>883</v>
+      </c>
+      <c r="M86" t="s">
+        <v>437</v>
+      </c>
+      <c r="N86" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="87" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>100</v>
+      </c>
+      <c r="B87" t="s">
+        <v>671</v>
+      </c>
+      <c r="C87" t="s">
+        <v>814</v>
+      </c>
+      <c r="D87" t="s">
+        <v>101</v>
+      </c>
+      <c r="E87" t="s">
+        <v>102</v>
+      </c>
+      <c r="F87" t="s">
+        <v>752</v>
+      </c>
+      <c r="G87" t="s">
+        <v>103</v>
+      </c>
+      <c r="H87" t="s">
+        <v>104</v>
+      </c>
+      <c r="I87" t="s">
+        <v>814</v>
+      </c>
+      <c r="J87" t="s">
+        <v>105</v>
+      </c>
+      <c r="K87" t="s">
+        <v>102</v>
+      </c>
+      <c r="L87" t="s">
+        <v>854</v>
+      </c>
+      <c r="M87" t="s">
+        <v>106</v>
+      </c>
+      <c r="N87" t="s">
+        <v>107</v>
+      </c>
+      <c r="R87" t="s">
+        <v>910</v>
+      </c>
+      <c r="S87" t="s">
+        <v>108</v>
+      </c>
+      <c r="T87" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="88" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>584</v>
+      </c>
+      <c r="B88" t="s">
+        <v>671</v>
+      </c>
+      <c r="C88" t="s">
+        <v>814</v>
+      </c>
+      <c r="D88" t="s">
+        <v>101</v>
+      </c>
+      <c r="E88" t="s">
+        <v>102</v>
+      </c>
+      <c r="F88" t="s">
+        <v>802</v>
+      </c>
+      <c r="G88" t="s">
+        <v>585</v>
+      </c>
+      <c r="H88" t="s">
+        <v>586</v>
+      </c>
+      <c r="I88" t="s">
+        <v>836</v>
+      </c>
+      <c r="J88" t="s">
+        <v>587</v>
+      </c>
+      <c r="K88" t="s">
+        <v>588</v>
+      </c>
+      <c r="L88" s="2" t="s">
+        <v>896</v>
+      </c>
+      <c r="M88" t="s">
+        <v>589</v>
+      </c>
+      <c r="N88" t="s">
+        <v>590</v>
+      </c>
+      <c r="O88" t="s">
+        <v>905</v>
+      </c>
+      <c r="P88" t="s">
+        <v>591</v>
+      </c>
+      <c r="Q88" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="89" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>228</v>
+      </c>
+      <c r="B89" t="s">
+        <v>676</v>
+      </c>
+      <c r="C89" t="s">
+        <v>825</v>
+      </c>
+      <c r="D89" t="s">
+        <v>229</v>
+      </c>
+      <c r="E89" t="s">
+        <v>230</v>
+      </c>
+      <c r="F89" t="s">
+        <v>764</v>
+      </c>
+      <c r="G89" t="s">
+        <v>231</v>
+      </c>
+      <c r="H89" t="s">
+        <v>232</v>
+      </c>
+      <c r="I89" t="s">
+        <v>825</v>
+      </c>
+      <c r="J89" t="s">
+        <v>229</v>
+      </c>
+      <c r="K89" t="s">
+        <v>230</v>
+      </c>
+      <c r="L89" t="s">
+        <v>864</v>
+      </c>
+      <c r="M89" t="s">
+        <v>233</v>
+      </c>
+      <c r="N89" t="s">
+        <v>234</v>
+      </c>
+      <c r="R89" t="s">
+        <v>922</v>
+      </c>
+      <c r="S89" t="s">
+        <v>235</v>
+      </c>
+      <c r="T89" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="90" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>577</v>
+      </c>
+      <c r="B90" t="s">
+        <v>675</v>
+      </c>
+      <c r="C90" t="s">
+        <v>737</v>
+      </c>
+      <c r="D90" t="s">
+        <v>578</v>
+      </c>
+      <c r="E90" t="s">
+        <v>579</v>
+      </c>
+      <c r="F90" t="s">
+        <v>801</v>
+      </c>
+      <c r="G90" t="s">
+        <v>580</v>
+      </c>
+      <c r="H90" t="s">
+        <v>581</v>
+      </c>
+      <c r="I90" t="s">
+        <v>835</v>
+      </c>
+      <c r="J90" t="s">
+        <v>582</v>
+      </c>
+      <c r="K90" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="91" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>71</v>
+      </c>
+      <c r="B91" t="s">
+        <v>672</v>
+      </c>
+      <c r="C91" t="s">
+        <v>1184</v>
+      </c>
+      <c r="D91" t="s">
+        <v>72</v>
+      </c>
+      <c r="E91" t="s">
+        <v>73</v>
+      </c>
+      <c r="F91" t="s">
+        <v>749</v>
+      </c>
+      <c r="G91" t="s">
+        <v>74</v>
+      </c>
+      <c r="H91" t="s">
+        <v>75</v>
+      </c>
+      <c r="I91" t="s">
+        <v>812</v>
+      </c>
+      <c r="J91" t="s">
+        <v>76</v>
+      </c>
+      <c r="K91" t="s">
+        <v>77</v>
+      </c>
+      <c r="L91" s="2" t="s">
+        <v>872</v>
+      </c>
+      <c r="M91" t="s">
+        <v>78</v>
+      </c>
+      <c r="N91" t="s">
+        <v>79</v>
+      </c>
+      <c r="O91" t="s">
+        <v>903</v>
+      </c>
+      <c r="P91" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q91" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="92" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>529</v>
+      </c>
+      <c r="B92" t="s">
+        <v>686</v>
+      </c>
+      <c r="C92" t="s">
+        <v>735</v>
+      </c>
+      <c r="D92" t="s">
+        <v>530</v>
+      </c>
+      <c r="E92" t="s">
+        <v>531</v>
+      </c>
+      <c r="F92" t="s">
+        <v>1026</v>
+      </c>
+      <c r="G92" t="s">
+        <v>532</v>
+      </c>
+      <c r="H92" t="s">
+        <v>533</v>
+      </c>
+      <c r="I92" t="s">
+        <v>735</v>
+      </c>
+      <c r="J92" t="s">
+        <v>530</v>
+      </c>
+      <c r="K92" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="93" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>20</v>
+      </c>
+      <c r="B93" t="s">
+        <v>668</v>
+      </c>
+      <c r="C93" t="s">
+        <v>692</v>
+      </c>
+      <c r="D93" t="s">
+        <v>21</v>
+      </c>
+      <c r="E93" t="s">
+        <v>22</v>
+      </c>
+      <c r="F93" t="s">
+        <v>744</v>
+      </c>
+      <c r="G93" t="s">
+        <v>23</v>
+      </c>
+      <c r="H93" t="s">
+        <v>24</v>
+      </c>
+      <c r="I93" t="s">
+        <v>692</v>
+      </c>
+      <c r="J93" t="s">
+        <v>25</v>
+      </c>
+      <c r="K93" t="s">
+        <v>26</v>
+      </c>
+      <c r="L93" t="s">
+        <v>843</v>
+      </c>
+      <c r="M93" t="s">
+        <v>27</v>
+      </c>
+      <c r="N93" t="s">
+        <v>28</v>
+      </c>
+      <c r="R93" t="s">
+        <v>906</v>
+      </c>
+      <c r="S93" t="s">
+        <v>29</v>
+      </c>
+      <c r="T93" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="94" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
         <v>255</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B94" t="s">
         <v>677</v>
       </c>
-      <c r="C43" t="s">
-        <v>715</v>
-      </c>
-      <c r="D43" t="s">
+      <c r="C94" t="s">
+        <v>707</v>
+      </c>
+      <c r="D94" t="s">
         <v>256</v>
       </c>
-      <c r="E43" t="s">
+      <c r="E94" t="s">
         <v>257</v>
       </c>
-      <c r="F43" t="s">
-        <v>783</v>
-      </c>
-      <c r="G43" t="s">
+      <c r="F94" t="s">
+        <v>767</v>
+      </c>
+      <c r="G94" t="s">
         <v>258</v>
       </c>
-      <c r="H43" t="s">
+      <c r="H94" t="s">
         <v>259</v>
       </c>
-      <c r="I43" t="s">
-        <v>715</v>
-      </c>
-      <c r="J43" t="s">
+      <c r="I94" t="s">
+        <v>707</v>
+      </c>
+      <c r="J94" t="s">
         <v>256</v>
       </c>
-      <c r="K43" t="s">
+      <c r="K94" t="s">
         <v>257</v>
       </c>
-      <c r="L43" t="s">
+      <c r="L94" t="s">
+        <v>867</v>
+      </c>
+      <c r="M94" t="s">
+        <v>260</v>
+      </c>
+      <c r="N94" t="s">
+        <v>261</v>
+      </c>
+      <c r="R94" t="s">
+        <v>925</v>
+      </c>
+      <c r="S94" t="s">
+        <v>262</v>
+      </c>
+      <c r="T94" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="95" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>500</v>
+      </c>
+      <c r="B95" t="s">
+        <v>671</v>
+      </c>
+      <c r="C95" t="s">
+        <v>732</v>
+      </c>
+      <c r="D95" t="s">
+        <v>501</v>
+      </c>
+      <c r="E95" t="s">
+        <v>502</v>
+      </c>
+      <c r="I95" t="s">
+        <v>732</v>
+      </c>
+      <c r="J95" t="s">
+        <v>501</v>
+      </c>
+      <c r="K95" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="96" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>110</v>
+      </c>
+      <c r="B96" t="s">
+        <v>671</v>
+      </c>
+      <c r="C96" t="s">
+        <v>697</v>
+      </c>
+      <c r="D96" t="s">
+        <v>111</v>
+      </c>
+      <c r="E96" t="s">
+        <v>112</v>
+      </c>
+      <c r="F96" t="s">
+        <v>753</v>
+      </c>
+      <c r="G96" t="s">
+        <v>113</v>
+      </c>
+      <c r="H96" t="s">
+        <v>114</v>
+      </c>
+      <c r="I96" t="s">
+        <v>815</v>
+      </c>
+      <c r="J96" t="s">
+        <v>115</v>
+      </c>
+      <c r="K96" t="s">
+        <v>112</v>
+      </c>
+      <c r="L96" t="s">
+        <v>855</v>
+      </c>
+      <c r="M96" t="s">
+        <v>116</v>
+      </c>
+      <c r="N96" t="s">
+        <v>117</v>
+      </c>
+      <c r="R96" t="s">
+        <v>911</v>
+      </c>
+      <c r="S96" t="s">
+        <v>118</v>
+      </c>
+      <c r="T96" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="97" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>1079</v>
+      </c>
+      <c r="B97" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C97" t="s">
+        <v>1097</v>
+      </c>
+      <c r="D97" t="s">
+        <v>1082</v>
+      </c>
+      <c r="E97" t="s">
+        <v>1081</v>
+      </c>
+      <c r="I97" t="s">
+        <v>576</v>
+      </c>
+      <c r="J97" t="s">
+        <v>576</v>
+      </c>
+      <c r="K97" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="98" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>633</v>
+      </c>
+      <c r="B98" t="s">
+        <v>690</v>
+      </c>
+      <c r="C98" t="s">
+        <v>1185</v>
+      </c>
+      <c r="D98" t="s">
+        <v>634</v>
+      </c>
+      <c r="E98" t="s">
+        <v>635</v>
+      </c>
+      <c r="F98" t="s">
+        <v>806</v>
+      </c>
+      <c r="G98" t="s">
+        <v>636</v>
+      </c>
+      <c r="H98" t="s">
+        <v>637</v>
+      </c>
+      <c r="L98" t="s">
+        <v>898</v>
+      </c>
+      <c r="M98" t="s">
+        <v>638</v>
+      </c>
+      <c r="N98" t="s">
+        <v>639</v>
+      </c>
+      <c r="R98" t="s">
+        <v>946</v>
+      </c>
+      <c r="S98" t="s">
+        <v>640</v>
+      </c>
+      <c r="T98" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="99" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>994</v>
+      </c>
+      <c r="B99" t="s">
+        <v>995</v>
+      </c>
+      <c r="C99" t="s">
+        <v>1186</v>
+      </c>
+      <c r="D99" t="s">
+        <v>997</v>
+      </c>
+      <c r="E99" t="s">
+        <v>996</v>
+      </c>
+      <c r="F99" t="s">
+        <v>1029</v>
+      </c>
+      <c r="G99" t="s">
+        <v>998</v>
+      </c>
+      <c r="H99" t="s">
+        <v>999</v>
+      </c>
+      <c r="I99" t="s">
+        <v>1022</v>
+      </c>
+      <c r="J99" t="s">
+        <v>997</v>
+      </c>
+      <c r="K99" t="s">
+        <v>996</v>
+      </c>
+      <c r="L99" t="s">
+        <v>1035</v>
+      </c>
+      <c r="M99" t="s">
+        <v>1000</v>
+      </c>
+      <c r="N99" t="s">
+        <v>1001</v>
+      </c>
+      <c r="R99" t="s">
+        <v>1130</v>
+      </c>
+      <c r="S99" t="s">
+        <v>1002</v>
+      </c>
+      <c r="T99" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="100" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>439</v>
+      </c>
+      <c r="B100" t="s">
+        <v>677</v>
+      </c>
+      <c r="C100" t="s">
+        <v>726</v>
+      </c>
+      <c r="D100" t="s">
+        <v>440</v>
+      </c>
+      <c r="E100" t="s">
+        <v>441</v>
+      </c>
+      <c r="F100" t="s">
+        <v>787</v>
+      </c>
+      <c r="G100" t="s">
+        <v>442</v>
+      </c>
+      <c r="H100" t="s">
+        <v>443</v>
+      </c>
+      <c r="I100" t="s">
+        <v>726</v>
+      </c>
+      <c r="J100" t="s">
+        <v>440</v>
+      </c>
+      <c r="K100" t="s">
+        <v>441</v>
+      </c>
+      <c r="L100" t="s">
         <v>884</v>
       </c>
-      <c r="M43" t="s">
-        <v>260</v>
-      </c>
-      <c r="N43" t="s">
-        <v>261</v>
-      </c>
-      <c r="R43" t="s">
+      <c r="M100" t="s">
+        <v>444</v>
+      </c>
+      <c r="N100" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="101" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>503</v>
+      </c>
+      <c r="B101" t="s">
+        <v>671</v>
+      </c>
+      <c r="C101" t="s">
+        <v>733</v>
+      </c>
+      <c r="D101" t="s">
+        <v>504</v>
+      </c>
+      <c r="E101" t="s">
+        <v>505</v>
+      </c>
+      <c r="F101" t="s">
+        <v>794</v>
+      </c>
+      <c r="G101" t="s">
+        <v>506</v>
+      </c>
+      <c r="H101" t="s">
+        <v>507</v>
+      </c>
+      <c r="I101" t="s">
+        <v>733</v>
+      </c>
+      <c r="J101" t="s">
+        <v>504</v>
+      </c>
+      <c r="K101" t="s">
+        <v>505</v>
+      </c>
+      <c r="L101" t="s">
+        <v>891</v>
+      </c>
+      <c r="M101" t="s">
+        <v>508</v>
+      </c>
+      <c r="N101" t="s">
+        <v>509</v>
+      </c>
+      <c r="R101" t="s">
         <v>942</v>
       </c>
-      <c r="S43" t="s">
-        <v>262</v>
-      </c>
-      <c r="T43" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="44" spans="1:20">
-      <c r="A44" t="s">
-        <v>282</v>
-      </c>
-      <c r="B44" t="s">
-        <v>677</v>
-      </c>
-      <c r="C44" t="s">
-        <v>718</v>
-      </c>
-      <c r="D44" t="s">
-        <v>283</v>
-      </c>
-      <c r="E44" t="s">
-        <v>284</v>
-      </c>
-      <c r="F44" t="s">
-        <v>786</v>
-      </c>
-      <c r="G44" t="s">
-        <v>285</v>
-      </c>
-      <c r="H44" t="s">
-        <v>286</v>
-      </c>
-      <c r="I44" t="s">
-        <v>718</v>
-      </c>
-      <c r="J44" t="s">
-        <v>283</v>
-      </c>
-      <c r="K44" t="s">
-        <v>284</v>
-      </c>
-      <c r="L44" t="s">
-        <v>886</v>
-      </c>
-      <c r="M44" t="s">
-        <v>287</v>
-      </c>
-      <c r="N44" t="s">
-        <v>288</v>
-      </c>
-      <c r="R44" t="s">
-        <v>945</v>
-      </c>
-      <c r="S44" t="s">
-        <v>289</v>
-      </c>
-      <c r="T44" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="45" spans="1:20">
-      <c r="A45" t="s">
-        <v>273</v>
-      </c>
-      <c r="B45" t="s">
-        <v>677</v>
-      </c>
-      <c r="C45" t="s">
-        <v>717</v>
-      </c>
-      <c r="D45" t="s">
-        <v>274</v>
-      </c>
-      <c r="E45" t="s">
-        <v>275</v>
-      </c>
-      <c r="F45" t="s">
-        <v>785</v>
-      </c>
-      <c r="G45" t="s">
-        <v>276</v>
-      </c>
-      <c r="H45" t="s">
-        <v>277</v>
-      </c>
-      <c r="I45" t="s">
-        <v>717</v>
-      </c>
-      <c r="J45" t="s">
-        <v>274</v>
-      </c>
-      <c r="K45" t="s">
-        <v>275</v>
-      </c>
-      <c r="L45" t="s">
-        <v>864</v>
-      </c>
-      <c r="M45" t="s">
-        <v>278</v>
-      </c>
-      <c r="N45" t="s">
-        <v>279</v>
-      </c>
-      <c r="R45" t="s">
-        <v>944</v>
-      </c>
-      <c r="S45" t="s">
-        <v>280</v>
-      </c>
-      <c r="T45" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="46" spans="1:20">
-      <c r="A46" t="s">
-        <v>432</v>
-      </c>
-      <c r="B46" t="s">
-        <v>677</v>
-      </c>
-      <c r="C46" t="s">
-        <v>734</v>
-      </c>
-      <c r="D46" t="s">
-        <v>433</v>
-      </c>
-      <c r="E46" t="s">
-        <v>434</v>
-      </c>
-      <c r="F46" t="s">
-        <v>802</v>
-      </c>
-      <c r="G46" t="s">
-        <v>435</v>
-      </c>
-      <c r="H46" t="s">
-        <v>436</v>
-      </c>
-      <c r="I46" t="s">
-        <v>734</v>
-      </c>
-      <c r="J46" t="s">
-        <v>433</v>
-      </c>
-      <c r="K46" t="s">
-        <v>434</v>
-      </c>
-      <c r="L46" t="s">
-        <v>900</v>
-      </c>
-      <c r="M46" t="s">
-        <v>437</v>
-      </c>
-      <c r="N46" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="47" spans="1:20">
-      <c r="A47" t="s">
-        <v>416</v>
-      </c>
-      <c r="B47" t="s">
-        <v>677</v>
-      </c>
-      <c r="C47" t="s">
-        <v>417</v>
-      </c>
-      <c r="D47" t="s">
-        <v>417</v>
-      </c>
-      <c r="E47" t="s">
-        <v>418</v>
-      </c>
-      <c r="F47" t="s">
-        <v>800</v>
-      </c>
-      <c r="G47" t="s">
-        <v>419</v>
-      </c>
-      <c r="H47" t="s">
-        <v>420</v>
-      </c>
-      <c r="I47" t="s">
-        <v>417</v>
-      </c>
-      <c r="J47" t="s">
-        <v>417</v>
-      </c>
-      <c r="K47" t="s">
-        <v>418</v>
-      </c>
-      <c r="L47" t="s">
-        <v>898</v>
-      </c>
-      <c r="M47" t="s">
-        <v>421</v>
-      </c>
-      <c r="N47" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="48" spans="1:20">
-      <c r="A48" t="s">
-        <v>462</v>
-      </c>
-      <c r="B48" t="s">
-        <v>677</v>
-      </c>
-      <c r="C48" t="s">
-        <v>738</v>
-      </c>
-      <c r="D48" t="s">
-        <v>463</v>
-      </c>
-      <c r="E48" t="s">
-        <v>464</v>
-      </c>
-      <c r="F48" t="s">
-        <v>806</v>
-      </c>
-      <c r="G48" t="s">
-        <v>465</v>
-      </c>
-      <c r="H48" t="s">
-        <v>466</v>
-      </c>
-      <c r="I48" t="s">
-        <v>738</v>
-      </c>
-      <c r="J48" t="s">
-        <v>463</v>
-      </c>
-      <c r="K48" t="s">
-        <v>464</v>
-      </c>
-      <c r="L48" t="s">
-        <v>904</v>
-      </c>
-      <c r="M48" t="s">
-        <v>467</v>
-      </c>
-      <c r="N48" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="49" spans="1:20">
-      <c r="A49" t="s">
-        <v>439</v>
-      </c>
-      <c r="B49" t="s">
-        <v>677</v>
-      </c>
-      <c r="C49" t="s">
-        <v>735</v>
-      </c>
-      <c r="D49" t="s">
-        <v>440</v>
-      </c>
-      <c r="E49" t="s">
-        <v>441</v>
-      </c>
-      <c r="F49" t="s">
-        <v>803</v>
-      </c>
-      <c r="G49" t="s">
-        <v>442</v>
-      </c>
-      <c r="H49" t="s">
-        <v>443</v>
-      </c>
-      <c r="I49" t="s">
-        <v>735</v>
-      </c>
-      <c r="J49" t="s">
-        <v>440</v>
-      </c>
-      <c r="K49" t="s">
-        <v>441</v>
-      </c>
-      <c r="L49" t="s">
-        <v>901</v>
-      </c>
-      <c r="M49" t="s">
-        <v>444</v>
-      </c>
-      <c r="N49" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="50" spans="1:20">
-      <c r="A50" t="s">
-        <v>628</v>
-      </c>
-      <c r="B50" t="s">
-        <v>689</v>
-      </c>
-      <c r="C50" t="s">
-        <v>754</v>
-      </c>
-      <c r="D50" t="s">
-        <v>629</v>
-      </c>
-      <c r="E50" t="s">
-        <v>630</v>
-      </c>
-      <c r="F50" t="s">
-        <v>821</v>
-      </c>
-      <c r="G50" t="s">
-        <v>631</v>
-      </c>
-      <c r="H50" t="s">
-        <v>632</v>
-      </c>
-      <c r="I50" t="s">
-        <v>754</v>
-      </c>
-      <c r="J50" t="s">
-        <v>629</v>
-      </c>
-      <c r="K50" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="51" spans="1:20">
-      <c r="A51" t="s">
-        <v>446</v>
-      </c>
-      <c r="B51" t="s">
-        <v>684</v>
-      </c>
-      <c r="C51" t="s">
-        <v>736</v>
-      </c>
-      <c r="D51" t="s">
-        <v>447</v>
-      </c>
-      <c r="E51" t="s">
-        <v>448</v>
-      </c>
-      <c r="F51" t="s">
-        <v>804</v>
-      </c>
-      <c r="G51" t="s">
-        <v>449</v>
-      </c>
-      <c r="H51" t="s">
-        <v>450</v>
-      </c>
-      <c r="I51" t="s">
-        <v>736</v>
-      </c>
-      <c r="J51" t="s">
-        <v>447</v>
-      </c>
-      <c r="K51" t="s">
-        <v>448</v>
-      </c>
-      <c r="L51" t="s">
-        <v>902</v>
-      </c>
-      <c r="M51" t="s">
-        <v>451</v>
-      </c>
-      <c r="N51" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="52" spans="1:20">
-      <c r="A52" t="s">
-        <v>190</v>
-      </c>
-      <c r="B52" t="s">
-        <v>674</v>
-      </c>
-      <c r="C52" t="s">
-        <v>708</v>
-      </c>
-      <c r="D52" t="s">
-        <v>191</v>
-      </c>
-      <c r="E52" t="s">
-        <v>192</v>
-      </c>
-      <c r="F52" t="s">
-        <v>776</v>
-      </c>
-      <c r="G52" t="s">
-        <v>193</v>
-      </c>
-      <c r="H52" t="s">
-        <v>194</v>
-      </c>
-      <c r="I52" t="s">
-        <v>839</v>
-      </c>
-      <c r="J52" t="s">
-        <v>195</v>
-      </c>
-      <c r="K52" t="s">
-        <v>196</v>
-      </c>
-      <c r="L52" t="s">
-        <v>879</v>
-      </c>
-      <c r="M52" t="s">
-        <v>197</v>
-      </c>
-      <c r="N52" t="s">
-        <v>198</v>
-      </c>
-      <c r="R52" t="s">
-        <v>936</v>
-      </c>
-      <c r="S52" t="s">
-        <v>199</v>
-      </c>
-      <c r="T52" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="53" spans="1:20">
-      <c r="A53" t="s">
-        <v>453</v>
-      </c>
-      <c r="B53" t="s">
-        <v>683</v>
-      </c>
-      <c r="C53" t="s">
-        <v>737</v>
-      </c>
-      <c r="D53" t="s">
-        <v>454</v>
-      </c>
-      <c r="E53" t="s">
-        <v>455</v>
-      </c>
-      <c r="F53" t="s">
-        <v>805</v>
-      </c>
-      <c r="G53" t="s">
-        <v>456</v>
-      </c>
-      <c r="H53" t="s">
-        <v>457</v>
-      </c>
-      <c r="I53" t="s">
-        <v>737</v>
-      </c>
-      <c r="J53" t="s">
-        <v>454</v>
-      </c>
-      <c r="K53" t="s">
-        <v>455</v>
-      </c>
-      <c r="L53" t="s">
-        <v>903</v>
-      </c>
-      <c r="M53" t="s">
-        <v>458</v>
-      </c>
-      <c r="N53" t="s">
-        <v>459</v>
-      </c>
-      <c r="R53" t="s">
-        <v>955</v>
-      </c>
-      <c r="S53" t="s">
-        <v>460</v>
-      </c>
-      <c r="T53" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="54" spans="1:20">
-      <c r="A54" t="s">
-        <v>397</v>
-      </c>
-      <c r="B54" t="s">
-        <v>683</v>
-      </c>
-      <c r="C54" t="s">
-        <v>730</v>
-      </c>
-      <c r="D54" t="s">
-        <v>398</v>
-      </c>
-      <c r="E54" t="s">
-        <v>399</v>
-      </c>
-      <c r="F54" t="s">
-        <v>798</v>
-      </c>
-      <c r="G54" t="s">
-        <v>400</v>
-      </c>
-      <c r="H54" t="s">
-        <v>401</v>
-      </c>
-      <c r="I54" t="s">
-        <v>730</v>
-      </c>
-      <c r="J54" t="s">
-        <v>398</v>
-      </c>
-      <c r="K54" t="s">
-        <v>399</v>
-      </c>
-      <c r="L54" t="s">
-        <v>896</v>
-      </c>
-      <c r="M54" t="s">
-        <v>402</v>
-      </c>
-      <c r="N54" t="s">
-        <v>403</v>
-      </c>
-      <c r="R54" t="s">
-        <v>952</v>
-      </c>
-      <c r="S54" t="s">
-        <v>404</v>
-      </c>
-      <c r="T54" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="55" spans="1:20">
-      <c r="A55" t="s">
-        <v>413</v>
-      </c>
-      <c r="B55" t="s">
-        <v>683</v>
-      </c>
-      <c r="C55" t="s">
-        <v>732</v>
-      </c>
-      <c r="D55" t="s">
-        <v>414</v>
-      </c>
-      <c r="E55" t="s">
-        <v>415</v>
-      </c>
-      <c r="F55" t="s">
-        <v>799</v>
-      </c>
-      <c r="G55" t="s">
-        <v>409</v>
-      </c>
-      <c r="H55" t="s">
-        <v>410</v>
-      </c>
-      <c r="I55" t="s">
-        <v>732</v>
-      </c>
-      <c r="J55" t="s">
-        <v>414</v>
-      </c>
-      <c r="K55" t="s">
-        <v>415</v>
-      </c>
-      <c r="L55" t="s">
-        <v>897</v>
-      </c>
-      <c r="M55" t="s">
-        <v>411</v>
-      </c>
-      <c r="N55" t="s">
-        <v>412</v>
-      </c>
-      <c r="R55" t="s">
-        <v>952</v>
-      </c>
-      <c r="S55" t="s">
-        <v>404</v>
-      </c>
-      <c r="T55" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="56" spans="1:20">
-      <c r="A56" t="s">
-        <v>406</v>
-      </c>
-      <c r="B56" t="s">
-        <v>683</v>
-      </c>
-      <c r="C56" t="s">
-        <v>731</v>
-      </c>
-      <c r="D56" t="s">
-        <v>407</v>
-      </c>
-      <c r="E56" t="s">
-        <v>408</v>
-      </c>
-      <c r="F56" t="s">
-        <v>799</v>
-      </c>
-      <c r="G56" t="s">
-        <v>409</v>
-      </c>
-      <c r="H56" t="s">
-        <v>410</v>
-      </c>
-      <c r="I56" t="s">
-        <v>731</v>
-      </c>
-      <c r="J56" t="s">
-        <v>407</v>
-      </c>
-      <c r="K56" t="s">
-        <v>408</v>
-      </c>
-      <c r="L56" t="s">
-        <v>897</v>
-      </c>
-      <c r="M56" t="s">
-        <v>411</v>
-      </c>
-      <c r="N56" t="s">
-        <v>412</v>
-      </c>
-      <c r="R56" t="s">
-        <v>952</v>
-      </c>
-      <c r="S56" t="s">
-        <v>404</v>
-      </c>
-      <c r="T56" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="57" spans="1:20">
-      <c r="A57" t="s">
-        <v>318</v>
-      </c>
-      <c r="B57" t="s">
-        <v>678</v>
-      </c>
-      <c r="C57" t="s">
-        <v>721</v>
-      </c>
-      <c r="D57" t="s">
-        <v>319</v>
-      </c>
-      <c r="E57" t="s">
-        <v>320</v>
-      </c>
-      <c r="F57" t="s">
-        <v>789</v>
-      </c>
-      <c r="G57" t="s">
-        <v>321</v>
-      </c>
-      <c r="H57" t="s">
-        <v>322</v>
-      </c>
-      <c r="I57" t="s">
-        <v>844</v>
-      </c>
-      <c r="J57" t="s">
-        <v>323</v>
-      </c>
-      <c r="K57" t="s">
-        <v>320</v>
-      </c>
-      <c r="L57" t="s">
-        <v>888</v>
-      </c>
-      <c r="M57" t="s">
-        <v>324</v>
-      </c>
-      <c r="N57" t="s">
-        <v>325</v>
-      </c>
-      <c r="R57" t="s">
-        <v>948</v>
-      </c>
-      <c r="S57" t="s">
-        <v>326</v>
-      </c>
-      <c r="T57" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="58" spans="1:20">
-      <c r="A58" t="s">
-        <v>221</v>
-      </c>
-      <c r="B58" t="s">
-        <v>675</v>
-      </c>
-      <c r="C58" t="s">
-        <v>711</v>
-      </c>
-      <c r="D58" t="s">
-        <v>222</v>
-      </c>
-      <c r="E58" t="s">
-        <v>223</v>
-      </c>
-      <c r="F58" t="s">
-        <v>779</v>
-      </c>
-      <c r="G58" t="s">
-        <v>224</v>
-      </c>
-      <c r="H58" t="s">
-        <v>225</v>
-      </c>
-      <c r="I58" t="s">
-        <v>841</v>
-      </c>
-      <c r="J58" t="s">
-        <v>222</v>
-      </c>
-      <c r="K58" t="s">
-        <v>223</v>
-      </c>
-      <c r="L58" t="s">
-        <v>965</v>
-      </c>
-      <c r="M58" t="s">
-        <v>226</v>
-      </c>
-      <c r="N58" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="59" spans="1:20">
-      <c r="A59" t="s">
-        <v>577</v>
-      </c>
-      <c r="B59" t="s">
-        <v>675</v>
-      </c>
-      <c r="C59" t="s">
-        <v>748</v>
-      </c>
-      <c r="D59" t="s">
-        <v>578</v>
-      </c>
-      <c r="E59" t="s">
-        <v>579</v>
-      </c>
-      <c r="F59" t="s">
-        <v>817</v>
-      </c>
-      <c r="G59" t="s">
-        <v>580</v>
-      </c>
-      <c r="H59" t="s">
-        <v>581</v>
-      </c>
-      <c r="I59" t="s">
-        <v>852</v>
-      </c>
-      <c r="J59" t="s">
-        <v>582</v>
-      </c>
-      <c r="K59" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="60" spans="1:20">
-      <c r="A60" t="s">
-        <v>618</v>
-      </c>
-      <c r="B60" t="s">
-        <v>675</v>
-      </c>
-      <c r="C60" t="s">
-        <v>749</v>
-      </c>
-      <c r="D60" t="s">
-        <v>594</v>
-      </c>
-      <c r="E60" t="s">
-        <v>595</v>
-      </c>
-      <c r="I60" t="s">
-        <v>858</v>
-      </c>
-      <c r="J60" t="s">
-        <v>619</v>
-      </c>
-      <c r="K60" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="61" spans="1:20">
-      <c r="A61" t="s">
-        <v>649</v>
-      </c>
-      <c r="B61" t="s">
-        <v>690</v>
-      </c>
-      <c r="C61" t="s">
-        <v>757</v>
-      </c>
-      <c r="D61" t="s">
-        <v>650</v>
-      </c>
-      <c r="E61" t="s">
-        <v>651</v>
-      </c>
-      <c r="F61" t="s">
-        <v>824</v>
-      </c>
-      <c r="G61" t="s">
-        <v>652</v>
-      </c>
-      <c r="H61" t="s">
-        <v>653</v>
-      </c>
-      <c r="L61" t="s">
-        <v>916</v>
-      </c>
-      <c r="M61" t="s">
-        <v>647</v>
-      </c>
-      <c r="N61" t="s">
-        <v>648</v>
-      </c>
-      <c r="R61" t="s">
-        <v>963</v>
-      </c>
-      <c r="S61" t="s">
-        <v>640</v>
-      </c>
-      <c r="T61" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="62" spans="1:20">
-      <c r="A62" t="s">
-        <v>642</v>
-      </c>
-      <c r="B62" t="s">
-        <v>690</v>
-      </c>
-      <c r="C62" t="s">
-        <v>756</v>
-      </c>
-      <c r="D62" t="s">
-        <v>643</v>
-      </c>
-      <c r="E62" t="s">
-        <v>644</v>
-      </c>
-      <c r="F62" t="s">
-        <v>823</v>
-      </c>
-      <c r="G62" t="s">
-        <v>645</v>
-      </c>
-      <c r="H62" t="s">
-        <v>646</v>
-      </c>
-      <c r="L62" t="s">
-        <v>916</v>
-      </c>
-      <c r="M62" t="s">
-        <v>647</v>
-      </c>
-      <c r="N62" t="s">
-        <v>648</v>
-      </c>
-      <c r="R62" t="s">
-        <v>963</v>
-      </c>
-      <c r="S62" t="s">
-        <v>640</v>
-      </c>
-      <c r="T62" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="63" spans="1:20">
-      <c r="A63" t="s">
-        <v>633</v>
-      </c>
-      <c r="B63" t="s">
-        <v>690</v>
-      </c>
-      <c r="C63" t="s">
-        <v>755</v>
-      </c>
-      <c r="D63" t="s">
-        <v>634</v>
-      </c>
-      <c r="E63" t="s">
-        <v>635</v>
-      </c>
-      <c r="F63" t="s">
-        <v>822</v>
-      </c>
-      <c r="G63" t="s">
-        <v>636</v>
-      </c>
-      <c r="H63" t="s">
-        <v>637</v>
-      </c>
-      <c r="L63" t="s">
-        <v>915</v>
-      </c>
-      <c r="M63" t="s">
-        <v>638</v>
-      </c>
-      <c r="N63" t="s">
-        <v>639</v>
-      </c>
-      <c r="R63" t="s">
-        <v>963</v>
-      </c>
-      <c r="S63" t="s">
-        <v>640</v>
-      </c>
-      <c r="T63" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="64" spans="1:20">
-      <c r="A64" t="s">
-        <v>71</v>
-      </c>
-      <c r="B64" t="s">
-        <v>672</v>
-      </c>
-      <c r="C64" t="s">
-        <v>696</v>
-      </c>
-      <c r="D64" t="s">
-        <v>72</v>
-      </c>
-      <c r="E64" t="s">
-        <v>73</v>
-      </c>
-      <c r="F64" t="s">
-        <v>765</v>
-      </c>
-      <c r="G64" t="s">
-        <v>74</v>
-      </c>
-      <c r="H64" t="s">
-        <v>75</v>
-      </c>
-      <c r="I64" t="s">
-        <v>828</v>
-      </c>
-      <c r="J64" t="s">
-        <v>76</v>
-      </c>
-      <c r="K64" t="s">
-        <v>77</v>
-      </c>
-      <c r="L64" s="2" t="s">
-        <v>889</v>
-      </c>
-      <c r="M64" t="s">
-        <v>78</v>
-      </c>
-      <c r="N64" t="s">
-        <v>79</v>
-      </c>
-      <c r="O64" t="s">
-        <v>920</v>
-      </c>
-      <c r="P64" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q64" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="65" spans="1:20">
-      <c r="A65" t="s">
-        <v>120</v>
-      </c>
-      <c r="B65" t="s">
-        <v>673</v>
-      </c>
-      <c r="C65" t="s">
-        <v>701</v>
-      </c>
-      <c r="D65" t="s">
-        <v>121</v>
-      </c>
-      <c r="E65" t="s">
-        <v>122</v>
-      </c>
-      <c r="F65" t="s">
-        <v>770</v>
-      </c>
-      <c r="G65" t="s">
-        <v>123</v>
-      </c>
-      <c r="H65" t="s">
-        <v>124</v>
-      </c>
-      <c r="I65" t="s">
-        <v>832</v>
-      </c>
-      <c r="J65" t="s">
-        <v>125</v>
-      </c>
-      <c r="K65" t="s">
-        <v>122</v>
-      </c>
-      <c r="L65" t="s">
-        <v>873</v>
-      </c>
-      <c r="M65" t="s">
-        <v>126</v>
-      </c>
-      <c r="N65" t="s">
-        <v>127</v>
-      </c>
-      <c r="R65" t="s">
-        <v>929</v>
-      </c>
-      <c r="S65" t="s">
-        <v>128</v>
-      </c>
-      <c r="T65" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="66" spans="1:20">
-      <c r="A66" t="s">
-        <v>31</v>
-      </c>
-      <c r="B66" t="s">
-        <v>669</v>
-      </c>
-      <c r="C66" t="s">
-        <v>693</v>
-      </c>
-      <c r="D66" t="s">
-        <v>32</v>
-      </c>
-      <c r="E66" t="s">
-        <v>33</v>
-      </c>
-      <c r="F66" t="s">
-        <v>761</v>
-      </c>
-      <c r="G66" t="s">
-        <v>34</v>
-      </c>
-      <c r="H66" t="s">
-        <v>35</v>
-      </c>
-      <c r="I66" t="s">
-        <v>693</v>
-      </c>
-      <c r="J66" t="s">
-        <v>32</v>
-      </c>
-      <c r="K66" t="s">
-        <v>33</v>
-      </c>
-      <c r="L66" t="s">
-        <v>861</v>
-      </c>
-      <c r="M66" t="s">
-        <v>36</v>
-      </c>
-      <c r="N66" t="s">
-        <v>37</v>
-      </c>
-      <c r="R66" t="s">
-        <v>924</v>
-      </c>
-      <c r="S66" t="s">
-        <v>38</v>
-      </c>
-      <c r="T66" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="67" spans="1:20">
-      <c r="A67" t="s">
-        <v>335</v>
-      </c>
-      <c r="B67" t="s">
-        <v>679</v>
-      </c>
-      <c r="C67" t="s">
-        <v>722</v>
-      </c>
-      <c r="D67" t="s">
-        <v>336</v>
-      </c>
-      <c r="E67" t="s">
-        <v>337</v>
-      </c>
-      <c r="F67" t="s">
-        <v>790</v>
-      </c>
-      <c r="G67" t="s">
-        <v>338</v>
-      </c>
-      <c r="H67" t="s">
-        <v>339</v>
-      </c>
-      <c r="I67" t="s">
-        <v>845</v>
-      </c>
-      <c r="J67" t="s">
-        <v>336</v>
-      </c>
-      <c r="K67" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="68" spans="1:20">
-      <c r="A68" t="s">
-        <v>512</v>
-      </c>
-      <c r="B68" t="s">
-        <v>685</v>
-      </c>
-      <c r="C68" t="s">
-        <v>743</v>
-      </c>
-      <c r="D68" t="s">
-        <v>513</v>
-      </c>
-      <c r="E68" t="s">
-        <v>514</v>
-      </c>
-      <c r="F68" t="s">
-        <v>811</v>
-      </c>
-      <c r="G68" t="s">
-        <v>515</v>
-      </c>
-      <c r="H68" t="s">
-        <v>516</v>
-      </c>
-      <c r="I68" t="s">
-        <v>848</v>
-      </c>
-      <c r="J68" t="s">
-        <v>517</v>
-      </c>
-      <c r="K68" t="s">
-        <v>518</v>
-      </c>
-      <c r="L68" t="s">
-        <v>909</v>
-      </c>
-      <c r="M68" t="s">
-        <v>519</v>
-      </c>
-      <c r="N68" t="s">
-        <v>520</v>
-      </c>
-      <c r="R68" t="s">
-        <v>960</v>
-      </c>
-      <c r="S68" t="s">
-        <v>521</v>
-      </c>
-      <c r="T68" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="69" spans="1:20">
-      <c r="A69" t="s">
-        <v>543</v>
-      </c>
-      <c r="B69" t="s">
-        <v>687</v>
-      </c>
-      <c r="C69" t="s">
-        <v>746</v>
-      </c>
-      <c r="D69" t="s">
-        <v>544</v>
-      </c>
-      <c r="E69" t="s">
-        <v>545</v>
-      </c>
-      <c r="F69" t="s">
-        <v>814</v>
-      </c>
-      <c r="G69" t="s">
-        <v>546</v>
-      </c>
-      <c r="H69" t="s">
-        <v>547</v>
-      </c>
-      <c r="I69" t="s">
-        <v>850</v>
-      </c>
-      <c r="J69" t="s">
-        <v>548</v>
-      </c>
-      <c r="K69" t="s">
-        <v>549</v>
-      </c>
-      <c r="L69" t="s">
-        <v>911</v>
-      </c>
-      <c r="M69" t="s">
-        <v>550</v>
-      </c>
-      <c r="N69" t="s">
-        <v>551</v>
-      </c>
-      <c r="R69" t="s">
-        <v>962</v>
-      </c>
-      <c r="S69" t="s">
-        <v>552</v>
-      </c>
-      <c r="T69" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="70" spans="1:20">
-      <c r="A70" t="s">
-        <v>340</v>
-      </c>
-      <c r="B70" t="s">
-        <v>680</v>
-      </c>
-      <c r="C70" t="s">
-        <v>723</v>
-      </c>
-      <c r="D70" t="s">
-        <v>341</v>
-      </c>
-      <c r="E70" t="s">
-        <v>342</v>
-      </c>
-      <c r="F70" t="s">
-        <v>791</v>
-      </c>
-      <c r="G70" t="s">
-        <v>343</v>
-      </c>
-      <c r="H70" t="s">
-        <v>344</v>
-      </c>
-      <c r="I70" t="s">
-        <v>723</v>
-      </c>
-      <c r="J70" t="s">
-        <v>341</v>
-      </c>
-      <c r="K70" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="71" spans="1:20">
-      <c r="A71" t="s">
-        <v>228</v>
-      </c>
-      <c r="B71" t="s">
-        <v>676</v>
-      </c>
-      <c r="C71" t="s">
-        <v>712</v>
-      </c>
-      <c r="D71" t="s">
-        <v>229</v>
-      </c>
-      <c r="E71" t="s">
-        <v>230</v>
-      </c>
-      <c r="F71" t="s">
-        <v>780</v>
-      </c>
-      <c r="G71" t="s">
-        <v>231</v>
-      </c>
-      <c r="H71" t="s">
-        <v>232</v>
-      </c>
-      <c r="I71" t="s">
-        <v>842</v>
-      </c>
-      <c r="J71" t="s">
-        <v>229</v>
-      </c>
-      <c r="K71" t="s">
-        <v>230</v>
-      </c>
-      <c r="L71" t="s">
-        <v>881</v>
-      </c>
-      <c r="M71" t="s">
-        <v>233</v>
-      </c>
-      <c r="N71" t="s">
-        <v>234</v>
-      </c>
-      <c r="R71" t="s">
-        <v>939</v>
-      </c>
-      <c r="S71" t="s">
-        <v>235</v>
-      </c>
-      <c r="T71" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="72" spans="1:20">
-      <c r="A72" t="s">
-        <v>237</v>
-      </c>
-      <c r="B72" t="s">
-        <v>676</v>
-      </c>
-      <c r="C72" t="s">
-        <v>713</v>
-      </c>
-      <c r="D72" t="s">
-        <v>238</v>
-      </c>
-      <c r="E72" t="s">
-        <v>239</v>
-      </c>
-      <c r="F72" t="s">
-        <v>781</v>
-      </c>
-      <c r="G72" t="s">
-        <v>240</v>
-      </c>
-      <c r="H72" t="s">
-        <v>241</v>
-      </c>
-      <c r="I72" t="s">
-        <v>713</v>
-      </c>
-      <c r="J72" t="s">
-        <v>238</v>
-      </c>
-      <c r="K72" t="s">
-        <v>239</v>
-      </c>
-      <c r="L72" t="s">
-        <v>882</v>
-      </c>
-      <c r="M72" t="s">
-        <v>242</v>
-      </c>
-      <c r="N72" t="s">
-        <v>243</v>
-      </c>
-      <c r="R72" t="s">
-        <v>940</v>
-      </c>
-      <c r="S72" t="s">
-        <v>244</v>
-      </c>
-      <c r="T72" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="73" spans="1:20">
-      <c r="A73" t="s">
-        <v>328</v>
-      </c>
-      <c r="B73" t="s">
-        <v>966</v>
-      </c>
-      <c r="C73" t="s">
-        <v>988</v>
-      </c>
-      <c r="D73" t="s">
-        <v>988</v>
-      </c>
-      <c r="E73" t="s">
-        <v>329</v>
-      </c>
-      <c r="F73" t="s">
-        <v>992</v>
-      </c>
-      <c r="G73" t="s">
-        <v>969</v>
-      </c>
-      <c r="H73" t="s">
-        <v>970</v>
-      </c>
-      <c r="I73" t="s">
-        <v>997</v>
-      </c>
-      <c r="J73" t="s">
-        <v>330</v>
-      </c>
-      <c r="K73" t="s">
-        <v>329</v>
-      </c>
-      <c r="L73" t="s">
-        <v>1059</v>
-      </c>
-      <c r="M73" t="s">
-        <v>331</v>
-      </c>
-      <c r="N73" t="s">
-        <v>332</v>
-      </c>
-      <c r="R73" t="s">
-        <v>1147</v>
-      </c>
-      <c r="S73" t="s">
-        <v>333</v>
-      </c>
-      <c r="T73" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="74" spans="1:20">
-      <c r="A74" t="s">
-        <v>311</v>
-      </c>
-      <c r="B74" t="s">
-        <v>966</v>
-      </c>
-      <c r="C74" t="s">
-        <v>987</v>
-      </c>
-      <c r="D74" t="s">
-        <v>987</v>
-      </c>
-      <c r="E74" t="s">
-        <v>313</v>
-      </c>
-      <c r="F74" t="s">
-        <v>991</v>
-      </c>
-      <c r="G74" t="s">
-        <v>967</v>
-      </c>
-      <c r="H74" t="s">
-        <v>968</v>
-      </c>
-      <c r="I74" t="s">
-        <v>996</v>
-      </c>
-      <c r="J74" t="s">
-        <v>312</v>
-      </c>
-      <c r="K74" t="s">
-        <v>313</v>
-      </c>
-      <c r="L74" t="s">
-        <v>1058</v>
-      </c>
-      <c r="M74" t="s">
-        <v>314</v>
-      </c>
-      <c r="N74" t="s">
-        <v>315</v>
-      </c>
-      <c r="R74" t="s">
-        <v>1146</v>
-      </c>
-      <c r="S74" t="s">
-        <v>316</v>
-      </c>
-      <c r="T74" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="75" spans="1:20">
-      <c r="A75" t="s">
-        <v>971</v>
-      </c>
-      <c r="B75" t="s">
-        <v>966</v>
-      </c>
-      <c r="C75" t="s">
-        <v>989</v>
-      </c>
-      <c r="D75" t="s">
-        <v>989</v>
-      </c>
-      <c r="E75" t="s">
-        <v>973</v>
-      </c>
-      <c r="F75" t="s">
-        <v>993</v>
-      </c>
-      <c r="G75" t="s">
-        <v>974</v>
-      </c>
-      <c r="H75" t="s">
-        <v>975</v>
-      </c>
-      <c r="I75" t="s">
-        <v>1164</v>
-      </c>
-      <c r="J75" t="s">
-        <v>972</v>
-      </c>
-      <c r="K75" t="s">
-        <v>973</v>
-      </c>
-      <c r="L75" t="s">
-        <v>1060</v>
-      </c>
-      <c r="M75" t="s">
-        <v>976</v>
-      </c>
-      <c r="N75" t="s">
-        <v>977</v>
-      </c>
-      <c r="R75" t="s">
-        <v>1148</v>
-      </c>
-      <c r="S75" t="s">
-        <v>978</v>
-      </c>
-      <c r="T75" t="s">
-        <v>979</v>
-      </c>
-    </row>
-    <row r="76" spans="1:20">
-      <c r="A76" t="s">
-        <v>980</v>
-      </c>
-      <c r="B76" t="s">
-        <v>966</v>
-      </c>
-      <c r="C76" t="s">
-        <v>990</v>
-      </c>
-      <c r="D76" t="s">
-        <v>990</v>
-      </c>
-      <c r="E76" t="s">
-        <v>982</v>
-      </c>
-      <c r="F76" t="s">
-        <v>994</v>
-      </c>
-      <c r="G76" t="s">
-        <v>983</v>
-      </c>
-      <c r="H76" t="s">
-        <v>984</v>
-      </c>
-      <c r="I76" t="s">
-        <v>990</v>
-      </c>
-      <c r="J76" t="s">
-        <v>981</v>
-      </c>
-      <c r="K76" t="s">
-        <v>982</v>
-      </c>
-      <c r="L76" t="s">
-        <v>1061</v>
-      </c>
-      <c r="M76" t="s">
-        <v>985</v>
-      </c>
-      <c r="N76" t="s">
-        <v>986</v>
-      </c>
-    </row>
-    <row r="77" spans="1:20">
-      <c r="A77" t="s">
-        <v>345</v>
-      </c>
-      <c r="B77" t="s">
-        <v>681</v>
-      </c>
-      <c r="C77" t="s">
-        <v>724</v>
-      </c>
-      <c r="D77" t="s">
-        <v>346</v>
-      </c>
-      <c r="E77" t="s">
-        <v>347</v>
-      </c>
-      <c r="F77" t="s">
-        <v>792</v>
-      </c>
-      <c r="G77" t="s">
-        <v>348</v>
-      </c>
-      <c r="H77" t="s">
-        <v>349</v>
-      </c>
-      <c r="I77" t="s">
-        <v>724</v>
-      </c>
-      <c r="J77" t="s">
-        <v>346</v>
-      </c>
-      <c r="K77" t="s">
-        <v>347</v>
-      </c>
-      <c r="L77" t="s">
-        <v>890</v>
-      </c>
-      <c r="M77" t="s">
-        <v>350</v>
-      </c>
-      <c r="N77" t="s">
-        <v>351</v>
-      </c>
-      <c r="R77" t="s">
-        <v>1160</v>
-      </c>
-      <c r="S77" t="s">
-        <v>352</v>
-      </c>
-      <c r="T77" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="78" spans="1:20">
-      <c r="A78" t="s">
-        <v>237</v>
-      </c>
-      <c r="B78" t="s">
-        <v>1001</v>
-      </c>
-      <c r="C78" t="s">
-        <v>1039</v>
-      </c>
-      <c r="D78" t="s">
-        <v>238</v>
-      </c>
-      <c r="E78" t="s">
-        <v>239</v>
-      </c>
-      <c r="F78" t="s">
-        <v>1046</v>
-      </c>
-      <c r="G78" t="s">
-        <v>1002</v>
-      </c>
-      <c r="H78" t="s">
-        <v>1003</v>
-      </c>
-      <c r="I78" t="s">
-        <v>1039</v>
-      </c>
-      <c r="J78" t="s">
-        <v>238</v>
-      </c>
-      <c r="K78" t="s">
-        <v>239</v>
-      </c>
-      <c r="L78" t="s">
-        <v>1052</v>
-      </c>
-      <c r="M78" t="s">
-        <v>242</v>
-      </c>
-      <c r="N78" t="s">
-        <v>243</v>
-      </c>
-      <c r="R78" t="s">
-        <v>1149</v>
-      </c>
-      <c r="S78" t="s">
-        <v>244</v>
-      </c>
-      <c r="T78" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="79" spans="1:20">
-      <c r="A79" t="s">
-        <v>1004</v>
-      </c>
-      <c r="B79" t="s">
-        <v>1005</v>
-      </c>
-      <c r="C79" t="s">
-        <v>1040</v>
-      </c>
-      <c r="D79" t="s">
-        <v>1006</v>
-      </c>
-      <c r="E79" t="s">
-        <v>1007</v>
-      </c>
-      <c r="F79" t="s">
-        <v>1047</v>
-      </c>
-      <c r="G79" t="s">
-        <v>1008</v>
-      </c>
-      <c r="H79" t="s">
-        <v>1009</v>
-      </c>
-      <c r="I79" t="s">
-        <v>1040</v>
-      </c>
-      <c r="J79" t="s">
-        <v>1006</v>
-      </c>
-      <c r="K79" t="s">
-        <v>1007</v>
-      </c>
-      <c r="L79" t="s">
-        <v>1053</v>
-      </c>
-      <c r="M79" t="s">
-        <v>1010</v>
-      </c>
-      <c r="N79" t="s">
-        <v>1011</v>
-      </c>
-    </row>
-    <row r="80" spans="1:20">
-      <c r="A80" t="s">
-        <v>1012</v>
-      </c>
-      <c r="B80" t="s">
-        <v>1013</v>
-      </c>
-      <c r="C80" t="s">
-        <v>1041</v>
-      </c>
-      <c r="D80" t="s">
-        <v>1015</v>
-      </c>
-      <c r="E80" t="s">
-        <v>1014</v>
-      </c>
-      <c r="F80" t="s">
-        <v>1048</v>
-      </c>
-      <c r="G80" t="s">
-        <v>1016</v>
-      </c>
-      <c r="H80" t="s">
-        <v>1017</v>
-      </c>
-      <c r="I80" t="s">
-        <v>1041</v>
-      </c>
-      <c r="J80" t="s">
-        <v>1015</v>
-      </c>
-      <c r="K80" t="s">
-        <v>1014</v>
-      </c>
-      <c r="L80" t="s">
-        <v>1054</v>
-      </c>
-      <c r="M80" t="s">
-        <v>1018</v>
-      </c>
-      <c r="N80" t="s">
-        <v>1019</v>
-      </c>
-      <c r="R80" t="s">
-        <v>1150</v>
-      </c>
-      <c r="S80" t="s">
-        <v>1020</v>
-      </c>
-      <c r="T80" t="s">
-        <v>1021</v>
-      </c>
-    </row>
-    <row r="81" spans="1:20">
-      <c r="A81" t="s">
-        <v>1022</v>
-      </c>
-      <c r="B81" t="s">
-        <v>1023</v>
-      </c>
-      <c r="C81" t="s">
-        <v>1042</v>
-      </c>
-      <c r="D81" t="s">
-        <v>1024</v>
-      </c>
-      <c r="E81" t="s">
-        <v>1025</v>
-      </c>
-      <c r="F81" t="s">
-        <v>1049</v>
-      </c>
-      <c r="G81" t="s">
-        <v>409</v>
-      </c>
-      <c r="H81" t="s">
-        <v>410</v>
-      </c>
-      <c r="I81" t="s">
-        <v>1042</v>
-      </c>
-      <c r="J81" t="s">
-        <v>1024</v>
-      </c>
-      <c r="K81" t="s">
-        <v>1025</v>
-      </c>
-      <c r="L81" t="s">
-        <v>1055</v>
-      </c>
-      <c r="M81" t="s">
-        <v>411</v>
-      </c>
-      <c r="N81" t="s">
-        <v>412</v>
-      </c>
-      <c r="R81" t="s">
-        <v>1151</v>
-      </c>
-      <c r="S81" t="s">
-        <v>404</v>
-      </c>
-      <c r="T81" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="82" spans="1:20">
-      <c r="A82" t="s">
-        <v>1026</v>
-      </c>
-      <c r="B82" t="s">
-        <v>1027</v>
-      </c>
-      <c r="C82" t="s">
-        <v>1043</v>
-      </c>
-      <c r="D82" t="s">
-        <v>1028</v>
-      </c>
-      <c r="E82" t="s">
-        <v>1029</v>
-      </c>
-      <c r="F82" t="s">
-        <v>1050</v>
-      </c>
-      <c r="G82" t="s">
-        <v>1030</v>
-      </c>
-      <c r="H82" t="s">
-        <v>1031</v>
-      </c>
-      <c r="I82" t="s">
-        <v>1043</v>
-      </c>
-      <c r="J82" t="s">
-        <v>1028</v>
-      </c>
-      <c r="K82" t="s">
-        <v>1029</v>
-      </c>
-      <c r="L82" t="s">
-        <v>1056</v>
-      </c>
-      <c r="M82" t="s">
-        <v>1032</v>
-      </c>
-      <c r="N82" t="s">
-        <v>1033</v>
-      </c>
-      <c r="R82" t="s">
-        <v>1152</v>
-      </c>
-      <c r="S82" t="s">
-        <v>1034</v>
-      </c>
-      <c r="T82" t="s">
-        <v>1035</v>
-      </c>
-    </row>
-    <row r="83" spans="1:20">
-      <c r="A83" t="s">
-        <v>423</v>
-      </c>
-      <c r="B83" t="s">
-        <v>1027</v>
-      </c>
-      <c r="C83" t="s">
-        <v>1044</v>
-      </c>
-      <c r="D83" t="s">
-        <v>424</v>
-      </c>
-      <c r="E83" t="s">
-        <v>425</v>
-      </c>
-      <c r="F83" t="s">
-        <v>1051</v>
-      </c>
-      <c r="G83" t="s">
-        <v>1036</v>
-      </c>
-      <c r="H83" t="s">
-        <v>1037</v>
-      </c>
-      <c r="I83" t="s">
-        <v>1044</v>
-      </c>
-      <c r="J83" t="s">
-        <v>424</v>
-      </c>
-      <c r="K83" t="s">
-        <v>425</v>
-      </c>
-      <c r="L83" t="s">
-        <v>1057</v>
-      </c>
-      <c r="M83" t="s">
-        <v>428</v>
-      </c>
-      <c r="N83" t="s">
-        <v>429</v>
-      </c>
-      <c r="R83" t="s">
-        <v>1153</v>
-      </c>
-      <c r="S83" t="s">
-        <v>430</v>
-      </c>
-      <c r="T83" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="84" spans="1:20">
-      <c r="A84" t="s">
-        <v>1062</v>
-      </c>
-      <c r="B84" t="s">
-        <v>1063</v>
-      </c>
-      <c r="C84" t="s">
-        <v>1112</v>
-      </c>
-      <c r="D84" t="s">
-        <v>1064</v>
-      </c>
-      <c r="E84" t="s">
-        <v>1065</v>
-      </c>
-      <c r="F84" t="s">
-        <v>1119</v>
-      </c>
-      <c r="G84" t="s">
-        <v>1066</v>
-      </c>
-      <c r="H84" t="s">
-        <v>1067</v>
-      </c>
-      <c r="I84" t="s">
-        <v>1112</v>
-      </c>
-      <c r="J84" t="s">
-        <v>1064</v>
-      </c>
-      <c r="K84" t="s">
-        <v>1065</v>
-      </c>
-      <c r="L84" t="s">
-        <v>1166</v>
-      </c>
-      <c r="M84" t="s">
-        <v>1068</v>
-      </c>
-      <c r="N84" t="s">
-        <v>1069</v>
-      </c>
-      <c r="R84" t="s">
-        <v>1154</v>
-      </c>
-      <c r="S84" t="s">
-        <v>1070</v>
-      </c>
-      <c r="T84" t="s">
-        <v>1071</v>
-      </c>
-    </row>
-    <row r="85" spans="1:20">
-      <c r="A85" t="s">
-        <v>1072</v>
-      </c>
-      <c r="B85" t="s">
-        <v>1073</v>
-      </c>
-      <c r="C85" t="s">
-        <v>1113</v>
-      </c>
-      <c r="D85" t="s">
-        <v>1074</v>
-      </c>
-      <c r="E85" t="s">
-        <v>1075</v>
-      </c>
-      <c r="F85" t="s">
-        <v>1120</v>
-      </c>
-      <c r="G85" t="s">
-        <v>1076</v>
-      </c>
-      <c r="H85" t="s">
-        <v>1077</v>
-      </c>
-      <c r="I85" t="s">
-        <v>1163</v>
-      </c>
-      <c r="J85" t="s">
-        <v>1074</v>
-      </c>
-      <c r="K85" t="s">
-        <v>1075</v>
-      </c>
-    </row>
-    <row r="86" spans="1:20">
-      <c r="A86" t="s">
-        <v>1078</v>
-      </c>
-      <c r="B86" t="s">
-        <v>1079</v>
-      </c>
-      <c r="C86" t="s">
-        <v>1114</v>
-      </c>
-      <c r="D86" t="s">
-        <v>1080</v>
-      </c>
-      <c r="E86" t="s">
-        <v>1081</v>
-      </c>
-      <c r="F86" t="s">
-        <v>1121</v>
-      </c>
-      <c r="G86" t="s">
-        <v>400</v>
-      </c>
-      <c r="H86" t="s">
-        <v>401</v>
-      </c>
-      <c r="I86" t="s">
-        <v>1114</v>
-      </c>
-      <c r="J86" t="s">
-        <v>1080</v>
-      </c>
-      <c r="K86" t="s">
-        <v>1081</v>
-      </c>
-      <c r="L86" t="s">
-        <v>1169</v>
-      </c>
-      <c r="M86" t="s">
-        <v>1082</v>
-      </c>
-      <c r="N86" t="s">
-        <v>1083</v>
-      </c>
-      <c r="R86" t="s">
-        <v>1155</v>
-      </c>
-      <c r="S86" t="s">
-        <v>1084</v>
-      </c>
-      <c r="T86" t="s">
-        <v>1085</v>
-      </c>
-    </row>
-    <row r="87" spans="1:20">
-      <c r="A87" t="s">
-        <v>1086</v>
-      </c>
-      <c r="B87" t="s">
-        <v>1087</v>
-      </c>
-      <c r="C87" t="s">
-        <v>1115</v>
-      </c>
-      <c r="D87" t="s">
-        <v>1088</v>
-      </c>
-      <c r="E87" t="s">
-        <v>1089</v>
-      </c>
-      <c r="F87" t="s">
-        <v>1122</v>
-      </c>
-      <c r="G87" t="s">
-        <v>1090</v>
-      </c>
-      <c r="H87" t="s">
-        <v>1091</v>
-      </c>
-      <c r="I87" t="s">
-        <v>1115</v>
-      </c>
-      <c r="J87" t="s">
-        <v>1088</v>
-      </c>
-      <c r="K87" t="s">
-        <v>1089</v>
-      </c>
-      <c r="L87" t="s">
-        <v>1167</v>
-      </c>
-      <c r="M87" t="s">
-        <v>1092</v>
-      </c>
-      <c r="N87" t="s">
-        <v>1093</v>
-      </c>
-      <c r="R87" t="s">
-        <v>1154</v>
-      </c>
-      <c r="S87" t="s">
-        <v>1070</v>
-      </c>
-      <c r="T87" t="s">
-        <v>1071</v>
-      </c>
-    </row>
-    <row r="88" spans="1:20">
-      <c r="A88" t="s">
-        <v>1094</v>
-      </c>
-      <c r="B88" t="s">
-        <v>1095</v>
-      </c>
-      <c r="C88" t="s">
-        <v>1116</v>
-      </c>
-      <c r="D88" t="s">
-        <v>1096</v>
-      </c>
-      <c r="E88" t="s">
-        <v>1097</v>
-      </c>
-      <c r="F88" t="s">
-        <v>1123</v>
-      </c>
-      <c r="G88" t="s">
-        <v>409</v>
-      </c>
-      <c r="H88" t="s">
-        <v>410</v>
-      </c>
-      <c r="I88" t="s">
-        <v>1116</v>
-      </c>
-      <c r="J88" t="s">
-        <v>1096</v>
-      </c>
-      <c r="K88" t="s">
-        <v>1097</v>
-      </c>
-      <c r="L88" t="s">
-        <v>1165</v>
-      </c>
-      <c r="M88" t="s">
-        <v>411</v>
-      </c>
-      <c r="N88" t="s">
-        <v>412</v>
-      </c>
-      <c r="R88" t="s">
-        <v>1151</v>
-      </c>
-      <c r="S88" t="s">
-        <v>404</v>
-      </c>
-      <c r="T88" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="89" spans="1:20">
-      <c r="A89" t="s">
-        <v>1098</v>
-      </c>
-      <c r="B89" t="s">
-        <v>1099</v>
-      </c>
-      <c r="C89" t="s">
-        <v>1117</v>
-      </c>
-      <c r="D89" t="s">
-        <v>1101</v>
-      </c>
-      <c r="E89" t="s">
-        <v>1100</v>
-      </c>
-      <c r="I89" t="s">
-        <v>576</v>
-      </c>
-      <c r="J89" t="s">
-        <v>576</v>
-      </c>
-      <c r="K89" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="90" spans="1:20">
-      <c r="A90" t="s">
-        <v>1102</v>
-      </c>
-      <c r="B90" t="s">
-        <v>1103</v>
-      </c>
-      <c r="C90" t="s">
-        <v>1118</v>
-      </c>
-      <c r="D90" t="s">
-        <v>1105</v>
-      </c>
-      <c r="E90" t="s">
-        <v>1104</v>
-      </c>
-      <c r="F90" t="s">
-        <v>1124</v>
-      </c>
-      <c r="G90" t="s">
-        <v>1106</v>
-      </c>
-      <c r="H90" t="s">
-        <v>1107</v>
-      </c>
-      <c r="I90" t="s">
-        <v>1118</v>
-      </c>
-      <c r="J90" t="s">
-        <v>1105</v>
-      </c>
-      <c r="K90" t="s">
-        <v>1104</v>
-      </c>
-      <c r="L90" t="s">
-        <v>1168</v>
-      </c>
-      <c r="M90" t="s">
-        <v>1108</v>
-      </c>
-      <c r="N90" t="s">
-        <v>1109</v>
-      </c>
-      <c r="R90" t="s">
-        <v>1156</v>
-      </c>
-      <c r="S90" t="s">
-        <v>1110</v>
-      </c>
-      <c r="T90" t="s">
-        <v>1111</v>
-      </c>
-    </row>
-    <row r="91" spans="1:20">
-      <c r="A91" t="s">
-        <v>1125</v>
-      </c>
-      <c r="B91" t="s">
-        <v>1126</v>
-      </c>
-      <c r="C91" t="s">
-        <v>1141</v>
-      </c>
-      <c r="D91" t="s">
-        <v>1127</v>
-      </c>
-      <c r="E91" t="s">
-        <v>1128</v>
-      </c>
-      <c r="F91" t="s">
-        <v>1123</v>
-      </c>
-      <c r="G91" t="s">
-        <v>409</v>
-      </c>
-      <c r="H91" t="s">
-        <v>410</v>
-      </c>
-      <c r="I91" t="s">
-        <v>1141</v>
-      </c>
-      <c r="J91" t="s">
-        <v>1127</v>
-      </c>
-      <c r="K91" t="s">
-        <v>1128</v>
-      </c>
-      <c r="L91" t="s">
-        <v>1145</v>
-      </c>
-      <c r="M91" t="s">
-        <v>1129</v>
-      </c>
-      <c r="N91" t="s">
-        <v>1130</v>
-      </c>
-      <c r="R91" t="s">
-        <v>1162</v>
-      </c>
-      <c r="S91" t="s">
-        <v>1131</v>
-      </c>
-      <c r="T91" t="s">
-        <v>1132</v>
-      </c>
-    </row>
-    <row r="92" spans="1:20">
-      <c r="A92" t="s">
-        <v>1136</v>
-      </c>
-      <c r="B92" t="s">
-        <v>1126</v>
-      </c>
-      <c r="C92" t="s">
-        <v>1143</v>
-      </c>
-      <c r="D92" t="s">
-        <v>1137</v>
-      </c>
-      <c r="E92" t="s">
-        <v>1138</v>
-      </c>
-      <c r="F92" t="s">
-        <v>1144</v>
-      </c>
-      <c r="G92" t="s">
-        <v>1139</v>
-      </c>
-      <c r="H92" t="s">
-        <v>1140</v>
-      </c>
-      <c r="I92" t="s">
-        <v>1143</v>
-      </c>
-      <c r="J92" t="s">
-        <v>1137</v>
-      </c>
-      <c r="K92" t="s">
-        <v>1138</v>
-      </c>
-    </row>
-    <row r="93" spans="1:20">
-      <c r="A93" t="s">
-        <v>1133</v>
-      </c>
-      <c r="B93" t="s">
-        <v>1126</v>
-      </c>
-      <c r="C93" t="s">
-        <v>1142</v>
-      </c>
-      <c r="D93" t="s">
-        <v>1134</v>
-      </c>
-      <c r="E93" t="s">
-        <v>1135</v>
-      </c>
-      <c r="I93" t="s">
-        <v>1142</v>
-      </c>
-      <c r="J93" t="s">
-        <v>1134</v>
-      </c>
-      <c r="K93" t="s">
-        <v>1135</v>
-      </c>
-    </row>
-    <row r="94" spans="1:20">
-      <c r="A94" t="s">
-        <v>654</v>
-      </c>
-      <c r="B94" t="s">
-        <v>691</v>
-      </c>
-      <c r="C94" t="s">
-        <v>758</v>
-      </c>
-      <c r="D94" t="s">
-        <v>655</v>
-      </c>
-      <c r="E94" t="s">
-        <v>656</v>
-      </c>
-      <c r="F94" t="s">
-        <v>825</v>
-      </c>
-      <c r="G94" t="s">
-        <v>657</v>
-      </c>
-      <c r="H94" t="s">
-        <v>658</v>
-      </c>
-      <c r="L94" t="s">
-        <v>917</v>
-      </c>
-      <c r="M94" t="s">
-        <v>659</v>
-      </c>
-      <c r="N94" t="s">
-        <v>660</v>
-      </c>
-      <c r="R94" t="s">
-        <v>1157</v>
-      </c>
-      <c r="S94" t="s">
-        <v>640</v>
-      </c>
-      <c r="T94" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="95" spans="1:20">
-      <c r="A95" t="s">
-        <v>661</v>
-      </c>
-      <c r="B95" t="s">
-        <v>691</v>
-      </c>
-      <c r="C95" t="s">
-        <v>759</v>
-      </c>
-      <c r="D95" t="s">
-        <v>662</v>
-      </c>
-      <c r="E95" t="s">
-        <v>663</v>
-      </c>
-      <c r="F95" t="s">
-        <v>826</v>
-      </c>
-      <c r="G95" t="s">
-        <v>664</v>
-      </c>
-      <c r="H95" t="s">
-        <v>665</v>
-      </c>
-      <c r="L95" t="s">
-        <v>918</v>
-      </c>
-      <c r="M95" t="s">
-        <v>666</v>
-      </c>
-      <c r="N95" t="s">
-        <v>667</v>
-      </c>
-      <c r="R95" t="s">
-        <v>1157</v>
-      </c>
-      <c r="S95" t="s">
-        <v>640</v>
-      </c>
-      <c r="T95" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="96" spans="1:20">
-      <c r="A96" t="s">
-        <v>387</v>
-      </c>
-      <c r="B96" t="s">
-        <v>682</v>
-      </c>
-      <c r="C96" t="s">
-        <v>729</v>
-      </c>
-      <c r="D96" t="s">
-        <v>388</v>
-      </c>
-      <c r="E96" t="s">
-        <v>389</v>
-      </c>
-      <c r="F96" t="s">
-        <v>797</v>
-      </c>
-      <c r="G96" t="s">
-        <v>390</v>
-      </c>
-      <c r="H96" t="s">
-        <v>391</v>
-      </c>
-      <c r="I96" t="s">
-        <v>729</v>
-      </c>
-      <c r="J96" t="s">
-        <v>392</v>
-      </c>
-      <c r="K96" t="s">
-        <v>389</v>
-      </c>
-      <c r="L96" t="s">
-        <v>895</v>
-      </c>
-      <c r="M96" t="s">
-        <v>393</v>
-      </c>
-      <c r="N96" t="s">
-        <v>394</v>
-      </c>
-      <c r="R96" t="s">
-        <v>1158</v>
-      </c>
-      <c r="S96" t="s">
-        <v>395</v>
-      </c>
-      <c r="T96" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="97" spans="1:20">
-      <c r="A97" t="s">
-        <v>40</v>
-      </c>
-      <c r="B97" t="s">
-        <v>670</v>
-      </c>
-      <c r="C97" t="s">
-        <v>41</v>
-      </c>
-      <c r="D97" t="s">
-        <v>41</v>
-      </c>
-      <c r="E97" t="s">
-        <v>42</v>
-      </c>
-      <c r="F97" t="s">
-        <v>762</v>
-      </c>
-      <c r="G97" t="s">
-        <v>43</v>
-      </c>
-      <c r="H97" t="s">
-        <v>44</v>
-      </c>
-      <c r="I97" t="s">
-        <v>41</v>
-      </c>
-      <c r="J97" t="s">
-        <v>41</v>
-      </c>
-      <c r="K97" t="s">
-        <v>42</v>
-      </c>
-      <c r="L97" t="s">
-        <v>866</v>
-      </c>
-      <c r="M97" t="s">
-        <v>45</v>
-      </c>
-      <c r="N97" t="s">
-        <v>46</v>
-      </c>
-      <c r="R97" t="s">
-        <v>1161</v>
-      </c>
-      <c r="S97" t="s">
-        <v>47</v>
-      </c>
-      <c r="T97" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="98" spans="1:20">
-      <c r="A98" t="s">
-        <v>49</v>
-      </c>
-      <c r="B98" t="s">
-        <v>670</v>
-      </c>
-      <c r="C98" t="s">
-        <v>694</v>
-      </c>
-      <c r="D98" t="s">
-        <v>50</v>
-      </c>
-      <c r="E98" t="s">
-        <v>51</v>
-      </c>
-      <c r="F98" t="s">
-        <v>763</v>
-      </c>
-      <c r="G98" t="s">
-        <v>52</v>
-      </c>
-      <c r="H98" t="s">
-        <v>53</v>
-      </c>
-      <c r="I98" t="s">
-        <v>694</v>
-      </c>
-      <c r="J98" t="s">
-        <v>50</v>
-      </c>
-      <c r="K98" t="s">
-        <v>51</v>
-      </c>
-      <c r="L98" t="s">
-        <v>867</v>
-      </c>
-      <c r="M98" t="s">
-        <v>54</v>
-      </c>
-      <c r="N98" t="s">
-        <v>55</v>
-      </c>
-      <c r="R98" t="s">
-        <v>1159</v>
-      </c>
-      <c r="S98" t="s">
-        <v>56</v>
-      </c>
-      <c r="T98" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="99" spans="1:20">
-      <c r="A99" t="s">
-        <v>529</v>
-      </c>
-      <c r="B99" t="s">
-        <v>686</v>
-      </c>
-      <c r="C99" t="s">
-        <v>1038</v>
-      </c>
-      <c r="D99" t="s">
-        <v>530</v>
-      </c>
-      <c r="E99" t="s">
-        <v>531</v>
-      </c>
-      <c r="F99" t="s">
-        <v>1045</v>
-      </c>
-      <c r="G99" t="s">
-        <v>532</v>
-      </c>
-      <c r="H99" t="s">
-        <v>533</v>
-      </c>
-      <c r="I99" t="s">
-        <v>745</v>
-      </c>
-      <c r="J99" t="s">
-        <v>530</v>
-      </c>
-      <c r="K99" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="100" spans="1:20">
-      <c r="A100" t="s">
-        <v>387</v>
-      </c>
-      <c r="B100" t="s">
-        <v>1170</v>
-      </c>
-      <c r="C100" t="s">
-        <v>729</v>
-      </c>
-      <c r="D100" t="s">
-        <v>392</v>
-      </c>
-      <c r="E100" t="s">
-        <v>389</v>
-      </c>
-      <c r="F100" t="s">
-        <v>1180</v>
-      </c>
-      <c r="G100" t="s">
-        <v>1171</v>
-      </c>
-      <c r="H100" t="s">
-        <v>1172</v>
-      </c>
-      <c r="I100" t="s">
-        <v>729</v>
-      </c>
-      <c r="J100" t="s">
-        <v>392</v>
-      </c>
-      <c r="K100" t="s">
-        <v>389</v>
-      </c>
-      <c r="L100" t="s">
-        <v>1182</v>
-      </c>
-      <c r="M100" t="s">
-        <v>393</v>
-      </c>
-      <c r="N100" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="101" spans="1:20">
-      <c r="A101" t="s">
-        <v>1173</v>
-      </c>
-      <c r="B101" t="s">
-        <v>1174</v>
-      </c>
-      <c r="C101" t="s">
-        <v>1179</v>
-      </c>
-      <c r="D101" t="s">
-        <v>1175</v>
-      </c>
-      <c r="E101" t="s">
-        <v>1176</v>
-      </c>
-      <c r="F101" t="s">
-        <v>1181</v>
-      </c>
-      <c r="G101" t="s">
-        <v>1177</v>
-      </c>
-      <c r="H101" t="s">
-        <v>1178</v>
-      </c>
-      <c r="I101" t="s">
-        <v>1179</v>
-      </c>
-      <c r="J101" t="s">
-        <v>1175</v>
-      </c>
-      <c r="K101" t="s">
-        <v>1176</v>
+      <c r="S101" t="s">
+        <v>510</v>
+      </c>
+      <c r="T101" t="s">
+        <v>511</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A2:T83" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:T99">
-      <sortCondition ref="B2:B83"/>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:T101">
+      <sortCondition ref="D2:D83"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/PTBR/Lang/PTBR/Game/Stat.xlsx
+++ b/PTBR/Lang/PTBR/Game/Stat.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ysi\Documents\GitHub\elin-portugues-brasileiro\PTBR\Lang\PTBR\Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92BCBC84-A9CB-46EF-899B-A72E254850AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74752908-41BB-4015-BA4A-CA78D2C65552}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2550" yWindow="2130" windowWidth="15480" windowHeight="9810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2070" yWindow="990" windowWidth="15450" windowHeight="9810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Stat" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1515" uniqueCount="1188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1515" uniqueCount="1180">
   <si>
     <t>id</t>
   </si>
@@ -1961,9 +1961,6 @@
     <t>魔除け</t>
   </si>
   <si>
-    <t>Blessing that decreases the chance of encountering  monsters.</t>
-  </si>
-  <si>
     <t>魔物に襲われにくくなる加護。</t>
   </si>
   <si>
@@ -2735,9 +2732,6 @@
   </si>
   <si>
     <t>#your funções corporais param.</t>
-  </si>
-  <si>
-    <t>#1 começa a recarregar  #his arma.</t>
   </si>
   <si>
     <t>Você está com fome.|Você se sente faminto.|E agora, o que você vai comer?
@@ -2750,161 +2744,6 @@
 Você precisa dormir agora!</t>
   </si>
   <si>
-    <t xml:space="preserve">#1 provoca a ira de Deus!  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monstros começam a evitar #1.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">#1 atrai monstros.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">#1 sente a antecipação de um encontro.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">#your corpo aquece.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">#1 sente-se um pouco melhor.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">#1 pode respirar novamente.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Você está cheio demais para se mover agora!  
-Você comeu o suficiente.  
-Você ainda está com fome.  
-Você ainda está com fome.  
-Seu estômago ainda está roncando!  
-Seu estômago ainda está roncando!  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Você não está mais com sono.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">#1 para de provocar.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">#1 para de preservar mana.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">#1 não queima mais.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">#1 recupera a coragem.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">#1 acorda.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">#1 recobra a consciência.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">#1 consegue escapar das restrições.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">#1 pode se mover novamente.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">#1 não está mais confuso.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">#1 se recupera da cegueira.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">#1 volta a si novamente.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">#1 para de sangrar.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">#1 não está mais obscurecido.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">#1 não está mais alucinando.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">#1 está livre da condensação.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">As folhas desaparecem.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">#1 joga fora sua erva com um olhar de arrependimento.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">#1 sente-se mentalmente lento.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">#1 para de murmurar.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">#1 não sente mais mentes distantes.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">#1 aparece de repente.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">O brilho vermelho desaparece de #seus olhos.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">#seu disfarce é revelado.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">#seus olhos parecem normais agora.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">#seu corpo para de brilhar.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">#1 não se sente mais heróico.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">O veneno deixa #your corpo.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">#1 não levita mais.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">#1 não é mais um gênio.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">#1 volta ao normal.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">#1 não sente mais a gravidade.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">#your corpo para de brilhar.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">#1 é perdoado.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">#1 se recupera da doença.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">#1 não está mais alterado.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">#1 consegue se recuperar da anorexia.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">#1 seca.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">#1 fica sóbrio.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">#1 se anima novamente.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">#1 termina de recarregar.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">#1 não tem mais cheiro.  </t>
-  </si>
-  <si>
     <t>#1 são/estão perdoados.</t>
   </si>
   <si>
@@ -2974,27 +2813,9 @@
     <t>#1は悪夢に苛まれた。</t>
   </si>
   <si>
-    <t xml:space="preserve">Escudo Elemental  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eufórico  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Renascimento  </t>
-  </si>
-  <si>
     <t>Pesadelo</t>
   </si>
   <si>
-    <t xml:space="preserve">Bênção que concede resistência aos três elementos.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bênção que eleva a moral.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bênção que revive automaticamente o portador ao morrer.  </t>
-  </si>
-  <si>
     <t>Maldição que enfraquece resistências por meio de pesadelos.</t>
   </si>
   <si>
@@ -3124,75 +2945,6 @@
     <t>重力を付与する呪い。テレポートやノックバックを阻害する。</t>
   </si>
   <si>
-    <t xml:space="preserve">Mente Afiada  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brilho da Vida  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Respiração Aquática  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Catificação  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fúria  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gravidade  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Uma condição em que o dano causado é reduzido e as oportunidades de usar habilidades são limitadas.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Uma condição em que você não é afetado por sonolência e é imune a sono, exceto quando exausto. Impede a recuperação de vigor através da comida.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bênção que intensifica o desejo de autodestruição.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bênção que permite respirar debaixo d'água.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Transformação em outro ser.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Uma condição em que você é consumido pela fúria e só pode realizar ações ofensivas. Todo o dano causado é aumentado.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maldição que aplica gravidade. Bloqueia efeitos de teletransporte e de recuo.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">#1 sente-se afiado e alerta.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">#sua vida é banhada por um brilho radiante.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bolhas de ar começam a se formar ao redor de #1.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">#1 foi transmutado(a).  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">#1 foi consumido(a) pela fúria!  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">#1 sente a gravidade.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Uma veste elemental envolve #1.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">#1 sente-se eufórico(a).  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">#1 está protegido(a) por uma grande entidade.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">#1 é atormentado(a) por um pesadelo.  </t>
-  </si>
-  <si>
     <t>94</t>
   </si>
   <si>
@@ -3626,6 +3378,230 @@
   </si>
   <si>
     <t>Nível de Insanidade</t>
+  </si>
+  <si>
+    <t>#1 não está mais alterado.</t>
+  </si>
+  <si>
+    <t>#1 consegue se recuperar da anorexia.</t>
+  </si>
+  <si>
+    <t>#1 se anima novamente.</t>
+  </si>
+  <si>
+    <t>Uma condição em que você é consumido pela fúria e só pode realizar ações ofensivas. Todo o dano causado é aumentado.</t>
+  </si>
+  <si>
+    <t>#1 foi consumido(a) pela fúria!</t>
+  </si>
+  <si>
+    <t>#1 para de sangrar.</t>
+  </si>
+  <si>
+    <t>#1 se recupera da cegueira.</t>
+  </si>
+  <si>
+    <t>#1 volta ao normal.</t>
+  </si>
+  <si>
+    <t>Bênção que intensifica o desejo de autodestruição.</t>
+  </si>
+  <si>
+    <t>#sua vida é banhada por um brilho radiante.</t>
+  </si>
+  <si>
+    <t>#1 não queima mais.</t>
+  </si>
+  <si>
+    <t>Transformação em outro ser.</t>
+  </si>
+  <si>
+    <t>Catificação</t>
+  </si>
+  <si>
+    <t>#1 foi transmutado(a).</t>
+  </si>
+  <si>
+    <t>#seus olhos parecem normais agora.</t>
+  </si>
+  <si>
+    <t>#1 está livre da condensação.</t>
+  </si>
+  <si>
+    <t>#1 não está mais confuso.</t>
+  </si>
+  <si>
+    <t>#1 não está mais obscurecido.</t>
+  </si>
+  <si>
+    <t>#1 se recupera da doença.</t>
+  </si>
+  <si>
+    <t>#seu disfarce é revelado.</t>
+  </si>
+  <si>
+    <t>#1 não é mais um gênio.</t>
+  </si>
+  <si>
+    <t>#1 atrai monstros.</t>
+  </si>
+  <si>
+    <t>#1 não tem mais cheiro.</t>
+  </si>
+  <si>
+    <t>#1 fica sóbrio.</t>
+  </si>
+  <si>
+    <t>#1 para de murmurar.</t>
+  </si>
+  <si>
+    <t>#1 consegue escapar das restrições.</t>
+  </si>
+  <si>
+    <t>Bênção que concede resistência aos três elementos.</t>
+  </si>
+  <si>
+    <t>Uma veste elemental envolve #1.</t>
+  </si>
+  <si>
+    <t>Bênção que eleva a moral.</t>
+  </si>
+  <si>
+    <t>#1 sente-se eufórico(a).</t>
+  </si>
+  <si>
+    <t>#1 é perdoado.</t>
+  </si>
+  <si>
+    <t>#1 recupera a coragem.</t>
+  </si>
+  <si>
+    <t>Você está cheio demais para se mover agora!
+Você comeu o suficiente.
+Você ainda está com fome.
+Você ainda está com fome.
+Seu estômago ainda está roncando!
+Seu estômago ainda está roncando!</t>
+  </si>
+  <si>
+    <t>#1 provoca a ira de Deus!</t>
+  </si>
+  <si>
+    <t>#1 não sente mais a gravidade.</t>
+  </si>
+  <si>
+    <t>Maldição que aplica gravidade. Bloqueia efeitos de teletransporte e de recuo.</t>
+  </si>
+  <si>
+    <t>#1 sente a gravidade.</t>
+  </si>
+  <si>
+    <t>#1 não está mais alucinando.</t>
+  </si>
+  <si>
+    <t>#your corpo aquece.</t>
+  </si>
+  <si>
+    <t>#1 não se sente mais heróico.</t>
+  </si>
+  <si>
+    <t>#your corpo para de brilhar.</t>
+  </si>
+  <si>
+    <t>#seu corpo para de brilhar.</t>
+  </si>
+  <si>
+    <t>#1 volta a si novamente.</t>
+  </si>
+  <si>
+    <t>#1 aparece de repente.</t>
+  </si>
+  <si>
+    <t>#1 não levita mais.</t>
+  </si>
+  <si>
+    <t>#1 para de preservar mana.</t>
+  </si>
+  <si>
+    <t>#1 sente a antecipação de um encontro.</t>
+  </si>
+  <si>
+    <t>As folhas desaparecem.</t>
+  </si>
+  <si>
+    <t>#1 pode se mover novamente.</t>
+  </si>
+  <si>
+    <t>#1 é atormentado(a) por um pesadelo.</t>
+  </si>
+  <si>
+    <t>#1 sente-se um pouco melhor.</t>
+  </si>
+  <si>
+    <t>O veneno deixa #your corpo.</t>
+  </si>
+  <si>
+    <t>#1 começa a recarregar#his arma.</t>
+  </si>
+  <si>
+    <t>#1 termina de recarregar.</t>
+  </si>
+  <si>
+    <t>Bênção que revive automaticamente o portador ao morrer.</t>
+  </si>
+  <si>
+    <t>#1 está protegido(a) por uma grande entidade.</t>
+  </si>
+  <si>
+    <t>O brilho vermelho desaparece de #seus olhos.</t>
+  </si>
+  <si>
+    <t>#1 sente-se mentalmente lento.</t>
+  </si>
+  <si>
+    <t>Uma condição em que você não é afetado por sonolência e é imune a sono, exceto quando exausto. Impede a recuperação de vigor através da comida.</t>
+  </si>
+  <si>
+    <t>#1 sente-se afiado e alerta.</t>
+  </si>
+  <si>
+    <t>#1 acorda.</t>
+  </si>
+  <si>
+    <t>Você não está mais com sono.</t>
+  </si>
+  <si>
+    <t>#1 joga fora sua erva com um olhar de arrependimento.</t>
+  </si>
+  <si>
+    <t>#1 pode respirar novamente.</t>
+  </si>
+  <si>
+    <t>Uma condição em que o dano causado é reduzido e as oportunidades de usar habilidades são limitadas.</t>
+  </si>
+  <si>
+    <t>#1 para de provocar.</t>
+  </si>
+  <si>
+    <t>#1 não sente mais mentes distantes.</t>
+  </si>
+  <si>
+    <t>#1 recobra a consciência.</t>
+  </si>
+  <si>
+    <t>Blessing that decreases the chance of encounteringmonsters.</t>
+  </si>
+  <si>
+    <t>Monstros começam a evitar #1.</t>
+  </si>
+  <si>
+    <t>Bênção que permite respirar debaixo d'água.</t>
+  </si>
+  <si>
+    <t>Bolhas de ar começam a se formar ao redor de #1.</t>
+  </si>
+  <si>
+    <t>#1 seca.</t>
   </si>
 </sst>
 </file>
@@ -4008,9 +3984,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A90" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C60" sqref="C60:C61"/>
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R3" sqref="R3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4102,10 +4078,10 @@
         <v>480</v>
       </c>
       <c r="B3" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C3" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="D3" t="s">
         <v>481</v>
@@ -4114,7 +4090,7 @@
         <v>482</v>
       </c>
       <c r="F3" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="G3" t="s">
         <v>483</v>
@@ -4123,7 +4099,7 @@
         <v>484</v>
       </c>
       <c r="I3" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="J3" t="s">
         <v>485</v>
@@ -4132,7 +4108,7 @@
         <v>486</v>
       </c>
       <c r="L3" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="M3" t="s">
         <v>487</v>
@@ -4141,7 +4117,7 @@
         <v>488</v>
       </c>
       <c r="R3" t="s">
-        <v>940</v>
+        <v>1107</v>
       </c>
       <c r="S3" t="s">
         <v>489</v>
@@ -4152,37 +4128,37 @@
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1116</v>
+        <v>1035</v>
       </c>
       <c r="B4" t="s">
-        <v>1106</v>
+        <v>1025</v>
       </c>
       <c r="C4" t="s">
-        <v>1123</v>
+        <v>1042</v>
       </c>
       <c r="D4" t="s">
-        <v>1117</v>
+        <v>1036</v>
       </c>
       <c r="E4" t="s">
-        <v>1118</v>
+        <v>1037</v>
       </c>
       <c r="F4" t="s">
-        <v>1124</v>
+        <v>1043</v>
       </c>
       <c r="G4" t="s">
-        <v>1119</v>
+        <v>1038</v>
       </c>
       <c r="H4" t="s">
-        <v>1120</v>
+        <v>1039</v>
       </c>
       <c r="I4" t="s">
-        <v>1123</v>
+        <v>1042</v>
       </c>
       <c r="J4" t="s">
-        <v>1117</v>
+        <v>1036</v>
       </c>
       <c r="K4" t="s">
-        <v>1118</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
@@ -4190,7 +4166,7 @@
         <v>491</v>
       </c>
       <c r="B5" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C5" t="s">
         <v>492</v>
@@ -4202,7 +4178,7 @@
         <v>493</v>
       </c>
       <c r="F5" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="G5" t="s">
         <v>494</v>
@@ -4220,7 +4196,7 @@
         <v>493</v>
       </c>
       <c r="L5" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="M5" t="s">
         <v>496</v>
@@ -4229,7 +4205,7 @@
         <v>497</v>
       </c>
       <c r="R5" t="s">
-        <v>941</v>
+        <v>1108</v>
       </c>
       <c r="S5" t="s">
         <v>498</v>
@@ -4243,10 +4219,10 @@
         <v>534</v>
       </c>
       <c r="B6" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C6" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="D6" t="s">
         <v>535</v>
@@ -4255,7 +4231,7 @@
         <v>536</v>
       </c>
       <c r="F6" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="G6" t="s">
         <v>537</v>
@@ -4264,7 +4240,7 @@
         <v>538</v>
       </c>
       <c r="I6" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="J6" t="s">
         <v>535</v>
@@ -4273,7 +4249,7 @@
         <v>536</v>
       </c>
       <c r="L6" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="M6" t="s">
         <v>539</v>
@@ -4282,7 +4258,7 @@
         <v>540</v>
       </c>
       <c r="R6" t="s">
-        <v>944</v>
+        <v>1109</v>
       </c>
       <c r="S6" t="s">
         <v>541</v>
@@ -4296,10 +4272,10 @@
         <v>221</v>
       </c>
       <c r="B7" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="C7" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="D7" t="s">
         <v>222</v>
@@ -4308,7 +4284,7 @@
         <v>223</v>
       </c>
       <c r="F7" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="G7" t="s">
         <v>224</v>
@@ -4317,7 +4293,7 @@
         <v>225</v>
       </c>
       <c r="I7" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="J7" t="s">
         <v>222</v>
@@ -4326,7 +4302,7 @@
         <v>223</v>
       </c>
       <c r="L7" t="s">
-        <v>948</v>
+        <v>896</v>
       </c>
       <c r="M7" t="s">
         <v>226</v>
@@ -4340,10 +4316,10 @@
         <v>446</v>
       </c>
       <c r="B8" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="C8" t="s">
-        <v>1163</v>
+        <v>1082</v>
       </c>
       <c r="D8" t="s">
         <v>447</v>
@@ -4352,7 +4328,7 @@
         <v>448</v>
       </c>
       <c r="F8" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="G8" t="s">
         <v>449</v>
@@ -4361,7 +4337,7 @@
         <v>450</v>
       </c>
       <c r="I8" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="J8" t="s">
         <v>447</v>
@@ -4370,7 +4346,7 @@
         <v>448</v>
       </c>
       <c r="L8" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="M8" t="s">
         <v>451</v>
@@ -4381,22 +4357,22 @@
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>1075</v>
+        <v>994</v>
       </c>
       <c r="B9" t="s">
-        <v>1076</v>
+        <v>995</v>
       </c>
       <c r="C9" t="s">
-        <v>1096</v>
+        <v>1015</v>
       </c>
       <c r="D9" t="s">
-        <v>1077</v>
+        <v>996</v>
       </c>
       <c r="E9" t="s">
-        <v>1078</v>
+        <v>997</v>
       </c>
       <c r="F9" t="s">
-        <v>1103</v>
+        <v>1022</v>
       </c>
       <c r="G9" t="s">
         <v>409</v>
@@ -4405,16 +4381,16 @@
         <v>410</v>
       </c>
       <c r="I9" t="s">
-        <v>1096</v>
+        <v>1015</v>
       </c>
       <c r="J9" t="s">
-        <v>1077</v>
+        <v>996</v>
       </c>
       <c r="K9" t="s">
-        <v>1078</v>
+        <v>997</v>
       </c>
       <c r="L9" t="s">
-        <v>1145</v>
+        <v>1064</v>
       </c>
       <c r="M9" t="s">
         <v>411</v>
@@ -4423,7 +4399,7 @@
         <v>412</v>
       </c>
       <c r="R9" t="s">
-        <v>1131</v>
+        <v>1050</v>
       </c>
       <c r="S9" t="s">
         <v>404</v>
@@ -4434,55 +4410,55 @@
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>1008</v>
+        <v>950</v>
       </c>
       <c r="B10" t="s">
-        <v>1009</v>
+        <v>951</v>
       </c>
       <c r="C10" t="s">
-        <v>1164</v>
+        <v>1083</v>
       </c>
       <c r="D10" t="s">
-        <v>1010</v>
+        <v>952</v>
       </c>
       <c r="E10" t="s">
-        <v>1011</v>
+        <v>953</v>
       </c>
       <c r="F10" t="s">
-        <v>1031</v>
+        <v>1110</v>
       </c>
       <c r="G10" t="s">
-        <v>1012</v>
+        <v>954</v>
       </c>
       <c r="H10" t="s">
-        <v>1013</v>
+        <v>955</v>
       </c>
       <c r="I10" t="s">
-        <v>1024</v>
+        <v>693</v>
       </c>
       <c r="J10" t="s">
-        <v>1010</v>
+        <v>952</v>
       </c>
       <c r="K10" t="s">
-        <v>1011</v>
+        <v>953</v>
       </c>
       <c r="L10" t="s">
-        <v>1037</v>
+        <v>1111</v>
       </c>
       <c r="M10" t="s">
-        <v>1014</v>
+        <v>956</v>
       </c>
       <c r="N10" t="s">
-        <v>1015</v>
+        <v>957</v>
       </c>
       <c r="R10" t="s">
-        <v>1132</v>
+        <v>1051</v>
       </c>
       <c r="S10" t="s">
-        <v>1016</v>
+        <v>958</v>
       </c>
       <c r="T10" t="s">
-        <v>1017</v>
+        <v>959</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
@@ -4490,10 +4466,10 @@
         <v>598</v>
       </c>
       <c r="B11" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C11" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="D11" t="s">
         <v>599</v>
@@ -4502,7 +4478,7 @@
         <v>600</v>
       </c>
       <c r="I11" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="J11" t="s">
         <v>601</v>
@@ -4516,10 +4492,10 @@
         <v>168</v>
       </c>
       <c r="B12" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C12" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="D12" t="s">
         <v>169</v>
@@ -4528,7 +4504,7 @@
         <v>170</v>
       </c>
       <c r="F12" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="G12" t="s">
         <v>171</v>
@@ -4537,7 +4513,7 @@
         <v>172</v>
       </c>
       <c r="I12" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="J12" t="s">
         <v>173</v>
@@ -4546,7 +4522,7 @@
         <v>174</v>
       </c>
       <c r="L12" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="M12" t="s">
         <v>175</v>
@@ -4555,7 +4531,7 @@
         <v>176</v>
       </c>
       <c r="R12" t="s">
-        <v>917</v>
+        <v>1112</v>
       </c>
       <c r="S12" t="s">
         <v>177</v>
@@ -4569,10 +4545,10 @@
         <v>148</v>
       </c>
       <c r="B13" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C13" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D13" t="s">
         <v>149</v>
@@ -4581,7 +4557,7 @@
         <v>150</v>
       </c>
       <c r="F13" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="G13" t="s">
         <v>151</v>
@@ -4590,7 +4566,7 @@
         <v>152</v>
       </c>
       <c r="I13" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="J13" t="s">
         <v>149</v>
@@ -4599,7 +4575,7 @@
         <v>150</v>
       </c>
       <c r="L13" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="M13" t="s">
         <v>153</v>
@@ -4608,7 +4584,7 @@
         <v>154</v>
       </c>
       <c r="R13" t="s">
-        <v>915</v>
+        <v>1113</v>
       </c>
       <c r="S13" t="s">
         <v>155</v>
@@ -4622,10 +4598,10 @@
         <v>397</v>
       </c>
       <c r="B14" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C14" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="D14" t="s">
         <v>398</v>
@@ -4634,7 +4610,7 @@
         <v>399</v>
       </c>
       <c r="F14" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="G14" t="s">
         <v>400</v>
@@ -4643,7 +4619,7 @@
         <v>401</v>
       </c>
       <c r="I14" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="J14" t="s">
         <v>398</v>
@@ -4652,7 +4628,7 @@
         <v>399</v>
       </c>
       <c r="L14" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="M14" t="s">
         <v>402</v>
@@ -4661,7 +4637,7 @@
         <v>403</v>
       </c>
       <c r="R14" t="s">
-        <v>935</v>
+        <v>1114</v>
       </c>
       <c r="S14" t="s">
         <v>404</v>
@@ -4672,46 +4648,46 @@
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>986</v>
+        <v>928</v>
       </c>
       <c r="B15" t="s">
-        <v>987</v>
+        <v>929</v>
       </c>
       <c r="C15" t="s">
-        <v>1165</v>
+        <v>1084</v>
       </c>
       <c r="D15" t="s">
-        <v>988</v>
+        <v>930</v>
       </c>
       <c r="E15" t="s">
-        <v>989</v>
+        <v>931</v>
       </c>
       <c r="F15" t="s">
-        <v>1028</v>
+        <v>1115</v>
       </c>
       <c r="G15" t="s">
-        <v>990</v>
+        <v>932</v>
       </c>
       <c r="H15" t="s">
-        <v>991</v>
+        <v>933</v>
       </c>
       <c r="I15" t="s">
-        <v>1021</v>
+        <v>1084</v>
       </c>
       <c r="J15" t="s">
-        <v>988</v>
+        <v>930</v>
       </c>
       <c r="K15" t="s">
-        <v>989</v>
+        <v>931</v>
       </c>
       <c r="L15" t="s">
-        <v>1034</v>
+        <v>1116</v>
       </c>
       <c r="M15" t="s">
-        <v>992</v>
+        <v>934</v>
       </c>
       <c r="N15" t="s">
-        <v>993</v>
+        <v>935</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
@@ -4719,10 +4695,10 @@
         <v>406</v>
       </c>
       <c r="B16" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C16" t="s">
-        <v>1166</v>
+        <v>1085</v>
       </c>
       <c r="D16" t="s">
         <v>407</v>
@@ -4731,7 +4707,7 @@
         <v>408</v>
       </c>
       <c r="F16" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="G16" t="s">
         <v>409</v>
@@ -4740,7 +4716,7 @@
         <v>410</v>
       </c>
       <c r="I16" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="J16" t="s">
         <v>407</v>
@@ -4749,7 +4725,7 @@
         <v>408</v>
       </c>
       <c r="L16" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="M16" t="s">
         <v>411</v>
@@ -4758,7 +4734,7 @@
         <v>412</v>
       </c>
       <c r="R16" t="s">
-        <v>935</v>
+        <v>1114</v>
       </c>
       <c r="S16" t="s">
         <v>404</v>
@@ -4772,10 +4748,10 @@
         <v>565</v>
       </c>
       <c r="B17" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C17" t="s">
-        <v>1167</v>
+        <v>1086</v>
       </c>
       <c r="D17" t="s">
         <v>566</v>
@@ -4784,7 +4760,7 @@
         <v>567</v>
       </c>
       <c r="F17" t="s">
-        <v>982</v>
+        <v>924</v>
       </c>
       <c r="G17" t="s">
         <v>568</v>
@@ -4793,7 +4769,7 @@
         <v>569</v>
       </c>
       <c r="I17" t="s">
-        <v>980</v>
+        <v>922</v>
       </c>
       <c r="J17" t="s">
         <v>570</v>
@@ -4802,7 +4778,7 @@
         <v>571</v>
       </c>
       <c r="L17" t="s">
-        <v>981</v>
+        <v>923</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
@@ -4810,10 +4786,10 @@
         <v>82</v>
       </c>
       <c r="B18" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C18" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="D18" t="s">
         <v>83</v>
@@ -4822,7 +4798,7 @@
         <v>84</v>
       </c>
       <c r="F18" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="G18" t="s">
         <v>85</v>
@@ -4831,7 +4807,7 @@
         <v>86</v>
       </c>
       <c r="I18" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="J18" t="s">
         <v>83</v>
@@ -4840,7 +4816,7 @@
         <v>84</v>
       </c>
       <c r="L18" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="M18" t="s">
         <v>87</v>
@@ -4849,7 +4825,7 @@
         <v>88</v>
       </c>
       <c r="R18" t="s">
-        <v>908</v>
+        <v>1117</v>
       </c>
       <c r="S18" t="s">
         <v>89</v>
@@ -4860,22 +4836,22 @@
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>1004</v>
+        <v>946</v>
       </c>
       <c r="B19" t="s">
-        <v>1005</v>
+        <v>947</v>
       </c>
       <c r="C19" t="s">
-        <v>1168</v>
+        <v>1087</v>
       </c>
       <c r="D19" t="s">
-        <v>1006</v>
+        <v>948</v>
       </c>
       <c r="E19" t="s">
-        <v>1007</v>
+        <v>949</v>
       </c>
       <c r="F19" t="s">
-        <v>1030</v>
+        <v>1118</v>
       </c>
       <c r="G19" t="s">
         <v>409</v>
@@ -4884,16 +4860,16 @@
         <v>410</v>
       </c>
       <c r="I19" t="s">
-        <v>1023</v>
+        <v>1119</v>
       </c>
       <c r="J19" t="s">
-        <v>1006</v>
+        <v>948</v>
       </c>
       <c r="K19" t="s">
-        <v>1007</v>
+        <v>949</v>
       </c>
       <c r="L19" t="s">
-        <v>1036</v>
+        <v>1120</v>
       </c>
       <c r="M19" t="s">
         <v>411</v>
@@ -4902,7 +4878,7 @@
         <v>412</v>
       </c>
       <c r="R19" t="s">
-        <v>1131</v>
+        <v>1050</v>
       </c>
       <c r="S19" t="s">
         <v>404</v>
@@ -4916,10 +4892,10 @@
         <v>291</v>
       </c>
       <c r="B20" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C20" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D20" t="s">
         <v>292</v>
@@ -4928,7 +4904,7 @@
         <v>293</v>
       </c>
       <c r="F20" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="G20" t="s">
         <v>294</v>
@@ -4937,7 +4913,7 @@
         <v>295</v>
       </c>
       <c r="I20" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="J20" t="s">
         <v>296</v>
@@ -4946,7 +4922,7 @@
         <v>297</v>
       </c>
       <c r="L20" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="M20" t="s">
         <v>298</v>
@@ -4955,7 +4931,7 @@
         <v>299</v>
       </c>
       <c r="R20" t="s">
-        <v>929</v>
+        <v>1121</v>
       </c>
       <c r="S20" t="s">
         <v>300</v>
@@ -4969,10 +4945,10 @@
         <v>340</v>
       </c>
       <c r="B21" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C21" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="D21" t="s">
         <v>341</v>
@@ -4981,7 +4957,7 @@
         <v>342</v>
       </c>
       <c r="F21" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="G21" t="s">
         <v>343</v>
@@ -4990,7 +4966,7 @@
         <v>344</v>
       </c>
       <c r="I21" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="J21" t="s">
         <v>341</v>
@@ -5004,10 +4980,10 @@
         <v>201</v>
       </c>
       <c r="B22" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C22" t="s">
-        <v>1169</v>
+        <v>1088</v>
       </c>
       <c r="D22" t="s">
         <v>202</v>
@@ -5016,7 +4992,7 @@
         <v>203</v>
       </c>
       <c r="F22" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="G22" t="s">
         <v>204</v>
@@ -5025,7 +5001,7 @@
         <v>205</v>
       </c>
       <c r="I22" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="J22" t="s">
         <v>206</v>
@@ -5034,7 +5010,7 @@
         <v>207</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="M22" t="s">
         <v>208</v>
@@ -5043,7 +5019,7 @@
         <v>209</v>
       </c>
       <c r="R22" t="s">
-        <v>920</v>
+        <v>1122</v>
       </c>
       <c r="S22" t="s">
         <v>210</v>
@@ -5057,10 +5033,10 @@
         <v>138</v>
       </c>
       <c r="B23" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C23" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="D23" t="s">
         <v>139</v>
@@ -5069,7 +5045,7 @@
         <v>140</v>
       </c>
       <c r="F23" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="G23" t="s">
         <v>141</v>
@@ -5078,7 +5054,7 @@
         <v>142</v>
       </c>
       <c r="I23" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="J23" t="s">
         <v>143</v>
@@ -5087,7 +5063,7 @@
         <v>140</v>
       </c>
       <c r="L23" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="M23" t="s">
         <v>144</v>
@@ -5096,7 +5072,7 @@
         <v>145</v>
       </c>
       <c r="R23" t="s">
-        <v>914</v>
+        <v>1123</v>
       </c>
       <c r="S23" t="s">
         <v>146</v>
@@ -5107,55 +5083,55 @@
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>1083</v>
+        <v>1002</v>
       </c>
       <c r="B24" t="s">
-        <v>1084</v>
+        <v>1003</v>
       </c>
       <c r="C24" t="s">
-        <v>1098</v>
+        <v>1017</v>
       </c>
       <c r="D24" t="s">
-        <v>1086</v>
+        <v>1005</v>
       </c>
       <c r="E24" t="s">
-        <v>1085</v>
+        <v>1004</v>
       </c>
       <c r="F24" t="s">
-        <v>1104</v>
+        <v>1023</v>
       </c>
       <c r="G24" t="s">
-        <v>1087</v>
+        <v>1006</v>
       </c>
       <c r="H24" t="s">
-        <v>1088</v>
+        <v>1007</v>
       </c>
       <c r="I24" t="s">
-        <v>1098</v>
+        <v>1017</v>
       </c>
       <c r="J24" t="s">
-        <v>1086</v>
+        <v>1005</v>
       </c>
       <c r="K24" t="s">
-        <v>1085</v>
+        <v>1004</v>
       </c>
       <c r="L24" t="s">
-        <v>1148</v>
+        <v>1067</v>
       </c>
       <c r="M24" t="s">
-        <v>1089</v>
+        <v>1008</v>
       </c>
       <c r="N24" t="s">
-        <v>1090</v>
+        <v>1009</v>
       </c>
       <c r="R24" t="s">
-        <v>1136</v>
+        <v>1055</v>
       </c>
       <c r="S24" t="s">
-        <v>1091</v>
+        <v>1010</v>
       </c>
       <c r="T24" t="s">
-        <v>1092</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">
@@ -5163,10 +5139,10 @@
         <v>387</v>
       </c>
       <c r="B25" t="s">
-        <v>1150</v>
+        <v>1069</v>
       </c>
       <c r="C25" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="D25" t="s">
         <v>392</v>
@@ -5175,16 +5151,16 @@
         <v>389</v>
       </c>
       <c r="F25" t="s">
-        <v>1160</v>
+        <v>1079</v>
       </c>
       <c r="G25" t="s">
-        <v>1151</v>
+        <v>1070</v>
       </c>
       <c r="H25" t="s">
-        <v>1152</v>
+        <v>1071</v>
       </c>
       <c r="I25" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="J25" t="s">
         <v>392</v>
@@ -5193,7 +5169,7 @@
         <v>389</v>
       </c>
       <c r="L25" t="s">
-        <v>1162</v>
+        <v>1081</v>
       </c>
       <c r="M25" t="s">
         <v>393</v>
@@ -5207,10 +5183,10 @@
         <v>387</v>
       </c>
       <c r="B26" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="C26" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="D26" t="s">
         <v>388</v>
@@ -5219,7 +5195,7 @@
         <v>389</v>
       </c>
       <c r="F26" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="G26" t="s">
         <v>390</v>
@@ -5228,7 +5204,7 @@
         <v>391</v>
       </c>
       <c r="I26" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="J26" t="s">
         <v>392</v>
@@ -5237,7 +5213,7 @@
         <v>389</v>
       </c>
       <c r="L26" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="M26" t="s">
         <v>393</v>
@@ -5246,7 +5222,7 @@
         <v>394</v>
       </c>
       <c r="R26" t="s">
-        <v>1138</v>
+        <v>1057</v>
       </c>
       <c r="S26" t="s">
         <v>395</v>
@@ -5260,10 +5236,10 @@
         <v>179</v>
       </c>
       <c r="B27" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C27" t="s">
-        <v>1170</v>
+        <v>1089</v>
       </c>
       <c r="D27" t="s">
         <v>180</v>
@@ -5272,7 +5248,7 @@
         <v>181</v>
       </c>
       <c r="F27" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="G27" t="s">
         <v>182</v>
@@ -5281,7 +5257,7 @@
         <v>183</v>
       </c>
       <c r="I27" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="J27" t="s">
         <v>184</v>
@@ -5290,7 +5266,7 @@
         <v>185</v>
       </c>
       <c r="L27" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="M27" t="s">
         <v>186</v>
@@ -5299,7 +5275,7 @@
         <v>187</v>
       </c>
       <c r="R27" t="s">
-        <v>918</v>
+        <v>1124</v>
       </c>
       <c r="S27" t="s">
         <v>188</v>
@@ -5313,10 +5289,10 @@
         <v>469</v>
       </c>
       <c r="B28" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C28" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="D28" t="s">
         <v>470</v>
@@ -5325,7 +5301,7 @@
         <v>471</v>
       </c>
       <c r="F28" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="G28" t="s">
         <v>472</v>
@@ -5334,7 +5310,7 @@
         <v>473</v>
       </c>
       <c r="I28" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="J28" t="s">
         <v>474</v>
@@ -5343,7 +5319,7 @@
         <v>475</v>
       </c>
       <c r="L28" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="M28" t="s">
         <v>476</v>
@@ -5352,7 +5328,7 @@
         <v>477</v>
       </c>
       <c r="R28" t="s">
-        <v>939</v>
+        <v>1125</v>
       </c>
       <c r="S28" t="s">
         <v>478</v>
@@ -5366,10 +5342,10 @@
         <v>282</v>
       </c>
       <c r="B29" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C29" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="D29" t="s">
         <v>283</v>
@@ -5378,7 +5354,7 @@
         <v>284</v>
       </c>
       <c r="F29" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="G29" t="s">
         <v>285</v>
@@ -5387,7 +5363,7 @@
         <v>286</v>
       </c>
       <c r="I29" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="J29" t="s">
         <v>283</v>
@@ -5396,7 +5372,7 @@
         <v>284</v>
       </c>
       <c r="L29" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="M29" t="s">
         <v>287</v>
@@ -5405,7 +5381,7 @@
         <v>288</v>
       </c>
       <c r="R29" t="s">
-        <v>928</v>
+        <v>1126</v>
       </c>
       <c r="S29" t="s">
         <v>289</v>
@@ -5419,10 +5395,10 @@
         <v>523</v>
       </c>
       <c r="B30" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C30" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="D30" t="s">
         <v>524</v>
@@ -5431,7 +5407,7 @@
         <v>525</v>
       </c>
       <c r="F30" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="G30" t="s">
         <v>526</v>
@@ -5440,7 +5416,7 @@
         <v>527</v>
       </c>
       <c r="I30" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="J30" t="s">
         <v>528</v>
@@ -5454,10 +5430,10 @@
         <v>371</v>
       </c>
       <c r="B31" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C31" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="D31" t="s">
         <v>372</v>
@@ -5466,7 +5442,7 @@
         <v>373</v>
       </c>
       <c r="F31" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="G31" t="s">
         <v>374</v>
@@ -5475,7 +5451,7 @@
         <v>375</v>
       </c>
       <c r="I31" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="J31" t="s">
         <v>372</v>
@@ -5484,7 +5460,7 @@
         <v>373</v>
       </c>
       <c r="L31" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="M31" t="s">
         <v>376</v>
@@ -5493,7 +5469,7 @@
         <v>377</v>
       </c>
       <c r="R31" t="s">
-        <v>934</v>
+        <v>1127</v>
       </c>
       <c r="S31" t="s">
         <v>378</v>
@@ -5504,90 +5480,90 @@
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>648</v>
+      </c>
+      <c r="B32" t="s">
+        <v>689</v>
+      </c>
+      <c r="C32" t="s">
+        <v>1090</v>
+      </c>
+      <c r="D32" t="s">
         <v>649</v>
       </c>
-      <c r="B32" t="s">
-        <v>690</v>
-      </c>
-      <c r="C32" t="s">
-        <v>1171</v>
-      </c>
-      <c r="D32" t="s">
+      <c r="E32" t="s">
         <v>650</v>
       </c>
-      <c r="E32" t="s">
+      <c r="F32" t="s">
+        <v>807</v>
+      </c>
+      <c r="G32" t="s">
         <v>651</v>
       </c>
-      <c r="F32" t="s">
-        <v>808</v>
-      </c>
-      <c r="G32" t="s">
+      <c r="H32" t="s">
         <v>652</v>
       </c>
-      <c r="H32" t="s">
-        <v>653</v>
-      </c>
       <c r="L32" t="s">
-        <v>899</v>
+        <v>1128</v>
       </c>
       <c r="M32" t="s">
+        <v>646</v>
+      </c>
+      <c r="N32" t="s">
         <v>647</v>
       </c>
-      <c r="N32" t="s">
-        <v>648</v>
-      </c>
       <c r="R32" t="s">
-        <v>946</v>
+        <v>1129</v>
       </c>
       <c r="S32" t="s">
+        <v>639</v>
+      </c>
+      <c r="T32" t="s">
         <v>640</v>
-      </c>
-      <c r="T32" t="s">
-        <v>641</v>
       </c>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>641</v>
+      </c>
+      <c r="B33" t="s">
+        <v>689</v>
+      </c>
+      <c r="C33" t="s">
+        <v>1091</v>
+      </c>
+      <c r="D33" t="s">
         <v>642</v>
       </c>
-      <c r="B33" t="s">
-        <v>690</v>
-      </c>
-      <c r="C33" t="s">
-        <v>1172</v>
-      </c>
-      <c r="D33" t="s">
+      <c r="E33" t="s">
         <v>643</v>
       </c>
-      <c r="E33" t="s">
+      <c r="F33" t="s">
+        <v>806</v>
+      </c>
+      <c r="G33" t="s">
         <v>644</v>
       </c>
-      <c r="F33" t="s">
-        <v>807</v>
-      </c>
-      <c r="G33" t="s">
+      <c r="H33" t="s">
         <v>645</v>
       </c>
-      <c r="H33" t="s">
+      <c r="L33" t="s">
+        <v>1128</v>
+      </c>
+      <c r="M33" t="s">
         <v>646</v>
       </c>
-      <c r="L33" t="s">
-        <v>899</v>
-      </c>
-      <c r="M33" t="s">
+      <c r="N33" t="s">
         <v>647</v>
       </c>
-      <c r="N33" t="s">
-        <v>648</v>
-      </c>
       <c r="R33" t="s">
-        <v>946</v>
+        <v>1129</v>
       </c>
       <c r="S33" t="s">
+        <v>639</v>
+      </c>
+      <c r="T33" t="s">
         <v>640</v>
-      </c>
-      <c r="T33" t="s">
-        <v>641</v>
       </c>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.25">
@@ -5595,10 +5571,10 @@
         <v>512</v>
       </c>
       <c r="B34" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="C34" t="s">
-        <v>1173</v>
+        <v>1092</v>
       </c>
       <c r="D34" t="s">
         <v>513</v>
@@ -5607,7 +5583,7 @@
         <v>514</v>
       </c>
       <c r="F34" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="G34" t="s">
         <v>515</v>
@@ -5616,7 +5592,7 @@
         <v>516</v>
       </c>
       <c r="I34" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="J34" t="s">
         <v>517</v>
@@ -5625,7 +5601,7 @@
         <v>518</v>
       </c>
       <c r="L34" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="M34" t="s">
         <v>519</v>
@@ -5634,7 +5610,7 @@
         <v>520</v>
       </c>
       <c r="R34" t="s">
-        <v>943</v>
+        <v>1130</v>
       </c>
       <c r="S34" t="s">
         <v>521</v>
@@ -5648,10 +5624,10 @@
         <v>462</v>
       </c>
       <c r="B35" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C35" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="D35" t="s">
         <v>463</v>
@@ -5660,7 +5636,7 @@
         <v>464</v>
       </c>
       <c r="F35" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="G35" t="s">
         <v>465</v>
@@ -5669,7 +5645,7 @@
         <v>466</v>
       </c>
       <c r="I35" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="J35" t="s">
         <v>463</v>
@@ -5678,7 +5654,7 @@
         <v>464</v>
       </c>
       <c r="L35" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="M35" t="s">
         <v>467</v>
@@ -5692,10 +5668,10 @@
         <v>246</v>
       </c>
       <c r="B36" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C36" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="D36" t="s">
         <v>247</v>
@@ -5704,7 +5680,7 @@
         <v>248</v>
       </c>
       <c r="F36" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="G36" t="s">
         <v>249</v>
@@ -5713,7 +5689,7 @@
         <v>250</v>
       </c>
       <c r="I36" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="J36" t="s">
         <v>247</v>
@@ -5722,7 +5698,7 @@
         <v>248</v>
       </c>
       <c r="L36" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="M36" t="s">
         <v>251</v>
@@ -5731,7 +5707,7 @@
         <v>252</v>
       </c>
       <c r="R36" t="s">
-        <v>924</v>
+        <v>1131</v>
       </c>
       <c r="S36" t="s">
         <v>253</v>
@@ -5745,10 +5721,10 @@
         <v>628</v>
       </c>
       <c r="B37" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="C37" t="s">
-        <v>1174</v>
+        <v>1093</v>
       </c>
       <c r="D37" t="s">
         <v>629</v>
@@ -5757,7 +5733,7 @@
         <v>630</v>
       </c>
       <c r="F37" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="G37" t="s">
         <v>631</v>
@@ -5766,7 +5742,7 @@
         <v>632</v>
       </c>
       <c r="I37" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="J37" t="s">
         <v>629</v>
@@ -5780,10 +5756,10 @@
         <v>120</v>
       </c>
       <c r="B38" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="C38" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="D38" t="s">
         <v>121</v>
@@ -5792,7 +5768,7 @@
         <v>122</v>
       </c>
       <c r="F38" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="G38" t="s">
         <v>123</v>
@@ -5801,7 +5777,7 @@
         <v>124</v>
       </c>
       <c r="I38" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="J38" t="s">
         <v>125</v>
@@ -5810,7 +5786,7 @@
         <v>122</v>
       </c>
       <c r="L38" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="M38" t="s">
         <v>126</v>
@@ -5819,7 +5795,7 @@
         <v>127</v>
       </c>
       <c r="R38" t="s">
-        <v>912</v>
+        <v>1132</v>
       </c>
       <c r="S38" t="s">
         <v>128</v>
@@ -5833,28 +5809,28 @@
         <v>311</v>
       </c>
       <c r="B39" t="s">
-        <v>949</v>
+        <v>897</v>
       </c>
       <c r="C39" t="s">
-        <v>978</v>
+        <v>920</v>
       </c>
       <c r="D39" t="s">
-        <v>970</v>
+        <v>920</v>
       </c>
       <c r="E39" t="s">
         <v>313</v>
       </c>
       <c r="F39" t="s">
-        <v>974</v>
+        <v>1133</v>
       </c>
       <c r="G39" t="s">
-        <v>950</v>
+        <v>898</v>
       </c>
       <c r="H39" t="s">
-        <v>951</v>
+        <v>899</v>
       </c>
       <c r="I39" t="s">
-        <v>978</v>
+        <v>920</v>
       </c>
       <c r="J39" t="s">
         <v>312</v>
@@ -5863,7 +5839,7 @@
         <v>313</v>
       </c>
       <c r="L39" t="s">
-        <v>1039</v>
+        <v>1134</v>
       </c>
       <c r="M39" t="s">
         <v>314</v>
@@ -5872,7 +5848,7 @@
         <v>315</v>
       </c>
       <c r="R39" t="s">
-        <v>1126</v>
+        <v>1045</v>
       </c>
       <c r="S39" t="s">
         <v>316</v>
@@ -5886,28 +5862,28 @@
         <v>328</v>
       </c>
       <c r="B40" t="s">
-        <v>949</v>
+        <v>897</v>
       </c>
       <c r="C40" t="s">
-        <v>979</v>
+        <v>921</v>
       </c>
       <c r="D40" t="s">
-        <v>971</v>
+        <v>921</v>
       </c>
       <c r="E40" t="s">
         <v>329</v>
       </c>
       <c r="F40" t="s">
-        <v>975</v>
+        <v>1135</v>
       </c>
       <c r="G40" t="s">
-        <v>952</v>
+        <v>900</v>
       </c>
       <c r="H40" t="s">
-        <v>953</v>
+        <v>901</v>
       </c>
       <c r="I40" t="s">
-        <v>979</v>
+        <v>921</v>
       </c>
       <c r="J40" t="s">
         <v>330</v>
@@ -5916,7 +5892,7 @@
         <v>329</v>
       </c>
       <c r="L40" t="s">
-        <v>1040</v>
+        <v>1136</v>
       </c>
       <c r="M40" t="s">
         <v>331</v>
@@ -5925,7 +5901,7 @@
         <v>332</v>
       </c>
       <c r="R40" t="s">
-        <v>1127</v>
+        <v>1046</v>
       </c>
       <c r="S40" t="s">
         <v>333</v>
@@ -5939,10 +5915,10 @@
         <v>453</v>
       </c>
       <c r="B41" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C41" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="D41" t="s">
         <v>454</v>
@@ -5951,7 +5927,7 @@
         <v>455</v>
       </c>
       <c r="F41" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="G41" t="s">
         <v>456</v>
@@ -5960,7 +5936,7 @@
         <v>457</v>
       </c>
       <c r="I41" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="J41" t="s">
         <v>454</v>
@@ -5969,7 +5945,7 @@
         <v>455</v>
       </c>
       <c r="L41" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="M41" t="s">
         <v>458</v>
@@ -5978,7 +5954,7 @@
         <v>459</v>
       </c>
       <c r="R41" t="s">
-        <v>938</v>
+        <v>1137</v>
       </c>
       <c r="S41" t="s">
         <v>460</v>
@@ -5992,10 +5968,10 @@
         <v>91</v>
       </c>
       <c r="B42" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C42" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="D42" t="s">
         <v>92</v>
@@ -6004,7 +5980,7 @@
         <v>93</v>
       </c>
       <c r="F42" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="G42" t="s">
         <v>94</v>
@@ -6013,7 +5989,7 @@
         <v>95</v>
       </c>
       <c r="I42" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="J42" t="s">
         <v>92</v>
@@ -6022,7 +5998,7 @@
         <v>93</v>
       </c>
       <c r="L42" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="M42" t="s">
         <v>96</v>
@@ -6031,7 +6007,7 @@
         <v>97</v>
       </c>
       <c r="R42" t="s">
-        <v>909</v>
+        <v>1138</v>
       </c>
       <c r="S42" t="s">
         <v>98</v>
@@ -6045,10 +6021,10 @@
         <v>335</v>
       </c>
       <c r="B43" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C43" t="s">
-        <v>1175</v>
+        <v>1094</v>
       </c>
       <c r="D43" t="s">
         <v>336</v>
@@ -6057,7 +6033,7 @@
         <v>337</v>
       </c>
       <c r="F43" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="G43" t="s">
         <v>338</v>
@@ -6066,7 +6042,7 @@
         <v>339</v>
       </c>
       <c r="I43" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="J43" t="s">
         <v>336</v>
@@ -6080,10 +6056,10 @@
         <v>554</v>
       </c>
       <c r="B44" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C44" t="s">
-        <v>1176</v>
+        <v>1095</v>
       </c>
       <c r="D44" t="s">
         <v>555</v>
@@ -6092,7 +6068,7 @@
         <v>556</v>
       </c>
       <c r="F44" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="G44" t="s">
         <v>557</v>
@@ -6101,7 +6077,7 @@
         <v>558</v>
       </c>
       <c r="I44" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="J44" t="s">
         <v>559</v>
@@ -6110,7 +6086,7 @@
         <v>560</v>
       </c>
       <c r="L44" s="2" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="M44" t="s">
         <v>561</v>
@@ -6119,7 +6095,7 @@
         <v>562</v>
       </c>
       <c r="O44" s="2" t="s">
-        <v>904</v>
+        <v>1139</v>
       </c>
       <c r="P44" t="s">
         <v>563</v>
@@ -6130,37 +6106,37 @@
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>1053</v>
+        <v>972</v>
       </c>
       <c r="B45" t="s">
-        <v>1054</v>
+        <v>973</v>
       </c>
       <c r="C45" t="s">
-        <v>1177</v>
+        <v>1096</v>
       </c>
       <c r="D45" t="s">
-        <v>1055</v>
+        <v>974</v>
       </c>
       <c r="E45" t="s">
-        <v>1056</v>
+        <v>975</v>
       </c>
       <c r="F45" t="s">
-        <v>1100</v>
+        <v>1019</v>
       </c>
       <c r="G45" t="s">
-        <v>1057</v>
+        <v>976</v>
       </c>
       <c r="H45" t="s">
-        <v>1058</v>
+        <v>977</v>
       </c>
       <c r="I45" t="s">
-        <v>1143</v>
+        <v>1062</v>
       </c>
       <c r="J45" t="s">
-        <v>1055</v>
+        <v>974</v>
       </c>
       <c r="K45" t="s">
-        <v>1056</v>
+        <v>975</v>
       </c>
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.25">
@@ -6168,10 +6144,10 @@
         <v>49</v>
       </c>
       <c r="B46" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="C46" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="D46" t="s">
         <v>50</v>
@@ -6180,7 +6156,7 @@
         <v>51</v>
       </c>
       <c r="F46" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="G46" t="s">
         <v>52</v>
@@ -6189,7 +6165,7 @@
         <v>53</v>
       </c>
       <c r="I46" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="J46" t="s">
         <v>50</v>
@@ -6198,7 +6174,7 @@
         <v>51</v>
       </c>
       <c r="L46" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="M46" t="s">
         <v>54</v>
@@ -6207,7 +6183,7 @@
         <v>55</v>
       </c>
       <c r="R46" t="s">
-        <v>1139</v>
+        <v>1058</v>
       </c>
       <c r="S46" t="s">
         <v>56</v>
@@ -6221,10 +6197,10 @@
         <v>621</v>
       </c>
       <c r="B47" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="C47" t="s">
-        <v>1178</v>
+        <v>1097</v>
       </c>
       <c r="D47" t="s">
         <v>622</v>
@@ -6233,7 +6209,7 @@
         <v>623</v>
       </c>
       <c r="F47" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="G47" t="s">
         <v>624</v>
@@ -6242,7 +6218,7 @@
         <v>625</v>
       </c>
       <c r="I47" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="J47" t="s">
         <v>622</v>
@@ -6251,7 +6227,7 @@
         <v>623</v>
       </c>
       <c r="L47" t="s">
-        <v>897</v>
+        <v>1140</v>
       </c>
       <c r="M47" t="s">
         <v>626</v>
@@ -6260,7 +6236,7 @@
         <v>627</v>
       </c>
       <c r="R47" t="s">
-        <v>947</v>
+        <v>895</v>
       </c>
       <c r="S47" t="s">
         <v>460</v>
@@ -6274,10 +6250,10 @@
         <v>423</v>
       </c>
       <c r="B48" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C48" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="D48" t="s">
         <v>424</v>
@@ -6286,7 +6262,7 @@
         <v>425</v>
       </c>
       <c r="F48" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="G48" t="s">
         <v>426</v>
@@ -6295,7 +6271,7 @@
         <v>427</v>
       </c>
       <c r="I48" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="J48" t="s">
         <v>424</v>
@@ -6304,7 +6280,7 @@
         <v>425</v>
       </c>
       <c r="L48" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="M48" t="s">
         <v>428</v>
@@ -6313,7 +6289,7 @@
         <v>429</v>
       </c>
       <c r="R48" t="s">
-        <v>936</v>
+        <v>1141</v>
       </c>
       <c r="S48" t="s">
         <v>430</v>
@@ -6327,10 +6303,10 @@
         <v>423</v>
       </c>
       <c r="B49" t="s">
-        <v>1009</v>
+        <v>951</v>
       </c>
       <c r="C49" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="D49" t="s">
         <v>424</v>
@@ -6339,16 +6315,16 @@
         <v>425</v>
       </c>
       <c r="F49" t="s">
-        <v>1032</v>
+        <v>1142</v>
       </c>
       <c r="G49" t="s">
-        <v>1018</v>
+        <v>960</v>
       </c>
       <c r="H49" t="s">
-        <v>1019</v>
+        <v>961</v>
       </c>
       <c r="I49" t="s">
-        <v>1025</v>
+        <v>723</v>
       </c>
       <c r="J49" t="s">
         <v>424</v>
@@ -6357,7 +6333,7 @@
         <v>425</v>
       </c>
       <c r="L49" t="s">
-        <v>1038</v>
+        <v>1143</v>
       </c>
       <c r="M49" t="s">
         <v>428</v>
@@ -6366,7 +6342,7 @@
         <v>429</v>
       </c>
       <c r="R49" t="s">
-        <v>1133</v>
+        <v>1052</v>
       </c>
       <c r="S49" t="s">
         <v>430</v>
@@ -6380,10 +6356,10 @@
         <v>190</v>
       </c>
       <c r="B50" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C50" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="D50" t="s">
         <v>191</v>
@@ -6392,7 +6368,7 @@
         <v>192</v>
       </c>
       <c r="F50" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="G50" t="s">
         <v>193</v>
@@ -6401,7 +6377,7 @@
         <v>194</v>
       </c>
       <c r="I50" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="J50" t="s">
         <v>195</v>
@@ -6410,7 +6386,7 @@
         <v>196</v>
       </c>
       <c r="L50" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="M50" t="s">
         <v>197</v>
@@ -6419,7 +6395,7 @@
         <v>198</v>
       </c>
       <c r="R50" t="s">
-        <v>919</v>
+        <v>1144</v>
       </c>
       <c r="S50" t="s">
         <v>199</v>
@@ -6430,46 +6406,46 @@
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
+        <v>660</v>
+      </c>
+      <c r="B51" t="s">
+        <v>690</v>
+      </c>
+      <c r="C51" t="s">
+        <v>742</v>
+      </c>
+      <c r="D51" t="s">
         <v>661</v>
       </c>
-      <c r="B51" t="s">
-        <v>691</v>
-      </c>
-      <c r="C51" t="s">
-        <v>743</v>
-      </c>
-      <c r="D51" t="s">
+      <c r="E51" t="s">
         <v>662</v>
       </c>
-      <c r="E51" t="s">
+      <c r="F51" t="s">
+        <v>809</v>
+      </c>
+      <c r="G51" t="s">
         <v>663</v>
       </c>
-      <c r="F51" t="s">
-        <v>810</v>
-      </c>
-      <c r="G51" t="s">
+      <c r="H51" t="s">
         <v>664</v>
       </c>
-      <c r="H51" t="s">
+      <c r="L51" t="s">
+        <v>1145</v>
+      </c>
+      <c r="M51" t="s">
         <v>665</v>
       </c>
-      <c r="L51" t="s">
-        <v>901</v>
-      </c>
-      <c r="M51" t="s">
+      <c r="N51" t="s">
         <v>666</v>
       </c>
-      <c r="N51" t="s">
-        <v>667</v>
-      </c>
       <c r="R51" t="s">
-        <v>1137</v>
+        <v>1056</v>
       </c>
       <c r="S51" t="s">
+        <v>639</v>
+      </c>
+      <c r="T51" t="s">
         <v>640</v>
-      </c>
-      <c r="T51" t="s">
-        <v>641</v>
       </c>
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.25">
@@ -6477,10 +6453,10 @@
         <v>613</v>
       </c>
       <c r="B52" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C52" t="s">
-        <v>1179</v>
+        <v>1098</v>
       </c>
       <c r="D52" t="s">
         <v>614</v>
@@ -6489,7 +6465,7 @@
         <v>615</v>
       </c>
       <c r="I52" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="J52" t="s">
         <v>616</v>
@@ -6503,10 +6479,10 @@
         <v>318</v>
       </c>
       <c r="B53" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C53" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="D53" t="s">
         <v>319</v>
@@ -6515,7 +6491,7 @@
         <v>320</v>
       </c>
       <c r="F53" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="G53" t="s">
         <v>321</v>
@@ -6524,7 +6500,7 @@
         <v>322</v>
       </c>
       <c r="I53" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="J53" t="s">
         <v>323</v>
@@ -6533,7 +6509,7 @@
         <v>320</v>
       </c>
       <c r="L53" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="M53" t="s">
         <v>324</v>
@@ -6542,7 +6518,7 @@
         <v>325</v>
       </c>
       <c r="R53" t="s">
-        <v>931</v>
+        <v>1146</v>
       </c>
       <c r="S53" t="s">
         <v>326</v>
@@ -6556,10 +6532,10 @@
         <v>364</v>
       </c>
       <c r="B54" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C54" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="D54" t="s">
         <v>365</v>
@@ -6568,7 +6544,7 @@
         <v>366</v>
       </c>
       <c r="F54" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="G54" t="s">
         <v>367</v>
@@ -6577,7 +6553,7 @@
         <v>368</v>
       </c>
       <c r="I54" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="J54" t="s">
         <v>365</v>
@@ -6586,7 +6562,7 @@
         <v>366</v>
       </c>
       <c r="L54" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="M54" t="s">
         <v>369</v>
@@ -6595,7 +6571,7 @@
         <v>370</v>
       </c>
       <c r="R54" t="s">
-        <v>937</v>
+        <v>1147</v>
       </c>
       <c r="S54" t="s">
         <v>309</v>
@@ -6609,10 +6585,10 @@
         <v>302</v>
       </c>
       <c r="B55" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C55" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="D55" t="s">
         <v>303</v>
@@ -6621,7 +6597,7 @@
         <v>304</v>
       </c>
       <c r="F55" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="G55" t="s">
         <v>305</v>
@@ -6630,7 +6606,7 @@
         <v>306</v>
       </c>
       <c r="I55" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="J55" t="s">
         <v>303</v>
@@ -6639,7 +6615,7 @@
         <v>304</v>
       </c>
       <c r="L55" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="M55" t="s">
         <v>307</v>
@@ -6648,7 +6624,7 @@
         <v>308</v>
       </c>
       <c r="R55" t="s">
-        <v>930</v>
+        <v>1148</v>
       </c>
       <c r="S55" t="s">
         <v>309</v>
@@ -6662,10 +6638,10 @@
         <v>603</v>
       </c>
       <c r="B56" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C56" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="D56" t="s">
         <v>604</v>
@@ -6674,7 +6650,7 @@
         <v>605</v>
       </c>
       <c r="F56" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="G56" t="s">
         <v>606</v>
@@ -6683,7 +6659,7 @@
         <v>607</v>
       </c>
       <c r="I56" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="J56" t="s">
         <v>608</v>
@@ -6694,108 +6670,108 @@
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>1043</v>
+        <v>962</v>
       </c>
       <c r="B57" t="s">
-        <v>1044</v>
+        <v>963</v>
       </c>
       <c r="C57" t="s">
-        <v>1093</v>
+        <v>1012</v>
       </c>
       <c r="D57" t="s">
-        <v>1045</v>
+        <v>964</v>
       </c>
       <c r="E57" t="s">
-        <v>1046</v>
+        <v>965</v>
       </c>
       <c r="F57" t="s">
-        <v>1099</v>
+        <v>1018</v>
       </c>
       <c r="G57" t="s">
-        <v>1047</v>
+        <v>966</v>
       </c>
       <c r="H57" t="s">
-        <v>1048</v>
+        <v>967</v>
       </c>
       <c r="I57" t="s">
-        <v>1093</v>
+        <v>1012</v>
       </c>
       <c r="J57" t="s">
-        <v>1045</v>
+        <v>964</v>
       </c>
       <c r="K57" t="s">
-        <v>1046</v>
+        <v>965</v>
       </c>
       <c r="L57" t="s">
-        <v>1146</v>
+        <v>1065</v>
       </c>
       <c r="M57" t="s">
-        <v>1049</v>
+        <v>968</v>
       </c>
       <c r="N57" t="s">
-        <v>1050</v>
+        <v>969</v>
       </c>
       <c r="R57" t="s">
-        <v>1134</v>
+        <v>1053</v>
       </c>
       <c r="S57" t="s">
-        <v>1051</v>
+        <v>970</v>
       </c>
       <c r="T57" t="s">
-        <v>1052</v>
+        <v>971</v>
       </c>
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>1067</v>
+        <v>986</v>
       </c>
       <c r="B58" t="s">
-        <v>1068</v>
+        <v>987</v>
       </c>
       <c r="C58" t="s">
-        <v>1095</v>
+        <v>1014</v>
       </c>
       <c r="D58" t="s">
-        <v>1069</v>
+        <v>988</v>
       </c>
       <c r="E58" t="s">
-        <v>1070</v>
+        <v>989</v>
       </c>
       <c r="F58" t="s">
-        <v>1102</v>
+        <v>1021</v>
       </c>
       <c r="G58" t="s">
-        <v>1071</v>
+        <v>990</v>
       </c>
       <c r="H58" t="s">
-        <v>1072</v>
+        <v>991</v>
       </c>
       <c r="I58" t="s">
-        <v>1095</v>
+        <v>1014</v>
       </c>
       <c r="J58" t="s">
-        <v>1069</v>
+        <v>988</v>
       </c>
       <c r="K58" t="s">
-        <v>1070</v>
+        <v>989</v>
       </c>
       <c r="L58" t="s">
-        <v>1147</v>
+        <v>1066</v>
       </c>
       <c r="M58" t="s">
-        <v>1073</v>
+        <v>992</v>
       </c>
       <c r="N58" t="s">
-        <v>1074</v>
+        <v>993</v>
       </c>
       <c r="R58" t="s">
-        <v>1134</v>
+        <v>1053</v>
       </c>
       <c r="S58" t="s">
-        <v>1051</v>
+        <v>970</v>
       </c>
       <c r="T58" t="s">
-        <v>1052</v>
+        <v>971</v>
       </c>
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.25">
@@ -6803,7 +6779,7 @@
         <v>40</v>
       </c>
       <c r="B59" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="C59" t="s">
         <v>41</v>
@@ -6815,7 +6791,7 @@
         <v>42</v>
       </c>
       <c r="F59" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="G59" t="s">
         <v>43</v>
@@ -6833,7 +6809,7 @@
         <v>42</v>
       </c>
       <c r="L59" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="M59" t="s">
         <v>45</v>
@@ -6842,7 +6818,7 @@
         <v>46</v>
       </c>
       <c r="R59" t="s">
-        <v>1141</v>
+        <v>1060</v>
       </c>
       <c r="S59" t="s">
         <v>47</v>
@@ -6856,10 +6832,10 @@
         <v>157</v>
       </c>
       <c r="B60" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C60" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="D60" t="s">
         <v>158</v>
@@ -6868,7 +6844,7 @@
         <v>159</v>
       </c>
       <c r="F60" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="G60" t="s">
         <v>160</v>
@@ -6877,7 +6853,7 @@
         <v>161</v>
       </c>
       <c r="I60" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="J60" t="s">
         <v>162</v>
@@ -6886,7 +6862,7 @@
         <v>163</v>
       </c>
       <c r="L60" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="M60" t="s">
         <v>164</v>
@@ -6895,7 +6871,7 @@
         <v>165</v>
       </c>
       <c r="R60" t="s">
-        <v>916</v>
+        <v>1149</v>
       </c>
       <c r="S60" t="s">
         <v>166</v>
@@ -6909,10 +6885,10 @@
         <v>572</v>
       </c>
       <c r="B61" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C61" t="s">
-        <v>1187</v>
+        <v>1106</v>
       </c>
       <c r="D61" t="s">
         <v>158</v>
@@ -6921,7 +6897,7 @@
         <v>573</v>
       </c>
       <c r="F61" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="G61" t="s">
         <v>574</v>
@@ -6944,10 +6920,10 @@
         <v>264</v>
       </c>
       <c r="B62" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C62" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="D62" t="s">
         <v>265</v>
@@ -6956,7 +6932,7 @@
         <v>266</v>
       </c>
       <c r="F62" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="G62" t="s">
         <v>267</v>
@@ -6965,7 +6941,7 @@
         <v>268</v>
       </c>
       <c r="I62" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="J62" t="s">
         <v>265</v>
@@ -6974,7 +6950,7 @@
         <v>266</v>
       </c>
       <c r="L62" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="M62" t="s">
         <v>269</v>
@@ -6983,7 +6959,7 @@
         <v>270</v>
       </c>
       <c r="R62" t="s">
-        <v>926</v>
+        <v>1150</v>
       </c>
       <c r="S62" t="s">
         <v>271</v>
@@ -6997,10 +6973,10 @@
         <v>380</v>
       </c>
       <c r="B63" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C63" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="D63" t="s">
         <v>381</v>
@@ -7009,7 +6985,7 @@
         <v>382</v>
       </c>
       <c r="F63" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="G63" t="s">
         <v>383</v>
@@ -7018,7 +6994,7 @@
         <v>384</v>
       </c>
       <c r="I63" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="J63" t="s">
         <v>381</v>
@@ -7027,7 +7003,7 @@
         <v>382</v>
       </c>
       <c r="L63" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="M63" t="s">
         <v>385</v>
@@ -7041,10 +7017,10 @@
         <v>354</v>
       </c>
       <c r="B64" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C64" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="D64" t="s">
         <v>355</v>
@@ -7053,7 +7029,7 @@
         <v>356</v>
       </c>
       <c r="F64" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="G64" t="s">
         <v>357</v>
@@ -7062,7 +7038,7 @@
         <v>358</v>
       </c>
       <c r="I64" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="J64" t="s">
         <v>359</v>
@@ -7071,7 +7047,7 @@
         <v>356</v>
       </c>
       <c r="L64" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="M64" t="s">
         <v>360</v>
@@ -7080,7 +7056,7 @@
         <v>361</v>
       </c>
       <c r="R64" t="s">
-        <v>933</v>
+        <v>1151</v>
       </c>
       <c r="S64" t="s">
         <v>362</v>
@@ -7094,10 +7070,10 @@
         <v>31</v>
       </c>
       <c r="B65" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C65" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="D65" t="s">
         <v>32</v>
@@ -7106,7 +7082,7 @@
         <v>33</v>
       </c>
       <c r="F65" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="G65" t="s">
         <v>34</v>
@@ -7115,7 +7091,7 @@
         <v>35</v>
       </c>
       <c r="I65" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="J65" t="s">
         <v>32</v>
@@ -7124,7 +7100,7 @@
         <v>33</v>
       </c>
       <c r="L65" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="M65" t="s">
         <v>36</v>
@@ -7133,7 +7109,7 @@
         <v>37</v>
       </c>
       <c r="R65" t="s">
-        <v>907</v>
+        <v>1152</v>
       </c>
       <c r="S65" t="s">
         <v>38</v>
@@ -7147,7 +7123,7 @@
         <v>610</v>
       </c>
       <c r="B66" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C66" t="s">
         <v>611</v>
@@ -7161,81 +7137,81 @@
     </row>
     <row r="67" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
+        <v>653</v>
+      </c>
+      <c r="B67" t="s">
+        <v>690</v>
+      </c>
+      <c r="C67" t="s">
+        <v>741</v>
+      </c>
+      <c r="D67" t="s">
         <v>654</v>
       </c>
-      <c r="B67" t="s">
-        <v>691</v>
-      </c>
-      <c r="C67" t="s">
-        <v>742</v>
-      </c>
-      <c r="D67" t="s">
+      <c r="E67" t="s">
         <v>655</v>
       </c>
-      <c r="E67" t="s">
+      <c r="F67" t="s">
+        <v>808</v>
+      </c>
+      <c r="G67" t="s">
         <v>656</v>
       </c>
-      <c r="F67" t="s">
-        <v>809</v>
-      </c>
-      <c r="G67" t="s">
+      <c r="H67" t="s">
         <v>657</v>
       </c>
-      <c r="H67" t="s">
+      <c r="L67" t="s">
+        <v>1153</v>
+      </c>
+      <c r="M67" t="s">
         <v>658</v>
       </c>
-      <c r="L67" t="s">
-        <v>900</v>
-      </c>
-      <c r="M67" t="s">
+      <c r="N67" t="s">
         <v>659</v>
       </c>
-      <c r="N67" t="s">
-        <v>660</v>
-      </c>
       <c r="R67" t="s">
-        <v>1137</v>
+        <v>1056</v>
       </c>
       <c r="S67" t="s">
+        <v>639</v>
+      </c>
+      <c r="T67" t="s">
         <v>640</v>
-      </c>
-      <c r="T67" t="s">
-        <v>641</v>
       </c>
     </row>
     <row r="68" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>1153</v>
+        <v>1072</v>
       </c>
       <c r="B68" t="s">
-        <v>1154</v>
+        <v>1073</v>
       </c>
       <c r="C68" t="s">
-        <v>1159</v>
+        <v>1078</v>
       </c>
       <c r="D68" t="s">
-        <v>1155</v>
+        <v>1074</v>
       </c>
       <c r="E68" t="s">
-        <v>1156</v>
+        <v>1075</v>
       </c>
       <c r="F68" t="s">
-        <v>1161</v>
+        <v>1080</v>
       </c>
       <c r="G68" t="s">
-        <v>1157</v>
+        <v>1076</v>
       </c>
       <c r="H68" t="s">
-        <v>1158</v>
+        <v>1077</v>
       </c>
       <c r="I68" t="s">
-        <v>1159</v>
+        <v>1078</v>
       </c>
       <c r="J68" t="s">
-        <v>1155</v>
+        <v>1074</v>
       </c>
       <c r="K68" t="s">
-        <v>1156</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="69" spans="1:20" x14ac:dyDescent="0.25">
@@ -7243,7 +7219,7 @@
         <v>416</v>
       </c>
       <c r="B69" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C69" t="s">
         <v>417</v>
@@ -7255,7 +7231,7 @@
         <v>418</v>
       </c>
       <c r="F69" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="G69" t="s">
         <v>419</v>
@@ -7273,7 +7249,7 @@
         <v>418</v>
       </c>
       <c r="L69" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="M69" t="s">
         <v>421</v>
@@ -7284,22 +7260,22 @@
     </row>
     <row r="70" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>1105</v>
+        <v>1024</v>
       </c>
       <c r="B70" t="s">
-        <v>1106</v>
+        <v>1025</v>
       </c>
       <c r="C70" t="s">
-        <v>1121</v>
+        <v>1040</v>
       </c>
       <c r="D70" t="s">
-        <v>1107</v>
+        <v>1026</v>
       </c>
       <c r="E70" t="s">
-        <v>1108</v>
+        <v>1027</v>
       </c>
       <c r="F70" t="s">
-        <v>1103</v>
+        <v>1022</v>
       </c>
       <c r="G70" t="s">
         <v>409</v>
@@ -7308,31 +7284,31 @@
         <v>410</v>
       </c>
       <c r="I70" t="s">
-        <v>1121</v>
+        <v>1040</v>
       </c>
       <c r="J70" t="s">
-        <v>1107</v>
+        <v>1026</v>
       </c>
       <c r="K70" t="s">
-        <v>1108</v>
+        <v>1027</v>
       </c>
       <c r="L70" t="s">
-        <v>1125</v>
+        <v>1044</v>
       </c>
       <c r="M70" t="s">
-        <v>1109</v>
+        <v>1028</v>
       </c>
       <c r="N70" t="s">
-        <v>1110</v>
+        <v>1029</v>
       </c>
       <c r="R70" t="s">
-        <v>1142</v>
+        <v>1061</v>
       </c>
       <c r="S70" t="s">
-        <v>1111</v>
+        <v>1030</v>
       </c>
       <c r="T70" t="s">
-        <v>1112</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="71" spans="1:20" x14ac:dyDescent="0.25">
@@ -7340,10 +7316,10 @@
         <v>593</v>
       </c>
       <c r="B71" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C71" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="D71" t="s">
         <v>594</v>
@@ -7352,7 +7328,7 @@
         <v>595</v>
       </c>
       <c r="I71" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="J71" t="s">
         <v>596</v>
@@ -7366,10 +7342,10 @@
         <v>618</v>
       </c>
       <c r="B72" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="C72" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="D72" t="s">
         <v>594</v>
@@ -7378,7 +7354,7 @@
         <v>595</v>
       </c>
       <c r="I72" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="J72" t="s">
         <v>619</v>
@@ -7392,10 +7368,10 @@
         <v>212</v>
       </c>
       <c r="B73" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C73" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="D73" t="s">
         <v>213</v>
@@ -7404,7 +7380,7 @@
         <v>214</v>
       </c>
       <c r="F73" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="G73" t="s">
         <v>215</v>
@@ -7413,7 +7389,7 @@
         <v>216</v>
       </c>
       <c r="I73" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="J73" t="s">
         <v>213</v>
@@ -7422,7 +7398,7 @@
         <v>214</v>
       </c>
       <c r="L73" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="M73" t="s">
         <v>217</v>
@@ -7431,7 +7407,7 @@
         <v>218</v>
       </c>
       <c r="R73" t="s">
-        <v>921</v>
+        <v>1154</v>
       </c>
       <c r="S73" t="s">
         <v>219</v>
@@ -7445,10 +7421,10 @@
         <v>130</v>
       </c>
       <c r="B74" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C74" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="D74" t="s">
         <v>131</v>
@@ -7457,7 +7433,7 @@
         <v>132</v>
       </c>
       <c r="F74" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="G74" t="s">
         <v>113</v>
@@ -7466,7 +7442,7 @@
         <v>114</v>
       </c>
       <c r="I74" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="J74" t="s">
         <v>133</v>
@@ -7475,7 +7451,7 @@
         <v>132</v>
       </c>
       <c r="L74" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="M74" t="s">
         <v>134</v>
@@ -7484,7 +7460,7 @@
         <v>135</v>
       </c>
       <c r="R74" t="s">
-        <v>913</v>
+        <v>1155</v>
       </c>
       <c r="S74" t="s">
         <v>136</v>
@@ -7498,10 +7474,10 @@
         <v>345</v>
       </c>
       <c r="B75" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C75" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="D75" t="s">
         <v>346</v>
@@ -7510,7 +7486,7 @@
         <v>347</v>
       </c>
       <c r="F75" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="G75" t="s">
         <v>348</v>
@@ -7519,7 +7495,7 @@
         <v>349</v>
       </c>
       <c r="I75" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="J75" t="s">
         <v>346</v>
@@ -7528,7 +7504,7 @@
         <v>347</v>
       </c>
       <c r="L75" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="M75" t="s">
         <v>350</v>
@@ -7537,7 +7513,7 @@
         <v>351</v>
       </c>
       <c r="R75" t="s">
-        <v>1140</v>
+        <v>1059</v>
       </c>
       <c r="S75" t="s">
         <v>352</v>
@@ -7548,72 +7524,72 @@
     </row>
     <row r="76" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>1113</v>
+        <v>1032</v>
       </c>
       <c r="B76" t="s">
-        <v>1106</v>
+        <v>1025</v>
       </c>
       <c r="C76" t="s">
-        <v>1180</v>
+        <v>1099</v>
       </c>
       <c r="D76" t="s">
-        <v>1114</v>
+        <v>1033</v>
       </c>
       <c r="E76" t="s">
-        <v>1115</v>
+        <v>1034</v>
       </c>
       <c r="I76" t="s">
-        <v>1122</v>
+        <v>1041</v>
       </c>
       <c r="J76" t="s">
-        <v>1114</v>
+        <v>1033</v>
       </c>
       <c r="K76" t="s">
-        <v>1115</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="77" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>963</v>
+        <v>911</v>
       </c>
       <c r="B77" t="s">
-        <v>949</v>
+        <v>897</v>
       </c>
       <c r="C77" t="s">
-        <v>973</v>
+        <v>918</v>
       </c>
       <c r="D77" t="s">
-        <v>973</v>
+        <v>918</v>
       </c>
       <c r="E77" t="s">
-        <v>965</v>
+        <v>913</v>
       </c>
       <c r="F77" t="s">
-        <v>977</v>
+        <v>919</v>
       </c>
       <c r="G77" t="s">
-        <v>966</v>
+        <v>914</v>
       </c>
       <c r="H77" t="s">
-        <v>967</v>
+        <v>915</v>
       </c>
       <c r="I77" t="s">
-        <v>973</v>
+        <v>918</v>
       </c>
       <c r="J77" t="s">
-        <v>964</v>
+        <v>912</v>
       </c>
       <c r="K77" t="s">
-        <v>965</v>
+        <v>913</v>
       </c>
       <c r="L77" t="s">
-        <v>1042</v>
+        <v>1156</v>
       </c>
       <c r="M77" t="s">
-        <v>968</v>
+        <v>916</v>
       </c>
       <c r="N77" t="s">
-        <v>969</v>
+        <v>917</v>
       </c>
     </row>
     <row r="78" spans="1:20" ht="30" x14ac:dyDescent="0.25">
@@ -7621,10 +7597,10 @@
         <v>58</v>
       </c>
       <c r="B78" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C78" t="s">
-        <v>1181</v>
+        <v>1100</v>
       </c>
       <c r="D78" t="s">
         <v>59</v>
@@ -7633,7 +7609,7 @@
         <v>60</v>
       </c>
       <c r="F78" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="G78" t="s">
         <v>61</v>
@@ -7642,7 +7618,7 @@
         <v>62</v>
       </c>
       <c r="I78" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="J78" t="s">
         <v>63</v>
@@ -7651,7 +7627,7 @@
         <v>64</v>
       </c>
       <c r="L78" s="2" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="M78" t="s">
         <v>65</v>
@@ -7660,7 +7636,7 @@
         <v>66</v>
       </c>
       <c r="O78" t="s">
-        <v>902</v>
+        <v>1157</v>
       </c>
       <c r="P78" t="s">
         <v>67</v>
@@ -7669,7 +7645,7 @@
         <v>68</v>
       </c>
       <c r="R78" t="s">
-        <v>932</v>
+        <v>1158</v>
       </c>
       <c r="S78" t="s">
         <v>69</v>
@@ -7683,10 +7659,10 @@
         <v>413</v>
       </c>
       <c r="B79" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C79" t="s">
-        <v>1182</v>
+        <v>1101</v>
       </c>
       <c r="D79" t="s">
         <v>414</v>
@@ -7695,7 +7671,7 @@
         <v>415</v>
       </c>
       <c r="F79" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="G79" t="s">
         <v>409</v>
@@ -7704,7 +7680,7 @@
         <v>410</v>
       </c>
       <c r="I79" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="J79" t="s">
         <v>414</v>
@@ -7713,7 +7689,7 @@
         <v>415</v>
       </c>
       <c r="L79" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="M79" t="s">
         <v>411</v>
@@ -7722,7 +7698,7 @@
         <v>412</v>
       </c>
       <c r="R79" t="s">
-        <v>935</v>
+        <v>1114</v>
       </c>
       <c r="S79" t="s">
         <v>404</v>
@@ -7736,10 +7712,10 @@
         <v>543</v>
       </c>
       <c r="B80" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="C80" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="D80" t="s">
         <v>544</v>
@@ -7748,7 +7724,7 @@
         <v>545</v>
       </c>
       <c r="F80" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="G80" t="s">
         <v>546</v>
@@ -7757,7 +7733,7 @@
         <v>547</v>
       </c>
       <c r="I80" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="J80" t="s">
         <v>548</v>
@@ -7766,7 +7742,7 @@
         <v>549</v>
       </c>
       <c r="L80" t="s">
-        <v>894</v>
+        <v>1159</v>
       </c>
       <c r="M80" t="s">
         <v>550</v>
@@ -7775,7 +7751,7 @@
         <v>551</v>
       </c>
       <c r="R80" t="s">
-        <v>945</v>
+        <v>1160</v>
       </c>
       <c r="S80" t="s">
         <v>552</v>
@@ -7786,55 +7762,55 @@
     </row>
     <row r="81" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>954</v>
+        <v>902</v>
       </c>
       <c r="B81" t="s">
-        <v>949</v>
+        <v>897</v>
       </c>
       <c r="C81" t="s">
-        <v>1144</v>
+        <v>1063</v>
       </c>
       <c r="D81" t="s">
-        <v>972</v>
+        <v>1063</v>
       </c>
       <c r="E81" t="s">
-        <v>956</v>
+        <v>904</v>
       </c>
       <c r="F81" t="s">
-        <v>976</v>
+        <v>1161</v>
       </c>
       <c r="G81" t="s">
-        <v>957</v>
+        <v>905</v>
       </c>
       <c r="H81" t="s">
-        <v>958</v>
+        <v>906</v>
       </c>
       <c r="I81" t="s">
-        <v>1144</v>
+        <v>1063</v>
       </c>
       <c r="J81" t="s">
-        <v>955</v>
+        <v>903</v>
       </c>
       <c r="K81" t="s">
-        <v>956</v>
+        <v>904</v>
       </c>
       <c r="L81" t="s">
-        <v>1041</v>
+        <v>1162</v>
       </c>
       <c r="M81" t="s">
-        <v>959</v>
+        <v>907</v>
       </c>
       <c r="N81" t="s">
-        <v>960</v>
+        <v>908</v>
       </c>
       <c r="R81" t="s">
-        <v>1128</v>
+        <v>1047</v>
       </c>
       <c r="S81" t="s">
-        <v>961</v>
+        <v>909</v>
       </c>
       <c r="T81" t="s">
-        <v>962</v>
+        <v>910</v>
       </c>
     </row>
     <row r="82" spans="1:20" x14ac:dyDescent="0.25">
@@ -7842,10 +7818,10 @@
         <v>273</v>
       </c>
       <c r="B82" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C82" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="D82" t="s">
         <v>274</v>
@@ -7854,7 +7830,7 @@
         <v>275</v>
       </c>
       <c r="F82" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="G82" t="s">
         <v>276</v>
@@ -7863,7 +7839,7 @@
         <v>277</v>
       </c>
       <c r="I82" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="J82" t="s">
         <v>274</v>
@@ -7872,7 +7848,7 @@
         <v>275</v>
       </c>
       <c r="L82" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="M82" t="s">
         <v>278</v>
@@ -7881,7 +7857,7 @@
         <v>279</v>
       </c>
       <c r="R82" t="s">
-        <v>927</v>
+        <v>1163</v>
       </c>
       <c r="S82" t="s">
         <v>280</v>
@@ -7892,22 +7868,22 @@
     </row>
     <row r="83" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>1059</v>
+        <v>978</v>
       </c>
       <c r="B83" t="s">
-        <v>1060</v>
+        <v>979</v>
       </c>
       <c r="C83" t="s">
-        <v>1094</v>
+        <v>1013</v>
       </c>
       <c r="D83" t="s">
-        <v>1061</v>
+        <v>980</v>
       </c>
       <c r="E83" t="s">
-        <v>1062</v>
+        <v>981</v>
       </c>
       <c r="F83" t="s">
-        <v>1101</v>
+        <v>1020</v>
       </c>
       <c r="G83" t="s">
         <v>400</v>
@@ -7916,31 +7892,31 @@
         <v>401</v>
       </c>
       <c r="I83" t="s">
-        <v>1094</v>
+        <v>1013</v>
       </c>
       <c r="J83" t="s">
-        <v>1061</v>
+        <v>980</v>
       </c>
       <c r="K83" t="s">
-        <v>1062</v>
+        <v>981</v>
       </c>
       <c r="L83" t="s">
-        <v>1149</v>
+        <v>1068</v>
       </c>
       <c r="M83" t="s">
-        <v>1063</v>
+        <v>982</v>
       </c>
       <c r="N83" t="s">
-        <v>1064</v>
+        <v>983</v>
       </c>
       <c r="R83" t="s">
-        <v>1135</v>
+        <v>1054</v>
       </c>
       <c r="S83" t="s">
-        <v>1065</v>
+        <v>984</v>
       </c>
       <c r="T83" t="s">
-        <v>1066</v>
+        <v>985</v>
       </c>
     </row>
     <row r="84" spans="1:20" x14ac:dyDescent="0.25">
@@ -7948,10 +7924,10 @@
         <v>237</v>
       </c>
       <c r="B84" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C84" t="s">
-        <v>1183</v>
+        <v>1102</v>
       </c>
       <c r="D84" t="s">
         <v>238</v>
@@ -7960,7 +7936,7 @@
         <v>239</v>
       </c>
       <c r="F84" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="G84" t="s">
         <v>240</v>
@@ -7969,7 +7945,7 @@
         <v>241</v>
       </c>
       <c r="I84" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="J84" t="s">
         <v>238</v>
@@ -7978,7 +7954,7 @@
         <v>239</v>
       </c>
       <c r="L84" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="M84" t="s">
         <v>242</v>
@@ -7987,7 +7963,7 @@
         <v>243</v>
       </c>
       <c r="R84" t="s">
-        <v>923</v>
+        <v>1164</v>
       </c>
       <c r="S84" t="s">
         <v>244</v>
@@ -8001,10 +7977,10 @@
         <v>237</v>
       </c>
       <c r="B85" t="s">
-        <v>983</v>
+        <v>925</v>
       </c>
       <c r="C85" t="s">
-        <v>1183</v>
+        <v>1102</v>
       </c>
       <c r="D85" t="s">
         <v>238</v>
@@ -8013,16 +7989,16 @@
         <v>239</v>
       </c>
       <c r="F85" t="s">
-        <v>1027</v>
+        <v>1165</v>
       </c>
       <c r="G85" t="s">
-        <v>984</v>
+        <v>926</v>
       </c>
       <c r="H85" t="s">
-        <v>985</v>
+        <v>927</v>
       </c>
       <c r="I85" t="s">
-        <v>1020</v>
+        <v>704</v>
       </c>
       <c r="J85" t="s">
         <v>238</v>
@@ -8031,7 +8007,7 @@
         <v>239</v>
       </c>
       <c r="L85" t="s">
-        <v>1033</v>
+        <v>1166</v>
       </c>
       <c r="M85" t="s">
         <v>242</v>
@@ -8040,7 +8016,7 @@
         <v>243</v>
       </c>
       <c r="R85" t="s">
-        <v>1129</v>
+        <v>1048</v>
       </c>
       <c r="S85" t="s">
         <v>244</v>
@@ -8054,10 +8030,10 @@
         <v>432</v>
       </c>
       <c r="B86" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C86" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="D86" t="s">
         <v>433</v>
@@ -8066,7 +8042,7 @@
         <v>434</v>
       </c>
       <c r="F86" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="G86" t="s">
         <v>435</v>
@@ -8075,7 +8051,7 @@
         <v>436</v>
       </c>
       <c r="I86" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="J86" t="s">
         <v>433</v>
@@ -8084,7 +8060,7 @@
         <v>434</v>
       </c>
       <c r="L86" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="M86" t="s">
         <v>437</v>
@@ -8098,10 +8074,10 @@
         <v>100</v>
       </c>
       <c r="B87" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C87" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="D87" t="s">
         <v>101</v>
@@ -8110,7 +8086,7 @@
         <v>102</v>
       </c>
       <c r="F87" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="G87" t="s">
         <v>103</v>
@@ -8119,7 +8095,7 @@
         <v>104</v>
       </c>
       <c r="I87" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="J87" t="s">
         <v>105</v>
@@ -8128,7 +8104,7 @@
         <v>102</v>
       </c>
       <c r="L87" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="M87" t="s">
         <v>106</v>
@@ -8137,7 +8113,7 @@
         <v>107</v>
       </c>
       <c r="R87" t="s">
-        <v>910</v>
+        <v>1167</v>
       </c>
       <c r="S87" t="s">
         <v>108</v>
@@ -8151,10 +8127,10 @@
         <v>584</v>
       </c>
       <c r="B88" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C88" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="D88" t="s">
         <v>101</v>
@@ -8163,7 +8139,7 @@
         <v>102</v>
       </c>
       <c r="F88" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="G88" t="s">
         <v>585</v>
@@ -8172,7 +8148,7 @@
         <v>586</v>
       </c>
       <c r="I88" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="J88" t="s">
         <v>587</v>
@@ -8181,7 +8157,7 @@
         <v>588</v>
       </c>
       <c r="L88" s="2" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="M88" t="s">
         <v>589</v>
@@ -8190,7 +8166,7 @@
         <v>590</v>
       </c>
       <c r="O88" t="s">
-        <v>905</v>
+        <v>1168</v>
       </c>
       <c r="P88" t="s">
         <v>591</v>
@@ -8204,10 +8180,10 @@
         <v>228</v>
       </c>
       <c r="B89" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C89" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="D89" t="s">
         <v>229</v>
@@ -8216,7 +8192,7 @@
         <v>230</v>
       </c>
       <c r="F89" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="G89" t="s">
         <v>231</v>
@@ -8225,7 +8201,7 @@
         <v>232</v>
       </c>
       <c r="I89" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="J89" t="s">
         <v>229</v>
@@ -8234,7 +8210,7 @@
         <v>230</v>
       </c>
       <c r="L89" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="M89" t="s">
         <v>233</v>
@@ -8243,7 +8219,7 @@
         <v>234</v>
       </c>
       <c r="R89" t="s">
-        <v>922</v>
+        <v>1169</v>
       </c>
       <c r="S89" t="s">
         <v>235</v>
@@ -8257,10 +8233,10 @@
         <v>577</v>
       </c>
       <c r="B90" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="C90" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="D90" t="s">
         <v>578</v>
@@ -8269,7 +8245,7 @@
         <v>579</v>
       </c>
       <c r="F90" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G90" t="s">
         <v>580</v>
@@ -8278,7 +8254,7 @@
         <v>581</v>
       </c>
       <c r="I90" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="J90" t="s">
         <v>582</v>
@@ -8292,10 +8268,10 @@
         <v>71</v>
       </c>
       <c r="B91" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C91" t="s">
-        <v>1184</v>
+        <v>1103</v>
       </c>
       <c r="D91" t="s">
         <v>72</v>
@@ -8304,7 +8280,7 @@
         <v>73</v>
       </c>
       <c r="F91" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="G91" t="s">
         <v>74</v>
@@ -8313,7 +8289,7 @@
         <v>75</v>
       </c>
       <c r="I91" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="J91" t="s">
         <v>76</v>
@@ -8322,7 +8298,7 @@
         <v>77</v>
       </c>
       <c r="L91" s="2" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="M91" t="s">
         <v>78</v>
@@ -8331,7 +8307,7 @@
         <v>79</v>
       </c>
       <c r="O91" t="s">
-        <v>903</v>
+        <v>1170</v>
       </c>
       <c r="P91" t="s">
         <v>80</v>
@@ -8345,10 +8321,10 @@
         <v>529</v>
       </c>
       <c r="B92" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="C92" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="D92" t="s">
         <v>530</v>
@@ -8357,7 +8333,7 @@
         <v>531</v>
       </c>
       <c r="F92" t="s">
-        <v>1026</v>
+        <v>1171</v>
       </c>
       <c r="G92" t="s">
         <v>532</v>
@@ -8366,7 +8342,7 @@
         <v>533</v>
       </c>
       <c r="I92" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="J92" t="s">
         <v>530</v>
@@ -8380,10 +8356,10 @@
         <v>20</v>
       </c>
       <c r="B93" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C93" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="D93" t="s">
         <v>21</v>
@@ -8392,7 +8368,7 @@
         <v>22</v>
       </c>
       <c r="F93" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="G93" t="s">
         <v>23</v>
@@ -8401,7 +8377,7 @@
         <v>24</v>
       </c>
       <c r="I93" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="J93" t="s">
         <v>25</v>
@@ -8410,7 +8386,7 @@
         <v>26</v>
       </c>
       <c r="L93" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="M93" t="s">
         <v>27</v>
@@ -8419,7 +8395,7 @@
         <v>28</v>
       </c>
       <c r="R93" t="s">
-        <v>906</v>
+        <v>1172</v>
       </c>
       <c r="S93" t="s">
         <v>29</v>
@@ -8433,10 +8409,10 @@
         <v>255</v>
       </c>
       <c r="B94" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C94" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="D94" t="s">
         <v>256</v>
@@ -8445,7 +8421,7 @@
         <v>257</v>
       </c>
       <c r="F94" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="G94" t="s">
         <v>258</v>
@@ -8454,7 +8430,7 @@
         <v>259</v>
       </c>
       <c r="I94" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="J94" t="s">
         <v>256</v>
@@ -8463,7 +8439,7 @@
         <v>257</v>
       </c>
       <c r="L94" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="M94" t="s">
         <v>260</v>
@@ -8472,7 +8448,7 @@
         <v>261</v>
       </c>
       <c r="R94" t="s">
-        <v>925</v>
+        <v>1173</v>
       </c>
       <c r="S94" t="s">
         <v>262</v>
@@ -8486,10 +8462,10 @@
         <v>500</v>
       </c>
       <c r="B95" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C95" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="D95" t="s">
         <v>501</v>
@@ -8498,7 +8474,7 @@
         <v>502</v>
       </c>
       <c r="I95" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="J95" t="s">
         <v>501</v>
@@ -8512,10 +8488,10 @@
         <v>110</v>
       </c>
       <c r="B96" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C96" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="D96" t="s">
         <v>111</v>
@@ -8524,7 +8500,7 @@
         <v>112</v>
       </c>
       <c r="F96" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="G96" t="s">
         <v>113</v>
@@ -8533,7 +8509,7 @@
         <v>114</v>
       </c>
       <c r="I96" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="J96" t="s">
         <v>115</v>
@@ -8542,7 +8518,7 @@
         <v>112</v>
       </c>
       <c r="L96" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="M96" t="s">
         <v>116</v>
@@ -8551,7 +8527,7 @@
         <v>117</v>
       </c>
       <c r="R96" t="s">
-        <v>911</v>
+        <v>1174</v>
       </c>
       <c r="S96" t="s">
         <v>118</v>
@@ -8562,19 +8538,19 @@
     </row>
     <row r="97" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>1079</v>
+        <v>998</v>
       </c>
       <c r="B97" t="s">
-        <v>1080</v>
+        <v>999</v>
       </c>
       <c r="C97" t="s">
-        <v>1097</v>
+        <v>1016</v>
       </c>
       <c r="D97" t="s">
-        <v>1082</v>
+        <v>1001</v>
       </c>
       <c r="E97" t="s">
-        <v>1081</v>
+        <v>1000</v>
       </c>
       <c r="I97" t="s">
         <v>576</v>
@@ -8591,10 +8567,10 @@
         <v>633</v>
       </c>
       <c r="B98" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="C98" t="s">
-        <v>1185</v>
+        <v>1104</v>
       </c>
       <c r="D98" t="s">
         <v>634</v>
@@ -8603,84 +8579,84 @@
         <v>635</v>
       </c>
       <c r="F98" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="G98" t="s">
+        <v>1175</v>
+      </c>
+      <c r="H98" t="s">
         <v>636</v>
       </c>
-      <c r="H98" t="s">
+      <c r="L98" t="s">
+        <v>1176</v>
+      </c>
+      <c r="M98" t="s">
         <v>637</v>
       </c>
-      <c r="L98" t="s">
-        <v>898</v>
-      </c>
-      <c r="M98" t="s">
+      <c r="N98" t="s">
         <v>638</v>
       </c>
-      <c r="N98" t="s">
+      <c r="R98" t="s">
+        <v>1129</v>
+      </c>
+      <c r="S98" t="s">
         <v>639</v>
       </c>
-      <c r="R98" t="s">
-        <v>946</v>
-      </c>
-      <c r="S98" t="s">
+      <c r="T98" t="s">
         <v>640</v>
-      </c>
-      <c r="T98" t="s">
-        <v>641</v>
       </c>
     </row>
     <row r="99" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>994</v>
+        <v>936</v>
       </c>
       <c r="B99" t="s">
-        <v>995</v>
+        <v>937</v>
       </c>
       <c r="C99" t="s">
-        <v>1186</v>
+        <v>1105</v>
       </c>
       <c r="D99" t="s">
-        <v>997</v>
+        <v>939</v>
       </c>
       <c r="E99" t="s">
-        <v>996</v>
+        <v>938</v>
       </c>
       <c r="F99" t="s">
-        <v>1029</v>
+        <v>1177</v>
       </c>
       <c r="G99" t="s">
-        <v>998</v>
+        <v>940</v>
       </c>
       <c r="H99" t="s">
-        <v>999</v>
+        <v>941</v>
       </c>
       <c r="I99" t="s">
-        <v>1022</v>
+        <v>1105</v>
       </c>
       <c r="J99" t="s">
-        <v>997</v>
+        <v>939</v>
       </c>
       <c r="K99" t="s">
-        <v>996</v>
+        <v>938</v>
       </c>
       <c r="L99" t="s">
-        <v>1035</v>
+        <v>1178</v>
       </c>
       <c r="M99" t="s">
-        <v>1000</v>
+        <v>942</v>
       </c>
       <c r="N99" t="s">
-        <v>1001</v>
+        <v>943</v>
       </c>
       <c r="R99" t="s">
-        <v>1130</v>
+        <v>1049</v>
       </c>
       <c r="S99" t="s">
-        <v>1002</v>
+        <v>944</v>
       </c>
       <c r="T99" t="s">
-        <v>1003</v>
+        <v>945</v>
       </c>
     </row>
     <row r="100" spans="1:20" x14ac:dyDescent="0.25">
@@ -8688,10 +8664,10 @@
         <v>439</v>
       </c>
       <c r="B100" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C100" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="D100" t="s">
         <v>440</v>
@@ -8700,7 +8676,7 @@
         <v>441</v>
       </c>
       <c r="F100" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="G100" t="s">
         <v>442</v>
@@ -8709,7 +8685,7 @@
         <v>443</v>
       </c>
       <c r="I100" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="J100" t="s">
         <v>440</v>
@@ -8718,7 +8694,7 @@
         <v>441</v>
       </c>
       <c r="L100" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="M100" t="s">
         <v>444</v>
@@ -8732,10 +8708,10 @@
         <v>503</v>
       </c>
       <c r="B101" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C101" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="D101" t="s">
         <v>504</v>
@@ -8744,7 +8720,7 @@
         <v>505</v>
       </c>
       <c r="F101" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="G101" t="s">
         <v>506</v>
@@ -8753,7 +8729,7 @@
         <v>507</v>
       </c>
       <c r="I101" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="J101" t="s">
         <v>504</v>
@@ -8762,7 +8738,7 @@
         <v>505</v>
       </c>
       <c r="L101" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="M101" t="s">
         <v>508</v>
@@ -8771,7 +8747,7 @@
         <v>509</v>
       </c>
       <c r="R101" t="s">
-        <v>942</v>
+        <v>1179</v>
       </c>
       <c r="S101" t="s">
         <v>510</v>
